--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="750">
   <si>
     <t>Name</t>
   </si>
@@ -2253,6 +2253,33 @@
   </si>
   <si>
     <t>10.5 mL/min kg</t>
+  </si>
+  <si>
+    <t>Antibiotic</t>
+  </si>
+  <si>
+    <t>Norepinephrine</t>
+  </si>
+  <si>
+    <t>169.18 g/mol</t>
+  </si>
+  <si>
+    <t>ChemData</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>25.0 mL/min kg</t>
+  </si>
+  <si>
+    <t>Johnston2004Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>Estimated from Table 1</t>
+  </si>
+  <si>
+    <t>0.008 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -4554,7 +4581,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="149" t="s">
         <v>555</v>
       </c>
@@ -4579,7 +4606,7 @@
       <c r="T20" s="156"/>
       <c r="U20" s="157"/>
     </row>
-    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="140" t="s">
         <v>587</v>
       </c>
@@ -4604,7 +4631,7 @@
       <c r="T21" s="152"/>
       <c r="U21" s="153"/>
     </row>
-    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="149" t="s">
         <v>552</v>
       </c>
@@ -4743,13 +4770,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FJ78"/>
+  <dimension ref="A1:FN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BR15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CX21" sqref="CX21"/>
+      <selection pane="bottomRight" activeCell="DH40" sqref="DH40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4847,62 +4874,66 @@
     <col min="107" max="107" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="108" max="108" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="109" max="109" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="13.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="112" max="112" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="113" max="113" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="114" max="114" width="14.33203125" style="106" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="116" max="117" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="118" max="118" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="13.77734375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="14.44140625" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="27.109375" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="20.109375" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="13.44140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="117" max="117" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="14.33203125" style="106" customWidth="1" collapsed="1"/>
     <col min="119" max="119" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="120" max="120" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="121" max="121" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="122" max="122" width="21.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="120" max="121" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="122" max="122" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="123" max="123" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="124" max="124" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="125" max="125" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="23.6640625" style="106" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="15.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="128" max="128" width="15.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="30.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="130" max="130" width="15.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="132" max="132" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="134" max="134" width="15.5546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="135" max="137" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="17.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="140" max="140" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="142" width="8.5546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="21.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="128" max="128" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="23.6640625" style="106" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="15.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="15.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="133" max="133" width="30.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="134" max="134" width="15.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="136" max="136" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="15.5546875" style="106" customWidth="1" collapsed="1"/>
+    <col min="139" max="141" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="17.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="143" max="143" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="144" max="144" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="145" max="145" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="146" max="146" width="11.88671875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="145" max="145" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="146" max="146" width="8.5546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="147" max="147" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="148" max="148" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="15.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="11.88671875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="151" max="151" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="152" max="152" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="153" max="153" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="19.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="15.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="155" max="155" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="156" max="156" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="19.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="22.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="19.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="159" max="159" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="160" max="160" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="22.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="26.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="165" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="20.5546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="16384" width="9.109375" style="29"/>
+    <col min="161" max="161" width="19.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="22.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="164" max="164" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="22.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="26.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="169" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="20.5546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64"/>
       <c r="B1" s="59"/>
       <c r="C1" s="103" t="s">
@@ -5174,7 +5205,7 @@
       <c r="DE1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="DF1" s="73"/>
+      <c r="DF1" s="112"/>
       <c r="DG1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5192,9 +5223,9 @@
         <v>354</v>
       </c>
       <c r="DM1" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN1" s="72"/>
+        <v>355</v>
+      </c>
+      <c r="DN1" s="73"/>
       <c r="DO1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5202,7 +5233,7 @@
         <v>354</v>
       </c>
       <c r="DQ1" s="112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR1" s="72"/>
       <c r="DS1" s="112" t="s">
@@ -5214,7 +5245,7 @@
       <c r="DU1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="DV1" s="112"/>
+      <c r="DV1" s="72"/>
       <c r="DW1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5224,7 +5255,7 @@
       <c r="DY1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="DZ1" s="72"/>
+      <c r="DZ1" s="112"/>
       <c r="EA1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5234,7 +5265,7 @@
       <c r="EC1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="ED1" s="112"/>
+      <c r="ED1" s="72"/>
       <c r="EE1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5244,14 +5275,14 @@
       <c r="EG1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="EH1" s="177"/>
-      <c r="EI1" s="178" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ1" s="178" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK1" s="178" t="s">
+      <c r="EH1" s="112"/>
+      <c r="EI1" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ1" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK1" s="112" t="s">
         <v>355</v>
       </c>
       <c r="EL1" s="177"/>
@@ -5264,14 +5295,14 @@
       <c r="EO1" s="178" t="s">
         <v>355</v>
       </c>
-      <c r="EP1" s="179"/>
-      <c r="EQ1" s="179" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER1" s="179" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES1" s="179" t="s">
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="178" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER1" s="178" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES1" s="178" t="s">
         <v>355</v>
       </c>
       <c r="ET1" s="179"/>
@@ -5314,9 +5345,19 @@
       <c r="FI1" s="179" t="s">
         <v>355</v>
       </c>
-      <c r="FJ1" s="177"/>
-    </row>
-    <row r="2" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ1" s="179"/>
+      <c r="FK1" s="179" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL1" s="179" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM1" s="179" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN1" s="177"/>
+    </row>
+    <row r="2" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -5645,178 +5686,190 @@
         <v>48</v>
       </c>
       <c r="DF2" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="DG2" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="DH2" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="DI2" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="DJ2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DG2" s="104" t="s">
+      <c r="DK2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DH2" s="104" t="s">
+      <c r="DL2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DI2" s="104" t="s">
+      <c r="DM2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DJ2" s="104" t="s">
+      <c r="DN2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DK2" s="104" t="s">
+      <c r="DO2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DL2" s="104" t="s">
+      <c r="DP2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DM2" s="104" t="s">
+      <c r="DQ2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DN2" s="104" t="s">
+      <c r="DR2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DO2" s="104" t="s">
+      <c r="DS2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DP2" s="104" t="s">
+      <c r="DT2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DQ2" s="104" t="s">
+      <c r="DU2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DR2" s="104" t="s">
+      <c r="DV2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DS2" s="104" t="s">
+      <c r="DW2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DT2" s="104" t="s">
+      <c r="DX2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DU2" s="104" t="s">
+      <c r="DY2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DV2" s="104" t="s">
+      <c r="DZ2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="DW2" s="104" t="s">
+      <c r="EA2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="DX2" s="104" t="s">
+      <c r="EB2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="DY2" s="104" t="s">
+      <c r="EC2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="DZ2" s="104" t="s">
+      <c r="ED2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EA2" s="104" t="s">
+      <c r="EE2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EB2" s="104" t="s">
+      <c r="EF2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EC2" s="104" t="s">
+      <c r="EG2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="ED2" s="104" t="s">
+      <c r="EH2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EE2" s="104" t="s">
+      <c r="EI2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EF2" s="104" t="s">
+      <c r="EJ2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EG2" s="104" t="s">
+      <c r="EK2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EH2" s="104" t="s">
+      <c r="EL2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EI2" s="104" t="s">
+      <c r="EM2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EJ2" s="104" t="s">
+      <c r="EN2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EK2" s="104" t="s">
+      <c r="EO2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EL2" s="104" t="s">
+      <c r="EP2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="EM2" s="104" t="s">
+      <c r="EQ2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="EN2" s="104" t="s">
+      <c r="ER2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="EO2" s="104" t="s">
+      <c r="ES2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="EP2" s="104" t="s">
+      <c r="ET2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="EQ2" s="104" t="s">
+      <c r="EU2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" s="104" t="s">
+      <c r="EV2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ES2" s="104" t="s">
+      <c r="EW2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ET2" s="109" t="s">
+      <c r="EX2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EU2" s="109" t="s">
+      <c r="EY2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EV2" s="109" t="s">
+      <c r="EZ2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EW2" s="109" t="s">
+      <c r="FA2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EX2" s="109" t="s">
+      <c r="FB2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="EY2" s="109" t="s">
+      <c r="FC2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="EZ2" s="109" t="s">
+      <c r="FD2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FA2" s="109" t="s">
+      <c r="FE2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FB2" s="109" t="s">
+      <c r="FF2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FC2" s="109" t="s">
+      <c r="FG2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FD2" s="109" t="s">
+      <c r="FH2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FE2" s="109" t="s">
+      <c r="FI2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FF2" s="109" t="s">
+      <c r="FJ2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FG2" s="109" t="s">
+      <c r="FK2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FH2" s="109" t="s">
+      <c r="FL2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FI2" s="109" t="s">
+      <c r="FM2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FJ2" s="104" t="s">
+      <c r="FN2" s="104" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>335</v>
       </c>
@@ -6090,16 +6143,10 @@
       <c r="DE3" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH3" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI3" s="113" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF3" s="200"/>
+      <c r="DG3" s="113"/>
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
       <c r="DJ3" s="62"/>
       <c r="DK3" s="113" t="s">
         <v>353</v>
@@ -6108,7 +6155,7 @@
         <v>354</v>
       </c>
       <c r="DM3" s="113" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DN3" s="62"/>
       <c r="DO3" s="113" t="s">
@@ -6118,7 +6165,7 @@
         <v>354</v>
       </c>
       <c r="DQ3" s="113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR3" s="62"/>
       <c r="DS3" s="113" t="s">
@@ -6130,34 +6177,34 @@
       <c r="DU3" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="DV3" s="113"/>
-      <c r="DW3" s="113"/>
-      <c r="DX3" s="113"/>
-      <c r="DY3" s="113"/>
-      <c r="DZ3" s="62"/>
-      <c r="EA3" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB3" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC3" s="113" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED3" s="200"/>
-      <c r="EE3" s="200"/>
-      <c r="EF3" s="200"/>
-      <c r="EG3" s="200"/>
-      <c r="EH3" s="180"/>
-      <c r="EI3" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ3" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK3" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV3" s="62"/>
+      <c r="DW3" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX3" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY3" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ3" s="113"/>
+      <c r="EA3" s="113"/>
+      <c r="EB3" s="113"/>
+      <c r="EC3" s="113"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF3" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG3" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH3" s="200"/>
+      <c r="EI3" s="200"/>
+      <c r="EJ3" s="200"/>
+      <c r="EK3" s="200"/>
       <c r="EL3" s="180"/>
       <c r="EM3" s="181" t="s">
         <v>353</v>
@@ -6168,14 +6215,14 @@
       <c r="EO3" s="181" t="s">
         <v>355</v>
       </c>
-      <c r="EP3" s="182"/>
-      <c r="EQ3" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER3" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES3" s="182" t="s">
+      <c r="EP3" s="180"/>
+      <c r="EQ3" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER3" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES3" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET3" s="182"/>
@@ -6218,9 +6265,19 @@
       <c r="FI3" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ3" s="183"/>
-    </row>
-    <row r="4" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ3" s="182"/>
+      <c r="FK3" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL3" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM3" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN3" s="183"/>
+    </row>
+    <row r="4" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -6434,12 +6491,12 @@
       <c r="EE4" s="115"/>
       <c r="EF4" s="115"/>
       <c r="EG4" s="115"/>
-      <c r="EH4" s="185" t="s">
+      <c r="EH4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="EI4" s="185"/>
-      <c r="EJ4" s="185"/>
-      <c r="EK4" s="185"/>
+      <c r="EI4" s="115"/>
+      <c r="EJ4" s="115"/>
+      <c r="EK4" s="115"/>
       <c r="EL4" s="185" t="s">
         <v>17</v>
       </c>
@@ -6447,11 +6504,11 @@
       <c r="EN4" s="185"/>
       <c r="EO4" s="185"/>
       <c r="EP4" s="185" t="s">
-        <v>23</v>
-      </c>
-      <c r="EQ4" s="186"/>
-      <c r="ER4" s="186"/>
-      <c r="ES4" s="186"/>
+        <v>17</v>
+      </c>
+      <c r="EQ4" s="185"/>
+      <c r="ER4" s="185"/>
+      <c r="ES4" s="185"/>
       <c r="ET4" s="185" t="s">
         <v>23</v>
       </c>
@@ -6477,10 +6534,16 @@
       <c r="FH4" s="186"/>
       <c r="FI4" s="186"/>
       <c r="FJ4" s="185" t="s">
+        <v>23</v>
+      </c>
+      <c r="FK4" s="186"/>
+      <c r="FL4" s="186"/>
+      <c r="FM4" s="186"/>
+      <c r="FN4" s="185" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>718</v>
       </c>
@@ -6612,19 +6675,17 @@
       <c r="DC5" s="115"/>
       <c r="DD5" s="115"/>
       <c r="DE5" s="115"/>
-      <c r="DF5" s="115" t="s">
-        <v>723</v>
-      </c>
+      <c r="DF5" s="115"/>
       <c r="DG5" s="115"/>
       <c r="DH5" s="115"/>
       <c r="DI5" s="115"/>
-      <c r="DJ5" s="115"/>
+      <c r="DJ5" s="115" t="s">
+        <v>723</v>
+      </c>
       <c r="DK5" s="115"/>
       <c r="DL5" s="115"/>
       <c r="DM5" s="115"/>
-      <c r="DN5" s="115" t="s">
-        <v>720</v>
-      </c>
+      <c r="DN5" s="115"/>
       <c r="DO5" s="115"/>
       <c r="DP5" s="115"/>
       <c r="DQ5" s="115"/>
@@ -6634,32 +6695,34 @@
       <c r="DS5" s="115"/>
       <c r="DT5" s="115"/>
       <c r="DU5" s="115"/>
-      <c r="DV5" s="115"/>
+      <c r="DV5" s="115" t="s">
+        <v>720</v>
+      </c>
       <c r="DW5" s="115"/>
       <c r="DX5" s="115"/>
       <c r="DY5" s="115"/>
-      <c r="DZ5" s="115" t="s">
-        <v>720</v>
-      </c>
+      <c r="DZ5" s="115"/>
       <c r="EA5" s="115"/>
       <c r="EB5" s="115"/>
       <c r="EC5" s="115"/>
-      <c r="ED5" s="115"/>
+      <c r="ED5" s="115" t="s">
+        <v>720</v>
+      </c>
       <c r="EE5" s="115"/>
       <c r="EF5" s="115"/>
       <c r="EG5" s="115"/>
-      <c r="EH5" s="185"/>
-      <c r="EI5" s="185"/>
-      <c r="EJ5" s="185"/>
-      <c r="EK5" s="185"/>
+      <c r="EH5" s="115"/>
+      <c r="EI5" s="115"/>
+      <c r="EJ5" s="115"/>
+      <c r="EK5" s="115"/>
       <c r="EL5" s="185"/>
       <c r="EM5" s="185"/>
       <c r="EN5" s="185"/>
       <c r="EO5" s="185"/>
       <c r="EP5" s="185"/>
-      <c r="EQ5" s="186"/>
-      <c r="ER5" s="186"/>
-      <c r="ES5" s="186"/>
+      <c r="EQ5" s="185"/>
+      <c r="ER5" s="185"/>
+      <c r="ES5" s="185"/>
       <c r="ET5" s="185"/>
       <c r="EU5" s="186"/>
       <c r="EV5" s="186"/>
@@ -6677,8 +6740,12 @@
       <c r="FH5" s="186"/>
       <c r="FI5" s="186"/>
       <c r="FJ5" s="185"/>
-    </row>
-    <row r="6" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK5" s="186"/>
+      <c r="FL5" s="186"/>
+      <c r="FM5" s="186"/>
+      <c r="FN5" s="185"/>
+    </row>
+    <row r="6" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
@@ -6822,13 +6889,13 @@
       <c r="DS6" s="115"/>
       <c r="DT6" s="115"/>
       <c r="DU6" s="115"/>
-      <c r="DV6" s="115" t="s">
-        <v>688</v>
-      </c>
+      <c r="DV6" s="115"/>
       <c r="DW6" s="115"/>
       <c r="DX6" s="115"/>
       <c r="DY6" s="115"/>
-      <c r="DZ6" s="115"/>
+      <c r="DZ6" s="115" t="s">
+        <v>688</v>
+      </c>
       <c r="EA6" s="115"/>
       <c r="EB6" s="115"/>
       <c r="EC6" s="115"/>
@@ -6836,18 +6903,18 @@
       <c r="EE6" s="115"/>
       <c r="EF6" s="115"/>
       <c r="EG6" s="115"/>
-      <c r="EH6" s="185"/>
-      <c r="EI6" s="185"/>
-      <c r="EJ6" s="185"/>
-      <c r="EK6" s="185"/>
+      <c r="EH6" s="115"/>
+      <c r="EI6" s="115"/>
+      <c r="EJ6" s="115"/>
+      <c r="EK6" s="115"/>
       <c r="EL6" s="185"/>
       <c r="EM6" s="185"/>
       <c r="EN6" s="185"/>
       <c r="EO6" s="185"/>
       <c r="EP6" s="185"/>
-      <c r="EQ6" s="186"/>
-      <c r="ER6" s="186"/>
-      <c r="ES6" s="186"/>
+      <c r="EQ6" s="185"/>
+      <c r="ER6" s="185"/>
+      <c r="ES6" s="185"/>
       <c r="ET6" s="185"/>
       <c r="EU6" s="186"/>
       <c r="EV6" s="186"/>
@@ -6865,8 +6932,12 @@
       <c r="FH6" s="186"/>
       <c r="FI6" s="186"/>
       <c r="FJ6" s="185"/>
-    </row>
-    <row r="7" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK6" s="186"/>
+      <c r="FL6" s="186"/>
+      <c r="FM6" s="186"/>
+      <c r="FN6" s="185"/>
+    </row>
+    <row r="7" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>540</v>
       </c>
@@ -7012,18 +7083,18 @@
       <c r="EE7" s="115"/>
       <c r="EF7" s="115"/>
       <c r="EG7" s="115"/>
-      <c r="EH7" s="185"/>
-      <c r="EI7" s="185"/>
-      <c r="EJ7" s="185"/>
-      <c r="EK7" s="185"/>
+      <c r="EH7" s="115"/>
+      <c r="EI7" s="115"/>
+      <c r="EJ7" s="115"/>
+      <c r="EK7" s="115"/>
       <c r="EL7" s="185"/>
       <c r="EM7" s="185"/>
       <c r="EN7" s="185"/>
       <c r="EO7" s="185"/>
       <c r="EP7" s="185"/>
-      <c r="EQ7" s="186"/>
-      <c r="ER7" s="186"/>
-      <c r="ES7" s="186"/>
+      <c r="EQ7" s="185"/>
+      <c r="ER7" s="185"/>
+      <c r="ES7" s="185"/>
       <c r="ET7" s="185"/>
       <c r="EU7" s="186"/>
       <c r="EV7" s="186"/>
@@ -7041,8 +7112,12 @@
       <c r="FH7" s="186"/>
       <c r="FI7" s="186"/>
       <c r="FJ7" s="185"/>
-    </row>
-    <row r="8" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK7" s="186"/>
+      <c r="FL7" s="186"/>
+      <c r="FM7" s="186"/>
+      <c r="FN7" s="185"/>
+    </row>
+    <row r="8" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>541</v>
       </c>
@@ -7188,18 +7263,18 @@
       <c r="EE8" s="115"/>
       <c r="EF8" s="115"/>
       <c r="EG8" s="115"/>
-      <c r="EH8" s="185"/>
-      <c r="EI8" s="185"/>
-      <c r="EJ8" s="185"/>
-      <c r="EK8" s="185"/>
+      <c r="EH8" s="115"/>
+      <c r="EI8" s="115"/>
+      <c r="EJ8" s="115"/>
+      <c r="EK8" s="115"/>
       <c r="EL8" s="185"/>
       <c r="EM8" s="185"/>
       <c r="EN8" s="185"/>
       <c r="EO8" s="185"/>
       <c r="EP8" s="185"/>
-      <c r="EQ8" s="186"/>
-      <c r="ER8" s="186"/>
-      <c r="ES8" s="186"/>
+      <c r="EQ8" s="185"/>
+      <c r="ER8" s="185"/>
+      <c r="ES8" s="185"/>
       <c r="ET8" s="185"/>
       <c r="EU8" s="186"/>
       <c r="EV8" s="186"/>
@@ -7217,8 +7292,12 @@
       <c r="FH8" s="186"/>
       <c r="FI8" s="186"/>
       <c r="FJ8" s="185"/>
-    </row>
-    <row r="9" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK8" s="186"/>
+      <c r="FL8" s="186"/>
+      <c r="FM8" s="186"/>
+      <c r="FN8" s="185"/>
+    </row>
+    <row r="9" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>715</v>
       </c>
@@ -7366,18 +7445,18 @@
       <c r="EE9" s="115"/>
       <c r="EF9" s="115"/>
       <c r="EG9" s="115"/>
-      <c r="EH9" s="185"/>
-      <c r="EI9" s="185"/>
-      <c r="EJ9" s="185"/>
-      <c r="EK9" s="185"/>
+      <c r="EH9" s="115"/>
+      <c r="EI9" s="115"/>
+      <c r="EJ9" s="115"/>
+      <c r="EK9" s="115"/>
       <c r="EL9" s="185"/>
       <c r="EM9" s="185"/>
       <c r="EN9" s="185"/>
       <c r="EO9" s="185"/>
       <c r="EP9" s="185"/>
-      <c r="EQ9" s="186"/>
-      <c r="ER9" s="186"/>
-      <c r="ES9" s="186"/>
+      <c r="EQ9" s="185"/>
+      <c r="ER9" s="185"/>
+      <c r="ES9" s="185"/>
       <c r="ET9" s="185"/>
       <c r="EU9" s="186"/>
       <c r="EV9" s="186"/>
@@ -7395,8 +7474,12 @@
       <c r="FH9" s="186"/>
       <c r="FI9" s="186"/>
       <c r="FJ9" s="185"/>
-    </row>
-    <row r="10" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK9" s="186"/>
+      <c r="FL9" s="186"/>
+      <c r="FM9" s="186"/>
+      <c r="FN9" s="185"/>
+    </row>
+    <row r="10" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>43</v>
       </c>
@@ -7563,90 +7646,96 @@
       <c r="DD10" s="115"/>
       <c r="DE10" s="115"/>
       <c r="DF10" s="115" t="s">
-        <v>126</v>
+        <v>743</v>
       </c>
       <c r="DG10" s="115"/>
       <c r="DH10" s="115"/>
       <c r="DI10" s="115"/>
       <c r="DJ10" s="115" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="DK10" s="115"/>
       <c r="DL10" s="115"/>
       <c r="DM10" s="115"/>
       <c r="DN10" s="115" t="s">
-        <v>693</v>
+        <v>120</v>
       </c>
       <c r="DO10" s="115"/>
       <c r="DP10" s="115"/>
       <c r="DQ10" s="115"/>
       <c r="DR10" s="115" t="s">
-        <v>122</v>
+        <v>693</v>
       </c>
       <c r="DS10" s="115"/>
       <c r="DT10" s="115"/>
       <c r="DU10" s="115"/>
       <c r="DV10" s="115" t="s">
-        <v>689</v>
+        <v>122</v>
       </c>
       <c r="DW10" s="115"/>
       <c r="DX10" s="115"/>
       <c r="DY10" s="115"/>
       <c r="DZ10" s="115" t="s">
-        <v>116</v>
+        <v>689</v>
       </c>
       <c r="EA10" s="115"/>
       <c r="EB10" s="115"/>
       <c r="EC10" s="115"/>
       <c r="ED10" s="115" t="s">
-        <v>735</v>
+        <v>116</v>
       </c>
       <c r="EE10" s="115"/>
       <c r="EF10" s="115"/>
       <c r="EG10" s="115"/>
-      <c r="EH10" s="185" t="s">
+      <c r="EH10" s="115" t="s">
+        <v>735</v>
+      </c>
+      <c r="EI10" s="115"/>
+      <c r="EJ10" s="115"/>
+      <c r="EK10" s="115"/>
+      <c r="EL10" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="EI10" s="185"/>
-      <c r="EJ10" s="185"/>
-      <c r="EK10" s="185"/>
-      <c r="EL10" s="185"/>
       <c r="EM10" s="185"/>
       <c r="EN10" s="185"/>
       <c r="EO10" s="185"/>
-      <c r="EP10" s="185" t="s">
+      <c r="EP10" s="185"/>
+      <c r="EQ10" s="185"/>
+      <c r="ER10" s="185"/>
+      <c r="ES10" s="185"/>
+      <c r="ET10" s="185" t="s">
         <v>24</v>
-      </c>
-      <c r="EQ10" s="186"/>
-      <c r="ER10" s="186"/>
-      <c r="ES10" s="186"/>
-      <c r="ET10" s="185" t="s">
-        <v>287</v>
       </c>
       <c r="EU10" s="186"/>
       <c r="EV10" s="186"/>
       <c r="EW10" s="186"/>
       <c r="EX10" s="185" t="s">
-        <v>651</v>
+        <v>287</v>
       </c>
       <c r="EY10" s="186"/>
       <c r="EZ10" s="186"/>
       <c r="FA10" s="186"/>
       <c r="FB10" s="185" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
       <c r="FC10" s="186"/>
       <c r="FD10" s="186"/>
       <c r="FE10" s="186"/>
       <c r="FF10" s="185" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="FG10" s="186"/>
       <c r="FH10" s="186"/>
       <c r="FI10" s="186"/>
-      <c r="FJ10" s="185"/>
-    </row>
-    <row r="11" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ10" s="185" t="s">
+        <v>288</v>
+      </c>
+      <c r="FK10" s="186"/>
+      <c r="FL10" s="186"/>
+      <c r="FM10" s="186"/>
+      <c r="FN10" s="185"/>
+    </row>
+    <row r="11" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>74</v>
       </c>
@@ -7798,18 +7887,18 @@
       <c r="EE11" s="115"/>
       <c r="EF11" s="115"/>
       <c r="EG11" s="115"/>
-      <c r="EH11" s="185"/>
-      <c r="EI11" s="185"/>
-      <c r="EJ11" s="185"/>
-      <c r="EK11" s="185"/>
+      <c r="EH11" s="115"/>
+      <c r="EI11" s="115"/>
+      <c r="EJ11" s="115"/>
+      <c r="EK11" s="115"/>
       <c r="EL11" s="185"/>
       <c r="EM11" s="185"/>
       <c r="EN11" s="185"/>
       <c r="EO11" s="185"/>
       <c r="EP11" s="185"/>
-      <c r="EQ11" s="186"/>
-      <c r="ER11" s="186"/>
-      <c r="ES11" s="186"/>
+      <c r="EQ11" s="185"/>
+      <c r="ER11" s="185"/>
+      <c r="ES11" s="185"/>
       <c r="ET11" s="185"/>
       <c r="EU11" s="186"/>
       <c r="EV11" s="186"/>
@@ -7827,8 +7916,12 @@
       <c r="FH11" s="186"/>
       <c r="FI11" s="186"/>
       <c r="FJ11" s="185"/>
-    </row>
-    <row r="12" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK11" s="186"/>
+      <c r="FL11" s="186"/>
+      <c r="FM11" s="186"/>
+      <c r="FN11" s="185"/>
+    </row>
+    <row r="12" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>73</v>
       </c>
@@ -7986,18 +8079,18 @@
       <c r="EE12" s="115"/>
       <c r="EF12" s="115"/>
       <c r="EG12" s="115"/>
-      <c r="EH12" s="185"/>
-      <c r="EI12" s="185"/>
-      <c r="EJ12" s="185"/>
-      <c r="EK12" s="185"/>
+      <c r="EH12" s="115"/>
+      <c r="EI12" s="115"/>
+      <c r="EJ12" s="115"/>
+      <c r="EK12" s="115"/>
       <c r="EL12" s="185"/>
       <c r="EM12" s="185"/>
       <c r="EN12" s="185"/>
       <c r="EO12" s="185"/>
       <c r="EP12" s="185"/>
-      <c r="EQ12" s="186"/>
-      <c r="ER12" s="186"/>
-      <c r="ES12" s="186"/>
+      <c r="EQ12" s="185"/>
+      <c r="ER12" s="185"/>
+      <c r="ES12" s="185"/>
       <c r="ET12" s="185"/>
       <c r="EU12" s="186"/>
       <c r="EV12" s="186"/>
@@ -8015,8 +8108,12 @@
       <c r="FH12" s="186"/>
       <c r="FI12" s="186"/>
       <c r="FJ12" s="185"/>
-    </row>
-    <row r="13" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK12" s="186"/>
+      <c r="FL12" s="186"/>
+      <c r="FM12" s="186"/>
+      <c r="FN12" s="185"/>
+    </row>
+    <row r="13" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86" t="s">
         <v>331</v>
       </c>
@@ -8292,16 +8389,10 @@
       <c r="DE13" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF13" s="75"/>
-      <c r="DG13" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI13" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF13" s="114"/>
+      <c r="DG13" s="114"/>
+      <c r="DH13" s="114"/>
+      <c r="DI13" s="114"/>
       <c r="DJ13" s="75"/>
       <c r="DK13" s="114" t="s">
         <v>353</v>
@@ -8310,9 +8401,9 @@
         <v>354</v>
       </c>
       <c r="DM13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN13" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN13" s="75"/>
       <c r="DO13" s="114" t="s">
         <v>353</v>
       </c>
@@ -8320,7 +8411,7 @@
         <v>354</v>
       </c>
       <c r="DQ13" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR13" s="116"/>
       <c r="DS13" s="114" t="s">
@@ -8332,34 +8423,34 @@
       <c r="DU13" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV13" s="114"/>
-      <c r="DW13" s="114"/>
-      <c r="DX13" s="114"/>
-      <c r="DY13" s="114"/>
-      <c r="DZ13" s="116"/>
-      <c r="EA13" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC13" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED13" s="114"/>
-      <c r="EE13" s="114"/>
-      <c r="EF13" s="114"/>
-      <c r="EG13" s="114"/>
-      <c r="EH13" s="182"/>
-      <c r="EI13" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ13" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK13" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV13" s="116"/>
+      <c r="DW13" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX13" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY13" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ13" s="114"/>
+      <c r="EA13" s="114"/>
+      <c r="EB13" s="114"/>
+      <c r="EC13" s="114"/>
+      <c r="ED13" s="116"/>
+      <c r="EE13" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF13" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG13" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH13" s="114"/>
+      <c r="EI13" s="114"/>
+      <c r="EJ13" s="114"/>
+      <c r="EK13" s="114"/>
       <c r="EL13" s="182"/>
       <c r="EM13" s="181" t="s">
         <v>353</v>
@@ -8371,13 +8462,13 @@
         <v>355</v>
       </c>
       <c r="EP13" s="182"/>
-      <c r="EQ13" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER13" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES13" s="182" t="s">
+      <c r="EQ13" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER13" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES13" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET13" s="182"/>
@@ -8420,9 +8511,19 @@
       <c r="FI13" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ13" s="177"/>
-    </row>
-    <row r="14" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ13" s="182"/>
+      <c r="FK13" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL13" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM13" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN13" s="177"/>
+    </row>
+    <row r="14" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>655</v>
       </c>
@@ -8536,7 +8637,7 @@
       <c r="DC14" s="119"/>
       <c r="DD14" s="119"/>
       <c r="DE14" s="119"/>
-      <c r="DF14" s="119"/>
+      <c r="DF14" s="161"/>
       <c r="DG14" s="119"/>
       <c r="DH14" s="119"/>
       <c r="DI14" s="119"/>
@@ -8552,24 +8653,24 @@
       <c r="DS14" s="119"/>
       <c r="DT14" s="119"/>
       <c r="DU14" s="119"/>
-      <c r="DV14" s="119">
-        <v>0</v>
-      </c>
+      <c r="DV14" s="119"/>
       <c r="DW14" s="119"/>
       <c r="DX14" s="119"/>
       <c r="DY14" s="119"/>
-      <c r="DZ14" s="119"/>
-      <c r="EA14" s="161"/>
-      <c r="EB14" s="161"/>
-      <c r="EC14" s="161"/>
-      <c r="ED14" s="161"/>
+      <c r="DZ14" s="119">
+        <v>0</v>
+      </c>
+      <c r="EA14" s="119"/>
+      <c r="EB14" s="119"/>
+      <c r="EC14" s="119"/>
+      <c r="ED14" s="119"/>
       <c r="EE14" s="161"/>
       <c r="EF14" s="161"/>
       <c r="EG14" s="161"/>
-      <c r="EH14" s="185"/>
-      <c r="EI14" s="185"/>
-      <c r="EJ14" s="185"/>
-      <c r="EK14" s="185"/>
+      <c r="EH14" s="161"/>
+      <c r="EI14" s="161"/>
+      <c r="EJ14" s="161"/>
+      <c r="EK14" s="161"/>
       <c r="EL14" s="185"/>
       <c r="EM14" s="185"/>
       <c r="EN14" s="185"/>
@@ -8594,11 +8695,15 @@
       <c r="FG14" s="185"/>
       <c r="FH14" s="185"/>
       <c r="FI14" s="185"/>
-      <c r="FJ14" s="185">
+      <c r="FJ14" s="185"/>
+      <c r="FK14" s="185"/>
+      <c r="FL14" s="185"/>
+      <c r="FM14" s="185"/>
+      <c r="FN14" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>642</v>
       </c>
@@ -8712,7 +8817,7 @@
       <c r="DC15" s="119"/>
       <c r="DD15" s="119"/>
       <c r="DE15" s="119"/>
-      <c r="DF15" s="119"/>
+      <c r="DF15" s="161"/>
       <c r="DG15" s="119"/>
       <c r="DH15" s="119"/>
       <c r="DI15" s="119"/>
@@ -8728,24 +8833,24 @@
       <c r="DS15" s="119"/>
       <c r="DT15" s="119"/>
       <c r="DU15" s="119"/>
-      <c r="DV15" s="119">
-        <v>1</v>
-      </c>
+      <c r="DV15" s="119"/>
       <c r="DW15" s="119"/>
       <c r="DX15" s="119"/>
       <c r="DY15" s="119"/>
-      <c r="DZ15" s="119"/>
-      <c r="EA15" s="161"/>
-      <c r="EB15" s="161"/>
-      <c r="EC15" s="161"/>
-      <c r="ED15" s="161"/>
+      <c r="DZ15" s="119">
+        <v>1</v>
+      </c>
+      <c r="EA15" s="119"/>
+      <c r="EB15" s="119"/>
+      <c r="EC15" s="119"/>
+      <c r="ED15" s="119"/>
       <c r="EE15" s="161"/>
       <c r="EF15" s="161"/>
       <c r="EG15" s="161"/>
-      <c r="EH15" s="185"/>
-      <c r="EI15" s="185"/>
-      <c r="EJ15" s="185"/>
-      <c r="EK15" s="185"/>
+      <c r="EH15" s="161"/>
+      <c r="EI15" s="161"/>
+      <c r="EJ15" s="161"/>
+      <c r="EK15" s="161"/>
       <c r="EL15" s="185"/>
       <c r="EM15" s="185"/>
       <c r="EN15" s="185"/>
@@ -8770,11 +8875,15 @@
       <c r="FG15" s="185"/>
       <c r="FH15" s="185"/>
       <c r="FI15" s="185"/>
-      <c r="FJ15" s="185">
+      <c r="FJ15" s="185"/>
+      <c r="FK15" s="185"/>
+      <c r="FL15" s="185"/>
+      <c r="FM15" s="185"/>
+      <c r="FN15" s="185">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:166" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:170" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>612</v>
       </c>
@@ -8888,7 +8997,7 @@
       <c r="DC16" s="119"/>
       <c r="DD16" s="119"/>
       <c r="DE16" s="119"/>
-      <c r="DF16" s="119"/>
+      <c r="DF16" s="161"/>
       <c r="DG16" s="119"/>
       <c r="DH16" s="119"/>
       <c r="DI16" s="119"/>
@@ -8904,24 +9013,24 @@
       <c r="DS16" s="119"/>
       <c r="DT16" s="119"/>
       <c r="DU16" s="119"/>
-      <c r="DV16" s="191" t="s">
-        <v>706</v>
-      </c>
+      <c r="DV16" s="119"/>
       <c r="DW16" s="119"/>
       <c r="DX16" s="119"/>
       <c r="DY16" s="119"/>
-      <c r="DZ16" s="119"/>
-      <c r="EA16" s="161"/>
-      <c r="EB16" s="161"/>
-      <c r="EC16" s="161"/>
-      <c r="ED16" s="161"/>
+      <c r="DZ16" s="191" t="s">
+        <v>706</v>
+      </c>
+      <c r="EA16" s="119"/>
+      <c r="EB16" s="119"/>
+      <c r="EC16" s="119"/>
+      <c r="ED16" s="119"/>
       <c r="EE16" s="161"/>
       <c r="EF16" s="161"/>
       <c r="EG16" s="161"/>
-      <c r="EH16" s="185"/>
-      <c r="EI16" s="185"/>
-      <c r="EJ16" s="185"/>
-      <c r="EK16" s="185"/>
+      <c r="EH16" s="161"/>
+      <c r="EI16" s="161"/>
+      <c r="EJ16" s="161"/>
+      <c r="EK16" s="161"/>
       <c r="EL16" s="185"/>
       <c r="EM16" s="185"/>
       <c r="EN16" s="185"/>
@@ -8946,11 +9055,15 @@
       <c r="FG16" s="185"/>
       <c r="FH16" s="185"/>
       <c r="FI16" s="185"/>
-      <c r="FJ16" s="187" t="s">
+      <c r="FJ16" s="185"/>
+      <c r="FK16" s="185"/>
+      <c r="FL16" s="185"/>
+      <c r="FM16" s="185"/>
+      <c r="FN16" s="187" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="86" t="s">
         <v>332</v>
       </c>
@@ -9226,16 +9339,10 @@
       <c r="DE17" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF17" s="75"/>
-      <c r="DG17" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI17" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF17" s="114"/>
+      <c r="DG17" s="114"/>
+      <c r="DH17" s="114"/>
+      <c r="DI17" s="114"/>
       <c r="DJ17" s="75"/>
       <c r="DK17" s="114" t="s">
         <v>353</v>
@@ -9244,9 +9351,9 @@
         <v>354</v>
       </c>
       <c r="DM17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN17" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN17" s="75"/>
       <c r="DO17" s="114" t="s">
         <v>353</v>
       </c>
@@ -9254,7 +9361,7 @@
         <v>354</v>
       </c>
       <c r="DQ17" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR17" s="116"/>
       <c r="DS17" s="114" t="s">
@@ -9266,34 +9373,34 @@
       <c r="DU17" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV17" s="114"/>
-      <c r="DW17" s="114"/>
-      <c r="DX17" s="114"/>
-      <c r="DY17" s="114"/>
-      <c r="DZ17" s="116"/>
-      <c r="EA17" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC17" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED17" s="114"/>
-      <c r="EE17" s="114"/>
-      <c r="EF17" s="114"/>
-      <c r="EG17" s="114"/>
-      <c r="EH17" s="182"/>
-      <c r="EI17" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ17" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK17" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV17" s="116"/>
+      <c r="DW17" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX17" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY17" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ17" s="114"/>
+      <c r="EA17" s="114"/>
+      <c r="EB17" s="114"/>
+      <c r="EC17" s="114"/>
+      <c r="ED17" s="116"/>
+      <c r="EE17" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF17" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG17" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH17" s="114"/>
+      <c r="EI17" s="114"/>
+      <c r="EJ17" s="114"/>
+      <c r="EK17" s="114"/>
       <c r="EL17" s="182"/>
       <c r="EM17" s="181" t="s">
         <v>353</v>
@@ -9305,13 +9412,13 @@
         <v>355</v>
       </c>
       <c r="EP17" s="182"/>
-      <c r="EQ17" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER17" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES17" s="182" t="s">
+      <c r="EQ17" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER17" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES17" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET17" s="182"/>
@@ -9354,9 +9461,19 @@
       <c r="FI17" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ17" s="177"/>
-    </row>
-    <row r="18" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ17" s="182"/>
+      <c r="FK17" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL17" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM17" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN17" s="177"/>
+    </row>
+    <row r="18" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>94</v>
       </c>
@@ -9507,19 +9624,19 @@
       <c r="DL18" s="115"/>
       <c r="DM18" s="115"/>
       <c r="DN18" s="115">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="DO18" s="115"/>
       <c r="DP18" s="115"/>
       <c r="DQ18" s="115"/>
       <c r="DR18" s="115">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="DS18" s="115"/>
       <c r="DT18" s="115"/>
       <c r="DU18" s="115"/>
       <c r="DV18" s="115">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DW18" s="115"/>
       <c r="DX18" s="115"/>
@@ -9536,20 +9653,22 @@
       <c r="EE18" s="115"/>
       <c r="EF18" s="115"/>
       <c r="EG18" s="115"/>
-      <c r="EH18" s="185">
+      <c r="EH18" s="115">
         <v>0</v>
       </c>
-      <c r="EI18" s="185"/>
-      <c r="EJ18" s="185"/>
-      <c r="EK18" s="185"/>
-      <c r="EL18" s="185"/>
+      <c r="EI18" s="115"/>
+      <c r="EJ18" s="115"/>
+      <c r="EK18" s="115"/>
+      <c r="EL18" s="185">
+        <v>0</v>
+      </c>
       <c r="EM18" s="185"/>
       <c r="EN18" s="185"/>
       <c r="EO18" s="185"/>
       <c r="EP18" s="185"/>
-      <c r="EQ18" s="186"/>
-      <c r="ER18" s="186"/>
-      <c r="ES18" s="186"/>
+      <c r="EQ18" s="185"/>
+      <c r="ER18" s="185"/>
+      <c r="ES18" s="185"/>
       <c r="ET18" s="185"/>
       <c r="EU18" s="186"/>
       <c r="EV18" s="186"/>
@@ -9567,8 +9686,12 @@
       <c r="FH18" s="186"/>
       <c r="FI18" s="186"/>
       <c r="FJ18" s="185"/>
-    </row>
-    <row r="19" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK18" s="186"/>
+      <c r="FL18" s="186"/>
+      <c r="FM18" s="186"/>
+      <c r="FN18" s="185"/>
+    </row>
+    <row r="19" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>90</v>
       </c>
@@ -9713,61 +9836,63 @@
       <c r="DD19" s="115"/>
       <c r="DE19" s="115"/>
       <c r="DF19" s="115">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="DG19" s="115"/>
       <c r="DH19" s="115"/>
       <c r="DI19" s="115"/>
       <c r="DJ19" s="115">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="DK19" s="115"/>
       <c r="DL19" s="115"/>
       <c r="DM19" s="115"/>
       <c r="DN19" s="115">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="DO19" s="115"/>
       <c r="DP19" s="115"/>
       <c r="DQ19" s="115"/>
       <c r="DR19" s="115">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="DS19" s="115"/>
       <c r="DT19" s="115"/>
       <c r="DU19" s="115"/>
       <c r="DV19" s="115">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="DW19" s="115"/>
       <c r="DX19" s="115"/>
       <c r="DY19" s="115"/>
       <c r="DZ19" s="115">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="EA19" s="115"/>
       <c r="EB19" s="115"/>
       <c r="EC19" s="115"/>
       <c r="ED19" s="115">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="EE19" s="115"/>
       <c r="EF19" s="115"/>
       <c r="EG19" s="115"/>
-      <c r="EH19" s="188">
+      <c r="EH19" s="115">
+        <v>0.99</v>
+      </c>
+      <c r="EI19" s="115"/>
+      <c r="EJ19" s="115"/>
+      <c r="EK19" s="115"/>
+      <c r="EL19" s="188">
         <v>1</v>
       </c>
-      <c r="EI19" s="185"/>
-      <c r="EJ19" s="185"/>
-      <c r="EK19" s="185"/>
-      <c r="EL19" s="185"/>
       <c r="EM19" s="185"/>
       <c r="EN19" s="185"/>
       <c r="EO19" s="185"/>
       <c r="EP19" s="185"/>
-      <c r="EQ19" s="186"/>
-      <c r="ER19" s="186"/>
-      <c r="ES19" s="186"/>
+      <c r="EQ19" s="185"/>
+      <c r="ER19" s="185"/>
+      <c r="ES19" s="185"/>
       <c r="ET19" s="185"/>
       <c r="EU19" s="186"/>
       <c r="EV19" s="186"/>
@@ -9785,8 +9910,12 @@
       <c r="FH19" s="186"/>
       <c r="FI19" s="186"/>
       <c r="FJ19" s="185"/>
-    </row>
-    <row r="20" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK19" s="186"/>
+      <c r="FL19" s="186"/>
+      <c r="FM19" s="186"/>
+      <c r="FN19" s="185"/>
+    </row>
+    <row r="20" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>92</v>
       </c>
@@ -9925,61 +10054,63 @@
       <c r="DD20" s="115"/>
       <c r="DE20" s="115"/>
       <c r="DF20" s="115" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="DG20" s="115"/>
       <c r="DH20" s="115"/>
       <c r="DI20" s="115"/>
       <c r="DJ20" s="115" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="DK20" s="115"/>
       <c r="DL20" s="115"/>
       <c r="DM20" s="115"/>
       <c r="DN20" s="115" t="s">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="DO20" s="115"/>
       <c r="DP20" s="115"/>
       <c r="DQ20" s="115"/>
       <c r="DR20" s="115" t="s">
-        <v>352</v>
+        <v>694</v>
       </c>
       <c r="DS20" s="115"/>
       <c r="DT20" s="115"/>
       <c r="DU20" s="115"/>
       <c r="DV20" s="115" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="DW20" s="115"/>
       <c r="DX20" s="115"/>
       <c r="DY20" s="115"/>
       <c r="DZ20" s="115" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="EA20" s="115"/>
       <c r="EB20" s="115"/>
       <c r="EC20" s="115"/>
       <c r="ED20" s="115" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="EE20" s="115"/>
       <c r="EF20" s="115"/>
       <c r="EG20" s="115"/>
-      <c r="EH20" s="185" t="s">
+      <c r="EH20" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="EI20" s="185"/>
-      <c r="EJ20" s="185"/>
-      <c r="EK20" s="185"/>
-      <c r="EL20" s="185"/>
+      <c r="EI20" s="115"/>
+      <c r="EJ20" s="115"/>
+      <c r="EK20" s="115"/>
+      <c r="EL20" s="185" t="s">
+        <v>97</v>
+      </c>
       <c r="EM20" s="185"/>
       <c r="EN20" s="185"/>
       <c r="EO20" s="185"/>
       <c r="EP20" s="185"/>
-      <c r="EQ20" s="186"/>
-      <c r="ER20" s="186"/>
-      <c r="ES20" s="186"/>
+      <c r="EQ20" s="185"/>
+      <c r="ER20" s="185"/>
+      <c r="ES20" s="185"/>
       <c r="ET20" s="185"/>
       <c r="EU20" s="186"/>
       <c r="EV20" s="186"/>
@@ -9997,8 +10128,12 @@
       <c r="FH20" s="186"/>
       <c r="FI20" s="186"/>
       <c r="FJ20" s="185"/>
-    </row>
-    <row r="21" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK20" s="186"/>
+      <c r="FL20" s="186"/>
+      <c r="FM20" s="186"/>
+      <c r="FN20" s="185"/>
+    </row>
+    <row r="21" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>370</v>
       </c>
@@ -10137,61 +10272,63 @@
       <c r="DD21" s="115"/>
       <c r="DE21" s="115"/>
       <c r="DF21" s="115" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="DG21" s="115"/>
       <c r="DH21" s="115"/>
       <c r="DI21" s="115"/>
       <c r="DJ21" s="115" t="s">
-        <v>349</v>
+        <v>127</v>
       </c>
       <c r="DK21" s="115"/>
       <c r="DL21" s="115"/>
       <c r="DM21" s="115"/>
       <c r="DN21" s="115" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="DO21" s="115"/>
       <c r="DP21" s="115"/>
       <c r="DQ21" s="115"/>
       <c r="DR21" s="115" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="DS21" s="115"/>
       <c r="DT21" s="115"/>
       <c r="DU21" s="115"/>
       <c r="DV21" s="115" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="DW21" s="115"/>
       <c r="DX21" s="115"/>
       <c r="DY21" s="115"/>
       <c r="DZ21" s="115" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="EA21" s="115"/>
       <c r="EB21" s="115"/>
       <c r="EC21" s="115"/>
       <c r="ED21" s="115" t="s">
-        <v>736</v>
+        <v>340</v>
       </c>
       <c r="EE21" s="115"/>
       <c r="EF21" s="115"/>
       <c r="EG21" s="115"/>
-      <c r="EH21" s="185" t="s">
+      <c r="EH21" s="115" t="s">
+        <v>736</v>
+      </c>
+      <c r="EI21" s="115"/>
+      <c r="EJ21" s="115"/>
+      <c r="EK21" s="115"/>
+      <c r="EL21" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="EI21" s="185"/>
-      <c r="EJ21" s="185"/>
-      <c r="EK21" s="185"/>
-      <c r="EL21" s="185"/>
       <c r="EM21" s="185"/>
       <c r="EN21" s="185"/>
       <c r="EO21" s="185"/>
       <c r="EP21" s="185"/>
-      <c r="EQ21" s="186"/>
-      <c r="ER21" s="186"/>
-      <c r="ES21" s="186"/>
+      <c r="EQ21" s="185"/>
+      <c r="ER21" s="185"/>
+      <c r="ES21" s="185"/>
       <c r="ET21" s="185"/>
       <c r="EU21" s="186"/>
       <c r="EV21" s="186"/>
@@ -10209,8 +10346,12 @@
       <c r="FH21" s="186"/>
       <c r="FI21" s="186"/>
       <c r="FJ21" s="185"/>
-    </row>
-    <row r="22" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK21" s="186"/>
+      <c r="FL21" s="186"/>
+      <c r="FM21" s="186"/>
+      <c r="FN21" s="185"/>
+    </row>
+    <row r="22" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -10361,61 +10502,65 @@
       <c r="DD22" s="115"/>
       <c r="DE22" s="115"/>
       <c r="DF22" s="115" t="s">
-        <v>262</v>
+        <v>746</v>
       </c>
       <c r="DG22" s="115"/>
-      <c r="DH22" s="115"/>
+      <c r="DH22" s="115" t="s">
+        <v>747</v>
+      </c>
       <c r="DI22" s="115"/>
       <c r="DJ22" s="115" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="DK22" s="115"/>
       <c r="DL22" s="115"/>
       <c r="DM22" s="115"/>
       <c r="DN22" s="115" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="DO22" s="115"/>
       <c r="DP22" s="115"/>
       <c r="DQ22" s="115"/>
       <c r="DR22" s="115" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="DS22" s="115"/>
       <c r="DT22" s="115"/>
       <c r="DU22" s="115"/>
       <c r="DV22" s="115" t="s">
-        <v>690</v>
+        <v>346</v>
       </c>
       <c r="DW22" s="115"/>
       <c r="DX22" s="115"/>
       <c r="DY22" s="115"/>
       <c r="DZ22" s="115" t="s">
-        <v>373</v>
+        <v>690</v>
       </c>
       <c r="EA22" s="115"/>
       <c r="EB22" s="115"/>
       <c r="EC22" s="115"/>
       <c r="ED22" s="115" t="s">
-        <v>737</v>
+        <v>373</v>
       </c>
       <c r="EE22" s="115"/>
       <c r="EF22" s="115"/>
       <c r="EG22" s="115"/>
-      <c r="EH22" s="185" t="s">
+      <c r="EH22" s="115" t="s">
+        <v>737</v>
+      </c>
+      <c r="EI22" s="115"/>
+      <c r="EJ22" s="115"/>
+      <c r="EK22" s="115"/>
+      <c r="EL22" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="EI22" s="185"/>
-      <c r="EJ22" s="185"/>
-      <c r="EK22" s="185"/>
-      <c r="EL22" s="185"/>
       <c r="EM22" s="185"/>
       <c r="EN22" s="185"/>
       <c r="EO22" s="185"/>
       <c r="EP22" s="185"/>
-      <c r="EQ22" s="186"/>
-      <c r="ER22" s="186"/>
-      <c r="ES22" s="186"/>
+      <c r="EQ22" s="185"/>
+      <c r="ER22" s="185"/>
+      <c r="ES22" s="185"/>
       <c r="ET22" s="185"/>
       <c r="EU22" s="186"/>
       <c r="EV22" s="186"/>
@@ -10433,8 +10578,12 @@
       <c r="FH22" s="186"/>
       <c r="FI22" s="186"/>
       <c r="FJ22" s="185"/>
-    </row>
-    <row r="23" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK22" s="186"/>
+      <c r="FL22" s="186"/>
+      <c r="FM22" s="186"/>
+      <c r="FN22" s="185"/>
+    </row>
+    <row r="23" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87" t="s">
         <v>330</v>
       </c>
@@ -10710,16 +10859,10 @@
       <c r="DE23" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF23" s="75"/>
-      <c r="DG23" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI23" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF23" s="114"/>
+      <c r="DG23" s="114"/>
+      <c r="DH23" s="114"/>
+      <c r="DI23" s="114"/>
       <c r="DJ23" s="75"/>
       <c r="DK23" s="114" t="s">
         <v>353</v>
@@ -10728,9 +10871,9 @@
         <v>354</v>
       </c>
       <c r="DM23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN23" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN23" s="75"/>
       <c r="DO23" s="114" t="s">
         <v>353</v>
       </c>
@@ -10738,7 +10881,7 @@
         <v>354</v>
       </c>
       <c r="DQ23" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR23" s="116"/>
       <c r="DS23" s="114" t="s">
@@ -10750,34 +10893,34 @@
       <c r="DU23" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV23" s="114"/>
-      <c r="DW23" s="114"/>
-      <c r="DX23" s="114"/>
-      <c r="DY23" s="114"/>
-      <c r="DZ23" s="116"/>
-      <c r="EA23" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC23" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED23" s="114"/>
-      <c r="EE23" s="114"/>
-      <c r="EF23" s="114"/>
-      <c r="EG23" s="114"/>
-      <c r="EH23" s="182"/>
-      <c r="EI23" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ23" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK23" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV23" s="116"/>
+      <c r="DW23" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX23" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY23" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ23" s="114"/>
+      <c r="EA23" s="114"/>
+      <c r="EB23" s="114"/>
+      <c r="EC23" s="114"/>
+      <c r="ED23" s="116"/>
+      <c r="EE23" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF23" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG23" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH23" s="114"/>
+      <c r="EI23" s="114"/>
+      <c r="EJ23" s="114"/>
+      <c r="EK23" s="114"/>
       <c r="EL23" s="182"/>
       <c r="EM23" s="181" t="s">
         <v>353</v>
@@ -10789,13 +10932,13 @@
         <v>355</v>
       </c>
       <c r="EP23" s="182"/>
-      <c r="EQ23" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER23" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES23" s="182" t="s">
+      <c r="EQ23" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER23" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES23" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET23" s="182"/>
@@ -10838,9 +10981,19 @@
       <c r="FI23" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ23" s="177"/>
-    </row>
-    <row r="24" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ23" s="182"/>
+      <c r="FK23" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL23" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM23" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN23" s="177"/>
+    </row>
+    <row r="24" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="88" t="s">
         <v>326</v>
       </c>
@@ -10930,7 +11083,7 @@
       <c r="CB24" s="115"/>
       <c r="CC24" s="115"/>
       <c r="CD24" s="115" t="str">
-        <f t="shared" ref="CD24:DZ24" si="0">CD21</f>
+        <f t="shared" ref="CD24:ED24" si="0">CD21</f>
         <v>0 mL/min kg</v>
       </c>
       <c r="CE24" s="115">
@@ -11041,32 +11194,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="DF24" s="115" t="str">
+      <c r="DF24" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="DG24" s="115"/>
+      <c r="DH24" s="115"/>
+      <c r="DI24" s="115"/>
+      <c r="DJ24" s="115" t="str">
         <f t="shared" si="0"/>
         <v>7.2 mL/min kg</v>
-      </c>
-      <c r="DG24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DH24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DI24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DJ24" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.72 mL/min kg</v>
       </c>
       <c r="DK24" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DL24" s="115">
-        <f t="shared" ref="DL24" si="2">DL21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DM24" s="115">
@@ -11075,14 +11218,14 @@
       </c>
       <c r="DN24" s="115" t="str">
         <f t="shared" si="0"/>
-        <v>1.3 mL/min kg</v>
+        <v>0.72 mL/min kg</v>
       </c>
       <c r="DO24" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DP24" s="115">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="DP24" si="2">DP21</f>
         <v>0</v>
       </c>
       <c r="DQ24" s="115">
@@ -11091,7 +11234,7 @@
       </c>
       <c r="DR24" s="115" t="str">
         <f t="shared" si="0"/>
-        <v>2.2 mL/min kg</v>
+        <v>1.3 mL/min kg</v>
       </c>
       <c r="DS24" s="115">
         <f t="shared" si="0"/>
@@ -11105,29 +11248,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="DV24" s="115" t="s">
+      <c r="DV24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2 mL/min kg</v>
+      </c>
+      <c r="DW24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DX24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DY24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="DZ24" s="115" t="s">
         <v>97</v>
-      </c>
-      <c r="DW24" s="115"/>
-      <c r="DX24" s="115"/>
-      <c r="DY24" s="115"/>
-      <c r="DZ24" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.0 mL/min kg</v>
       </c>
       <c r="EA24" s="115"/>
       <c r="EB24" s="115"/>
       <c r="EC24" s="115"/>
-      <c r="ED24" s="115" t="s">
-        <v>736</v>
+      <c r="ED24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0 mL/min kg</v>
       </c>
       <c r="EE24" s="115"/>
       <c r="EF24" s="115"/>
       <c r="EG24" s="115"/>
-      <c r="EH24" s="185"/>
-      <c r="EI24" s="185"/>
-      <c r="EJ24" s="185"/>
-      <c r="EK24" s="185"/>
+      <c r="EH24" s="115" t="s">
+        <v>736</v>
+      </c>
+      <c r="EI24" s="115"/>
+      <c r="EJ24" s="115"/>
+      <c r="EK24" s="115"/>
       <c r="EL24" s="185"/>
       <c r="EM24" s="185"/>
       <c r="EN24" s="185"/>
@@ -11153,8 +11308,12 @@
       <c r="FH24" s="185"/>
       <c r="FI24" s="185"/>
       <c r="FJ24" s="185"/>
-    </row>
-    <row r="25" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK24" s="185"/>
+      <c r="FL24" s="185"/>
+      <c r="FM24" s="185"/>
+      <c r="FN24" s="185"/>
+    </row>
+    <row r="25" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87" t="s">
         <v>325</v>
       </c>
@@ -11430,16 +11589,10 @@
       <c r="DE25" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF25" s="75"/>
-      <c r="DG25" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI25" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF25" s="114"/>
+      <c r="DG25" s="114"/>
+      <c r="DH25" s="114"/>
+      <c r="DI25" s="114"/>
       <c r="DJ25" s="75"/>
       <c r="DK25" s="114" t="s">
         <v>353</v>
@@ -11448,9 +11601,9 @@
         <v>354</v>
       </c>
       <c r="DM25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN25" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN25" s="75"/>
       <c r="DO25" s="114" t="s">
         <v>353</v>
       </c>
@@ -11458,7 +11611,7 @@
         <v>354</v>
       </c>
       <c r="DQ25" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR25" s="116"/>
       <c r="DS25" s="114" t="s">
@@ -11470,34 +11623,34 @@
       <c r="DU25" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV25" s="114"/>
-      <c r="DW25" s="114"/>
-      <c r="DX25" s="114"/>
-      <c r="DY25" s="114"/>
-      <c r="DZ25" s="116"/>
-      <c r="EA25" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC25" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED25" s="114"/>
-      <c r="EE25" s="114"/>
-      <c r="EF25" s="114"/>
-      <c r="EG25" s="114"/>
-      <c r="EH25" s="182"/>
-      <c r="EI25" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ25" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK25" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV25" s="116"/>
+      <c r="DW25" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX25" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY25" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ25" s="114"/>
+      <c r="EA25" s="114"/>
+      <c r="EB25" s="114"/>
+      <c r="EC25" s="114"/>
+      <c r="ED25" s="116"/>
+      <c r="EE25" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF25" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG25" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH25" s="114"/>
+      <c r="EI25" s="114"/>
+      <c r="EJ25" s="114"/>
+      <c r="EK25" s="114"/>
       <c r="EL25" s="182"/>
       <c r="EM25" s="181" t="s">
         <v>353</v>
@@ -11509,13 +11662,13 @@
         <v>355</v>
       </c>
       <c r="EP25" s="182"/>
-      <c r="EQ25" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER25" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES25" s="182" t="s">
+      <c r="EQ25" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER25" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES25" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET25" s="182"/>
@@ -11558,9 +11711,19 @@
       <c r="FI25" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ25" s="177"/>
-    </row>
-    <row r="26" spans="1:166" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FJ25" s="182"/>
+      <c r="FK25" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL25" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM25" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN25" s="177"/>
+    </row>
+    <row r="26" spans="1:170" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="88" t="s">
         <v>327</v>
       </c>
@@ -11728,13 +11891,13 @@
       <c r="EE26" s="115"/>
       <c r="EF26" s="115"/>
       <c r="EG26" s="115"/>
-      <c r="EH26" s="185" t="s">
+      <c r="EH26" s="115"/>
+      <c r="EI26" s="115"/>
+      <c r="EJ26" s="115"/>
+      <c r="EK26" s="115"/>
+      <c r="EL26" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="EI26" s="185"/>
-      <c r="EJ26" s="185"/>
-      <c r="EK26" s="185"/>
-      <c r="EL26" s="185"/>
       <c r="EM26" s="185"/>
       <c r="EN26" s="185"/>
       <c r="EO26" s="185"/>
@@ -11759,8 +11922,12 @@
       <c r="FH26" s="185"/>
       <c r="FI26" s="185"/>
       <c r="FJ26" s="185"/>
-    </row>
-    <row r="27" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK26" s="185"/>
+      <c r="FL26" s="185"/>
+      <c r="FM26" s="185"/>
+      <c r="FN26" s="185"/>
+    </row>
+    <row r="27" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="88" t="s">
         <v>371</v>
       </c>
@@ -11928,24 +12095,24 @@
       <c r="EE27" s="115"/>
       <c r="EF27" s="115"/>
       <c r="EG27" s="115"/>
-      <c r="EH27" s="188">
+      <c r="EH27" s="115"/>
+      <c r="EI27" s="115"/>
+      <c r="EJ27" s="115"/>
+      <c r="EK27" s="115"/>
+      <c r="EL27" s="188">
         <v>1</v>
       </c>
-      <c r="EI27" s="188"/>
-      <c r="EJ27" s="188"/>
-      <c r="EK27" s="188"/>
-      <c r="EL27" s="188"/>
       <c r="EM27" s="188"/>
       <c r="EN27" s="188"/>
       <c r="EO27" s="188"/>
-      <c r="EP27" s="185"/>
-      <c r="EQ27" s="185"/>
-      <c r="ER27" s="185"/>
-      <c r="ES27" s="185"/>
+      <c r="EP27" s="188"/>
+      <c r="EQ27" s="188"/>
+      <c r="ER27" s="188"/>
+      <c r="ES27" s="188"/>
       <c r="ET27" s="185"/>
-      <c r="EU27" s="186"/>
-      <c r="EV27" s="186"/>
-      <c r="EW27" s="186"/>
+      <c r="EU27" s="185"/>
+      <c r="EV27" s="185"/>
+      <c r="EW27" s="185"/>
       <c r="EX27" s="185"/>
       <c r="EY27" s="186"/>
       <c r="EZ27" s="186"/>
@@ -11959,8 +12126,12 @@
       <c r="FH27" s="186"/>
       <c r="FI27" s="186"/>
       <c r="FJ27" s="185"/>
-    </row>
-    <row r="28" spans="1:166" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FK27" s="186"/>
+      <c r="FL27" s="186"/>
+      <c r="FM27" s="186"/>
+      <c r="FN27" s="185"/>
+    </row>
+    <row r="28" spans="1:170" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88" t="s">
         <v>328</v>
       </c>
@@ -12146,13 +12317,13 @@
       <c r="EE28" s="115"/>
       <c r="EF28" s="115"/>
       <c r="EG28" s="115"/>
-      <c r="EH28" s="185" t="s">
+      <c r="EH28" s="115"/>
+      <c r="EI28" s="115"/>
+      <c r="EJ28" s="115"/>
+      <c r="EK28" s="115"/>
+      <c r="EL28" s="185" t="s">
         <v>361</v>
       </c>
-      <c r="EI28" s="185"/>
-      <c r="EJ28" s="185"/>
-      <c r="EK28" s="185"/>
-      <c r="EL28" s="185"/>
       <c r="EM28" s="185"/>
       <c r="EN28" s="185"/>
       <c r="EO28" s="185"/>
@@ -12177,8 +12348,12 @@
       <c r="FH28" s="185"/>
       <c r="FI28" s="185"/>
       <c r="FJ28" s="185"/>
-    </row>
-    <row r="29" spans="1:166" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FK28" s="185"/>
+      <c r="FL28" s="185"/>
+      <c r="FM28" s="185"/>
+      <c r="FN28" s="185"/>
+    </row>
+    <row r="29" spans="1:170" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88" t="s">
         <v>329</v>
       </c>
@@ -12366,13 +12541,13 @@
       <c r="EE29" s="115"/>
       <c r="EF29" s="115"/>
       <c r="EG29" s="115"/>
-      <c r="EH29" s="185" t="s">
+      <c r="EH29" s="115"/>
+      <c r="EI29" s="115"/>
+      <c r="EJ29" s="115"/>
+      <c r="EK29" s="115"/>
+      <c r="EL29" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="EI29" s="185"/>
-      <c r="EJ29" s="185"/>
-      <c r="EK29" s="185"/>
-      <c r="EL29" s="185"/>
       <c r="EM29" s="185"/>
       <c r="EN29" s="185"/>
       <c r="EO29" s="185"/>
@@ -12397,8 +12572,12 @@
       <c r="FH29" s="185"/>
       <c r="FI29" s="185"/>
       <c r="FJ29" s="185"/>
-    </row>
-    <row r="30" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK29" s="185"/>
+      <c r="FL29" s="185"/>
+      <c r="FM29" s="185"/>
+      <c r="FN29" s="185"/>
+    </row>
+    <row r="30" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="86" t="s">
         <v>333</v>
       </c>
@@ -12674,16 +12853,10 @@
       <c r="DE30" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF30" s="75"/>
-      <c r="DG30" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI30" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF30" s="114"/>
+      <c r="DG30" s="114"/>
+      <c r="DH30" s="114"/>
+      <c r="DI30" s="114"/>
       <c r="DJ30" s="75"/>
       <c r="DK30" s="114" t="s">
         <v>353</v>
@@ -12692,9 +12865,9 @@
         <v>354</v>
       </c>
       <c r="DM30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN30" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN30" s="75"/>
       <c r="DO30" s="114" t="s">
         <v>353</v>
       </c>
@@ -12702,7 +12875,7 @@
         <v>354</v>
       </c>
       <c r="DQ30" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR30" s="116"/>
       <c r="DS30" s="114" t="s">
@@ -12714,34 +12887,34 @@
       <c r="DU30" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV30" s="114"/>
-      <c r="DW30" s="114"/>
-      <c r="DX30" s="114"/>
-      <c r="DY30" s="114"/>
-      <c r="DZ30" s="116"/>
-      <c r="EA30" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC30" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED30" s="114"/>
-      <c r="EE30" s="114"/>
-      <c r="EF30" s="114"/>
-      <c r="EG30" s="114"/>
-      <c r="EH30" s="182"/>
-      <c r="EI30" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ30" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK30" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV30" s="116"/>
+      <c r="DW30" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX30" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY30" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ30" s="114"/>
+      <c r="EA30" s="114"/>
+      <c r="EB30" s="114"/>
+      <c r="EC30" s="114"/>
+      <c r="ED30" s="116"/>
+      <c r="EE30" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF30" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG30" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH30" s="114"/>
+      <c r="EI30" s="114"/>
+      <c r="EJ30" s="114"/>
+      <c r="EK30" s="114"/>
       <c r="EL30" s="182"/>
       <c r="EM30" s="181" t="s">
         <v>353</v>
@@ -12753,13 +12926,13 @@
         <v>355</v>
       </c>
       <c r="EP30" s="182"/>
-      <c r="EQ30" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER30" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES30" s="182" t="s">
+      <c r="EQ30" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER30" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES30" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET30" s="182"/>
@@ -12802,9 +12975,19 @@
       <c r="FI30" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ30" s="177"/>
-    </row>
-    <row r="31" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ30" s="182"/>
+      <c r="FK30" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL30" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM30" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN30" s="177"/>
+    </row>
+    <row r="31" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
         <v>88</v>
       </c>
@@ -12929,57 +13112,61 @@
       <c r="DD31" s="115"/>
       <c r="DE31" s="115"/>
       <c r="DF31" s="115">
-        <v>5.78</v>
+        <v>8.58</v>
       </c>
       <c r="DG31" s="115"/>
-      <c r="DH31" s="115"/>
+      <c r="DH31" s="115" t="s">
+        <v>744</v>
+      </c>
       <c r="DI31" s="115"/>
       <c r="DJ31" s="115">
-        <v>12.58</v>
+        <v>5.78</v>
       </c>
       <c r="DK31" s="115"/>
       <c r="DL31" s="115"/>
       <c r="DM31" s="115"/>
       <c r="DN31" s="115">
-        <v>11.1</v>
+        <v>12.58</v>
       </c>
       <c r="DO31" s="115"/>
       <c r="DP31" s="115"/>
       <c r="DQ31" s="115"/>
       <c r="DR31" s="115">
-        <v>14.95</v>
+        <v>11.1</v>
       </c>
       <c r="DS31" s="115"/>
       <c r="DT31" s="115"/>
       <c r="DU31" s="115"/>
-      <c r="DV31" s="115"/>
+      <c r="DV31" s="115">
+        <v>14.95</v>
+      </c>
       <c r="DW31" s="115"/>
       <c r="DX31" s="115"/>
       <c r="DY31" s="115"/>
-      <c r="DZ31" s="115">
-        <v>1</v>
-      </c>
+      <c r="DZ31" s="115"/>
       <c r="EA31" s="115"/>
       <c r="EB31" s="115"/>
       <c r="EC31" s="115"/>
       <c r="ED31" s="115">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="EE31" s="115"/>
       <c r="EF31" s="115"/>
       <c r="EG31" s="115"/>
-      <c r="EH31" s="185"/>
-      <c r="EI31" s="185"/>
-      <c r="EJ31" s="185"/>
-      <c r="EK31" s="185"/>
+      <c r="EH31" s="115">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="EI31" s="115"/>
+      <c r="EJ31" s="115"/>
+      <c r="EK31" s="115"/>
       <c r="EL31" s="185"/>
       <c r="EM31" s="185"/>
       <c r="EN31" s="185"/>
       <c r="EO31" s="185"/>
       <c r="EP31" s="185"/>
-      <c r="EQ31" s="186"/>
-      <c r="ER31" s="186"/>
-      <c r="ES31" s="186"/>
+      <c r="EQ31" s="185"/>
+      <c r="ER31" s="185"/>
+      <c r="ES31" s="185"/>
       <c r="ET31" s="185"/>
       <c r="EU31" s="186"/>
       <c r="EV31" s="186"/>
@@ -12997,8 +13184,12 @@
       <c r="FH31" s="186"/>
       <c r="FI31" s="186"/>
       <c r="FJ31" s="185"/>
-    </row>
-    <row r="32" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK31" s="186"/>
+      <c r="FL31" s="186"/>
+      <c r="FM31" s="186"/>
+      <c r="FN31" s="185"/>
+    </row>
+    <row r="32" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>111</v>
       </c>
@@ -13126,7 +13317,9 @@
         <v>112</v>
       </c>
       <c r="DG32" s="115"/>
-      <c r="DH32" s="115"/>
+      <c r="DH32" s="115" t="s">
+        <v>745</v>
+      </c>
       <c r="DI32" s="115"/>
       <c r="DJ32" s="115" t="s">
         <v>112</v>
@@ -13146,13 +13339,13 @@
       <c r="DS32" s="115"/>
       <c r="DT32" s="115"/>
       <c r="DU32" s="115"/>
-      <c r="DV32" s="115"/>
+      <c r="DV32" s="115" t="s">
+        <v>112</v>
+      </c>
       <c r="DW32" s="115"/>
       <c r="DX32" s="115"/>
       <c r="DY32" s="115"/>
-      <c r="DZ32" s="115" t="s">
-        <v>112</v>
-      </c>
+      <c r="DZ32" s="115"/>
       <c r="EA32" s="115"/>
       <c r="EB32" s="115"/>
       <c r="EC32" s="115"/>
@@ -13162,18 +13355,20 @@
       <c r="EE32" s="115"/>
       <c r="EF32" s="115"/>
       <c r="EG32" s="115"/>
-      <c r="EH32" s="185"/>
-      <c r="EI32" s="185"/>
-      <c r="EJ32" s="185"/>
-      <c r="EK32" s="185"/>
+      <c r="EH32" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="EI32" s="115"/>
+      <c r="EJ32" s="115"/>
+      <c r="EK32" s="115"/>
       <c r="EL32" s="185"/>
       <c r="EM32" s="185"/>
       <c r="EN32" s="185"/>
       <c r="EO32" s="185"/>
       <c r="EP32" s="185"/>
-      <c r="EQ32" s="186"/>
-      <c r="ER32" s="186"/>
-      <c r="ES32" s="186"/>
+      <c r="EQ32" s="185"/>
+      <c r="ER32" s="185"/>
+      <c r="ES32" s="185"/>
       <c r="ET32" s="185"/>
       <c r="EU32" s="186"/>
       <c r="EV32" s="186"/>
@@ -13191,8 +13386,12 @@
       <c r="FH32" s="186"/>
       <c r="FI32" s="186"/>
       <c r="FJ32" s="185"/>
-    </row>
-    <row r="33" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK32" s="186"/>
+      <c r="FL32" s="186"/>
+      <c r="FM32" s="186"/>
+      <c r="FN32" s="185"/>
+    </row>
+    <row r="33" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>91</v>
       </c>
@@ -13317,36 +13516,38 @@
       <c r="DD33" s="115"/>
       <c r="DE33" s="115"/>
       <c r="DF33" s="115">
-        <v>1.5640000000000001</v>
+        <v>1</v>
       </c>
       <c r="DG33" s="115"/>
-      <c r="DH33" s="115"/>
+      <c r="DH33" s="115" t="s">
+        <v>745</v>
+      </c>
       <c r="DI33" s="115"/>
       <c r="DJ33" s="115">
-        <v>0.83</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="DK33" s="115"/>
       <c r="DL33" s="115"/>
       <c r="DM33" s="115"/>
       <c r="DN33" s="115">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="DO33" s="115"/>
       <c r="DP33" s="115"/>
       <c r="DQ33" s="115"/>
       <c r="DR33" s="115">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="DS33" s="115"/>
       <c r="DT33" s="115"/>
       <c r="DU33" s="115"/>
-      <c r="DV33" s="115"/>
+      <c r="DV33" s="115">
+        <v>1</v>
+      </c>
       <c r="DW33" s="115"/>
       <c r="DX33" s="115"/>
       <c r="DY33" s="115"/>
-      <c r="DZ33" s="115">
-        <v>1</v>
-      </c>
+      <c r="DZ33" s="115"/>
       <c r="EA33" s="115"/>
       <c r="EB33" s="115"/>
       <c r="EC33" s="115"/>
@@ -13356,18 +13557,20 @@
       <c r="EE33" s="115"/>
       <c r="EF33" s="115"/>
       <c r="EG33" s="115"/>
-      <c r="EH33" s="185"/>
-      <c r="EI33" s="185"/>
-      <c r="EJ33" s="185"/>
-      <c r="EK33" s="185"/>
+      <c r="EH33" s="115">
+        <v>1</v>
+      </c>
+      <c r="EI33" s="115"/>
+      <c r="EJ33" s="115"/>
+      <c r="EK33" s="115"/>
       <c r="EL33" s="185"/>
       <c r="EM33" s="185"/>
       <c r="EN33" s="185"/>
       <c r="EO33" s="185"/>
       <c r="EP33" s="185"/>
-      <c r="EQ33" s="186"/>
-      <c r="ER33" s="186"/>
-      <c r="ES33" s="186"/>
+      <c r="EQ33" s="185"/>
+      <c r="ER33" s="185"/>
+      <c r="ES33" s="185"/>
       <c r="ET33" s="185"/>
       <c r="EU33" s="186"/>
       <c r="EV33" s="186"/>
@@ -13385,8 +13588,12 @@
       <c r="FH33" s="186"/>
       <c r="FI33" s="186"/>
       <c r="FJ33" s="185"/>
-    </row>
-    <row r="34" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK33" s="186"/>
+      <c r="FL33" s="186"/>
+      <c r="FM33" s="186"/>
+      <c r="FN33" s="185"/>
+    </row>
+    <row r="34" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
         <v>90</v>
       </c>
@@ -13474,7 +13681,7 @@
       <c r="CB34" s="115"/>
       <c r="CC34" s="115"/>
       <c r="CD34" s="115">
-        <f t="shared" ref="CD34:DU34" si="3">CD19</f>
+        <f t="shared" ref="CD34:DY34" si="3">CD19</f>
         <v>1</v>
       </c>
       <c r="CE34" s="115">
@@ -13579,31 +13786,23 @@
         <v>0</v>
       </c>
       <c r="DF34" s="115">
+        <v>0.99</v>
+      </c>
+      <c r="DG34" s="115"/>
+      <c r="DH34" s="115" t="s">
+        <v>745</v>
+      </c>
+      <c r="DI34" s="115"/>
+      <c r="DJ34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="DG34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DH34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DI34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DJ34" s="115">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="DK34" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DL34" s="115">
-        <f t="shared" ref="DL34" si="4">DL19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DM34" s="115">
@@ -13612,14 +13811,14 @@
       </c>
       <c r="DN34" s="115">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="DO34" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DP34" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="DP34" si="4">DP19</f>
         <v>0</v>
       </c>
       <c r="DQ34" s="115">
@@ -13628,7 +13827,7 @@
       </c>
       <c r="DR34" s="115">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="DS34" s="115">
         <f t="shared" si="3"/>
@@ -13642,26 +13841,38 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="DV34" s="115"/>
-      <c r="DW34" s="115"/>
-      <c r="DX34" s="115"/>
-      <c r="DY34" s="115"/>
-      <c r="DZ34" s="115">
-        <v>0.8</v>
-      </c>
+      <c r="DV34" s="115">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="DW34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="DX34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="DY34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="DZ34" s="115"/>
       <c r="EA34" s="115"/>
       <c r="EB34" s="115"/>
       <c r="EC34" s="115"/>
       <c r="ED34" s="115">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="EE34" s="115"/>
       <c r="EF34" s="115"/>
       <c r="EG34" s="115"/>
-      <c r="EH34" s="185"/>
-      <c r="EI34" s="185"/>
-      <c r="EJ34" s="185"/>
-      <c r="EK34" s="185"/>
+      <c r="EH34" s="115">
+        <v>0.99</v>
+      </c>
+      <c r="EI34" s="115"/>
+      <c r="EJ34" s="115"/>
+      <c r="EK34" s="115"/>
       <c r="EL34" s="185"/>
       <c r="EM34" s="185"/>
       <c r="EN34" s="185"/>
@@ -13671,9 +13882,9 @@
       <c r="ER34" s="185"/>
       <c r="ES34" s="185"/>
       <c r="ET34" s="185"/>
-      <c r="EU34" s="186"/>
-      <c r="EV34" s="186"/>
-      <c r="EW34" s="186"/>
+      <c r="EU34" s="185"/>
+      <c r="EV34" s="185"/>
+      <c r="EW34" s="185"/>
       <c r="EX34" s="185"/>
       <c r="EY34" s="186"/>
       <c r="EZ34" s="186"/>
@@ -13687,8 +13898,12 @@
       <c r="FH34" s="186"/>
       <c r="FI34" s="186"/>
       <c r="FJ34" s="185"/>
-    </row>
-    <row r="35" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK34" s="186"/>
+      <c r="FL34" s="186"/>
+      <c r="FM34" s="186"/>
+      <c r="FN34" s="185"/>
+    </row>
+    <row r="35" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>87</v>
       </c>
@@ -13813,57 +14028,59 @@
       <c r="DD35" s="115"/>
       <c r="DE35" s="115"/>
       <c r="DF35" s="115" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="DG35" s="115"/>
       <c r="DH35" s="115"/>
       <c r="DI35" s="115"/>
       <c r="DJ35" s="115" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="DK35" s="115"/>
       <c r="DL35" s="115"/>
       <c r="DM35" s="115"/>
       <c r="DN35" s="115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="DO35" s="115"/>
       <c r="DP35" s="115"/>
       <c r="DQ35" s="115"/>
       <c r="DR35" s="115" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="DS35" s="115"/>
       <c r="DT35" s="115"/>
       <c r="DU35" s="115"/>
-      <c r="DV35" s="115"/>
+      <c r="DV35" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="DW35" s="115"/>
       <c r="DX35" s="115"/>
       <c r="DY35" s="115"/>
-      <c r="DZ35" s="115" t="s">
-        <v>114</v>
-      </c>
+      <c r="DZ35" s="115"/>
       <c r="EA35" s="115"/>
       <c r="EB35" s="115"/>
       <c r="EC35" s="115"/>
       <c r="ED35" s="115" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="EE35" s="115"/>
       <c r="EF35" s="115"/>
       <c r="EG35" s="115"/>
-      <c r="EH35" s="185"/>
-      <c r="EI35" s="185"/>
-      <c r="EJ35" s="185"/>
-      <c r="EK35" s="185"/>
+      <c r="EH35" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="EI35" s="115"/>
+      <c r="EJ35" s="115"/>
+      <c r="EK35" s="115"/>
       <c r="EL35" s="185"/>
       <c r="EM35" s="185"/>
       <c r="EN35" s="185"/>
       <c r="EO35" s="185"/>
       <c r="EP35" s="185"/>
-      <c r="EQ35" s="186"/>
-      <c r="ER35" s="186"/>
-      <c r="ES35" s="186"/>
+      <c r="EQ35" s="185"/>
+      <c r="ER35" s="185"/>
+      <c r="ES35" s="185"/>
       <c r="ET35" s="185"/>
       <c r="EU35" s="186"/>
       <c r="EV35" s="186"/>
@@ -13881,8 +14098,12 @@
       <c r="FH35" s="186"/>
       <c r="FI35" s="186"/>
       <c r="FJ35" s="185"/>
-    </row>
-    <row r="36" spans="1:166" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK35" s="186"/>
+      <c r="FL35" s="186"/>
+      <c r="FM35" s="186"/>
+      <c r="FN35" s="185"/>
+    </row>
+    <row r="36" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>89</v>
       </c>
@@ -14007,57 +14228,61 @@
       <c r="DD36" s="115"/>
       <c r="DE36" s="115"/>
       <c r="DF36" s="115">
-        <v>1.5640000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="DG36" s="115"/>
-      <c r="DH36" s="115"/>
+      <c r="DH36" s="115" t="s">
+        <v>744</v>
+      </c>
       <c r="DI36" s="115"/>
       <c r="DJ36" s="115">
-        <v>1.46</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="DK36" s="115"/>
       <c r="DL36" s="115"/>
       <c r="DM36" s="115"/>
       <c r="DN36" s="115">
-        <v>3.79</v>
+        <v>1.46</v>
       </c>
       <c r="DO36" s="115"/>
       <c r="DP36" s="115"/>
       <c r="DQ36" s="115"/>
       <c r="DR36" s="115">
-        <v>2.77</v>
+        <v>3.79</v>
       </c>
       <c r="DS36" s="115"/>
       <c r="DT36" s="115"/>
       <c r="DU36" s="115"/>
-      <c r="DV36" s="115"/>
+      <c r="DV36" s="115">
+        <v>2.77</v>
+      </c>
       <c r="DW36" s="115"/>
       <c r="DX36" s="115"/>
       <c r="DY36" s="115"/>
-      <c r="DZ36" s="115">
-        <v>-1.5</v>
-      </c>
+      <c r="DZ36" s="115"/>
       <c r="EA36" s="115"/>
       <c r="EB36" s="115"/>
       <c r="EC36" s="115"/>
       <c r="ED36" s="115">
-        <v>-4.8</v>
+        <v>-1.5</v>
       </c>
       <c r="EE36" s="115"/>
       <c r="EF36" s="115"/>
       <c r="EG36" s="115"/>
-      <c r="EH36" s="185"/>
-      <c r="EI36" s="185"/>
-      <c r="EJ36" s="185"/>
-      <c r="EK36" s="185"/>
+      <c r="EH36" s="115">
+        <v>-4.8</v>
+      </c>
+      <c r="EI36" s="115"/>
+      <c r="EJ36" s="115"/>
+      <c r="EK36" s="115"/>
       <c r="EL36" s="185"/>
       <c r="EM36" s="185"/>
       <c r="EN36" s="185"/>
       <c r="EO36" s="185"/>
       <c r="EP36" s="185"/>
-      <c r="EQ36" s="186"/>
-      <c r="ER36" s="186"/>
-      <c r="ES36" s="186"/>
+      <c r="EQ36" s="185"/>
+      <c r="ER36" s="185"/>
+      <c r="ES36" s="185"/>
       <c r="ET36" s="185"/>
       <c r="EU36" s="186"/>
       <c r="EV36" s="186"/>
@@ -14075,8 +14300,12 @@
       <c r="FH36" s="186"/>
       <c r="FI36" s="186"/>
       <c r="FJ36" s="185"/>
-    </row>
-    <row r="37" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK36" s="186"/>
+      <c r="FL36" s="186"/>
+      <c r="FM36" s="186"/>
+      <c r="FN36" s="185"/>
+    </row>
+    <row r="37" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="86" t="s">
         <v>334</v>
       </c>
@@ -14352,16 +14581,10 @@
       <c r="DE37" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF37" s="75"/>
-      <c r="DG37" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI37" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF37" s="114"/>
+      <c r="DG37" s="114"/>
+      <c r="DH37" s="114"/>
+      <c r="DI37" s="114"/>
       <c r="DJ37" s="75"/>
       <c r="DK37" s="114" t="s">
         <v>353</v>
@@ -14370,9 +14593,9 @@
         <v>354</v>
       </c>
       <c r="DM37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN37" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN37" s="75"/>
       <c r="DO37" s="114" t="s">
         <v>353</v>
       </c>
@@ -14380,7 +14603,7 @@
         <v>354</v>
       </c>
       <c r="DQ37" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR37" s="116"/>
       <c r="DS37" s="114" t="s">
@@ -14392,34 +14615,34 @@
       <c r="DU37" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV37" s="114"/>
-      <c r="DW37" s="114"/>
-      <c r="DX37" s="114"/>
-      <c r="DY37" s="114"/>
-      <c r="DZ37" s="116"/>
-      <c r="EA37" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC37" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED37" s="114"/>
-      <c r="EE37" s="114"/>
-      <c r="EF37" s="114"/>
-      <c r="EG37" s="114"/>
-      <c r="EH37" s="182"/>
-      <c r="EI37" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ37" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK37" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV37" s="116"/>
+      <c r="DW37" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX37" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY37" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ37" s="114"/>
+      <c r="EA37" s="114"/>
+      <c r="EB37" s="114"/>
+      <c r="EC37" s="114"/>
+      <c r="ED37" s="116"/>
+      <c r="EE37" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF37" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG37" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH37" s="114"/>
+      <c r="EI37" s="114"/>
+      <c r="EJ37" s="114"/>
+      <c r="EK37" s="114"/>
       <c r="EL37" s="182"/>
       <c r="EM37" s="181" t="s">
         <v>353</v>
@@ -14431,13 +14654,13 @@
         <v>355</v>
       </c>
       <c r="EP37" s="182"/>
-      <c r="EQ37" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER37" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES37" s="182" t="s">
+      <c r="EQ37" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER37" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES37" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET37" s="182"/>
@@ -14480,9 +14703,19 @@
       <c r="FI37" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ37" s="177"/>
-    </row>
-    <row r="38" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ37" s="182"/>
+      <c r="FK37" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL37" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM37" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN37" s="177"/>
+    </row>
+    <row r="38" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>317</v>
       </c>
@@ -14641,13 +14874,13 @@
       <c r="DT38" s="119"/>
       <c r="DU38" s="119"/>
       <c r="DV38" s="119">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="DW38" s="119"/>
       <c r="DX38" s="119"/>
       <c r="DY38" s="119"/>
       <c r="DZ38" s="119">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="EA38" s="119"/>
       <c r="EB38" s="119"/>
@@ -14658,10 +14891,12 @@
       <c r="EE38" s="119"/>
       <c r="EF38" s="119"/>
       <c r="EG38" s="119"/>
-      <c r="EH38" s="185"/>
-      <c r="EI38" s="185"/>
-      <c r="EJ38" s="185"/>
-      <c r="EK38" s="185"/>
+      <c r="EH38" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI38" s="119"/>
+      <c r="EJ38" s="119"/>
+      <c r="EK38" s="119"/>
       <c r="EL38" s="185"/>
       <c r="EM38" s="185"/>
       <c r="EN38" s="185"/>
@@ -14687,8 +14922,12 @@
       <c r="FH38" s="185"/>
       <c r="FI38" s="185"/>
       <c r="FJ38" s="185"/>
-    </row>
-    <row r="39" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK38" s="185"/>
+      <c r="FL38" s="185"/>
+      <c r="FM38" s="185"/>
+      <c r="FN38" s="185"/>
+    </row>
+    <row r="39" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>318</v>
       </c>
@@ -14819,7 +15058,7 @@
       <c r="DD39" s="119"/>
       <c r="DE39" s="119"/>
       <c r="DF39" s="119">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="DG39" s="119"/>
       <c r="DH39" s="119"/>
@@ -14831,19 +15070,19 @@
       <c r="DL39" s="119"/>
       <c r="DM39" s="119"/>
       <c r="DN39" s="119">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="DO39" s="119"/>
       <c r="DP39" s="119"/>
       <c r="DQ39" s="119"/>
       <c r="DR39" s="119">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="DS39" s="119"/>
       <c r="DT39" s="119"/>
       <c r="DU39" s="119"/>
       <c r="DV39" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="DW39" s="119"/>
       <c r="DX39" s="119"/>
@@ -14855,15 +15094,17 @@
       <c r="EB39" s="119"/>
       <c r="EC39" s="119"/>
       <c r="ED39" s="119">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="EE39" s="119"/>
       <c r="EF39" s="119"/>
       <c r="EG39" s="119"/>
-      <c r="EH39" s="185"/>
-      <c r="EI39" s="185"/>
-      <c r="EJ39" s="185"/>
-      <c r="EK39" s="185"/>
+      <c r="EH39" s="119">
+        <v>0.9</v>
+      </c>
+      <c r="EI39" s="119"/>
+      <c r="EJ39" s="119"/>
+      <c r="EK39" s="119"/>
       <c r="EL39" s="185"/>
       <c r="EM39" s="185"/>
       <c r="EN39" s="185"/>
@@ -14889,8 +15130,12 @@
       <c r="FH39" s="185"/>
       <c r="FI39" s="185"/>
       <c r="FJ39" s="185"/>
-    </row>
-    <row r="40" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK39" s="185"/>
+      <c r="FL39" s="185"/>
+      <c r="FM39" s="185"/>
+      <c r="FN39" s="185"/>
+    </row>
+    <row r="40" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>319</v>
       </c>
@@ -15021,51 +15266,55 @@
       <c r="DD40" s="119"/>
       <c r="DE40" s="119"/>
       <c r="DF40" s="119" t="s">
-        <v>377</v>
+        <v>749</v>
       </c>
       <c r="DG40" s="119"/>
       <c r="DH40" s="119"/>
-      <c r="DI40" s="119"/>
+      <c r="DI40" s="119" t="s">
+        <v>748</v>
+      </c>
       <c r="DJ40" s="119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="DK40" s="119"/>
       <c r="DL40" s="119"/>
       <c r="DM40" s="119"/>
       <c r="DN40" s="119" t="s">
-        <v>695</v>
+        <v>378</v>
       </c>
       <c r="DO40" s="119"/>
       <c r="DP40" s="119"/>
       <c r="DQ40" s="119"/>
       <c r="DR40" s="119" t="s">
-        <v>379</v>
+        <v>695</v>
       </c>
       <c r="DS40" s="119"/>
       <c r="DT40" s="119"/>
       <c r="DU40" s="119"/>
       <c r="DV40" s="119" t="s">
-        <v>691</v>
+        <v>379</v>
       </c>
       <c r="DW40" s="119"/>
       <c r="DX40" s="119"/>
       <c r="DY40" s="119"/>
       <c r="DZ40" s="119" t="s">
-        <v>380</v>
+        <v>691</v>
       </c>
       <c r="EA40" s="119"/>
       <c r="EB40" s="119"/>
       <c r="EC40" s="119"/>
       <c r="ED40" s="119" t="s">
-        <v>739</v>
+        <v>380</v>
       </c>
       <c r="EE40" s="119"/>
       <c r="EF40" s="119"/>
       <c r="EG40" s="119"/>
-      <c r="EH40" s="185"/>
-      <c r="EI40" s="185"/>
-      <c r="EJ40" s="185"/>
-      <c r="EK40" s="185"/>
+      <c r="EH40" s="119" t="s">
+        <v>739</v>
+      </c>
+      <c r="EI40" s="119"/>
+      <c r="EJ40" s="119"/>
+      <c r="EK40" s="119"/>
       <c r="EL40" s="185"/>
       <c r="EM40" s="185"/>
       <c r="EN40" s="185"/>
@@ -15091,8 +15340,12 @@
       <c r="FH40" s="185"/>
       <c r="FI40" s="185"/>
       <c r="FJ40" s="185"/>
-    </row>
-    <row r="41" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK40" s="185"/>
+      <c r="FL40" s="185"/>
+      <c r="FM40" s="185"/>
+      <c r="FN40" s="185"/>
+    </row>
+    <row r="41" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>626</v>
       </c>
@@ -15223,7 +15476,7 @@
       <c r="DD41" s="119"/>
       <c r="DE41" s="119"/>
       <c r="DF41" s="119">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="DG41" s="119"/>
       <c r="DH41" s="119"/>
@@ -15264,10 +15517,12 @@
       <c r="EE41" s="119"/>
       <c r="EF41" s="119"/>
       <c r="EG41" s="119"/>
-      <c r="EH41" s="185"/>
-      <c r="EI41" s="185"/>
-      <c r="EJ41" s="185"/>
-      <c r="EK41" s="185"/>
+      <c r="EH41" s="119">
+        <v>1</v>
+      </c>
+      <c r="EI41" s="119"/>
+      <c r="EJ41" s="119"/>
+      <c r="EK41" s="119"/>
       <c r="EL41" s="185"/>
       <c r="EM41" s="185"/>
       <c r="EN41" s="185"/>
@@ -15293,8 +15548,12 @@
       <c r="FH41" s="185"/>
       <c r="FI41" s="185"/>
       <c r="FJ41" s="185"/>
-    </row>
-    <row r="42" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK41" s="185"/>
+      <c r="FL41" s="185"/>
+      <c r="FM41" s="185"/>
+      <c r="FN41" s="185"/>
+    </row>
+    <row r="42" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>3</v>
       </c>
@@ -15449,7 +15708,7 @@
       <c r="DT42" s="119"/>
       <c r="DU42" s="119"/>
       <c r="DV42" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="DW42" s="119"/>
       <c r="DX42" s="119"/>
@@ -15461,15 +15720,17 @@
       <c r="EB42" s="119"/>
       <c r="EC42" s="119"/>
       <c r="ED42" s="119">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="EE42" s="119"/>
       <c r="EF42" s="119"/>
       <c r="EG42" s="119"/>
-      <c r="EH42" s="185"/>
-      <c r="EI42" s="185"/>
-      <c r="EJ42" s="185"/>
-      <c r="EK42" s="185"/>
+      <c r="EH42" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI42" s="119"/>
+      <c r="EJ42" s="119"/>
+      <c r="EK42" s="119"/>
       <c r="EL42" s="185"/>
       <c r="EM42" s="185"/>
       <c r="EN42" s="185"/>
@@ -15495,8 +15756,12 @@
       <c r="FH42" s="185"/>
       <c r="FI42" s="185"/>
       <c r="FJ42" s="185"/>
-    </row>
-    <row r="43" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK42" s="185"/>
+      <c r="FL42" s="185"/>
+      <c r="FM42" s="185"/>
+      <c r="FN42" s="185"/>
+    </row>
+    <row r="43" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>320</v>
       </c>
@@ -15645,33 +15910,35 @@
       <c r="DP43" s="119"/>
       <c r="DQ43" s="119"/>
       <c r="DR43" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS43" s="119"/>
       <c r="DT43" s="119"/>
       <c r="DU43" s="119"/>
       <c r="DV43" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW43" s="119"/>
       <c r="DX43" s="119"/>
       <c r="DY43" s="119"/>
       <c r="DZ43" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA43" s="119"/>
       <c r="EB43" s="119"/>
       <c r="EC43" s="119"/>
       <c r="ED43" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE43" s="119"/>
       <c r="EF43" s="119"/>
       <c r="EG43" s="119"/>
-      <c r="EH43" s="185"/>
-      <c r="EI43" s="185"/>
-      <c r="EJ43" s="185"/>
-      <c r="EK43" s="185"/>
+      <c r="EH43" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI43" s="119"/>
+      <c r="EJ43" s="119"/>
+      <c r="EK43" s="119"/>
       <c r="EL43" s="185"/>
       <c r="EM43" s="185"/>
       <c r="EN43" s="185"/>
@@ -15697,8 +15964,12 @@
       <c r="FH43" s="185"/>
       <c r="FI43" s="185"/>
       <c r="FJ43" s="185"/>
-    </row>
-    <row r="44" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK43" s="185"/>
+      <c r="FL43" s="185"/>
+      <c r="FM43" s="185"/>
+      <c r="FN43" s="185"/>
+    </row>
+    <row r="44" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>625</v>
       </c>
@@ -15865,45 +16136,47 @@
       <c r="DL44" s="119"/>
       <c r="DM44" s="119"/>
       <c r="DN44" s="119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DO44" s="119"/>
-      <c r="DP44" s="119" t="s">
-        <v>696</v>
-      </c>
+      <c r="DP44" s="119"/>
       <c r="DQ44" s="119"/>
       <c r="DR44" s="119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DS44" s="119"/>
       <c r="DT44" s="119" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="DU44" s="119"/>
       <c r="DV44" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DW44" s="119"/>
-      <c r="DX44" s="119"/>
+      <c r="DX44" s="119" t="s">
+        <v>635</v>
+      </c>
       <c r="DY44" s="119"/>
       <c r="DZ44" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EA44" s="119"/>
-      <c r="EB44" s="119" t="s">
-        <v>635</v>
-      </c>
+      <c r="EB44" s="119"/>
       <c r="EC44" s="119"/>
       <c r="ED44" s="119">
         <v>0</v>
       </c>
       <c r="EE44" s="119"/>
-      <c r="EF44" s="119"/>
+      <c r="EF44" s="119" t="s">
+        <v>635</v>
+      </c>
       <c r="EG44" s="119"/>
-      <c r="EH44" s="185"/>
-      <c r="EI44" s="185"/>
-      <c r="EJ44" s="185"/>
-      <c r="EK44" s="185"/>
+      <c r="EH44" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI44" s="119"/>
+      <c r="EJ44" s="119"/>
+      <c r="EK44" s="119"/>
       <c r="EL44" s="185"/>
       <c r="EM44" s="185"/>
       <c r="EN44" s="185"/>
@@ -15929,8 +16202,12 @@
       <c r="FH44" s="185"/>
       <c r="FI44" s="185"/>
       <c r="FJ44" s="185"/>
-    </row>
-    <row r="45" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK44" s="185"/>
+      <c r="FL44" s="185"/>
+      <c r="FM44" s="185"/>
+      <c r="FN44" s="185"/>
+    </row>
+    <row r="45" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>624</v>
       </c>
@@ -16107,13 +16384,13 @@
       <c r="DT45" s="119"/>
       <c r="DU45" s="119"/>
       <c r="DV45" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DW45" s="119"/>
       <c r="DX45" s="119"/>
       <c r="DY45" s="119"/>
       <c r="DZ45" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EA45" s="119"/>
       <c r="EB45" s="119"/>
@@ -16124,10 +16401,12 @@
       <c r="EE45" s="119"/>
       <c r="EF45" s="119"/>
       <c r="EG45" s="119"/>
-      <c r="EH45" s="185"/>
-      <c r="EI45" s="185"/>
-      <c r="EJ45" s="185"/>
-      <c r="EK45" s="185"/>
+      <c r="EH45" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI45" s="119"/>
+      <c r="EJ45" s="119"/>
+      <c r="EK45" s="119"/>
       <c r="EL45" s="185"/>
       <c r="EM45" s="185"/>
       <c r="EN45" s="185"/>
@@ -16153,8 +16432,12 @@
       <c r="FH45" s="185"/>
       <c r="FI45" s="185"/>
       <c r="FJ45" s="185"/>
-    </row>
-    <row r="46" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK45" s="185"/>
+      <c r="FL45" s="185"/>
+      <c r="FM45" s="185"/>
+      <c r="FN45" s="185"/>
+    </row>
+    <row r="46" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>4</v>
       </c>
@@ -16297,25 +16580,25 @@
       <c r="DL46" s="119"/>
       <c r="DM46" s="119"/>
       <c r="DN46" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DO46" s="119"/>
       <c r="DP46" s="119"/>
       <c r="DQ46" s="119"/>
       <c r="DR46" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DS46" s="119"/>
       <c r="DT46" s="119"/>
       <c r="DU46" s="119"/>
       <c r="DV46" s="119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="DW46" s="119"/>
       <c r="DX46" s="119"/>
       <c r="DY46" s="119"/>
       <c r="DZ46" s="119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="EA46" s="119"/>
       <c r="EB46" s="119"/>
@@ -16326,10 +16609,12 @@
       <c r="EE46" s="119"/>
       <c r="EF46" s="119"/>
       <c r="EG46" s="119"/>
-      <c r="EH46" s="185"/>
-      <c r="EI46" s="185"/>
-      <c r="EJ46" s="185"/>
-      <c r="EK46" s="185"/>
+      <c r="EH46" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI46" s="119"/>
+      <c r="EJ46" s="119"/>
+      <c r="EK46" s="119"/>
       <c r="EL46" s="185"/>
       <c r="EM46" s="185"/>
       <c r="EN46" s="185"/>
@@ -16355,8 +16640,12 @@
       <c r="FH46" s="185"/>
       <c r="FI46" s="185"/>
       <c r="FJ46" s="185"/>
-    </row>
-    <row r="47" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK46" s="185"/>
+      <c r="FL46" s="185"/>
+      <c r="FM46" s="185"/>
+      <c r="FN46" s="185"/>
+    </row>
+    <row r="47" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>321</v>
       </c>
@@ -16499,13 +16788,13 @@
       <c r="DL47" s="119"/>
       <c r="DM47" s="119"/>
       <c r="DN47" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO47" s="119"/>
       <c r="DP47" s="119"/>
       <c r="DQ47" s="119"/>
       <c r="DR47" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS47" s="119"/>
       <c r="DT47" s="119"/>
@@ -16528,10 +16817,12 @@
       <c r="EE47" s="119"/>
       <c r="EF47" s="119"/>
       <c r="EG47" s="119"/>
-      <c r="EH47" s="185"/>
-      <c r="EI47" s="185"/>
-      <c r="EJ47" s="185"/>
-      <c r="EK47" s="185"/>
+      <c r="EH47" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI47" s="119"/>
+      <c r="EJ47" s="119"/>
+      <c r="EK47" s="119"/>
       <c r="EL47" s="185"/>
       <c r="EM47" s="185"/>
       <c r="EN47" s="185"/>
@@ -16557,8 +16848,12 @@
       <c r="FH47" s="185"/>
       <c r="FI47" s="185"/>
       <c r="FJ47" s="185"/>
-    </row>
-    <row r="48" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK47" s="185"/>
+      <c r="FL47" s="185"/>
+      <c r="FM47" s="185"/>
+      <c r="FN47" s="185"/>
+    </row>
+    <row r="48" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>322</v>
       </c>
@@ -16689,7 +16984,7 @@
       <c r="DD48" s="119"/>
       <c r="DE48" s="119"/>
       <c r="DF48" s="119">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DG48" s="119"/>
       <c r="DH48" s="119"/>
@@ -16701,19 +16996,19 @@
       <c r="DL48" s="119"/>
       <c r="DM48" s="119"/>
       <c r="DN48" s="119">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="DO48" s="119"/>
       <c r="DP48" s="119"/>
       <c r="DQ48" s="119"/>
       <c r="DR48" s="119">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="DS48" s="119"/>
       <c r="DT48" s="119"/>
       <c r="DU48" s="119"/>
       <c r="DV48" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="DW48" s="119"/>
       <c r="DX48" s="119"/>
@@ -16725,15 +17020,17 @@
       <c r="EB48" s="119"/>
       <c r="EC48" s="119"/>
       <c r="ED48" s="119">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="EE48" s="119"/>
       <c r="EF48" s="119"/>
       <c r="EG48" s="119"/>
-      <c r="EH48" s="185"/>
-      <c r="EI48" s="185"/>
-      <c r="EJ48" s="185"/>
-      <c r="EK48" s="185"/>
+      <c r="EH48" s="119">
+        <v>0.9</v>
+      </c>
+      <c r="EI48" s="119"/>
+      <c r="EJ48" s="119"/>
+      <c r="EK48" s="119"/>
       <c r="EL48" s="185"/>
       <c r="EM48" s="185"/>
       <c r="EN48" s="185"/>
@@ -16759,8 +17056,12 @@
       <c r="FH48" s="185"/>
       <c r="FI48" s="185"/>
       <c r="FJ48" s="185"/>
-    </row>
-    <row r="49" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK48" s="185"/>
+      <c r="FL48" s="185"/>
+      <c r="FM48" s="185"/>
+      <c r="FN48" s="185"/>
+    </row>
+    <row r="49" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>323</v>
       </c>
@@ -16903,13 +17204,13 @@
       <c r="DL49" s="119"/>
       <c r="DM49" s="119"/>
       <c r="DN49" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DO49" s="119"/>
       <c r="DP49" s="119"/>
       <c r="DQ49" s="119"/>
       <c r="DR49" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DS49" s="119"/>
       <c r="DT49" s="119"/>
@@ -16932,10 +17233,12 @@
       <c r="EE49" s="119"/>
       <c r="EF49" s="119"/>
       <c r="EG49" s="119"/>
-      <c r="EH49" s="185"/>
-      <c r="EI49" s="185"/>
-      <c r="EJ49" s="185"/>
-      <c r="EK49" s="185"/>
+      <c r="EH49" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI49" s="119"/>
+      <c r="EJ49" s="119"/>
+      <c r="EK49" s="119"/>
       <c r="EL49" s="185"/>
       <c r="EM49" s="185"/>
       <c r="EN49" s="185"/>
@@ -16961,8 +17264,12 @@
       <c r="FH49" s="185"/>
       <c r="FI49" s="185"/>
       <c r="FJ49" s="185"/>
-    </row>
-    <row r="50" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK49" s="185"/>
+      <c r="FL49" s="185"/>
+      <c r="FM49" s="185"/>
+      <c r="FN49" s="185"/>
+    </row>
+    <row r="50" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69" t="s">
         <v>622</v>
       </c>
@@ -17129,15 +17436,17 @@
       <c r="EB50" s="119"/>
       <c r="EC50" s="119"/>
       <c r="ED50" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EE50" s="119"/>
       <c r="EF50" s="119"/>
       <c r="EG50" s="119"/>
-      <c r="EH50" s="185"/>
-      <c r="EI50" s="185"/>
-      <c r="EJ50" s="185"/>
-      <c r="EK50" s="185"/>
+      <c r="EH50" s="119">
+        <v>-1</v>
+      </c>
+      <c r="EI50" s="119"/>
+      <c r="EJ50" s="119"/>
+      <c r="EK50" s="119"/>
       <c r="EL50" s="185"/>
       <c r="EM50" s="185"/>
       <c r="EN50" s="185"/>
@@ -17163,8 +17472,12 @@
       <c r="FH50" s="185"/>
       <c r="FI50" s="185"/>
       <c r="FJ50" s="185"/>
-    </row>
-    <row r="51" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK50" s="185"/>
+      <c r="FL50" s="185"/>
+      <c r="FM50" s="185"/>
+      <c r="FN50" s="185"/>
+    </row>
+    <row r="51" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>660</v>
       </c>
@@ -17379,13 +17692,13 @@
       <c r="DT51" s="119"/>
       <c r="DU51" s="119"/>
       <c r="DV51" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW51" s="119"/>
       <c r="DX51" s="119"/>
       <c r="DY51" s="119"/>
       <c r="DZ51" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA51" s="119"/>
       <c r="EB51" s="119"/>
@@ -17396,10 +17709,12 @@
       <c r="EE51" s="119"/>
       <c r="EF51" s="119"/>
       <c r="EG51" s="119"/>
-      <c r="EH51" s="185"/>
-      <c r="EI51" s="185"/>
-      <c r="EJ51" s="185"/>
-      <c r="EK51" s="185"/>
+      <c r="EH51" s="119">
+        <v>0</v>
+      </c>
+      <c r="EI51" s="119"/>
+      <c r="EJ51" s="119"/>
+      <c r="EK51" s="119"/>
       <c r="EL51" s="185"/>
       <c r="EM51" s="185"/>
       <c r="EN51" s="185"/>
@@ -17425,8 +17740,12 @@
       <c r="FH51" s="185"/>
       <c r="FI51" s="185"/>
       <c r="FJ51" s="185"/>
-    </row>
-    <row r="52" spans="1:166" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FK51" s="185"/>
+      <c r="FL51" s="185"/>
+      <c r="FM51" s="185"/>
+      <c r="FN51" s="185"/>
+    </row>
+    <row r="52" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
         <v>661</v>
       </c>
@@ -17556,7 +17875,7 @@
       <c r="DC52" s="119"/>
       <c r="DD52" s="119"/>
       <c r="DE52" s="119"/>
-      <c r="DF52" s="119" t="s">
+      <c r="DF52" s="193" t="s">
         <v>663</v>
       </c>
       <c r="DG52" s="119"/>
@@ -17569,39 +17888,41 @@
       <c r="DL52" s="119"/>
       <c r="DM52" s="119"/>
       <c r="DN52" s="119" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
       <c r="DO52" s="119"/>
       <c r="DP52" s="119"/>
       <c r="DQ52" s="119"/>
       <c r="DR52" s="119" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="DS52" s="119"/>
       <c r="DT52" s="119"/>
       <c r="DU52" s="119"/>
       <c r="DV52" s="119" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="DW52" s="119"/>
       <c r="DX52" s="119"/>
       <c r="DY52" s="119"/>
       <c r="DZ52" s="119" t="s">
+        <v>663</v>
+      </c>
+      <c r="EA52" s="119"/>
+      <c r="EB52" s="119"/>
+      <c r="EC52" s="119"/>
+      <c r="ED52" s="119" t="s">
         <v>731</v>
-      </c>
-      <c r="EA52" s="193"/>
-      <c r="EB52" s="193"/>
-      <c r="EC52" s="193"/>
-      <c r="ED52" s="193" t="s">
-        <v>663</v>
       </c>
       <c r="EE52" s="193"/>
       <c r="EF52" s="193"/>
       <c r="EG52" s="193"/>
-      <c r="EH52" s="185"/>
-      <c r="EI52" s="185"/>
-      <c r="EJ52" s="185"/>
-      <c r="EK52" s="185"/>
+      <c r="EH52" s="193" t="s">
+        <v>663</v>
+      </c>
+      <c r="EI52" s="193"/>
+      <c r="EJ52" s="193"/>
+      <c r="EK52" s="193"/>
       <c r="EL52" s="185"/>
       <c r="EM52" s="185"/>
       <c r="EN52" s="185"/>
@@ -17627,8 +17948,12 @@
       <c r="FH52" s="185"/>
       <c r="FI52" s="185"/>
       <c r="FJ52" s="185"/>
-    </row>
-    <row r="53" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK52" s="185"/>
+      <c r="FL52" s="185"/>
+      <c r="FM52" s="185"/>
+      <c r="FN52" s="185"/>
+    </row>
+    <row r="53" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="164" t="s">
         <v>594</v>
       </c>
@@ -17902,16 +18227,10 @@
       <c r="DE53" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF53" s="75"/>
-      <c r="DG53" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH53" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI53" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF53" s="192"/>
+      <c r="DG53" s="114"/>
+      <c r="DH53" s="114"/>
+      <c r="DI53" s="114"/>
       <c r="DJ53" s="75"/>
       <c r="DK53" s="114" t="s">
         <v>353</v>
@@ -17920,17 +18239,17 @@
         <v>354</v>
       </c>
       <c r="DM53" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN53" s="194"/>
-      <c r="DO53" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="DP53" s="192" t="s">
-        <v>354</v>
-      </c>
-      <c r="DQ53" s="192" t="s">
-        <v>355</v>
+        <v>355</v>
+      </c>
+      <c r="DN53" s="75"/>
+      <c r="DO53" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DP53" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DQ53" s="114" t="s">
+        <v>354</v>
       </c>
       <c r="DR53" s="194"/>
       <c r="DS53" s="192" t="s">
@@ -17942,34 +18261,34 @@
       <c r="DU53" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="DV53" s="192"/>
-      <c r="DW53" s="192"/>
-      <c r="DX53" s="192"/>
-      <c r="DY53" s="192"/>
-      <c r="DZ53" s="194"/>
-      <c r="EA53" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB53" s="192" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC53" s="192" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED53" s="192"/>
-      <c r="EE53" s="192"/>
-      <c r="EF53" s="192"/>
-      <c r="EG53" s="192"/>
-      <c r="EH53" s="182"/>
-      <c r="EI53" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ53" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK53" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV53" s="194"/>
+      <c r="DW53" s="192" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX53" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY53" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ53" s="192"/>
+      <c r="EA53" s="192"/>
+      <c r="EB53" s="192"/>
+      <c r="EC53" s="192"/>
+      <c r="ED53" s="194"/>
+      <c r="EE53" s="192" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF53" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG53" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH53" s="192"/>
+      <c r="EI53" s="192"/>
+      <c r="EJ53" s="192"/>
+      <c r="EK53" s="192"/>
       <c r="EL53" s="182"/>
       <c r="EM53" s="181" t="s">
         <v>353</v>
@@ -17981,13 +18300,13 @@
         <v>355</v>
       </c>
       <c r="EP53" s="182"/>
-      <c r="EQ53" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER53" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES53" s="182" t="s">
+      <c r="EQ53" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER53" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES53" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET53" s="182"/>
@@ -18030,9 +18349,19 @@
       <c r="FI53" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ53" s="177"/>
-    </row>
-    <row r="54" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ53" s="182"/>
+      <c r="FK53" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL53" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM53" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN53" s="177"/>
+    </row>
+    <row r="54" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="70" t="s">
         <v>113</v>
       </c>
@@ -18150,7 +18479,7 @@
       <c r="DC54" s="117"/>
       <c r="DD54" s="117"/>
       <c r="DE54" s="117"/>
-      <c r="DF54" s="76"/>
+      <c r="DF54" s="117"/>
       <c r="DG54" s="117"/>
       <c r="DH54" s="117"/>
       <c r="DI54" s="117"/>
@@ -18158,7 +18487,7 @@
       <c r="DK54" s="117"/>
       <c r="DL54" s="117"/>
       <c r="DM54" s="117"/>
-      <c r="DN54" s="117"/>
+      <c r="DN54" s="76"/>
       <c r="DO54" s="117"/>
       <c r="DP54" s="117"/>
       <c r="DQ54" s="117"/>
@@ -18166,13 +18495,13 @@
       <c r="DS54" s="117"/>
       <c r="DT54" s="117"/>
       <c r="DU54" s="117"/>
-      <c r="DV54" s="117">
-        <v>0.25</v>
-      </c>
+      <c r="DV54" s="117"/>
       <c r="DW54" s="117"/>
       <c r="DX54" s="117"/>
       <c r="DY54" s="117"/>
-      <c r="DZ54" s="117"/>
+      <c r="DZ54" s="117">
+        <v>0.25</v>
+      </c>
       <c r="EA54" s="117"/>
       <c r="EB54" s="117"/>
       <c r="EC54" s="117"/>
@@ -18180,10 +18509,10 @@
       <c r="EE54" s="117"/>
       <c r="EF54" s="117"/>
       <c r="EG54" s="117"/>
-      <c r="EH54" s="185"/>
-      <c r="EI54" s="185"/>
-      <c r="EJ54" s="185"/>
-      <c r="EK54" s="185"/>
+      <c r="EH54" s="117"/>
+      <c r="EI54" s="117"/>
+      <c r="EJ54" s="117"/>
+      <c r="EK54" s="117"/>
       <c r="EL54" s="185"/>
       <c r="EM54" s="185"/>
       <c r="EN54" s="185"/>
@@ -18209,8 +18538,12 @@
       <c r="FH54" s="185"/>
       <c r="FI54" s="185"/>
       <c r="FJ54" s="185"/>
-    </row>
-    <row r="55" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK54" s="185"/>
+      <c r="FL54" s="185"/>
+      <c r="FM54" s="185"/>
+      <c r="FN54" s="185"/>
+    </row>
+    <row r="55" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
         <v>591</v>
       </c>
@@ -18484,16 +18817,10 @@
       <c r="DE55" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF55" s="75"/>
-      <c r="DG55" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI55" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF55" s="114"/>
+      <c r="DG55" s="114"/>
+      <c r="DH55" s="114"/>
+      <c r="DI55" s="114"/>
       <c r="DJ55" s="75"/>
       <c r="DK55" s="114" t="s">
         <v>353</v>
@@ -18502,9 +18829,9 @@
         <v>354</v>
       </c>
       <c r="DM55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN55" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN55" s="75"/>
       <c r="DO55" s="114" t="s">
         <v>353</v>
       </c>
@@ -18512,7 +18839,7 @@
         <v>354</v>
       </c>
       <c r="DQ55" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR55" s="116"/>
       <c r="DS55" s="114" t="s">
@@ -18524,34 +18851,34 @@
       <c r="DU55" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV55" s="114"/>
-      <c r="DW55" s="114"/>
-      <c r="DX55" s="114"/>
-      <c r="DY55" s="114"/>
-      <c r="DZ55" s="116"/>
-      <c r="EA55" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC55" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED55" s="114"/>
-      <c r="EE55" s="114"/>
-      <c r="EF55" s="114"/>
-      <c r="EG55" s="114"/>
-      <c r="EH55" s="182"/>
-      <c r="EI55" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ55" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK55" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV55" s="116"/>
+      <c r="DW55" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX55" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY55" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ55" s="114"/>
+      <c r="EA55" s="114"/>
+      <c r="EB55" s="114"/>
+      <c r="EC55" s="114"/>
+      <c r="ED55" s="116"/>
+      <c r="EE55" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF55" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG55" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH55" s="114"/>
+      <c r="EI55" s="114"/>
+      <c r="EJ55" s="114"/>
+      <c r="EK55" s="114"/>
       <c r="EL55" s="182"/>
       <c r="EM55" s="181" t="s">
         <v>353</v>
@@ -18563,13 +18890,13 @@
         <v>355</v>
       </c>
       <c r="EP55" s="182"/>
-      <c r="EQ55" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER55" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES55" s="182" t="s">
+      <c r="EQ55" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER55" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES55" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET55" s="182"/>
@@ -18612,9 +18939,19 @@
       <c r="FI55" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ55" s="177"/>
-    </row>
-    <row r="56" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ55" s="182"/>
+      <c r="FK55" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL55" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM55" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN55" s="177"/>
+    </row>
+    <row r="56" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="70" t="s">
         <v>113</v>
       </c>
@@ -18732,7 +19069,7 @@
       <c r="DC56" s="117"/>
       <c r="DD56" s="117"/>
       <c r="DE56" s="117"/>
-      <c r="DF56" s="76"/>
+      <c r="DF56" s="117"/>
       <c r="DG56" s="117"/>
       <c r="DH56" s="117"/>
       <c r="DI56" s="117"/>
@@ -18740,7 +19077,7 @@
       <c r="DK56" s="117"/>
       <c r="DL56" s="117"/>
       <c r="DM56" s="117"/>
-      <c r="DN56" s="117"/>
+      <c r="DN56" s="76"/>
       <c r="DO56" s="117"/>
       <c r="DP56" s="117"/>
       <c r="DQ56" s="117"/>
@@ -18748,13 +19085,13 @@
       <c r="DS56" s="117"/>
       <c r="DT56" s="117"/>
       <c r="DU56" s="117"/>
-      <c r="DV56" s="117">
-        <v>0.35</v>
-      </c>
+      <c r="DV56" s="117"/>
       <c r="DW56" s="117"/>
       <c r="DX56" s="117"/>
       <c r="DY56" s="117"/>
-      <c r="DZ56" s="117"/>
+      <c r="DZ56" s="117">
+        <v>0.35</v>
+      </c>
       <c r="EA56" s="117"/>
       <c r="EB56" s="117"/>
       <c r="EC56" s="117"/>
@@ -18762,10 +19099,10 @@
       <c r="EE56" s="117"/>
       <c r="EF56" s="117"/>
       <c r="EG56" s="117"/>
-      <c r="EH56" s="185"/>
-      <c r="EI56" s="185"/>
-      <c r="EJ56" s="185"/>
-      <c r="EK56" s="185"/>
+      <c r="EH56" s="117"/>
+      <c r="EI56" s="117"/>
+      <c r="EJ56" s="117"/>
+      <c r="EK56" s="117"/>
       <c r="EL56" s="185"/>
       <c r="EM56" s="185"/>
       <c r="EN56" s="185"/>
@@ -18791,8 +19128,12 @@
       <c r="FH56" s="185"/>
       <c r="FI56" s="185"/>
       <c r="FJ56" s="185"/>
-    </row>
-    <row r="57" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK56" s="185"/>
+      <c r="FL56" s="185"/>
+      <c r="FM56" s="185"/>
+      <c r="FN56" s="185"/>
+    </row>
+    <row r="57" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="68" t="s">
         <v>590</v>
       </c>
@@ -19066,16 +19407,10 @@
       <c r="DE57" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF57" s="75"/>
-      <c r="DG57" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI57" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF57" s="114"/>
+      <c r="DG57" s="114"/>
+      <c r="DH57" s="114"/>
+      <c r="DI57" s="114"/>
       <c r="DJ57" s="75"/>
       <c r="DK57" s="114" t="s">
         <v>353</v>
@@ -19084,9 +19419,9 @@
         <v>354</v>
       </c>
       <c r="DM57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN57" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN57" s="75"/>
       <c r="DO57" s="114" t="s">
         <v>353</v>
       </c>
@@ -19094,7 +19429,7 @@
         <v>354</v>
       </c>
       <c r="DQ57" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR57" s="116"/>
       <c r="DS57" s="114" t="s">
@@ -19106,34 +19441,34 @@
       <c r="DU57" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV57" s="114"/>
-      <c r="DW57" s="114"/>
-      <c r="DX57" s="114"/>
-      <c r="DY57" s="114"/>
-      <c r="DZ57" s="116"/>
-      <c r="EA57" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC57" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED57" s="114"/>
-      <c r="EE57" s="114"/>
-      <c r="EF57" s="114"/>
-      <c r="EG57" s="114"/>
-      <c r="EH57" s="182"/>
-      <c r="EI57" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ57" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK57" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV57" s="116"/>
+      <c r="DW57" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX57" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY57" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ57" s="114"/>
+      <c r="EA57" s="114"/>
+      <c r="EB57" s="114"/>
+      <c r="EC57" s="114"/>
+      <c r="ED57" s="116"/>
+      <c r="EE57" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF57" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG57" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH57" s="114"/>
+      <c r="EI57" s="114"/>
+      <c r="EJ57" s="114"/>
+      <c r="EK57" s="114"/>
       <c r="EL57" s="182"/>
       <c r="EM57" s="181" t="s">
         <v>353</v>
@@ -19145,13 +19480,13 @@
         <v>355</v>
       </c>
       <c r="EP57" s="182"/>
-      <c r="EQ57" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER57" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES57" s="182" t="s">
+      <c r="EQ57" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER57" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES57" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET57" s="182"/>
@@ -19194,9 +19529,19 @@
       <c r="FI57" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ57" s="177"/>
-    </row>
-    <row r="58" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ57" s="182"/>
+      <c r="FK57" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL57" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM57" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN57" s="177"/>
+    </row>
+    <row r="58" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70" t="s">
         <v>113</v>
       </c>
@@ -19314,7 +19659,7 @@
       <c r="DC58" s="117"/>
       <c r="DD58" s="117"/>
       <c r="DE58" s="117"/>
-      <c r="DF58" s="76"/>
+      <c r="DF58" s="117"/>
       <c r="DG58" s="117"/>
       <c r="DH58" s="117"/>
       <c r="DI58" s="117"/>
@@ -19322,7 +19667,7 @@
       <c r="DK58" s="117"/>
       <c r="DL58" s="117"/>
       <c r="DM58" s="117"/>
-      <c r="DN58" s="117"/>
+      <c r="DN58" s="76"/>
       <c r="DO58" s="117"/>
       <c r="DP58" s="117"/>
       <c r="DQ58" s="117"/>
@@ -19330,13 +19675,13 @@
       <c r="DS58" s="117"/>
       <c r="DT58" s="117"/>
       <c r="DU58" s="117"/>
-      <c r="DV58" s="117">
-        <v>0.61</v>
-      </c>
+      <c r="DV58" s="117"/>
       <c r="DW58" s="117"/>
       <c r="DX58" s="117"/>
       <c r="DY58" s="117"/>
-      <c r="DZ58" s="117"/>
+      <c r="DZ58" s="117">
+        <v>0.61</v>
+      </c>
       <c r="EA58" s="117"/>
       <c r="EB58" s="117"/>
       <c r="EC58" s="117"/>
@@ -19344,10 +19689,10 @@
       <c r="EE58" s="117"/>
       <c r="EF58" s="117"/>
       <c r="EG58" s="117"/>
-      <c r="EH58" s="185"/>
-      <c r="EI58" s="185"/>
-      <c r="EJ58" s="185"/>
-      <c r="EK58" s="185"/>
+      <c r="EH58" s="117"/>
+      <c r="EI58" s="117"/>
+      <c r="EJ58" s="117"/>
+      <c r="EK58" s="117"/>
       <c r="EL58" s="185"/>
       <c r="EM58" s="185"/>
       <c r="EN58" s="185"/>
@@ -19373,8 +19718,12 @@
       <c r="FH58" s="185"/>
       <c r="FI58" s="185"/>
       <c r="FJ58" s="185"/>
-    </row>
-    <row r="59" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK58" s="185"/>
+      <c r="FL58" s="185"/>
+      <c r="FM58" s="185"/>
+      <c r="FN58" s="185"/>
+    </row>
+    <row r="59" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="68" t="s">
         <v>595</v>
       </c>
@@ -19648,16 +19997,10 @@
       <c r="DE59" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF59" s="75"/>
-      <c r="DG59" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI59" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF59" s="114"/>
+      <c r="DG59" s="114"/>
+      <c r="DH59" s="114"/>
+      <c r="DI59" s="114"/>
       <c r="DJ59" s="75"/>
       <c r="DK59" s="114" t="s">
         <v>353</v>
@@ -19666,9 +20009,9 @@
         <v>354</v>
       </c>
       <c r="DM59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN59" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN59" s="75"/>
       <c r="DO59" s="114" t="s">
         <v>353</v>
       </c>
@@ -19676,7 +20019,7 @@
         <v>354</v>
       </c>
       <c r="DQ59" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR59" s="116"/>
       <c r="DS59" s="114" t="s">
@@ -19688,34 +20031,34 @@
       <c r="DU59" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV59" s="114"/>
-      <c r="DW59" s="114"/>
-      <c r="DX59" s="114"/>
-      <c r="DY59" s="114"/>
-      <c r="DZ59" s="116"/>
-      <c r="EA59" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC59" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED59" s="114"/>
-      <c r="EE59" s="114"/>
-      <c r="EF59" s="114"/>
-      <c r="EG59" s="114"/>
-      <c r="EH59" s="182"/>
-      <c r="EI59" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ59" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK59" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV59" s="116"/>
+      <c r="DW59" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX59" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY59" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ59" s="114"/>
+      <c r="EA59" s="114"/>
+      <c r="EB59" s="114"/>
+      <c r="EC59" s="114"/>
+      <c r="ED59" s="116"/>
+      <c r="EE59" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF59" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG59" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH59" s="114"/>
+      <c r="EI59" s="114"/>
+      <c r="EJ59" s="114"/>
+      <c r="EK59" s="114"/>
       <c r="EL59" s="182"/>
       <c r="EM59" s="181" t="s">
         <v>353</v>
@@ -19727,13 +20070,13 @@
         <v>355</v>
       </c>
       <c r="EP59" s="182"/>
-      <c r="EQ59" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER59" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES59" s="182" t="s">
+      <c r="EQ59" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER59" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES59" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET59" s="182"/>
@@ -19776,9 +20119,19 @@
       <c r="FI59" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ59" s="177"/>
-    </row>
-    <row r="60" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ59" s="182"/>
+      <c r="FK59" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL59" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM59" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN59" s="177"/>
+    </row>
+    <row r="60" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="70" t="s">
         <v>113</v>
       </c>
@@ -19896,7 +20249,7 @@
       <c r="DC60" s="117"/>
       <c r="DD60" s="117"/>
       <c r="DE60" s="117"/>
-      <c r="DF60" s="76"/>
+      <c r="DF60" s="117"/>
       <c r="DG60" s="117"/>
       <c r="DH60" s="117"/>
       <c r="DI60" s="117"/>
@@ -19904,7 +20257,7 @@
       <c r="DK60" s="117"/>
       <c r="DL60" s="117"/>
       <c r="DM60" s="117"/>
-      <c r="DN60" s="117"/>
+      <c r="DN60" s="76"/>
       <c r="DO60" s="117"/>
       <c r="DP60" s="117"/>
       <c r="DQ60" s="117"/>
@@ -19912,13 +20265,13 @@
       <c r="DS60" s="117"/>
       <c r="DT60" s="117"/>
       <c r="DU60" s="117"/>
-      <c r="DV60" s="117">
-        <v>0.375</v>
-      </c>
+      <c r="DV60" s="117"/>
       <c r="DW60" s="117"/>
       <c r="DX60" s="117"/>
       <c r="DY60" s="117"/>
-      <c r="DZ60" s="117"/>
+      <c r="DZ60" s="117">
+        <v>0.375</v>
+      </c>
       <c r="EA60" s="117"/>
       <c r="EB60" s="117"/>
       <c r="EC60" s="117"/>
@@ -19926,10 +20279,10 @@
       <c r="EE60" s="117"/>
       <c r="EF60" s="117"/>
       <c r="EG60" s="117"/>
-      <c r="EH60" s="185"/>
-      <c r="EI60" s="185"/>
-      <c r="EJ60" s="185"/>
-      <c r="EK60" s="185"/>
+      <c r="EH60" s="117"/>
+      <c r="EI60" s="117"/>
+      <c r="EJ60" s="117"/>
+      <c r="EK60" s="117"/>
       <c r="EL60" s="185"/>
       <c r="EM60" s="185"/>
       <c r="EN60" s="185"/>
@@ -19955,8 +20308,12 @@
       <c r="FH60" s="185"/>
       <c r="FI60" s="185"/>
       <c r="FJ60" s="185"/>
-    </row>
-    <row r="61" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK60" s="185"/>
+      <c r="FL60" s="185"/>
+      <c r="FM60" s="185"/>
+      <c r="FN60" s="185"/>
+    </row>
+    <row r="61" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>600</v>
       </c>
@@ -20230,16 +20587,10 @@
       <c r="DE61" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF61" s="75"/>
-      <c r="DG61" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI61" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF61" s="114"/>
+      <c r="DG61" s="114"/>
+      <c r="DH61" s="114"/>
+      <c r="DI61" s="114"/>
       <c r="DJ61" s="75"/>
       <c r="DK61" s="114" t="s">
         <v>353</v>
@@ -20248,9 +20599,9 @@
         <v>354</v>
       </c>
       <c r="DM61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN61" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN61" s="75"/>
       <c r="DO61" s="114" t="s">
         <v>353</v>
       </c>
@@ -20258,7 +20609,7 @@
         <v>354</v>
       </c>
       <c r="DQ61" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR61" s="116"/>
       <c r="DS61" s="114" t="s">
@@ -20270,34 +20621,34 @@
       <c r="DU61" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV61" s="114"/>
-      <c r="DW61" s="114"/>
-      <c r="DX61" s="114"/>
-      <c r="DY61" s="114"/>
-      <c r="DZ61" s="116"/>
-      <c r="EA61" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC61" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED61" s="114"/>
-      <c r="EE61" s="114"/>
-      <c r="EF61" s="114"/>
-      <c r="EG61" s="114"/>
-      <c r="EH61" s="182"/>
-      <c r="EI61" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ61" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK61" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV61" s="116"/>
+      <c r="DW61" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX61" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY61" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ61" s="114"/>
+      <c r="EA61" s="114"/>
+      <c r="EB61" s="114"/>
+      <c r="EC61" s="114"/>
+      <c r="ED61" s="116"/>
+      <c r="EE61" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF61" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG61" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH61" s="114"/>
+      <c r="EI61" s="114"/>
+      <c r="EJ61" s="114"/>
+      <c r="EK61" s="114"/>
       <c r="EL61" s="182"/>
       <c r="EM61" s="181" t="s">
         <v>353</v>
@@ -20309,13 +20660,13 @@
         <v>355</v>
       </c>
       <c r="EP61" s="182"/>
-      <c r="EQ61" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER61" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES61" s="182" t="s">
+      <c r="EQ61" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER61" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES61" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET61" s="182"/>
@@ -20358,9 +20709,19 @@
       <c r="FI61" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ61" s="177"/>
-    </row>
-    <row r="62" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ61" s="182"/>
+      <c r="FK61" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL61" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM61" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN61" s="177"/>
+    </row>
+    <row r="62" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="70" t="s">
         <v>113</v>
       </c>
@@ -20478,7 +20839,7 @@
       <c r="DC62" s="117"/>
       <c r="DD62" s="117"/>
       <c r="DE62" s="117"/>
-      <c r="DF62" s="76"/>
+      <c r="DF62" s="117"/>
       <c r="DG62" s="117"/>
       <c r="DH62" s="117"/>
       <c r="DI62" s="117"/>
@@ -20486,7 +20847,7 @@
       <c r="DK62" s="117"/>
       <c r="DL62" s="117"/>
       <c r="DM62" s="117"/>
-      <c r="DN62" s="117"/>
+      <c r="DN62" s="76"/>
       <c r="DO62" s="117"/>
       <c r="DP62" s="117"/>
       <c r="DQ62" s="117"/>
@@ -20494,13 +20855,13 @@
       <c r="DS62" s="117"/>
       <c r="DT62" s="117"/>
       <c r="DU62" s="117"/>
-      <c r="DV62" s="117">
-        <v>0.34</v>
-      </c>
+      <c r="DV62" s="117"/>
       <c r="DW62" s="117"/>
       <c r="DX62" s="117"/>
       <c r="DY62" s="117"/>
-      <c r="DZ62" s="117"/>
+      <c r="DZ62" s="117">
+        <v>0.34</v>
+      </c>
       <c r="EA62" s="117"/>
       <c r="EB62" s="117"/>
       <c r="EC62" s="117"/>
@@ -20508,10 +20869,10 @@
       <c r="EE62" s="117"/>
       <c r="EF62" s="117"/>
       <c r="EG62" s="117"/>
-      <c r="EH62" s="185"/>
-      <c r="EI62" s="185"/>
-      <c r="EJ62" s="185"/>
-      <c r="EK62" s="185"/>
+      <c r="EH62" s="117"/>
+      <c r="EI62" s="117"/>
+      <c r="EJ62" s="117"/>
+      <c r="EK62" s="117"/>
       <c r="EL62" s="185"/>
       <c r="EM62" s="185"/>
       <c r="EN62" s="185"/>
@@ -20537,8 +20898,12 @@
       <c r="FH62" s="185"/>
       <c r="FI62" s="185"/>
       <c r="FJ62" s="185"/>
-    </row>
-    <row r="63" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK62" s="185"/>
+      <c r="FL62" s="185"/>
+      <c r="FM62" s="185"/>
+      <c r="FN62" s="185"/>
+    </row>
+    <row r="63" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>601</v>
       </c>
@@ -20812,16 +21177,10 @@
       <c r="DE63" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF63" s="75"/>
-      <c r="DG63" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI63" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF63" s="114"/>
+      <c r="DG63" s="114"/>
+      <c r="DH63" s="114"/>
+      <c r="DI63" s="114"/>
       <c r="DJ63" s="75"/>
       <c r="DK63" s="114" t="s">
         <v>353</v>
@@ -20830,9 +21189,9 @@
         <v>354</v>
       </c>
       <c r="DM63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN63" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN63" s="75"/>
       <c r="DO63" s="114" t="s">
         <v>353</v>
       </c>
@@ -20840,7 +21199,7 @@
         <v>354</v>
       </c>
       <c r="DQ63" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR63" s="116"/>
       <c r="DS63" s="114" t="s">
@@ -20852,34 +21211,34 @@
       <c r="DU63" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV63" s="114"/>
-      <c r="DW63" s="114"/>
-      <c r="DX63" s="114"/>
-      <c r="DY63" s="114"/>
-      <c r="DZ63" s="116"/>
-      <c r="EA63" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC63" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED63" s="114"/>
-      <c r="EE63" s="114"/>
-      <c r="EF63" s="114"/>
-      <c r="EG63" s="114"/>
-      <c r="EH63" s="182"/>
-      <c r="EI63" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ63" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK63" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV63" s="116"/>
+      <c r="DW63" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX63" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY63" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ63" s="114"/>
+      <c r="EA63" s="114"/>
+      <c r="EB63" s="114"/>
+      <c r="EC63" s="114"/>
+      <c r="ED63" s="116"/>
+      <c r="EE63" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF63" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG63" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH63" s="114"/>
+      <c r="EI63" s="114"/>
+      <c r="EJ63" s="114"/>
+      <c r="EK63" s="114"/>
       <c r="EL63" s="182"/>
       <c r="EM63" s="181" t="s">
         <v>353</v>
@@ -20891,13 +21250,13 @@
         <v>355</v>
       </c>
       <c r="EP63" s="182"/>
-      <c r="EQ63" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER63" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES63" s="182" t="s">
+      <c r="EQ63" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER63" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES63" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET63" s="182"/>
@@ -20940,9 +21299,19 @@
       <c r="FI63" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ63" s="177"/>
-    </row>
-    <row r="64" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ63" s="182"/>
+      <c r="FK63" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL63" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM63" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN63" s="177"/>
+    </row>
+    <row r="64" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="70" t="s">
         <v>113</v>
       </c>
@@ -21060,7 +21429,7 @@
       <c r="DC64" s="117"/>
       <c r="DD64" s="117"/>
       <c r="DE64" s="117"/>
-      <c r="DF64" s="76"/>
+      <c r="DF64" s="117"/>
       <c r="DG64" s="117"/>
       <c r="DH64" s="117"/>
       <c r="DI64" s="117"/>
@@ -21068,7 +21437,7 @@
       <c r="DK64" s="117"/>
       <c r="DL64" s="117"/>
       <c r="DM64" s="117"/>
-      <c r="DN64" s="117"/>
+      <c r="DN64" s="76"/>
       <c r="DO64" s="117"/>
       <c r="DP64" s="117"/>
       <c r="DQ64" s="117"/>
@@ -21076,13 +21445,13 @@
       <c r="DS64" s="117"/>
       <c r="DT64" s="117"/>
       <c r="DU64" s="117"/>
-      <c r="DV64" s="117">
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="DV64" s="117"/>
       <c r="DW64" s="117"/>
       <c r="DX64" s="117"/>
       <c r="DY64" s="117"/>
-      <c r="DZ64" s="117"/>
+      <c r="DZ64" s="117">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="EA64" s="117"/>
       <c r="EB64" s="117"/>
       <c r="EC64" s="117"/>
@@ -21090,10 +21459,10 @@
       <c r="EE64" s="117"/>
       <c r="EF64" s="117"/>
       <c r="EG64" s="117"/>
-      <c r="EH64" s="185"/>
-      <c r="EI64" s="185"/>
-      <c r="EJ64" s="185"/>
-      <c r="EK64" s="185"/>
+      <c r="EH64" s="117"/>
+      <c r="EI64" s="117"/>
+      <c r="EJ64" s="117"/>
+      <c r="EK64" s="117"/>
       <c r="EL64" s="185"/>
       <c r="EM64" s="185"/>
       <c r="EN64" s="185"/>
@@ -21119,8 +21488,12 @@
       <c r="FH64" s="185"/>
       <c r="FI64" s="185"/>
       <c r="FJ64" s="185"/>
-    </row>
-    <row r="65" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK64" s="185"/>
+      <c r="FL64" s="185"/>
+      <c r="FM64" s="185"/>
+      <c r="FN64" s="185"/>
+    </row>
+    <row r="65" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="68" t="s">
         <v>597</v>
       </c>
@@ -21394,16 +21767,10 @@
       <c r="DE65" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF65" s="75"/>
-      <c r="DG65" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI65" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF65" s="114"/>
+      <c r="DG65" s="114"/>
+      <c r="DH65" s="114"/>
+      <c r="DI65" s="114"/>
       <c r="DJ65" s="75"/>
       <c r="DK65" s="114" t="s">
         <v>353</v>
@@ -21412,9 +21779,9 @@
         <v>354</v>
       </c>
       <c r="DM65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN65" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN65" s="75"/>
       <c r="DO65" s="114" t="s">
         <v>353</v>
       </c>
@@ -21422,7 +21789,7 @@
         <v>354</v>
       </c>
       <c r="DQ65" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR65" s="116"/>
       <c r="DS65" s="114" t="s">
@@ -21434,34 +21801,34 @@
       <c r="DU65" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV65" s="114"/>
-      <c r="DW65" s="114"/>
-      <c r="DX65" s="114"/>
-      <c r="DY65" s="114"/>
-      <c r="DZ65" s="116"/>
-      <c r="EA65" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC65" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED65" s="114"/>
-      <c r="EE65" s="114"/>
-      <c r="EF65" s="114"/>
-      <c r="EG65" s="114"/>
-      <c r="EH65" s="182"/>
-      <c r="EI65" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ65" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK65" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV65" s="116"/>
+      <c r="DW65" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX65" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY65" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ65" s="114"/>
+      <c r="EA65" s="114"/>
+      <c r="EB65" s="114"/>
+      <c r="EC65" s="114"/>
+      <c r="ED65" s="116"/>
+      <c r="EE65" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF65" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG65" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH65" s="114"/>
+      <c r="EI65" s="114"/>
+      <c r="EJ65" s="114"/>
+      <c r="EK65" s="114"/>
       <c r="EL65" s="182"/>
       <c r="EM65" s="181" t="s">
         <v>353</v>
@@ -21473,13 +21840,13 @@
         <v>355</v>
       </c>
       <c r="EP65" s="182"/>
-      <c r="EQ65" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER65" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES65" s="182" t="s">
+      <c r="EQ65" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER65" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES65" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET65" s="182"/>
@@ -21522,9 +21889,19 @@
       <c r="FI65" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ65" s="177"/>
-    </row>
-    <row r="66" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ65" s="182"/>
+      <c r="FK65" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL65" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM65" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN65" s="177"/>
+    </row>
+    <row r="66" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="70" t="s">
         <v>113</v>
       </c>
@@ -21642,7 +22019,7 @@
       <c r="DC66" s="117"/>
       <c r="DD66" s="117"/>
       <c r="DE66" s="117"/>
-      <c r="DF66" s="76"/>
+      <c r="DF66" s="117"/>
       <c r="DG66" s="117"/>
       <c r="DH66" s="117"/>
       <c r="DI66" s="117"/>
@@ -21650,7 +22027,7 @@
       <c r="DK66" s="117"/>
       <c r="DL66" s="117"/>
       <c r="DM66" s="117"/>
-      <c r="DN66" s="117"/>
+      <c r="DN66" s="76"/>
       <c r="DO66" s="117"/>
       <c r="DP66" s="117"/>
       <c r="DQ66" s="117"/>
@@ -21658,13 +22035,13 @@
       <c r="DS66" s="117"/>
       <c r="DT66" s="117"/>
       <c r="DU66" s="117"/>
-      <c r="DV66" s="117">
-        <v>0.36</v>
-      </c>
+      <c r="DV66" s="117"/>
       <c r="DW66" s="117"/>
       <c r="DX66" s="117"/>
       <c r="DY66" s="117"/>
-      <c r="DZ66" s="117"/>
+      <c r="DZ66" s="117">
+        <v>0.36</v>
+      </c>
       <c r="EA66" s="117"/>
       <c r="EB66" s="117"/>
       <c r="EC66" s="117"/>
@@ -21672,10 +22049,10 @@
       <c r="EE66" s="117"/>
       <c r="EF66" s="117"/>
       <c r="EG66" s="117"/>
-      <c r="EH66" s="185"/>
-      <c r="EI66" s="185"/>
-      <c r="EJ66" s="185"/>
-      <c r="EK66" s="185"/>
+      <c r="EH66" s="117"/>
+      <c r="EI66" s="117"/>
+      <c r="EJ66" s="117"/>
+      <c r="EK66" s="117"/>
       <c r="EL66" s="185"/>
       <c r="EM66" s="185"/>
       <c r="EN66" s="185"/>
@@ -21701,8 +22078,12 @@
       <c r="FH66" s="185"/>
       <c r="FI66" s="185"/>
       <c r="FJ66" s="185"/>
-    </row>
-    <row r="67" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK66" s="185"/>
+      <c r="FL66" s="185"/>
+      <c r="FM66" s="185"/>
+      <c r="FN66" s="185"/>
+    </row>
+    <row r="67" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="68" t="s">
         <v>592</v>
       </c>
@@ -21976,16 +22357,10 @@
       <c r="DE67" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF67" s="75"/>
-      <c r="DG67" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI67" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF67" s="114"/>
+      <c r="DG67" s="114"/>
+      <c r="DH67" s="114"/>
+      <c r="DI67" s="114"/>
       <c r="DJ67" s="75"/>
       <c r="DK67" s="114" t="s">
         <v>353</v>
@@ -21994,9 +22369,9 @@
         <v>354</v>
       </c>
       <c r="DM67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN67" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN67" s="75"/>
       <c r="DO67" s="114" t="s">
         <v>353</v>
       </c>
@@ -22004,7 +22379,7 @@
         <v>354</v>
       </c>
       <c r="DQ67" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR67" s="116"/>
       <c r="DS67" s="114" t="s">
@@ -22016,34 +22391,34 @@
       <c r="DU67" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV67" s="114"/>
-      <c r="DW67" s="114"/>
-      <c r="DX67" s="114"/>
-      <c r="DY67" s="114"/>
-      <c r="DZ67" s="116"/>
-      <c r="EA67" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC67" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED67" s="114"/>
-      <c r="EE67" s="114"/>
-      <c r="EF67" s="114"/>
-      <c r="EG67" s="114"/>
-      <c r="EH67" s="182"/>
-      <c r="EI67" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ67" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK67" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV67" s="116"/>
+      <c r="DW67" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX67" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY67" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ67" s="114"/>
+      <c r="EA67" s="114"/>
+      <c r="EB67" s="114"/>
+      <c r="EC67" s="114"/>
+      <c r="ED67" s="116"/>
+      <c r="EE67" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF67" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG67" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH67" s="114"/>
+      <c r="EI67" s="114"/>
+      <c r="EJ67" s="114"/>
+      <c r="EK67" s="114"/>
       <c r="EL67" s="182"/>
       <c r="EM67" s="181" t="s">
         <v>353</v>
@@ -22055,13 +22430,13 @@
         <v>355</v>
       </c>
       <c r="EP67" s="182"/>
-      <c r="EQ67" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER67" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES67" s="182" t="s">
+      <c r="EQ67" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER67" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES67" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET67" s="182"/>
@@ -22104,9 +22479,19 @@
       <c r="FI67" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ67" s="177"/>
-    </row>
-    <row r="68" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ67" s="182"/>
+      <c r="FK67" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL67" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM67" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN67" s="177"/>
+    </row>
+    <row r="68" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="70" t="s">
         <v>113</v>
       </c>
@@ -22224,7 +22609,7 @@
       <c r="DC68" s="117"/>
       <c r="DD68" s="117"/>
       <c r="DE68" s="117"/>
-      <c r="DF68" s="76"/>
+      <c r="DF68" s="117"/>
       <c r="DG68" s="117"/>
       <c r="DH68" s="117"/>
       <c r="DI68" s="117"/>
@@ -22232,7 +22617,7 @@
       <c r="DK68" s="117"/>
       <c r="DL68" s="117"/>
       <c r="DM68" s="117"/>
-      <c r="DN68" s="117"/>
+      <c r="DN68" s="76"/>
       <c r="DO68" s="117"/>
       <c r="DP68" s="117"/>
       <c r="DQ68" s="117"/>
@@ -22240,13 +22625,13 @@
       <c r="DS68" s="117"/>
       <c r="DT68" s="117"/>
       <c r="DU68" s="117"/>
-      <c r="DV68" s="117">
-        <v>0.32</v>
-      </c>
+      <c r="DV68" s="117"/>
       <c r="DW68" s="117"/>
       <c r="DX68" s="117"/>
       <c r="DY68" s="117"/>
-      <c r="DZ68" s="117"/>
+      <c r="DZ68" s="117">
+        <v>0.32</v>
+      </c>
       <c r="EA68" s="117"/>
       <c r="EB68" s="117"/>
       <c r="EC68" s="117"/>
@@ -22254,10 +22639,10 @@
       <c r="EE68" s="117"/>
       <c r="EF68" s="117"/>
       <c r="EG68" s="117"/>
-      <c r="EH68" s="185"/>
-      <c r="EI68" s="185"/>
-      <c r="EJ68" s="185"/>
-      <c r="EK68" s="185"/>
+      <c r="EH68" s="117"/>
+      <c r="EI68" s="117"/>
+      <c r="EJ68" s="117"/>
+      <c r="EK68" s="117"/>
       <c r="EL68" s="185"/>
       <c r="EM68" s="185"/>
       <c r="EN68" s="185"/>
@@ -22283,8 +22668,12 @@
       <c r="FH68" s="185"/>
       <c r="FI68" s="185"/>
       <c r="FJ68" s="185"/>
-    </row>
-    <row r="69" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK68" s="185"/>
+      <c r="FL68" s="185"/>
+      <c r="FM68" s="185"/>
+      <c r="FN68" s="185"/>
+    </row>
+    <row r="69" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="68" t="s">
         <v>589</v>
       </c>
@@ -22558,16 +22947,10 @@
       <c r="DE69" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF69" s="75"/>
-      <c r="DG69" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI69" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF69" s="114"/>
+      <c r="DG69" s="114"/>
+      <c r="DH69" s="114"/>
+      <c r="DI69" s="114"/>
       <c r="DJ69" s="75"/>
       <c r="DK69" s="114" t="s">
         <v>353</v>
@@ -22576,9 +22959,9 @@
         <v>354</v>
       </c>
       <c r="DM69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN69" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN69" s="75"/>
       <c r="DO69" s="114" t="s">
         <v>353</v>
       </c>
@@ -22586,7 +22969,7 @@
         <v>354</v>
       </c>
       <c r="DQ69" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR69" s="116"/>
       <c r="DS69" s="114" t="s">
@@ -22598,34 +22981,34 @@
       <c r="DU69" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV69" s="114"/>
-      <c r="DW69" s="114"/>
-      <c r="DX69" s="114"/>
-      <c r="DY69" s="114"/>
-      <c r="DZ69" s="116"/>
-      <c r="EA69" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC69" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED69" s="114"/>
-      <c r="EE69" s="114"/>
-      <c r="EF69" s="114"/>
-      <c r="EG69" s="114"/>
-      <c r="EH69" s="182"/>
-      <c r="EI69" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ69" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK69" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV69" s="116"/>
+      <c r="DW69" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX69" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY69" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ69" s="114"/>
+      <c r="EA69" s="114"/>
+      <c r="EB69" s="114"/>
+      <c r="EC69" s="114"/>
+      <c r="ED69" s="116"/>
+      <c r="EE69" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF69" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG69" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH69" s="114"/>
+      <c r="EI69" s="114"/>
+      <c r="EJ69" s="114"/>
+      <c r="EK69" s="114"/>
       <c r="EL69" s="182"/>
       <c r="EM69" s="181" t="s">
         <v>353</v>
@@ -22637,13 +23020,13 @@
         <v>355</v>
       </c>
       <c r="EP69" s="182"/>
-      <c r="EQ69" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER69" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES69" s="182" t="s">
+      <c r="EQ69" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER69" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES69" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET69" s="182"/>
@@ -22686,9 +23069,19 @@
       <c r="FI69" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ69" s="177"/>
-    </row>
-    <row r="70" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ69" s="182"/>
+      <c r="FK69" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL69" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM69" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN69" s="177"/>
+    </row>
+    <row r="70" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="70" t="s">
         <v>113</v>
       </c>
@@ -22806,7 +23199,7 @@
       <c r="DC70" s="117"/>
       <c r="DD70" s="117"/>
       <c r="DE70" s="117"/>
-      <c r="DF70" s="76"/>
+      <c r="DF70" s="117"/>
       <c r="DG70" s="117"/>
       <c r="DH70" s="117"/>
       <c r="DI70" s="117"/>
@@ -22814,7 +23207,7 @@
       <c r="DK70" s="117"/>
       <c r="DL70" s="117"/>
       <c r="DM70" s="117"/>
-      <c r="DN70" s="117"/>
+      <c r="DN70" s="76"/>
       <c r="DO70" s="117"/>
       <c r="DP70" s="117"/>
       <c r="DQ70" s="117"/>
@@ -22822,13 +23215,13 @@
       <c r="DS70" s="117"/>
       <c r="DT70" s="117"/>
       <c r="DU70" s="117"/>
-      <c r="DV70" s="117">
-        <v>0.39</v>
-      </c>
+      <c r="DV70" s="117"/>
       <c r="DW70" s="117"/>
       <c r="DX70" s="117"/>
       <c r="DY70" s="117"/>
-      <c r="DZ70" s="117"/>
+      <c r="DZ70" s="117">
+        <v>0.39</v>
+      </c>
       <c r="EA70" s="117"/>
       <c r="EB70" s="117"/>
       <c r="EC70" s="117"/>
@@ -22836,10 +23229,10 @@
       <c r="EE70" s="117"/>
       <c r="EF70" s="117"/>
       <c r="EG70" s="117"/>
-      <c r="EH70" s="185"/>
-      <c r="EI70" s="185"/>
-      <c r="EJ70" s="185"/>
-      <c r="EK70" s="185"/>
+      <c r="EH70" s="117"/>
+      <c r="EI70" s="117"/>
+      <c r="EJ70" s="117"/>
+      <c r="EK70" s="117"/>
       <c r="EL70" s="185"/>
       <c r="EM70" s="185"/>
       <c r="EN70" s="185"/>
@@ -22865,8 +23258,12 @@
       <c r="FH70" s="185"/>
       <c r="FI70" s="185"/>
       <c r="FJ70" s="185"/>
-    </row>
-    <row r="71" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK70" s="185"/>
+      <c r="FL70" s="185"/>
+      <c r="FM70" s="185"/>
+      <c r="FN70" s="185"/>
+    </row>
+    <row r="71" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
         <v>598</v>
       </c>
@@ -23140,16 +23537,10 @@
       <c r="DE71" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF71" s="75"/>
-      <c r="DG71" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI71" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF71" s="114"/>
+      <c r="DG71" s="114"/>
+      <c r="DH71" s="114"/>
+      <c r="DI71" s="114"/>
       <c r="DJ71" s="75"/>
       <c r="DK71" s="114" t="s">
         <v>353</v>
@@ -23158,9 +23549,9 @@
         <v>354</v>
       </c>
       <c r="DM71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN71" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN71" s="75"/>
       <c r="DO71" s="114" t="s">
         <v>353</v>
       </c>
@@ -23168,7 +23559,7 @@
         <v>354</v>
       </c>
       <c r="DQ71" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR71" s="116"/>
       <c r="DS71" s="114" t="s">
@@ -23180,34 +23571,34 @@
       <c r="DU71" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV71" s="114"/>
-      <c r="DW71" s="114"/>
-      <c r="DX71" s="114"/>
-      <c r="DY71" s="114"/>
-      <c r="DZ71" s="116"/>
-      <c r="EA71" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC71" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED71" s="114"/>
-      <c r="EE71" s="114"/>
-      <c r="EF71" s="114"/>
-      <c r="EG71" s="114"/>
-      <c r="EH71" s="182"/>
-      <c r="EI71" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ71" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK71" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV71" s="116"/>
+      <c r="DW71" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX71" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY71" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ71" s="114"/>
+      <c r="EA71" s="114"/>
+      <c r="EB71" s="114"/>
+      <c r="EC71" s="114"/>
+      <c r="ED71" s="116"/>
+      <c r="EE71" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF71" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG71" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH71" s="114"/>
+      <c r="EI71" s="114"/>
+      <c r="EJ71" s="114"/>
+      <c r="EK71" s="114"/>
       <c r="EL71" s="182"/>
       <c r="EM71" s="181" t="s">
         <v>353</v>
@@ -23219,13 +23610,13 @@
         <v>355</v>
       </c>
       <c r="EP71" s="182"/>
-      <c r="EQ71" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER71" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES71" s="182" t="s">
+      <c r="EQ71" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER71" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES71" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET71" s="182"/>
@@ -23268,9 +23659,19 @@
       <c r="FI71" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ71" s="177"/>
-    </row>
-    <row r="72" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ71" s="182"/>
+      <c r="FK71" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL71" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM71" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN71" s="177"/>
+    </row>
+    <row r="72" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70" t="s">
         <v>113</v>
       </c>
@@ -23388,7 +23789,7 @@
       <c r="DC72" s="117"/>
       <c r="DD72" s="117"/>
       <c r="DE72" s="117"/>
-      <c r="DF72" s="76"/>
+      <c r="DF72" s="117"/>
       <c r="DG72" s="117"/>
       <c r="DH72" s="117"/>
       <c r="DI72" s="117"/>
@@ -23396,7 +23797,7 @@
       <c r="DK72" s="117"/>
       <c r="DL72" s="117"/>
       <c r="DM72" s="117"/>
-      <c r="DN72" s="117"/>
+      <c r="DN72" s="76"/>
       <c r="DO72" s="117"/>
       <c r="DP72" s="117"/>
       <c r="DQ72" s="117"/>
@@ -23404,13 +23805,13 @@
       <c r="DS72" s="117"/>
       <c r="DT72" s="117"/>
       <c r="DU72" s="117"/>
-      <c r="DV72" s="117">
-        <v>0.34</v>
-      </c>
+      <c r="DV72" s="117"/>
       <c r="DW72" s="117"/>
       <c r="DX72" s="117"/>
       <c r="DY72" s="117"/>
-      <c r="DZ72" s="117"/>
+      <c r="DZ72" s="117">
+        <v>0.34</v>
+      </c>
       <c r="EA72" s="117"/>
       <c r="EB72" s="117"/>
       <c r="EC72" s="117"/>
@@ -23418,10 +23819,10 @@
       <c r="EE72" s="117"/>
       <c r="EF72" s="117"/>
       <c r="EG72" s="117"/>
-      <c r="EH72" s="185"/>
-      <c r="EI72" s="185"/>
-      <c r="EJ72" s="185"/>
-      <c r="EK72" s="185"/>
+      <c r="EH72" s="117"/>
+      <c r="EI72" s="117"/>
+      <c r="EJ72" s="117"/>
+      <c r="EK72" s="117"/>
       <c r="EL72" s="185"/>
       <c r="EM72" s="185"/>
       <c r="EN72" s="185"/>
@@ -23447,8 +23848,12 @@
       <c r="FH72" s="185"/>
       <c r="FI72" s="185"/>
       <c r="FJ72" s="185"/>
-    </row>
-    <row r="73" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK72" s="185"/>
+      <c r="FL72" s="185"/>
+      <c r="FM72" s="185"/>
+      <c r="FN72" s="185"/>
+    </row>
+    <row r="73" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
         <v>599</v>
       </c>
@@ -23722,16 +24127,10 @@
       <c r="DE73" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF73" s="75"/>
-      <c r="DG73" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI73" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF73" s="114"/>
+      <c r="DG73" s="114"/>
+      <c r="DH73" s="114"/>
+      <c r="DI73" s="114"/>
       <c r="DJ73" s="75"/>
       <c r="DK73" s="114" t="s">
         <v>353</v>
@@ -23740,9 +24139,9 @@
         <v>354</v>
       </c>
       <c r="DM73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN73" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN73" s="75"/>
       <c r="DO73" s="114" t="s">
         <v>353</v>
       </c>
@@ -23750,7 +24149,7 @@
         <v>354</v>
       </c>
       <c r="DQ73" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR73" s="116"/>
       <c r="DS73" s="114" t="s">
@@ -23762,34 +24161,34 @@
       <c r="DU73" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV73" s="114"/>
-      <c r="DW73" s="114"/>
-      <c r="DX73" s="114"/>
-      <c r="DY73" s="114"/>
-      <c r="DZ73" s="116"/>
-      <c r="EA73" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC73" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED73" s="114"/>
-      <c r="EE73" s="114"/>
-      <c r="EF73" s="114"/>
-      <c r="EG73" s="114"/>
-      <c r="EH73" s="182"/>
-      <c r="EI73" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ73" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK73" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV73" s="116"/>
+      <c r="DW73" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX73" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY73" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ73" s="114"/>
+      <c r="EA73" s="114"/>
+      <c r="EB73" s="114"/>
+      <c r="EC73" s="114"/>
+      <c r="ED73" s="116"/>
+      <c r="EE73" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF73" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG73" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH73" s="114"/>
+      <c r="EI73" s="114"/>
+      <c r="EJ73" s="114"/>
+      <c r="EK73" s="114"/>
       <c r="EL73" s="182"/>
       <c r="EM73" s="181" t="s">
         <v>353</v>
@@ -23801,13 +24200,13 @@
         <v>355</v>
       </c>
       <c r="EP73" s="182"/>
-      <c r="EQ73" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER73" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES73" s="182" t="s">
+      <c r="EQ73" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER73" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES73" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET73" s="182"/>
@@ -23850,9 +24249,19 @@
       <c r="FI73" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ73" s="177"/>
-    </row>
-    <row r="74" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ73" s="182"/>
+      <c r="FK73" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL73" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM73" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN73" s="177"/>
+    </row>
+    <row r="74" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
         <v>113</v>
       </c>
@@ -23970,7 +24379,7 @@
       <c r="DC74" s="117"/>
       <c r="DD74" s="117"/>
       <c r="DE74" s="117"/>
-      <c r="DF74" s="76"/>
+      <c r="DF74" s="117"/>
       <c r="DG74" s="117"/>
       <c r="DH74" s="117"/>
       <c r="DI74" s="117"/>
@@ -23978,7 +24387,7 @@
       <c r="DK74" s="117"/>
       <c r="DL74" s="117"/>
       <c r="DM74" s="117"/>
-      <c r="DN74" s="117"/>
+      <c r="DN74" s="76"/>
       <c r="DO74" s="117"/>
       <c r="DP74" s="117"/>
       <c r="DQ74" s="117"/>
@@ -23986,13 +24395,13 @@
       <c r="DS74" s="117"/>
       <c r="DT74" s="117"/>
       <c r="DU74" s="117"/>
-      <c r="DV74" s="117">
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="DV74" s="117"/>
       <c r="DW74" s="117"/>
       <c r="DX74" s="117"/>
       <c r="DY74" s="117"/>
-      <c r="DZ74" s="117"/>
+      <c r="DZ74" s="117">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="EA74" s="117"/>
       <c r="EB74" s="117"/>
       <c r="EC74" s="117"/>
@@ -24000,10 +24409,10 @@
       <c r="EE74" s="117"/>
       <c r="EF74" s="117"/>
       <c r="EG74" s="117"/>
-      <c r="EH74" s="185"/>
-      <c r="EI74" s="185"/>
-      <c r="EJ74" s="185"/>
-      <c r="EK74" s="185"/>
+      <c r="EH74" s="117"/>
+      <c r="EI74" s="117"/>
+      <c r="EJ74" s="117"/>
+      <c r="EK74" s="117"/>
       <c r="EL74" s="185"/>
       <c r="EM74" s="185"/>
       <c r="EN74" s="185"/>
@@ -24029,8 +24438,12 @@
       <c r="FH74" s="185"/>
       <c r="FI74" s="185"/>
       <c r="FJ74" s="185"/>
-    </row>
-    <row r="75" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK74" s="185"/>
+      <c r="FL74" s="185"/>
+      <c r="FM74" s="185"/>
+      <c r="FN74" s="185"/>
+    </row>
+    <row r="75" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="68" t="s">
         <v>593</v>
       </c>
@@ -24304,16 +24717,10 @@
       <c r="DE75" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF75" s="75"/>
-      <c r="DG75" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI75" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF75" s="114"/>
+      <c r="DG75" s="114"/>
+      <c r="DH75" s="114"/>
+      <c r="DI75" s="114"/>
       <c r="DJ75" s="75"/>
       <c r="DK75" s="114" t="s">
         <v>353</v>
@@ -24322,9 +24729,9 @@
         <v>354</v>
       </c>
       <c r="DM75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN75" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN75" s="75"/>
       <c r="DO75" s="114" t="s">
         <v>353</v>
       </c>
@@ -24332,7 +24739,7 @@
         <v>354</v>
       </c>
       <c r="DQ75" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR75" s="116"/>
       <c r="DS75" s="114" t="s">
@@ -24344,34 +24751,34 @@
       <c r="DU75" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV75" s="114"/>
-      <c r="DW75" s="114"/>
-      <c r="DX75" s="114"/>
-      <c r="DY75" s="114"/>
-      <c r="DZ75" s="116"/>
-      <c r="EA75" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC75" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED75" s="114"/>
-      <c r="EE75" s="114"/>
-      <c r="EF75" s="114"/>
-      <c r="EG75" s="114"/>
-      <c r="EH75" s="182"/>
-      <c r="EI75" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ75" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK75" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV75" s="116"/>
+      <c r="DW75" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX75" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY75" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ75" s="114"/>
+      <c r="EA75" s="114"/>
+      <c r="EB75" s="114"/>
+      <c r="EC75" s="114"/>
+      <c r="ED75" s="116"/>
+      <c r="EE75" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF75" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG75" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH75" s="114"/>
+      <c r="EI75" s="114"/>
+      <c r="EJ75" s="114"/>
+      <c r="EK75" s="114"/>
       <c r="EL75" s="182"/>
       <c r="EM75" s="181" t="s">
         <v>353</v>
@@ -24383,13 +24790,13 @@
         <v>355</v>
       </c>
       <c r="EP75" s="182"/>
-      <c r="EQ75" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER75" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES75" s="182" t="s">
+      <c r="EQ75" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER75" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES75" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET75" s="182"/>
@@ -24432,9 +24839,19 @@
       <c r="FI75" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ75" s="177"/>
-    </row>
-    <row r="76" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ75" s="182"/>
+      <c r="FK75" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL75" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM75" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN75" s="177"/>
+    </row>
+    <row r="76" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
         <v>113</v>
       </c>
@@ -24552,7 +24969,7 @@
       <c r="DC76" s="117"/>
       <c r="DD76" s="117"/>
       <c r="DE76" s="117"/>
-      <c r="DF76" s="76"/>
+      <c r="DF76" s="117"/>
       <c r="DG76" s="117"/>
       <c r="DH76" s="117"/>
       <c r="DI76" s="117"/>
@@ -24560,7 +24977,7 @@
       <c r="DK76" s="117"/>
       <c r="DL76" s="117"/>
       <c r="DM76" s="117"/>
-      <c r="DN76" s="117"/>
+      <c r="DN76" s="76"/>
       <c r="DO76" s="117"/>
       <c r="DP76" s="117"/>
       <c r="DQ76" s="117"/>
@@ -24568,13 +24985,13 @@
       <c r="DS76" s="117"/>
       <c r="DT76" s="117"/>
       <c r="DU76" s="117"/>
-      <c r="DV76" s="117">
-        <v>0.45</v>
-      </c>
+      <c r="DV76" s="117"/>
       <c r="DW76" s="117"/>
       <c r="DX76" s="117"/>
       <c r="DY76" s="117"/>
-      <c r="DZ76" s="117"/>
+      <c r="DZ76" s="117">
+        <v>0.45</v>
+      </c>
       <c r="EA76" s="117"/>
       <c r="EB76" s="117"/>
       <c r="EC76" s="117"/>
@@ -24582,10 +24999,10 @@
       <c r="EE76" s="117"/>
       <c r="EF76" s="117"/>
       <c r="EG76" s="117"/>
-      <c r="EH76" s="185"/>
-      <c r="EI76" s="185"/>
-      <c r="EJ76" s="185"/>
-      <c r="EK76" s="185"/>
+      <c r="EH76" s="117"/>
+      <c r="EI76" s="117"/>
+      <c r="EJ76" s="117"/>
+      <c r="EK76" s="117"/>
       <c r="EL76" s="185"/>
       <c r="EM76" s="185"/>
       <c r="EN76" s="185"/>
@@ -24611,8 +25028,12 @@
       <c r="FH76" s="185"/>
       <c r="FI76" s="185"/>
       <c r="FJ76" s="185"/>
-    </row>
-    <row r="77" spans="1:166" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FK76" s="185"/>
+      <c r="FL76" s="185"/>
+      <c r="FM76" s="185"/>
+      <c r="FN76" s="185"/>
+    </row>
+    <row r="77" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="68" t="s">
         <v>596</v>
       </c>
@@ -24886,16 +25307,10 @@
       <c r="DE77" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DF77" s="75"/>
-      <c r="DG77" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DH77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DI77" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DF77" s="114"/>
+      <c r="DG77" s="114"/>
+      <c r="DH77" s="114"/>
+      <c r="DI77" s="114"/>
       <c r="DJ77" s="75"/>
       <c r="DK77" s="114" t="s">
         <v>353</v>
@@ -24904,9 +25319,9 @@
         <v>354</v>
       </c>
       <c r="DM77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DN77" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DN77" s="75"/>
       <c r="DO77" s="114" t="s">
         <v>353</v>
       </c>
@@ -24914,7 +25329,7 @@
         <v>354</v>
       </c>
       <c r="DQ77" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DR77" s="116"/>
       <c r="DS77" s="114" t="s">
@@ -24926,34 +25341,34 @@
       <c r="DU77" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DV77" s="114"/>
-      <c r="DW77" s="114"/>
-      <c r="DX77" s="114"/>
-      <c r="DY77" s="114"/>
-      <c r="DZ77" s="116"/>
-      <c r="EA77" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EB77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EC77" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="ED77" s="114"/>
-      <c r="EE77" s="114"/>
-      <c r="EF77" s="114"/>
-      <c r="EG77" s="114"/>
-      <c r="EH77" s="182"/>
-      <c r="EI77" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EJ77" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EK77" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DV77" s="116"/>
+      <c r="DW77" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DX77" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DY77" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="DZ77" s="114"/>
+      <c r="EA77" s="114"/>
+      <c r="EB77" s="114"/>
+      <c r="EC77" s="114"/>
+      <c r="ED77" s="116"/>
+      <c r="EE77" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EF77" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EG77" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EH77" s="114"/>
+      <c r="EI77" s="114"/>
+      <c r="EJ77" s="114"/>
+      <c r="EK77" s="114"/>
       <c r="EL77" s="182"/>
       <c r="EM77" s="181" t="s">
         <v>353</v>
@@ -24965,13 +25380,13 @@
         <v>355</v>
       </c>
       <c r="EP77" s="182"/>
-      <c r="EQ77" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER77" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES77" s="182" t="s">
+      <c r="EQ77" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER77" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES77" s="181" t="s">
         <v>355</v>
       </c>
       <c r="ET77" s="182"/>
@@ -25014,9 +25429,19 @@
       <c r="FI77" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FJ77" s="177"/>
-    </row>
-    <row r="78" spans="1:166" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="FJ77" s="182"/>
+      <c r="FK77" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FL77" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM77" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN77" s="177"/>
+    </row>
+    <row r="78" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
         <v>113</v>
       </c>
@@ -25134,7 +25559,7 @@
       <c r="DC78" s="117"/>
       <c r="DD78" s="117"/>
       <c r="DE78" s="117"/>
-      <c r="DF78" s="76"/>
+      <c r="DF78" s="117"/>
       <c r="DG78" s="117"/>
       <c r="DH78" s="117"/>
       <c r="DI78" s="117"/>
@@ -25142,7 +25567,7 @@
       <c r="DK78" s="117"/>
       <c r="DL78" s="117"/>
       <c r="DM78" s="117"/>
-      <c r="DN78" s="117"/>
+      <c r="DN78" s="76"/>
       <c r="DO78" s="117"/>
       <c r="DP78" s="117"/>
       <c r="DQ78" s="117"/>
@@ -25150,13 +25575,13 @@
       <c r="DS78" s="117"/>
       <c r="DT78" s="117"/>
       <c r="DU78" s="117"/>
-      <c r="DV78" s="117">
-        <v>0.38</v>
-      </c>
+      <c r="DV78" s="117"/>
       <c r="DW78" s="117"/>
       <c r="DX78" s="117"/>
       <c r="DY78" s="117"/>
-      <c r="DZ78" s="117"/>
+      <c r="DZ78" s="117">
+        <v>0.38</v>
+      </c>
       <c r="EA78" s="117"/>
       <c r="EB78" s="117"/>
       <c r="EC78" s="117"/>
@@ -25164,10 +25589,10 @@
       <c r="EE78" s="117"/>
       <c r="EF78" s="117"/>
       <c r="EG78" s="117"/>
-      <c r="EH78" s="185"/>
-      <c r="EI78" s="185"/>
-      <c r="EJ78" s="185"/>
-      <c r="EK78" s="185"/>
+      <c r="EH78" s="117"/>
+      <c r="EI78" s="117"/>
+      <c r="EJ78" s="117"/>
+      <c r="EK78" s="117"/>
       <c r="EL78" s="185"/>
       <c r="EM78" s="185"/>
       <c r="EN78" s="185"/>
@@ -25193,6 +25618,10 @@
       <c r="FH78" s="185"/>
       <c r="FI78" s="185"/>
       <c r="FJ78" s="185"/>
+      <c r="FK78" s="185"/>
+      <c r="FL78" s="185"/>
+      <c r="FM78" s="185"/>
+      <c r="FN78" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25202,10 +25631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25213,16 +25642,18 @@
     <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
       <c r="D1" s="195"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -25235,8 +25666,11 @@
       <c r="D2" s="196" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E2" s="81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
@@ -25249,8 +25683,11 @@
       <c r="D3" s="197" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E3" s="78" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="84" t="s">
         <v>2</v>
@@ -25259,8 +25696,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="196"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E4" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -25273,8 +25713,11 @@
       <c r="D5" s="80" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5" s="80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -25287,8 +25730,11 @@
       <c r="D6" s="80" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E6" s="80" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="84" t="s">
         <v>2</v>
@@ -25297,8 +25743,11 @@
         <v>2</v>
       </c>
       <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E7" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -25311,8 +25760,11 @@
       <c r="D8" s="80" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -25325,8 +25777,11 @@
       <c r="D9" s="80" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E9" s="80" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="84" t="s">
         <v>2</v>
@@ -25335,8 +25790,11 @@
         <v>2</v>
       </c>
       <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E10" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
@@ -25347,8 +25805,9 @@
       <c r="D11" s="80" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="80"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -25359,8 +25818,9 @@
       <c r="D12" s="80" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E12" s="80"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="84" t="s">
         <v>2</v>
@@ -25369,8 +25829,11 @@
         <v>2</v>
       </c>
       <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -25381,8 +25844,9 @@
       <c r="D14" s="80" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E14" s="80"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -25393,8 +25857,9 @@
       <c r="D15" s="80" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15" s="80"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="84" t="s">
         <v>2</v>
@@ -25403,8 +25868,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E16" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -25415,8 +25883,9 @@
       <c r="D17" s="80" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E17" s="80"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
@@ -25427,8 +25896,9 @@
       <c r="D18" s="80" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="84" t="s">
         <v>2</v>
@@ -25437,8 +25907,11 @@
         <v>2</v>
       </c>
       <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E19" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
         <v>60</v>
       </c>
@@ -25447,8 +25920,9 @@
         <v>169</v>
       </c>
       <c r="D20" s="80"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>53</v>
       </c>
@@ -25457,8 +25931,9 @@
         <v>293</v>
       </c>
       <c r="D21" s="80"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="84" t="s">
         <v>2</v>
@@ -25467,8 +25942,11 @@
         <v>2</v>
       </c>
       <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>60</v>
       </c>
@@ -25477,8 +25955,9 @@
         <v>673</v>
       </c>
       <c r="D23" s="80"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>53</v>
       </c>
@@ -25487,8 +25966,9 @@
         <v>294</v>
       </c>
       <c r="D24" s="80"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="80"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="84" t="s">
         <v>2</v>
@@ -25497,8 +25977,11 @@
         <v>2</v>
       </c>
       <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>60</v>
       </c>
@@ -25507,8 +25990,9 @@
         <v>174</v>
       </c>
       <c r="D26" s="80"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="80"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
         <v>53</v>
       </c>
@@ -25517,8 +26001,9 @@
         <v>295</v>
       </c>
       <c r="D27" s="80"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="80"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
       <c r="B28" s="84" t="s">
         <v>2</v>
@@ -25527,8 +26012,11 @@
         <v>2</v>
       </c>
       <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>60</v>
       </c>
@@ -25537,8 +26025,9 @@
         <v>168</v>
       </c>
       <c r="D29" s="80"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="80"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>53</v>
       </c>
@@ -25547,6 +26036,7 @@
         <v>296</v>
       </c>
       <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26334,7 +26824,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>618</v>
       </c>
@@ -26378,7 +26868,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
@@ -29702,7 +30192,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="37" t="s">
         <v>155</v>
       </c>
@@ -29714,7 +30204,7 @@
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="49" t="s">
         <v>162</v>
       </c>
@@ -30403,7 +30893,7 @@
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>252</v>
       </c>
@@ -31215,7 +31705,7 @@
       </c>
       <c r="N18" s="130"/>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="130" t="s">
         <v>523</v>
       </c>
@@ -31257,7 +31747,7 @@
       </c>
       <c r="N19" s="130"/>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="130" t="s">
         <v>523</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="852" windowWidth="15096" windowHeight="7056" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -2249,9 +2249,6 @@
     <t>0.075 ug/mL</t>
   </si>
   <si>
-    <t>0.001 ug/mL</t>
-  </si>
-  <si>
     <t>10.5 mL/min kg</t>
   </si>
   <si>
@@ -2280,6 +2277,9 @@
   </si>
   <si>
     <t>0.008 ug/mL</t>
+  </si>
+  <si>
+    <t>0.0003 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -3709,30 +3709,30 @@
       <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="141" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="145" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="141" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="145" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="145" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="145" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="145" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" style="145" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="145"/>
+    <col min="5" max="5" width="14.28515625" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="145" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="145" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="145" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="140"/>
       <c r="B1" s="201" t="s">
         <v>578</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="U1" s="203"/>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
         <v>0</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>557</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="T3" s="158"/>
       <c r="U3" s="159"/>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>405</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="140" t="s">
         <v>585</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="T5" s="152"/>
       <c r="U5" s="153"/>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="149" t="s">
         <v>5</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="149" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="T7" s="156"/>
       <c r="U7" s="157"/>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="149" t="s">
         <v>7</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="149" t="s">
         <v>163</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="140" t="s">
         <v>586</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="T10" s="152"/>
       <c r="U10" s="153"/>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="149" t="s">
         <v>584</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="T11" s="156"/>
       <c r="U11" s="157"/>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="149" t="s">
         <v>550</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="T12" s="156"/>
       <c r="U12" s="157"/>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="149" t="s">
         <v>61</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="149" t="s">
         <v>546</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="149" t="s">
         <v>547</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="149" t="s">
         <v>63</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="T17" s="152"/>
       <c r="U17" s="153"/>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="149" t="s">
         <v>579</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="T18" s="156"/>
       <c r="U18" s="157"/>
     </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="149" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="149" t="s">
         <v>555</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="T20" s="156"/>
       <c r="U20" s="157"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="140" t="s">
         <v>587</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="T21" s="152"/>
       <c r="U21" s="153"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="149" t="s">
         <v>552</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="T22" s="156"/>
       <c r="U22" s="157"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="149" t="s">
         <v>553</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="T23" s="156"/>
       <c r="U23" s="157"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="149" t="s">
         <v>551</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="T24" s="156"/>
       <c r="U24" s="157"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="149" t="s">
         <v>556</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="T25" s="156"/>
       <c r="U25" s="157"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="149" t="s">
         <v>554</v>
       </c>
@@ -4773,167 +4773,167 @@
   <dimension ref="A1:FN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DR24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DH40" sqref="DH40"/>
+      <selection pane="bottomRight" activeCell="EH41" sqref="EH41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.33203125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.5546875" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="11.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="22.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="37" width="26.109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="15.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="13.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="45" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="14.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="49" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="11.5546875" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.88671875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="16.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="11.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="12.33203125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="18.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="38.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.28515625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.5703125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="22.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="37" width="26.140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="15.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="13.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="45" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="14.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="49" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="11.5703125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.85546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="11.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="12.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="18.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="24" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.33203125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="18.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="18.33203125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="13.88671875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="73" width="14.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="11.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="77" width="14.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="81" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="82" max="82" width="14.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="85" width="18.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="12.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="20.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="16.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="18.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="18.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="13.85546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="73" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="11.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="21.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="81" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="14.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="85" width="18.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="12.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="20.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="16.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="89" max="89" width="24" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="12.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="15.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="58.33203125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="15.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="104" max="104" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="105" max="105" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="106" max="106" width="13.44140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="108" max="108" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="109" max="109" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="13.77734375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="14.44140625" style="106" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="112" width="27.109375" style="106" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="20.109375" style="106" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="13.44140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="117" max="117" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="118" max="118" width="14.33203125" style="106" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="120" max="121" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="122" max="122" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="124" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="125" max="125" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="21.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="128" max="128" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="23.6640625" style="106" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="15.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="15.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="133" max="133" width="30.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="134" max="134" width="15.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="136" max="136" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="15.5546875" style="106" customWidth="1" collapsed="1"/>
-    <col min="139" max="141" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="17.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="144" max="144" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="145" max="145" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="146" max="146" width="8.5546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="148" max="148" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="11.88671875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="152" max="152" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="15.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="155" max="155" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="156" max="156" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="19.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="160" max="160" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="19.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="22.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="164" max="164" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="22.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="26.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="12.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="58.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="104" max="104" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="105" max="105" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="106" max="106" width="13.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="108" max="108" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="110" max="110" width="13.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="20.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="13.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="117" max="117" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="14.28515625" style="106" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="120" max="121" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="122" max="122" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="124" max="124" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="125" max="125" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="21.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="128" max="128" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="23.7109375" style="106" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="15.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="15.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="133" max="133" width="30.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="134" max="134" width="15.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="136" max="136" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
+    <col min="139" max="141" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="17.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="144" max="144" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="145" max="145" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="146" max="146" width="8.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="148" max="148" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="149" max="149" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="11.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="152" max="152" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="153" max="153" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="154" max="154" width="15.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="19.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="19.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="22.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="164" max="164" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="22.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="26.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="167" max="169" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="20.5546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="16384" width="9.109375" style="29"/>
+    <col min="170" max="170" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64"/>
       <c r="B1" s="59"/>
       <c r="C1" s="103" t="s">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="FN1" s="177"/>
     </row>
-    <row r="2" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -5686,16 +5686,16 @@
         <v>48</v>
       </c>
       <c r="DF2" s="104" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DG2" s="104" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DH2" s="104" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DI2" s="104" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DJ2" s="104" t="s">
         <v>193</v>
@@ -5869,7 +5869,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:170" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>335</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="FN3" s="183"/>
     </row>
-    <row r="4" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>718</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="FM5" s="186"/>
       <c r="FN5" s="185"/>
     </row>
-    <row r="6" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="FM6" s="186"/>
       <c r="FN6" s="185"/>
     </row>
-    <row r="7" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>540</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="FM7" s="186"/>
       <c r="FN7" s="185"/>
     </row>
-    <row r="8" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>541</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="FM8" s="186"/>
       <c r="FN8" s="185"/>
     </row>
-    <row r="9" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>715</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="FM9" s="186"/>
       <c r="FN9" s="185"/>
     </row>
-    <row r="10" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>43</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="DD10" s="115"/>
       <c r="DE10" s="115"/>
       <c r="DF10" s="115" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DG10" s="115"/>
       <c r="DH10" s="115"/>
@@ -7735,7 +7735,7 @@
       <c r="FM10" s="186"/>
       <c r="FN10" s="185"/>
     </row>
-    <row r="11" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>74</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="FM11" s="186"/>
       <c r="FN11" s="185"/>
     </row>
-    <row r="12" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>73</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="FM12" s="186"/>
       <c r="FN12" s="185"/>
     </row>
-    <row r="13" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86" t="s">
         <v>331</v>
       </c>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="FN13" s="177"/>
     </row>
-    <row r="14" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>655</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>642</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="86" t="s">
         <v>332</v>
       </c>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="FN17" s="177"/>
     </row>
-    <row r="18" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>94</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="FM18" s="186"/>
       <c r="FN18" s="185"/>
     </row>
-    <row r="19" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>90</v>
       </c>
@@ -9915,7 +9915,7 @@
       <c r="FM19" s="186"/>
       <c r="FN19" s="185"/>
     </row>
-    <row r="20" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>92</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="CV20" s="115"/>
       <c r="CW20" s="115"/>
       <c r="CX20" s="115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CY20" s="115"/>
       <c r="CZ20" s="115"/>
@@ -10133,7 +10133,7 @@
       <c r="FM20" s="186"/>
       <c r="FN20" s="185"/>
     </row>
-    <row r="21" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>370</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="FM21" s="186"/>
       <c r="FN21" s="185"/>
     </row>
-    <row r="22" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -10502,11 +10502,11 @@
       <c r="DD22" s="115"/>
       <c r="DE22" s="115"/>
       <c r="DF22" s="115" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="DG22" s="115"/>
       <c r="DH22" s="115" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="DI22" s="115"/>
       <c r="DJ22" s="115" t="s">
@@ -10583,7 +10583,7 @@
       <c r="FM22" s="186"/>
       <c r="FN22" s="185"/>
     </row>
-    <row r="23" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87" t="s">
         <v>330</v>
       </c>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="FN23" s="177"/>
     </row>
-    <row r="24" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="88" t="s">
         <v>326</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="FM24" s="185"/>
       <c r="FN24" s="185"/>
     </row>
-    <row r="25" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87" t="s">
         <v>325</v>
       </c>
@@ -11927,7 +11927,7 @@
       <c r="FM26" s="185"/>
       <c r="FN26" s="185"/>
     </row>
-    <row r="27" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="88" t="s">
         <v>371</v>
       </c>
@@ -12577,7 +12577,7 @@
       <c r="FM29" s="185"/>
       <c r="FN29" s="185"/>
     </row>
-    <row r="30" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="86" t="s">
         <v>333</v>
       </c>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="FN30" s="177"/>
     </row>
-    <row r="31" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
         <v>88</v>
       </c>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="DG31" s="115"/>
       <c r="DH31" s="115" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DI31" s="115"/>
       <c r="DJ31" s="115">
@@ -13189,7 +13189,7 @@
       <c r="FM31" s="186"/>
       <c r="FN31" s="185"/>
     </row>
-    <row r="32" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>111</v>
       </c>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="DG32" s="115"/>
       <c r="DH32" s="115" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="DI32" s="115"/>
       <c r="DJ32" s="115" t="s">
@@ -13391,7 +13391,7 @@
       <c r="FM32" s="186"/>
       <c r="FN32" s="185"/>
     </row>
-    <row r="33" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>91</v>
       </c>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="DG33" s="115"/>
       <c r="DH33" s="115" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="DI33" s="115"/>
       <c r="DJ33" s="115">
@@ -13593,7 +13593,7 @@
       <c r="FM33" s="186"/>
       <c r="FN33" s="185"/>
     </row>
-    <row r="34" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
         <v>90</v>
       </c>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="DG34" s="115"/>
       <c r="DH34" s="115" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="DI34" s="115"/>
       <c r="DJ34" s="115">
@@ -13903,7 +13903,7 @@
       <c r="FM34" s="186"/>
       <c r="FN34" s="185"/>
     </row>
-    <row r="35" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>87</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="FM35" s="186"/>
       <c r="FN35" s="185"/>
     </row>
-    <row r="36" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="DG36" s="115"/>
       <c r="DH36" s="115" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DI36" s="115"/>
       <c r="DJ36" s="115">
@@ -14305,7 +14305,7 @@
       <c r="FM36" s="186"/>
       <c r="FN36" s="185"/>
     </row>
-    <row r="37" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="86" t="s">
         <v>334</v>
       </c>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="FN37" s="177"/>
     </row>
-    <row r="38" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>317</v>
       </c>
@@ -14927,7 +14927,7 @@
       <c r="FM38" s="185"/>
       <c r="FN38" s="185"/>
     </row>
-    <row r="39" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>318</v>
       </c>
@@ -15100,7 +15100,7 @@
       <c r="EF39" s="119"/>
       <c r="EG39" s="119"/>
       <c r="EH39" s="119">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="EI39" s="119"/>
       <c r="EJ39" s="119"/>
@@ -15135,7 +15135,7 @@
       <c r="FM39" s="185"/>
       <c r="FN39" s="185"/>
     </row>
-    <row r="40" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>319</v>
       </c>
@@ -15266,12 +15266,12 @@
       <c r="DD40" s="119"/>
       <c r="DE40" s="119"/>
       <c r="DF40" s="119" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="DG40" s="119"/>
       <c r="DH40" s="119"/>
       <c r="DI40" s="119" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="DJ40" s="119" t="s">
         <v>377</v>
@@ -15310,7 +15310,7 @@
       <c r="EF40" s="119"/>
       <c r="EG40" s="119"/>
       <c r="EH40" s="119" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="EI40" s="119"/>
       <c r="EJ40" s="119"/>
@@ -15345,7 +15345,7 @@
       <c r="FM40" s="185"/>
       <c r="FN40" s="185"/>
     </row>
-    <row r="41" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>626</v>
       </c>
@@ -15553,7 +15553,7 @@
       <c r="FM41" s="185"/>
       <c r="FN41" s="185"/>
     </row>
-    <row r="42" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>3</v>
       </c>
@@ -15761,7 +15761,7 @@
       <c r="FM42" s="185"/>
       <c r="FN42" s="185"/>
     </row>
-    <row r="43" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>320</v>
       </c>
@@ -15969,7 +15969,7 @@
       <c r="FM43" s="185"/>
       <c r="FN43" s="185"/>
     </row>
-    <row r="44" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>625</v>
       </c>
@@ -16207,7 +16207,7 @@
       <c r="FM44" s="185"/>
       <c r="FN44" s="185"/>
     </row>
-    <row r="45" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
         <v>624</v>
       </c>
@@ -16437,7 +16437,7 @@
       <c r="FM45" s="185"/>
       <c r="FN45" s="185"/>
     </row>
-    <row r="46" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
         <v>4</v>
       </c>
@@ -16645,7 +16645,7 @@
       <c r="FM46" s="185"/>
       <c r="FN46" s="185"/>
     </row>
-    <row r="47" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="69" t="s">
         <v>321</v>
       </c>
@@ -16853,7 +16853,7 @@
       <c r="FM47" s="185"/>
       <c r="FN47" s="185"/>
     </row>
-    <row r="48" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>322</v>
       </c>
@@ -17026,7 +17026,7 @@
       <c r="EF48" s="119"/>
       <c r="EG48" s="119"/>
       <c r="EH48" s="119">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="EI48" s="119"/>
       <c r="EJ48" s="119"/>
@@ -17061,7 +17061,7 @@
       <c r="FM48" s="185"/>
       <c r="FN48" s="185"/>
     </row>
-    <row r="49" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69" t="s">
         <v>323</v>
       </c>
@@ -17269,7 +17269,7 @@
       <c r="FM49" s="185"/>
       <c r="FN49" s="185"/>
     </row>
-    <row r="50" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>622</v>
       </c>
@@ -17477,7 +17477,7 @@
       <c r="FM50" s="185"/>
       <c r="FN50" s="185"/>
     </row>
-    <row r="51" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="69" t="s">
         <v>660</v>
       </c>
@@ -17745,7 +17745,7 @@
       <c r="FM51" s="185"/>
       <c r="FN51" s="185"/>
     </row>
-    <row r="52" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="165" t="s">
         <v>661</v>
       </c>
@@ -17953,7 +17953,7 @@
       <c r="FM52" s="185"/>
       <c r="FN52" s="185"/>
     </row>
-    <row r="53" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="164" t="s">
         <v>594</v>
       </c>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="FN53" s="177"/>
     </row>
-    <row r="54" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
         <v>113</v>
       </c>
@@ -18543,7 +18543,7 @@
       <c r="FM54" s="185"/>
       <c r="FN54" s="185"/>
     </row>
-    <row r="55" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>591</v>
       </c>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="FN55" s="177"/>
     </row>
-    <row r="56" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>113</v>
       </c>
@@ -19133,7 +19133,7 @@
       <c r="FM56" s="185"/>
       <c r="FN56" s="185"/>
     </row>
-    <row r="57" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
         <v>590</v>
       </c>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="FN57" s="177"/>
     </row>
-    <row r="58" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
         <v>113</v>
       </c>
@@ -19723,7 +19723,7 @@
       <c r="FM58" s="185"/>
       <c r="FN58" s="185"/>
     </row>
-    <row r="59" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>595</v>
       </c>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="FN59" s="177"/>
     </row>
-    <row r="60" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
         <v>113</v>
       </c>
@@ -20313,7 +20313,7 @@
       <c r="FM60" s="185"/>
       <c r="FN60" s="185"/>
     </row>
-    <row r="61" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>600</v>
       </c>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="FN61" s="177"/>
     </row>
-    <row r="62" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>113</v>
       </c>
@@ -20903,7 +20903,7 @@
       <c r="FM62" s="185"/>
       <c r="FN62" s="185"/>
     </row>
-    <row r="63" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
         <v>601</v>
       </c>
@@ -21311,7 +21311,7 @@
       </c>
       <c r="FN63" s="177"/>
     </row>
-    <row r="64" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70" t="s">
         <v>113</v>
       </c>
@@ -21493,7 +21493,7 @@
       <c r="FM64" s="185"/>
       <c r="FN64" s="185"/>
     </row>
-    <row r="65" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>597</v>
       </c>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="FN65" s="177"/>
     </row>
-    <row r="66" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
         <v>113</v>
       </c>
@@ -22083,7 +22083,7 @@
       <c r="FM66" s="185"/>
       <c r="FN66" s="185"/>
     </row>
-    <row r="67" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
         <v>592</v>
       </c>
@@ -22491,7 +22491,7 @@
       </c>
       <c r="FN67" s="177"/>
     </row>
-    <row r="68" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>113</v>
       </c>
@@ -22673,7 +22673,7 @@
       <c r="FM68" s="185"/>
       <c r="FN68" s="185"/>
     </row>
-    <row r="69" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
         <v>589</v>
       </c>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="FN69" s="177"/>
     </row>
-    <row r="70" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
         <v>113</v>
       </c>
@@ -23263,7 +23263,7 @@
       <c r="FM70" s="185"/>
       <c r="FN70" s="185"/>
     </row>
-    <row r="71" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>598</v>
       </c>
@@ -23671,7 +23671,7 @@
       </c>
       <c r="FN71" s="177"/>
     </row>
-    <row r="72" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
         <v>113</v>
       </c>
@@ -23853,7 +23853,7 @@
       <c r="FM72" s="185"/>
       <c r="FN72" s="185"/>
     </row>
-    <row r="73" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>599</v>
       </c>
@@ -24261,7 +24261,7 @@
       </c>
       <c r="FN73" s="177"/>
     </row>
-    <row r="74" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>113</v>
       </c>
@@ -24443,7 +24443,7 @@
       <c r="FM74" s="185"/>
       <c r="FN74" s="185"/>
     </row>
-    <row r="75" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>593</v>
       </c>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="FN75" s="177"/>
     </row>
-    <row r="76" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>113</v>
       </c>
@@ -25033,7 +25033,7 @@
       <c r="FM76" s="185"/>
       <c r="FN76" s="185"/>
     </row>
-    <row r="77" spans="1:170" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>596</v>
       </c>
@@ -25441,7 +25441,7 @@
       </c>
       <c r="FN77" s="177"/>
     </row>
-    <row r="78" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>113</v>
       </c>
@@ -25637,23 +25637,23 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
       <c r="D1" s="195"/>
       <c r="E1" s="83"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
@@ -25684,10 +25684,10 @@
         <v>697</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="84" t="s">
         <v>2</v>
@@ -25700,7 +25700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="84" t="s">
         <v>2</v>
@@ -25747,7 +25747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="84" t="s">
         <v>2</v>
@@ -25794,7 +25794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
@@ -25807,7 +25807,7 @@
       </c>
       <c r="E11" s="80"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -25820,7 +25820,7 @@
       </c>
       <c r="E12" s="80"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="84" t="s">
         <v>2</v>
@@ -25833,7 +25833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="E14" s="80"/>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -25859,7 +25859,7 @@
       </c>
       <c r="E15" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="84" t="s">
         <v>2</v>
@@ -25872,7 +25872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -25885,7 +25885,7 @@
       </c>
       <c r="E17" s="80"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
@@ -25898,7 +25898,7 @@
       </c>
       <c r="E18" s="80"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="84" t="s">
         <v>2</v>
@@ -25911,7 +25911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
         <v>60</v>
       </c>
@@ -25922,7 +25922,7 @@
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>53</v>
       </c>
@@ -25933,7 +25933,7 @@
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="84" t="s">
         <v>2</v>
@@ -25946,7 +25946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>60</v>
       </c>
@@ -25957,7 +25957,7 @@
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>53</v>
       </c>
@@ -25968,7 +25968,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="84" t="s">
         <v>2</v>
@@ -25981,7 +25981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>60</v>
       </c>
@@ -25992,7 +25992,7 @@
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
         <v>53</v>
       </c>
@@ -26003,7 +26003,7 @@
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
       <c r="B28" s="84" t="s">
         <v>2</v>
@@ -26016,7 +26016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>60</v>
       </c>
@@ -26027,7 +26027,7 @@
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>53</v>
       </c>
@@ -26052,22 +26052,22 @@
       <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -27141,11 +27141,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -27347,15 +27347,15 @@
       <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="37.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27378,7 +27378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>141</v>
       </c>
@@ -27392,7 +27392,7 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>141</v>
       </c>
@@ -27406,7 +27406,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>141</v>
       </c>
@@ -27420,7 +27420,7 @@
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>141</v>
       </c>
@@ -27434,7 +27434,7 @@
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>141</v>
       </c>
@@ -27448,7 +27448,7 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>141</v>
       </c>
@@ -27462,7 +27462,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>141</v>
       </c>
@@ -27476,7 +27476,7 @@
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>141</v>
       </c>
@@ -27490,7 +27490,7 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>141</v>
       </c>
@@ -27504,7 +27504,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>153</v>
       </c>
@@ -27516,7 +27516,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>141</v>
       </c>
@@ -27586,7 +27586,7 @@
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>141</v>
       </c>
@@ -27600,7 +27600,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>141</v>
       </c>
@@ -27614,7 +27614,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>141</v>
       </c>
@@ -27628,7 +27628,7 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>141</v>
       </c>
@@ -27642,7 +27642,7 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>141</v>
       </c>
@@ -27656,7 +27656,7 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>141</v>
       </c>
@@ -27670,7 +27670,7 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>141</v>
       </c>
@@ -27684,7 +27684,7 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>141</v>
       </c>
@@ -27698,7 +27698,7 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>141</v>
       </c>
@@ -27712,7 +27712,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>141</v>
       </c>
@@ -27726,7 +27726,7 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>153</v>
       </c>
@@ -27738,7 +27738,7 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>154</v>
       </c>
@@ -27794,7 +27794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -27808,7 +27808,7 @@
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>141</v>
       </c>
@@ -27822,7 +27822,7 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>141</v>
       </c>
@@ -27836,7 +27836,7 @@
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>141</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>141</v>
       </c>
@@ -27864,7 +27864,7 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>141</v>
       </c>
@@ -27878,7 +27878,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>141</v>
       </c>
@@ -27892,7 +27892,7 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>141</v>
       </c>
@@ -27906,7 +27906,7 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>141</v>
       </c>
@@ -27920,7 +27920,7 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>141</v>
       </c>
@@ -27934,7 +27934,7 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>141</v>
       </c>
@@ -27948,7 +27948,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>153</v>
       </c>
@@ -27960,7 +27960,7 @@
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>154</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>141</v>
       </c>
@@ -28030,7 +28030,7 @@
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>141</v>
       </c>
@@ -28044,7 +28044,7 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>141</v>
       </c>
@@ -28058,7 +28058,7 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>141</v>
       </c>
@@ -28072,7 +28072,7 @@
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>141</v>
       </c>
@@ -28086,7 +28086,7 @@
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>141</v>
       </c>
@@ -28100,7 +28100,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>141</v>
       </c>
@@ -28114,7 +28114,7 @@
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>141</v>
       </c>
@@ -28128,7 +28128,7 @@
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>141</v>
       </c>
@@ -28142,7 +28142,7 @@
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>141</v>
       </c>
@@ -28156,7 +28156,7 @@
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>141</v>
       </c>
@@ -28170,7 +28170,7 @@
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
         <v>153</v>
       </c>
@@ -28182,7 +28182,7 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>154</v>
       </c>
@@ -28238,7 +28238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>141</v>
       </c>
@@ -28252,7 +28252,7 @@
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>141</v>
       </c>
@@ -28266,7 +28266,7 @@
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>141</v>
       </c>
@@ -28280,7 +28280,7 @@
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>141</v>
       </c>
@@ -28294,7 +28294,7 @@
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>141</v>
       </c>
@@ -28308,7 +28308,7 @@
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>141</v>
       </c>
@@ -28322,7 +28322,7 @@
       <c r="E69" s="48"/>
       <c r="F69" s="48"/>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
         <v>141</v>
       </c>
@@ -28336,7 +28336,7 @@
       <c r="E70" s="48"/>
       <c r="F70" s="48"/>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>141</v>
       </c>
@@ -28350,7 +28350,7 @@
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>141</v>
       </c>
@@ -28364,7 +28364,7 @@
       <c r="E72" s="48"/>
       <c r="F72" s="48"/>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>141</v>
       </c>
@@ -28378,7 +28378,7 @@
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>141</v>
       </c>
@@ -28392,7 +28392,7 @@
       <c r="E74" s="48"/>
       <c r="F74" s="48"/>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>153</v>
       </c>
@@ -28404,7 +28404,7 @@
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>154</v>
       </c>
@@ -28460,7 +28460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
         <v>141</v>
       </c>
@@ -28474,7 +28474,7 @@
       <c r="E80" s="46"/>
       <c r="F80" s="46"/>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
         <v>141</v>
       </c>
@@ -28488,7 +28488,7 @@
       <c r="E81" s="46"/>
       <c r="F81" s="46"/>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
         <v>141</v>
       </c>
@@ -28502,7 +28502,7 @@
       <c r="E82" s="46"/>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>141</v>
       </c>
@@ -28516,7 +28516,7 @@
       <c r="E83" s="48"/>
       <c r="F83" s="48"/>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>141</v>
       </c>
@@ -28530,7 +28530,7 @@
       <c r="E84" s="48"/>
       <c r="F84" s="48"/>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>141</v>
       </c>
@@ -28544,7 +28544,7 @@
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>141</v>
       </c>
@@ -28558,7 +28558,7 @@
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>141</v>
       </c>
@@ -28572,7 +28572,7 @@
       <c r="E87" s="48"/>
       <c r="F87" s="48"/>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>141</v>
       </c>
@@ -28586,7 +28586,7 @@
       <c r="E88" s="48"/>
       <c r="F88" s="48"/>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>141</v>
       </c>
@@ -28600,7 +28600,7 @@
       <c r="E89" s="48"/>
       <c r="F89" s="48"/>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>141</v>
       </c>
@@ -28614,7 +28614,7 @@
       <c r="E90" s="48"/>
       <c r="F90" s="48"/>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>153</v>
       </c>
@@ -28626,7 +28626,7 @@
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>154</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>141</v>
       </c>
@@ -28696,7 +28696,7 @@
       <c r="E96" s="46"/>
       <c r="F96" s="46"/>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>141</v>
       </c>
@@ -28710,7 +28710,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>141</v>
       </c>
@@ -28724,7 +28724,7 @@
       <c r="E98" s="46"/>
       <c r="F98" s="46"/>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>141</v>
       </c>
@@ -28738,7 +28738,7 @@
       <c r="E99" s="46"/>
       <c r="F99" s="46"/>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>141</v>
       </c>
@@ -28752,7 +28752,7 @@
       <c r="E100" s="48"/>
       <c r="F100" s="48"/>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>141</v>
       </c>
@@ -28766,7 +28766,7 @@
       <c r="E101" s="48"/>
       <c r="F101" s="48"/>
     </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>141</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="E102" s="48"/>
       <c r="F102" s="48"/>
     </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>141</v>
       </c>
@@ -28794,7 +28794,7 @@
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
         <v>141</v>
       </c>
@@ -28808,7 +28808,7 @@
       <c r="E104" s="48"/>
       <c r="F104" s="48"/>
     </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>141</v>
       </c>
@@ -28822,7 +28822,7 @@
       <c r="E105" s="48"/>
       <c r="F105" s="48"/>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>141</v>
       </c>
@@ -28836,7 +28836,7 @@
       <c r="E106" s="48"/>
       <c r="F106" s="48"/>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
         <v>153</v>
       </c>
@@ -28848,7 +28848,7 @@
       <c r="E107" s="39"/>
       <c r="F107" s="39"/>
     </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
         <v>154</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
         <v>141</v>
       </c>
@@ -28918,7 +28918,7 @@
       <c r="E112" s="46"/>
       <c r="F112" s="46"/>
     </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>141</v>
       </c>
@@ -28932,7 +28932,7 @@
       <c r="E113" s="48"/>
       <c r="F113" s="48"/>
     </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>141</v>
       </c>
@@ -28946,7 +28946,7 @@
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
     </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
         <v>141</v>
       </c>
@@ -28960,7 +28960,7 @@
       <c r="E115" s="48"/>
       <c r="F115" s="48"/>
     </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>141</v>
       </c>
@@ -28974,7 +28974,7 @@
       <c r="E116" s="48"/>
       <c r="F116" s="48"/>
     </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>141</v>
       </c>
@@ -28988,7 +28988,7 @@
       <c r="E117" s="48"/>
       <c r="F117" s="48"/>
     </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
         <v>141</v>
       </c>
@@ -29002,7 +29002,7 @@
       <c r="E118" s="48"/>
       <c r="F118" s="48"/>
     </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>141</v>
       </c>
@@ -29016,7 +29016,7 @@
       <c r="E119" s="48"/>
       <c r="F119" s="48"/>
     </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
         <v>141</v>
       </c>
@@ -29030,7 +29030,7 @@
       <c r="E120" s="48"/>
       <c r="F120" s="48"/>
     </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
         <v>141</v>
       </c>
@@ -29044,7 +29044,7 @@
       <c r="E121" s="48"/>
       <c r="F121" s="48"/>
     </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
         <v>141</v>
       </c>
@@ -29058,7 +29058,7 @@
       <c r="E122" s="48"/>
       <c r="F122" s="48"/>
     </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
         <v>153</v>
       </c>
@@ -29070,7 +29070,7 @@
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
     </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
         <v>154</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
         <v>141</v>
       </c>
@@ -29140,7 +29140,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>141</v>
       </c>
@@ -29154,7 +29154,7 @@
       <c r="E129" s="48"/>
       <c r="F129" s="48"/>
     </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="47" t="s">
         <v>141</v>
       </c>
@@ -29168,7 +29168,7 @@
       <c r="E130" s="48"/>
       <c r="F130" s="48"/>
     </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
         <v>141</v>
       </c>
@@ -29182,7 +29182,7 @@
       <c r="E131" s="48"/>
       <c r="F131" s="48"/>
     </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>141</v>
       </c>
@@ -29196,7 +29196,7 @@
       <c r="E132" s="48"/>
       <c r="F132" s="48"/>
     </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>141</v>
       </c>
@@ -29210,7 +29210,7 @@
       <c r="E133" s="48"/>
       <c r="F133" s="48"/>
     </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
         <v>141</v>
       </c>
@@ -29224,7 +29224,7 @@
       <c r="E134" s="48"/>
       <c r="F134" s="48"/>
     </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>141</v>
       </c>
@@ -29238,7 +29238,7 @@
       <c r="E135" s="48"/>
       <c r="F135" s="48"/>
     </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
         <v>141</v>
       </c>
@@ -29252,7 +29252,7 @@
       <c r="E136" s="48"/>
       <c r="F136" s="48"/>
     </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
         <v>141</v>
       </c>
@@ -29266,7 +29266,7 @@
       <c r="E137" s="48"/>
       <c r="F137" s="48"/>
     </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>141</v>
       </c>
@@ -29280,7 +29280,7 @@
       <c r="E138" s="48"/>
       <c r="F138" s="48"/>
     </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
         <v>153</v>
       </c>
@@ -29292,7 +29292,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="39"/>
     </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
         <v>154</v>
       </c>
@@ -29348,7 +29348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="45" t="s">
         <v>141</v>
       </c>
@@ -29362,7 +29362,7 @@
       <c r="E144" s="46"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>141</v>
       </c>
@@ -29376,7 +29376,7 @@
       <c r="E145" s="46"/>
       <c r="F145" s="46"/>
     </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
         <v>141</v>
       </c>
@@ -29390,7 +29390,7 @@
       <c r="E146" s="46"/>
       <c r="F146" s="46"/>
     </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
         <v>141</v>
       </c>
@@ -29404,7 +29404,7 @@
       <c r="E147" s="46"/>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
         <v>141</v>
       </c>
@@ -29418,7 +29418,7 @@
       <c r="E148" s="48"/>
       <c r="F148" s="48"/>
     </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>141</v>
       </c>
@@ -29432,7 +29432,7 @@
       <c r="E149" s="48"/>
       <c r="F149" s="48"/>
     </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>141</v>
       </c>
@@ -29446,7 +29446,7 @@
       <c r="E150" s="48"/>
       <c r="F150" s="48"/>
     </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
         <v>141</v>
       </c>
@@ -29460,7 +29460,7 @@
       <c r="E151" s="48"/>
       <c r="F151" s="48"/>
     </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>141</v>
       </c>
@@ -29474,7 +29474,7 @@
       <c r="E152" s="48"/>
       <c r="F152" s="48"/>
     </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>141</v>
       </c>
@@ -29488,7 +29488,7 @@
       <c r="E153" s="48"/>
       <c r="F153" s="48"/>
     </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>141</v>
       </c>
@@ -29502,7 +29502,7 @@
       <c r="E154" s="48"/>
       <c r="F154" s="48"/>
     </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
         <v>153</v>
       </c>
@@ -29514,7 +29514,7 @@
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
     </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
         <v>154</v>
       </c>
@@ -29570,7 +29570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="45" t="s">
         <v>141</v>
       </c>
@@ -29584,7 +29584,7 @@
       <c r="E160" s="46"/>
       <c r="F160" s="46"/>
     </row>
-    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="45" t="s">
         <v>141</v>
       </c>
@@ -29598,7 +29598,7 @@
       <c r="E161" s="46"/>
       <c r="F161" s="46"/>
     </row>
-    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="45" t="s">
         <v>141</v>
       </c>
@@ -29612,7 +29612,7 @@
       <c r="E162" s="46"/>
       <c r="F162" s="46"/>
     </row>
-    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="45" t="s">
         <v>141</v>
       </c>
@@ -29626,7 +29626,7 @@
       <c r="E163" s="46"/>
       <c r="F163" s="46"/>
     </row>
-    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>141</v>
       </c>
@@ -29640,7 +29640,7 @@
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
     </row>
-    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>141</v>
       </c>
@@ -29654,7 +29654,7 @@
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
     </row>
-    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>141</v>
       </c>
@@ -29668,7 +29668,7 @@
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
     </row>
-    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
         <v>141</v>
       </c>
@@ -29682,7 +29682,7 @@
       <c r="E167" s="48"/>
       <c r="F167" s="48"/>
     </row>
-    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>141</v>
       </c>
@@ -29696,7 +29696,7 @@
       <c r="E168" s="48"/>
       <c r="F168" s="48"/>
     </row>
-    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
         <v>141</v>
       </c>
@@ -29710,7 +29710,7 @@
       <c r="E169" s="48"/>
       <c r="F169" s="48"/>
     </row>
-    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
         <v>141</v>
       </c>
@@ -29724,7 +29724,7 @@
       <c r="E170" s="48"/>
       <c r="F170" s="48"/>
     </row>
-    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>153</v>
       </c>
@@ -29736,7 +29736,7 @@
       <c r="E171" s="39"/>
       <c r="F171" s="39"/>
     </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>154</v>
       </c>
@@ -29792,7 +29792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
         <v>141</v>
       </c>
@@ -29806,7 +29806,7 @@
       <c r="E176" s="46"/>
       <c r="F176" s="46"/>
     </row>
-    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="45" t="s">
         <v>141</v>
       </c>
@@ -29820,7 +29820,7 @@
       <c r="E177" s="46"/>
       <c r="F177" s="46"/>
     </row>
-    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="45" t="s">
         <v>141</v>
       </c>
@@ -29834,7 +29834,7 @@
       <c r="E178" s="46"/>
       <c r="F178" s="46"/>
     </row>
-    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="45" t="s">
         <v>141</v>
       </c>
@@ -29848,7 +29848,7 @@
       <c r="E179" s="46"/>
       <c r="F179" s="46"/>
     </row>
-    <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
         <v>141</v>
       </c>
@@ -29862,7 +29862,7 @@
       <c r="E180" s="48"/>
       <c r="F180" s="48"/>
     </row>
-    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>141</v>
       </c>
@@ -29876,7 +29876,7 @@
       <c r="E181" s="48"/>
       <c r="F181" s="48"/>
     </row>
-    <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
         <v>141</v>
       </c>
@@ -29890,7 +29890,7 @@
       <c r="E182" s="48"/>
       <c r="F182" s="48"/>
     </row>
-    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
         <v>141</v>
       </c>
@@ -29904,7 +29904,7 @@
       <c r="E183" s="48"/>
       <c r="F183" s="48"/>
     </row>
-    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
         <v>141</v>
       </c>
@@ -29918,7 +29918,7 @@
       <c r="E184" s="48"/>
       <c r="F184" s="48"/>
     </row>
-    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
         <v>141</v>
       </c>
@@ -29932,7 +29932,7 @@
       <c r="E185" s="48"/>
       <c r="F185" s="48"/>
     </row>
-    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>141</v>
       </c>
@@ -29946,7 +29946,7 @@
       <c r="E186" s="48"/>
       <c r="F186" s="48"/>
     </row>
-    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="37" t="s">
         <v>153</v>
       </c>
@@ -29958,7 +29958,7 @@
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
     </row>
-    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
         <v>154</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
         <v>141</v>
       </c>
@@ -30028,7 +30028,7 @@
       <c r="E192" s="46"/>
       <c r="F192" s="46"/>
     </row>
-    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
         <v>141</v>
       </c>
@@ -30042,7 +30042,7 @@
       <c r="E193" s="48"/>
       <c r="F193" s="48"/>
     </row>
-    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="47" t="s">
         <v>141</v>
       </c>
@@ -30056,7 +30056,7 @@
       <c r="E194" s="48"/>
       <c r="F194" s="48"/>
     </row>
-    <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
         <v>141</v>
       </c>
@@ -30070,7 +30070,7 @@
       <c r="E195" s="48"/>
       <c r="F195" s="48"/>
     </row>
-    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="47" t="s">
         <v>141</v>
       </c>
@@ -30084,7 +30084,7 @@
       <c r="E196" s="48"/>
       <c r="F196" s="48"/>
     </row>
-    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="47" t="s">
         <v>141</v>
       </c>
@@ -30098,7 +30098,7 @@
       <c r="E197" s="48"/>
       <c r="F197" s="48"/>
     </row>
-    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
         <v>141</v>
       </c>
@@ -30112,7 +30112,7 @@
       <c r="E198" s="48"/>
       <c r="F198" s="48"/>
     </row>
-    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="47" t="s">
         <v>141</v>
       </c>
@@ -30126,7 +30126,7 @@
       <c r="E199" s="48"/>
       <c r="F199" s="48"/>
     </row>
-    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>141</v>
       </c>
@@ -30140,7 +30140,7 @@
       <c r="E200" s="48"/>
       <c r="F200" s="48"/>
     </row>
-    <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>141</v>
       </c>
@@ -30154,7 +30154,7 @@
       <c r="E201" s="48"/>
       <c r="F201" s="48"/>
     </row>
-    <row r="202" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>141</v>
       </c>
@@ -30168,7 +30168,7 @@
       <c r="E202" s="48"/>
       <c r="F202" s="48"/>
     </row>
-    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
         <v>153</v>
       </c>
@@ -30180,7 +30180,7 @@
       <c r="E203" s="39"/>
       <c r="F203" s="39"/>
     </row>
-    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
         <v>154</v>
       </c>
@@ -30192,7 +30192,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
     </row>
-    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="37" t="s">
         <v>155</v>
       </c>
@@ -30204,7 +30204,7 @@
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
     </row>
-    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="49" t="s">
         <v>162</v>
       </c>
@@ -30216,7 +30216,7 @@
       <c r="E206" s="44"/>
       <c r="F206" s="44"/>
     </row>
-    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="35" t="s">
         <v>717</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A208" s="45" t="s">
         <v>141</v>
       </c>
@@ -30250,7 +30250,7 @@
       <c r="E208" s="46"/>
       <c r="F208" s="46"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>141</v>
       </c>
@@ -30264,7 +30264,7 @@
       <c r="E209" s="48"/>
       <c r="F209" s="48"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A210" s="47" t="s">
         <v>141</v>
       </c>
@@ -30278,7 +30278,7 @@
       <c r="E210" s="48"/>
       <c r="F210" s="48"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>141</v>
       </c>
@@ -30292,7 +30292,7 @@
       <c r="E211" s="48"/>
       <c r="F211" s="48"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>141</v>
       </c>
@@ -30306,7 +30306,7 @@
       <c r="E212" s="48"/>
       <c r="F212" s="48"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A213" s="47" t="s">
         <v>141</v>
       </c>
@@ -30320,7 +30320,7 @@
       <c r="E213" s="48"/>
       <c r="F213" s="48"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A214" s="47" t="s">
         <v>141</v>
       </c>
@@ -30334,7 +30334,7 @@
       <c r="E214" s="48"/>
       <c r="F214" s="48"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>141</v>
       </c>
@@ -30348,7 +30348,7 @@
       <c r="E215" s="48"/>
       <c r="F215" s="48"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
         <v>141</v>
       </c>
@@ -30362,7 +30362,7 @@
       <c r="E216" s="48"/>
       <c r="F216" s="48"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>141</v>
       </c>
@@ -30376,7 +30376,7 @@
       <c r="E217" s="48"/>
       <c r="F217" s="48"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>141</v>
       </c>
@@ -30390,7 +30390,7 @@
       <c r="E218" s="48"/>
       <c r="F218" s="48"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
         <v>153</v>
       </c>
@@ -30402,7 +30402,7 @@
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
         <v>154</v>
       </c>
@@ -30414,7 +30414,7 @@
       <c r="E220" s="39"/>
       <c r="F220" s="39"/>
     </row>
-    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
         <v>155</v>
       </c>
@@ -30426,7 +30426,7 @@
       <c r="E221" s="39"/>
       <c r="F221" s="39"/>
     </row>
-    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49" t="s">
         <v>162</v>
       </c>
@@ -30452,12 +30452,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="12" customWidth="1"/>
-    <col min="3" max="3" width="50.88671875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="29"/>
+    <col min="3" max="3" width="50.85546875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30471,21 +30471,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>238</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>198</v>
       </c>
@@ -30494,7 +30494,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>197</v>
       </c>
@@ -30519,21 +30519,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>236</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>237</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>242</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>239</v>
       </c>
@@ -30583,63 +30583,63 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>204</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
         <v>205</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>206</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>210</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>211</v>
       </c>
@@ -30664,28 +30664,28 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>214</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>216</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>217</v>
       </c>
@@ -30710,56 +30710,56 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>220</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>221</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>222</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>223</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>224</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>225</v>
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>226</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="55" t="s">
         <v>227</v>
       </c>
@@ -30784,35 +30784,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>230</v>
       </c>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
         <v>231</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
         <v>232</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="55" t="s">
         <v>233</v>
       </c>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
         <v>234</v>
       </c>
@@ -30837,63 +30837,63 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>241</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>251</v>
       </c>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>252</v>
       </c>
@@ -30914,24 +30914,24 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="124"/>
-    <col min="3" max="3" width="19.5546875" style="138" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" style="139" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="139" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="139" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="139" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="139" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.5546875" style="124" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="124"/>
+    <col min="1" max="2" width="9.140625" style="124"/>
+    <col min="3" max="3" width="19.5703125" style="138" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" style="139" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="139" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="139" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="139" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.5703125" style="124" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
         <v>405</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>417</v>
       </c>
@@ -31019,7 +31019,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>417</v>
       </c>
@@ -31063,7 +31063,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="125" t="s">
         <v>417</v>
       </c>
@@ -31105,7 +31105,7 @@
       </c>
       <c r="N4" s="125"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>417</v>
       </c>
@@ -31149,7 +31149,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
         <v>417</v>
       </c>
@@ -31193,7 +31193,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
         <v>417</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>417</v>
       </c>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="N8" s="125"/>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
         <v>417</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="125" t="s">
         <v>417</v>
       </c>
@@ -31367,7 +31367,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
         <v>417</v>
       </c>
@@ -31409,7 +31409,7 @@
       </c>
       <c r="N11" s="125"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>417</v>
       </c>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="N12" s="125"/>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="125" t="s">
         <v>417</v>
       </c>
@@ -31493,7 +31493,7 @@
       </c>
       <c r="N13" s="125"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>417</v>
       </c>
@@ -31535,7 +31535,7 @@
       </c>
       <c r="N14" s="125"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="130" t="s">
         <v>523</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="130" t="s">
         <v>523</v>
       </c>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="N16" s="130"/>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
         <v>523</v>
       </c>
@@ -31663,7 +31663,7 @@
       </c>
       <c r="N17" s="130"/>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="130" t="s">
         <v>523</v>
       </c>
@@ -31705,7 +31705,7 @@
       </c>
       <c r="N18" s="130"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="130" t="s">
         <v>523</v>
       </c>
@@ -31747,7 +31747,7 @@
       </c>
       <c r="N19" s="130"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="130" t="s">
         <v>523</v>
       </c>
@@ -31789,7 +31789,7 @@
       </c>
       <c r="N20" s="130"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="130" t="s">
         <v>523</v>
       </c>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="N21" s="130"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="130" t="s">
         <v>523</v>
       </c>
@@ -31873,7 +31873,7 @@
       </c>
       <c r="N22" s="130"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="130" t="s">
         <v>523</v>
       </c>
@@ -31915,7 +31915,7 @@
       </c>
       <c r="N23" s="130"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="130" t="s">
         <v>523</v>
       </c>
@@ -31957,7 +31957,7 @@
       </c>
       <c r="N24" s="130"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="130" t="s">
         <v>523</v>
       </c>
@@ -31999,7 +31999,7 @@
       </c>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="130" t="s">
         <v>523</v>
       </c>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="N26" s="130"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="130" t="s">
         <v>523</v>
       </c>
@@ -32083,7 +32083,7 @@
       </c>
       <c r="N27" s="130"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="125" t="s">
         <v>417</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="125" t="s">
         <v>417</v>
       </c>
@@ -32129,7 +32129,7 @@
       <c r="M29" s="128"/>
       <c r="N29" s="125"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="125" t="s">
         <v>417</v>
       </c>
@@ -32151,7 +32151,7 @@
       <c r="M30" s="128"/>
       <c r="N30" s="125"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="125" t="s">
         <v>417</v>
       </c>
@@ -32173,7 +32173,7 @@
       <c r="M31" s="128"/>
       <c r="N31" s="125"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="125" t="s">
         <v>417</v>
       </c>
@@ -32195,7 +32195,7 @@
       <c r="M32" s="128"/>
       <c r="N32" s="125"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="125" t="s">
         <v>417</v>
       </c>
@@ -32217,7 +32217,7 @@
       <c r="M33" s="128"/>
       <c r="N33" s="125"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="125" t="s">
         <v>417</v>
       </c>
@@ -32239,7 +32239,7 @@
       <c r="M34" s="128"/>
       <c r="N34" s="125"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="125" t="s">
         <v>417</v>
       </c>
@@ -32261,7 +32261,7 @@
       <c r="M35" s="128"/>
       <c r="N35" s="125"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="125" t="s">
         <v>417</v>
       </c>
@@ -32283,7 +32283,7 @@
       <c r="M36" s="128"/>
       <c r="N36" s="125"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="125" t="s">
         <v>417</v>
       </c>
@@ -32305,7 +32305,7 @@
       <c r="M37" s="128"/>
       <c r="N37" s="125"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="125" t="s">
         <v>417</v>
       </c>
@@ -32327,7 +32327,7 @@
       <c r="M38" s="128"/>
       <c r="N38" s="125"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="125" t="s">
         <v>417</v>
       </c>
@@ -32349,7 +32349,7 @@
       <c r="M39" s="128"/>
       <c r="N39" s="125"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="125" t="s">
         <v>417</v>
       </c>
@@ -32371,7 +32371,7 @@
       <c r="M40" s="128"/>
       <c r="N40" s="125"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="130" t="s">
         <v>523</v>
       </c>
@@ -32393,7 +32393,7 @@
       <c r="M41" s="132"/>
       <c r="N41" s="130"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="130" t="s">
         <v>523</v>
       </c>
@@ -32415,7 +32415,7 @@
       <c r="M42" s="132"/>
       <c r="N42" s="130"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="130" t="s">
         <v>523</v>
       </c>
@@ -32437,7 +32437,7 @@
       <c r="M43" s="132"/>
       <c r="N43" s="130"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="130" t="s">
         <v>523</v>
       </c>
@@ -32459,7 +32459,7 @@
       <c r="M44" s="132"/>
       <c r="N44" s="130"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
         <v>523</v>
       </c>
@@ -32481,7 +32481,7 @@
       <c r="M45" s="132"/>
       <c r="N45" s="130"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="130" t="s">
         <v>523</v>
       </c>
@@ -32503,7 +32503,7 @@
       <c r="M46" s="132"/>
       <c r="N46" s="130"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="130" t="s">
         <v>523</v>
       </c>
@@ -32525,7 +32525,7 @@
       <c r="M47" s="132"/>
       <c r="N47" s="130"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="130" t="s">
         <v>523</v>
       </c>
@@ -32547,7 +32547,7 @@
       <c r="M48" s="132"/>
       <c r="N48" s="130"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="130" t="s">
         <v>523</v>
       </c>
@@ -32569,7 +32569,7 @@
       <c r="M49" s="132"/>
       <c r="N49" s="130"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
         <v>523</v>
       </c>
@@ -32591,7 +32591,7 @@
       <c r="M50" s="132"/>
       <c r="N50" s="130"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
         <v>523</v>
       </c>
@@ -32613,7 +32613,7 @@
       <c r="M51" s="132"/>
       <c r="N51" s="130"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="130" t="s">
         <v>523</v>
       </c>
@@ -32635,7 +32635,7 @@
       <c r="M52" s="132"/>
       <c r="N52" s="130"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="130" t="s">
         <v>523</v>
       </c>
@@ -32657,7 +32657,7 @@
       <c r="M53" s="132"/>
       <c r="N53" s="130"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="125" t="s">
         <v>417</v>
       </c>
@@ -32681,7 +32681,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="125" t="s">
         <v>417</v>
       </c>
@@ -32703,7 +32703,7 @@
       <c r="M55" s="128"/>
       <c r="N55" s="125"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="125" t="s">
         <v>417</v>
       </c>
@@ -32725,7 +32725,7 @@
       <c r="M56" s="128"/>
       <c r="N56" s="125"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="125" t="s">
         <v>417</v>
       </c>
@@ -32747,7 +32747,7 @@
       <c r="M57" s="128"/>
       <c r="N57" s="125"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="125" t="s">
         <v>417</v>
       </c>
@@ -32769,7 +32769,7 @@
       <c r="M58" s="128"/>
       <c r="N58" s="125"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="125" t="s">
         <v>417</v>
       </c>
@@ -32791,7 +32791,7 @@
       <c r="M59" s="128"/>
       <c r="N59" s="125"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="125" t="s">
         <v>417</v>
       </c>
@@ -32813,7 +32813,7 @@
       <c r="M60" s="128"/>
       <c r="N60" s="125"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>417</v>
       </c>
@@ -32835,7 +32835,7 @@
       <c r="M61" s="128"/>
       <c r="N61" s="125"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="125" t="s">
         <v>417</v>
       </c>
@@ -32857,7 +32857,7 @@
       <c r="M62" s="128"/>
       <c r="N62" s="125"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>417</v>
       </c>
@@ -32879,7 +32879,7 @@
       <c r="M63" s="128"/>
       <c r="N63" s="125"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="125" t="s">
         <v>417</v>
       </c>
@@ -32901,7 +32901,7 @@
       <c r="M64" s="128"/>
       <c r="N64" s="125"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="125" t="s">
         <v>417</v>
       </c>
@@ -32923,7 +32923,7 @@
       <c r="M65" s="128"/>
       <c r="N65" s="125"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="125" t="s">
         <v>417</v>
       </c>
@@ -32945,7 +32945,7 @@
       <c r="M66" s="128"/>
       <c r="N66" s="125"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="130" t="s">
         <v>523</v>
       </c>
@@ -32967,7 +32967,7 @@
       <c r="M67" s="132"/>
       <c r="N67" s="130"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="130" t="s">
         <v>523</v>
       </c>
@@ -32989,7 +32989,7 @@
       <c r="M68" s="132"/>
       <c r="N68" s="130"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="130" t="s">
         <v>523</v>
       </c>
@@ -33011,7 +33011,7 @@
       <c r="M69" s="132"/>
       <c r="N69" s="130"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="130" t="s">
         <v>523</v>
       </c>
@@ -33033,7 +33033,7 @@
       <c r="M70" s="132"/>
       <c r="N70" s="130"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="130" t="s">
         <v>523</v>
       </c>
@@ -33055,7 +33055,7 @@
       <c r="M71" s="132"/>
       <c r="N71" s="130"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="130" t="s">
         <v>523</v>
       </c>
@@ -33077,7 +33077,7 @@
       <c r="M72" s="132"/>
       <c r="N72" s="130"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="130" t="s">
         <v>523</v>
       </c>
@@ -33099,7 +33099,7 @@
       <c r="M73" s="132"/>
       <c r="N73" s="130"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="130" t="s">
         <v>523</v>
       </c>
@@ -33121,7 +33121,7 @@
       <c r="M74" s="132"/>
       <c r="N74" s="130"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="130" t="s">
         <v>523</v>
       </c>
@@ -33143,7 +33143,7 @@
       <c r="M75" s="132"/>
       <c r="N75" s="130"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="130" t="s">
         <v>523</v>
       </c>
@@ -33165,7 +33165,7 @@
       <c r="M76" s="132"/>
       <c r="N76" s="130"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="130" t="s">
         <v>523</v>
       </c>
@@ -33187,7 +33187,7 @@
       <c r="M77" s="132"/>
       <c r="N77" s="130"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="130" t="s">
         <v>523</v>
       </c>
@@ -33209,7 +33209,7 @@
       <c r="M78" s="132"/>
       <c r="N78" s="130"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="130" t="s">
         <v>523</v>
       </c>
@@ -33231,7 +33231,7 @@
       <c r="M79" s="132"/>
       <c r="N79" s="130"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="125" t="s">
         <v>417</v>
       </c>
@@ -33255,7 +33255,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="125" t="s">
         <v>417</v>
       </c>
@@ -33277,7 +33277,7 @@
       <c r="M81" s="128"/>
       <c r="N81" s="125"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="125" t="s">
         <v>417</v>
       </c>
@@ -33299,7 +33299,7 @@
       <c r="M82" s="128"/>
       <c r="N82" s="125"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="125" t="s">
         <v>417</v>
       </c>
@@ -33321,7 +33321,7 @@
       <c r="M83" s="128"/>
       <c r="N83" s="125"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="125" t="s">
         <v>417</v>
       </c>
@@ -33343,7 +33343,7 @@
       <c r="M84" s="128"/>
       <c r="N84" s="125"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="125" t="s">
         <v>417</v>
       </c>
@@ -33365,7 +33365,7 @@
       <c r="M85" s="128"/>
       <c r="N85" s="125"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="125" t="s">
         <v>417</v>
       </c>
@@ -33387,7 +33387,7 @@
       <c r="M86" s="128"/>
       <c r="N86" s="125"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="125" t="s">
         <v>417</v>
       </c>
@@ -33409,7 +33409,7 @@
       <c r="M87" s="128"/>
       <c r="N87" s="125"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="125" t="s">
         <v>417</v>
       </c>
@@ -33431,7 +33431,7 @@
       <c r="M88" s="128"/>
       <c r="N88" s="125"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="125" t="s">
         <v>417</v>
       </c>
@@ -33453,7 +33453,7 @@
       <c r="M89" s="128"/>
       <c r="N89" s="125"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="125" t="s">
         <v>417</v>
       </c>
@@ -33475,7 +33475,7 @@
       <c r="M90" s="128"/>
       <c r="N90" s="125"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="125" t="s">
         <v>417</v>
       </c>
@@ -33497,7 +33497,7 @@
       <c r="M91" s="128"/>
       <c r="N91" s="125"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="125" t="s">
         <v>417</v>
       </c>
@@ -33519,7 +33519,7 @@
       <c r="M92" s="128"/>
       <c r="N92" s="125"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="130" t="s">
         <v>523</v>
       </c>
@@ -33541,7 +33541,7 @@
       <c r="M93" s="132"/>
       <c r="N93" s="130"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="130" t="s">
         <v>523</v>
       </c>
@@ -33563,7 +33563,7 @@
       <c r="M94" s="132"/>
       <c r="N94" s="130"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="130" t="s">
         <v>523</v>
       </c>
@@ -33585,7 +33585,7 @@
       <c r="M95" s="132"/>
       <c r="N95" s="130"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="130" t="s">
         <v>523</v>
       </c>
@@ -33607,7 +33607,7 @@
       <c r="M96" s="132"/>
       <c r="N96" s="130"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="130" t="s">
         <v>523</v>
       </c>
@@ -33629,7 +33629,7 @@
       <c r="M97" s="132"/>
       <c r="N97" s="130"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="130" t="s">
         <v>523</v>
       </c>
@@ -33651,7 +33651,7 @@
       <c r="M98" s="132"/>
       <c r="N98" s="130"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="130" t="s">
         <v>523</v>
       </c>
@@ -33673,7 +33673,7 @@
       <c r="M99" s="132"/>
       <c r="N99" s="130"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="130" t="s">
         <v>523</v>
       </c>
@@ -33695,7 +33695,7 @@
       <c r="M100" s="132"/>
       <c r="N100" s="130"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="130" t="s">
         <v>523</v>
       </c>
@@ -33717,7 +33717,7 @@
       <c r="M101" s="132"/>
       <c r="N101" s="130"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="130" t="s">
         <v>523</v>
       </c>
@@ -33739,7 +33739,7 @@
       <c r="M102" s="132"/>
       <c r="N102" s="130"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="130" t="s">
         <v>523</v>
       </c>
@@ -33761,7 +33761,7 @@
       <c r="M103" s="132"/>
       <c r="N103" s="130"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="130" t="s">
         <v>523</v>
       </c>
@@ -33783,7 +33783,7 @@
       <c r="M104" s="132"/>
       <c r="N104" s="130"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="130" t="s">
         <v>523</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\biogears\core\share\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
   </bookViews>
@@ -16,12 +21,12 @@
     <sheet name="Configuration" sheetId="12" r:id="rId7"/>
     <sheet name="Tissue" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="776">
   <si>
     <t>Name</t>
   </si>
@@ -2280,12 +2285,90 @@
   </si>
   <si>
     <t>0.0003 ug/mL</t>
+  </si>
+  <si>
+    <t>Piperacillin</t>
+  </si>
+  <si>
+    <t>Tazobactam</t>
+  </si>
+  <si>
+    <t>517.6 g/mol</t>
+  </si>
+  <si>
+    <t>300.3 g/mol</t>
+  </si>
+  <si>
+    <t>Hayashi2010Pharmacokinetic</t>
+  </si>
+  <si>
+    <t>1.98 mL/min kg</t>
+  </si>
+  <si>
+    <t>Wise1991Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>4 g PIP when given with 0.5 g TAZ</t>
+  </si>
+  <si>
+    <t>Between 77% and 80% unbound</t>
+  </si>
+  <si>
+    <t>Between 70% and 80% unbound</t>
+  </si>
+  <si>
+    <t>1.04 mL/min kg</t>
+  </si>
+  <si>
+    <t>1.83 mL/min kg</t>
+  </si>
+  <si>
+    <t>When given with PIP (significant difference if alone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0 mL/min kg</t>
+  </si>
+  <si>
+    <t>Hyatt1995InVitro</t>
+  </si>
+  <si>
+    <t>Ratio of concentration to MIC, assumes presence of TAZ</t>
+  </si>
+  <si>
+    <t>Given for CSF</t>
+  </si>
+  <si>
+    <t>Assume value for intesines</t>
+  </si>
+  <si>
+    <t>Assume value for muscles</t>
+  </si>
+  <si>
+    <t>Assume same as intestines</t>
+  </si>
+  <si>
+    <t>Assume same as PIP</t>
+  </si>
+  <si>
+    <t>Assume same as muscle</t>
+  </si>
+  <si>
+    <t>PiperacillinTazobactam</t>
+  </si>
+  <si>
+    <t>0.2 g/mL</t>
+  </si>
+  <si>
+    <t>0.025 g/mL</t>
+  </si>
+  <si>
+    <t>0.0268 g/mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -3456,7 +3539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3491,7 +3574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4770,13 +4853,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN78"/>
+  <dimension ref="A1:FV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DR24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DN51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EH41" sqref="EH41"/>
+      <selection pane="bottomRight" activeCell="EN74" sqref="EN74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4874,66 +4957,74 @@
     <col min="107" max="107" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="108" max="108" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="109" max="109" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="13.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="15.140625" style="106" customWidth="1" collapsed="1"/>
     <col min="111" max="111" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="112" max="112" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="113" max="113" width="20.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="13.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="117" max="117" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="118" max="118" width="14.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="120" max="121" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="122" max="122" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="24.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="20.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="27.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="13.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="121" max="121" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="122" max="122" width="14.28515625" style="106" customWidth="1" collapsed="1"/>
     <col min="123" max="123" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="124" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="125" max="125" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="21.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="125" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="127" max="127" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="128" max="128" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="23.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="15.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="132" width="15.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="133" max="133" width="30.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="134" max="134" width="15.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="136" max="136" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="139" max="141" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="142" max="142" width="17.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="144" max="144" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="145" max="145" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="146" max="146" width="8.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="148" max="148" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="11.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="21.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="132" max="132" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="133" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="134" max="134" width="23.7109375" style="106" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="15.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="15.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="30.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="15.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="140" max="140" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="142" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="144" max="144" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
+    <col min="147" max="149" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="17.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="151" max="151" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="152" max="152" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="153" max="153" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="15.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="8.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="155" max="155" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="156" max="156" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="19.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="11.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="159" max="159" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="160" max="160" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="19.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="22.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="15.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="163" max="163" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="164" max="164" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="22.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="26.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="169" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="16384" width="9.140625" style="29"/>
+    <col min="165" max="165" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="19.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="168" max="168" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="19.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="22.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="172" max="172" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="22.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="26.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="175" max="177" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="178" max="178" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="59"/>
       <c r="C1" s="103" t="s">
@@ -5215,7 +5306,7 @@
       <c r="DI1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="DJ1" s="73"/>
+      <c r="DJ1" s="112"/>
       <c r="DK1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5233,9 +5324,9 @@
         <v>354</v>
       </c>
       <c r="DQ1" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR1" s="72"/>
+        <v>355</v>
+      </c>
+      <c r="DR1" s="73"/>
       <c r="DS1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5243,7 +5334,7 @@
         <v>354</v>
       </c>
       <c r="DU1" s="112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV1" s="72"/>
       <c r="DW1" s="112" t="s">
@@ -5255,7 +5346,7 @@
       <c r="DY1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="DZ1" s="112"/>
+      <c r="DZ1" s="72"/>
       <c r="EA1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5265,7 +5356,7 @@
       <c r="EC1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="ED1" s="72"/>
+      <c r="ED1" s="112"/>
       <c r="EE1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5275,7 +5366,7 @@
       <c r="EG1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="EH1" s="112"/>
+      <c r="EH1" s="72"/>
       <c r="EI1" s="112" t="s">
         <v>353</v>
       </c>
@@ -5285,44 +5376,44 @@
       <c r="EK1" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="EL1" s="177"/>
-      <c r="EM1" s="178" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN1" s="178" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO1" s="178" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP1" s="177"/>
-      <c r="EQ1" s="178" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER1" s="178" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES1" s="178" t="s">
-        <v>355</v>
-      </c>
-      <c r="ET1" s="179"/>
-      <c r="EU1" s="179" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV1" s="179" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW1" s="179" t="s">
-        <v>355</v>
-      </c>
-      <c r="EX1" s="179"/>
-      <c r="EY1" s="179" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ1" s="179" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA1" s="179" t="s">
+      <c r="EL1" s="112"/>
+      <c r="EM1" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="EN1" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="EO1" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="EP1" s="112"/>
+      <c r="EQ1" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER1" s="112" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES1" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="178" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV1" s="178" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW1" s="178" t="s">
+        <v>355</v>
+      </c>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="178" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ1" s="178" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA1" s="178" t="s">
         <v>355</v>
       </c>
       <c r="FB1" s="179"/>
@@ -5355,9 +5446,29 @@
       <c r="FM1" s="179" t="s">
         <v>355</v>
       </c>
-      <c r="FN1" s="177"/>
-    </row>
-    <row r="2" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN1" s="179"/>
+      <c r="FO1" s="179" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP1" s="179" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ1" s="179" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR1" s="179"/>
+      <c r="FS1" s="179" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT1" s="179" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU1" s="179" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV1" s="177"/>
+    </row>
+    <row r="2" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -5698,178 +5809,202 @@
         <v>741</v>
       </c>
       <c r="DJ2" s="104" t="s">
+        <v>750</v>
+      </c>
+      <c r="DK2" s="104" t="s">
+        <v>750</v>
+      </c>
+      <c r="DL2" s="104" t="s">
+        <v>750</v>
+      </c>
+      <c r="DM2" s="104" t="s">
+        <v>750</v>
+      </c>
+      <c r="DN2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DK2" s="104" t="s">
+      <c r="DO2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DL2" s="104" t="s">
+      <c r="DP2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DM2" s="104" t="s">
+      <c r="DQ2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="DN2" s="104" t="s">
+      <c r="DR2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DO2" s="104" t="s">
+      <c r="DS2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DP2" s="104" t="s">
+      <c r="DT2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DQ2" s="104" t="s">
+      <c r="DU2" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="DR2" s="104" t="s">
+      <c r="DV2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DS2" s="104" t="s">
+      <c r="DW2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DT2" s="104" t="s">
+      <c r="DX2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DU2" s="104" t="s">
+      <c r="DY2" s="104" t="s">
         <v>692</v>
       </c>
-      <c r="DV2" s="104" t="s">
+      <c r="DZ2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DW2" s="104" t="s">
+      <c r="EA2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DX2" s="104" t="s">
+      <c r="EB2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DY2" s="104" t="s">
+      <c r="EC2" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="DZ2" s="104" t="s">
+      <c r="ED2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="EA2" s="104" t="s">
+      <c r="EE2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="EB2" s="104" t="s">
+      <c r="EF2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="EC2" s="104" t="s">
+      <c r="EG2" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="ED2" s="104" t="s">
+      <c r="EH2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EE2" s="104" t="s">
+      <c r="EI2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EF2" s="104" t="s">
+      <c r="EJ2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EG2" s="104" t="s">
+      <c r="EK2" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="EH2" s="104" t="s">
+      <c r="EL2" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="EM2" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="EN2" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="EO2" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="EP2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EI2" s="104" t="s">
+      <c r="EQ2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EJ2" s="104" t="s">
+      <c r="ER2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EK2" s="104" t="s">
+      <c r="ES2" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="EL2" s="104" t="s">
+      <c r="ET2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EM2" s="104" t="s">
+      <c r="EU2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EN2" s="104" t="s">
+      <c r="EV2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EO2" s="104" t="s">
+      <c r="EW2" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="EP2" s="104" t="s">
+      <c r="EX2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="EQ2" s="104" t="s">
+      <c r="EY2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="ER2" s="104" t="s">
+      <c r="EZ2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="ES2" s="104" t="s">
+      <c r="FA2" s="104" t="s">
         <v>623</v>
       </c>
-      <c r="ET2" s="104" t="s">
+      <c r="FB2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="EU2" s="104" t="s">
+      <c r="FC2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="EV2" s="104" t="s">
+      <c r="FD2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="EW2" s="104" t="s">
+      <c r="FE2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="EX2" s="109" t="s">
+      <c r="FF2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EY2" s="109" t="s">
+      <c r="FG2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="EZ2" s="109" t="s">
+      <c r="FH2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="FA2" s="109" t="s">
+      <c r="FI2" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="FB2" s="109" t="s">
+      <c r="FJ2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FC2" s="109" t="s">
+      <c r="FK2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FD2" s="109" t="s">
+      <c r="FL2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FE2" s="109" t="s">
+      <c r="FM2" s="109" t="s">
         <v>650</v>
       </c>
-      <c r="FF2" s="109" t="s">
+      <c r="FN2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FG2" s="109" t="s">
+      <c r="FO2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FH2" s="109" t="s">
+      <c r="FP2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FI2" s="109" t="s">
+      <c r="FQ2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="FJ2" s="109" t="s">
+      <c r="FR2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FK2" s="109" t="s">
+      <c r="FS2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FL2" s="109" t="s">
+      <c r="FT2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FM2" s="109" t="s">
+      <c r="FU2" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="FN2" s="104" t="s">
+      <c r="FV2" s="104" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:170" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>335</v>
       </c>
@@ -6147,16 +6282,10 @@
       <c r="DG3" s="113"/>
       <c r="DH3" s="113"/>
       <c r="DI3" s="113"/>
-      <c r="DJ3" s="62"/>
-      <c r="DK3" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL3" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM3" s="113" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="113"/>
       <c r="DN3" s="62"/>
       <c r="DO3" s="113" t="s">
         <v>353</v>
@@ -6165,7 +6294,7 @@
         <v>354</v>
       </c>
       <c r="DQ3" s="113" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DR3" s="62"/>
       <c r="DS3" s="113" t="s">
@@ -6175,7 +6304,7 @@
         <v>354</v>
       </c>
       <c r="DU3" s="113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV3" s="62"/>
       <c r="DW3" s="113" t="s">
@@ -6187,62 +6316,56 @@
       <c r="DY3" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="DZ3" s="113"/>
-      <c r="EA3" s="113"/>
-      <c r="EB3" s="113"/>
-      <c r="EC3" s="113"/>
-      <c r="ED3" s="62"/>
-      <c r="EE3" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF3" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG3" s="113" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH3" s="200"/>
-      <c r="EI3" s="200"/>
-      <c r="EJ3" s="200"/>
-      <c r="EK3" s="200"/>
-      <c r="EL3" s="180"/>
-      <c r="EM3" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN3" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO3" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP3" s="180"/>
-      <c r="EQ3" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER3" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES3" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="ET3" s="182"/>
-      <c r="EU3" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV3" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW3" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="EX3" s="182"/>
-      <c r="EY3" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ3" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA3" s="182" t="s">
+      <c r="DZ3" s="62"/>
+      <c r="EA3" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB3" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC3" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED3" s="113"/>
+      <c r="EE3" s="113"/>
+      <c r="EF3" s="113"/>
+      <c r="EG3" s="113"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ3" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK3" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL3" s="200"/>
+      <c r="EM3" s="113"/>
+      <c r="EN3" s="113"/>
+      <c r="EO3" s="113"/>
+      <c r="EP3" s="200"/>
+      <c r="EQ3" s="200"/>
+      <c r="ER3" s="200"/>
+      <c r="ES3" s="200"/>
+      <c r="ET3" s="180"/>
+      <c r="EU3" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV3" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW3" s="181" t="s">
+        <v>355</v>
+      </c>
+      <c r="EX3" s="180"/>
+      <c r="EY3" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ3" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA3" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB3" s="182"/>
@@ -6275,9 +6398,29 @@
       <c r="FM3" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN3" s="183"/>
-    </row>
-    <row r="4" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN3" s="182"/>
+      <c r="FO3" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP3" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ3" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR3" s="182"/>
+      <c r="FS3" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT3" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU3" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV3" s="183"/>
+    </row>
+    <row r="4" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -6497,30 +6640,30 @@
       <c r="EI4" s="115"/>
       <c r="EJ4" s="115"/>
       <c r="EK4" s="115"/>
-      <c r="EL4" s="185" t="s">
+      <c r="EL4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="EM4" s="185"/>
-      <c r="EN4" s="185"/>
-      <c r="EO4" s="185"/>
-      <c r="EP4" s="185" t="s">
+      <c r="EM4" s="115"/>
+      <c r="EN4" s="115"/>
+      <c r="EO4" s="115"/>
+      <c r="EP4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="EQ4" s="185"/>
-      <c r="ER4" s="185"/>
-      <c r="ES4" s="185"/>
+      <c r="EQ4" s="115"/>
+      <c r="ER4" s="115"/>
+      <c r="ES4" s="115"/>
       <c r="ET4" s="185" t="s">
-        <v>23</v>
-      </c>
-      <c r="EU4" s="186"/>
-      <c r="EV4" s="186"/>
-      <c r="EW4" s="186"/>
+        <v>17</v>
+      </c>
+      <c r="EU4" s="185"/>
+      <c r="EV4" s="185"/>
+      <c r="EW4" s="185"/>
       <c r="EX4" s="185" t="s">
-        <v>23</v>
-      </c>
-      <c r="EY4" s="186"/>
-      <c r="EZ4" s="186"/>
-      <c r="FA4" s="186"/>
+        <v>17</v>
+      </c>
+      <c r="EY4" s="185"/>
+      <c r="EZ4" s="185"/>
+      <c r="FA4" s="185"/>
       <c r="FB4" s="185" t="s">
         <v>23</v>
       </c>
@@ -6540,10 +6683,22 @@
       <c r="FL4" s="186"/>
       <c r="FM4" s="186"/>
       <c r="FN4" s="185" t="s">
+        <v>23</v>
+      </c>
+      <c r="FO4" s="186"/>
+      <c r="FP4" s="186"/>
+      <c r="FQ4" s="186"/>
+      <c r="FR4" s="185" t="s">
+        <v>23</v>
+      </c>
+      <c r="FS4" s="186"/>
+      <c r="FT4" s="186"/>
+      <c r="FU4" s="186"/>
+      <c r="FV4" s="185" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>718</v>
       </c>
@@ -6680,18 +6835,18 @@
       <c r="DH5" s="115"/>
       <c r="DI5" s="115"/>
       <c r="DJ5" s="115" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="DK5" s="115"/>
       <c r="DL5" s="115"/>
       <c r="DM5" s="115"/>
-      <c r="DN5" s="115"/>
+      <c r="DN5" s="115" t="s">
+        <v>723</v>
+      </c>
       <c r="DO5" s="115"/>
       <c r="DP5" s="115"/>
       <c r="DQ5" s="115"/>
-      <c r="DR5" s="115" t="s">
-        <v>720</v>
-      </c>
+      <c r="DR5" s="115"/>
       <c r="DS5" s="115"/>
       <c r="DT5" s="115"/>
       <c r="DU5" s="115"/>
@@ -6701,36 +6856,40 @@
       <c r="DW5" s="115"/>
       <c r="DX5" s="115"/>
       <c r="DY5" s="115"/>
-      <c r="DZ5" s="115"/>
+      <c r="DZ5" s="115" t="s">
+        <v>720</v>
+      </c>
       <c r="EA5" s="115"/>
       <c r="EB5" s="115"/>
       <c r="EC5" s="115"/>
-      <c r="ED5" s="115" t="s">
-        <v>720</v>
-      </c>
+      <c r="ED5" s="115"/>
       <c r="EE5" s="115"/>
       <c r="EF5" s="115"/>
       <c r="EG5" s="115"/>
-      <c r="EH5" s="115"/>
+      <c r="EH5" s="115" t="s">
+        <v>720</v>
+      </c>
       <c r="EI5" s="115"/>
       <c r="EJ5" s="115"/>
       <c r="EK5" s="115"/>
-      <c r="EL5" s="185"/>
-      <c r="EM5" s="185"/>
-      <c r="EN5" s="185"/>
-      <c r="EO5" s="185"/>
-      <c r="EP5" s="185"/>
-      <c r="EQ5" s="185"/>
-      <c r="ER5" s="185"/>
-      <c r="ES5" s="185"/>
+      <c r="EL5" s="115" t="s">
+        <v>740</v>
+      </c>
+      <c r="EM5" s="115"/>
+      <c r="EN5" s="115"/>
+      <c r="EO5" s="115"/>
+      <c r="EP5" s="115"/>
+      <c r="EQ5" s="115"/>
+      <c r="ER5" s="115"/>
+      <c r="ES5" s="115"/>
       <c r="ET5" s="185"/>
-      <c r="EU5" s="186"/>
-      <c r="EV5" s="186"/>
-      <c r="EW5" s="186"/>
+      <c r="EU5" s="185"/>
+      <c r="EV5" s="185"/>
+      <c r="EW5" s="185"/>
       <c r="EX5" s="185"/>
-      <c r="EY5" s="186"/>
-      <c r="EZ5" s="186"/>
-      <c r="FA5" s="186"/>
+      <c r="EY5" s="185"/>
+      <c r="EZ5" s="185"/>
+      <c r="FA5" s="185"/>
       <c r="FB5" s="185"/>
       <c r="FC5" s="186"/>
       <c r="FD5" s="186"/>
@@ -6744,8 +6903,16 @@
       <c r="FL5" s="186"/>
       <c r="FM5" s="186"/>
       <c r="FN5" s="185"/>
-    </row>
-    <row r="6" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO5" s="186"/>
+      <c r="FP5" s="186"/>
+      <c r="FQ5" s="186"/>
+      <c r="FR5" s="185"/>
+      <c r="FS5" s="186"/>
+      <c r="FT5" s="186"/>
+      <c r="FU5" s="186"/>
+      <c r="FV5" s="185"/>
+    </row>
+    <row r="6" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
@@ -6893,13 +7060,13 @@
       <c r="DW6" s="115"/>
       <c r="DX6" s="115"/>
       <c r="DY6" s="115"/>
-      <c r="DZ6" s="115" t="s">
-        <v>688</v>
-      </c>
+      <c r="DZ6" s="115"/>
       <c r="EA6" s="115"/>
       <c r="EB6" s="115"/>
       <c r="EC6" s="115"/>
-      <c r="ED6" s="115"/>
+      <c r="ED6" s="115" t="s">
+        <v>688</v>
+      </c>
       <c r="EE6" s="115"/>
       <c r="EF6" s="115"/>
       <c r="EG6" s="115"/>
@@ -6907,22 +7074,22 @@
       <c r="EI6" s="115"/>
       <c r="EJ6" s="115"/>
       <c r="EK6" s="115"/>
-      <c r="EL6" s="185"/>
-      <c r="EM6" s="185"/>
-      <c r="EN6" s="185"/>
-      <c r="EO6" s="185"/>
-      <c r="EP6" s="185"/>
-      <c r="EQ6" s="185"/>
-      <c r="ER6" s="185"/>
-      <c r="ES6" s="185"/>
+      <c r="EL6" s="115"/>
+      <c r="EM6" s="115"/>
+      <c r="EN6" s="115"/>
+      <c r="EO6" s="115"/>
+      <c r="EP6" s="115"/>
+      <c r="EQ6" s="115"/>
+      <c r="ER6" s="115"/>
+      <c r="ES6" s="115"/>
       <c r="ET6" s="185"/>
-      <c r="EU6" s="186"/>
-      <c r="EV6" s="186"/>
-      <c r="EW6" s="186"/>
+      <c r="EU6" s="185"/>
+      <c r="EV6" s="185"/>
+      <c r="EW6" s="185"/>
       <c r="EX6" s="185"/>
-      <c r="EY6" s="186"/>
-      <c r="EZ6" s="186"/>
-      <c r="FA6" s="186"/>
+      <c r="EY6" s="185"/>
+      <c r="EZ6" s="185"/>
+      <c r="FA6" s="185"/>
       <c r="FB6" s="185"/>
       <c r="FC6" s="186"/>
       <c r="FD6" s="186"/>
@@ -6936,8 +7103,16 @@
       <c r="FL6" s="186"/>
       <c r="FM6" s="186"/>
       <c r="FN6" s="185"/>
-    </row>
-    <row r="7" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO6" s="186"/>
+      <c r="FP6" s="186"/>
+      <c r="FQ6" s="186"/>
+      <c r="FR6" s="185"/>
+      <c r="FS6" s="186"/>
+      <c r="FT6" s="186"/>
+      <c r="FU6" s="186"/>
+      <c r="FV6" s="185"/>
+    </row>
+    <row r="7" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>540</v>
       </c>
@@ -7087,22 +7262,22 @@
       <c r="EI7" s="115"/>
       <c r="EJ7" s="115"/>
       <c r="EK7" s="115"/>
-      <c r="EL7" s="185"/>
-      <c r="EM7" s="185"/>
-      <c r="EN7" s="185"/>
-      <c r="EO7" s="185"/>
-      <c r="EP7" s="185"/>
-      <c r="EQ7" s="185"/>
-      <c r="ER7" s="185"/>
-      <c r="ES7" s="185"/>
+      <c r="EL7" s="115"/>
+      <c r="EM7" s="115"/>
+      <c r="EN7" s="115"/>
+      <c r="EO7" s="115"/>
+      <c r="EP7" s="115"/>
+      <c r="EQ7" s="115"/>
+      <c r="ER7" s="115"/>
+      <c r="ES7" s="115"/>
       <c r="ET7" s="185"/>
-      <c r="EU7" s="186"/>
-      <c r="EV7" s="186"/>
-      <c r="EW7" s="186"/>
+      <c r="EU7" s="185"/>
+      <c r="EV7" s="185"/>
+      <c r="EW7" s="185"/>
       <c r="EX7" s="185"/>
-      <c r="EY7" s="186"/>
-      <c r="EZ7" s="186"/>
-      <c r="FA7" s="186"/>
+      <c r="EY7" s="185"/>
+      <c r="EZ7" s="185"/>
+      <c r="FA7" s="185"/>
       <c r="FB7" s="185"/>
       <c r="FC7" s="186"/>
       <c r="FD7" s="186"/>
@@ -7116,8 +7291,16 @@
       <c r="FL7" s="186"/>
       <c r="FM7" s="186"/>
       <c r="FN7" s="185"/>
-    </row>
-    <row r="8" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO7" s="186"/>
+      <c r="FP7" s="186"/>
+      <c r="FQ7" s="186"/>
+      <c r="FR7" s="185"/>
+      <c r="FS7" s="186"/>
+      <c r="FT7" s="186"/>
+      <c r="FU7" s="186"/>
+      <c r="FV7" s="185"/>
+    </row>
+    <row r="8" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>541</v>
       </c>
@@ -7267,22 +7450,22 @@
       <c r="EI8" s="115"/>
       <c r="EJ8" s="115"/>
       <c r="EK8" s="115"/>
-      <c r="EL8" s="185"/>
-      <c r="EM8" s="185"/>
-      <c r="EN8" s="185"/>
-      <c r="EO8" s="185"/>
-      <c r="EP8" s="185"/>
-      <c r="EQ8" s="185"/>
-      <c r="ER8" s="185"/>
-      <c r="ES8" s="185"/>
+      <c r="EL8" s="115"/>
+      <c r="EM8" s="115"/>
+      <c r="EN8" s="115"/>
+      <c r="EO8" s="115"/>
+      <c r="EP8" s="115"/>
+      <c r="EQ8" s="115"/>
+      <c r="ER8" s="115"/>
+      <c r="ES8" s="115"/>
       <c r="ET8" s="185"/>
-      <c r="EU8" s="186"/>
-      <c r="EV8" s="186"/>
-      <c r="EW8" s="186"/>
+      <c r="EU8" s="185"/>
+      <c r="EV8" s="185"/>
+      <c r="EW8" s="185"/>
       <c r="EX8" s="185"/>
-      <c r="EY8" s="186"/>
-      <c r="EZ8" s="186"/>
-      <c r="FA8" s="186"/>
+      <c r="EY8" s="185"/>
+      <c r="EZ8" s="185"/>
+      <c r="FA8" s="185"/>
       <c r="FB8" s="185"/>
       <c r="FC8" s="186"/>
       <c r="FD8" s="186"/>
@@ -7296,8 +7479,16 @@
       <c r="FL8" s="186"/>
       <c r="FM8" s="186"/>
       <c r="FN8" s="185"/>
-    </row>
-    <row r="9" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO8" s="186"/>
+      <c r="FP8" s="186"/>
+      <c r="FQ8" s="186"/>
+      <c r="FR8" s="185"/>
+      <c r="FS8" s="186"/>
+      <c r="FT8" s="186"/>
+      <c r="FU8" s="186"/>
+      <c r="FV8" s="185"/>
+    </row>
+    <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>715</v>
       </c>
@@ -7449,22 +7640,22 @@
       <c r="EI9" s="115"/>
       <c r="EJ9" s="115"/>
       <c r="EK9" s="115"/>
-      <c r="EL9" s="185"/>
-      <c r="EM9" s="185"/>
-      <c r="EN9" s="185"/>
-      <c r="EO9" s="185"/>
-      <c r="EP9" s="185"/>
-      <c r="EQ9" s="185"/>
-      <c r="ER9" s="185"/>
-      <c r="ES9" s="185"/>
+      <c r="EL9" s="115"/>
+      <c r="EM9" s="115"/>
+      <c r="EN9" s="115"/>
+      <c r="EO9" s="115"/>
+      <c r="EP9" s="115"/>
+      <c r="EQ9" s="115"/>
+      <c r="ER9" s="115"/>
+      <c r="ES9" s="115"/>
       <c r="ET9" s="185"/>
-      <c r="EU9" s="186"/>
-      <c r="EV9" s="186"/>
-      <c r="EW9" s="186"/>
+      <c r="EU9" s="185"/>
+      <c r="EV9" s="185"/>
+      <c r="EW9" s="185"/>
       <c r="EX9" s="185"/>
-      <c r="EY9" s="186"/>
-      <c r="EZ9" s="186"/>
-      <c r="FA9" s="186"/>
+      <c r="EY9" s="185"/>
+      <c r="EZ9" s="185"/>
+      <c r="FA9" s="185"/>
       <c r="FB9" s="185"/>
       <c r="FC9" s="186"/>
       <c r="FD9" s="186"/>
@@ -7478,8 +7669,16 @@
       <c r="FL9" s="186"/>
       <c r="FM9" s="186"/>
       <c r="FN9" s="185"/>
-    </row>
-    <row r="10" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO9" s="186"/>
+      <c r="FP9" s="186"/>
+      <c r="FQ9" s="186"/>
+      <c r="FR9" s="185"/>
+      <c r="FS9" s="186"/>
+      <c r="FT9" s="186"/>
+      <c r="FU9" s="186"/>
+      <c r="FV9" s="185"/>
+    </row>
+    <row r="10" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>43</v>
       </c>
@@ -7652,90 +7851,106 @@
       <c r="DH10" s="115"/>
       <c r="DI10" s="115"/>
       <c r="DJ10" s="115" t="s">
-        <v>126</v>
+        <v>752</v>
       </c>
       <c r="DK10" s="115"/>
-      <c r="DL10" s="115"/>
+      <c r="DL10" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM10" s="115"/>
       <c r="DN10" s="115" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="DO10" s="115"/>
       <c r="DP10" s="115"/>
       <c r="DQ10" s="115"/>
       <c r="DR10" s="115" t="s">
-        <v>693</v>
+        <v>120</v>
       </c>
       <c r="DS10" s="115"/>
       <c r="DT10" s="115"/>
       <c r="DU10" s="115"/>
       <c r="DV10" s="115" t="s">
-        <v>122</v>
+        <v>693</v>
       </c>
       <c r="DW10" s="115"/>
       <c r="DX10" s="115"/>
       <c r="DY10" s="115"/>
       <c r="DZ10" s="115" t="s">
-        <v>689</v>
+        <v>122</v>
       </c>
       <c r="EA10" s="115"/>
       <c r="EB10" s="115"/>
       <c r="EC10" s="115"/>
       <c r="ED10" s="115" t="s">
-        <v>116</v>
+        <v>689</v>
       </c>
       <c r="EE10" s="115"/>
       <c r="EF10" s="115"/>
       <c r="EG10" s="115"/>
       <c r="EH10" s="115" t="s">
-        <v>735</v>
+        <v>116</v>
       </c>
       <c r="EI10" s="115"/>
       <c r="EJ10" s="115"/>
       <c r="EK10" s="115"/>
-      <c r="EL10" s="185" t="s">
+      <c r="EL10" s="115" t="s">
+        <v>753</v>
+      </c>
+      <c r="EM10" s="115"/>
+      <c r="EN10" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO10" s="115"/>
+      <c r="EP10" s="115" t="s">
+        <v>735</v>
+      </c>
+      <c r="EQ10" s="115"/>
+      <c r="ER10" s="115"/>
+      <c r="ES10" s="115"/>
+      <c r="ET10" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="EM10" s="185"/>
-      <c r="EN10" s="185"/>
-      <c r="EO10" s="185"/>
-      <c r="EP10" s="185"/>
-      <c r="EQ10" s="185"/>
-      <c r="ER10" s="185"/>
-      <c r="ES10" s="185"/>
-      <c r="ET10" s="185" t="s">
+      <c r="EU10" s="185"/>
+      <c r="EV10" s="185"/>
+      <c r="EW10" s="185"/>
+      <c r="EX10" s="185"/>
+      <c r="EY10" s="185"/>
+      <c r="EZ10" s="185"/>
+      <c r="FA10" s="185"/>
+      <c r="FB10" s="185" t="s">
         <v>24</v>
-      </c>
-      <c r="EU10" s="186"/>
-      <c r="EV10" s="186"/>
-      <c r="EW10" s="186"/>
-      <c r="EX10" s="185" t="s">
-        <v>287</v>
-      </c>
-      <c r="EY10" s="186"/>
-      <c r="EZ10" s="186"/>
-      <c r="FA10" s="186"/>
-      <c r="FB10" s="185" t="s">
-        <v>651</v>
       </c>
       <c r="FC10" s="186"/>
       <c r="FD10" s="186"/>
       <c r="FE10" s="186"/>
       <c r="FF10" s="185" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FG10" s="186"/>
       <c r="FH10" s="186"/>
       <c r="FI10" s="186"/>
       <c r="FJ10" s="185" t="s">
-        <v>288</v>
+        <v>651</v>
       </c>
       <c r="FK10" s="186"/>
       <c r="FL10" s="186"/>
       <c r="FM10" s="186"/>
-      <c r="FN10" s="185"/>
-    </row>
-    <row r="11" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN10" s="185" t="s">
+        <v>285</v>
+      </c>
+      <c r="FO10" s="186"/>
+      <c r="FP10" s="186"/>
+      <c r="FQ10" s="186"/>
+      <c r="FR10" s="185" t="s">
+        <v>288</v>
+      </c>
+      <c r="FS10" s="186"/>
+      <c r="FT10" s="186"/>
+      <c r="FU10" s="186"/>
+      <c r="FV10" s="185"/>
+    </row>
+    <row r="11" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>74</v>
       </c>
@@ -7891,22 +8106,22 @@
       <c r="EI11" s="115"/>
       <c r="EJ11" s="115"/>
       <c r="EK11" s="115"/>
-      <c r="EL11" s="185"/>
-      <c r="EM11" s="185"/>
-      <c r="EN11" s="185"/>
-      <c r="EO11" s="185"/>
-      <c r="EP11" s="185"/>
-      <c r="EQ11" s="185"/>
-      <c r="ER11" s="185"/>
-      <c r="ES11" s="185"/>
+      <c r="EL11" s="115"/>
+      <c r="EM11" s="115"/>
+      <c r="EN11" s="115"/>
+      <c r="EO11" s="115"/>
+      <c r="EP11" s="115"/>
+      <c r="EQ11" s="115"/>
+      <c r="ER11" s="115"/>
+      <c r="ES11" s="115"/>
       <c r="ET11" s="185"/>
-      <c r="EU11" s="186"/>
-      <c r="EV11" s="186"/>
-      <c r="EW11" s="186"/>
+      <c r="EU11" s="185"/>
+      <c r="EV11" s="185"/>
+      <c r="EW11" s="185"/>
       <c r="EX11" s="185"/>
-      <c r="EY11" s="186"/>
-      <c r="EZ11" s="186"/>
-      <c r="FA11" s="186"/>
+      <c r="EY11" s="185"/>
+      <c r="EZ11" s="185"/>
+      <c r="FA11" s="185"/>
       <c r="FB11" s="185"/>
       <c r="FC11" s="186"/>
       <c r="FD11" s="186"/>
@@ -7920,8 +8135,16 @@
       <c r="FL11" s="186"/>
       <c r="FM11" s="186"/>
       <c r="FN11" s="185"/>
-    </row>
-    <row r="12" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO11" s="186"/>
+      <c r="FP11" s="186"/>
+      <c r="FQ11" s="186"/>
+      <c r="FR11" s="185"/>
+      <c r="FS11" s="186"/>
+      <c r="FT11" s="186"/>
+      <c r="FU11" s="186"/>
+      <c r="FV11" s="185"/>
+    </row>
+    <row r="12" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>73</v>
       </c>
@@ -8083,22 +8306,22 @@
       <c r="EI12" s="115"/>
       <c r="EJ12" s="115"/>
       <c r="EK12" s="115"/>
-      <c r="EL12" s="185"/>
-      <c r="EM12" s="185"/>
-      <c r="EN12" s="185"/>
-      <c r="EO12" s="185"/>
-      <c r="EP12" s="185"/>
-      <c r="EQ12" s="185"/>
-      <c r="ER12" s="185"/>
-      <c r="ES12" s="185"/>
+      <c r="EL12" s="115"/>
+      <c r="EM12" s="115"/>
+      <c r="EN12" s="115"/>
+      <c r="EO12" s="115"/>
+      <c r="EP12" s="115"/>
+      <c r="EQ12" s="115"/>
+      <c r="ER12" s="115"/>
+      <c r="ES12" s="115"/>
       <c r="ET12" s="185"/>
-      <c r="EU12" s="186"/>
-      <c r="EV12" s="186"/>
-      <c r="EW12" s="186"/>
+      <c r="EU12" s="185"/>
+      <c r="EV12" s="185"/>
+      <c r="EW12" s="185"/>
       <c r="EX12" s="185"/>
-      <c r="EY12" s="186"/>
-      <c r="EZ12" s="186"/>
-      <c r="FA12" s="186"/>
+      <c r="EY12" s="185"/>
+      <c r="EZ12" s="185"/>
+      <c r="FA12" s="185"/>
       <c r="FB12" s="185"/>
       <c r="FC12" s="186"/>
       <c r="FD12" s="186"/>
@@ -8112,8 +8335,16 @@
       <c r="FL12" s="186"/>
       <c r="FM12" s="186"/>
       <c r="FN12" s="185"/>
-    </row>
-    <row r="13" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FO12" s="186"/>
+      <c r="FP12" s="186"/>
+      <c r="FQ12" s="186"/>
+      <c r="FR12" s="185"/>
+      <c r="FS12" s="186"/>
+      <c r="FT12" s="186"/>
+      <c r="FU12" s="186"/>
+      <c r="FV12" s="185"/>
+    </row>
+    <row r="13" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>331</v>
       </c>
@@ -8393,16 +8624,10 @@
       <c r="DG13" s="114"/>
       <c r="DH13" s="114"/>
       <c r="DI13" s="114"/>
-      <c r="DJ13" s="75"/>
-      <c r="DK13" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM13" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ13" s="114"/>
+      <c r="DK13" s="114"/>
+      <c r="DL13" s="114"/>
+      <c r="DM13" s="114"/>
       <c r="DN13" s="75"/>
       <c r="DO13" s="114" t="s">
         <v>353</v>
@@ -8411,9 +8636,9 @@
         <v>354</v>
       </c>
       <c r="DQ13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR13" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR13" s="75"/>
       <c r="DS13" s="114" t="s">
         <v>353</v>
       </c>
@@ -8421,7 +8646,7 @@
         <v>354</v>
       </c>
       <c r="DU13" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV13" s="116"/>
       <c r="DW13" s="114" t="s">
@@ -8433,62 +8658,56 @@
       <c r="DY13" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ13" s="114"/>
-      <c r="EA13" s="114"/>
-      <c r="EB13" s="114"/>
-      <c r="EC13" s="114"/>
-      <c r="ED13" s="116"/>
-      <c r="EE13" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF13" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG13" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH13" s="114"/>
-      <c r="EI13" s="114"/>
-      <c r="EJ13" s="114"/>
-      <c r="EK13" s="114"/>
-      <c r="EL13" s="182"/>
-      <c r="EM13" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN13" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO13" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP13" s="182"/>
-      <c r="EQ13" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER13" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES13" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ13" s="116"/>
+      <c r="EA13" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB13" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC13" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED13" s="114"/>
+      <c r="EE13" s="114"/>
+      <c r="EF13" s="114"/>
+      <c r="EG13" s="114"/>
+      <c r="EH13" s="116"/>
+      <c r="EI13" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ13" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK13" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL13" s="114"/>
+      <c r="EM13" s="114"/>
+      <c r="EN13" s="114"/>
+      <c r="EO13" s="114"/>
+      <c r="EP13" s="114"/>
+      <c r="EQ13" s="114"/>
+      <c r="ER13" s="114"/>
+      <c r="ES13" s="114"/>
       <c r="ET13" s="182"/>
-      <c r="EU13" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV13" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW13" s="182" t="s">
+      <c r="EU13" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV13" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW13" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX13" s="182"/>
-      <c r="EY13" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ13" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA13" s="182" t="s">
+      <c r="EY13" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ13" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA13" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB13" s="182"/>
@@ -8521,9 +8740,29 @@
       <c r="FM13" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN13" s="177"/>
-    </row>
-    <row r="14" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN13" s="182"/>
+      <c r="FO13" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP13" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ13" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR13" s="182"/>
+      <c r="FS13" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT13" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU13" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV13" s="177"/>
+    </row>
+    <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>655</v>
       </c>
@@ -8657,28 +8896,28 @@
       <c r="DW14" s="119"/>
       <c r="DX14" s="119"/>
       <c r="DY14" s="119"/>
-      <c r="DZ14" s="119">
-        <v>0</v>
-      </c>
+      <c r="DZ14" s="119"/>
       <c r="EA14" s="119"/>
       <c r="EB14" s="119"/>
       <c r="EC14" s="119"/>
-      <c r="ED14" s="119"/>
-      <c r="EE14" s="161"/>
-      <c r="EF14" s="161"/>
-      <c r="EG14" s="161"/>
-      <c r="EH14" s="161"/>
+      <c r="ED14" s="119">
+        <v>0</v>
+      </c>
+      <c r="EE14" s="119"/>
+      <c r="EF14" s="119"/>
+      <c r="EG14" s="119"/>
+      <c r="EH14" s="119"/>
       <c r="EI14" s="161"/>
       <c r="EJ14" s="161"/>
       <c r="EK14" s="161"/>
-      <c r="EL14" s="185"/>
-      <c r="EM14" s="185"/>
-      <c r="EN14" s="185"/>
-      <c r="EO14" s="185"/>
-      <c r="EP14" s="185"/>
-      <c r="EQ14" s="185"/>
-      <c r="ER14" s="185"/>
-      <c r="ES14" s="185"/>
+      <c r="EL14" s="161"/>
+      <c r="EM14" s="161"/>
+      <c r="EN14" s="161"/>
+      <c r="EO14" s="161"/>
+      <c r="EP14" s="161"/>
+      <c r="EQ14" s="161"/>
+      <c r="ER14" s="161"/>
+      <c r="ES14" s="161"/>
       <c r="ET14" s="185"/>
       <c r="EU14" s="185"/>
       <c r="EV14" s="185"/>
@@ -8699,11 +8938,19 @@
       <c r="FK14" s="185"/>
       <c r="FL14" s="185"/>
       <c r="FM14" s="185"/>
-      <c r="FN14" s="185">
+      <c r="FN14" s="185"/>
+      <c r="FO14" s="185"/>
+      <c r="FP14" s="185"/>
+      <c r="FQ14" s="185"/>
+      <c r="FR14" s="185"/>
+      <c r="FS14" s="185"/>
+      <c r="FT14" s="185"/>
+      <c r="FU14" s="185"/>
+      <c r="FV14" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>642</v>
       </c>
@@ -8837,28 +9084,28 @@
       <c r="DW15" s="119"/>
       <c r="DX15" s="119"/>
       <c r="DY15" s="119"/>
-      <c r="DZ15" s="119">
-        <v>1</v>
-      </c>
+      <c r="DZ15" s="119"/>
       <c r="EA15" s="119"/>
       <c r="EB15" s="119"/>
       <c r="EC15" s="119"/>
-      <c r="ED15" s="119"/>
-      <c r="EE15" s="161"/>
-      <c r="EF15" s="161"/>
-      <c r="EG15" s="161"/>
-      <c r="EH15" s="161"/>
+      <c r="ED15" s="119">
+        <v>1</v>
+      </c>
+      <c r="EE15" s="119"/>
+      <c r="EF15" s="119"/>
+      <c r="EG15" s="119"/>
+      <c r="EH15" s="119"/>
       <c r="EI15" s="161"/>
       <c r="EJ15" s="161"/>
       <c r="EK15" s="161"/>
-      <c r="EL15" s="185"/>
-      <c r="EM15" s="185"/>
-      <c r="EN15" s="185"/>
-      <c r="EO15" s="185"/>
-      <c r="EP15" s="185"/>
-      <c r="EQ15" s="185"/>
-      <c r="ER15" s="185"/>
-      <c r="ES15" s="185"/>
+      <c r="EL15" s="161"/>
+      <c r="EM15" s="161"/>
+      <c r="EN15" s="161"/>
+      <c r="EO15" s="161"/>
+      <c r="EP15" s="161"/>
+      <c r="EQ15" s="161"/>
+      <c r="ER15" s="161"/>
+      <c r="ES15" s="161"/>
       <c r="ET15" s="185"/>
       <c r="EU15" s="185"/>
       <c r="EV15" s="185"/>
@@ -8879,11 +9126,19 @@
       <c r="FK15" s="185"/>
       <c r="FL15" s="185"/>
       <c r="FM15" s="185"/>
-      <c r="FN15" s="185">
+      <c r="FN15" s="185"/>
+      <c r="FO15" s="185"/>
+      <c r="FP15" s="185"/>
+      <c r="FQ15" s="185"/>
+      <c r="FR15" s="185"/>
+      <c r="FS15" s="185"/>
+      <c r="FT15" s="185"/>
+      <c r="FU15" s="185"/>
+      <c r="FV15" s="185">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:170" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>612</v>
       </c>
@@ -9017,28 +9272,28 @@
       <c r="DW16" s="119"/>
       <c r="DX16" s="119"/>
       <c r="DY16" s="119"/>
-      <c r="DZ16" s="191" t="s">
-        <v>706</v>
-      </c>
+      <c r="DZ16" s="119"/>
       <c r="EA16" s="119"/>
       <c r="EB16" s="119"/>
       <c r="EC16" s="119"/>
-      <c r="ED16" s="119"/>
-      <c r="EE16" s="161"/>
-      <c r="EF16" s="161"/>
-      <c r="EG16" s="161"/>
-      <c r="EH16" s="161"/>
+      <c r="ED16" s="191" t="s">
+        <v>706</v>
+      </c>
+      <c r="EE16" s="119"/>
+      <c r="EF16" s="119"/>
+      <c r="EG16" s="119"/>
+      <c r="EH16" s="119"/>
       <c r="EI16" s="161"/>
       <c r="EJ16" s="161"/>
       <c r="EK16" s="161"/>
-      <c r="EL16" s="185"/>
-      <c r="EM16" s="185"/>
-      <c r="EN16" s="185"/>
-      <c r="EO16" s="185"/>
-      <c r="EP16" s="185"/>
-      <c r="EQ16" s="185"/>
-      <c r="ER16" s="185"/>
-      <c r="ES16" s="185"/>
+      <c r="EL16" s="161"/>
+      <c r="EM16" s="161"/>
+      <c r="EN16" s="161"/>
+      <c r="EO16" s="161"/>
+      <c r="EP16" s="161"/>
+      <c r="EQ16" s="161"/>
+      <c r="ER16" s="161"/>
+      <c r="ES16" s="161"/>
       <c r="ET16" s="185"/>
       <c r="EU16" s="185"/>
       <c r="EV16" s="185"/>
@@ -9059,11 +9314,19 @@
       <c r="FK16" s="185"/>
       <c r="FL16" s="185"/>
       <c r="FM16" s="185"/>
-      <c r="FN16" s="187" t="s">
+      <c r="FN16" s="185"/>
+      <c r="FO16" s="185"/>
+      <c r="FP16" s="185"/>
+      <c r="FQ16" s="185"/>
+      <c r="FR16" s="185"/>
+      <c r="FS16" s="185"/>
+      <c r="FT16" s="185"/>
+      <c r="FU16" s="185"/>
+      <c r="FV16" s="187" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
         <v>332</v>
       </c>
@@ -9343,16 +9606,10 @@
       <c r="DG17" s="114"/>
       <c r="DH17" s="114"/>
       <c r="DI17" s="114"/>
-      <c r="DJ17" s="75"/>
-      <c r="DK17" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM17" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ17" s="114"/>
+      <c r="DK17" s="114"/>
+      <c r="DL17" s="114"/>
+      <c r="DM17" s="114"/>
       <c r="DN17" s="75"/>
       <c r="DO17" s="114" t="s">
         <v>353</v>
@@ -9361,9 +9618,9 @@
         <v>354</v>
       </c>
       <c r="DQ17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR17" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR17" s="75"/>
       <c r="DS17" s="114" t="s">
         <v>353</v>
       </c>
@@ -9371,7 +9628,7 @@
         <v>354</v>
       </c>
       <c r="DU17" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV17" s="116"/>
       <c r="DW17" s="114" t="s">
@@ -9383,62 +9640,56 @@
       <c r="DY17" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ17" s="114"/>
-      <c r="EA17" s="114"/>
-      <c r="EB17" s="114"/>
-      <c r="EC17" s="114"/>
-      <c r="ED17" s="116"/>
-      <c r="EE17" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF17" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG17" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH17" s="114"/>
-      <c r="EI17" s="114"/>
-      <c r="EJ17" s="114"/>
-      <c r="EK17" s="114"/>
-      <c r="EL17" s="182"/>
-      <c r="EM17" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN17" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO17" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP17" s="182"/>
-      <c r="EQ17" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER17" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES17" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ17" s="116"/>
+      <c r="EA17" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB17" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC17" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED17" s="114"/>
+      <c r="EE17" s="114"/>
+      <c r="EF17" s="114"/>
+      <c r="EG17" s="114"/>
+      <c r="EH17" s="116"/>
+      <c r="EI17" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ17" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK17" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL17" s="114"/>
+      <c r="EM17" s="114"/>
+      <c r="EN17" s="114"/>
+      <c r="EO17" s="114"/>
+      <c r="EP17" s="114"/>
+      <c r="EQ17" s="114"/>
+      <c r="ER17" s="114"/>
+      <c r="ES17" s="114"/>
       <c r="ET17" s="182"/>
-      <c r="EU17" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV17" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW17" s="182" t="s">
+      <c r="EU17" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV17" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW17" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX17" s="182"/>
-      <c r="EY17" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ17" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA17" s="182" t="s">
+      <c r="EY17" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ17" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA17" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB17" s="182"/>
@@ -9471,9 +9722,29 @@
       <c r="FM17" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN17" s="177"/>
-    </row>
-    <row r="18" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN17" s="182"/>
+      <c r="FO17" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP17" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ17" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR17" s="182"/>
+      <c r="FS17" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT17" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU17" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV17" s="177"/>
+    </row>
+    <row r="18" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>94</v>
       </c>
@@ -9630,19 +9901,19 @@
       <c r="DP18" s="115"/>
       <c r="DQ18" s="115"/>
       <c r="DR18" s="115">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="DS18" s="115"/>
       <c r="DT18" s="115"/>
       <c r="DU18" s="115"/>
       <c r="DV18" s="115">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="DW18" s="115"/>
       <c r="DX18" s="115"/>
       <c r="DY18" s="115"/>
       <c r="DZ18" s="115">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="EA18" s="115"/>
       <c r="EB18" s="115"/>
@@ -9659,24 +9930,28 @@
       <c r="EI18" s="115"/>
       <c r="EJ18" s="115"/>
       <c r="EK18" s="115"/>
-      <c r="EL18" s="185">
+      <c r="EL18" s="115">
         <v>0</v>
       </c>
-      <c r="EM18" s="185"/>
-      <c r="EN18" s="185"/>
-      <c r="EO18" s="185"/>
-      <c r="EP18" s="185"/>
-      <c r="EQ18" s="185"/>
-      <c r="ER18" s="185"/>
-      <c r="ES18" s="185"/>
-      <c r="ET18" s="185"/>
-      <c r="EU18" s="186"/>
-      <c r="EV18" s="186"/>
-      <c r="EW18" s="186"/>
+      <c r="EM18" s="115"/>
+      <c r="EN18" s="115"/>
+      <c r="EO18" s="115"/>
+      <c r="EP18" s="115">
+        <v>0</v>
+      </c>
+      <c r="EQ18" s="115"/>
+      <c r="ER18" s="115"/>
+      <c r="ES18" s="115"/>
+      <c r="ET18" s="185">
+        <v>0</v>
+      </c>
+      <c r="EU18" s="185"/>
+      <c r="EV18" s="185"/>
+      <c r="EW18" s="185"/>
       <c r="EX18" s="185"/>
-      <c r="EY18" s="186"/>
-      <c r="EZ18" s="186"/>
-      <c r="FA18" s="186"/>
+      <c r="EY18" s="185"/>
+      <c r="EZ18" s="185"/>
+      <c r="FA18" s="185"/>
       <c r="FB18" s="185"/>
       <c r="FC18" s="186"/>
       <c r="FD18" s="186"/>
@@ -9690,8 +9965,16 @@
       <c r="FL18" s="186"/>
       <c r="FM18" s="186"/>
       <c r="FN18" s="185"/>
-    </row>
-    <row r="19" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO18" s="186"/>
+      <c r="FP18" s="186"/>
+      <c r="FQ18" s="186"/>
+      <c r="FR18" s="185"/>
+      <c r="FS18" s="186"/>
+      <c r="FT18" s="186"/>
+      <c r="FU18" s="186"/>
+      <c r="FV18" s="185"/>
+    </row>
+    <row r="19" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>90</v>
       </c>
@@ -9842,65 +10125,77 @@
       <c r="DH19" s="115"/>
       <c r="DI19" s="115"/>
       <c r="DJ19" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="DK19" s="115"/>
+      <c r="DL19" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM19" s="115" t="s">
+        <v>759</v>
+      </c>
+      <c r="DN19" s="115">
         <v>1</v>
-      </c>
-      <c r="DK19" s="115"/>
-      <c r="DL19" s="115"/>
-      <c r="DM19" s="115"/>
-      <c r="DN19" s="115">
-        <v>0.25</v>
       </c>
       <c r="DO19" s="115"/>
       <c r="DP19" s="115"/>
       <c r="DQ19" s="115"/>
       <c r="DR19" s="115">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="DS19" s="115"/>
       <c r="DT19" s="115"/>
       <c r="DU19" s="115"/>
       <c r="DV19" s="115">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="DW19" s="115"/>
       <c r="DX19" s="115"/>
       <c r="DY19" s="115"/>
       <c r="DZ19" s="115">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="EA19" s="115"/>
       <c r="EB19" s="115"/>
       <c r="EC19" s="115"/>
       <c r="ED19" s="115">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="EE19" s="115"/>
       <c r="EF19" s="115"/>
       <c r="EG19" s="115"/>
       <c r="EH19" s="115">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="EI19" s="115"/>
       <c r="EJ19" s="115"/>
       <c r="EK19" s="115"/>
-      <c r="EL19" s="188">
+      <c r="EL19" s="115">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="EM19" s="115"/>
+      <c r="EN19" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO19" s="115" t="s">
+        <v>758</v>
+      </c>
+      <c r="EP19" s="115">
+        <v>0.99</v>
+      </c>
+      <c r="EQ19" s="115"/>
+      <c r="ER19" s="115"/>
+      <c r="ES19" s="115"/>
+      <c r="ET19" s="188">
         <v>1</v>
       </c>
-      <c r="EM19" s="185"/>
-      <c r="EN19" s="185"/>
-      <c r="EO19" s="185"/>
-      <c r="EP19" s="185"/>
-      <c r="EQ19" s="185"/>
-      <c r="ER19" s="185"/>
-      <c r="ES19" s="185"/>
-      <c r="ET19" s="185"/>
-      <c r="EU19" s="186"/>
-      <c r="EV19" s="186"/>
-      <c r="EW19" s="186"/>
+      <c r="EU19" s="185"/>
+      <c r="EV19" s="185"/>
+      <c r="EW19" s="185"/>
       <c r="EX19" s="185"/>
-      <c r="EY19" s="186"/>
-      <c r="EZ19" s="186"/>
-      <c r="FA19" s="186"/>
+      <c r="EY19" s="185"/>
+      <c r="EZ19" s="185"/>
+      <c r="FA19" s="185"/>
       <c r="FB19" s="185"/>
       <c r="FC19" s="186"/>
       <c r="FD19" s="186"/>
@@ -9914,8 +10209,16 @@
       <c r="FL19" s="186"/>
       <c r="FM19" s="186"/>
       <c r="FN19" s="185"/>
-    </row>
-    <row r="20" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO19" s="186"/>
+      <c r="FP19" s="186"/>
+      <c r="FQ19" s="186"/>
+      <c r="FR19" s="185"/>
+      <c r="FS19" s="186"/>
+      <c r="FT19" s="186"/>
+      <c r="FU19" s="186"/>
+      <c r="FV19" s="185"/>
+    </row>
+    <row r="20" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>92</v>
       </c>
@@ -10060,65 +10363,69 @@
       <c r="DH20" s="115"/>
       <c r="DI20" s="115"/>
       <c r="DJ20" s="115" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="DK20" s="115"/>
       <c r="DL20" s="115"/>
       <c r="DM20" s="115"/>
       <c r="DN20" s="115" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="DO20" s="115"/>
       <c r="DP20" s="115"/>
       <c r="DQ20" s="115"/>
       <c r="DR20" s="115" t="s">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="DS20" s="115"/>
       <c r="DT20" s="115"/>
       <c r="DU20" s="115"/>
       <c r="DV20" s="115" t="s">
-        <v>352</v>
+        <v>694</v>
       </c>
       <c r="DW20" s="115"/>
       <c r="DX20" s="115"/>
       <c r="DY20" s="115"/>
       <c r="DZ20" s="115" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="EA20" s="115"/>
       <c r="EB20" s="115"/>
       <c r="EC20" s="115"/>
       <c r="ED20" s="115" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="EE20" s="115"/>
       <c r="EF20" s="115"/>
       <c r="EG20" s="115"/>
       <c r="EH20" s="115" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="EI20" s="115"/>
       <c r="EJ20" s="115"/>
       <c r="EK20" s="115"/>
-      <c r="EL20" s="185" t="s">
+      <c r="EL20" s="115" t="s">
+        <v>340</v>
+      </c>
+      <c r="EM20" s="115"/>
+      <c r="EN20" s="115"/>
+      <c r="EO20" s="115"/>
+      <c r="EP20" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="EM20" s="185"/>
-      <c r="EN20" s="185"/>
-      <c r="EO20" s="185"/>
-      <c r="EP20" s="185"/>
-      <c r="EQ20" s="185"/>
-      <c r="ER20" s="185"/>
-      <c r="ES20" s="185"/>
-      <c r="ET20" s="185"/>
-      <c r="EU20" s="186"/>
-      <c r="EV20" s="186"/>
-      <c r="EW20" s="186"/>
+      <c r="EQ20" s="115"/>
+      <c r="ER20" s="115"/>
+      <c r="ES20" s="115"/>
+      <c r="ET20" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="EU20" s="185"/>
+      <c r="EV20" s="185"/>
+      <c r="EW20" s="185"/>
       <c r="EX20" s="185"/>
-      <c r="EY20" s="186"/>
-      <c r="EZ20" s="186"/>
-      <c r="FA20" s="186"/>
+      <c r="EY20" s="185"/>
+      <c r="EZ20" s="185"/>
+      <c r="FA20" s="185"/>
       <c r="FB20" s="185"/>
       <c r="FC20" s="186"/>
       <c r="FD20" s="186"/>
@@ -10132,8 +10439,16 @@
       <c r="FL20" s="186"/>
       <c r="FM20" s="186"/>
       <c r="FN20" s="185"/>
-    </row>
-    <row r="21" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO20" s="186"/>
+      <c r="FP20" s="186"/>
+      <c r="FQ20" s="186"/>
+      <c r="FR20" s="185"/>
+      <c r="FS20" s="186"/>
+      <c r="FT20" s="186"/>
+      <c r="FU20" s="186"/>
+      <c r="FV20" s="185"/>
+    </row>
+    <row r="21" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
         <v>370</v>
       </c>
@@ -10278,65 +10593,77 @@
       <c r="DH21" s="115"/>
       <c r="DI21" s="115"/>
       <c r="DJ21" s="115" t="s">
+        <v>611</v>
+      </c>
+      <c r="DK21" s="115"/>
+      <c r="DL21" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="DM21" s="115" t="s">
+        <v>757</v>
+      </c>
+      <c r="DN21" s="115" t="s">
         <v>127</v>
-      </c>
-      <c r="DK21" s="115"/>
-      <c r="DL21" s="115"/>
-      <c r="DM21" s="115"/>
-      <c r="DN21" s="115" t="s">
-        <v>349</v>
       </c>
       <c r="DO21" s="115"/>
       <c r="DP21" s="115"/>
       <c r="DQ21" s="115"/>
       <c r="DR21" s="115" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="DS21" s="115"/>
       <c r="DT21" s="115"/>
       <c r="DU21" s="115"/>
       <c r="DV21" s="115" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="DW21" s="115"/>
       <c r="DX21" s="115"/>
       <c r="DY21" s="115"/>
       <c r="DZ21" s="115" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="EA21" s="115"/>
       <c r="EB21" s="115"/>
       <c r="EC21" s="115"/>
       <c r="ED21" s="115" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="EE21" s="115"/>
       <c r="EF21" s="115"/>
       <c r="EG21" s="115"/>
       <c r="EH21" s="115" t="s">
-        <v>736</v>
+        <v>340</v>
       </c>
       <c r="EI21" s="115"/>
       <c r="EJ21" s="115"/>
       <c r="EK21" s="115"/>
-      <c r="EL21" s="185" t="s">
+      <c r="EL21" s="115" t="s">
+        <v>760</v>
+      </c>
+      <c r="EM21" s="115"/>
+      <c r="EN21" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="EO21" s="115" t="s">
+        <v>762</v>
+      </c>
+      <c r="EP21" s="115" t="s">
+        <v>736</v>
+      </c>
+      <c r="EQ21" s="115"/>
+      <c r="ER21" s="115"/>
+      <c r="ES21" s="115"/>
+      <c r="ET21" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="EM21" s="185"/>
-      <c r="EN21" s="185"/>
-      <c r="EO21" s="185"/>
-      <c r="EP21" s="185"/>
-      <c r="EQ21" s="185"/>
-      <c r="ER21" s="185"/>
-      <c r="ES21" s="185"/>
-      <c r="ET21" s="185"/>
-      <c r="EU21" s="186"/>
-      <c r="EV21" s="186"/>
-      <c r="EW21" s="186"/>
+      <c r="EU21" s="185"/>
+      <c r="EV21" s="185"/>
+      <c r="EW21" s="185"/>
       <c r="EX21" s="185"/>
-      <c r="EY21" s="186"/>
-      <c r="EZ21" s="186"/>
-      <c r="FA21" s="186"/>
+      <c r="EY21" s="185"/>
+      <c r="EZ21" s="185"/>
+      <c r="FA21" s="185"/>
       <c r="FB21" s="185"/>
       <c r="FC21" s="186"/>
       <c r="FD21" s="186"/>
@@ -10350,8 +10677,16 @@
       <c r="FL21" s="186"/>
       <c r="FM21" s="186"/>
       <c r="FN21" s="185"/>
-    </row>
-    <row r="22" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO21" s="186"/>
+      <c r="FP21" s="186"/>
+      <c r="FQ21" s="186"/>
+      <c r="FR21" s="185"/>
+      <c r="FS21" s="186"/>
+      <c r="FT21" s="186"/>
+      <c r="FU21" s="186"/>
+      <c r="FV21" s="185"/>
+    </row>
+    <row r="22" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -10510,65 +10845,77 @@
       </c>
       <c r="DI22" s="115"/>
       <c r="DJ22" s="115" t="s">
+        <v>755</v>
+      </c>
+      <c r="DK22" s="115"/>
+      <c r="DL22" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="DM22" s="115" t="s">
+        <v>757</v>
+      </c>
+      <c r="DN22" s="115" t="s">
         <v>262</v>
-      </c>
-      <c r="DK22" s="115"/>
-      <c r="DL22" s="115"/>
-      <c r="DM22" s="115"/>
-      <c r="DN22" s="115" t="s">
-        <v>350</v>
       </c>
       <c r="DO22" s="115"/>
       <c r="DP22" s="115"/>
       <c r="DQ22" s="115"/>
       <c r="DR22" s="115" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="DS22" s="115"/>
       <c r="DT22" s="115"/>
       <c r="DU22" s="115"/>
       <c r="DV22" s="115" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="DW22" s="115"/>
       <c r="DX22" s="115"/>
       <c r="DY22" s="115"/>
       <c r="DZ22" s="115" t="s">
-        <v>690</v>
+        <v>346</v>
       </c>
       <c r="EA22" s="115"/>
       <c r="EB22" s="115"/>
       <c r="EC22" s="115"/>
       <c r="ED22" s="115" t="s">
-        <v>373</v>
+        <v>690</v>
       </c>
       <c r="EE22" s="115"/>
       <c r="EF22" s="115"/>
       <c r="EG22" s="115"/>
       <c r="EH22" s="115" t="s">
-        <v>737</v>
+        <v>373</v>
       </c>
       <c r="EI22" s="115"/>
       <c r="EJ22" s="115"/>
       <c r="EK22" s="115"/>
-      <c r="EL22" s="185" t="s">
+      <c r="EL22" s="115" t="s">
+        <v>761</v>
+      </c>
+      <c r="EM22" s="115"/>
+      <c r="EN22" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="EO22" s="115" t="s">
+        <v>762</v>
+      </c>
+      <c r="EP22" s="115" t="s">
+        <v>737</v>
+      </c>
+      <c r="EQ22" s="115"/>
+      <c r="ER22" s="115"/>
+      <c r="ES22" s="115"/>
+      <c r="ET22" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="EM22" s="185"/>
-      <c r="EN22" s="185"/>
-      <c r="EO22" s="185"/>
-      <c r="EP22" s="185"/>
-      <c r="EQ22" s="185"/>
-      <c r="ER22" s="185"/>
-      <c r="ES22" s="185"/>
-      <c r="ET22" s="185"/>
-      <c r="EU22" s="186"/>
-      <c r="EV22" s="186"/>
-      <c r="EW22" s="186"/>
+      <c r="EU22" s="185"/>
+      <c r="EV22" s="185"/>
+      <c r="EW22" s="185"/>
       <c r="EX22" s="185"/>
-      <c r="EY22" s="186"/>
-      <c r="EZ22" s="186"/>
-      <c r="FA22" s="186"/>
+      <c r="EY22" s="185"/>
+      <c r="EZ22" s="185"/>
+      <c r="FA22" s="185"/>
       <c r="FB22" s="185"/>
       <c r="FC22" s="186"/>
       <c r="FD22" s="186"/>
@@ -10582,8 +10929,16 @@
       <c r="FL22" s="186"/>
       <c r="FM22" s="186"/>
       <c r="FN22" s="185"/>
-    </row>
-    <row r="23" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FO22" s="186"/>
+      <c r="FP22" s="186"/>
+      <c r="FQ22" s="186"/>
+      <c r="FR22" s="185"/>
+      <c r="FS22" s="186"/>
+      <c r="FT22" s="186"/>
+      <c r="FU22" s="186"/>
+      <c r="FV22" s="185"/>
+    </row>
+    <row r="23" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87" t="s">
         <v>330</v>
       </c>
@@ -10863,16 +11218,10 @@
       <c r="DG23" s="114"/>
       <c r="DH23" s="114"/>
       <c r="DI23" s="114"/>
-      <c r="DJ23" s="75"/>
-      <c r="DK23" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM23" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ23" s="114"/>
+      <c r="DK23" s="114"/>
+      <c r="DL23" s="114"/>
+      <c r="DM23" s="114"/>
       <c r="DN23" s="75"/>
       <c r="DO23" s="114" t="s">
         <v>353</v>
@@ -10881,9 +11230,9 @@
         <v>354</v>
       </c>
       <c r="DQ23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR23" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR23" s="75"/>
       <c r="DS23" s="114" t="s">
         <v>353</v>
       </c>
@@ -10891,7 +11240,7 @@
         <v>354</v>
       </c>
       <c r="DU23" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV23" s="116"/>
       <c r="DW23" s="114" t="s">
@@ -10903,62 +11252,56 @@
       <c r="DY23" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ23" s="114"/>
-      <c r="EA23" s="114"/>
-      <c r="EB23" s="114"/>
-      <c r="EC23" s="114"/>
-      <c r="ED23" s="116"/>
-      <c r="EE23" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF23" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG23" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH23" s="114"/>
-      <c r="EI23" s="114"/>
-      <c r="EJ23" s="114"/>
-      <c r="EK23" s="114"/>
-      <c r="EL23" s="182"/>
-      <c r="EM23" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN23" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO23" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP23" s="182"/>
-      <c r="EQ23" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER23" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES23" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ23" s="116"/>
+      <c r="EA23" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB23" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC23" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED23" s="114"/>
+      <c r="EE23" s="114"/>
+      <c r="EF23" s="114"/>
+      <c r="EG23" s="114"/>
+      <c r="EH23" s="116"/>
+      <c r="EI23" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ23" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK23" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL23" s="114"/>
+      <c r="EM23" s="114"/>
+      <c r="EN23" s="114"/>
+      <c r="EO23" s="114"/>
+      <c r="EP23" s="114"/>
+      <c r="EQ23" s="114"/>
+      <c r="ER23" s="114"/>
+      <c r="ES23" s="114"/>
       <c r="ET23" s="182"/>
-      <c r="EU23" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV23" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW23" s="182" t="s">
+      <c r="EU23" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV23" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW23" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX23" s="182"/>
-      <c r="EY23" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ23" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA23" s="182" t="s">
+      <c r="EY23" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ23" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA23" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB23" s="182"/>
@@ -10991,9 +11334,29 @@
       <c r="FM23" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN23" s="177"/>
-    </row>
-    <row r="24" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN23" s="182"/>
+      <c r="FO23" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP23" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ23" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR23" s="182"/>
+      <c r="FS23" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT23" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU23" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV23" s="177"/>
+    </row>
+    <row r="24" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
         <v>326</v>
       </c>
@@ -11083,7 +11446,7 @@
       <c r="CB24" s="115"/>
       <c r="CC24" s="115"/>
       <c r="CD24" s="115" t="str">
-        <f t="shared" ref="CD24:ED24" si="0">CD21</f>
+        <f t="shared" ref="CD24:EH24" si="0">CD21</f>
         <v>0 mL/min kg</v>
       </c>
       <c r="CE24" s="115">
@@ -11200,32 +11563,26 @@
       <c r="DG24" s="115"/>
       <c r="DH24" s="115"/>
       <c r="DI24" s="115"/>
-      <c r="DJ24" s="115" t="str">
+      <c r="DJ24" s="115" t="s">
+        <v>763</v>
+      </c>
+      <c r="DK24" s="115"/>
+      <c r="DL24" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="DM24" s="115" t="s">
+        <v>757</v>
+      </c>
+      <c r="DN24" s="115" t="str">
         <f t="shared" si="0"/>
         <v>7.2 mL/min kg</v>
-      </c>
-      <c r="DK24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DL24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DM24" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DN24" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.72 mL/min kg</v>
       </c>
       <c r="DO24" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DP24" s="115">
-        <f t="shared" ref="DP24" si="2">DP21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DQ24" s="115">
@@ -11234,14 +11591,14 @@
       </c>
       <c r="DR24" s="115" t="str">
         <f t="shared" si="0"/>
-        <v>1.3 mL/min kg</v>
+        <v>0.72 mL/min kg</v>
       </c>
       <c r="DS24" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="DT24" s="115">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="DT24" si="2">DT21</f>
         <v>0</v>
       </c>
       <c r="DU24" s="115">
@@ -11250,7 +11607,7 @@
       </c>
       <c r="DV24" s="115" t="str">
         <f t="shared" si="0"/>
-        <v>2.2 mL/min kg</v>
+        <v>1.3 mL/min kg</v>
       </c>
       <c r="DW24" s="115">
         <f t="shared" si="0"/>
@@ -11264,33 +11621,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="DZ24" s="115" t="s">
+      <c r="DZ24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2 mL/min kg</v>
+      </c>
+      <c r="EA24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="EB24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="EC24" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="ED24" s="115" t="s">
         <v>97</v>
-      </c>
-      <c r="EA24" s="115"/>
-      <c r="EB24" s="115"/>
-      <c r="EC24" s="115"/>
-      <c r="ED24" s="115" t="str">
-        <f t="shared" si="0"/>
-        <v>0.0 mL/min kg</v>
       </c>
       <c r="EE24" s="115"/>
       <c r="EF24" s="115"/>
       <c r="EG24" s="115"/>
-      <c r="EH24" s="115" t="s">
-        <v>736</v>
+      <c r="EH24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0 mL/min kg</v>
       </c>
       <c r="EI24" s="115"/>
       <c r="EJ24" s="115"/>
       <c r="EK24" s="115"/>
-      <c r="EL24" s="185"/>
-      <c r="EM24" s="185"/>
-      <c r="EN24" s="185"/>
-      <c r="EO24" s="185"/>
-      <c r="EP24" s="185"/>
-      <c r="EQ24" s="185"/>
-      <c r="ER24" s="185"/>
-      <c r="ES24" s="185"/>
+      <c r="EL24" s="115" t="s">
+        <v>760</v>
+      </c>
+      <c r="EM24" s="115"/>
+      <c r="EN24" s="115" t="s">
+        <v>756</v>
+      </c>
+      <c r="EO24" s="115" t="s">
+        <v>762</v>
+      </c>
+      <c r="EP24" s="115" t="s">
+        <v>736</v>
+      </c>
+      <c r="EQ24" s="115"/>
+      <c r="ER24" s="115"/>
+      <c r="ES24" s="115"/>
       <c r="ET24" s="185"/>
       <c r="EU24" s="185"/>
       <c r="EV24" s="185"/>
@@ -11312,8 +11687,16 @@
       <c r="FL24" s="185"/>
       <c r="FM24" s="185"/>
       <c r="FN24" s="185"/>
-    </row>
-    <row r="25" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FO24" s="185"/>
+      <c r="FP24" s="185"/>
+      <c r="FQ24" s="185"/>
+      <c r="FR24" s="185"/>
+      <c r="FS24" s="185"/>
+      <c r="FT24" s="185"/>
+      <c r="FU24" s="185"/>
+      <c r="FV24" s="185"/>
+    </row>
+    <row r="25" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
         <v>325</v>
       </c>
@@ -11593,16 +11976,10 @@
       <c r="DG25" s="114"/>
       <c r="DH25" s="114"/>
       <c r="DI25" s="114"/>
-      <c r="DJ25" s="75"/>
-      <c r="DK25" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM25" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ25" s="114"/>
+      <c r="DK25" s="114"/>
+      <c r="DL25" s="114"/>
+      <c r="DM25" s="114"/>
       <c r="DN25" s="75"/>
       <c r="DO25" s="114" t="s">
         <v>353</v>
@@ -11611,9 +11988,9 @@
         <v>354</v>
       </c>
       <c r="DQ25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR25" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR25" s="75"/>
       <c r="DS25" s="114" t="s">
         <v>353</v>
       </c>
@@ -11621,7 +11998,7 @@
         <v>354</v>
       </c>
       <c r="DU25" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV25" s="116"/>
       <c r="DW25" s="114" t="s">
@@ -11633,62 +12010,56 @@
       <c r="DY25" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ25" s="114"/>
-      <c r="EA25" s="114"/>
-      <c r="EB25" s="114"/>
-      <c r="EC25" s="114"/>
-      <c r="ED25" s="116"/>
-      <c r="EE25" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF25" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG25" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH25" s="114"/>
-      <c r="EI25" s="114"/>
-      <c r="EJ25" s="114"/>
-      <c r="EK25" s="114"/>
-      <c r="EL25" s="182"/>
-      <c r="EM25" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN25" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO25" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP25" s="182"/>
-      <c r="EQ25" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER25" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES25" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ25" s="116"/>
+      <c r="EA25" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB25" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC25" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED25" s="114"/>
+      <c r="EE25" s="114"/>
+      <c r="EF25" s="114"/>
+      <c r="EG25" s="114"/>
+      <c r="EH25" s="116"/>
+      <c r="EI25" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ25" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK25" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL25" s="114"/>
+      <c r="EM25" s="114"/>
+      <c r="EN25" s="114"/>
+      <c r="EO25" s="114"/>
+      <c r="EP25" s="114"/>
+      <c r="EQ25" s="114"/>
+      <c r="ER25" s="114"/>
+      <c r="ES25" s="114"/>
       <c r="ET25" s="182"/>
-      <c r="EU25" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV25" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW25" s="182" t="s">
+      <c r="EU25" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV25" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW25" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX25" s="182"/>
-      <c r="EY25" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ25" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA25" s="182" t="s">
+      <c r="EY25" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ25" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA25" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB25" s="182"/>
@@ -11721,9 +12092,29 @@
       <c r="FM25" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN25" s="177"/>
-    </row>
-    <row r="26" spans="1:170" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FN25" s="182"/>
+      <c r="FO25" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP25" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ25" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR25" s="182"/>
+      <c r="FS25" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT25" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU25" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV25" s="177"/>
+    </row>
+    <row r="26" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
         <v>327</v>
       </c>
@@ -11895,17 +12286,17 @@
       <c r="EI26" s="115"/>
       <c r="EJ26" s="115"/>
       <c r="EK26" s="115"/>
-      <c r="EL26" s="185" t="s">
+      <c r="EL26" s="115"/>
+      <c r="EM26" s="115"/>
+      <c r="EN26" s="115"/>
+      <c r="EO26" s="115"/>
+      <c r="EP26" s="115"/>
+      <c r="EQ26" s="115"/>
+      <c r="ER26" s="115"/>
+      <c r="ES26" s="115"/>
+      <c r="ET26" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="EM26" s="185"/>
-      <c r="EN26" s="185"/>
-      <c r="EO26" s="185"/>
-      <c r="EP26" s="185"/>
-      <c r="EQ26" s="185"/>
-      <c r="ER26" s="185"/>
-      <c r="ES26" s="185"/>
-      <c r="ET26" s="185"/>
       <c r="EU26" s="185"/>
       <c r="EV26" s="185"/>
       <c r="EW26" s="185"/>
@@ -11926,8 +12317,16 @@
       <c r="FL26" s="185"/>
       <c r="FM26" s="185"/>
       <c r="FN26" s="185"/>
-    </row>
-    <row r="27" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO26" s="185"/>
+      <c r="FP26" s="185"/>
+      <c r="FQ26" s="185"/>
+      <c r="FR26" s="185"/>
+      <c r="FS26" s="185"/>
+      <c r="FT26" s="185"/>
+      <c r="FU26" s="185"/>
+      <c r="FV26" s="185"/>
+    </row>
+    <row r="27" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>371</v>
       </c>
@@ -12099,28 +12498,28 @@
       <c r="EI27" s="115"/>
       <c r="EJ27" s="115"/>
       <c r="EK27" s="115"/>
-      <c r="EL27" s="188">
+      <c r="EL27" s="115"/>
+      <c r="EM27" s="115"/>
+      <c r="EN27" s="115"/>
+      <c r="EO27" s="115"/>
+      <c r="EP27" s="115"/>
+      <c r="EQ27" s="115"/>
+      <c r="ER27" s="115"/>
+      <c r="ES27" s="115"/>
+      <c r="ET27" s="188">
         <v>1</v>
       </c>
-      <c r="EM27" s="188"/>
-      <c r="EN27" s="188"/>
-      <c r="EO27" s="188"/>
-      <c r="EP27" s="188"/>
-      <c r="EQ27" s="188"/>
-      <c r="ER27" s="188"/>
-      <c r="ES27" s="188"/>
-      <c r="ET27" s="185"/>
-      <c r="EU27" s="185"/>
-      <c r="EV27" s="185"/>
-      <c r="EW27" s="185"/>
-      <c r="EX27" s="185"/>
-      <c r="EY27" s="186"/>
-      <c r="EZ27" s="186"/>
-      <c r="FA27" s="186"/>
+      <c r="EU27" s="188"/>
+      <c r="EV27" s="188"/>
+      <c r="EW27" s="188"/>
+      <c r="EX27" s="188"/>
+      <c r="EY27" s="188"/>
+      <c r="EZ27" s="188"/>
+      <c r="FA27" s="188"/>
       <c r="FB27" s="185"/>
-      <c r="FC27" s="186"/>
-      <c r="FD27" s="186"/>
-      <c r="FE27" s="186"/>
+      <c r="FC27" s="185"/>
+      <c r="FD27" s="185"/>
+      <c r="FE27" s="185"/>
       <c r="FF27" s="185"/>
       <c r="FG27" s="186"/>
       <c r="FH27" s="186"/>
@@ -12130,8 +12529,16 @@
       <c r="FL27" s="186"/>
       <c r="FM27" s="186"/>
       <c r="FN27" s="185"/>
-    </row>
-    <row r="28" spans="1:170" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FO27" s="186"/>
+      <c r="FP27" s="186"/>
+      <c r="FQ27" s="186"/>
+      <c r="FR27" s="185"/>
+      <c r="FS27" s="186"/>
+      <c r="FT27" s="186"/>
+      <c r="FU27" s="186"/>
+      <c r="FV27" s="185"/>
+    </row>
+    <row r="28" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
         <v>328</v>
       </c>
@@ -12321,17 +12728,17 @@
       <c r="EI28" s="115"/>
       <c r="EJ28" s="115"/>
       <c r="EK28" s="115"/>
-      <c r="EL28" s="185" t="s">
+      <c r="EL28" s="115"/>
+      <c r="EM28" s="115"/>
+      <c r="EN28" s="115"/>
+      <c r="EO28" s="115"/>
+      <c r="EP28" s="115"/>
+      <c r="EQ28" s="115"/>
+      <c r="ER28" s="115"/>
+      <c r="ES28" s="115"/>
+      <c r="ET28" s="185" t="s">
         <v>361</v>
       </c>
-      <c r="EM28" s="185"/>
-      <c r="EN28" s="185"/>
-      <c r="EO28" s="185"/>
-      <c r="EP28" s="185"/>
-      <c r="EQ28" s="185"/>
-      <c r="ER28" s="185"/>
-      <c r="ES28" s="185"/>
-      <c r="ET28" s="185"/>
       <c r="EU28" s="185"/>
       <c r="EV28" s="185"/>
       <c r="EW28" s="185"/>
@@ -12352,8 +12759,16 @@
       <c r="FL28" s="185"/>
       <c r="FM28" s="185"/>
       <c r="FN28" s="185"/>
-    </row>
-    <row r="29" spans="1:170" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="FO28" s="185"/>
+      <c r="FP28" s="185"/>
+      <c r="FQ28" s="185"/>
+      <c r="FR28" s="185"/>
+      <c r="FS28" s="185"/>
+      <c r="FT28" s="185"/>
+      <c r="FU28" s="185"/>
+      <c r="FV28" s="185"/>
+    </row>
+    <row r="29" spans="1:178" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
         <v>329</v>
       </c>
@@ -12545,17 +12960,17 @@
       <c r="EI29" s="115"/>
       <c r="EJ29" s="115"/>
       <c r="EK29" s="115"/>
-      <c r="EL29" s="185" t="s">
+      <c r="EL29" s="115"/>
+      <c r="EM29" s="115"/>
+      <c r="EN29" s="115"/>
+      <c r="EO29" s="115"/>
+      <c r="EP29" s="115"/>
+      <c r="EQ29" s="115"/>
+      <c r="ER29" s="115"/>
+      <c r="ES29" s="115"/>
+      <c r="ET29" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="EM29" s="185"/>
-      <c r="EN29" s="185"/>
-      <c r="EO29" s="185"/>
-      <c r="EP29" s="185"/>
-      <c r="EQ29" s="185"/>
-      <c r="ER29" s="185"/>
-      <c r="ES29" s="185"/>
-      <c r="ET29" s="185"/>
       <c r="EU29" s="185"/>
       <c r="EV29" s="185"/>
       <c r="EW29" s="185"/>
@@ -12576,8 +12991,16 @@
       <c r="FL29" s="185"/>
       <c r="FM29" s="185"/>
       <c r="FN29" s="185"/>
-    </row>
-    <row r="30" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FO29" s="185"/>
+      <c r="FP29" s="185"/>
+      <c r="FQ29" s="185"/>
+      <c r="FR29" s="185"/>
+      <c r="FS29" s="185"/>
+      <c r="FT29" s="185"/>
+      <c r="FU29" s="185"/>
+      <c r="FV29" s="185"/>
+    </row>
+    <row r="30" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
         <v>333</v>
       </c>
@@ -12857,16 +13280,10 @@
       <c r="DG30" s="114"/>
       <c r="DH30" s="114"/>
       <c r="DI30" s="114"/>
-      <c r="DJ30" s="75"/>
-      <c r="DK30" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM30" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ30" s="114"/>
+      <c r="DK30" s="114"/>
+      <c r="DL30" s="114"/>
+      <c r="DM30" s="114"/>
       <c r="DN30" s="75"/>
       <c r="DO30" s="114" t="s">
         <v>353</v>
@@ -12875,9 +13292,9 @@
         <v>354</v>
       </c>
       <c r="DQ30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR30" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR30" s="75"/>
       <c r="DS30" s="114" t="s">
         <v>353</v>
       </c>
@@ -12885,7 +13302,7 @@
         <v>354</v>
       </c>
       <c r="DU30" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV30" s="116"/>
       <c r="DW30" s="114" t="s">
@@ -12897,62 +13314,56 @@
       <c r="DY30" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ30" s="114"/>
-      <c r="EA30" s="114"/>
-      <c r="EB30" s="114"/>
-      <c r="EC30" s="114"/>
-      <c r="ED30" s="116"/>
-      <c r="EE30" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF30" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG30" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH30" s="114"/>
-      <c r="EI30" s="114"/>
-      <c r="EJ30" s="114"/>
-      <c r="EK30" s="114"/>
-      <c r="EL30" s="182"/>
-      <c r="EM30" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN30" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO30" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP30" s="182"/>
-      <c r="EQ30" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER30" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES30" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ30" s="116"/>
+      <c r="EA30" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB30" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC30" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED30" s="114"/>
+      <c r="EE30" s="114"/>
+      <c r="EF30" s="114"/>
+      <c r="EG30" s="114"/>
+      <c r="EH30" s="116"/>
+      <c r="EI30" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ30" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK30" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL30" s="114"/>
+      <c r="EM30" s="114"/>
+      <c r="EN30" s="114"/>
+      <c r="EO30" s="114"/>
+      <c r="EP30" s="114"/>
+      <c r="EQ30" s="114"/>
+      <c r="ER30" s="114"/>
+      <c r="ES30" s="114"/>
       <c r="ET30" s="182"/>
-      <c r="EU30" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV30" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW30" s="182" t="s">
+      <c r="EU30" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV30" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW30" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX30" s="182"/>
-      <c r="EY30" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ30" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA30" s="182" t="s">
+      <c r="EY30" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ30" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA30" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB30" s="182"/>
@@ -12985,9 +13396,29 @@
       <c r="FM30" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN30" s="177"/>
-    </row>
-    <row r="31" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN30" s="182"/>
+      <c r="FO30" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP30" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ30" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR30" s="182"/>
+      <c r="FS30" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT30" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU30" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV30" s="177"/>
+    </row>
+    <row r="31" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
         <v>88</v>
       </c>
@@ -13119,62 +13550,62 @@
         <v>743</v>
       </c>
       <c r="DI31" s="115"/>
-      <c r="DJ31" s="115">
-        <v>5.78</v>
-      </c>
+      <c r="DJ31" s="115"/>
       <c r="DK31" s="115"/>
       <c r="DL31" s="115"/>
       <c r="DM31" s="115"/>
       <c r="DN31" s="115">
-        <v>12.58</v>
+        <v>5.78</v>
       </c>
       <c r="DO31" s="115"/>
       <c r="DP31" s="115"/>
       <c r="DQ31" s="115"/>
       <c r="DR31" s="115">
-        <v>11.1</v>
+        <v>12.58</v>
       </c>
       <c r="DS31" s="115"/>
       <c r="DT31" s="115"/>
       <c r="DU31" s="115"/>
       <c r="DV31" s="115">
-        <v>14.95</v>
+        <v>11.1</v>
       </c>
       <c r="DW31" s="115"/>
       <c r="DX31" s="115"/>
       <c r="DY31" s="115"/>
-      <c r="DZ31" s="115"/>
+      <c r="DZ31" s="115">
+        <v>14.95</v>
+      </c>
       <c r="EA31" s="115"/>
       <c r="EB31" s="115"/>
       <c r="EC31" s="115"/>
-      <c r="ED31" s="115">
-        <v>1</v>
-      </c>
+      <c r="ED31" s="115"/>
       <c r="EE31" s="115"/>
       <c r="EF31" s="115"/>
       <c r="EG31" s="115"/>
       <c r="EH31" s="115">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="EI31" s="115"/>
       <c r="EJ31" s="115"/>
       <c r="EK31" s="115"/>
-      <c r="EL31" s="185"/>
-      <c r="EM31" s="185"/>
-      <c r="EN31" s="185"/>
-      <c r="EO31" s="185"/>
-      <c r="EP31" s="185"/>
-      <c r="EQ31" s="185"/>
-      <c r="ER31" s="185"/>
-      <c r="ES31" s="185"/>
+      <c r="EL31" s="115"/>
+      <c r="EM31" s="115"/>
+      <c r="EN31" s="115"/>
+      <c r="EO31" s="115"/>
+      <c r="EP31" s="115">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="EQ31" s="115"/>
+      <c r="ER31" s="115"/>
+      <c r="ES31" s="115"/>
       <c r="ET31" s="185"/>
-      <c r="EU31" s="186"/>
-      <c r="EV31" s="186"/>
-      <c r="EW31" s="186"/>
+      <c r="EU31" s="185"/>
+      <c r="EV31" s="185"/>
+      <c r="EW31" s="185"/>
       <c r="EX31" s="185"/>
-      <c r="EY31" s="186"/>
-      <c r="EZ31" s="186"/>
-      <c r="FA31" s="186"/>
+      <c r="EY31" s="185"/>
+      <c r="EZ31" s="185"/>
+      <c r="FA31" s="185"/>
       <c r="FB31" s="185"/>
       <c r="FC31" s="186"/>
       <c r="FD31" s="186"/>
@@ -13188,8 +13619,16 @@
       <c r="FL31" s="186"/>
       <c r="FM31" s="186"/>
       <c r="FN31" s="185"/>
-    </row>
-    <row r="32" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO31" s="186"/>
+      <c r="FP31" s="186"/>
+      <c r="FQ31" s="186"/>
+      <c r="FR31" s="185"/>
+      <c r="FS31" s="186"/>
+      <c r="FT31" s="186"/>
+      <c r="FU31" s="186"/>
+      <c r="FV31" s="185"/>
+    </row>
+    <row r="32" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
         <v>111</v>
       </c>
@@ -13321,9 +13760,7 @@
         <v>744</v>
       </c>
       <c r="DI32" s="115"/>
-      <c r="DJ32" s="115" t="s">
-        <v>112</v>
-      </c>
+      <c r="DJ32" s="115"/>
       <c r="DK32" s="115"/>
       <c r="DL32" s="115"/>
       <c r="DM32" s="115"/>
@@ -13345,13 +13782,13 @@
       <c r="DW32" s="115"/>
       <c r="DX32" s="115"/>
       <c r="DY32" s="115"/>
-      <c r="DZ32" s="115"/>
+      <c r="DZ32" s="115" t="s">
+        <v>112</v>
+      </c>
       <c r="EA32" s="115"/>
       <c r="EB32" s="115"/>
       <c r="EC32" s="115"/>
-      <c r="ED32" s="115" t="s">
-        <v>112</v>
-      </c>
+      <c r="ED32" s="115"/>
       <c r="EE32" s="115"/>
       <c r="EF32" s="115"/>
       <c r="EG32" s="115"/>
@@ -13361,22 +13798,24 @@
       <c r="EI32" s="115"/>
       <c r="EJ32" s="115"/>
       <c r="EK32" s="115"/>
-      <c r="EL32" s="185"/>
-      <c r="EM32" s="185"/>
-      <c r="EN32" s="185"/>
-      <c r="EO32" s="185"/>
-      <c r="EP32" s="185"/>
-      <c r="EQ32" s="185"/>
-      <c r="ER32" s="185"/>
-      <c r="ES32" s="185"/>
+      <c r="EL32" s="115"/>
+      <c r="EM32" s="115"/>
+      <c r="EN32" s="115"/>
+      <c r="EO32" s="115"/>
+      <c r="EP32" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="EQ32" s="115"/>
+      <c r="ER32" s="115"/>
+      <c r="ES32" s="115"/>
       <c r="ET32" s="185"/>
-      <c r="EU32" s="186"/>
-      <c r="EV32" s="186"/>
-      <c r="EW32" s="186"/>
+      <c r="EU32" s="185"/>
+      <c r="EV32" s="185"/>
+      <c r="EW32" s="185"/>
       <c r="EX32" s="185"/>
-      <c r="EY32" s="186"/>
-      <c r="EZ32" s="186"/>
-      <c r="FA32" s="186"/>
+      <c r="EY32" s="185"/>
+      <c r="EZ32" s="185"/>
+      <c r="FA32" s="185"/>
       <c r="FB32" s="185"/>
       <c r="FC32" s="186"/>
       <c r="FD32" s="186"/>
@@ -13390,8 +13829,16 @@
       <c r="FL32" s="186"/>
       <c r="FM32" s="186"/>
       <c r="FN32" s="185"/>
-    </row>
-    <row r="33" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO32" s="186"/>
+      <c r="FP32" s="186"/>
+      <c r="FQ32" s="186"/>
+      <c r="FR32" s="185"/>
+      <c r="FS32" s="186"/>
+      <c r="FT32" s="186"/>
+      <c r="FU32" s="186"/>
+      <c r="FV32" s="185"/>
+    </row>
+    <row r="33" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>91</v>
       </c>
@@ -13523,37 +13970,35 @@
         <v>744</v>
       </c>
       <c r="DI33" s="115"/>
-      <c r="DJ33" s="115">
-        <v>1.5640000000000001</v>
-      </c>
+      <c r="DJ33" s="115"/>
       <c r="DK33" s="115"/>
       <c r="DL33" s="115"/>
       <c r="DM33" s="115"/>
       <c r="DN33" s="115">
-        <v>0.83</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="DO33" s="115"/>
       <c r="DP33" s="115"/>
       <c r="DQ33" s="115"/>
       <c r="DR33" s="115">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="DS33" s="115"/>
       <c r="DT33" s="115"/>
       <c r="DU33" s="115"/>
       <c r="DV33" s="115">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="DW33" s="115"/>
       <c r="DX33" s="115"/>
       <c r="DY33" s="115"/>
-      <c r="DZ33" s="115"/>
+      <c r="DZ33" s="115">
+        <v>1</v>
+      </c>
       <c r="EA33" s="115"/>
       <c r="EB33" s="115"/>
       <c r="EC33" s="115"/>
-      <c r="ED33" s="115">
-        <v>1</v>
-      </c>
+      <c r="ED33" s="115"/>
       <c r="EE33" s="115"/>
       <c r="EF33" s="115"/>
       <c r="EG33" s="115"/>
@@ -13563,22 +14008,24 @@
       <c r="EI33" s="115"/>
       <c r="EJ33" s="115"/>
       <c r="EK33" s="115"/>
-      <c r="EL33" s="185"/>
-      <c r="EM33" s="185"/>
-      <c r="EN33" s="185"/>
-      <c r="EO33" s="185"/>
-      <c r="EP33" s="185"/>
-      <c r="EQ33" s="185"/>
-      <c r="ER33" s="185"/>
-      <c r="ES33" s="185"/>
+      <c r="EL33" s="115"/>
+      <c r="EM33" s="115"/>
+      <c r="EN33" s="115"/>
+      <c r="EO33" s="115"/>
+      <c r="EP33" s="115">
+        <v>1</v>
+      </c>
+      <c r="EQ33" s="115"/>
+      <c r="ER33" s="115"/>
+      <c r="ES33" s="115"/>
       <c r="ET33" s="185"/>
-      <c r="EU33" s="186"/>
-      <c r="EV33" s="186"/>
-      <c r="EW33" s="186"/>
+      <c r="EU33" s="185"/>
+      <c r="EV33" s="185"/>
+      <c r="EW33" s="185"/>
       <c r="EX33" s="185"/>
-      <c r="EY33" s="186"/>
-      <c r="EZ33" s="186"/>
-      <c r="FA33" s="186"/>
+      <c r="EY33" s="185"/>
+      <c r="EZ33" s="185"/>
+      <c r="FA33" s="185"/>
       <c r="FB33" s="185"/>
       <c r="FC33" s="186"/>
       <c r="FD33" s="186"/>
@@ -13592,8 +14039,16 @@
       <c r="FL33" s="186"/>
       <c r="FM33" s="186"/>
       <c r="FN33" s="185"/>
-    </row>
-    <row r="34" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO33" s="186"/>
+      <c r="FP33" s="186"/>
+      <c r="FQ33" s="186"/>
+      <c r="FR33" s="185"/>
+      <c r="FS33" s="186"/>
+      <c r="FT33" s="186"/>
+      <c r="FU33" s="186"/>
+      <c r="FV33" s="185"/>
+    </row>
+    <row r="34" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>90</v>
       </c>
@@ -13681,7 +14136,7 @@
       <c r="CB34" s="115"/>
       <c r="CC34" s="115"/>
       <c r="CD34" s="115">
-        <f t="shared" ref="CD34:DY34" si="3">CD19</f>
+        <f t="shared" ref="CD34:EC34" si="3">CD19</f>
         <v>1</v>
       </c>
       <c r="CE34" s="115">
@@ -13793,32 +14248,20 @@
         <v>744</v>
       </c>
       <c r="DI34" s="115"/>
-      <c r="DJ34" s="115">
+      <c r="DJ34" s="115"/>
+      <c r="DK34" s="115"/>
+      <c r="DL34" s="115"/>
+      <c r="DM34" s="115"/>
+      <c r="DN34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="DK34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DL34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DM34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="DN34" s="115">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
       </c>
       <c r="DO34" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DP34" s="115">
-        <f t="shared" ref="DP34" si="4">DP19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DQ34" s="115">
@@ -13827,14 +14270,14 @@
       </c>
       <c r="DR34" s="115">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="DS34" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DT34" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="DT34" si="4">DT19</f>
         <v>0</v>
       </c>
       <c r="DU34" s="115">
@@ -13843,7 +14286,7 @@
       </c>
       <c r="DV34" s="115">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="DW34" s="115">
         <f t="shared" si="3"/>
@@ -13857,42 +14300,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="DZ34" s="115"/>
-      <c r="EA34" s="115"/>
-      <c r="EB34" s="115"/>
-      <c r="EC34" s="115"/>
-      <c r="ED34" s="115">
-        <v>0.8</v>
-      </c>
+      <c r="DZ34" s="115">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="EA34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EB34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EC34" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ED34" s="115"/>
       <c r="EE34" s="115"/>
       <c r="EF34" s="115"/>
       <c r="EG34" s="115"/>
       <c r="EH34" s="115">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="EI34" s="115"/>
       <c r="EJ34" s="115"/>
       <c r="EK34" s="115"/>
-      <c r="EL34" s="185"/>
-      <c r="EM34" s="185"/>
-      <c r="EN34" s="185"/>
-      <c r="EO34" s="185"/>
-      <c r="EP34" s="185"/>
-      <c r="EQ34" s="185"/>
-      <c r="ER34" s="185"/>
-      <c r="ES34" s="185"/>
+      <c r="EL34" s="115"/>
+      <c r="EM34" s="115"/>
+      <c r="EN34" s="115"/>
+      <c r="EO34" s="115"/>
+      <c r="EP34" s="115">
+        <v>0.99</v>
+      </c>
+      <c r="EQ34" s="115"/>
+      <c r="ER34" s="115"/>
+      <c r="ES34" s="115"/>
       <c r="ET34" s="185"/>
       <c r="EU34" s="185"/>
       <c r="EV34" s="185"/>
       <c r="EW34" s="185"/>
       <c r="EX34" s="185"/>
-      <c r="EY34" s="186"/>
-      <c r="EZ34" s="186"/>
-      <c r="FA34" s="186"/>
+      <c r="EY34" s="185"/>
+      <c r="EZ34" s="185"/>
+      <c r="FA34" s="185"/>
       <c r="FB34" s="185"/>
-      <c r="FC34" s="186"/>
-      <c r="FD34" s="186"/>
-      <c r="FE34" s="186"/>
+      <c r="FC34" s="185"/>
+      <c r="FD34" s="185"/>
+      <c r="FE34" s="185"/>
       <c r="FF34" s="185"/>
       <c r="FG34" s="186"/>
       <c r="FH34" s="186"/>
@@ -13902,8 +14357,16 @@
       <c r="FL34" s="186"/>
       <c r="FM34" s="186"/>
       <c r="FN34" s="185"/>
-    </row>
-    <row r="35" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO34" s="186"/>
+      <c r="FP34" s="186"/>
+      <c r="FQ34" s="186"/>
+      <c r="FR34" s="185"/>
+      <c r="FS34" s="186"/>
+      <c r="FT34" s="186"/>
+      <c r="FU34" s="186"/>
+      <c r="FV34" s="185"/>
+    </row>
+    <row r="35" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
         <v>87</v>
       </c>
@@ -14033,62 +14496,62 @@
       <c r="DG35" s="115"/>
       <c r="DH35" s="115"/>
       <c r="DI35" s="115"/>
-      <c r="DJ35" s="115" t="s">
-        <v>98</v>
-      </c>
+      <c r="DJ35" s="115"/>
       <c r="DK35" s="115"/>
       <c r="DL35" s="115"/>
       <c r="DM35" s="115"/>
       <c r="DN35" s="115" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="DO35" s="115"/>
       <c r="DP35" s="115"/>
       <c r="DQ35" s="115"/>
       <c r="DR35" s="115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="DS35" s="115"/>
       <c r="DT35" s="115"/>
       <c r="DU35" s="115"/>
       <c r="DV35" s="115" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="DW35" s="115"/>
       <c r="DX35" s="115"/>
       <c r="DY35" s="115"/>
-      <c r="DZ35" s="115"/>
+      <c r="DZ35" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="EA35" s="115"/>
       <c r="EB35" s="115"/>
       <c r="EC35" s="115"/>
-      <c r="ED35" s="115" t="s">
-        <v>114</v>
-      </c>
+      <c r="ED35" s="115"/>
       <c r="EE35" s="115"/>
       <c r="EF35" s="115"/>
       <c r="EG35" s="115"/>
       <c r="EH35" s="115" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="EI35" s="115"/>
       <c r="EJ35" s="115"/>
       <c r="EK35" s="115"/>
-      <c r="EL35" s="185"/>
-      <c r="EM35" s="185"/>
-      <c r="EN35" s="185"/>
-      <c r="EO35" s="185"/>
-      <c r="EP35" s="185"/>
-      <c r="EQ35" s="185"/>
-      <c r="ER35" s="185"/>
-      <c r="ES35" s="185"/>
+      <c r="EL35" s="115"/>
+      <c r="EM35" s="115"/>
+      <c r="EN35" s="115"/>
+      <c r="EO35" s="115"/>
+      <c r="EP35" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="EQ35" s="115"/>
+      <c r="ER35" s="115"/>
+      <c r="ES35" s="115"/>
       <c r="ET35" s="185"/>
-      <c r="EU35" s="186"/>
-      <c r="EV35" s="186"/>
-      <c r="EW35" s="186"/>
+      <c r="EU35" s="185"/>
+      <c r="EV35" s="185"/>
+      <c r="EW35" s="185"/>
       <c r="EX35" s="185"/>
-      <c r="EY35" s="186"/>
-      <c r="EZ35" s="186"/>
-      <c r="FA35" s="186"/>
+      <c r="EY35" s="185"/>
+      <c r="EZ35" s="185"/>
+      <c r="FA35" s="185"/>
       <c r="FB35" s="185"/>
       <c r="FC35" s="186"/>
       <c r="FD35" s="186"/>
@@ -14102,8 +14565,16 @@
       <c r="FL35" s="186"/>
       <c r="FM35" s="186"/>
       <c r="FN35" s="185"/>
-    </row>
-    <row r="36" spans="1:170" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO35" s="186"/>
+      <c r="FP35" s="186"/>
+      <c r="FQ35" s="186"/>
+      <c r="FR35" s="185"/>
+      <c r="FS35" s="186"/>
+      <c r="FT35" s="186"/>
+      <c r="FU35" s="186"/>
+      <c r="FV35" s="185"/>
+    </row>
+    <row r="36" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67" t="s">
         <v>89</v>
       </c>
@@ -14235,62 +14706,62 @@
         <v>743</v>
       </c>
       <c r="DI36" s="115"/>
-      <c r="DJ36" s="115">
-        <v>1.5640000000000001</v>
-      </c>
+      <c r="DJ36" s="115"/>
       <c r="DK36" s="115"/>
       <c r="DL36" s="115"/>
       <c r="DM36" s="115"/>
       <c r="DN36" s="115">
-        <v>1.46</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="DO36" s="115"/>
       <c r="DP36" s="115"/>
       <c r="DQ36" s="115"/>
       <c r="DR36" s="115">
-        <v>3.79</v>
+        <v>1.46</v>
       </c>
       <c r="DS36" s="115"/>
       <c r="DT36" s="115"/>
       <c r="DU36" s="115"/>
       <c r="DV36" s="115">
-        <v>2.77</v>
+        <v>3.79</v>
       </c>
       <c r="DW36" s="115"/>
       <c r="DX36" s="115"/>
       <c r="DY36" s="115"/>
-      <c r="DZ36" s="115"/>
+      <c r="DZ36" s="115">
+        <v>2.77</v>
+      </c>
       <c r="EA36" s="115"/>
       <c r="EB36" s="115"/>
       <c r="EC36" s="115"/>
-      <c r="ED36" s="115">
-        <v>-1.5</v>
-      </c>
+      <c r="ED36" s="115"/>
       <c r="EE36" s="115"/>
       <c r="EF36" s="115"/>
       <c r="EG36" s="115"/>
       <c r="EH36" s="115">
-        <v>-4.8</v>
+        <v>-1.5</v>
       </c>
       <c r="EI36" s="115"/>
       <c r="EJ36" s="115"/>
       <c r="EK36" s="115"/>
-      <c r="EL36" s="185"/>
-      <c r="EM36" s="185"/>
-      <c r="EN36" s="185"/>
-      <c r="EO36" s="185"/>
-      <c r="EP36" s="185"/>
-      <c r="EQ36" s="185"/>
-      <c r="ER36" s="185"/>
-      <c r="ES36" s="185"/>
+      <c r="EL36" s="115"/>
+      <c r="EM36" s="115"/>
+      <c r="EN36" s="115"/>
+      <c r="EO36" s="115"/>
+      <c r="EP36" s="115">
+        <v>-4.8</v>
+      </c>
+      <c r="EQ36" s="115"/>
+      <c r="ER36" s="115"/>
+      <c r="ES36" s="115"/>
       <c r="ET36" s="185"/>
-      <c r="EU36" s="186"/>
-      <c r="EV36" s="186"/>
-      <c r="EW36" s="186"/>
+      <c r="EU36" s="185"/>
+      <c r="EV36" s="185"/>
+      <c r="EW36" s="185"/>
       <c r="EX36" s="185"/>
-      <c r="EY36" s="186"/>
-      <c r="EZ36" s="186"/>
-      <c r="FA36" s="186"/>
+      <c r="EY36" s="185"/>
+      <c r="EZ36" s="185"/>
+      <c r="FA36" s="185"/>
       <c r="FB36" s="185"/>
       <c r="FC36" s="186"/>
       <c r="FD36" s="186"/>
@@ -14304,8 +14775,16 @@
       <c r="FL36" s="186"/>
       <c r="FM36" s="186"/>
       <c r="FN36" s="185"/>
-    </row>
-    <row r="37" spans="1:170" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="FO36" s="186"/>
+      <c r="FP36" s="186"/>
+      <c r="FQ36" s="186"/>
+      <c r="FR36" s="185"/>
+      <c r="FS36" s="186"/>
+      <c r="FT36" s="186"/>
+      <c r="FU36" s="186"/>
+      <c r="FV36" s="185"/>
+    </row>
+    <row r="37" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
         <v>334</v>
       </c>
@@ -14585,16 +15064,10 @@
       <c r="DG37" s="114"/>
       <c r="DH37" s="114"/>
       <c r="DI37" s="114"/>
-      <c r="DJ37" s="75"/>
-      <c r="DK37" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM37" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ37" s="114"/>
+      <c r="DK37" s="114"/>
+      <c r="DL37" s="114"/>
+      <c r="DM37" s="114"/>
       <c r="DN37" s="75"/>
       <c r="DO37" s="114" t="s">
         <v>353</v>
@@ -14603,9 +15076,9 @@
         <v>354</v>
       </c>
       <c r="DQ37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR37" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR37" s="75"/>
       <c r="DS37" s="114" t="s">
         <v>353</v>
       </c>
@@ -14613,7 +15086,7 @@
         <v>354</v>
       </c>
       <c r="DU37" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV37" s="116"/>
       <c r="DW37" s="114" t="s">
@@ -14625,62 +15098,56 @@
       <c r="DY37" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ37" s="114"/>
-      <c r="EA37" s="114"/>
-      <c r="EB37" s="114"/>
-      <c r="EC37" s="114"/>
-      <c r="ED37" s="116"/>
-      <c r="EE37" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF37" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG37" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH37" s="114"/>
-      <c r="EI37" s="114"/>
-      <c r="EJ37" s="114"/>
-      <c r="EK37" s="114"/>
-      <c r="EL37" s="182"/>
-      <c r="EM37" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN37" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO37" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP37" s="182"/>
-      <c r="EQ37" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER37" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES37" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ37" s="116"/>
+      <c r="EA37" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB37" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC37" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED37" s="114"/>
+      <c r="EE37" s="114"/>
+      <c r="EF37" s="114"/>
+      <c r="EG37" s="114"/>
+      <c r="EH37" s="116"/>
+      <c r="EI37" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ37" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK37" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL37" s="114"/>
+      <c r="EM37" s="114"/>
+      <c r="EN37" s="114"/>
+      <c r="EO37" s="114"/>
+      <c r="EP37" s="114"/>
+      <c r="EQ37" s="114"/>
+      <c r="ER37" s="114"/>
+      <c r="ES37" s="114"/>
       <c r="ET37" s="182"/>
-      <c r="EU37" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV37" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW37" s="182" t="s">
+      <c r="EU37" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV37" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW37" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX37" s="182"/>
-      <c r="EY37" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ37" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA37" s="182" t="s">
+      <c r="EY37" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ37" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA37" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB37" s="182"/>
@@ -14713,9 +15180,29 @@
       <c r="FM37" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN37" s="177"/>
-    </row>
-    <row r="38" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FN37" s="182"/>
+      <c r="FO37" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP37" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ37" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR37" s="182"/>
+      <c r="FS37" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT37" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU37" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV37" s="177"/>
+    </row>
+    <row r="38" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>317</v>
       </c>
@@ -14880,13 +15367,13 @@
       <c r="DX38" s="119"/>
       <c r="DY38" s="119"/>
       <c r="DZ38" s="119">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="EA38" s="119"/>
       <c r="EB38" s="119"/>
       <c r="EC38" s="119"/>
       <c r="ED38" s="119">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="EE38" s="119"/>
       <c r="EF38" s="119"/>
@@ -14897,14 +15384,16 @@
       <c r="EI38" s="119"/>
       <c r="EJ38" s="119"/>
       <c r="EK38" s="119"/>
-      <c r="EL38" s="185"/>
-      <c r="EM38" s="185"/>
-      <c r="EN38" s="185"/>
-      <c r="EO38" s="185"/>
-      <c r="EP38" s="185"/>
-      <c r="EQ38" s="185"/>
-      <c r="ER38" s="185"/>
-      <c r="ES38" s="185"/>
+      <c r="EL38" s="119"/>
+      <c r="EM38" s="119"/>
+      <c r="EN38" s="119"/>
+      <c r="EO38" s="119"/>
+      <c r="EP38" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ38" s="119"/>
+      <c r="ER38" s="119"/>
+      <c r="ES38" s="119"/>
       <c r="ET38" s="185"/>
       <c r="EU38" s="185"/>
       <c r="EV38" s="185"/>
@@ -14926,8 +15415,16 @@
       <c r="FL38" s="185"/>
       <c r="FM38" s="185"/>
       <c r="FN38" s="185"/>
-    </row>
-    <row r="39" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO38" s="185"/>
+      <c r="FP38" s="185"/>
+      <c r="FQ38" s="185"/>
+      <c r="FR38" s="185"/>
+      <c r="FS38" s="185"/>
+      <c r="FT38" s="185"/>
+      <c r="FU38" s="185"/>
+      <c r="FV38" s="185"/>
+    </row>
+    <row r="39" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>318</v>
       </c>
@@ -15076,19 +15573,19 @@
       <c r="DP39" s="119"/>
       <c r="DQ39" s="119"/>
       <c r="DR39" s="119">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="DS39" s="119"/>
       <c r="DT39" s="119"/>
       <c r="DU39" s="119"/>
       <c r="DV39" s="119">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="DW39" s="119"/>
       <c r="DX39" s="119"/>
       <c r="DY39" s="119"/>
       <c r="DZ39" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="EA39" s="119"/>
       <c r="EB39" s="119"/>
@@ -15100,19 +15597,21 @@
       <c r="EF39" s="119"/>
       <c r="EG39" s="119"/>
       <c r="EH39" s="119">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="EI39" s="119"/>
       <c r="EJ39" s="119"/>
       <c r="EK39" s="119"/>
-      <c r="EL39" s="185"/>
-      <c r="EM39" s="185"/>
-      <c r="EN39" s="185"/>
-      <c r="EO39" s="185"/>
-      <c r="EP39" s="185"/>
-      <c r="EQ39" s="185"/>
-      <c r="ER39" s="185"/>
-      <c r="ES39" s="185"/>
+      <c r="EL39" s="119"/>
+      <c r="EM39" s="119"/>
+      <c r="EN39" s="119"/>
+      <c r="EO39" s="119"/>
+      <c r="EP39" s="119">
+        <v>1</v>
+      </c>
+      <c r="EQ39" s="119"/>
+      <c r="ER39" s="119"/>
+      <c r="ES39" s="119"/>
       <c r="ET39" s="185"/>
       <c r="EU39" s="185"/>
       <c r="EV39" s="185"/>
@@ -15134,8 +15633,16 @@
       <c r="FL39" s="185"/>
       <c r="FM39" s="185"/>
       <c r="FN39" s="185"/>
-    </row>
-    <row r="40" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO39" s="185"/>
+      <c r="FP39" s="185"/>
+      <c r="FQ39" s="185"/>
+      <c r="FR39" s="185"/>
+      <c r="FS39" s="185"/>
+      <c r="FT39" s="185"/>
+      <c r="FU39" s="185"/>
+      <c r="FV39" s="185"/>
+    </row>
+    <row r="40" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
         <v>319</v>
       </c>
@@ -15274,55 +15781,61 @@
         <v>747</v>
       </c>
       <c r="DJ40" s="119" t="s">
+        <v>691</v>
+      </c>
+      <c r="DK40" s="119"/>
+      <c r="DL40" s="119" t="s">
+        <v>764</v>
+      </c>
+      <c r="DM40" s="119" t="s">
+        <v>765</v>
+      </c>
+      <c r="DN40" s="119" t="s">
         <v>377</v>
-      </c>
-      <c r="DK40" s="119"/>
-      <c r="DL40" s="119"/>
-      <c r="DM40" s="119"/>
-      <c r="DN40" s="119" t="s">
-        <v>378</v>
       </c>
       <c r="DO40" s="119"/>
       <c r="DP40" s="119"/>
       <c r="DQ40" s="119"/>
       <c r="DR40" s="119" t="s">
-        <v>695</v>
+        <v>378</v>
       </c>
       <c r="DS40" s="119"/>
       <c r="DT40" s="119"/>
       <c r="DU40" s="119"/>
       <c r="DV40" s="119" t="s">
-        <v>379</v>
+        <v>695</v>
       </c>
       <c r="DW40" s="119"/>
       <c r="DX40" s="119"/>
       <c r="DY40" s="119"/>
       <c r="DZ40" s="119" t="s">
-        <v>691</v>
+        <v>379</v>
       </c>
       <c r="EA40" s="119"/>
       <c r="EB40" s="119"/>
       <c r="EC40" s="119"/>
       <c r="ED40" s="119" t="s">
-        <v>380</v>
+        <v>691</v>
       </c>
       <c r="EE40" s="119"/>
       <c r="EF40" s="119"/>
       <c r="EG40" s="119"/>
       <c r="EH40" s="119" t="s">
-        <v>749</v>
+        <v>380</v>
       </c>
       <c r="EI40" s="119"/>
       <c r="EJ40" s="119"/>
       <c r="EK40" s="119"/>
-      <c r="EL40" s="185"/>
-      <c r="EM40" s="185"/>
-      <c r="EN40" s="185"/>
-      <c r="EO40" s="185"/>
-      <c r="EP40" s="185"/>
-      <c r="EQ40" s="185"/>
-      <c r="ER40" s="185"/>
-      <c r="ES40" s="185"/>
+      <c r="EL40" s="119"/>
+      <c r="EM40" s="119"/>
+      <c r="EN40" s="119"/>
+      <c r="EO40" s="119"/>
+      <c r="EP40" s="119" t="s">
+        <v>749</v>
+      </c>
+      <c r="EQ40" s="119"/>
+      <c r="ER40" s="119"/>
+      <c r="ES40" s="119"/>
       <c r="ET40" s="185"/>
       <c r="EU40" s="185"/>
       <c r="EV40" s="185"/>
@@ -15344,8 +15857,16 @@
       <c r="FL40" s="185"/>
       <c r="FM40" s="185"/>
       <c r="FN40" s="185"/>
-    </row>
-    <row r="41" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO40" s="185"/>
+      <c r="FP40" s="185"/>
+      <c r="FQ40" s="185"/>
+      <c r="FR40" s="185"/>
+      <c r="FS40" s="185"/>
+      <c r="FT40" s="185"/>
+      <c r="FU40" s="185"/>
+      <c r="FV40" s="185"/>
+    </row>
+    <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69" t="s">
         <v>626</v>
       </c>
@@ -15523,14 +16044,16 @@
       <c r="EI41" s="119"/>
       <c r="EJ41" s="119"/>
       <c r="EK41" s="119"/>
-      <c r="EL41" s="185"/>
-      <c r="EM41" s="185"/>
-      <c r="EN41" s="185"/>
-      <c r="EO41" s="185"/>
-      <c r="EP41" s="185"/>
-      <c r="EQ41" s="185"/>
-      <c r="ER41" s="185"/>
-      <c r="ES41" s="185"/>
+      <c r="EL41" s="119"/>
+      <c r="EM41" s="119"/>
+      <c r="EN41" s="119"/>
+      <c r="EO41" s="119"/>
+      <c r="EP41" s="119">
+        <v>1</v>
+      </c>
+      <c r="EQ41" s="119"/>
+      <c r="ER41" s="119"/>
+      <c r="ES41" s="119"/>
       <c r="ET41" s="185"/>
       <c r="EU41" s="185"/>
       <c r="EV41" s="185"/>
@@ -15552,8 +16075,16 @@
       <c r="FL41" s="185"/>
       <c r="FM41" s="185"/>
       <c r="FN41" s="185"/>
-    </row>
-    <row r="42" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO41" s="185"/>
+      <c r="FP41" s="185"/>
+      <c r="FQ41" s="185"/>
+      <c r="FR41" s="185"/>
+      <c r="FS41" s="185"/>
+      <c r="FT41" s="185"/>
+      <c r="FU41" s="185"/>
+      <c r="FV41" s="185"/>
+    </row>
+    <row r="42" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>3</v>
       </c>
@@ -15714,7 +16245,7 @@
       <c r="DX42" s="119"/>
       <c r="DY42" s="119"/>
       <c r="DZ42" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="EA42" s="119"/>
       <c r="EB42" s="119"/>
@@ -15726,19 +16257,21 @@
       <c r="EF42" s="119"/>
       <c r="EG42" s="119"/>
       <c r="EH42" s="119">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="EI42" s="119"/>
       <c r="EJ42" s="119"/>
       <c r="EK42" s="119"/>
-      <c r="EL42" s="185"/>
-      <c r="EM42" s="185"/>
-      <c r="EN42" s="185"/>
-      <c r="EO42" s="185"/>
-      <c r="EP42" s="185"/>
-      <c r="EQ42" s="185"/>
-      <c r="ER42" s="185"/>
-      <c r="ES42" s="185"/>
+      <c r="EL42" s="119"/>
+      <c r="EM42" s="119"/>
+      <c r="EN42" s="119"/>
+      <c r="EO42" s="119"/>
+      <c r="EP42" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ42" s="119"/>
+      <c r="ER42" s="119"/>
+      <c r="ES42" s="119"/>
       <c r="ET42" s="185"/>
       <c r="EU42" s="185"/>
       <c r="EV42" s="185"/>
@@ -15760,8 +16293,16 @@
       <c r="FL42" s="185"/>
       <c r="FM42" s="185"/>
       <c r="FN42" s="185"/>
-    </row>
-    <row r="43" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO42" s="185"/>
+      <c r="FP42" s="185"/>
+      <c r="FQ42" s="185"/>
+      <c r="FR42" s="185"/>
+      <c r="FS42" s="185"/>
+      <c r="FT42" s="185"/>
+      <c r="FU42" s="185"/>
+      <c r="FV42" s="185"/>
+    </row>
+    <row r="43" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69" t="s">
         <v>320</v>
       </c>
@@ -15916,37 +16457,39 @@
       <c r="DT43" s="119"/>
       <c r="DU43" s="119"/>
       <c r="DV43" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW43" s="119"/>
       <c r="DX43" s="119"/>
       <c r="DY43" s="119"/>
       <c r="DZ43" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA43" s="119"/>
       <c r="EB43" s="119"/>
       <c r="EC43" s="119"/>
       <c r="ED43" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE43" s="119"/>
       <c r="EF43" s="119"/>
       <c r="EG43" s="119"/>
       <c r="EH43" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI43" s="119"/>
       <c r="EJ43" s="119"/>
       <c r="EK43" s="119"/>
-      <c r="EL43" s="185"/>
-      <c r="EM43" s="185"/>
-      <c r="EN43" s="185"/>
-      <c r="EO43" s="185"/>
-      <c r="EP43" s="185"/>
-      <c r="EQ43" s="185"/>
-      <c r="ER43" s="185"/>
-      <c r="ES43" s="185"/>
+      <c r="EL43" s="119"/>
+      <c r="EM43" s="119"/>
+      <c r="EN43" s="119"/>
+      <c r="EO43" s="119"/>
+      <c r="EP43" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ43" s="119"/>
+      <c r="ER43" s="119"/>
+      <c r="ES43" s="119"/>
       <c r="ET43" s="185"/>
       <c r="EU43" s="185"/>
       <c r="EV43" s="185"/>
@@ -15968,8 +16511,16 @@
       <c r="FL43" s="185"/>
       <c r="FM43" s="185"/>
       <c r="FN43" s="185"/>
-    </row>
-    <row r="44" spans="1:170" s="5" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="FO43" s="185"/>
+      <c r="FP43" s="185"/>
+      <c r="FQ43" s="185"/>
+      <c r="FR43" s="185"/>
+      <c r="FS43" s="185"/>
+      <c r="FT43" s="185"/>
+      <c r="FU43" s="185"/>
+      <c r="FV43" s="185"/>
+    </row>
+    <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="69" t="s">
         <v>625</v>
       </c>
@@ -16142,49 +16693,51 @@
       <c r="DP44" s="119"/>
       <c r="DQ44" s="119"/>
       <c r="DR44" s="119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DS44" s="119"/>
-      <c r="DT44" s="119" t="s">
-        <v>696</v>
-      </c>
+      <c r="DT44" s="119"/>
       <c r="DU44" s="119"/>
       <c r="DV44" s="119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DW44" s="119"/>
       <c r="DX44" s="119" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="DY44" s="119"/>
       <c r="DZ44" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EA44" s="119"/>
-      <c r="EB44" s="119"/>
+      <c r="EB44" s="119" t="s">
+        <v>635</v>
+      </c>
       <c r="EC44" s="119"/>
       <c r="ED44" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EE44" s="119"/>
-      <c r="EF44" s="119" t="s">
-        <v>635</v>
-      </c>
+      <c r="EF44" s="119"/>
       <c r="EG44" s="119"/>
       <c r="EH44" s="119">
         <v>0</v>
       </c>
       <c r="EI44" s="119"/>
-      <c r="EJ44" s="119"/>
+      <c r="EJ44" s="119" t="s">
+        <v>635</v>
+      </c>
       <c r="EK44" s="119"/>
-      <c r="EL44" s="185"/>
-      <c r="EM44" s="185"/>
-      <c r="EN44" s="185"/>
-      <c r="EO44" s="185"/>
-      <c r="EP44" s="185"/>
-      <c r="EQ44" s="185"/>
-      <c r="ER44" s="185"/>
-      <c r="ES44" s="185"/>
+      <c r="EL44" s="119"/>
+      <c r="EM44" s="119"/>
+      <c r="EN44" s="119"/>
+      <c r="EO44" s="119"/>
+      <c r="EP44" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ44" s="119"/>
+      <c r="ER44" s="119"/>
+      <c r="ES44" s="119"/>
       <c r="ET44" s="185"/>
       <c r="EU44" s="185"/>
       <c r="EV44" s="185"/>
@@ -16206,8 +16759,16 @@
       <c r="FL44" s="185"/>
       <c r="FM44" s="185"/>
       <c r="FN44" s="185"/>
-    </row>
-    <row r="45" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO44" s="185"/>
+      <c r="FP44" s="185"/>
+      <c r="FQ44" s="185"/>
+      <c r="FR44" s="185"/>
+      <c r="FS44" s="185"/>
+      <c r="FT44" s="185"/>
+      <c r="FU44" s="185"/>
+      <c r="FV44" s="185"/>
+    </row>
+    <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
         <v>624</v>
       </c>
@@ -16390,13 +16951,13 @@
       <c r="DX45" s="119"/>
       <c r="DY45" s="119"/>
       <c r="DZ45" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EA45" s="119"/>
       <c r="EB45" s="119"/>
       <c r="EC45" s="119"/>
       <c r="ED45" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EE45" s="119"/>
       <c r="EF45" s="119"/>
@@ -16407,14 +16968,16 @@
       <c r="EI45" s="119"/>
       <c r="EJ45" s="119"/>
       <c r="EK45" s="119"/>
-      <c r="EL45" s="185"/>
-      <c r="EM45" s="185"/>
-      <c r="EN45" s="185"/>
-      <c r="EO45" s="185"/>
-      <c r="EP45" s="185"/>
-      <c r="EQ45" s="185"/>
-      <c r="ER45" s="185"/>
-      <c r="ES45" s="185"/>
+      <c r="EL45" s="119"/>
+      <c r="EM45" s="119"/>
+      <c r="EN45" s="119"/>
+      <c r="EO45" s="119"/>
+      <c r="EP45" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ45" s="119"/>
+      <c r="ER45" s="119"/>
+      <c r="ES45" s="119"/>
       <c r="ET45" s="185"/>
       <c r="EU45" s="185"/>
       <c r="EV45" s="185"/>
@@ -16436,8 +16999,16 @@
       <c r="FL45" s="185"/>
       <c r="FM45" s="185"/>
       <c r="FN45" s="185"/>
-    </row>
-    <row r="46" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO45" s="185"/>
+      <c r="FP45" s="185"/>
+      <c r="FQ45" s="185"/>
+      <c r="FR45" s="185"/>
+      <c r="FS45" s="185"/>
+      <c r="FT45" s="185"/>
+      <c r="FU45" s="185"/>
+      <c r="FV45" s="185"/>
+    </row>
+    <row r="46" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
         <v>4</v>
       </c>
@@ -16586,25 +17157,25 @@
       <c r="DP46" s="119"/>
       <c r="DQ46" s="119"/>
       <c r="DR46" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DS46" s="119"/>
       <c r="DT46" s="119"/>
       <c r="DU46" s="119"/>
       <c r="DV46" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DW46" s="119"/>
       <c r="DX46" s="119"/>
       <c r="DY46" s="119"/>
       <c r="DZ46" s="119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="EA46" s="119"/>
       <c r="EB46" s="119"/>
       <c r="EC46" s="119"/>
       <c r="ED46" s="119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="EE46" s="119"/>
       <c r="EF46" s="119"/>
@@ -16615,14 +17186,16 @@
       <c r="EI46" s="119"/>
       <c r="EJ46" s="119"/>
       <c r="EK46" s="119"/>
-      <c r="EL46" s="185"/>
-      <c r="EM46" s="185"/>
-      <c r="EN46" s="185"/>
-      <c r="EO46" s="185"/>
-      <c r="EP46" s="185"/>
-      <c r="EQ46" s="185"/>
-      <c r="ER46" s="185"/>
-      <c r="ES46" s="185"/>
+      <c r="EL46" s="119"/>
+      <c r="EM46" s="119"/>
+      <c r="EN46" s="119"/>
+      <c r="EO46" s="119"/>
+      <c r="EP46" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ46" s="119"/>
+      <c r="ER46" s="119"/>
+      <c r="ES46" s="119"/>
       <c r="ET46" s="185"/>
       <c r="EU46" s="185"/>
       <c r="EV46" s="185"/>
@@ -16644,8 +17217,16 @@
       <c r="FL46" s="185"/>
       <c r="FM46" s="185"/>
       <c r="FN46" s="185"/>
-    </row>
-    <row r="47" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO46" s="185"/>
+      <c r="FP46" s="185"/>
+      <c r="FQ46" s="185"/>
+      <c r="FR46" s="185"/>
+      <c r="FS46" s="185"/>
+      <c r="FT46" s="185"/>
+      <c r="FU46" s="185"/>
+      <c r="FV46" s="185"/>
+    </row>
+    <row r="47" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="69" t="s">
         <v>321</v>
       </c>
@@ -16794,13 +17375,13 @@
       <c r="DP47" s="119"/>
       <c r="DQ47" s="119"/>
       <c r="DR47" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS47" s="119"/>
       <c r="DT47" s="119"/>
       <c r="DU47" s="119"/>
       <c r="DV47" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW47" s="119"/>
       <c r="DX47" s="119"/>
@@ -16823,14 +17404,16 @@
       <c r="EI47" s="119"/>
       <c r="EJ47" s="119"/>
       <c r="EK47" s="119"/>
-      <c r="EL47" s="185"/>
-      <c r="EM47" s="185"/>
-      <c r="EN47" s="185"/>
-      <c r="EO47" s="185"/>
-      <c r="EP47" s="185"/>
-      <c r="EQ47" s="185"/>
-      <c r="ER47" s="185"/>
-      <c r="ES47" s="185"/>
+      <c r="EL47" s="119"/>
+      <c r="EM47" s="119"/>
+      <c r="EN47" s="119"/>
+      <c r="EO47" s="119"/>
+      <c r="EP47" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ47" s="119"/>
+      <c r="ER47" s="119"/>
+      <c r="ES47" s="119"/>
       <c r="ET47" s="185"/>
       <c r="EU47" s="185"/>
       <c r="EV47" s="185"/>
@@ -16852,8 +17435,16 @@
       <c r="FL47" s="185"/>
       <c r="FM47" s="185"/>
       <c r="FN47" s="185"/>
-    </row>
-    <row r="48" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO47" s="185"/>
+      <c r="FP47" s="185"/>
+      <c r="FQ47" s="185"/>
+      <c r="FR47" s="185"/>
+      <c r="FS47" s="185"/>
+      <c r="FT47" s="185"/>
+      <c r="FU47" s="185"/>
+      <c r="FV47" s="185"/>
+    </row>
+    <row r="48" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>322</v>
       </c>
@@ -17002,19 +17593,19 @@
       <c r="DP48" s="119"/>
       <c r="DQ48" s="119"/>
       <c r="DR48" s="119">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="DS48" s="119"/>
       <c r="DT48" s="119"/>
       <c r="DU48" s="119"/>
       <c r="DV48" s="119">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="DW48" s="119"/>
       <c r="DX48" s="119"/>
       <c r="DY48" s="119"/>
       <c r="DZ48" s="119">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="EA48" s="119"/>
       <c r="EB48" s="119"/>
@@ -17026,19 +17617,21 @@
       <c r="EF48" s="119"/>
       <c r="EG48" s="119"/>
       <c r="EH48" s="119">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="EI48" s="119"/>
       <c r="EJ48" s="119"/>
       <c r="EK48" s="119"/>
-      <c r="EL48" s="185"/>
-      <c r="EM48" s="185"/>
-      <c r="EN48" s="185"/>
-      <c r="EO48" s="185"/>
-      <c r="EP48" s="185"/>
-      <c r="EQ48" s="185"/>
-      <c r="ER48" s="185"/>
-      <c r="ES48" s="185"/>
+      <c r="EL48" s="119"/>
+      <c r="EM48" s="119"/>
+      <c r="EN48" s="119"/>
+      <c r="EO48" s="119"/>
+      <c r="EP48" s="119">
+        <v>1</v>
+      </c>
+      <c r="EQ48" s="119"/>
+      <c r="ER48" s="119"/>
+      <c r="ES48" s="119"/>
       <c r="ET48" s="185"/>
       <c r="EU48" s="185"/>
       <c r="EV48" s="185"/>
@@ -17060,8 +17653,16 @@
       <c r="FL48" s="185"/>
       <c r="FM48" s="185"/>
       <c r="FN48" s="185"/>
-    </row>
-    <row r="49" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO48" s="185"/>
+      <c r="FP48" s="185"/>
+      <c r="FQ48" s="185"/>
+      <c r="FR48" s="185"/>
+      <c r="FS48" s="185"/>
+      <c r="FT48" s="185"/>
+      <c r="FU48" s="185"/>
+      <c r="FV48" s="185"/>
+    </row>
+    <row r="49" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69" t="s">
         <v>323</v>
       </c>
@@ -17210,13 +17811,13 @@
       <c r="DP49" s="119"/>
       <c r="DQ49" s="119"/>
       <c r="DR49" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DS49" s="119"/>
       <c r="DT49" s="119"/>
       <c r="DU49" s="119"/>
       <c r="DV49" s="119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DW49" s="119"/>
       <c r="DX49" s="119"/>
@@ -17239,14 +17840,16 @@
       <c r="EI49" s="119"/>
       <c r="EJ49" s="119"/>
       <c r="EK49" s="119"/>
-      <c r="EL49" s="185"/>
-      <c r="EM49" s="185"/>
-      <c r="EN49" s="185"/>
-      <c r="EO49" s="185"/>
-      <c r="EP49" s="185"/>
-      <c r="EQ49" s="185"/>
-      <c r="ER49" s="185"/>
-      <c r="ES49" s="185"/>
+      <c r="EL49" s="119"/>
+      <c r="EM49" s="119"/>
+      <c r="EN49" s="119"/>
+      <c r="EO49" s="119"/>
+      <c r="EP49" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ49" s="119"/>
+      <c r="ER49" s="119"/>
+      <c r="ES49" s="119"/>
       <c r="ET49" s="185"/>
       <c r="EU49" s="185"/>
       <c r="EV49" s="185"/>
@@ -17268,8 +17871,16 @@
       <c r="FL49" s="185"/>
       <c r="FM49" s="185"/>
       <c r="FN49" s="185"/>
-    </row>
-    <row r="50" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO49" s="185"/>
+      <c r="FP49" s="185"/>
+      <c r="FQ49" s="185"/>
+      <c r="FR49" s="185"/>
+      <c r="FS49" s="185"/>
+      <c r="FT49" s="185"/>
+      <c r="FU49" s="185"/>
+      <c r="FV49" s="185"/>
+    </row>
+    <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>622</v>
       </c>
@@ -17442,19 +18053,21 @@
       <c r="EF50" s="119"/>
       <c r="EG50" s="119"/>
       <c r="EH50" s="119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EI50" s="119"/>
       <c r="EJ50" s="119"/>
       <c r="EK50" s="119"/>
-      <c r="EL50" s="185"/>
-      <c r="EM50" s="185"/>
-      <c r="EN50" s="185"/>
-      <c r="EO50" s="185"/>
-      <c r="EP50" s="185"/>
-      <c r="EQ50" s="185"/>
-      <c r="ER50" s="185"/>
-      <c r="ES50" s="185"/>
+      <c r="EL50" s="119"/>
+      <c r="EM50" s="119"/>
+      <c r="EN50" s="119"/>
+      <c r="EO50" s="119"/>
+      <c r="EP50" s="119">
+        <v>-1</v>
+      </c>
+      <c r="EQ50" s="119"/>
+      <c r="ER50" s="119"/>
+      <c r="ES50" s="119"/>
       <c r="ET50" s="185"/>
       <c r="EU50" s="185"/>
       <c r="EV50" s="185"/>
@@ -17476,8 +18089,16 @@
       <c r="FL50" s="185"/>
       <c r="FM50" s="185"/>
       <c r="FN50" s="185"/>
-    </row>
-    <row r="51" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO50" s="185"/>
+      <c r="FP50" s="185"/>
+      <c r="FQ50" s="185"/>
+      <c r="FR50" s="185"/>
+      <c r="FS50" s="185"/>
+      <c r="FT50" s="185"/>
+      <c r="FU50" s="185"/>
+      <c r="FV50" s="185"/>
+    </row>
+    <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="69" t="s">
         <v>660</v>
       </c>
@@ -17698,13 +18319,13 @@
       <c r="DX51" s="119"/>
       <c r="DY51" s="119"/>
       <c r="DZ51" s="119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA51" s="119"/>
       <c r="EB51" s="119"/>
       <c r="EC51" s="119"/>
       <c r="ED51" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE51" s="119"/>
       <c r="EF51" s="119"/>
@@ -17715,14 +18336,16 @@
       <c r="EI51" s="119"/>
       <c r="EJ51" s="119"/>
       <c r="EK51" s="119"/>
-      <c r="EL51" s="185"/>
-      <c r="EM51" s="185"/>
-      <c r="EN51" s="185"/>
-      <c r="EO51" s="185"/>
-      <c r="EP51" s="185"/>
-      <c r="EQ51" s="185"/>
-      <c r="ER51" s="185"/>
-      <c r="ES51" s="185"/>
+      <c r="EL51" s="119"/>
+      <c r="EM51" s="119"/>
+      <c r="EN51" s="119"/>
+      <c r="EO51" s="119"/>
+      <c r="EP51" s="119">
+        <v>0</v>
+      </c>
+      <c r="EQ51" s="119"/>
+      <c r="ER51" s="119"/>
+      <c r="ES51" s="119"/>
       <c r="ET51" s="185"/>
       <c r="EU51" s="185"/>
       <c r="EV51" s="185"/>
@@ -17744,8 +18367,16 @@
       <c r="FL51" s="185"/>
       <c r="FM51" s="185"/>
       <c r="FN51" s="185"/>
-    </row>
-    <row r="52" spans="1:170" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FO51" s="185"/>
+      <c r="FP51" s="185"/>
+      <c r="FQ51" s="185"/>
+      <c r="FR51" s="185"/>
+      <c r="FS51" s="185"/>
+      <c r="FT51" s="185"/>
+      <c r="FU51" s="185"/>
+      <c r="FV51" s="185"/>
+    </row>
+    <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="165" t="s">
         <v>661</v>
       </c>
@@ -17894,43 +18525,45 @@
       <c r="DP52" s="119"/>
       <c r="DQ52" s="119"/>
       <c r="DR52" s="119" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
       <c r="DS52" s="119"/>
       <c r="DT52" s="119"/>
       <c r="DU52" s="119"/>
       <c r="DV52" s="119" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="DW52" s="119"/>
       <c r="DX52" s="119"/>
       <c r="DY52" s="119"/>
       <c r="DZ52" s="119" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="EA52" s="119"/>
       <c r="EB52" s="119"/>
       <c r="EC52" s="119"/>
       <c r="ED52" s="119" t="s">
+        <v>663</v>
+      </c>
+      <c r="EE52" s="119"/>
+      <c r="EF52" s="119"/>
+      <c r="EG52" s="119"/>
+      <c r="EH52" s="119" t="s">
         <v>731</v>
-      </c>
-      <c r="EE52" s="193"/>
-      <c r="EF52" s="193"/>
-      <c r="EG52" s="193"/>
-      <c r="EH52" s="193" t="s">
-        <v>663</v>
       </c>
       <c r="EI52" s="193"/>
       <c r="EJ52" s="193"/>
       <c r="EK52" s="193"/>
-      <c r="EL52" s="185"/>
-      <c r="EM52" s="185"/>
-      <c r="EN52" s="185"/>
-      <c r="EO52" s="185"/>
-      <c r="EP52" s="185"/>
-      <c r="EQ52" s="185"/>
-      <c r="ER52" s="185"/>
-      <c r="ES52" s="185"/>
+      <c r="EL52" s="193"/>
+      <c r="EM52" s="193"/>
+      <c r="EN52" s="193"/>
+      <c r="EO52" s="193"/>
+      <c r="EP52" s="193" t="s">
+        <v>663</v>
+      </c>
+      <c r="EQ52" s="193"/>
+      <c r="ER52" s="193"/>
+      <c r="ES52" s="193"/>
       <c r="ET52" s="185"/>
       <c r="EU52" s="185"/>
       <c r="EV52" s="185"/>
@@ -17952,8 +18585,16 @@
       <c r="FL52" s="185"/>
       <c r="FM52" s="185"/>
       <c r="FN52" s="185"/>
-    </row>
-    <row r="53" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO52" s="185"/>
+      <c r="FP52" s="185"/>
+      <c r="FQ52" s="185"/>
+      <c r="FR52" s="185"/>
+      <c r="FS52" s="185"/>
+      <c r="FT52" s="185"/>
+      <c r="FU52" s="185"/>
+      <c r="FV52" s="185"/>
+    </row>
+    <row r="53" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="164" t="s">
         <v>594</v>
       </c>
@@ -18231,16 +18872,10 @@
       <c r="DG53" s="114"/>
       <c r="DH53" s="114"/>
       <c r="DI53" s="114"/>
-      <c r="DJ53" s="75"/>
-      <c r="DK53" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL53" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM53" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ53" s="114"/>
+      <c r="DK53" s="114"/>
+      <c r="DL53" s="114"/>
+      <c r="DM53" s="114"/>
       <c r="DN53" s="75"/>
       <c r="DO53" s="114" t="s">
         <v>353</v>
@@ -18249,17 +18884,17 @@
         <v>354</v>
       </c>
       <c r="DQ53" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR53" s="194"/>
-      <c r="DS53" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="DT53" s="192" t="s">
-        <v>354</v>
-      </c>
-      <c r="DU53" s="192" t="s">
-        <v>355</v>
+        <v>355</v>
+      </c>
+      <c r="DR53" s="75"/>
+      <c r="DS53" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="DT53" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="DU53" s="114" t="s">
+        <v>354</v>
       </c>
       <c r="DV53" s="194"/>
       <c r="DW53" s="192" t="s">
@@ -18271,62 +18906,56 @@
       <c r="DY53" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="DZ53" s="192"/>
-      <c r="EA53" s="192"/>
-      <c r="EB53" s="192"/>
-      <c r="EC53" s="192"/>
-      <c r="ED53" s="194"/>
-      <c r="EE53" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF53" s="192" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG53" s="192" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH53" s="192"/>
-      <c r="EI53" s="192"/>
-      <c r="EJ53" s="192"/>
-      <c r="EK53" s="192"/>
-      <c r="EL53" s="182"/>
-      <c r="EM53" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN53" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO53" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP53" s="182"/>
-      <c r="EQ53" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER53" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES53" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ53" s="194"/>
+      <c r="EA53" s="192" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB53" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC53" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED53" s="192"/>
+      <c r="EE53" s="192"/>
+      <c r="EF53" s="192"/>
+      <c r="EG53" s="192"/>
+      <c r="EH53" s="194"/>
+      <c r="EI53" s="192" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ53" s="192" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK53" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL53" s="192"/>
+      <c r="EM53" s="192"/>
+      <c r="EN53" s="192"/>
+      <c r="EO53" s="192"/>
+      <c r="EP53" s="192"/>
+      <c r="EQ53" s="192"/>
+      <c r="ER53" s="192"/>
+      <c r="ES53" s="192"/>
       <c r="ET53" s="182"/>
-      <c r="EU53" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV53" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW53" s="182" t="s">
+      <c r="EU53" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV53" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW53" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX53" s="182"/>
-      <c r="EY53" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ53" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA53" s="182" t="s">
+      <c r="EY53" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ53" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA53" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB53" s="182"/>
@@ -18359,9 +18988,29 @@
       <c r="FM53" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN53" s="177"/>
-    </row>
-    <row r="54" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN53" s="182"/>
+      <c r="FO53" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP53" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ53" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR53" s="182"/>
+      <c r="FS53" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT53" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU53" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV53" s="177"/>
+    </row>
+    <row r="54" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
         <v>113</v>
       </c>
@@ -18483,15 +19132,19 @@
       <c r="DG54" s="117"/>
       <c r="DH54" s="117"/>
       <c r="DI54" s="117"/>
-      <c r="DJ54" s="76"/>
+      <c r="DJ54" s="117">
+        <v>0.23</v>
+      </c>
       <c r="DK54" s="117"/>
-      <c r="DL54" s="117"/>
+      <c r="DL54" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM54" s="117"/>
       <c r="DN54" s="76"/>
       <c r="DO54" s="117"/>
       <c r="DP54" s="117"/>
       <c r="DQ54" s="117"/>
-      <c r="DR54" s="117"/>
+      <c r="DR54" s="76"/>
       <c r="DS54" s="117"/>
       <c r="DT54" s="117"/>
       <c r="DU54" s="117"/>
@@ -18499,13 +19152,13 @@
       <c r="DW54" s="117"/>
       <c r="DX54" s="117"/>
       <c r="DY54" s="117"/>
-      <c r="DZ54" s="117">
-        <v>0.25</v>
-      </c>
+      <c r="DZ54" s="117"/>
       <c r="EA54" s="117"/>
       <c r="EB54" s="117"/>
       <c r="EC54" s="117"/>
-      <c r="ED54" s="117"/>
+      <c r="ED54" s="117">
+        <v>0.25</v>
+      </c>
       <c r="EE54" s="117"/>
       <c r="EF54" s="117"/>
       <c r="EG54" s="117"/>
@@ -18513,14 +19166,18 @@
       <c r="EI54" s="117"/>
       <c r="EJ54" s="117"/>
       <c r="EK54" s="117"/>
-      <c r="EL54" s="185"/>
-      <c r="EM54" s="185"/>
-      <c r="EN54" s="185"/>
-      <c r="EO54" s="185"/>
-      <c r="EP54" s="185"/>
-      <c r="EQ54" s="185"/>
-      <c r="ER54" s="185"/>
-      <c r="ES54" s="185"/>
+      <c r="EL54" s="117">
+        <v>0.22</v>
+      </c>
+      <c r="EM54" s="117"/>
+      <c r="EN54" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO54" s="117"/>
+      <c r="EP54" s="117"/>
+      <c r="EQ54" s="117"/>
+      <c r="ER54" s="117"/>
+      <c r="ES54" s="117"/>
       <c r="ET54" s="185"/>
       <c r="EU54" s="185"/>
       <c r="EV54" s="185"/>
@@ -18542,8 +19199,16 @@
       <c r="FL54" s="185"/>
       <c r="FM54" s="185"/>
       <c r="FN54" s="185"/>
-    </row>
-    <row r="55" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO54" s="185"/>
+      <c r="FP54" s="185"/>
+      <c r="FQ54" s="185"/>
+      <c r="FR54" s="185"/>
+      <c r="FS54" s="185"/>
+      <c r="FT54" s="185"/>
+      <c r="FU54" s="185"/>
+      <c r="FV54" s="185"/>
+    </row>
+    <row r="55" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>591</v>
       </c>
@@ -18821,16 +19486,10 @@
       <c r="DG55" s="114"/>
       <c r="DH55" s="114"/>
       <c r="DI55" s="114"/>
-      <c r="DJ55" s="75"/>
-      <c r="DK55" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM55" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ55" s="114"/>
+      <c r="DK55" s="114"/>
+      <c r="DL55" s="114"/>
+      <c r="DM55" s="114"/>
       <c r="DN55" s="75"/>
       <c r="DO55" s="114" t="s">
         <v>353</v>
@@ -18839,9 +19498,9 @@
         <v>354</v>
       </c>
       <c r="DQ55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR55" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR55" s="75"/>
       <c r="DS55" s="114" t="s">
         <v>353</v>
       </c>
@@ -18849,7 +19508,7 @@
         <v>354</v>
       </c>
       <c r="DU55" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV55" s="116"/>
       <c r="DW55" s="114" t="s">
@@ -18861,62 +19520,56 @@
       <c r="DY55" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ55" s="114"/>
-      <c r="EA55" s="114"/>
-      <c r="EB55" s="114"/>
-      <c r="EC55" s="114"/>
-      <c r="ED55" s="116"/>
-      <c r="EE55" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF55" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG55" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH55" s="114"/>
-      <c r="EI55" s="114"/>
-      <c r="EJ55" s="114"/>
-      <c r="EK55" s="114"/>
-      <c r="EL55" s="182"/>
-      <c r="EM55" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN55" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO55" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP55" s="182"/>
-      <c r="EQ55" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER55" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES55" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ55" s="116"/>
+      <c r="EA55" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB55" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC55" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED55" s="114"/>
+      <c r="EE55" s="114"/>
+      <c r="EF55" s="114"/>
+      <c r="EG55" s="114"/>
+      <c r="EH55" s="116"/>
+      <c r="EI55" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ55" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK55" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL55" s="114"/>
+      <c r="EM55" s="114"/>
+      <c r="EN55" s="114"/>
+      <c r="EO55" s="114"/>
+      <c r="EP55" s="114"/>
+      <c r="EQ55" s="114"/>
+      <c r="ER55" s="114"/>
+      <c r="ES55" s="114"/>
       <c r="ET55" s="182"/>
-      <c r="EU55" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV55" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW55" s="182" t="s">
+      <c r="EU55" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV55" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW55" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX55" s="182"/>
-      <c r="EY55" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ55" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA55" s="182" t="s">
+      <c r="EY55" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ55" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA55" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB55" s="182"/>
@@ -18949,9 +19602,29 @@
       <c r="FM55" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN55" s="177"/>
-    </row>
-    <row r="56" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN55" s="182"/>
+      <c r="FO55" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP55" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ55" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR55" s="182"/>
+      <c r="FS55" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT55" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU55" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV55" s="177"/>
+    </row>
+    <row r="56" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>113</v>
       </c>
@@ -19073,15 +19746,21 @@
       <c r="DG56" s="117"/>
       <c r="DH56" s="117"/>
       <c r="DI56" s="117"/>
-      <c r="DJ56" s="76"/>
+      <c r="DJ56" s="117">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="DK56" s="117"/>
-      <c r="DL56" s="117"/>
-      <c r="DM56" s="117"/>
+      <c r="DL56" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM56" s="117" t="s">
+        <v>766</v>
+      </c>
       <c r="DN56" s="76"/>
       <c r="DO56" s="117"/>
       <c r="DP56" s="117"/>
       <c r="DQ56" s="117"/>
-      <c r="DR56" s="117"/>
+      <c r="DR56" s="76"/>
       <c r="DS56" s="117"/>
       <c r="DT56" s="117"/>
       <c r="DU56" s="117"/>
@@ -19089,13 +19768,13 @@
       <c r="DW56" s="117"/>
       <c r="DX56" s="117"/>
       <c r="DY56" s="117"/>
-      <c r="DZ56" s="117">
-        <v>0.35</v>
-      </c>
+      <c r="DZ56" s="117"/>
       <c r="EA56" s="117"/>
       <c r="EB56" s="117"/>
       <c r="EC56" s="117"/>
-      <c r="ED56" s="117"/>
+      <c r="ED56" s="117">
+        <v>0.35</v>
+      </c>
       <c r="EE56" s="117"/>
       <c r="EF56" s="117"/>
       <c r="EG56" s="117"/>
@@ -19103,14 +19782,20 @@
       <c r="EI56" s="117"/>
       <c r="EJ56" s="117"/>
       <c r="EK56" s="117"/>
-      <c r="EL56" s="185"/>
-      <c r="EM56" s="185"/>
-      <c r="EN56" s="185"/>
-      <c r="EO56" s="185"/>
-      <c r="EP56" s="185"/>
-      <c r="EQ56" s="185"/>
-      <c r="ER56" s="185"/>
-      <c r="ES56" s="185"/>
+      <c r="EL56" s="117">
+        <v>0.17</v>
+      </c>
+      <c r="EM56" s="117"/>
+      <c r="EN56" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO56" s="117" t="s">
+        <v>766</v>
+      </c>
+      <c r="EP56" s="117"/>
+      <c r="EQ56" s="117"/>
+      <c r="ER56" s="117"/>
+      <c r="ES56" s="117"/>
       <c r="ET56" s="185"/>
       <c r="EU56" s="185"/>
       <c r="EV56" s="185"/>
@@ -19132,8 +19817,16 @@
       <c r="FL56" s="185"/>
       <c r="FM56" s="185"/>
       <c r="FN56" s="185"/>
-    </row>
-    <row r="57" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO56" s="185"/>
+      <c r="FP56" s="185"/>
+      <c r="FQ56" s="185"/>
+      <c r="FR56" s="185"/>
+      <c r="FS56" s="185"/>
+      <c r="FT56" s="185"/>
+      <c r="FU56" s="185"/>
+      <c r="FV56" s="185"/>
+    </row>
+    <row r="57" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
         <v>590</v>
       </c>
@@ -19411,16 +20104,10 @@
       <c r="DG57" s="114"/>
       <c r="DH57" s="114"/>
       <c r="DI57" s="114"/>
-      <c r="DJ57" s="75"/>
-      <c r="DK57" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM57" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ57" s="114"/>
+      <c r="DK57" s="114"/>
+      <c r="DL57" s="114"/>
+      <c r="DM57" s="114"/>
       <c r="DN57" s="75"/>
       <c r="DO57" s="114" t="s">
         <v>353</v>
@@ -19429,9 +20116,9 @@
         <v>354</v>
       </c>
       <c r="DQ57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR57" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR57" s="75"/>
       <c r="DS57" s="114" t="s">
         <v>353</v>
       </c>
@@ -19439,7 +20126,7 @@
         <v>354</v>
       </c>
       <c r="DU57" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV57" s="116"/>
       <c r="DW57" s="114" t="s">
@@ -19451,62 +20138,56 @@
       <c r="DY57" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ57" s="114"/>
-      <c r="EA57" s="114"/>
-      <c r="EB57" s="114"/>
-      <c r="EC57" s="114"/>
-      <c r="ED57" s="116"/>
-      <c r="EE57" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF57" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG57" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH57" s="114"/>
-      <c r="EI57" s="114"/>
-      <c r="EJ57" s="114"/>
-      <c r="EK57" s="114"/>
-      <c r="EL57" s="182"/>
-      <c r="EM57" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN57" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO57" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP57" s="182"/>
-      <c r="EQ57" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER57" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES57" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ57" s="116"/>
+      <c r="EA57" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB57" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC57" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED57" s="114"/>
+      <c r="EE57" s="114"/>
+      <c r="EF57" s="114"/>
+      <c r="EG57" s="114"/>
+      <c r="EH57" s="116"/>
+      <c r="EI57" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ57" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK57" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL57" s="114"/>
+      <c r="EM57" s="114"/>
+      <c r="EN57" s="114"/>
+      <c r="EO57" s="114"/>
+      <c r="EP57" s="114"/>
+      <c r="EQ57" s="114"/>
+      <c r="ER57" s="114"/>
+      <c r="ES57" s="114"/>
       <c r="ET57" s="182"/>
-      <c r="EU57" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV57" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW57" s="182" t="s">
+      <c r="EU57" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV57" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW57" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX57" s="182"/>
-      <c r="EY57" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ57" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA57" s="182" t="s">
+      <c r="EY57" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ57" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA57" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB57" s="182"/>
@@ -19539,9 +20220,29 @@
       <c r="FM57" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN57" s="177"/>
-    </row>
-    <row r="58" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN57" s="182"/>
+      <c r="FO57" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP57" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ57" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR57" s="182"/>
+      <c r="FS57" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT57" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU57" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV57" s="177"/>
+    </row>
+    <row r="58" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
         <v>113</v>
       </c>
@@ -19663,15 +20364,19 @@
       <c r="DG58" s="117"/>
       <c r="DH58" s="117"/>
       <c r="DI58" s="117"/>
-      <c r="DJ58" s="76"/>
+      <c r="DJ58" s="117">
+        <v>0.115</v>
+      </c>
       <c r="DK58" s="117"/>
-      <c r="DL58" s="117"/>
+      <c r="DL58" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM58" s="117"/>
       <c r="DN58" s="76"/>
       <c r="DO58" s="117"/>
       <c r="DP58" s="117"/>
       <c r="DQ58" s="117"/>
-      <c r="DR58" s="117"/>
+      <c r="DR58" s="76"/>
       <c r="DS58" s="117"/>
       <c r="DT58" s="117"/>
       <c r="DU58" s="117"/>
@@ -19679,13 +20384,13 @@
       <c r="DW58" s="117"/>
       <c r="DX58" s="117"/>
       <c r="DY58" s="117"/>
-      <c r="DZ58" s="117">
-        <v>0.61</v>
-      </c>
+      <c r="DZ58" s="117"/>
       <c r="EA58" s="117"/>
       <c r="EB58" s="117"/>
       <c r="EC58" s="117"/>
-      <c r="ED58" s="117"/>
+      <c r="ED58" s="117">
+        <v>0.61</v>
+      </c>
       <c r="EE58" s="117"/>
       <c r="EF58" s="117"/>
       <c r="EG58" s="117"/>
@@ -19693,14 +20398,18 @@
       <c r="EI58" s="117"/>
       <c r="EJ58" s="117"/>
       <c r="EK58" s="117"/>
-      <c r="EL58" s="185"/>
-      <c r="EM58" s="185"/>
-      <c r="EN58" s="185"/>
-      <c r="EO58" s="185"/>
-      <c r="EP58" s="185"/>
-      <c r="EQ58" s="185"/>
-      <c r="ER58" s="185"/>
-      <c r="ES58" s="185"/>
+      <c r="EL58" s="117">
+        <v>0.128</v>
+      </c>
+      <c r="EM58" s="117"/>
+      <c r="EN58" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO58" s="117"/>
+      <c r="EP58" s="117"/>
+      <c r="EQ58" s="117"/>
+      <c r="ER58" s="117"/>
+      <c r="ES58" s="117"/>
       <c r="ET58" s="185"/>
       <c r="EU58" s="185"/>
       <c r="EV58" s="185"/>
@@ -19722,8 +20431,16 @@
       <c r="FL58" s="185"/>
       <c r="FM58" s="185"/>
       <c r="FN58" s="185"/>
-    </row>
-    <row r="59" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO58" s="185"/>
+      <c r="FP58" s="185"/>
+      <c r="FQ58" s="185"/>
+      <c r="FR58" s="185"/>
+      <c r="FS58" s="185"/>
+      <c r="FT58" s="185"/>
+      <c r="FU58" s="185"/>
+      <c r="FV58" s="185"/>
+    </row>
+    <row r="59" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>595</v>
       </c>
@@ -20001,16 +20718,10 @@
       <c r="DG59" s="114"/>
       <c r="DH59" s="114"/>
       <c r="DI59" s="114"/>
-      <c r="DJ59" s="75"/>
-      <c r="DK59" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM59" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ59" s="114"/>
+      <c r="DK59" s="114"/>
+      <c r="DL59" s="114"/>
+      <c r="DM59" s="114"/>
       <c r="DN59" s="75"/>
       <c r="DO59" s="114" t="s">
         <v>353</v>
@@ -20019,9 +20730,9 @@
         <v>354</v>
       </c>
       <c r="DQ59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR59" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR59" s="75"/>
       <c r="DS59" s="114" t="s">
         <v>353</v>
       </c>
@@ -20029,7 +20740,7 @@
         <v>354</v>
       </c>
       <c r="DU59" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV59" s="116"/>
       <c r="DW59" s="114" t="s">
@@ -20041,62 +20752,56 @@
       <c r="DY59" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ59" s="114"/>
-      <c r="EA59" s="114"/>
-      <c r="EB59" s="114"/>
-      <c r="EC59" s="114"/>
-      <c r="ED59" s="116"/>
-      <c r="EE59" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF59" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG59" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH59" s="114"/>
-      <c r="EI59" s="114"/>
-      <c r="EJ59" s="114"/>
-      <c r="EK59" s="114"/>
-      <c r="EL59" s="182"/>
-      <c r="EM59" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN59" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO59" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP59" s="182"/>
-      <c r="EQ59" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER59" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES59" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ59" s="116"/>
+      <c r="EA59" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB59" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC59" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED59" s="114"/>
+      <c r="EE59" s="114"/>
+      <c r="EF59" s="114"/>
+      <c r="EG59" s="114"/>
+      <c r="EH59" s="116"/>
+      <c r="EI59" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ59" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK59" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL59" s="114"/>
+      <c r="EM59" s="114"/>
+      <c r="EN59" s="114"/>
+      <c r="EO59" s="114"/>
+      <c r="EP59" s="114"/>
+      <c r="EQ59" s="114"/>
+      <c r="ER59" s="114"/>
+      <c r="ES59" s="114"/>
       <c r="ET59" s="182"/>
-      <c r="EU59" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV59" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW59" s="182" t="s">
+      <c r="EU59" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV59" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW59" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX59" s="182"/>
-      <c r="EY59" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ59" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA59" s="182" t="s">
+      <c r="EY59" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ59" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA59" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB59" s="182"/>
@@ -20129,9 +20834,29 @@
       <c r="FM59" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN59" s="177"/>
-    </row>
-    <row r="60" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN59" s="182"/>
+      <c r="FO59" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP59" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ59" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR59" s="182"/>
+      <c r="FS59" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT59" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU59" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV59" s="177"/>
+    </row>
+    <row r="60" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
         <v>113</v>
       </c>
@@ -20253,15 +20978,21 @@
       <c r="DG60" s="117"/>
       <c r="DH60" s="117"/>
       <c r="DI60" s="117"/>
-      <c r="DJ60" s="76"/>
+      <c r="DJ60" s="117">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="DK60" s="117"/>
-      <c r="DL60" s="117"/>
-      <c r="DM60" s="117"/>
+      <c r="DL60" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM60" s="117" t="s">
+        <v>767</v>
+      </c>
       <c r="DN60" s="76"/>
       <c r="DO60" s="117"/>
       <c r="DP60" s="117"/>
       <c r="DQ60" s="117"/>
-      <c r="DR60" s="117"/>
+      <c r="DR60" s="76"/>
       <c r="DS60" s="117"/>
       <c r="DT60" s="117"/>
       <c r="DU60" s="117"/>
@@ -20269,13 +21000,13 @@
       <c r="DW60" s="117"/>
       <c r="DX60" s="117"/>
       <c r="DY60" s="117"/>
-      <c r="DZ60" s="117">
-        <v>0.375</v>
-      </c>
+      <c r="DZ60" s="117"/>
       <c r="EA60" s="117"/>
       <c r="EB60" s="117"/>
       <c r="EC60" s="117"/>
-      <c r="ED60" s="117"/>
+      <c r="ED60" s="117">
+        <v>0.375</v>
+      </c>
       <c r="EE60" s="117"/>
       <c r="EF60" s="117"/>
       <c r="EG60" s="117"/>
@@ -20283,14 +21014,20 @@
       <c r="EI60" s="117"/>
       <c r="EJ60" s="117"/>
       <c r="EK60" s="117"/>
-      <c r="EL60" s="185"/>
-      <c r="EM60" s="185"/>
-      <c r="EN60" s="185"/>
-      <c r="EO60" s="185"/>
-      <c r="EP60" s="185"/>
-      <c r="EQ60" s="185"/>
-      <c r="ER60" s="185"/>
-      <c r="ES60" s="185"/>
+      <c r="EL60" s="117">
+        <v>1.6</v>
+      </c>
+      <c r="EM60" s="117"/>
+      <c r="EN60" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO60" s="117" t="s">
+        <v>769</v>
+      </c>
+      <c r="EP60" s="117"/>
+      <c r="EQ60" s="117"/>
+      <c r="ER60" s="117"/>
+      <c r="ES60" s="117"/>
       <c r="ET60" s="185"/>
       <c r="EU60" s="185"/>
       <c r="EV60" s="185"/>
@@ -20312,8 +21049,16 @@
       <c r="FL60" s="185"/>
       <c r="FM60" s="185"/>
       <c r="FN60" s="185"/>
-    </row>
-    <row r="61" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO60" s="185"/>
+      <c r="FP60" s="185"/>
+      <c r="FQ60" s="185"/>
+      <c r="FR60" s="185"/>
+      <c r="FS60" s="185"/>
+      <c r="FT60" s="185"/>
+      <c r="FU60" s="185"/>
+      <c r="FV60" s="185"/>
+    </row>
+    <row r="61" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>600</v>
       </c>
@@ -20591,16 +21336,10 @@
       <c r="DG61" s="114"/>
       <c r="DH61" s="114"/>
       <c r="DI61" s="114"/>
-      <c r="DJ61" s="75"/>
-      <c r="DK61" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM61" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ61" s="114"/>
+      <c r="DK61" s="114"/>
+      <c r="DL61" s="114"/>
+      <c r="DM61" s="114"/>
       <c r="DN61" s="75"/>
       <c r="DO61" s="114" t="s">
         <v>353</v>
@@ -20609,9 +21348,9 @@
         <v>354</v>
       </c>
       <c r="DQ61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR61" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR61" s="75"/>
       <c r="DS61" s="114" t="s">
         <v>353</v>
       </c>
@@ -20619,7 +21358,7 @@
         <v>354</v>
       </c>
       <c r="DU61" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV61" s="116"/>
       <c r="DW61" s="114" t="s">
@@ -20631,62 +21370,56 @@
       <c r="DY61" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ61" s="114"/>
-      <c r="EA61" s="114"/>
-      <c r="EB61" s="114"/>
-      <c r="EC61" s="114"/>
-      <c r="ED61" s="116"/>
-      <c r="EE61" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF61" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG61" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH61" s="114"/>
-      <c r="EI61" s="114"/>
-      <c r="EJ61" s="114"/>
-      <c r="EK61" s="114"/>
-      <c r="EL61" s="182"/>
-      <c r="EM61" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN61" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO61" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP61" s="182"/>
-      <c r="EQ61" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER61" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES61" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ61" s="116"/>
+      <c r="EA61" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB61" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC61" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED61" s="114"/>
+      <c r="EE61" s="114"/>
+      <c r="EF61" s="114"/>
+      <c r="EG61" s="114"/>
+      <c r="EH61" s="116"/>
+      <c r="EI61" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ61" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK61" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL61" s="114"/>
+      <c r="EM61" s="114"/>
+      <c r="EN61" s="114"/>
+      <c r="EO61" s="114"/>
+      <c r="EP61" s="114"/>
+      <c r="EQ61" s="114"/>
+      <c r="ER61" s="114"/>
+      <c r="ES61" s="114"/>
       <c r="ET61" s="182"/>
-      <c r="EU61" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV61" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW61" s="182" t="s">
+      <c r="EU61" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV61" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW61" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX61" s="182"/>
-      <c r="EY61" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ61" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA61" s="182" t="s">
+      <c r="EY61" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ61" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA61" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB61" s="182"/>
@@ -20719,9 +21452,29 @@
       <c r="FM61" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN61" s="177"/>
-    </row>
-    <row r="62" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN61" s="182"/>
+      <c r="FO61" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP61" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ61" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR61" s="182"/>
+      <c r="FS61" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT61" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU61" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV61" s="177"/>
+    </row>
+    <row r="62" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>113</v>
       </c>
@@ -20843,15 +21596,21 @@
       <c r="DG62" s="117"/>
       <c r="DH62" s="117"/>
       <c r="DI62" s="117"/>
-      <c r="DJ62" s="76"/>
+      <c r="DJ62" s="117">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="DK62" s="117"/>
-      <c r="DL62" s="117"/>
-      <c r="DM62" s="117"/>
+      <c r="DL62" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM62" s="117" t="s">
+        <v>767</v>
+      </c>
       <c r="DN62" s="76"/>
       <c r="DO62" s="117"/>
       <c r="DP62" s="117"/>
       <c r="DQ62" s="117"/>
-      <c r="DR62" s="117"/>
+      <c r="DR62" s="76"/>
       <c r="DS62" s="117"/>
       <c r="DT62" s="117"/>
       <c r="DU62" s="117"/>
@@ -20859,13 +21618,13 @@
       <c r="DW62" s="117"/>
       <c r="DX62" s="117"/>
       <c r="DY62" s="117"/>
-      <c r="DZ62" s="117">
-        <v>0.34</v>
-      </c>
+      <c r="DZ62" s="117"/>
       <c r="EA62" s="117"/>
       <c r="EB62" s="117"/>
       <c r="EC62" s="117"/>
-      <c r="ED62" s="117"/>
+      <c r="ED62" s="117">
+        <v>0.34</v>
+      </c>
       <c r="EE62" s="117"/>
       <c r="EF62" s="117"/>
       <c r="EG62" s="117"/>
@@ -20873,14 +21632,20 @@
       <c r="EI62" s="117"/>
       <c r="EJ62" s="117"/>
       <c r="EK62" s="117"/>
-      <c r="EL62" s="185"/>
-      <c r="EM62" s="185"/>
-      <c r="EN62" s="185"/>
-      <c r="EO62" s="185"/>
-      <c r="EP62" s="185"/>
-      <c r="EQ62" s="185"/>
-      <c r="ER62" s="185"/>
-      <c r="ES62" s="185"/>
+      <c r="EL62" s="117">
+        <v>1.6</v>
+      </c>
+      <c r="EM62" s="117"/>
+      <c r="EN62" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO62" s="117" t="s">
+        <v>769</v>
+      </c>
+      <c r="EP62" s="117"/>
+      <c r="EQ62" s="117"/>
+      <c r="ER62" s="117"/>
+      <c r="ES62" s="117"/>
       <c r="ET62" s="185"/>
       <c r="EU62" s="185"/>
       <c r="EV62" s="185"/>
@@ -20902,8 +21667,16 @@
       <c r="FL62" s="185"/>
       <c r="FM62" s="185"/>
       <c r="FN62" s="185"/>
-    </row>
-    <row r="63" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO62" s="185"/>
+      <c r="FP62" s="185"/>
+      <c r="FQ62" s="185"/>
+      <c r="FR62" s="185"/>
+      <c r="FS62" s="185"/>
+      <c r="FT62" s="185"/>
+      <c r="FU62" s="185"/>
+      <c r="FV62" s="185"/>
+    </row>
+    <row r="63" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
         <v>601</v>
       </c>
@@ -21181,16 +21954,10 @@
       <c r="DG63" s="114"/>
       <c r="DH63" s="114"/>
       <c r="DI63" s="114"/>
-      <c r="DJ63" s="75"/>
-      <c r="DK63" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM63" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ63" s="114"/>
+      <c r="DK63" s="114"/>
+      <c r="DL63" s="114"/>
+      <c r="DM63" s="114"/>
       <c r="DN63" s="75"/>
       <c r="DO63" s="114" t="s">
         <v>353</v>
@@ -21199,9 +21966,9 @@
         <v>354</v>
       </c>
       <c r="DQ63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR63" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR63" s="75"/>
       <c r="DS63" s="114" t="s">
         <v>353</v>
       </c>
@@ -21209,7 +21976,7 @@
         <v>354</v>
       </c>
       <c r="DU63" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV63" s="116"/>
       <c r="DW63" s="114" t="s">
@@ -21221,62 +21988,56 @@
       <c r="DY63" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ63" s="114"/>
-      <c r="EA63" s="114"/>
-      <c r="EB63" s="114"/>
-      <c r="EC63" s="114"/>
-      <c r="ED63" s="116"/>
-      <c r="EE63" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF63" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG63" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH63" s="114"/>
-      <c r="EI63" s="114"/>
-      <c r="EJ63" s="114"/>
-      <c r="EK63" s="114"/>
-      <c r="EL63" s="182"/>
-      <c r="EM63" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN63" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO63" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP63" s="182"/>
-      <c r="EQ63" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER63" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES63" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ63" s="116"/>
+      <c r="EA63" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB63" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC63" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED63" s="114"/>
+      <c r="EE63" s="114"/>
+      <c r="EF63" s="114"/>
+      <c r="EG63" s="114"/>
+      <c r="EH63" s="116"/>
+      <c r="EI63" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ63" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK63" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL63" s="114"/>
+      <c r="EM63" s="114"/>
+      <c r="EN63" s="114"/>
+      <c r="EO63" s="114"/>
+      <c r="EP63" s="114"/>
+      <c r="EQ63" s="114"/>
+      <c r="ER63" s="114"/>
+      <c r="ES63" s="114"/>
       <c r="ET63" s="182"/>
-      <c r="EU63" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV63" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW63" s="182" t="s">
+      <c r="EU63" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV63" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW63" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX63" s="182"/>
-      <c r="EY63" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ63" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA63" s="182" t="s">
+      <c r="EY63" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ63" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA63" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB63" s="182"/>
@@ -21309,9 +22070,29 @@
       <c r="FM63" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN63" s="177"/>
-    </row>
-    <row r="64" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN63" s="182"/>
+      <c r="FO63" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP63" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ63" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR63" s="182"/>
+      <c r="FS63" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT63" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU63" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV63" s="177"/>
+    </row>
+    <row r="64" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70" t="s">
         <v>113</v>
       </c>
@@ -21433,15 +22214,19 @@
       <c r="DG64" s="117"/>
       <c r="DH64" s="117"/>
       <c r="DI64" s="117"/>
-      <c r="DJ64" s="76"/>
+      <c r="DJ64" s="117">
+        <v>0.92</v>
+      </c>
       <c r="DK64" s="117"/>
-      <c r="DL64" s="117"/>
+      <c r="DL64" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM64" s="117"/>
       <c r="DN64" s="76"/>
       <c r="DO64" s="117"/>
       <c r="DP64" s="117"/>
       <c r="DQ64" s="117"/>
-      <c r="DR64" s="117"/>
+      <c r="DR64" s="76"/>
       <c r="DS64" s="117"/>
       <c r="DT64" s="117"/>
       <c r="DU64" s="117"/>
@@ -21449,13 +22234,13 @@
       <c r="DW64" s="117"/>
       <c r="DX64" s="117"/>
       <c r="DY64" s="117"/>
-      <c r="DZ64" s="117">
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="DZ64" s="117"/>
       <c r="EA64" s="117"/>
       <c r="EB64" s="117"/>
       <c r="EC64" s="117"/>
-      <c r="ED64" s="117"/>
+      <c r="ED64" s="117">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="EE64" s="117"/>
       <c r="EF64" s="117"/>
       <c r="EG64" s="117"/>
@@ -21463,14 +22248,20 @@
       <c r="EI64" s="117"/>
       <c r="EJ64" s="117"/>
       <c r="EK64" s="117"/>
-      <c r="EL64" s="185"/>
-      <c r="EM64" s="185"/>
-      <c r="EN64" s="185"/>
-      <c r="EO64" s="185"/>
-      <c r="EP64" s="185"/>
-      <c r="EQ64" s="185"/>
-      <c r="ER64" s="185"/>
-      <c r="ES64" s="185"/>
+      <c r="EL64" s="117">
+        <v>0.92</v>
+      </c>
+      <c r="EM64" s="117"/>
+      <c r="EN64" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO64" s="117" t="s">
+        <v>770</v>
+      </c>
+      <c r="EP64" s="117"/>
+      <c r="EQ64" s="117"/>
+      <c r="ER64" s="117"/>
+      <c r="ES64" s="117"/>
       <c r="ET64" s="185"/>
       <c r="EU64" s="185"/>
       <c r="EV64" s="185"/>
@@ -21492,8 +22283,16 @@
       <c r="FL64" s="185"/>
       <c r="FM64" s="185"/>
       <c r="FN64" s="185"/>
-    </row>
-    <row r="65" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO64" s="185"/>
+      <c r="FP64" s="185"/>
+      <c r="FQ64" s="185"/>
+      <c r="FR64" s="185"/>
+      <c r="FS64" s="185"/>
+      <c r="FT64" s="185"/>
+      <c r="FU64" s="185"/>
+      <c r="FV64" s="185"/>
+    </row>
+    <row r="65" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>597</v>
       </c>
@@ -21771,16 +22570,10 @@
       <c r="DG65" s="114"/>
       <c r="DH65" s="114"/>
       <c r="DI65" s="114"/>
-      <c r="DJ65" s="75"/>
-      <c r="DK65" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM65" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ65" s="114"/>
+      <c r="DK65" s="114"/>
+      <c r="DL65" s="114"/>
+      <c r="DM65" s="114"/>
       <c r="DN65" s="75"/>
       <c r="DO65" s="114" t="s">
         <v>353</v>
@@ -21789,9 +22582,9 @@
         <v>354</v>
       </c>
       <c r="DQ65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR65" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR65" s="75"/>
       <c r="DS65" s="114" t="s">
         <v>353</v>
       </c>
@@ -21799,7 +22592,7 @@
         <v>354</v>
       </c>
       <c r="DU65" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV65" s="116"/>
       <c r="DW65" s="114" t="s">
@@ -21811,62 +22604,56 @@
       <c r="DY65" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ65" s="114"/>
-      <c r="EA65" s="114"/>
-      <c r="EB65" s="114"/>
-      <c r="EC65" s="114"/>
-      <c r="ED65" s="116"/>
-      <c r="EE65" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF65" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG65" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH65" s="114"/>
-      <c r="EI65" s="114"/>
-      <c r="EJ65" s="114"/>
-      <c r="EK65" s="114"/>
-      <c r="EL65" s="182"/>
-      <c r="EM65" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN65" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO65" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP65" s="182"/>
-      <c r="EQ65" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER65" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES65" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ65" s="116"/>
+      <c r="EA65" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB65" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC65" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED65" s="114"/>
+      <c r="EE65" s="114"/>
+      <c r="EF65" s="114"/>
+      <c r="EG65" s="114"/>
+      <c r="EH65" s="116"/>
+      <c r="EI65" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ65" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK65" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL65" s="114"/>
+      <c r="EM65" s="114"/>
+      <c r="EN65" s="114"/>
+      <c r="EO65" s="114"/>
+      <c r="EP65" s="114"/>
+      <c r="EQ65" s="114"/>
+      <c r="ER65" s="114"/>
+      <c r="ES65" s="114"/>
       <c r="ET65" s="182"/>
-      <c r="EU65" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV65" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW65" s="182" t="s">
+      <c r="EU65" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV65" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW65" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX65" s="182"/>
-      <c r="EY65" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ65" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA65" s="182" t="s">
+      <c r="EY65" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ65" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA65" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB65" s="182"/>
@@ -21899,9 +22686,29 @@
       <c r="FM65" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN65" s="177"/>
-    </row>
-    <row r="66" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN65" s="182"/>
+      <c r="FO65" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP65" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ65" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR65" s="182"/>
+      <c r="FS65" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT65" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU65" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV65" s="177"/>
+    </row>
+    <row r="66" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
         <v>113</v>
       </c>
@@ -22023,15 +22830,21 @@
       <c r="DG66" s="117"/>
       <c r="DH66" s="117"/>
       <c r="DI66" s="117"/>
-      <c r="DJ66" s="76"/>
+      <c r="DJ66" s="117">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="DK66" s="117"/>
-      <c r="DL66" s="117"/>
-      <c r="DM66" s="117"/>
+      <c r="DL66" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM66" s="117" t="s">
+        <v>767</v>
+      </c>
       <c r="DN66" s="76"/>
       <c r="DO66" s="117"/>
       <c r="DP66" s="117"/>
       <c r="DQ66" s="117"/>
-      <c r="DR66" s="117"/>
+      <c r="DR66" s="76"/>
       <c r="DS66" s="117"/>
       <c r="DT66" s="117"/>
       <c r="DU66" s="117"/>
@@ -22039,13 +22852,13 @@
       <c r="DW66" s="117"/>
       <c r="DX66" s="117"/>
       <c r="DY66" s="117"/>
-      <c r="DZ66" s="117">
-        <v>0.36</v>
-      </c>
+      <c r="DZ66" s="117"/>
       <c r="EA66" s="117"/>
       <c r="EB66" s="117"/>
       <c r="EC66" s="117"/>
-      <c r="ED66" s="117"/>
+      <c r="ED66" s="117">
+        <v>0.36</v>
+      </c>
       <c r="EE66" s="117"/>
       <c r="EF66" s="117"/>
       <c r="EG66" s="117"/>
@@ -22053,14 +22866,20 @@
       <c r="EI66" s="117"/>
       <c r="EJ66" s="117"/>
       <c r="EK66" s="117"/>
-      <c r="EL66" s="185"/>
-      <c r="EM66" s="185"/>
-      <c r="EN66" s="185"/>
-      <c r="EO66" s="185"/>
-      <c r="EP66" s="185"/>
-      <c r="EQ66" s="185"/>
-      <c r="ER66" s="185"/>
-      <c r="ES66" s="185"/>
+      <c r="EL66" s="117">
+        <v>1.6</v>
+      </c>
+      <c r="EM66" s="117"/>
+      <c r="EN66" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO66" s="117" t="s">
+        <v>769</v>
+      </c>
+      <c r="EP66" s="117"/>
+      <c r="EQ66" s="117"/>
+      <c r="ER66" s="117"/>
+      <c r="ES66" s="117"/>
       <c r="ET66" s="185"/>
       <c r="EU66" s="185"/>
       <c r="EV66" s="185"/>
@@ -22082,8 +22901,16 @@
       <c r="FL66" s="185"/>
       <c r="FM66" s="185"/>
       <c r="FN66" s="185"/>
-    </row>
-    <row r="67" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO66" s="185"/>
+      <c r="FP66" s="185"/>
+      <c r="FQ66" s="185"/>
+      <c r="FR66" s="185"/>
+      <c r="FS66" s="185"/>
+      <c r="FT66" s="185"/>
+      <c r="FU66" s="185"/>
+      <c r="FV66" s="185"/>
+    </row>
+    <row r="67" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
         <v>592</v>
       </c>
@@ -22361,16 +23188,10 @@
       <c r="DG67" s="114"/>
       <c r="DH67" s="114"/>
       <c r="DI67" s="114"/>
-      <c r="DJ67" s="75"/>
-      <c r="DK67" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM67" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ67" s="114"/>
+      <c r="DK67" s="114"/>
+      <c r="DL67" s="114"/>
+      <c r="DM67" s="114"/>
       <c r="DN67" s="75"/>
       <c r="DO67" s="114" t="s">
         <v>353</v>
@@ -22379,9 +23200,9 @@
         <v>354</v>
       </c>
       <c r="DQ67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR67" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR67" s="75"/>
       <c r="DS67" s="114" t="s">
         <v>353</v>
       </c>
@@ -22389,7 +23210,7 @@
         <v>354</v>
       </c>
       <c r="DU67" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV67" s="116"/>
       <c r="DW67" s="114" t="s">
@@ -22401,62 +23222,56 @@
       <c r="DY67" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ67" s="114"/>
-      <c r="EA67" s="114"/>
-      <c r="EB67" s="114"/>
-      <c r="EC67" s="114"/>
-      <c r="ED67" s="116"/>
-      <c r="EE67" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF67" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG67" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH67" s="114"/>
-      <c r="EI67" s="114"/>
-      <c r="EJ67" s="114"/>
-      <c r="EK67" s="114"/>
-      <c r="EL67" s="182"/>
-      <c r="EM67" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN67" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO67" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP67" s="182"/>
-      <c r="EQ67" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER67" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES67" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ67" s="116"/>
+      <c r="EA67" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB67" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC67" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED67" s="114"/>
+      <c r="EE67" s="114"/>
+      <c r="EF67" s="114"/>
+      <c r="EG67" s="114"/>
+      <c r="EH67" s="116"/>
+      <c r="EI67" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ67" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK67" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL67" s="114"/>
+      <c r="EM67" s="114"/>
+      <c r="EN67" s="114"/>
+      <c r="EO67" s="114"/>
+      <c r="EP67" s="114"/>
+      <c r="EQ67" s="114"/>
+      <c r="ER67" s="114"/>
+      <c r="ES67" s="114"/>
       <c r="ET67" s="182"/>
-      <c r="EU67" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV67" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW67" s="182" t="s">
+      <c r="EU67" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV67" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW67" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX67" s="182"/>
-      <c r="EY67" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ67" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA67" s="182" t="s">
+      <c r="EY67" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ67" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA67" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB67" s="182"/>
@@ -22489,9 +23304,29 @@
       <c r="FM67" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN67" s="177"/>
-    </row>
-    <row r="68" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN67" s="182"/>
+      <c r="FO67" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP67" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ67" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR67" s="182"/>
+      <c r="FS67" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT67" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU67" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV67" s="177"/>
+    </row>
+    <row r="68" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>113</v>
       </c>
@@ -22613,15 +23448,19 @@
       <c r="DG68" s="117"/>
       <c r="DH68" s="117"/>
       <c r="DI68" s="117"/>
-      <c r="DJ68" s="76"/>
+      <c r="DJ68" s="117">
+        <v>0.28799999999999998</v>
+      </c>
       <c r="DK68" s="117"/>
-      <c r="DL68" s="117"/>
+      <c r="DL68" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM68" s="117"/>
       <c r="DN68" s="76"/>
       <c r="DO68" s="117"/>
       <c r="DP68" s="117"/>
       <c r="DQ68" s="117"/>
-      <c r="DR68" s="117"/>
+      <c r="DR68" s="76"/>
       <c r="DS68" s="117"/>
       <c r="DT68" s="117"/>
       <c r="DU68" s="117"/>
@@ -22629,13 +23468,13 @@
       <c r="DW68" s="117"/>
       <c r="DX68" s="117"/>
       <c r="DY68" s="117"/>
-      <c r="DZ68" s="117">
-        <v>0.32</v>
-      </c>
+      <c r="DZ68" s="117"/>
       <c r="EA68" s="117"/>
       <c r="EB68" s="117"/>
       <c r="EC68" s="117"/>
-      <c r="ED68" s="117"/>
+      <c r="ED68" s="117">
+        <v>0.32</v>
+      </c>
       <c r="EE68" s="117"/>
       <c r="EF68" s="117"/>
       <c r="EG68" s="117"/>
@@ -22643,14 +23482,18 @@
       <c r="EI68" s="117"/>
       <c r="EJ68" s="117"/>
       <c r="EK68" s="117"/>
-      <c r="EL68" s="185"/>
-      <c r="EM68" s="185"/>
-      <c r="EN68" s="185"/>
-      <c r="EO68" s="185"/>
-      <c r="EP68" s="185"/>
-      <c r="EQ68" s="185"/>
-      <c r="ER68" s="185"/>
-      <c r="ES68" s="185"/>
+      <c r="EL68" s="117">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="EM68" s="117"/>
+      <c r="EN68" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO68" s="117"/>
+      <c r="EP68" s="117"/>
+      <c r="EQ68" s="117"/>
+      <c r="ER68" s="117"/>
+      <c r="ES68" s="117"/>
       <c r="ET68" s="185"/>
       <c r="EU68" s="185"/>
       <c r="EV68" s="185"/>
@@ -22672,8 +23515,16 @@
       <c r="FL68" s="185"/>
       <c r="FM68" s="185"/>
       <c r="FN68" s="185"/>
-    </row>
-    <row r="69" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO68" s="185"/>
+      <c r="FP68" s="185"/>
+      <c r="FQ68" s="185"/>
+      <c r="FR68" s="185"/>
+      <c r="FS68" s="185"/>
+      <c r="FT68" s="185"/>
+      <c r="FU68" s="185"/>
+      <c r="FV68" s="185"/>
+    </row>
+    <row r="69" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
         <v>589</v>
       </c>
@@ -22951,16 +23802,10 @@
       <c r="DG69" s="114"/>
       <c r="DH69" s="114"/>
       <c r="DI69" s="114"/>
-      <c r="DJ69" s="75"/>
-      <c r="DK69" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM69" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ69" s="114"/>
+      <c r="DK69" s="114"/>
+      <c r="DL69" s="114"/>
+      <c r="DM69" s="114"/>
       <c r="DN69" s="75"/>
       <c r="DO69" s="114" t="s">
         <v>353</v>
@@ -22969,9 +23814,9 @@
         <v>354</v>
       </c>
       <c r="DQ69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR69" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR69" s="75"/>
       <c r="DS69" s="114" t="s">
         <v>353</v>
       </c>
@@ -22979,7 +23824,7 @@
         <v>354</v>
       </c>
       <c r="DU69" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV69" s="116"/>
       <c r="DW69" s="114" t="s">
@@ -22991,62 +23836,56 @@
       <c r="DY69" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ69" s="114"/>
-      <c r="EA69" s="114"/>
-      <c r="EB69" s="114"/>
-      <c r="EC69" s="114"/>
-      <c r="ED69" s="116"/>
-      <c r="EE69" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF69" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG69" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH69" s="114"/>
-      <c r="EI69" s="114"/>
-      <c r="EJ69" s="114"/>
-      <c r="EK69" s="114"/>
-      <c r="EL69" s="182"/>
-      <c r="EM69" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN69" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO69" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP69" s="182"/>
-      <c r="EQ69" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER69" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES69" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ69" s="116"/>
+      <c r="EA69" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB69" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC69" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED69" s="114"/>
+      <c r="EE69" s="114"/>
+      <c r="EF69" s="114"/>
+      <c r="EG69" s="114"/>
+      <c r="EH69" s="116"/>
+      <c r="EI69" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ69" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK69" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL69" s="114"/>
+      <c r="EM69" s="114"/>
+      <c r="EN69" s="114"/>
+      <c r="EO69" s="114"/>
+      <c r="EP69" s="114"/>
+      <c r="EQ69" s="114"/>
+      <c r="ER69" s="114"/>
+      <c r="ES69" s="114"/>
       <c r="ET69" s="182"/>
-      <c r="EU69" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV69" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW69" s="182" t="s">
+      <c r="EU69" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV69" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW69" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX69" s="182"/>
-      <c r="EY69" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ69" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA69" s="182" t="s">
+      <c r="EY69" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ69" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA69" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB69" s="182"/>
@@ -23079,9 +23918,29 @@
       <c r="FM69" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN69" s="177"/>
-    </row>
-    <row r="70" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN69" s="182"/>
+      <c r="FO69" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP69" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ69" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR69" s="182"/>
+      <c r="FS69" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT69" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU69" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV69" s="177"/>
+    </row>
+    <row r="70" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
         <v>113</v>
       </c>
@@ -23203,15 +24062,21 @@
       <c r="DG70" s="117"/>
       <c r="DH70" s="117"/>
       <c r="DI70" s="117"/>
-      <c r="DJ70" s="76"/>
+      <c r="DJ70" s="117">
+        <v>0.28799999999999998</v>
+      </c>
       <c r="DK70" s="117"/>
-      <c r="DL70" s="117"/>
-      <c r="DM70" s="117"/>
+      <c r="DL70" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM70" s="117" t="s">
+        <v>768</v>
+      </c>
       <c r="DN70" s="76"/>
       <c r="DO70" s="117"/>
       <c r="DP70" s="117"/>
       <c r="DQ70" s="117"/>
-      <c r="DR70" s="117"/>
+      <c r="DR70" s="76"/>
       <c r="DS70" s="117"/>
       <c r="DT70" s="117"/>
       <c r="DU70" s="117"/>
@@ -23219,13 +24084,13 @@
       <c r="DW70" s="117"/>
       <c r="DX70" s="117"/>
       <c r="DY70" s="117"/>
-      <c r="DZ70" s="117">
-        <v>0.39</v>
-      </c>
+      <c r="DZ70" s="117"/>
       <c r="EA70" s="117"/>
       <c r="EB70" s="117"/>
       <c r="EC70" s="117"/>
-      <c r="ED70" s="117"/>
+      <c r="ED70" s="117">
+        <v>0.39</v>
+      </c>
       <c r="EE70" s="117"/>
       <c r="EF70" s="117"/>
       <c r="EG70" s="117"/>
@@ -23233,14 +24098,20 @@
       <c r="EI70" s="117"/>
       <c r="EJ70" s="117"/>
       <c r="EK70" s="117"/>
-      <c r="EL70" s="185"/>
-      <c r="EM70" s="185"/>
-      <c r="EN70" s="185"/>
-      <c r="EO70" s="185"/>
-      <c r="EP70" s="185"/>
-      <c r="EQ70" s="185"/>
-      <c r="ER70" s="185"/>
-      <c r="ES70" s="185"/>
+      <c r="EL70" s="117">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="EM70" s="117"/>
+      <c r="EN70" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO70" s="117" t="s">
+        <v>771</v>
+      </c>
+      <c r="EP70" s="117"/>
+      <c r="EQ70" s="117"/>
+      <c r="ER70" s="117"/>
+      <c r="ES70" s="117"/>
       <c r="ET70" s="185"/>
       <c r="EU70" s="185"/>
       <c r="EV70" s="185"/>
@@ -23262,8 +24133,16 @@
       <c r="FL70" s="185"/>
       <c r="FM70" s="185"/>
       <c r="FN70" s="185"/>
-    </row>
-    <row r="71" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO70" s="185"/>
+      <c r="FP70" s="185"/>
+      <c r="FQ70" s="185"/>
+      <c r="FR70" s="185"/>
+      <c r="FS70" s="185"/>
+      <c r="FT70" s="185"/>
+      <c r="FU70" s="185"/>
+      <c r="FV70" s="185"/>
+    </row>
+    <row r="71" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>598</v>
       </c>
@@ -23541,16 +24420,10 @@
       <c r="DG71" s="114"/>
       <c r="DH71" s="114"/>
       <c r="DI71" s="114"/>
-      <c r="DJ71" s="75"/>
-      <c r="DK71" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM71" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ71" s="114"/>
+      <c r="DK71" s="114"/>
+      <c r="DL71" s="114"/>
+      <c r="DM71" s="114"/>
       <c r="DN71" s="75"/>
       <c r="DO71" s="114" t="s">
         <v>353</v>
@@ -23559,9 +24432,9 @@
         <v>354</v>
       </c>
       <c r="DQ71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR71" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR71" s="75"/>
       <c r="DS71" s="114" t="s">
         <v>353</v>
       </c>
@@ -23569,7 +24442,7 @@
         <v>354</v>
       </c>
       <c r="DU71" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV71" s="116"/>
       <c r="DW71" s="114" t="s">
@@ -23581,62 +24454,56 @@
       <c r="DY71" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ71" s="114"/>
-      <c r="EA71" s="114"/>
-      <c r="EB71" s="114"/>
-      <c r="EC71" s="114"/>
-      <c r="ED71" s="116"/>
-      <c r="EE71" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF71" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG71" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH71" s="114"/>
-      <c r="EI71" s="114"/>
-      <c r="EJ71" s="114"/>
-      <c r="EK71" s="114"/>
-      <c r="EL71" s="182"/>
-      <c r="EM71" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN71" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO71" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP71" s="182"/>
-      <c r="EQ71" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER71" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES71" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ71" s="116"/>
+      <c r="EA71" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB71" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC71" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED71" s="114"/>
+      <c r="EE71" s="114"/>
+      <c r="EF71" s="114"/>
+      <c r="EG71" s="114"/>
+      <c r="EH71" s="116"/>
+      <c r="EI71" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ71" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK71" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL71" s="114"/>
+      <c r="EM71" s="114"/>
+      <c r="EN71" s="114"/>
+      <c r="EO71" s="114"/>
+      <c r="EP71" s="114"/>
+      <c r="EQ71" s="114"/>
+      <c r="ER71" s="114"/>
+      <c r="ES71" s="114"/>
       <c r="ET71" s="182"/>
-      <c r="EU71" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV71" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW71" s="182" t="s">
+      <c r="EU71" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV71" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW71" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX71" s="182"/>
-      <c r="EY71" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ71" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA71" s="182" t="s">
+      <c r="EY71" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ71" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA71" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB71" s="182"/>
@@ -23669,9 +24536,29 @@
       <c r="FM71" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN71" s="177"/>
-    </row>
-    <row r="72" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN71" s="182"/>
+      <c r="FO71" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP71" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ71" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR71" s="182"/>
+      <c r="FS71" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT71" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU71" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV71" s="177"/>
+    </row>
+    <row r="72" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
         <v>113</v>
       </c>
@@ -23793,15 +24680,21 @@
       <c r="DG72" s="117"/>
       <c r="DH72" s="117"/>
       <c r="DI72" s="117"/>
-      <c r="DJ72" s="76"/>
+      <c r="DJ72" s="117">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="DK72" s="117"/>
-      <c r="DL72" s="117"/>
-      <c r="DM72" s="117"/>
+      <c r="DL72" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="DM72" s="117" t="s">
+        <v>767</v>
+      </c>
       <c r="DN72" s="76"/>
       <c r="DO72" s="117"/>
       <c r="DP72" s="117"/>
       <c r="DQ72" s="117"/>
-      <c r="DR72" s="117"/>
+      <c r="DR72" s="76"/>
       <c r="DS72" s="117"/>
       <c r="DT72" s="117"/>
       <c r="DU72" s="117"/>
@@ -23809,13 +24702,13 @@
       <c r="DW72" s="117"/>
       <c r="DX72" s="117"/>
       <c r="DY72" s="117"/>
-      <c r="DZ72" s="117">
-        <v>0.34</v>
-      </c>
+      <c r="DZ72" s="117"/>
       <c r="EA72" s="117"/>
       <c r="EB72" s="117"/>
       <c r="EC72" s="117"/>
-      <c r="ED72" s="117"/>
+      <c r="ED72" s="117">
+        <v>0.34</v>
+      </c>
       <c r="EE72" s="117"/>
       <c r="EF72" s="117"/>
       <c r="EG72" s="117"/>
@@ -23823,14 +24716,20 @@
       <c r="EI72" s="117"/>
       <c r="EJ72" s="117"/>
       <c r="EK72" s="117"/>
-      <c r="EL72" s="185"/>
-      <c r="EM72" s="185"/>
-      <c r="EN72" s="185"/>
-      <c r="EO72" s="185"/>
-      <c r="EP72" s="185"/>
-      <c r="EQ72" s="185"/>
-      <c r="ER72" s="185"/>
-      <c r="ES72" s="185"/>
+      <c r="EL72" s="117">
+        <v>1.6</v>
+      </c>
+      <c r="EM72" s="117"/>
+      <c r="EN72" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO72" s="117" t="s">
+        <v>769</v>
+      </c>
+      <c r="EP72" s="117"/>
+      <c r="EQ72" s="117"/>
+      <c r="ER72" s="117"/>
+      <c r="ES72" s="117"/>
       <c r="ET72" s="185"/>
       <c r="EU72" s="185"/>
       <c r="EV72" s="185"/>
@@ -23852,8 +24751,16 @@
       <c r="FL72" s="185"/>
       <c r="FM72" s="185"/>
       <c r="FN72" s="185"/>
-    </row>
-    <row r="73" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO72" s="185"/>
+      <c r="FP72" s="185"/>
+      <c r="FQ72" s="185"/>
+      <c r="FR72" s="185"/>
+      <c r="FS72" s="185"/>
+      <c r="FT72" s="185"/>
+      <c r="FU72" s="185"/>
+      <c r="FV72" s="185"/>
+    </row>
+    <row r="73" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>599</v>
       </c>
@@ -24131,16 +25038,10 @@
       <c r="DG73" s="114"/>
       <c r="DH73" s="114"/>
       <c r="DI73" s="114"/>
-      <c r="DJ73" s="75"/>
-      <c r="DK73" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM73" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ73" s="114"/>
+      <c r="DK73" s="114"/>
+      <c r="DL73" s="114"/>
+      <c r="DM73" s="114"/>
       <c r="DN73" s="75"/>
       <c r="DO73" s="114" t="s">
         <v>353</v>
@@ -24149,9 +25050,9 @@
         <v>354</v>
       </c>
       <c r="DQ73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR73" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR73" s="75"/>
       <c r="DS73" s="114" t="s">
         <v>353</v>
       </c>
@@ -24159,7 +25060,7 @@
         <v>354</v>
       </c>
       <c r="DU73" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV73" s="116"/>
       <c r="DW73" s="114" t="s">
@@ -24171,62 +25072,56 @@
       <c r="DY73" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ73" s="114"/>
-      <c r="EA73" s="114"/>
-      <c r="EB73" s="114"/>
-      <c r="EC73" s="114"/>
-      <c r="ED73" s="116"/>
-      <c r="EE73" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF73" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG73" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH73" s="114"/>
-      <c r="EI73" s="114"/>
-      <c r="EJ73" s="114"/>
-      <c r="EK73" s="114"/>
-      <c r="EL73" s="182"/>
-      <c r="EM73" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN73" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO73" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP73" s="182"/>
-      <c r="EQ73" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER73" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES73" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ73" s="116"/>
+      <c r="EA73" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB73" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC73" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED73" s="114"/>
+      <c r="EE73" s="114"/>
+      <c r="EF73" s="114"/>
+      <c r="EG73" s="114"/>
+      <c r="EH73" s="116"/>
+      <c r="EI73" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ73" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK73" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL73" s="114"/>
+      <c r="EM73" s="114"/>
+      <c r="EN73" s="114"/>
+      <c r="EO73" s="114"/>
+      <c r="EP73" s="114"/>
+      <c r="EQ73" s="114"/>
+      <c r="ER73" s="114"/>
+      <c r="ES73" s="114"/>
       <c r="ET73" s="182"/>
-      <c r="EU73" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV73" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW73" s="182" t="s">
+      <c r="EU73" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV73" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW73" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX73" s="182"/>
-      <c r="EY73" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ73" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA73" s="182" t="s">
+      <c r="EY73" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ73" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA73" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB73" s="182"/>
@@ -24259,9 +25154,29 @@
       <c r="FM73" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN73" s="177"/>
-    </row>
-    <row r="74" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN73" s="182"/>
+      <c r="FO73" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP73" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ73" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR73" s="182"/>
+      <c r="FS73" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT73" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU73" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV73" s="177"/>
+    </row>
+    <row r="74" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>113</v>
       </c>
@@ -24383,15 +25298,19 @@
       <c r="DG74" s="117"/>
       <c r="DH74" s="117"/>
       <c r="DI74" s="117"/>
-      <c r="DJ74" s="76"/>
+      <c r="DJ74" s="117">
+        <v>0.92</v>
+      </c>
       <c r="DK74" s="117"/>
-      <c r="DL74" s="117"/>
+      <c r="DL74" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM74" s="117"/>
       <c r="DN74" s="76"/>
       <c r="DO74" s="117"/>
       <c r="DP74" s="117"/>
       <c r="DQ74" s="117"/>
-      <c r="DR74" s="117"/>
+      <c r="DR74" s="76"/>
       <c r="DS74" s="117"/>
       <c r="DT74" s="117"/>
       <c r="DU74" s="117"/>
@@ -24399,13 +25318,13 @@
       <c r="DW74" s="117"/>
       <c r="DX74" s="117"/>
       <c r="DY74" s="117"/>
-      <c r="DZ74" s="117">
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="DZ74" s="117"/>
       <c r="EA74" s="117"/>
       <c r="EB74" s="117"/>
       <c r="EC74" s="117"/>
-      <c r="ED74" s="117"/>
+      <c r="ED74" s="117">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="EE74" s="117"/>
       <c r="EF74" s="117"/>
       <c r="EG74" s="117"/>
@@ -24413,14 +25332,20 @@
       <c r="EI74" s="117"/>
       <c r="EJ74" s="117"/>
       <c r="EK74" s="117"/>
-      <c r="EL74" s="185"/>
-      <c r="EM74" s="185"/>
-      <c r="EN74" s="185"/>
-      <c r="EO74" s="185"/>
-      <c r="EP74" s="185"/>
-      <c r="EQ74" s="185"/>
-      <c r="ER74" s="185"/>
-      <c r="ES74" s="185"/>
+      <c r="EL74" s="117">
+        <v>0.92</v>
+      </c>
+      <c r="EM74" s="117"/>
+      <c r="EN74" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO74" s="117" t="s">
+        <v>770</v>
+      </c>
+      <c r="EP74" s="117"/>
+      <c r="EQ74" s="117"/>
+      <c r="ER74" s="117"/>
+      <c r="ES74" s="117"/>
       <c r="ET74" s="185"/>
       <c r="EU74" s="185"/>
       <c r="EV74" s="185"/>
@@ -24442,8 +25367,16 @@
       <c r="FL74" s="185"/>
       <c r="FM74" s="185"/>
       <c r="FN74" s="185"/>
-    </row>
-    <row r="75" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO74" s="185"/>
+      <c r="FP74" s="185"/>
+      <c r="FQ74" s="185"/>
+      <c r="FR74" s="185"/>
+      <c r="FS74" s="185"/>
+      <c r="FT74" s="185"/>
+      <c r="FU74" s="185"/>
+      <c r="FV74" s="185"/>
+    </row>
+    <row r="75" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>593</v>
       </c>
@@ -24721,16 +25654,10 @@
       <c r="DG75" s="114"/>
       <c r="DH75" s="114"/>
       <c r="DI75" s="114"/>
-      <c r="DJ75" s="75"/>
-      <c r="DK75" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM75" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ75" s="114"/>
+      <c r="DK75" s="114"/>
+      <c r="DL75" s="114"/>
+      <c r="DM75" s="114"/>
       <c r="DN75" s="75"/>
       <c r="DO75" s="114" t="s">
         <v>353</v>
@@ -24739,9 +25666,9 @@
         <v>354</v>
       </c>
       <c r="DQ75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR75" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR75" s="75"/>
       <c r="DS75" s="114" t="s">
         <v>353</v>
       </c>
@@ -24749,7 +25676,7 @@
         <v>354</v>
       </c>
       <c r="DU75" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV75" s="116"/>
       <c r="DW75" s="114" t="s">
@@ -24761,62 +25688,56 @@
       <c r="DY75" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ75" s="114"/>
-      <c r="EA75" s="114"/>
-      <c r="EB75" s="114"/>
-      <c r="EC75" s="114"/>
-      <c r="ED75" s="116"/>
-      <c r="EE75" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF75" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG75" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH75" s="114"/>
-      <c r="EI75" s="114"/>
-      <c r="EJ75" s="114"/>
-      <c r="EK75" s="114"/>
-      <c r="EL75" s="182"/>
-      <c r="EM75" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN75" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO75" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP75" s="182"/>
-      <c r="EQ75" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER75" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES75" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ75" s="116"/>
+      <c r="EA75" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB75" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC75" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED75" s="114"/>
+      <c r="EE75" s="114"/>
+      <c r="EF75" s="114"/>
+      <c r="EG75" s="114"/>
+      <c r="EH75" s="116"/>
+      <c r="EI75" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ75" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK75" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL75" s="114"/>
+      <c r="EM75" s="114"/>
+      <c r="EN75" s="114"/>
+      <c r="EO75" s="114"/>
+      <c r="EP75" s="114"/>
+      <c r="EQ75" s="114"/>
+      <c r="ER75" s="114"/>
+      <c r="ES75" s="114"/>
       <c r="ET75" s="182"/>
-      <c r="EU75" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV75" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW75" s="182" t="s">
+      <c r="EU75" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV75" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW75" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX75" s="182"/>
-      <c r="EY75" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ75" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA75" s="182" t="s">
+      <c r="EY75" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ75" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA75" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB75" s="182"/>
@@ -24849,9 +25770,29 @@
       <c r="FM75" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN75" s="177"/>
-    </row>
-    <row r="76" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN75" s="182"/>
+      <c r="FO75" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP75" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ75" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR75" s="182"/>
+      <c r="FS75" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT75" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU75" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV75" s="177"/>
+    </row>
+    <row r="76" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>113</v>
       </c>
@@ -24973,15 +25914,19 @@
       <c r="DG76" s="117"/>
       <c r="DH76" s="117"/>
       <c r="DI76" s="117"/>
-      <c r="DJ76" s="76"/>
+      <c r="DJ76" s="117">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="DK76" s="117"/>
-      <c r="DL76" s="117"/>
+      <c r="DL76" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM76" s="117"/>
       <c r="DN76" s="76"/>
       <c r="DO76" s="117"/>
       <c r="DP76" s="117"/>
       <c r="DQ76" s="117"/>
-      <c r="DR76" s="117"/>
+      <c r="DR76" s="76"/>
       <c r="DS76" s="117"/>
       <c r="DT76" s="117"/>
       <c r="DU76" s="117"/>
@@ -24989,13 +25934,13 @@
       <c r="DW76" s="117"/>
       <c r="DX76" s="117"/>
       <c r="DY76" s="117"/>
-      <c r="DZ76" s="117">
-        <v>0.45</v>
-      </c>
+      <c r="DZ76" s="117"/>
       <c r="EA76" s="117"/>
       <c r="EB76" s="117"/>
       <c r="EC76" s="117"/>
-      <c r="ED76" s="117"/>
+      <c r="ED76" s="117">
+        <v>0.45</v>
+      </c>
       <c r="EE76" s="117"/>
       <c r="EF76" s="117"/>
       <c r="EG76" s="117"/>
@@ -25003,14 +25948,18 @@
       <c r="EI76" s="117"/>
       <c r="EJ76" s="117"/>
       <c r="EK76" s="117"/>
-      <c r="EL76" s="185"/>
-      <c r="EM76" s="185"/>
-      <c r="EN76" s="185"/>
-      <c r="EO76" s="185"/>
-      <c r="EP76" s="185"/>
-      <c r="EQ76" s="185"/>
-      <c r="ER76" s="185"/>
-      <c r="ES76" s="185"/>
+      <c r="EL76" s="117">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="EM76" s="117"/>
+      <c r="EN76" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO76" s="117"/>
+      <c r="EP76" s="117"/>
+      <c r="EQ76" s="117"/>
+      <c r="ER76" s="117"/>
+      <c r="ES76" s="117"/>
       <c r="ET76" s="185"/>
       <c r="EU76" s="185"/>
       <c r="EV76" s="185"/>
@@ -25032,8 +25981,16 @@
       <c r="FL76" s="185"/>
       <c r="FM76" s="185"/>
       <c r="FN76" s="185"/>
-    </row>
-    <row r="77" spans="1:170" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FO76" s="185"/>
+      <c r="FP76" s="185"/>
+      <c r="FQ76" s="185"/>
+      <c r="FR76" s="185"/>
+      <c r="FS76" s="185"/>
+      <c r="FT76" s="185"/>
+      <c r="FU76" s="185"/>
+      <c r="FV76" s="185"/>
+    </row>
+    <row r="77" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>596</v>
       </c>
@@ -25311,16 +26268,10 @@
       <c r="DG77" s="114"/>
       <c r="DH77" s="114"/>
       <c r="DI77" s="114"/>
-      <c r="DJ77" s="75"/>
-      <c r="DK77" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DM77" s="114" t="s">
-        <v>355</v>
-      </c>
+      <c r="DJ77" s="114"/>
+      <c r="DK77" s="114"/>
+      <c r="DL77" s="114"/>
+      <c r="DM77" s="114"/>
       <c r="DN77" s="75"/>
       <c r="DO77" s="114" t="s">
         <v>353</v>
@@ -25329,9 +26280,9 @@
         <v>354</v>
       </c>
       <c r="DQ77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DR77" s="116"/>
+        <v>355</v>
+      </c>
+      <c r="DR77" s="75"/>
       <c r="DS77" s="114" t="s">
         <v>353</v>
       </c>
@@ -25339,7 +26290,7 @@
         <v>354</v>
       </c>
       <c r="DU77" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DV77" s="116"/>
       <c r="DW77" s="114" t="s">
@@ -25351,62 +26302,56 @@
       <c r="DY77" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="DZ77" s="114"/>
-      <c r="EA77" s="114"/>
-      <c r="EB77" s="114"/>
-      <c r="EC77" s="114"/>
-      <c r="ED77" s="116"/>
-      <c r="EE77" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF77" s="114" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG77" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH77" s="114"/>
-      <c r="EI77" s="114"/>
-      <c r="EJ77" s="114"/>
-      <c r="EK77" s="114"/>
-      <c r="EL77" s="182"/>
-      <c r="EM77" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="EN77" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="EO77" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="EP77" s="182"/>
-      <c r="EQ77" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="ER77" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="ES77" s="181" t="s">
-        <v>355</v>
-      </c>
+      <c r="DZ77" s="116"/>
+      <c r="EA77" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EB77" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EC77" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="ED77" s="114"/>
+      <c r="EE77" s="114"/>
+      <c r="EF77" s="114"/>
+      <c r="EG77" s="114"/>
+      <c r="EH77" s="116"/>
+      <c r="EI77" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ77" s="114" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK77" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL77" s="114"/>
+      <c r="EM77" s="114"/>
+      <c r="EN77" s="114"/>
+      <c r="EO77" s="114"/>
+      <c r="EP77" s="114"/>
+      <c r="EQ77" s="114"/>
+      <c r="ER77" s="114"/>
+      <c r="ES77" s="114"/>
       <c r="ET77" s="182"/>
-      <c r="EU77" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EV77" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="EW77" s="182" t="s">
+      <c r="EU77" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EV77" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="EW77" s="181" t="s">
         <v>355</v>
       </c>
       <c r="EX77" s="182"/>
-      <c r="EY77" s="182" t="s">
-        <v>353</v>
-      </c>
-      <c r="EZ77" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="FA77" s="182" t="s">
+      <c r="EY77" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="EZ77" s="181" t="s">
+        <v>354</v>
+      </c>
+      <c r="FA77" s="181" t="s">
         <v>355</v>
       </c>
       <c r="FB77" s="182"/>
@@ -25439,9 +26384,29 @@
       <c r="FM77" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="FN77" s="177"/>
-    </row>
-    <row r="78" spans="1:170" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FN77" s="182"/>
+      <c r="FO77" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FP77" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ77" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR77" s="182"/>
+      <c r="FS77" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="FT77" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU77" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV77" s="177"/>
+    </row>
+    <row r="78" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>113</v>
       </c>
@@ -25563,15 +26528,19 @@
       <c r="DG78" s="117"/>
       <c r="DH78" s="117"/>
       <c r="DI78" s="117"/>
-      <c r="DJ78" s="76"/>
+      <c r="DJ78" s="117">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="DK78" s="117"/>
-      <c r="DL78" s="117"/>
+      <c r="DL78" s="115" t="s">
+        <v>754</v>
+      </c>
       <c r="DM78" s="117"/>
       <c r="DN78" s="76"/>
       <c r="DO78" s="117"/>
       <c r="DP78" s="117"/>
       <c r="DQ78" s="117"/>
-      <c r="DR78" s="117"/>
+      <c r="DR78" s="76"/>
       <c r="DS78" s="117"/>
       <c r="DT78" s="117"/>
       <c r="DU78" s="117"/>
@@ -25579,13 +26548,13 @@
       <c r="DW78" s="117"/>
       <c r="DX78" s="117"/>
       <c r="DY78" s="117"/>
-      <c r="DZ78" s="117">
-        <v>0.38</v>
-      </c>
+      <c r="DZ78" s="117"/>
       <c r="EA78" s="117"/>
       <c r="EB78" s="117"/>
       <c r="EC78" s="117"/>
-      <c r="ED78" s="117"/>
+      <c r="ED78" s="117">
+        <v>0.38</v>
+      </c>
       <c r="EE78" s="117"/>
       <c r="EF78" s="117"/>
       <c r="EG78" s="117"/>
@@ -25593,14 +26562,20 @@
       <c r="EI78" s="117"/>
       <c r="EJ78" s="117"/>
       <c r="EK78" s="117"/>
-      <c r="EL78" s="185"/>
-      <c r="EM78" s="185"/>
-      <c r="EN78" s="185"/>
-      <c r="EO78" s="185"/>
-      <c r="EP78" s="185"/>
-      <c r="EQ78" s="185"/>
-      <c r="ER78" s="185"/>
-      <c r="ES78" s="185"/>
+      <c r="EL78" s="117">
+        <v>1.6</v>
+      </c>
+      <c r="EM78" s="117"/>
+      <c r="EN78" s="115" t="s">
+        <v>754</v>
+      </c>
+      <c r="EO78" s="117" t="s">
+        <v>769</v>
+      </c>
+      <c r="EP78" s="117"/>
+      <c r="EQ78" s="117"/>
+      <c r="ER78" s="117"/>
+      <c r="ES78" s="117"/>
       <c r="ET78" s="185"/>
       <c r="EU78" s="185"/>
       <c r="EV78" s="185"/>
@@ -25622,6 +26597,14 @@
       <c r="FL78" s="185"/>
       <c r="FM78" s="185"/>
       <c r="FN78" s="185"/>
+      <c r="FO78" s="185"/>
+      <c r="FP78" s="185"/>
+      <c r="FQ78" s="185"/>
+      <c r="FR78" s="185"/>
+      <c r="FS78" s="185"/>
+      <c r="FT78" s="185"/>
+      <c r="FU78" s="185"/>
+      <c r="FV78" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25634,7 +26617,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25684,7 +26667,7 @@
         <v>697</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -25714,7 +26697,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>130</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -25731,7 +26714,7 @@
         <v>698</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -25761,7 +26744,7 @@
         <v>543</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>543</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -25778,7 +26761,7 @@
         <v>699</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -25805,7 +26788,9 @@
       <c r="D11" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="80" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -25818,7 +26803,9 @@
       <c r="D12" s="80" t="s">
         <v>700</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="80" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
@@ -32349,7 +33336,7 @@
       <c r="M39" s="128"/>
       <c r="N39" s="125"/>
     </row>
-    <row r="40" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="125" t="s">
         <v>417</v>
       </c>
@@ -32371,7 +33358,7 @@
       <c r="M40" s="128"/>
       <c r="N40" s="125"/>
     </row>
-    <row r="41" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
         <v>523</v>
       </c>
@@ -32393,7 +33380,7 @@
       <c r="M41" s="132"/>
       <c r="N41" s="130"/>
     </row>
-    <row r="42" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
         <v>523</v>
       </c>
@@ -32415,7 +33402,7 @@
       <c r="M42" s="132"/>
       <c r="N42" s="130"/>
     </row>
-    <row r="43" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
         <v>523</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="780">
   <si>
     <t>Name</t>
   </si>
@@ -2302,9 +2302,6 @@
     <t>Hayashi2010Pharmacokinetic</t>
   </si>
   <si>
-    <t>1.98 mL/min kg</t>
-  </si>
-  <si>
     <t>Wise1991Pharmacokinetics</t>
   </si>
   <si>
@@ -2317,18 +2314,9 @@
     <t>Between 70% and 80% unbound</t>
   </si>
   <si>
-    <t>1.04 mL/min kg</t>
-  </si>
-  <si>
-    <t>1.83 mL/min kg</t>
-  </si>
-  <si>
     <t>When given with PIP (significant difference if alone)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0 mL/min kg</t>
-  </si>
-  <si>
     <t>Hyatt1995InVitro</t>
   </si>
   <si>
@@ -2363,6 +2351,30 @@
   </si>
   <si>
     <t>0.0268 g/mL</t>
+  </si>
+  <si>
+    <t>0.022 mL/min kg</t>
+  </si>
+  <si>
+    <t>1.27 mL/min kg</t>
+  </si>
+  <si>
+    <t>3.64 mL/min kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.27 mL/min kg</t>
+  </si>
+  <si>
+    <t>0.006 mL/min kg</t>
+  </si>
+  <si>
+    <t>1.69 mL/min kg</t>
+  </si>
+  <si>
+    <t>2.57 mL/min kg</t>
+  </si>
+  <si>
+    <t>2.0 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -4856,10 +4868,10 @@
   <dimension ref="A1:FV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DN51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DF26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EN74" sqref="EN74"/>
+      <selection pane="bottomRight" activeCell="DJ47" sqref="DJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -10132,7 +10144,7 @@
         <v>754</v>
       </c>
       <c r="DM19" s="115" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="DN19" s="115">
         <v>1</v>
@@ -10178,7 +10190,7 @@
         <v>754</v>
       </c>
       <c r="EO19" s="115" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="EP19" s="115">
         <v>0.99</v>
@@ -10363,7 +10375,7 @@
       <c r="DH20" s="115"/>
       <c r="DI20" s="115"/>
       <c r="DJ20" s="115" t="s">
-        <v>340</v>
+        <v>772</v>
       </c>
       <c r="DK20" s="115"/>
       <c r="DL20" s="115"/>
@@ -10405,7 +10417,7 @@
       <c r="EJ20" s="115"/>
       <c r="EK20" s="115"/>
       <c r="EL20" s="115" t="s">
-        <v>340</v>
+        <v>776</v>
       </c>
       <c r="EM20" s="115"/>
       <c r="EN20" s="115"/>
@@ -10593,14 +10605,14 @@
       <c r="DH21" s="115"/>
       <c r="DI21" s="115"/>
       <c r="DJ21" s="115" t="s">
-        <v>611</v>
+        <v>773</v>
       </c>
       <c r="DK21" s="115"/>
       <c r="DL21" s="115" t="s">
+        <v>755</v>
+      </c>
+      <c r="DM21" s="115" t="s">
         <v>756</v>
-      </c>
-      <c r="DM21" s="115" t="s">
-        <v>757</v>
       </c>
       <c r="DN21" s="115" t="s">
         <v>127</v>
@@ -10639,14 +10651,14 @@
       <c r="EJ21" s="115"/>
       <c r="EK21" s="115"/>
       <c r="EL21" s="115" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="EM21" s="115"/>
       <c r="EN21" s="115" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="EO21" s="115" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="EP21" s="115" t="s">
         <v>736</v>
@@ -10845,14 +10857,14 @@
       </c>
       <c r="DI22" s="115"/>
       <c r="DJ22" s="115" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="DK22" s="115"/>
       <c r="DL22" s="115" t="s">
+        <v>755</v>
+      </c>
+      <c r="DM22" s="115" t="s">
         <v>756</v>
-      </c>
-      <c r="DM22" s="115" t="s">
-        <v>757</v>
       </c>
       <c r="DN22" s="115" t="s">
         <v>262</v>
@@ -10891,14 +10903,14 @@
       <c r="EJ22" s="115"/>
       <c r="EK22" s="115"/>
       <c r="EL22" s="115" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="EM22" s="115"/>
       <c r="EN22" s="115" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="EO22" s="115" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="EP22" s="115" t="s">
         <v>737</v>
@@ -11564,14 +11576,14 @@
       <c r="DH24" s="115"/>
       <c r="DI24" s="115"/>
       <c r="DJ24" s="115" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="DK24" s="115"/>
       <c r="DL24" s="115" t="s">
+        <v>755</v>
+      </c>
+      <c r="DM24" s="115" t="s">
         <v>756</v>
-      </c>
-      <c r="DM24" s="115" t="s">
-        <v>757</v>
       </c>
       <c r="DN24" s="115" t="str">
         <f t="shared" si="0"/>
@@ -11651,14 +11663,14 @@
       <c r="EJ24" s="115"/>
       <c r="EK24" s="115"/>
       <c r="EL24" s="115" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="EM24" s="115"/>
       <c r="EN24" s="115" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="EO24" s="115" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="EP24" s="115" t="s">
         <v>736</v>
@@ -15781,14 +15793,14 @@
         <v>747</v>
       </c>
       <c r="DJ40" s="119" t="s">
-        <v>691</v>
+        <v>779</v>
       </c>
       <c r="DK40" s="119"/>
       <c r="DL40" s="119" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="DM40" s="119" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="DN40" s="119" t="s">
         <v>377</v>
@@ -16003,7 +16015,7 @@
       <c r="DH41" s="119"/>
       <c r="DI41" s="119"/>
       <c r="DJ41" s="119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DK41" s="119"/>
       <c r="DL41" s="119"/>
@@ -19754,7 +19766,7 @@
         <v>754</v>
       </c>
       <c r="DM56" s="117" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="DN56" s="76"/>
       <c r="DO56" s="117"/>
@@ -19790,7 +19802,7 @@
         <v>754</v>
       </c>
       <c r="EO56" s="117" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="EP56" s="117"/>
       <c r="EQ56" s="117"/>
@@ -20986,7 +20998,7 @@
         <v>754</v>
       </c>
       <c r="DM60" s="117" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="DN60" s="76"/>
       <c r="DO60" s="117"/>
@@ -21022,7 +21034,7 @@
         <v>754</v>
       </c>
       <c r="EO60" s="117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="EP60" s="117"/>
       <c r="EQ60" s="117"/>
@@ -21604,7 +21616,7 @@
         <v>754</v>
       </c>
       <c r="DM62" s="117" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="DN62" s="76"/>
       <c r="DO62" s="117"/>
@@ -21640,7 +21652,7 @@
         <v>754</v>
       </c>
       <c r="EO62" s="117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="EP62" s="117"/>
       <c r="EQ62" s="117"/>
@@ -22256,7 +22268,7 @@
         <v>754</v>
       </c>
       <c r="EO64" s="117" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="EP64" s="117"/>
       <c r="EQ64" s="117"/>
@@ -22838,7 +22850,7 @@
         <v>754</v>
       </c>
       <c r="DM66" s="117" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="DN66" s="76"/>
       <c r="DO66" s="117"/>
@@ -22874,7 +22886,7 @@
         <v>754</v>
       </c>
       <c r="EO66" s="117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="EP66" s="117"/>
       <c r="EQ66" s="117"/>
@@ -24070,7 +24082,7 @@
         <v>754</v>
       </c>
       <c r="DM70" s="117" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="DN70" s="76"/>
       <c r="DO70" s="117"/>
@@ -24106,7 +24118,7 @@
         <v>754</v>
       </c>
       <c r="EO70" s="117" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="EP70" s="117"/>
       <c r="EQ70" s="117"/>
@@ -24688,7 +24700,7 @@
         <v>754</v>
       </c>
       <c r="DM72" s="117" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="DN72" s="76"/>
       <c r="DO72" s="117"/>
@@ -24724,7 +24736,7 @@
         <v>754</v>
       </c>
       <c r="EO72" s="117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="EP72" s="117"/>
       <c r="EQ72" s="117"/>
@@ -25340,7 +25352,7 @@
         <v>754</v>
       </c>
       <c r="EO74" s="117" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="EP74" s="117"/>
       <c r="EQ74" s="117"/>
@@ -26570,7 +26582,7 @@
         <v>754</v>
       </c>
       <c r="EO78" s="117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="EP78" s="117"/>
       <c r="EQ78" s="117"/>
@@ -26667,7 +26679,7 @@
         <v>697</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -26714,7 +26726,7 @@
         <v>698</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -26761,7 +26773,7 @@
         <v>699</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -26804,7 +26816,7 @@
         <v>700</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\biogears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\biogears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="852" windowWidth="15096" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -3797,37 +3797,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="141" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="145" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" style="141" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="145" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="145" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="145" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.7109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="145" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="145" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="145"/>
+    <col min="5" max="5" width="14.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="145" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="145" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="10.6640625" style="145" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="145" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="140"/>
       <c r="B1" s="201" t="s">
         <v>578</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="U1" s="203"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="141" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="140" t="s">
         <v>557</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="T3" s="158"/>
       <c r="U3" s="159"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="148" t="s">
         <v>405</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="140" t="s">
         <v>585</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="T5" s="152"/>
       <c r="U5" s="153"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="149" t="s">
         <v>5</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="149" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="T7" s="156"/>
       <c r="U7" s="157"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="149" t="s">
         <v>7</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="149" t="s">
         <v>163</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="140" t="s">
         <v>586</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="T10" s="152"/>
       <c r="U10" s="153"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="s">
         <v>584</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="T11" s="156"/>
       <c r="U11" s="157"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="149" t="s">
         <v>550</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="T12" s="156"/>
       <c r="U12" s="157"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="149" t="s">
         <v>61</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="149" t="s">
         <v>546</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="149" t="s">
         <v>547</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="149" t="s">
         <v>63</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="160" t="s">
         <v>588</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="T17" s="152"/>
       <c r="U17" s="153"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="149" t="s">
         <v>579</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="T18" s="156"/>
       <c r="U18" s="157"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="149" t="s">
         <v>8</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="149" t="s">
         <v>555</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="T20" s="156"/>
       <c r="U20" s="157"/>
     </row>
-    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="140" t="s">
         <v>587</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="T21" s="152"/>
       <c r="U21" s="153"/>
     </row>
-    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="149" t="s">
         <v>552</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="T22" s="156"/>
       <c r="U22" s="157"/>
     </row>
-    <row r="23" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="149" t="s">
         <v>553</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="T23" s="156"/>
       <c r="U23" s="157"/>
     </row>
-    <row r="24" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="149" t="s">
         <v>551</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="T24" s="156"/>
       <c r="U24" s="157"/>
     </row>
-    <row r="25" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="149" t="s">
         <v>556</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="T25" s="156"/>
       <c r="U25" s="157"/>
     </row>
-    <row r="26" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="149" t="s">
         <v>554</v>
       </c>
@@ -4867,176 +4867,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DF26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DJ47" sqref="DJ47"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.28515625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.5703125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="11.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="22.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="37" width="26.140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="15.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="16.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="14.28515625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="13.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="45" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="14.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="49" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="11.5703125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.85546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="16.7109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="11.42578125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="12.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="18.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="38.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.33203125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.5546875" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="22.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="37" width="26.109375" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="15.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="14.33203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="13.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="45" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="14.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="49" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="11.5546875" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.88671875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.6640625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="11.44140625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="12.33203125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="18.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="24" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.28515625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="18.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="18.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="13.85546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="73" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="11.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="77" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.42578125" style="105" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="81" width="21.5703125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="82" max="82" width="14.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="85" width="18.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="12.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="20.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="16.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.33203125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="18.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="18.33203125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="13.88671875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="73" width="14.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="11.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="14.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="21.44140625" style="105" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="81" width="21.5546875" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="14.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="85" width="18.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="12.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="20.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="16.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="89" max="89" width="24" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="12.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="58.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="15.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="104" max="104" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="105" max="105" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="106" max="106" width="13.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="108" max="108" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="109" max="109" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="15.140625" style="106" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="14.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="112" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="20.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="24.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="20.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="27.28515625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="13.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="121" max="121" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="122" max="122" width="14.28515625" style="106" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="125" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="14.42578125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="128" max="128" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="21.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="132" max="132" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="133" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="134" max="134" width="23.7109375" style="106" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="15.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="15.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="30.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="15.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="140" max="140" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="142" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="144" max="144" width="27.140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="15.5703125" style="106" customWidth="1" collapsed="1"/>
-    <col min="147" max="149" width="15.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="17.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="152" max="152" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="8.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="155" max="155" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="156" max="156" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="11.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="160" max="160" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="15.7109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="164" max="164" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="11.42578125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="19.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="168" max="168" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="169" max="169" width="19.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="22.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="15.85546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="172" max="172" width="16.7109375" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="173" max="173" width="22.5703125" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="174" max="174" width="26.140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="12.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="15.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="58.33203125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="15.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="104" max="104" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="105" max="105" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="106" max="106" width="13.44140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="108" max="108" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="110" max="110" width="15.109375" style="106" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="14.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="27.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="20.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="24.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="20.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="27.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="27.33203125" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="13.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="121" max="121" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="122" max="122" width="14.33203125" style="106" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="124" max="125" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="14.44140625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="128" max="128" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="21.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="132" max="132" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="133" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="134" max="134" width="23.6640625" style="106" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="15.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="15.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="30.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="15.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="140" max="140" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="142" width="15.5546875" style="106" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="144" max="144" width="27.109375" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="15.5546875" style="106" customWidth="1" collapsed="1"/>
+    <col min="147" max="149" width="15.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="17.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="152" max="152" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="153" max="153" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="154" max="154" width="8.5546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="11.88671875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="15.6640625" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="164" max="164" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="11.44140625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="19.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="168" max="168" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="19.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="22.5546875" style="106" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="15.88671875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="172" max="172" width="16.6640625" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="22.5546875" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="26.109375" style="106" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="175" max="177" width="23" style="106" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="178" max="178" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="16384" width="9.140625" style="29"/>
+    <col min="178" max="178" width="20.5546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64"/>
       <c r="B1" s="59"/>
       <c r="C1" s="103" t="s">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="FV1" s="177"/>
     </row>
-    <row r="2" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>335</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="FV3" s="183"/>
     </row>
-    <row r="4" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>718</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="FU5" s="186"/>
       <c r="FV5" s="185"/>
     </row>
-    <row r="6" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="FU6" s="186"/>
       <c r="FV6" s="185"/>
     </row>
-    <row r="7" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>540</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="FU7" s="186"/>
       <c r="FV7" s="185"/>
     </row>
-    <row r="8" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>541</v>
       </c>
@@ -7500,7 +7500,7 @@
       <c r="FU8" s="186"/>
       <c r="FV8" s="185"/>
     </row>
-    <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>715</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="FU9" s="186"/>
       <c r="FV9" s="185"/>
     </row>
-    <row r="10" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>43</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="FU10" s="186"/>
       <c r="FV10" s="185"/>
     </row>
-    <row r="11" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>74</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="FU11" s="186"/>
       <c r="FV11" s="185"/>
     </row>
-    <row r="12" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>73</v>
       </c>
@@ -8356,7 +8356,7 @@
       <c r="FU12" s="186"/>
       <c r="FV12" s="185"/>
     </row>
-    <row r="13" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86" t="s">
         <v>331</v>
       </c>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="FV13" s="177"/>
     </row>
-    <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>655</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>642</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>612</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="86" t="s">
         <v>332</v>
       </c>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="FV17" s="177"/>
     </row>
-    <row r="18" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>94</v>
       </c>
@@ -9986,7 +9986,7 @@
       <c r="FU18" s="186"/>
       <c r="FV18" s="185"/>
     </row>
-    <row r="19" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>90</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="FU19" s="186"/>
       <c r="FV19" s="185"/>
     </row>
-    <row r="20" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>92</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="FU20" s="186"/>
       <c r="FV20" s="185"/>
     </row>
-    <row r="21" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>370</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="FU21" s="186"/>
       <c r="FV21" s="185"/>
     </row>
-    <row r="22" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>93</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="FU22" s="186"/>
       <c r="FV22" s="185"/>
     </row>
-    <row r="23" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="87" t="s">
         <v>330</v>
       </c>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="FV23" s="177"/>
     </row>
-    <row r="24" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="88" t="s">
         <v>326</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="FU24" s="185"/>
       <c r="FV24" s="185"/>
     </row>
-    <row r="25" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="87" t="s">
         <v>325</v>
       </c>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="FV25" s="177"/>
     </row>
-    <row r="26" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="88" t="s">
         <v>327</v>
       </c>
@@ -12338,7 +12338,7 @@
       <c r="FU26" s="185"/>
       <c r="FV26" s="185"/>
     </row>
-    <row r="27" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="88" t="s">
         <v>371</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="FU27" s="186"/>
       <c r="FV27" s="185"/>
     </row>
-    <row r="28" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88" t="s">
         <v>328</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="FU28" s="185"/>
       <c r="FV28" s="185"/>
     </row>
-    <row r="29" spans="1:178" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:178" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88" t="s">
         <v>329</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="FU29" s="185"/>
       <c r="FV29" s="185"/>
     </row>
-    <row r="30" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="86" t="s">
         <v>333</v>
       </c>
@@ -13430,7 +13430,7 @@
       </c>
       <c r="FV30" s="177"/>
     </row>
-    <row r="31" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
         <v>88</v>
       </c>
@@ -13640,7 +13640,7 @@
       <c r="FU31" s="186"/>
       <c r="FV31" s="185"/>
     </row>
-    <row r="32" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>111</v>
       </c>
@@ -13850,7 +13850,7 @@
       <c r="FU32" s="186"/>
       <c r="FV32" s="185"/>
     </row>
-    <row r="33" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>91</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="FU33" s="186"/>
       <c r="FV33" s="185"/>
     </row>
-    <row r="34" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
         <v>90</v>
       </c>
@@ -14378,7 +14378,7 @@
       <c r="FU34" s="186"/>
       <c r="FV34" s="185"/>
     </row>
-    <row r="35" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>87</v>
       </c>
@@ -14586,7 +14586,7 @@
       <c r="FU35" s="186"/>
       <c r="FV35" s="185"/>
     </row>
-    <row r="36" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>89</v>
       </c>
@@ -14796,7 +14796,7 @@
       <c r="FU36" s="186"/>
       <c r="FV36" s="185"/>
     </row>
-    <row r="37" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="86" t="s">
         <v>334</v>
       </c>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="FV37" s="177"/>
     </row>
-    <row r="38" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>317</v>
       </c>
@@ -15436,7 +15436,7 @@
       <c r="FU38" s="185"/>
       <c r="FV38" s="185"/>
     </row>
-    <row r="39" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>318</v>
       </c>
@@ -15654,7 +15654,7 @@
       <c r="FU39" s="185"/>
       <c r="FV39" s="185"/>
     </row>
-    <row r="40" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>319</v>
       </c>
@@ -15878,7 +15878,7 @@
       <c r="FU40" s="185"/>
       <c r="FV40" s="185"/>
     </row>
-    <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>626</v>
       </c>
@@ -16096,7 +16096,7 @@
       <c r="FU41" s="185"/>
       <c r="FV41" s="185"/>
     </row>
-    <row r="42" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>3</v>
       </c>
@@ -16314,7 +16314,7 @@
       <c r="FU42" s="185"/>
       <c r="FV42" s="185"/>
     </row>
-    <row r="43" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>320</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="FU43" s="185"/>
       <c r="FV43" s="185"/>
     </row>
-    <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>625</v>
       </c>
@@ -16780,7 +16780,7 @@
       <c r="FU44" s="185"/>
       <c r="FV44" s="185"/>
     </row>
-    <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>624</v>
       </c>
@@ -17020,7 +17020,7 @@
       <c r="FU45" s="185"/>
       <c r="FV45" s="185"/>
     </row>
-    <row r="46" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>4</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="FU46" s="185"/>
       <c r="FV46" s="185"/>
     </row>
-    <row r="47" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>321</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="FU47" s="185"/>
       <c r="FV47" s="185"/>
     </row>
-    <row r="48" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>322</v>
       </c>
@@ -17674,7 +17674,7 @@
       <c r="FU48" s="185"/>
       <c r="FV48" s="185"/>
     </row>
-    <row r="49" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>323</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="FU49" s="185"/>
       <c r="FV49" s="185"/>
     </row>
-    <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69" t="s">
         <v>622</v>
       </c>
@@ -18110,7 +18110,7 @@
       <c r="FU50" s="185"/>
       <c r="FV50" s="185"/>
     </row>
-    <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>660</v>
       </c>
@@ -18388,7 +18388,7 @@
       <c r="FU51" s="185"/>
       <c r="FV51" s="185"/>
     </row>
-    <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
         <v>661</v>
       </c>
@@ -18606,7 +18606,7 @@
       <c r="FU52" s="185"/>
       <c r="FV52" s="185"/>
     </row>
-    <row r="53" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="164" t="s">
         <v>594</v>
       </c>
@@ -19022,7 +19022,7 @@
       </c>
       <c r="FV53" s="177"/>
     </row>
-    <row r="54" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="70" t="s">
         <v>113</v>
       </c>
@@ -19220,7 +19220,7 @@
       <c r="FU54" s="185"/>
       <c r="FV54" s="185"/>
     </row>
-    <row r="55" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
         <v>591</v>
       </c>
@@ -19636,7 +19636,7 @@
       </c>
       <c r="FV55" s="177"/>
     </row>
-    <row r="56" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="70" t="s">
         <v>113</v>
       </c>
@@ -19838,7 +19838,7 @@
       <c r="FU56" s="185"/>
       <c r="FV56" s="185"/>
     </row>
-    <row r="57" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="68" t="s">
         <v>590</v>
       </c>
@@ -20254,7 +20254,7 @@
       </c>
       <c r="FV57" s="177"/>
     </row>
-    <row r="58" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70" t="s">
         <v>113</v>
       </c>
@@ -20452,7 +20452,7 @@
       <c r="FU58" s="185"/>
       <c r="FV58" s="185"/>
     </row>
-    <row r="59" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="68" t="s">
         <v>595</v>
       </c>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="FV59" s="177"/>
     </row>
-    <row r="60" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="70" t="s">
         <v>113</v>
       </c>
@@ -21070,7 +21070,7 @@
       <c r="FU60" s="185"/>
       <c r="FV60" s="185"/>
     </row>
-    <row r="61" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>600</v>
       </c>
@@ -21486,7 +21486,7 @@
       </c>
       <c r="FV61" s="177"/>
     </row>
-    <row r="62" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="70" t="s">
         <v>113</v>
       </c>
@@ -21688,7 +21688,7 @@
       <c r="FU62" s="185"/>
       <c r="FV62" s="185"/>
     </row>
-    <row r="63" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>601</v>
       </c>
@@ -22104,7 +22104,7 @@
       </c>
       <c r="FV63" s="177"/>
     </row>
-    <row r="64" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="70" t="s">
         <v>113</v>
       </c>
@@ -22304,7 +22304,7 @@
       <c r="FU64" s="185"/>
       <c r="FV64" s="185"/>
     </row>
-    <row r="65" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="68" t="s">
         <v>597</v>
       </c>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="FV65" s="177"/>
     </row>
-    <row r="66" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="70" t="s">
         <v>113</v>
       </c>
@@ -22922,7 +22922,7 @@
       <c r="FU66" s="185"/>
       <c r="FV66" s="185"/>
     </row>
-    <row r="67" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="68" t="s">
         <v>592</v>
       </c>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="FV67" s="177"/>
     </row>
-    <row r="68" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="70" t="s">
         <v>113</v>
       </c>
@@ -23536,7 +23536,7 @@
       <c r="FU68" s="185"/>
       <c r="FV68" s="185"/>
     </row>
-    <row r="69" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="68" t="s">
         <v>589</v>
       </c>
@@ -23952,7 +23952,7 @@
       </c>
       <c r="FV69" s="177"/>
     </row>
-    <row r="70" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="70" t="s">
         <v>113</v>
       </c>
@@ -24154,7 +24154,7 @@
       <c r="FU70" s="185"/>
       <c r="FV70" s="185"/>
     </row>
-    <row r="71" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
         <v>598</v>
       </c>
@@ -24570,7 +24570,7 @@
       </c>
       <c r="FV71" s="177"/>
     </row>
-    <row r="72" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70" t="s">
         <v>113</v>
       </c>
@@ -24772,7 +24772,7 @@
       <c r="FU72" s="185"/>
       <c r="FV72" s="185"/>
     </row>
-    <row r="73" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
         <v>599</v>
       </c>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="FV73" s="177"/>
     </row>
-    <row r="74" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
         <v>113</v>
       </c>
@@ -25388,7 +25388,7 @@
       <c r="FU74" s="185"/>
       <c r="FV74" s="185"/>
     </row>
-    <row r="75" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="68" t="s">
         <v>593</v>
       </c>
@@ -25804,7 +25804,7 @@
       </c>
       <c r="FV75" s="177"/>
     </row>
-    <row r="76" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
         <v>113</v>
       </c>
@@ -26002,7 +26002,7 @@
       <c r="FU76" s="185"/>
       <c r="FV76" s="185"/>
     </row>
-    <row r="77" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="68" t="s">
         <v>596</v>
       </c>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="FV77" s="177"/>
     </row>
-    <row r="78" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
         <v>113</v>
       </c>
@@ -26632,23 +26632,23 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
       <c r="D1" s="195"/>
       <c r="E1" s="83"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="84" t="s">
         <v>2</v>
@@ -26695,7 +26695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -26712,7 +26712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="84" t="s">
         <v>2</v>
@@ -26742,7 +26742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="84" t="s">
         <v>2</v>
@@ -26789,7 +26789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -26819,7 +26819,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="84" t="s">
         <v>2</v>
@@ -26832,7 +26832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -26845,7 +26845,7 @@
       </c>
       <c r="E14" s="80"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="E15" s="80"/>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="84" t="s">
         <v>2</v>
@@ -26871,7 +26871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -26884,7 +26884,7 @@
       </c>
       <c r="E17" s="80"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="E18" s="80"/>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="84" t="s">
         <v>2</v>
@@ -26910,7 +26910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="79" t="s">
         <v>60</v>
       </c>
@@ -26921,7 +26921,7 @@
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>53</v>
       </c>
@@ -26932,7 +26932,7 @@
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="84" t="s">
         <v>2</v>
@@ -26945,7 +26945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>60</v>
       </c>
@@ -26956,7 +26956,7 @@
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>53</v>
       </c>
@@ -26967,7 +26967,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="84" t="s">
         <v>2</v>
@@ -26980,7 +26980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>60</v>
       </c>
@@ -26991,7 +26991,7 @@
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
         <v>53</v>
       </c>
@@ -27002,7 +27002,7 @@
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
       <c r="B28" s="84" t="s">
         <v>2</v>
@@ -27015,7 +27015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>60</v>
       </c>
@@ -27026,7 +27026,7 @@
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
     </row>
-    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>53</v>
       </c>
@@ -27051,25 +27051,25 @@
       <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
@@ -27087,7 +27087,7 @@
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -27147,7 +27147,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -27207,7 +27207,7 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>77</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
@@ -27339,7 +27339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
@@ -27383,7 +27383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>80</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>82</v>
       </c>
@@ -27515,7 +27515,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -27559,7 +27559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>618</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -27647,7 +27647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>99</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>0.78959979999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>618</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>99</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>618</v>
       </c>
@@ -27867,7 +27867,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>99</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>618</v>
       </c>
@@ -27999,7 +27999,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>2</v>
       </c>
@@ -28021,7 +28021,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>99</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>620</v>
       </c>
@@ -28087,7 +28087,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>2</v>
       </c>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -28140,14 +28140,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="35.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>134</v>
       </c>
@@ -28156,7 +28156,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="82"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -28173,14 +28173,14 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="82"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>128</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>185</v>
       </c>
@@ -28214,7 +28214,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>129</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>184</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>183</v>
       </c>
@@ -28282,7 +28282,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>174</v>
       </c>
@@ -28299,7 +28299,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>130</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>104</v>
       </c>
@@ -28342,22 +28342,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="37.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>145</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>141</v>
       </c>
@@ -28391,7 +28391,7 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>141</v>
       </c>
@@ -28405,7 +28405,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>141</v>
       </c>
@@ -28419,7 +28419,7 @@
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>141</v>
       </c>
@@ -28433,7 +28433,7 @@
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>141</v>
       </c>
@@ -28447,7 +28447,7 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>141</v>
       </c>
@@ -28461,7 +28461,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>141</v>
       </c>
@@ -28475,7 +28475,7 @@
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>141</v>
       </c>
@@ -28489,7 +28489,7 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>141</v>
       </c>
@@ -28503,7 +28503,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>153</v>
       </c>
@@ -28515,7 +28515,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
@@ -28527,7 +28527,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>155</v>
       </c>
@@ -28539,7 +28539,7 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>162</v>
       </c>
@@ -28551,7 +28551,7 @@
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>396</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>141</v>
       </c>
@@ -28585,7 +28585,7 @@
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>141</v>
       </c>
@@ -28599,7 +28599,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>141</v>
       </c>
@@ -28613,7 +28613,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>141</v>
       </c>
@@ -28627,7 +28627,7 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>141</v>
       </c>
@@ -28641,7 +28641,7 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>141</v>
       </c>
@@ -28655,7 +28655,7 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>141</v>
       </c>
@@ -28669,7 +28669,7 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>141</v>
       </c>
@@ -28683,7 +28683,7 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>141</v>
       </c>
@@ -28697,7 +28697,7 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>141</v>
       </c>
@@ -28711,7 +28711,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>141</v>
       </c>
@@ -28725,7 +28725,7 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>153</v>
       </c>
@@ -28737,7 +28737,7 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>154</v>
       </c>
@@ -28749,7 +28749,7 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42" t="s">
         <v>155</v>
       </c>
@@ -28761,7 +28761,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>162</v>
       </c>
@@ -28773,7 +28773,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>158</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -28807,7 +28807,7 @@
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>141</v>
       </c>
@@ -28821,7 +28821,7 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>141</v>
       </c>
@@ -28835,7 +28835,7 @@
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>141</v>
       </c>
@@ -28849,7 +28849,7 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>141</v>
       </c>
@@ -28863,7 +28863,7 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>141</v>
       </c>
@@ -28877,7 +28877,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>141</v>
       </c>
@@ -28891,7 +28891,7 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>141</v>
       </c>
@@ -28905,7 +28905,7 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>141</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>141</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>141</v>
       </c>
@@ -28947,7 +28947,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>153</v>
       </c>
@@ -28959,7 +28959,7 @@
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>154</v>
       </c>
@@ -28971,7 +28971,7 @@
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
         <v>155</v>
       </c>
@@ -28983,7 +28983,7 @@
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="49" t="s">
         <v>162</v>
       </c>
@@ -28995,7 +28995,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>160</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>141</v>
       </c>
@@ -29029,7 +29029,7 @@
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>141</v>
       </c>
@@ -29043,7 +29043,7 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>141</v>
       </c>
@@ -29057,7 +29057,7 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>141</v>
       </c>
@@ -29071,7 +29071,7 @@
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>141</v>
       </c>
@@ -29085,7 +29085,7 @@
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>141</v>
       </c>
@@ -29099,7 +29099,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>141</v>
       </c>
@@ -29113,7 +29113,7 @@
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>141</v>
       </c>
@@ -29127,7 +29127,7 @@
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>141</v>
       </c>
@@ -29141,7 +29141,7 @@
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>141</v>
       </c>
@@ -29155,7 +29155,7 @@
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>141</v>
       </c>
@@ -29169,7 +29169,7 @@
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
         <v>153</v>
       </c>
@@ -29181,7 +29181,7 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
         <v>154</v>
       </c>
@@ -29193,7 +29193,7 @@
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
         <v>155</v>
       </c>
@@ -29205,7 +29205,7 @@
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49" t="s">
         <v>162</v>
       </c>
@@ -29217,7 +29217,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>607</v>
       </c>
@@ -29237,7 +29237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>141</v>
       </c>
@@ -29251,7 +29251,7 @@
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>141</v>
       </c>
@@ -29265,7 +29265,7 @@
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>141</v>
       </c>
@@ -29279,7 +29279,7 @@
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>141</v>
       </c>
@@ -29293,7 +29293,7 @@
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>141</v>
       </c>
@@ -29307,7 +29307,7 @@
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>141</v>
       </c>
@@ -29321,7 +29321,7 @@
       <c r="E69" s="48"/>
       <c r="F69" s="48"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
         <v>141</v>
       </c>
@@ -29335,7 +29335,7 @@
       <c r="E70" s="48"/>
       <c r="F70" s="48"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>141</v>
       </c>
@@ -29349,7 +29349,7 @@
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>141</v>
       </c>
@@ -29363,7 +29363,7 @@
       <c r="E72" s="48"/>
       <c r="F72" s="48"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>141</v>
       </c>
@@ -29377,7 +29377,7 @@
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>141</v>
       </c>
@@ -29391,7 +29391,7 @@
       <c r="E74" s="48"/>
       <c r="F74" s="48"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>153</v>
       </c>
@@ -29403,7 +29403,7 @@
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>154</v>
       </c>
@@ -29415,7 +29415,7 @@
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="37" t="s">
         <v>155</v>
       </c>
@@ -29427,7 +29427,7 @@
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="s">
         <v>162</v>
       </c>
@@ -29439,7 +29439,7 @@
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>267</v>
       </c>
@@ -29459,7 +29459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>141</v>
       </c>
@@ -29473,7 +29473,7 @@
       <c r="E80" s="46"/>
       <c r="F80" s="46"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>141</v>
       </c>
@@ -29487,7 +29487,7 @@
       <c r="E81" s="46"/>
       <c r="F81" s="46"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>141</v>
       </c>
@@ -29501,7 +29501,7 @@
       <c r="E82" s="46"/>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>141</v>
       </c>
@@ -29515,7 +29515,7 @@
       <c r="E83" s="48"/>
       <c r="F83" s="48"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>141</v>
       </c>
@@ -29529,7 +29529,7 @@
       <c r="E84" s="48"/>
       <c r="F84" s="48"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>141</v>
       </c>
@@ -29543,7 +29543,7 @@
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
         <v>141</v>
       </c>
@@ -29557,7 +29557,7 @@
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>141</v>
       </c>
@@ -29571,7 +29571,7 @@
       <c r="E87" s="48"/>
       <c r="F87" s="48"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>141</v>
       </c>
@@ -29585,7 +29585,7 @@
       <c r="E88" s="48"/>
       <c r="F88" s="48"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>141</v>
       </c>
@@ -29599,7 +29599,7 @@
       <c r="E89" s="48"/>
       <c r="F89" s="48"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>141</v>
       </c>
@@ -29613,7 +29613,7 @@
       <c r="E90" s="48"/>
       <c r="F90" s="48"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
         <v>153</v>
       </c>
@@ -29625,7 +29625,7 @@
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
         <v>154</v>
       </c>
@@ -29637,7 +29637,7 @@
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="s">
         <v>155</v>
       </c>
@@ -29649,7 +29649,7 @@
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="49" t="s">
         <v>162</v>
       </c>
@@ -29661,7 +29661,7 @@
       <c r="E94" s="44"/>
       <c r="F94" s="44"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="40" t="s">
         <v>182</v>
       </c>
@@ -29681,7 +29681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>141</v>
       </c>
@@ -29695,7 +29695,7 @@
       <c r="E96" s="46"/>
       <c r="F96" s="46"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>141</v>
       </c>
@@ -29709,7 +29709,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="45" t="s">
         <v>141</v>
       </c>
@@ -29723,7 +29723,7 @@
       <c r="E98" s="46"/>
       <c r="F98" s="46"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>141</v>
       </c>
@@ -29737,7 +29737,7 @@
       <c r="E99" s="46"/>
       <c r="F99" s="46"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>141</v>
       </c>
@@ -29751,7 +29751,7 @@
       <c r="E100" s="48"/>
       <c r="F100" s="48"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>141</v>
       </c>
@@ -29765,7 +29765,7 @@
       <c r="E101" s="48"/>
       <c r="F101" s="48"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>141</v>
       </c>
@@ -29779,7 +29779,7 @@
       <c r="E102" s="48"/>
       <c r="F102" s="48"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="47" t="s">
         <v>141</v>
       </c>
@@ -29793,7 +29793,7 @@
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
         <v>141</v>
       </c>
@@ -29807,7 +29807,7 @@
       <c r="E104" s="48"/>
       <c r="F104" s="48"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>141</v>
       </c>
@@ -29821,7 +29821,7 @@
       <c r="E105" s="48"/>
       <c r="F105" s="48"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>141</v>
       </c>
@@ -29835,7 +29835,7 @@
       <c r="E106" s="48"/>
       <c r="F106" s="48"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
         <v>153</v>
       </c>
@@ -29847,7 +29847,7 @@
       <c r="E107" s="39"/>
       <c r="F107" s="39"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
         <v>154</v>
       </c>
@@ -29859,7 +29859,7 @@
       <c r="E108" s="39"/>
       <c r="F108" s="39"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="42" t="s">
         <v>155</v>
       </c>
@@ -29871,7 +29871,7 @@
       <c r="E109" s="44"/>
       <c r="F109" s="44"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="49" t="s">
         <v>162</v>
       </c>
@@ -29883,7 +29883,7 @@
       <c r="E110" s="44"/>
       <c r="F110" s="44"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="40" t="s">
         <v>264</v>
       </c>
@@ -29903,7 +29903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="45" t="s">
         <v>141</v>
       </c>
@@ -29917,7 +29917,7 @@
       <c r="E112" s="46"/>
       <c r="F112" s="46"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>141</v>
       </c>
@@ -29931,7 +29931,7 @@
       <c r="E113" s="48"/>
       <c r="F113" s="48"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>141</v>
       </c>
@@ -29945,7 +29945,7 @@
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="47" t="s">
         <v>141</v>
       </c>
@@ -29959,7 +29959,7 @@
       <c r="E115" s="48"/>
       <c r="F115" s="48"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
         <v>141</v>
       </c>
@@ -29973,7 +29973,7 @@
       <c r="E116" s="48"/>
       <c r="F116" s="48"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>141</v>
       </c>
@@ -29987,7 +29987,7 @@
       <c r="E117" s="48"/>
       <c r="F117" s="48"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="47" t="s">
         <v>141</v>
       </c>
@@ -30001,7 +30001,7 @@
       <c r="E118" s="48"/>
       <c r="F118" s="48"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>141</v>
       </c>
@@ -30015,7 +30015,7 @@
       <c r="E119" s="48"/>
       <c r="F119" s="48"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="47" t="s">
         <v>141</v>
       </c>
@@ -30029,7 +30029,7 @@
       <c r="E120" s="48"/>
       <c r="F120" s="48"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
         <v>141</v>
       </c>
@@ -30043,7 +30043,7 @@
       <c r="E121" s="48"/>
       <c r="F121" s="48"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>141</v>
       </c>
@@ -30057,7 +30057,7 @@
       <c r="E122" s="48"/>
       <c r="F122" s="48"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="37" t="s">
         <v>153</v>
       </c>
@@ -30069,7 +30069,7 @@
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="37" t="s">
         <v>154</v>
       </c>
@@ -30081,7 +30081,7 @@
       <c r="E124" s="39"/>
       <c r="F124" s="39"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42" t="s">
         <v>155</v>
       </c>
@@ -30093,7 +30093,7 @@
       <c r="E125" s="44"/>
       <c r="F125" s="44"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
         <v>162</v>
       </c>
@@ -30105,7 +30105,7 @@
       <c r="E126" s="44"/>
       <c r="F126" s="44"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
         <v>316</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="45" t="s">
         <v>141</v>
       </c>
@@ -30139,7 +30139,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>141</v>
       </c>
@@ -30153,7 +30153,7 @@
       <c r="E129" s="48"/>
       <c r="F129" s="48"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>141</v>
       </c>
@@ -30167,7 +30167,7 @@
       <c r="E130" s="48"/>
       <c r="F130" s="48"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>141</v>
       </c>
@@ -30181,7 +30181,7 @@
       <c r="E131" s="48"/>
       <c r="F131" s="48"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>141</v>
       </c>
@@ -30195,7 +30195,7 @@
       <c r="E132" s="48"/>
       <c r="F132" s="48"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>141</v>
       </c>
@@ -30209,7 +30209,7 @@
       <c r="E133" s="48"/>
       <c r="F133" s="48"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
         <v>141</v>
       </c>
@@ -30223,7 +30223,7 @@
       <c r="E134" s="48"/>
       <c r="F134" s="48"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>141</v>
       </c>
@@ -30237,7 +30237,7 @@
       <c r="E135" s="48"/>
       <c r="F135" s="48"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
         <v>141</v>
       </c>
@@ -30251,7 +30251,7 @@
       <c r="E136" s="48"/>
       <c r="F136" s="48"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>141</v>
       </c>
@@ -30265,7 +30265,7 @@
       <c r="E137" s="48"/>
       <c r="F137" s="48"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>141</v>
       </c>
@@ -30279,7 +30279,7 @@
       <c r="E138" s="48"/>
       <c r="F138" s="48"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="37" t="s">
         <v>153</v>
       </c>
@@ -30291,7 +30291,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="39"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="37" t="s">
         <v>154</v>
       </c>
@@ -30303,7 +30303,7 @@
       <c r="E140" s="39"/>
       <c r="F140" s="39"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="37" t="s">
         <v>155</v>
       </c>
@@ -30315,7 +30315,7 @@
       <c r="E141" s="39"/>
       <c r="F141" s="39"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
         <v>162</v>
       </c>
@@ -30327,7 +30327,7 @@
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="40" t="s">
         <v>656</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="45" t="s">
         <v>141</v>
       </c>
@@ -30361,7 +30361,7 @@
       <c r="E144" s="46"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="45" t="s">
         <v>141</v>
       </c>
@@ -30375,7 +30375,7 @@
       <c r="E145" s="46"/>
       <c r="F145" s="46"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="45" t="s">
         <v>141</v>
       </c>
@@ -30389,7 +30389,7 @@
       <c r="E146" s="46"/>
       <c r="F146" s="46"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="45" t="s">
         <v>141</v>
       </c>
@@ -30403,7 +30403,7 @@
       <c r="E147" s="46"/>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>141</v>
       </c>
@@ -30417,7 +30417,7 @@
       <c r="E148" s="48"/>
       <c r="F148" s="48"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
         <v>141</v>
       </c>
@@ -30431,7 +30431,7 @@
       <c r="E149" s="48"/>
       <c r="F149" s="48"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>141</v>
       </c>
@@ -30445,7 +30445,7 @@
       <c r="E150" s="48"/>
       <c r="F150" s="48"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
         <v>141</v>
       </c>
@@ -30459,7 +30459,7 @@
       <c r="E151" s="48"/>
       <c r="F151" s="48"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
         <v>141</v>
       </c>
@@ -30473,7 +30473,7 @@
       <c r="E152" s="48"/>
       <c r="F152" s="48"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>141</v>
       </c>
@@ -30487,7 +30487,7 @@
       <c r="E153" s="48"/>
       <c r="F153" s="48"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>141</v>
       </c>
@@ -30501,7 +30501,7 @@
       <c r="E154" s="48"/>
       <c r="F154" s="48"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
         <v>153</v>
       </c>
@@ -30513,7 +30513,7 @@
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="37" t="s">
         <v>154</v>
       </c>
@@ -30525,7 +30525,7 @@
       <c r="E156" s="39"/>
       <c r="F156" s="39"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="42" t="s">
         <v>155</v>
       </c>
@@ -30537,7 +30537,7 @@
       <c r="E157" s="44"/>
       <c r="F157" s="44"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="49" t="s">
         <v>162</v>
       </c>
@@ -30549,7 +30549,7 @@
       <c r="E158" s="44"/>
       <c r="F158" s="44"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="40" t="s">
         <v>707</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="45" t="s">
         <v>141</v>
       </c>
@@ -30583,7 +30583,7 @@
       <c r="E160" s="46"/>
       <c r="F160" s="46"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="45" t="s">
         <v>141</v>
       </c>
@@ -30597,7 +30597,7 @@
       <c r="E161" s="46"/>
       <c r="F161" s="46"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="45" t="s">
         <v>141</v>
       </c>
@@ -30611,7 +30611,7 @@
       <c r="E162" s="46"/>
       <c r="F162" s="46"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="45" t="s">
         <v>141</v>
       </c>
@@ -30625,7 +30625,7 @@
       <c r="E163" s="46"/>
       <c r="F163" s="46"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>141</v>
       </c>
@@ -30639,7 +30639,7 @@
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="47" t="s">
         <v>141</v>
       </c>
@@ -30653,7 +30653,7 @@
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="47" t="s">
         <v>141</v>
       </c>
@@ -30667,7 +30667,7 @@
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="47" t="s">
         <v>141</v>
       </c>
@@ -30681,7 +30681,7 @@
       <c r="E167" s="48"/>
       <c r="F167" s="48"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="47" t="s">
         <v>141</v>
       </c>
@@ -30695,7 +30695,7 @@
       <c r="E168" s="48"/>
       <c r="F168" s="48"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
         <v>141</v>
       </c>
@@ -30709,7 +30709,7 @@
       <c r="E169" s="48"/>
       <c r="F169" s="48"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="47" t="s">
         <v>141</v>
       </c>
@@ -30723,7 +30723,7 @@
       <c r="E170" s="48"/>
       <c r="F170" s="48"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="37" t="s">
         <v>153</v>
       </c>
@@ -30735,7 +30735,7 @@
       <c r="E171" s="39"/>
       <c r="F171" s="39"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="37" t="s">
         <v>154</v>
       </c>
@@ -30747,7 +30747,7 @@
       <c r="E172" s="39"/>
       <c r="F172" s="39"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="42" t="s">
         <v>155</v>
       </c>
@@ -30759,7 +30759,7 @@
       <c r="E173" s="44"/>
       <c r="F173" s="44"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="49" t="s">
         <v>162</v>
       </c>
@@ -30771,7 +30771,7 @@
       <c r="E174" s="44"/>
       <c r="F174" s="44"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="40" t="s">
         <v>709</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="45" t="s">
         <v>141</v>
       </c>
@@ -30805,7 +30805,7 @@
       <c r="E176" s="46"/>
       <c r="F176" s="46"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="45" t="s">
         <v>141</v>
       </c>
@@ -30819,7 +30819,7 @@
       <c r="E177" s="46"/>
       <c r="F177" s="46"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="45" t="s">
         <v>141</v>
       </c>
@@ -30833,7 +30833,7 @@
       <c r="E178" s="46"/>
       <c r="F178" s="46"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="45" t="s">
         <v>141</v>
       </c>
@@ -30847,7 +30847,7 @@
       <c r="E179" s="46"/>
       <c r="F179" s="46"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="47" t="s">
         <v>141</v>
       </c>
@@ -30861,7 +30861,7 @@
       <c r="E180" s="48"/>
       <c r="F180" s="48"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="47" t="s">
         <v>141</v>
       </c>
@@ -30875,7 +30875,7 @@
       <c r="E181" s="48"/>
       <c r="F181" s="48"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="47" t="s">
         <v>141</v>
       </c>
@@ -30889,7 +30889,7 @@
       <c r="E182" s="48"/>
       <c r="F182" s="48"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="47" t="s">
         <v>141</v>
       </c>
@@ -30903,7 +30903,7 @@
       <c r="E183" s="48"/>
       <c r="F183" s="48"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="47" t="s">
         <v>141</v>
       </c>
@@ -30917,7 +30917,7 @@
       <c r="E184" s="48"/>
       <c r="F184" s="48"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
         <v>141</v>
       </c>
@@ -30931,7 +30931,7 @@
       <c r="E185" s="48"/>
       <c r="F185" s="48"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="47" t="s">
         <v>141</v>
       </c>
@@ -30945,7 +30945,7 @@
       <c r="E186" s="48"/>
       <c r="F186" s="48"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="37" t="s">
         <v>153</v>
       </c>
@@ -30957,7 +30957,7 @@
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="37" t="s">
         <v>154</v>
       </c>
@@ -30969,7 +30969,7 @@
       <c r="E188" s="39"/>
       <c r="F188" s="39"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="42" t="s">
         <v>155</v>
       </c>
@@ -30981,7 +30981,7 @@
       <c r="E189" s="44"/>
       <c r="F189" s="44"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="49" t="s">
         <v>162</v>
       </c>
@@ -30993,7 +30993,7 @@
       <c r="E190" s="44"/>
       <c r="F190" s="44"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35" t="s">
         <v>716</v>
       </c>
@@ -31013,7 +31013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="45" t="s">
         <v>141</v>
       </c>
@@ -31027,7 +31027,7 @@
       <c r="E192" s="46"/>
       <c r="F192" s="46"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="47" t="s">
         <v>141</v>
       </c>
@@ -31041,7 +31041,7 @@
       <c r="E193" s="48"/>
       <c r="F193" s="48"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
         <v>141</v>
       </c>
@@ -31055,7 +31055,7 @@
       <c r="E194" s="48"/>
       <c r="F194" s="48"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
         <v>141</v>
       </c>
@@ -31069,7 +31069,7 @@
       <c r="E195" s="48"/>
       <c r="F195" s="48"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>141</v>
       </c>
@@ -31083,7 +31083,7 @@
       <c r="E196" s="48"/>
       <c r="F196" s="48"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>141</v>
       </c>
@@ -31097,7 +31097,7 @@
       <c r="E197" s="48"/>
       <c r="F197" s="48"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>141</v>
       </c>
@@ -31111,7 +31111,7 @@
       <c r="E198" s="48"/>
       <c r="F198" s="48"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="47" t="s">
         <v>141</v>
       </c>
@@ -31125,7 +31125,7 @@
       <c r="E199" s="48"/>
       <c r="F199" s="48"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>141</v>
       </c>
@@ -31139,7 +31139,7 @@
       <c r="E200" s="48"/>
       <c r="F200" s="48"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="47" t="s">
         <v>141</v>
       </c>
@@ -31153,7 +31153,7 @@
       <c r="E201" s="48"/>
       <c r="F201" s="48"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>141</v>
       </c>
@@ -31167,7 +31167,7 @@
       <c r="E202" s="48"/>
       <c r="F202" s="48"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="37" t="s">
         <v>153</v>
       </c>
@@ -31179,7 +31179,7 @@
       <c r="E203" s="39"/>
       <c r="F203" s="39"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="37" t="s">
         <v>154</v>
       </c>
@@ -31191,7 +31191,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
     </row>
-    <row r="205" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="37" t="s">
         <v>155</v>
       </c>
@@ -31203,7 +31203,7 @@
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
     </row>
-    <row r="206" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="49" t="s">
         <v>162</v>
       </c>
@@ -31215,7 +31215,7 @@
       <c r="E206" s="44"/>
       <c r="F206" s="44"/>
     </row>
-    <row r="207" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="35" t="s">
         <v>717</v>
       </c>
@@ -31235,7 +31235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="45" t="s">
         <v>141</v>
       </c>
@@ -31249,7 +31249,7 @@
       <c r="E208" s="46"/>
       <c r="F208" s="46"/>
     </row>
-    <row r="209" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>141</v>
       </c>
@@ -31263,7 +31263,7 @@
       <c r="E209" s="48"/>
       <c r="F209" s="48"/>
     </row>
-    <row r="210" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="47" t="s">
         <v>141</v>
       </c>
@@ -31277,7 +31277,7 @@
       <c r="E210" s="48"/>
       <c r="F210" s="48"/>
     </row>
-    <row r="211" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>141</v>
       </c>
@@ -31291,7 +31291,7 @@
       <c r="E211" s="48"/>
       <c r="F211" s="48"/>
     </row>
-    <row r="212" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>141</v>
       </c>
@@ -31305,7 +31305,7 @@
       <c r="E212" s="48"/>
       <c r="F212" s="48"/>
     </row>
-    <row r="213" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="47" t="s">
         <v>141</v>
       </c>
@@ -31319,7 +31319,7 @@
       <c r="E213" s="48"/>
       <c r="F213" s="48"/>
     </row>
-    <row r="214" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="47" t="s">
         <v>141</v>
       </c>
@@ -31333,7 +31333,7 @@
       <c r="E214" s="48"/>
       <c r="F214" s="48"/>
     </row>
-    <row r="215" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>141</v>
       </c>
@@ -31347,7 +31347,7 @@
       <c r="E215" s="48"/>
       <c r="F215" s="48"/>
     </row>
-    <row r="216" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
         <v>141</v>
       </c>
@@ -31361,7 +31361,7 @@
       <c r="E216" s="48"/>
       <c r="F216" s="48"/>
     </row>
-    <row r="217" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>141</v>
       </c>
@@ -31375,7 +31375,7 @@
       <c r="E217" s="48"/>
       <c r="F217" s="48"/>
     </row>
-    <row r="218" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>141</v>
       </c>
@@ -31389,7 +31389,7 @@
       <c r="E218" s="48"/>
       <c r="F218" s="48"/>
     </row>
-    <row r="219" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
         <v>153</v>
       </c>
@@ -31401,7 +31401,7 @@
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
     </row>
-    <row r="220" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
         <v>154</v>
       </c>
@@ -31413,7 +31413,7 @@
       <c r="E220" s="39"/>
       <c r="F220" s="39"/>
     </row>
-    <row r="221" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
         <v>155</v>
       </c>
@@ -31425,7 +31425,7 @@
       <c r="E221" s="39"/>
       <c r="F221" s="39"/>
     </row>
-    <row r="222" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49" t="s">
         <v>162</v>
       </c>
@@ -31451,15 +31451,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="12" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="29"/>
+    <col min="3" max="3" width="50.88671875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>195</v>
       </c>
@@ -31470,21 +31470,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>238</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>198</v>
       </c>
@@ -31493,21 +31493,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>255</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>253</v>
       </c>
@@ -31518,35 +31518,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>236</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="55" t="s">
         <v>237</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
         <v>243</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>254</v>
       </c>
@@ -31557,21 +31557,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>239</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
         <v>202</v>
       </c>
@@ -31582,77 +31582,77 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>204</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>205</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>206</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>210</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="56" t="s">
         <v>212</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52" t="s">
         <v>213</v>
       </c>
@@ -31663,42 +31663,42 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
         <v>214</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
         <v>216</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
         <v>217</v>
       </c>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="52" t="s">
         <v>219</v>
       </c>
@@ -31709,70 +31709,70 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="54" t="s">
         <v>220</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>221</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>222</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
         <v>223</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>224</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>225</v>
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>226</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>227</v>
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="56" t="s">
         <v>228</v>
       </c>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="52" t="s">
         <v>229</v>
       </c>
@@ -31783,49 +31783,49 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="54" t="s">
         <v>230</v>
       </c>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>231</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>232</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>233</v>
       </c>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>234</v>
       </c>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="56" t="s">
         <v>235</v>
       </c>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="52" t="s">
         <v>245</v>
       </c>
@@ -31836,63 +31836,63 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="54" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>241</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="56" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
         <v>251</v>
       </c>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
     </row>
-    <row r="58" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>252</v>
       </c>
@@ -31913,24 +31913,24 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="124"/>
-    <col min="3" max="3" width="19.5703125" style="138" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="139" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="139" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="139" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="139" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="124"/>
+    <col min="1" max="2" width="9.109375" style="124"/>
+    <col min="3" max="3" width="19.5546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" style="139" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="139" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="139" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="139" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="139" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="139" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.5546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>405</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="125" t="s">
         <v>417</v>
       </c>
@@ -32018,7 +32018,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="125" t="s">
         <v>417</v>
       </c>
@@ -32062,7 +32062,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>417</v>
       </c>
@@ -32104,7 +32104,7 @@
       </c>
       <c r="N4" s="125"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="125" t="s">
         <v>417</v>
       </c>
@@ -32148,7 +32148,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
         <v>417</v>
       </c>
@@ -32192,7 +32192,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="125" t="s">
         <v>417</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="125" t="s">
         <v>417</v>
       </c>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="N8" s="125"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="125" t="s">
         <v>417</v>
       </c>
@@ -32322,7 +32322,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
         <v>417</v>
       </c>
@@ -32366,7 +32366,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
         <v>417</v>
       </c>
@@ -32408,7 +32408,7 @@
       </c>
       <c r="N11" s="125"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="125" t="s">
         <v>417</v>
       </c>
@@ -32450,7 +32450,7 @@
       </c>
       <c r="N12" s="125"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="125" t="s">
         <v>417</v>
       </c>
@@ -32492,7 +32492,7 @@
       </c>
       <c r="N13" s="125"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
         <v>417</v>
       </c>
@@ -32534,7 +32534,7 @@
       </c>
       <c r="N14" s="125"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="130" t="s">
         <v>523</v>
       </c>
@@ -32578,7 +32578,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="130" t="s">
         <v>523</v>
       </c>
@@ -32620,7 +32620,7 @@
       </c>
       <c r="N16" s="130"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="130" t="s">
         <v>523</v>
       </c>
@@ -32662,7 +32662,7 @@
       </c>
       <c r="N17" s="130"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="130" t="s">
         <v>523</v>
       </c>
@@ -32704,7 +32704,7 @@
       </c>
       <c r="N18" s="130"/>
     </row>
-    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="130" t="s">
         <v>523</v>
       </c>
@@ -32746,7 +32746,7 @@
       </c>
       <c r="N19" s="130"/>
     </row>
-    <row r="20" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="130" t="s">
         <v>523</v>
       </c>
@@ -32788,7 +32788,7 @@
       </c>
       <c r="N20" s="130"/>
     </row>
-    <row r="21" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="130" t="s">
         <v>523</v>
       </c>
@@ -32830,7 +32830,7 @@
       </c>
       <c r="N21" s="130"/>
     </row>
-    <row r="22" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="130" t="s">
         <v>523</v>
       </c>
@@ -32872,7 +32872,7 @@
       </c>
       <c r="N22" s="130"/>
     </row>
-    <row r="23" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="130" t="s">
         <v>523</v>
       </c>
@@ -32914,7 +32914,7 @@
       </c>
       <c r="N23" s="130"/>
     </row>
-    <row r="24" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="130" t="s">
         <v>523</v>
       </c>
@@ -32956,7 +32956,7 @@
       </c>
       <c r="N24" s="130"/>
     </row>
-    <row r="25" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="130" t="s">
         <v>523</v>
       </c>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="130" t="s">
         <v>523</v>
       </c>
@@ -33040,7 +33040,7 @@
       </c>
       <c r="N26" s="130"/>
     </row>
-    <row r="27" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="130" t="s">
         <v>523</v>
       </c>
@@ -33082,7 +33082,7 @@
       </c>
       <c r="N27" s="130"/>
     </row>
-    <row r="28" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="125" t="s">
         <v>417</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="125" t="s">
         <v>417</v>
       </c>
@@ -33128,7 +33128,7 @@
       <c r="M29" s="128"/>
       <c r="N29" s="125"/>
     </row>
-    <row r="30" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="125" t="s">
         <v>417</v>
       </c>
@@ -33150,7 +33150,7 @@
       <c r="M30" s="128"/>
       <c r="N30" s="125"/>
     </row>
-    <row r="31" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="125" t="s">
         <v>417</v>
       </c>
@@ -33172,7 +33172,7 @@
       <c r="M31" s="128"/>
       <c r="N31" s="125"/>
     </row>
-    <row r="32" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="125" t="s">
         <v>417</v>
       </c>
@@ -33194,7 +33194,7 @@
       <c r="M32" s="128"/>
       <c r="N32" s="125"/>
     </row>
-    <row r="33" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="125" t="s">
         <v>417</v>
       </c>
@@ -33216,7 +33216,7 @@
       <c r="M33" s="128"/>
       <c r="N33" s="125"/>
     </row>
-    <row r="34" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="125" t="s">
         <v>417</v>
       </c>
@@ -33238,7 +33238,7 @@
       <c r="M34" s="128"/>
       <c r="N34" s="125"/>
     </row>
-    <row r="35" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="125" t="s">
         <v>417</v>
       </c>
@@ -33260,7 +33260,7 @@
       <c r="M35" s="128"/>
       <c r="N35" s="125"/>
     </row>
-    <row r="36" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="125" t="s">
         <v>417</v>
       </c>
@@ -33282,7 +33282,7 @@
       <c r="M36" s="128"/>
       <c r="N36" s="125"/>
     </row>
-    <row r="37" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="125" t="s">
         <v>417</v>
       </c>
@@ -33304,7 +33304,7 @@
       <c r="M37" s="128"/>
       <c r="N37" s="125"/>
     </row>
-    <row r="38" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="125" t="s">
         <v>417</v>
       </c>
@@ -33326,7 +33326,7 @@
       <c r="M38" s="128"/>
       <c r="N38" s="125"/>
     </row>
-    <row r="39" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="125" t="s">
         <v>417</v>
       </c>
@@ -33348,7 +33348,7 @@
       <c r="M39" s="128"/>
       <c r="N39" s="125"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="125" t="s">
         <v>417</v>
       </c>
@@ -33370,7 +33370,7 @@
       <c r="M40" s="128"/>
       <c r="N40" s="125"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="130" t="s">
         <v>523</v>
       </c>
@@ -33392,7 +33392,7 @@
       <c r="M41" s="132"/>
       <c r="N41" s="130"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="130" t="s">
         <v>523</v>
       </c>
@@ -33414,7 +33414,7 @@
       <c r="M42" s="132"/>
       <c r="N42" s="130"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="130" t="s">
         <v>523</v>
       </c>
@@ -33436,7 +33436,7 @@
       <c r="M43" s="132"/>
       <c r="N43" s="130"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="130" t="s">
         <v>523</v>
       </c>
@@ -33458,7 +33458,7 @@
       <c r="M44" s="132"/>
       <c r="N44" s="130"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="130" t="s">
         <v>523</v>
       </c>
@@ -33480,7 +33480,7 @@
       <c r="M45" s="132"/>
       <c r="N45" s="130"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="130" t="s">
         <v>523</v>
       </c>
@@ -33502,7 +33502,7 @@
       <c r="M46" s="132"/>
       <c r="N46" s="130"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="130" t="s">
         <v>523</v>
       </c>
@@ -33524,7 +33524,7 @@
       <c r="M47" s="132"/>
       <c r="N47" s="130"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="130" t="s">
         <v>523</v>
       </c>
@@ -33546,7 +33546,7 @@
       <c r="M48" s="132"/>
       <c r="N48" s="130"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="130" t="s">
         <v>523</v>
       </c>
@@ -33568,7 +33568,7 @@
       <c r="M49" s="132"/>
       <c r="N49" s="130"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="130" t="s">
         <v>523</v>
       </c>
@@ -33590,7 +33590,7 @@
       <c r="M50" s="132"/>
       <c r="N50" s="130"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="130" t="s">
         <v>523</v>
       </c>
@@ -33612,7 +33612,7 @@
       <c r="M51" s="132"/>
       <c r="N51" s="130"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="130" t="s">
         <v>523</v>
       </c>
@@ -33634,7 +33634,7 @@
       <c r="M52" s="132"/>
       <c r="N52" s="130"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="130" t="s">
         <v>523</v>
       </c>
@@ -33656,7 +33656,7 @@
       <c r="M53" s="132"/>
       <c r="N53" s="130"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="125" t="s">
         <v>417</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="125" t="s">
         <v>417</v>
       </c>
@@ -33702,7 +33702,7 @@
       <c r="M55" s="128"/>
       <c r="N55" s="125"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="125" t="s">
         <v>417</v>
       </c>
@@ -33724,7 +33724,7 @@
       <c r="M56" s="128"/>
       <c r="N56" s="125"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="125" t="s">
         <v>417</v>
       </c>
@@ -33746,7 +33746,7 @@
       <c r="M57" s="128"/>
       <c r="N57" s="125"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="125" t="s">
         <v>417</v>
       </c>
@@ -33768,7 +33768,7 @@
       <c r="M58" s="128"/>
       <c r="N58" s="125"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="125" t="s">
         <v>417</v>
       </c>
@@ -33790,7 +33790,7 @@
       <c r="M59" s="128"/>
       <c r="N59" s="125"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="125" t="s">
         <v>417</v>
       </c>
@@ -33812,7 +33812,7 @@
       <c r="M60" s="128"/>
       <c r="N60" s="125"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="125" t="s">
         <v>417</v>
       </c>
@@ -33834,7 +33834,7 @@
       <c r="M61" s="128"/>
       <c r="N61" s="125"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="125" t="s">
         <v>417</v>
       </c>
@@ -33856,7 +33856,7 @@
       <c r="M62" s="128"/>
       <c r="N62" s="125"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="125" t="s">
         <v>417</v>
       </c>
@@ -33878,7 +33878,7 @@
       <c r="M63" s="128"/>
       <c r="N63" s="125"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="125" t="s">
         <v>417</v>
       </c>
@@ -33900,7 +33900,7 @@
       <c r="M64" s="128"/>
       <c r="N64" s="125"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="125" t="s">
         <v>417</v>
       </c>
@@ -33922,7 +33922,7 @@
       <c r="M65" s="128"/>
       <c r="N65" s="125"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="125" t="s">
         <v>417</v>
       </c>
@@ -33944,7 +33944,7 @@
       <c r="M66" s="128"/>
       <c r="N66" s="125"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="130" t="s">
         <v>523</v>
       </c>
@@ -33966,7 +33966,7 @@
       <c r="M67" s="132"/>
       <c r="N67" s="130"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="130" t="s">
         <v>523</v>
       </c>
@@ -33988,7 +33988,7 @@
       <c r="M68" s="132"/>
       <c r="N68" s="130"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="130" t="s">
         <v>523</v>
       </c>
@@ -34010,7 +34010,7 @@
       <c r="M69" s="132"/>
       <c r="N69" s="130"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="130" t="s">
         <v>523</v>
       </c>
@@ -34032,7 +34032,7 @@
       <c r="M70" s="132"/>
       <c r="N70" s="130"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="130" t="s">
         <v>523</v>
       </c>
@@ -34054,7 +34054,7 @@
       <c r="M71" s="132"/>
       <c r="N71" s="130"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="130" t="s">
         <v>523</v>
       </c>
@@ -34076,7 +34076,7 @@
       <c r="M72" s="132"/>
       <c r="N72" s="130"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="130" t="s">
         <v>523</v>
       </c>
@@ -34098,7 +34098,7 @@
       <c r="M73" s="132"/>
       <c r="N73" s="130"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="130" t="s">
         <v>523</v>
       </c>
@@ -34120,7 +34120,7 @@
       <c r="M74" s="132"/>
       <c r="N74" s="130"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="130" t="s">
         <v>523</v>
       </c>
@@ -34142,7 +34142,7 @@
       <c r="M75" s="132"/>
       <c r="N75" s="130"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="130" t="s">
         <v>523</v>
       </c>
@@ -34164,7 +34164,7 @@
       <c r="M76" s="132"/>
       <c r="N76" s="130"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="130" t="s">
         <v>523</v>
       </c>
@@ -34186,7 +34186,7 @@
       <c r="M77" s="132"/>
       <c r="N77" s="130"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="130" t="s">
         <v>523</v>
       </c>
@@ -34208,7 +34208,7 @@
       <c r="M78" s="132"/>
       <c r="N78" s="130"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="130" t="s">
         <v>523</v>
       </c>
@@ -34230,7 +34230,7 @@
       <c r="M79" s="132"/>
       <c r="N79" s="130"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="125" t="s">
         <v>417</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="125" t="s">
         <v>417</v>
       </c>
@@ -34276,7 +34276,7 @@
       <c r="M81" s="128"/>
       <c r="N81" s="125"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="125" t="s">
         <v>417</v>
       </c>
@@ -34298,7 +34298,7 @@
       <c r="M82" s="128"/>
       <c r="N82" s="125"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="125" t="s">
         <v>417</v>
       </c>
@@ -34320,7 +34320,7 @@
       <c r="M83" s="128"/>
       <c r="N83" s="125"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="125" t="s">
         <v>417</v>
       </c>
@@ -34342,7 +34342,7 @@
       <c r="M84" s="128"/>
       <c r="N84" s="125"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="125" t="s">
         <v>417</v>
       </c>
@@ -34364,7 +34364,7 @@
       <c r="M85" s="128"/>
       <c r="N85" s="125"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="125" t="s">
         <v>417</v>
       </c>
@@ -34386,7 +34386,7 @@
       <c r="M86" s="128"/>
       <c r="N86" s="125"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="125" t="s">
         <v>417</v>
       </c>
@@ -34408,7 +34408,7 @@
       <c r="M87" s="128"/>
       <c r="N87" s="125"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="125" t="s">
         <v>417</v>
       </c>
@@ -34430,7 +34430,7 @@
       <c r="M88" s="128"/>
       <c r="N88" s="125"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="125" t="s">
         <v>417</v>
       </c>
@@ -34452,7 +34452,7 @@
       <c r="M89" s="128"/>
       <c r="N89" s="125"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="125" t="s">
         <v>417</v>
       </c>
@@ -34474,7 +34474,7 @@
       <c r="M90" s="128"/>
       <c r="N90" s="125"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="125" t="s">
         <v>417</v>
       </c>
@@ -34496,7 +34496,7 @@
       <c r="M91" s="128"/>
       <c r="N91" s="125"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="125" t="s">
         <v>417</v>
       </c>
@@ -34518,7 +34518,7 @@
       <c r="M92" s="128"/>
       <c r="N92" s="125"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="130" t="s">
         <v>523</v>
       </c>
@@ -34540,7 +34540,7 @@
       <c r="M93" s="132"/>
       <c r="N93" s="130"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="130" t="s">
         <v>523</v>
       </c>
@@ -34562,7 +34562,7 @@
       <c r="M94" s="132"/>
       <c r="N94" s="130"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="130" t="s">
         <v>523</v>
       </c>
@@ -34584,7 +34584,7 @@
       <c r="M95" s="132"/>
       <c r="N95" s="130"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="130" t="s">
         <v>523</v>
       </c>
@@ -34606,7 +34606,7 @@
       <c r="M96" s="132"/>
       <c r="N96" s="130"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="130" t="s">
         <v>523</v>
       </c>
@@ -34628,7 +34628,7 @@
       <c r="M97" s="132"/>
       <c r="N97" s="130"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="130" t="s">
         <v>523</v>
       </c>
@@ -34650,7 +34650,7 @@
       <c r="M98" s="132"/>
       <c r="N98" s="130"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="130" t="s">
         <v>523</v>
       </c>
@@ -34672,7 +34672,7 @@
       <c r="M99" s="132"/>
       <c r="N99" s="130"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="130" t="s">
         <v>523</v>
       </c>
@@ -34694,7 +34694,7 @@
       <c r="M100" s="132"/>
       <c r="N100" s="130"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="130" t="s">
         <v>523</v>
       </c>
@@ -34716,7 +34716,7 @@
       <c r="M101" s="132"/>
       <c r="N101" s="130"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="130" t="s">
         <v>523</v>
       </c>
@@ -34738,7 +34738,7 @@
       <c r="M102" s="132"/>
       <c r="N102" s="130"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="130" t="s">
         <v>523</v>
       </c>
@@ -34760,7 +34760,7 @@
       <c r="M103" s="132"/>
       <c r="N103" s="130"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="130" t="s">
         <v>523</v>
       </c>
@@ -34782,7 +34782,7 @@
       <c r="M104" s="132"/>
       <c r="N104" s="130"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="130" t="s">
         <v>523</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remotes\sed-stash\biogears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4865" uniqueCount="722">
   <si>
     <t>Name</t>
   </si>
@@ -2194,6 +2194,12 @@
   </si>
   <si>
     <t>2.0 ug/mL</t>
+  </si>
+  <si>
+    <t>MaxWorkRate</t>
+  </si>
+  <si>
+    <t>Hyperhidrosis</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2748,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3235,6 +3241,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent2" xfId="7" builtinId="34"/>
@@ -3553,13 +3565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4460,83 +4472,83 @@
       <c r="U20" s="151"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
-        <v>527</v>
-      </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="146"/>
-      <c r="U21" s="147"/>
+      <c r="A21" s="143" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21" s="150"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="199"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="143" t="s">
-        <v>492</v>
+        <v>721</v>
       </c>
       <c r="B22" s="150"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="151"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="199"/>
       <c r="F22" s="150"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="151"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="199"/>
       <c r="J22" s="150"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="151"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="198"/>
+      <c r="P22" s="198"/>
+      <c r="Q22" s="198"/>
+      <c r="R22" s="198"/>
+      <c r="S22" s="199"/>
       <c r="T22" s="150"/>
-      <c r="U22" s="151"/>
+      <c r="U22" s="199"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
-        <v>493</v>
-      </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="151"/>
+      <c r="A23" s="134" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="146"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="147"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="143" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B24" s="150"/>
       <c r="C24" s="138"/>
@@ -4561,7 +4573,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="143" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B25" s="150"/>
       <c r="C25" s="138"/>
@@ -4586,7 +4598,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="143" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B26" s="150"/>
       <c r="C26" s="138"/>
@@ -4608,6 +4620,56 @@
       <c r="S26" s="151"/>
       <c r="T26" s="150"/>
       <c r="U26" s="151"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="143" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" s="150"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="151"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="143" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="150"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31205,7 +31267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4865" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="733">
   <si>
     <t>Name</t>
   </si>
@@ -1677,9 +1677,6 @@
     <t>ChronicPericardialEffusion</t>
   </si>
   <si>
-    <t>110 bpm</t>
-  </si>
-  <si>
     <t>0.46 1/atm</t>
   </si>
   <si>
@@ -2200,6 +2197,42 @@
   </si>
   <si>
     <t>Hyperhidrosis</t>
+  </si>
+  <si>
+    <t>PainSusceptibility</t>
+  </si>
+  <si>
+    <t>Toughs</t>
+  </si>
+  <si>
+    <t>13 bpm</t>
+  </si>
+  <si>
+    <t>109 bpm</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>24 yr</t>
+  </si>
+  <si>
+    <t>67 kg</t>
+  </si>
+  <si>
+    <t>172 cm</t>
+  </si>
+  <si>
+    <t>315 W</t>
+  </si>
+  <si>
+    <t>ToughGirl</t>
+  </si>
+  <si>
+    <t>ToughGuy</t>
+  </si>
+  <si>
+    <t>65 in</t>
   </si>
 </sst>
 </file>
@@ -2748,7 +2781,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3232,6 +3265,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3241,10 +3280,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3565,13 +3616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,44 +3642,52 @@
     <col min="13" max="13" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="139" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="139"/>
+    <col min="16" max="18" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="139" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.140625" style="139" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="134"/>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="195" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="197" t="s">
         <v>515</v>
       </c>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="195" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="197" t="s">
         <v>516</v>
       </c>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="195" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="197" t="s">
         <v>517</v>
       </c>
-      <c r="U1" s="197"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="199"/>
+      <c r="W1" s="197" t="s">
+        <v>722</v>
+      </c>
+      <c r="X1" s="199"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
         <v>0</v>
       </c>
@@ -3683,17 +3742,26 @@
       <c r="R2" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="S2" s="145" t="s">
+      <c r="S2" s="200" t="s">
+        <v>725</v>
+      </c>
+      <c r="T2" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="T2" s="144" t="s">
+      <c r="U2" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="U2" s="145" t="s">
+      <c r="V2" s="145" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" s="144" t="s">
+        <v>730</v>
+      </c>
+      <c r="X2" s="145" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
         <v>497</v>
       </c>
@@ -3714,11 +3782,14 @@
       <c r="P3" s="141"/>
       <c r="Q3" s="141"/>
       <c r="R3" s="141"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="153"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="201"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="153"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
         <v>345</v>
       </c>
@@ -3773,17 +3844,26 @@
       <c r="R4" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="202" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="148" t="s">
+      <c r="U4" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="149" t="s">
+      <c r="V4" s="149" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4" s="148" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
         <v>525</v>
       </c>
@@ -3804,11 +3884,14 @@
       <c r="P5" s="140"/>
       <c r="Q5" s="140"/>
       <c r="R5" s="140"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="147"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="203"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="147"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
@@ -3859,17 +3942,26 @@
       <c r="R6" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="S6" s="151" t="s">
+      <c r="S6" s="204" t="s">
+        <v>726</v>
+      </c>
+      <c r="T6" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="T6" s="150" t="s">
+      <c r="U6" s="150" t="s">
         <v>501</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="V6" s="151" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6" s="150">
+        <v>44</v>
+      </c>
+      <c r="X6" s="151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="143" t="s">
         <v>6</v>
       </c>
@@ -3920,13 +4012,22 @@
       <c r="R7" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="S7" s="151" t="s">
+      <c r="S7" s="204" t="s">
+        <v>727</v>
+      </c>
+      <c r="T7" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="T7" s="150"/>
-      <c r="U7" s="151"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7" s="150"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
         <v>7</v>
       </c>
@@ -3977,17 +4078,26 @@
       <c r="R8" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="S8" s="151" t="s">
+      <c r="S8" s="204" t="s">
+        <v>728</v>
+      </c>
+      <c r="T8" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="150" t="s">
+      <c r="U8" s="150" t="s">
         <v>513</v>
       </c>
-      <c r="U8" s="151" t="s">
+      <c r="V8" s="151" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8" s="150" t="s">
+        <v>732</v>
+      </c>
+      <c r="X8" s="151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="143" t="s">
         <v>163</v>
       </c>
@@ -4038,17 +4148,26 @@
       <c r="R9" s="138">
         <v>0.25</v>
       </c>
-      <c r="S9" s="151">
+      <c r="S9" s="204">
+        <v>0.21</v>
+      </c>
+      <c r="T9" s="151">
         <v>0.18</v>
       </c>
-      <c r="T9" s="150">
+      <c r="U9" s="150">
         <v>0.32</v>
       </c>
-      <c r="U9" s="151">
+      <c r="V9" s="151">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9" s="150">
+        <v>0.21</v>
+      </c>
+      <c r="X9" s="151">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
         <v>526</v>
       </c>
@@ -4069,11 +4188,14 @@
       <c r="P10" s="140"/>
       <c r="Q10" s="140"/>
       <c r="R10" s="140"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="147"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="203"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="147"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="143" t="s">
         <v>524</v>
       </c>
@@ -4094,11 +4216,14 @@
       <c r="P11" s="138"/>
       <c r="Q11" s="138"/>
       <c r="R11" s="138"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="151"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="204"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="151"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="143" t="s">
         <v>490</v>
       </c>
@@ -4119,11 +4244,14 @@
       <c r="P12" s="138"/>
       <c r="Q12" s="138"/>
       <c r="R12" s="138"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="151"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="204"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="151"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="143" t="s">
         <v>61</v>
       </c>
@@ -4142,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="138" t="s">
-        <v>548</v>
+        <v>724</v>
       </c>
       <c r="I13" s="151" t="s">
         <v>546</v>
@@ -4154,7 +4282,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="138" t="s">
-        <v>548</v>
+        <v>724</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>22</v>
@@ -4163,7 +4291,7 @@
         <v>506</v>
       </c>
       <c r="O13" s="138" t="s">
-        <v>548</v>
+        <v>724</v>
       </c>
       <c r="P13" s="138" t="s">
         <v>67</v>
@@ -4174,17 +4302,26 @@
       <c r="R13" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="151" t="s">
+      <c r="S13" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="150" t="s">
+      <c r="T13" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="150" t="s">
         <v>511</v>
       </c>
-      <c r="U13" s="151" t="s">
+      <c r="V13" s="151" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W13" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" s="151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="143" t="s">
         <v>486</v>
       </c>
@@ -4235,17 +4372,26 @@
       <c r="R14" s="138" t="s">
         <v>488</v>
       </c>
-      <c r="S14" s="151" t="s">
+      <c r="S14" s="204" t="s">
         <v>488</v>
       </c>
-      <c r="T14" s="150" t="s">
+      <c r="T14" s="151" t="s">
+        <v>488</v>
+      </c>
+      <c r="U14" s="150" t="s">
         <v>502</v>
       </c>
-      <c r="U14" s="151" t="s">
+      <c r="V14" s="151" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W14" s="150" t="s">
+        <v>488</v>
+      </c>
+      <c r="X14" s="151" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="143" t="s">
         <v>487</v>
       </c>
@@ -4296,17 +4442,26 @@
       <c r="R15" s="138" t="s">
         <v>489</v>
       </c>
-      <c r="S15" s="151" t="s">
+      <c r="S15" s="204" t="s">
         <v>489</v>
       </c>
-      <c r="T15" s="150" t="s">
+      <c r="T15" s="151" t="s">
+        <v>489</v>
+      </c>
+      <c r="U15" s="150" t="s">
         <v>503</v>
       </c>
-      <c r="U15" s="151" t="s">
+      <c r="V15" s="151" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W15" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="X15" s="151" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="143" t="s">
         <v>63</v>
       </c>
@@ -4357,17 +4512,26 @@
       <c r="R16" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="204" t="s">
+        <v>218</v>
+      </c>
+      <c r="T16" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="T16" s="150" t="s">
-        <v>222</v>
-      </c>
-      <c r="U16" s="151" t="s">
+      <c r="U16" s="150" t="s">
+        <v>723</v>
+      </c>
+      <c r="V16" s="151" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="W16" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="X16" s="151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="154" t="s">
         <v>528</v>
       </c>
@@ -4388,11 +4552,14 @@
       <c r="P17" s="140"/>
       <c r="Q17" s="140"/>
       <c r="R17" s="140"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="147"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S17" s="203"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="147"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="143" t="s">
         <v>519</v>
       </c>
@@ -4413,11 +4580,14 @@
       <c r="P18" s="138"/>
       <c r="Q18" s="138"/>
       <c r="R18" s="138"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="151"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S18" s="204"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="151"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="143" t="s">
         <v>8</v>
       </c>
@@ -4438,15 +4608,18 @@
       <c r="P19" s="138"/>
       <c r="Q19" s="138"/>
       <c r="R19" s="138"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="150">
+      <c r="S19" s="204"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="150">
         <v>0.5</v>
       </c>
-      <c r="U19" s="151">
+      <c r="V19" s="151">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W19" s="150"/>
+      <c r="X19" s="151"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="143" t="s">
         <v>495</v>
       </c>
@@ -4467,113 +4640,136 @@
       <c r="P20" s="138"/>
       <c r="Q20" s="138"/>
       <c r="R20" s="138"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="151"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S20" s="204"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="151"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="143" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" s="150"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="205" t="s">
+        <v>729</v>
+      </c>
+      <c r="T21" s="196"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="196"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="196"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="143" t="s">
         <v>720</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="199"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="143" t="s">
+      <c r="B22" s="150"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="195"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="195"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="205">
+        <v>0.2</v>
+      </c>
+      <c r="T22" s="196"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="196"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="196"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="143" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="199"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="B23" s="150"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="195"/>
+      <c r="R23" s="195"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="196"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="196"/>
+      <c r="W23" s="150">
+        <v>-0.5</v>
+      </c>
+      <c r="X23" s="196">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="134" t="s">
         <v>527</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="147"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="203"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="147"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="143" t="s">
         <v>492</v>
-      </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="151"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
-        <v>493</v>
       </c>
       <c r="B25" s="150"/>
       <c r="C25" s="138"/>
@@ -4592,13 +4788,16 @@
       <c r="P25" s="138"/>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="151"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="204"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="151"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="143" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B26" s="150"/>
       <c r="C26" s="138"/>
@@ -4617,13 +4816,16 @@
       <c r="P26" s="138"/>
       <c r="Q26" s="138"/>
       <c r="R26" s="138"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="150"/>
-      <c r="U26" s="151"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S26" s="204"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="151"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="143" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B27" s="150"/>
       <c r="C27" s="138"/>
@@ -4642,13 +4844,16 @@
       <c r="P27" s="138"/>
       <c r="Q27" s="138"/>
       <c r="R27" s="138"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="151"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="204"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="151"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="143" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B28" s="150"/>
       <c r="C28" s="138"/>
@@ -4667,16 +4872,48 @@
       <c r="P28" s="138"/>
       <c r="Q28" s="138"/>
       <c r="R28" s="138"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="151"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="151"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="143" t="s">
+        <v>494</v>
+      </c>
+      <c r="B29" s="150"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="151"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5317,16 +5554,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="98" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>44</v>
@@ -5425,16 +5662,16 @@
         <v>15</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT2" s="98" t="s">
         <v>171</v>
@@ -5449,16 +5686,16 @@
         <v>171</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AZ2" s="98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BA2" s="98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BB2" s="98" t="s">
         <v>168</v>
@@ -5485,16 +5722,16 @@
         <v>169</v>
       </c>
       <c r="BJ2" s="98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BK2" s="98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BL2" s="98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BM2" s="98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BN2" s="98" t="s">
         <v>175</v>
@@ -5509,16 +5746,16 @@
         <v>175</v>
       </c>
       <c r="BR2" s="98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BS2" s="98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BT2" s="98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BU2" s="98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BV2" s="98" t="s">
         <v>166</v>
@@ -5629,28 +5866,28 @@
         <v>48</v>
       </c>
       <c r="DF2" s="98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DG2" s="98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DH2" s="98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DI2" s="98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="DJ2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DK2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DL2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DM2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="DN2" s="98" t="s">
         <v>193</v>
@@ -5677,16 +5914,16 @@
         <v>194</v>
       </c>
       <c r="DV2" s="98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="DW2" s="98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="DX2" s="98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="DY2" s="98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="DZ2" s="98" t="s">
         <v>62</v>
@@ -5701,16 +5938,16 @@
         <v>62</v>
       </c>
       <c r="ED2" s="98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="EE2" s="98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="EF2" s="98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="EG2" s="98" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="EH2" s="98" t="s">
         <v>49</v>
@@ -5725,28 +5962,28 @@
         <v>49</v>
       </c>
       <c r="EL2" s="98" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="EM2" s="98" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="EN2" s="98" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="EO2" s="98" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="EP2" s="98" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="EQ2" s="98" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="ER2" s="98" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="ES2" s="98" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="ET2" s="98" t="s">
         <v>112</v>
@@ -5761,16 +5998,16 @@
         <v>112</v>
       </c>
       <c r="EX2" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="EY2" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="EZ2" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="FA2" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="FB2" s="98" t="s">
         <v>14</v>
@@ -5797,16 +6034,16 @@
         <v>209</v>
       </c>
       <c r="FJ2" s="103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FK2" s="103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FL2" s="103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FM2" s="103" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FN2" s="103" t="s">
         <v>210</v>
@@ -5833,7 +6070,7 @@
         <v>211</v>
       </c>
       <c r="FV2" s="98" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6334,7 +6571,7 @@
       <c r="AY4" s="169"/>
       <c r="AZ4" s="169"/>
       <c r="BA4" s="169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BB4" s="169" t="s">
         <v>17</v>
@@ -6354,7 +6591,7 @@
       <c r="BK4" s="169"/>
       <c r="BL4" s="169"/>
       <c r="BM4" s="169" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BN4" s="169" t="s">
         <v>17</v>
@@ -6368,7 +6605,7 @@
       <c r="BS4" s="169"/>
       <c r="BT4" s="169"/>
       <c r="BU4" s="169" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BV4" s="169" t="s">
         <v>17</v>
@@ -6527,12 +6764,12 @@
       <c r="FT4" s="180"/>
       <c r="FU4" s="180"/>
       <c r="FV4" s="179" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -6555,25 +6792,25 @@
       <c r="T5" s="90"/>
       <c r="U5" s="90"/>
       <c r="V5" s="90" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W5" s="90"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="90"/>
       <c r="AD5" s="90" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AE5" s="90"/>
       <c r="AF5" s="90"/>
       <c r="AG5" s="90"/>
       <c r="AH5" s="90" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
@@ -6623,13 +6860,13 @@
       <c r="CB5" s="109"/>
       <c r="CC5" s="109"/>
       <c r="CD5" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CE5" s="109"/>
       <c r="CF5" s="109"/>
       <c r="CG5" s="109"/>
       <c r="CH5" s="109" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="CI5" s="109"/>
       <c r="CJ5" s="109"/>
@@ -6639,25 +6876,25 @@
       <c r="CN5" s="109"/>
       <c r="CO5" s="109"/>
       <c r="CP5" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CQ5" s="109"/>
       <c r="CR5" s="109"/>
       <c r="CS5" s="109"/>
       <c r="CT5" s="109" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="CU5" s="109"/>
       <c r="CV5" s="109"/>
       <c r="CW5" s="109"/>
       <c r="CX5" s="109" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="CY5" s="109"/>
       <c r="CZ5" s="109"/>
       <c r="DA5" s="109"/>
       <c r="DB5" s="109" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DC5" s="109"/>
       <c r="DD5" s="109"/>
@@ -6667,13 +6904,13 @@
       <c r="DH5" s="109"/>
       <c r="DI5" s="109"/>
       <c r="DJ5" s="109" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="DK5" s="109"/>
       <c r="DL5" s="109"/>
       <c r="DM5" s="109"/>
       <c r="DN5" s="109" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DO5" s="109"/>
       <c r="DP5" s="109"/>
@@ -6683,13 +6920,13 @@
       <c r="DT5" s="109"/>
       <c r="DU5" s="109"/>
       <c r="DV5" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="DW5" s="109"/>
       <c r="DX5" s="109"/>
       <c r="DY5" s="109"/>
       <c r="DZ5" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="EA5" s="109"/>
       <c r="EB5" s="109"/>
@@ -6699,13 +6936,13 @@
       <c r="EF5" s="109"/>
       <c r="EG5" s="109"/>
       <c r="EH5" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="EI5" s="109"/>
       <c r="EJ5" s="109"/>
       <c r="EK5" s="109"/>
       <c r="EL5" s="109" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="EM5" s="109"/>
       <c r="EN5" s="109"/>
@@ -6755,12 +6992,12 @@
       <c r="D6" s="104"/>
       <c r="E6" s="104"/>
       <c r="F6" s="104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G6" s="104"/>
       <c r="H6" s="104"/>
       <c r="I6" s="104" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J6" s="101" t="s">
         <v>220</v>
@@ -6827,7 +7064,7 @@
       <c r="BP6" s="169"/>
       <c r="BQ6" s="169"/>
       <c r="BR6" s="169" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="BS6" s="169"/>
       <c r="BT6" s="169"/>
@@ -6843,7 +7080,7 @@
       <c r="CB6" s="109"/>
       <c r="CC6" s="109"/>
       <c r="CD6" s="109" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="CE6" s="109"/>
       <c r="CF6" s="109"/>
@@ -6897,7 +7134,7 @@
       <c r="EB6" s="109"/>
       <c r="EC6" s="109"/>
       <c r="ED6" s="109" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="EE6" s="109"/>
       <c r="EF6" s="109"/>
@@ -7011,7 +7248,7 @@
       <c r="BH7" s="169"/>
       <c r="BI7" s="169"/>
       <c r="BJ7" s="169" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BK7" s="169"/>
       <c r="BL7" s="169"/>
@@ -7021,7 +7258,7 @@
       <c r="BP7" s="169"/>
       <c r="BQ7" s="169"/>
       <c r="BR7" s="169" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BS7" s="169"/>
       <c r="BT7" s="169"/>
@@ -7322,7 +7559,7 @@
     </row>
     <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -7345,25 +7582,25 @@
       <c r="T9" s="90"/>
       <c r="U9" s="90"/>
       <c r="V9" s="90" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W9" s="90"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
       <c r="Z9" s="87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AA9" s="90"/>
       <c r="AB9" s="90"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="87" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
       <c r="AG9" s="90"/>
       <c r="AH9" s="90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AI9" s="90"/>
       <c r="AJ9" s="90"/>
@@ -7521,7 +7758,7 @@
       <c r="D10" s="104"/>
       <c r="E10" s="104"/>
       <c r="F10" s="104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
@@ -7557,7 +7794,7 @@
       <c r="AB10" s="90"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
@@ -7575,7 +7812,7 @@
       <c r="AN10" s="178"/>
       <c r="AO10" s="178"/>
       <c r="AP10" s="164" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ10" s="164"/>
       <c r="AR10" s="164"/>
@@ -7587,7 +7824,7 @@
       <c r="AV10" s="164"/>
       <c r="AW10" s="164"/>
       <c r="AX10" s="169" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AY10" s="169"/>
       <c r="AZ10" s="169"/>
@@ -7617,7 +7854,7 @@
       <c r="BP10" s="169"/>
       <c r="BQ10" s="169"/>
       <c r="BR10" s="169" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BS10" s="169"/>
       <c r="BT10" s="169"/>
@@ -7635,7 +7872,7 @@
       <c r="CB10" s="109"/>
       <c r="CC10" s="109"/>
       <c r="CD10" s="109" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CE10" s="109"/>
       <c r="CF10" s="109"/>
@@ -7677,17 +7914,17 @@
       <c r="DD10" s="109"/>
       <c r="DE10" s="109"/>
       <c r="DF10" s="109" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DG10" s="109"/>
       <c r="DH10" s="109"/>
       <c r="DI10" s="109"/>
       <c r="DJ10" s="109" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="DK10" s="109"/>
       <c r="DL10" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM10" s="109"/>
       <c r="DN10" s="109" t="s">
@@ -7703,7 +7940,7 @@
       <c r="DT10" s="109"/>
       <c r="DU10" s="109"/>
       <c r="DV10" s="109" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="DW10" s="109"/>
       <c r="DX10" s="109"/>
@@ -7715,7 +7952,7 @@
       <c r="EB10" s="109"/>
       <c r="EC10" s="109"/>
       <c r="ED10" s="109" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="EE10" s="109"/>
       <c r="EF10" s="109"/>
@@ -7727,15 +7964,15 @@
       <c r="EJ10" s="109"/>
       <c r="EK10" s="109"/>
       <c r="EL10" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EM10" s="109"/>
       <c r="EN10" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO10" s="109"/>
       <c r="EP10" s="109" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EQ10" s="109"/>
       <c r="ER10" s="109"/>
@@ -7763,7 +8000,7 @@
       <c r="FH10" s="180"/>
       <c r="FI10" s="180"/>
       <c r="FJ10" s="179" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="FK10" s="180"/>
       <c r="FL10" s="180"/>
@@ -7987,16 +8224,16 @@
       <c r="D12" s="104"/>
       <c r="E12" s="104"/>
       <c r="F12" s="104" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H12" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>586</v>
-      </c>
-      <c r="I12" s="104" t="s">
-        <v>587</v>
       </c>
       <c r="J12" s="101" t="s">
         <v>102</v>
@@ -8071,13 +8308,13 @@
       <c r="BX12" s="169"/>
       <c r="BY12" s="169"/>
       <c r="BZ12" s="109" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="CA12" s="109"/>
       <c r="CB12" s="109"/>
       <c r="CC12" s="109"/>
       <c r="CD12" s="109" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="CE12" s="109"/>
       <c r="CF12" s="109"/>
@@ -8596,7 +8833,7 @@
     </row>
     <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
@@ -8784,7 +9021,7 @@
     </row>
     <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B15" s="112"/>
       <c r="C15" s="112"/>
@@ -8972,7 +9209,7 @@
     </row>
     <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" s="112"/>
       <c r="C16" s="112"/>
@@ -9051,7 +9288,7 @@
       <c r="BX16" s="169"/>
       <c r="BY16" s="169"/>
       <c r="BZ16" s="157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CA16" s="113"/>
       <c r="CB16" s="113"/>
@@ -9109,7 +9346,7 @@
       <c r="EB16" s="113"/>
       <c r="EC16" s="113"/>
       <c r="ED16" s="185" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="EE16" s="113"/>
       <c r="EF16" s="113"/>
@@ -9155,7 +9392,7 @@
       <c r="FT16" s="179"/>
       <c r="FU16" s="179"/>
       <c r="FV16" s="181" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9961,10 +10198,10 @@
       </c>
       <c r="DK19" s="109"/>
       <c r="DL19" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM19" s="109" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="DN19" s="109">
         <v>1</v>
@@ -10007,10 +10244,10 @@
       </c>
       <c r="EM19" s="109"/>
       <c r="EN19" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO19" s="109" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="EP19" s="109">
         <v>0.99</v>
@@ -10177,7 +10414,7 @@
       <c r="CV20" s="109"/>
       <c r="CW20" s="109"/>
       <c r="CX20" s="109" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CY20" s="109"/>
       <c r="CZ20" s="109"/>
@@ -10195,7 +10432,7 @@
       <c r="DH20" s="109"/>
       <c r="DI20" s="109"/>
       <c r="DJ20" s="109" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="DK20" s="109"/>
       <c r="DL20" s="109"/>
@@ -10213,7 +10450,7 @@
       <c r="DT20" s="109"/>
       <c r="DU20" s="109"/>
       <c r="DV20" s="109" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="DW20" s="109"/>
       <c r="DX20" s="109"/>
@@ -10237,7 +10474,7 @@
       <c r="EJ20" s="109"/>
       <c r="EK20" s="109"/>
       <c r="EL20" s="109" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EM20" s="109"/>
       <c r="EN20" s="109"/>
@@ -10371,7 +10608,7 @@
       <c r="BX21" s="169"/>
       <c r="BY21" s="169"/>
       <c r="BZ21" s="109" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="CA21" s="109"/>
       <c r="CB21" s="109"/>
@@ -10425,14 +10662,14 @@
       <c r="DH21" s="109"/>
       <c r="DI21" s="109"/>
       <c r="DJ21" s="109" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="DK21" s="109"/>
       <c r="DL21" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="DM21" s="109" t="s">
         <v>695</v>
-      </c>
-      <c r="DM21" s="109" t="s">
-        <v>696</v>
       </c>
       <c r="DN21" s="109" t="s">
         <v>127</v>
@@ -10471,17 +10708,17 @@
       <c r="EJ21" s="109"/>
       <c r="EK21" s="109"/>
       <c r="EL21" s="109" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EM21" s="109"/>
       <c r="EN21" s="109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="EO21" s="109" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="EP21" s="109" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EQ21" s="109"/>
       <c r="ER21" s="109"/>
@@ -10565,29 +10802,29 @@
       <c r="AJ22" s="90"/>
       <c r="AK22" s="90"/>
       <c r="AL22" s="164" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM22" s="178"/>
       <c r="AN22" s="178"/>
       <c r="AO22" s="178"/>
       <c r="AP22" s="164" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ22" s="164" t="s">
+        <v>605</v>
+      </c>
+      <c r="AR22" s="164" t="s">
         <v>606</v>
-      </c>
-      <c r="AQ22" s="164" t="s">
-        <v>606</v>
-      </c>
-      <c r="AR22" s="164" t="s">
-        <v>607</v>
       </c>
       <c r="AS22" s="164"/>
       <c r="AT22" s="167" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AU22" s="164" t="s">
+        <v>619</v>
+      </c>
+      <c r="AV22" s="164" t="s">
         <v>620</v>
-      </c>
-      <c r="AV22" s="164" t="s">
-        <v>621</v>
       </c>
       <c r="AW22" s="164"/>
       <c r="AX22" s="169"/>
@@ -10603,7 +10840,7 @@
       <c r="BH22" s="169"/>
       <c r="BI22" s="169"/>
       <c r="BJ22" s="169" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="BK22" s="169"/>
       <c r="BL22" s="169"/>
@@ -10621,7 +10858,7 @@
       <c r="BX22" s="169"/>
       <c r="BY22" s="169"/>
       <c r="BZ22" s="109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CA22" s="109"/>
       <c r="CB22" s="109"/>
@@ -10657,7 +10894,7 @@
       <c r="CV22" s="109"/>
       <c r="CW22" s="109"/>
       <c r="CX22" s="109" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="CY22" s="109"/>
       <c r="CZ22" s="109"/>
@@ -10669,22 +10906,22 @@
       <c r="DD22" s="109"/>
       <c r="DE22" s="109"/>
       <c r="DF22" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DG22" s="109"/>
       <c r="DH22" s="109" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="DI22" s="109"/>
       <c r="DJ22" s="109" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="DK22" s="109"/>
       <c r="DL22" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="DM22" s="109" t="s">
         <v>695</v>
-      </c>
-      <c r="DM22" s="109" t="s">
-        <v>696</v>
       </c>
       <c r="DN22" s="109" t="s">
         <v>202</v>
@@ -10711,7 +10948,7 @@
       <c r="EB22" s="109"/>
       <c r="EC22" s="109"/>
       <c r="ED22" s="109" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="EE22" s="109"/>
       <c r="EF22" s="109"/>
@@ -10723,17 +10960,17 @@
       <c r="EJ22" s="109"/>
       <c r="EK22" s="109"/>
       <c r="EL22" s="109" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="EM22" s="109"/>
       <c r="EN22" s="109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="EO22" s="109" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="EP22" s="109" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="EQ22" s="109"/>
       <c r="ER22" s="109"/>
@@ -11396,14 +11633,14 @@
       <c r="DH24" s="109"/>
       <c r="DI24" s="109"/>
       <c r="DJ24" s="109" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="DK24" s="109"/>
       <c r="DL24" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="DM24" s="109" t="s">
         <v>695</v>
-      </c>
-      <c r="DM24" s="109" t="s">
-        <v>696</v>
       </c>
       <c r="DN24" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11483,17 +11720,17 @@
       <c r="EJ24" s="109"/>
       <c r="EK24" s="109"/>
       <c r="EL24" s="109" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EM24" s="109"/>
       <c r="EN24" s="109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="EO24" s="109" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="EP24" s="109" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EQ24" s="109"/>
       <c r="ER24" s="109"/>
@@ -13379,7 +13616,7 @@
       </c>
       <c r="DG31" s="109"/>
       <c r="DH31" s="109" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="DI31" s="109"/>
       <c r="DJ31" s="109"/>
@@ -13589,7 +13826,7 @@
       </c>
       <c r="DG32" s="109"/>
       <c r="DH32" s="109" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="DI32" s="109"/>
       <c r="DJ32" s="109"/>
@@ -13799,7 +14036,7 @@
       </c>
       <c r="DG33" s="109"/>
       <c r="DH33" s="109" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="DI33" s="109"/>
       <c r="DJ33" s="109"/>
@@ -14077,7 +14314,7 @@
       </c>
       <c r="DG34" s="109"/>
       <c r="DH34" s="109" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="DI34" s="109"/>
       <c r="DJ34" s="109"/>
@@ -14535,7 +14772,7 @@
       </c>
       <c r="DG36" s="109"/>
       <c r="DH36" s="109" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="DI36" s="109"/>
       <c r="DJ36" s="109"/>
@@ -15082,7 +15319,7 @@
         <v>297</v>
       </c>
       <c r="AO38" s="164" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AP38" s="164"/>
       <c r="AQ38" s="164"/>
@@ -15515,7 +15752,7 @@
       <c r="AJ40" s="91"/>
       <c r="AK40" s="91"/>
       <c r="AL40" s="164" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AM40" s="164"/>
       <c r="AN40" s="164"/>
@@ -15563,13 +15800,13 @@
       <c r="CB40" s="113"/>
       <c r="CC40" s="113"/>
       <c r="CD40" s="113" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="CE40" s="113"/>
       <c r="CF40" s="113"/>
       <c r="CG40" s="113"/>
       <c r="CH40" s="113" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="CI40" s="113"/>
       <c r="CJ40" s="113"/>
@@ -15593,34 +15830,34 @@
       <c r="CV40" s="113"/>
       <c r="CW40" s="113"/>
       <c r="CX40" s="113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="CY40" s="113"/>
       <c r="CZ40" s="113"/>
       <c r="DA40" s="113"/>
       <c r="DB40" s="113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="DC40" s="113"/>
       <c r="DD40" s="113"/>
       <c r="DE40" s="113"/>
       <c r="DF40" s="113" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="DG40" s="113"/>
       <c r="DH40" s="113"/>
       <c r="DI40" s="113" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="DJ40" s="113" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="DK40" s="113"/>
       <c r="DL40" s="113" t="s">
+        <v>699</v>
+      </c>
+      <c r="DM40" s="113" t="s">
         <v>700</v>
-      </c>
-      <c r="DM40" s="113" t="s">
-        <v>701</v>
       </c>
       <c r="DN40" s="113" t="s">
         <v>317</v>
@@ -15635,7 +15872,7 @@
       <c r="DT40" s="113"/>
       <c r="DU40" s="113"/>
       <c r="DV40" s="113" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="DW40" s="113"/>
       <c r="DX40" s="113"/>
@@ -15647,7 +15884,7 @@
       <c r="EB40" s="113"/>
       <c r="EC40" s="113"/>
       <c r="ED40" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="EE40" s="113"/>
       <c r="EF40" s="113"/>
@@ -15663,7 +15900,7 @@
       <c r="EN40" s="113"/>
       <c r="EO40" s="113"/>
       <c r="EP40" s="113" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="EQ40" s="113"/>
       <c r="ER40" s="113"/>
@@ -15700,7 +15937,7 @@
     </row>
     <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B41" s="112"/>
       <c r="C41" s="112"/>
@@ -16354,7 +16591,7 @@
     </row>
     <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B44" s="112"/>
       <c r="C44" s="112"/>
@@ -16365,10 +16602,10 @@
       </c>
       <c r="G44" s="112"/>
       <c r="H44" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="I44" s="112" t="s">
         <v>568</v>
-      </c>
-      <c r="I44" s="112" t="s">
-        <v>569</v>
       </c>
       <c r="J44" s="112"/>
       <c r="K44" s="112"/>
@@ -16445,10 +16682,10 @@
       </c>
       <c r="CA44" s="113"/>
       <c r="CB44" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="CC44" s="113" t="s">
         <v>579</v>
-      </c>
-      <c r="CC44" s="113" t="s">
-        <v>580</v>
       </c>
       <c r="CD44" s="113">
         <v>0</v>
@@ -16461,7 +16698,7 @@
       </c>
       <c r="CI44" s="113"/>
       <c r="CJ44" s="113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="CK44" s="113"/>
       <c r="CL44" s="113">
@@ -16475,24 +16712,24 @@
       </c>
       <c r="CQ44" s="113"/>
       <c r="CR44" s="113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="CS44" s="113"/>
       <c r="CT44" s="113">
         <v>-0.5</v>
       </c>
       <c r="CU44" s="113" t="s">
+        <v>570</v>
+      </c>
+      <c r="CV44" s="113" t="s">
         <v>571</v>
-      </c>
-      <c r="CV44" s="113" t="s">
-        <v>572</v>
       </c>
       <c r="CW44" s="113"/>
       <c r="CX44" s="113">
         <v>0</v>
       </c>
       <c r="CY44" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="CZ44" s="113"/>
       <c r="DA44" s="113"/>
@@ -16501,10 +16738,10 @@
       </c>
       <c r="DC44" s="113"/>
       <c r="DD44" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="DE44" s="113" t="s">
         <v>573</v>
-      </c>
-      <c r="DE44" s="113" t="s">
-        <v>574</v>
       </c>
       <c r="DF44" s="113">
         <v>0</v>
@@ -16535,7 +16772,7 @@
       </c>
       <c r="DW44" s="113"/>
       <c r="DX44" s="113" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="DY44" s="113"/>
       <c r="DZ44" s="113">
@@ -16543,7 +16780,7 @@
       </c>
       <c r="EA44" s="113"/>
       <c r="EB44" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="EC44" s="113"/>
       <c r="ED44" s="113">
@@ -16557,7 +16794,7 @@
       </c>
       <c r="EI44" s="113"/>
       <c r="EJ44" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="EK44" s="113"/>
       <c r="EL44" s="113"/>
@@ -16602,7 +16839,7 @@
     </row>
     <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="112"/>
@@ -16613,10 +16850,10 @@
       </c>
       <c r="G45" s="112"/>
       <c r="H45" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="I45" s="112" t="s">
         <v>568</v>
-      </c>
-      <c r="I45" s="112" t="s">
-        <v>569</v>
       </c>
       <c r="J45" s="112"/>
       <c r="K45" s="112"/>
@@ -16651,7 +16888,7 @@
       </c>
       <c r="AM45" s="164"/>
       <c r="AN45" s="164" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO45" s="164"/>
       <c r="AP45" s="164"/>
@@ -16695,10 +16932,10 @@
       </c>
       <c r="CA45" s="113"/>
       <c r="CB45" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="CC45" s="113" t="s">
         <v>579</v>
-      </c>
-      <c r="CC45" s="113" t="s">
-        <v>580</v>
       </c>
       <c r="CD45" s="113">
         <v>0</v>
@@ -16711,7 +16948,7 @@
       </c>
       <c r="CI45" s="113"/>
       <c r="CJ45" s="113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="CK45" s="113"/>
       <c r="CL45" s="113">
@@ -16725,7 +16962,7 @@
       </c>
       <c r="CQ45" s="113"/>
       <c r="CR45" s="113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="CS45" s="113"/>
       <c r="CT45" s="113">
@@ -16738,7 +16975,7 @@
         <v>-0.25</v>
       </c>
       <c r="CY45" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="CZ45" s="113"/>
       <c r="DA45" s="113"/>
@@ -16747,10 +16984,10 @@
       </c>
       <c r="DC45" s="113"/>
       <c r="DD45" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="DE45" s="113" t="s">
         <v>573</v>
-      </c>
-      <c r="DE45" s="113" t="s">
-        <v>574</v>
       </c>
       <c r="DF45" s="113">
         <v>0</v>
@@ -17714,7 +17951,7 @@
     </row>
     <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B50" s="112"/>
       <c r="C50" s="112"/>
@@ -17932,7 +18169,7 @@
     </row>
     <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B51" s="112"/>
       <c r="C51" s="112"/>
@@ -18210,7 +18447,7 @@
     </row>
     <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="159" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B52" s="102"/>
       <c r="C52" s="102"/>
@@ -18249,7 +18486,7 @@
       <c r="AJ52" s="92"/>
       <c r="AK52" s="90"/>
       <c r="AL52" s="167" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -18291,97 +18528,97 @@
       <c r="BX52" s="169"/>
       <c r="BY52" s="169"/>
       <c r="BZ52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CA52" s="113"/>
       <c r="CB52" s="113"/>
       <c r="CC52" s="113"/>
       <c r="CD52" s="113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="CE52" s="113"/>
       <c r="CF52" s="113"/>
       <c r="CG52" s="113"/>
       <c r="CH52" s="113" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="CI52" s="113"/>
       <c r="CJ52" s="113"/>
       <c r="CK52" s="113"/>
       <c r="CL52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CM52" s="113"/>
       <c r="CN52" s="113"/>
       <c r="CO52" s="113"/>
       <c r="CP52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CQ52" s="113"/>
       <c r="CR52" s="113"/>
       <c r="CS52" s="113"/>
       <c r="CT52" s="113" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CU52" s="113"/>
       <c r="CV52" s="113"/>
       <c r="CW52" s="113"/>
       <c r="CX52" s="113" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CY52" s="113"/>
       <c r="CZ52" s="113"/>
       <c r="DA52" s="113"/>
       <c r="DB52" s="113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="DC52" s="113"/>
       <c r="DD52" s="113"/>
       <c r="DE52" s="113"/>
       <c r="DF52" s="187" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DG52" s="113"/>
       <c r="DH52" s="113"/>
       <c r="DI52" s="113"/>
       <c r="DJ52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DK52" s="113"/>
       <c r="DL52" s="113"/>
       <c r="DM52" s="113"/>
       <c r="DN52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DO52" s="113"/>
       <c r="DP52" s="113"/>
       <c r="DQ52" s="113"/>
       <c r="DR52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="DS52" s="113"/>
       <c r="DT52" s="113"/>
       <c r="DU52" s="113"/>
       <c r="DV52" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="DW52" s="113"/>
       <c r="DX52" s="113"/>
       <c r="DY52" s="113"/>
       <c r="DZ52" s="113" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="EA52" s="113"/>
       <c r="EB52" s="113"/>
       <c r="EC52" s="113"/>
       <c r="ED52" s="113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="EE52" s="113"/>
       <c r="EF52" s="113"/>
       <c r="EG52" s="113"/>
       <c r="EH52" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="EI52" s="187"/>
       <c r="EJ52" s="187"/>
@@ -18391,7 +18628,7 @@
       <c r="EN52" s="187"/>
       <c r="EO52" s="187"/>
       <c r="EP52" s="187" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="EQ52" s="187"/>
       <c r="ER52" s="187"/>
@@ -18969,7 +19206,7 @@
       </c>
       <c r="DK54" s="111"/>
       <c r="DL54" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM54" s="111"/>
       <c r="DN54" s="70"/>
@@ -19003,7 +19240,7 @@
       </c>
       <c r="EM54" s="111"/>
       <c r="EN54" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO54" s="111"/>
       <c r="EP54" s="111"/>
@@ -19583,10 +19820,10 @@
       </c>
       <c r="DK56" s="111"/>
       <c r="DL56" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM56" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DN56" s="70"/>
       <c r="DO56" s="111"/>
@@ -19619,10 +19856,10 @@
       </c>
       <c r="EM56" s="111"/>
       <c r="EN56" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO56" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="EP56" s="111"/>
       <c r="EQ56" s="111"/>
@@ -20201,7 +20438,7 @@
       </c>
       <c r="DK58" s="111"/>
       <c r="DL58" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM58" s="111"/>
       <c r="DN58" s="70"/>
@@ -20235,7 +20472,7 @@
       </c>
       <c r="EM58" s="111"/>
       <c r="EN58" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO58" s="111"/>
       <c r="EP58" s="111"/>
@@ -20815,10 +21052,10 @@
       </c>
       <c r="DK60" s="111"/>
       <c r="DL60" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM60" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="DN60" s="70"/>
       <c r="DO60" s="111"/>
@@ -20851,10 +21088,10 @@
       </c>
       <c r="EM60" s="111"/>
       <c r="EN60" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO60" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP60" s="111"/>
       <c r="EQ60" s="111"/>
@@ -21433,10 +21670,10 @@
       </c>
       <c r="DK62" s="111"/>
       <c r="DL62" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM62" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="DN62" s="70"/>
       <c r="DO62" s="111"/>
@@ -21469,10 +21706,10 @@
       </c>
       <c r="EM62" s="111"/>
       <c r="EN62" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO62" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP62" s="111"/>
       <c r="EQ62" s="111"/>
@@ -22051,7 +22288,7 @@
       </c>
       <c r="DK64" s="111"/>
       <c r="DL64" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM64" s="111"/>
       <c r="DN64" s="70"/>
@@ -22085,10 +22322,10 @@
       </c>
       <c r="EM64" s="111"/>
       <c r="EN64" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO64" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="EP64" s="111"/>
       <c r="EQ64" s="111"/>
@@ -22667,10 +22904,10 @@
       </c>
       <c r="DK66" s="111"/>
       <c r="DL66" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM66" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="DN66" s="70"/>
       <c r="DO66" s="111"/>
@@ -22703,10 +22940,10 @@
       </c>
       <c r="EM66" s="111"/>
       <c r="EN66" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO66" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP66" s="111"/>
       <c r="EQ66" s="111"/>
@@ -23285,7 +23522,7 @@
       </c>
       <c r="DK68" s="111"/>
       <c r="DL68" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM68" s="111"/>
       <c r="DN68" s="70"/>
@@ -23319,7 +23556,7 @@
       </c>
       <c r="EM68" s="111"/>
       <c r="EN68" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO68" s="111"/>
       <c r="EP68" s="111"/>
@@ -23899,10 +24136,10 @@
       </c>
       <c r="DK70" s="111"/>
       <c r="DL70" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM70" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="DN70" s="70"/>
       <c r="DO70" s="111"/>
@@ -23935,10 +24172,10 @@
       </c>
       <c r="EM70" s="111"/>
       <c r="EN70" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO70" s="111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="EP70" s="111"/>
       <c r="EQ70" s="111"/>
@@ -24517,10 +24754,10 @@
       </c>
       <c r="DK72" s="111"/>
       <c r="DL72" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM72" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="DN72" s="70"/>
       <c r="DO72" s="111"/>
@@ -24553,10 +24790,10 @@
       </c>
       <c r="EM72" s="111"/>
       <c r="EN72" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO72" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP72" s="111"/>
       <c r="EQ72" s="111"/>
@@ -25135,7 +25372,7 @@
       </c>
       <c r="DK74" s="111"/>
       <c r="DL74" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM74" s="111"/>
       <c r="DN74" s="70"/>
@@ -25169,10 +25406,10 @@
       </c>
       <c r="EM74" s="111"/>
       <c r="EN74" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO74" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="EP74" s="111"/>
       <c r="EQ74" s="111"/>
@@ -25751,7 +25988,7 @@
       </c>
       <c r="DK76" s="111"/>
       <c r="DL76" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM76" s="111"/>
       <c r="DN76" s="70"/>
@@ -25785,7 +26022,7 @@
       </c>
       <c r="EM76" s="111"/>
       <c r="EN76" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO76" s="111"/>
       <c r="EP76" s="111"/>
@@ -26365,7 +26602,7 @@
       </c>
       <c r="DK78" s="111"/>
       <c r="DL78" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DM78" s="111"/>
       <c r="DN78" s="70"/>
@@ -26399,10 +26636,10 @@
       </c>
       <c r="EM78" s="111"/>
       <c r="EN78" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO78" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP78" s="111"/>
       <c r="EQ78" s="111"/>
@@ -26496,10 +26733,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="191" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -26529,7 +26766,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -26537,16 +26774,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C6" s="192" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -26576,7 +26813,7 @@
         <v>483</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -26584,16 +26821,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C9" s="192" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -26633,10 +26870,10 @@
         <v>230</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -26674,7 +26911,7 @@
         <v>231</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E15" s="74"/>
     </row>
@@ -26713,7 +26950,7 @@
         <v>232</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E18" s="74"/>
     </row>
@@ -26771,7 +27008,7 @@
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="192" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -26945,10 +27182,10 @@
         <v>264</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -27109,7 +27346,7 @@
         <v>180</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N7" s="71" t="s">
         <v>180</v>
@@ -27285,7 +27522,7 @@
         <v>180</v>
       </c>
       <c r="M11" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N11" s="71" t="s">
         <v>180</v>
@@ -27373,7 +27610,7 @@
         <v>180</v>
       </c>
       <c r="M13" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N13" s="71" t="s">
         <v>180</v>
@@ -27381,46 +27618,46 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27513,46 +27750,46 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27645,46 +27882,46 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -27777,46 +28014,46 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -27835,10 +28072,10 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -27865,46 +28102,46 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>561</v>
-      </c>
       <c r="C26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -27923,7 +28160,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N27" s="26"/>
     </row>
@@ -27943,7 +28180,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N28" s="26"/>
     </row>
@@ -27990,7 +28227,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -28011,10 +28248,10 @@
         <v>214</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -28045,10 +28282,10 @@
         <v>213</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -28079,10 +28316,10 @@
         <v>215</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -28113,7 +28350,7 @@
         <v>217</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E10" s="71" t="s">
         <v>342</v>
@@ -28130,7 +28367,7 @@
         <v>216</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E11" s="71" t="s">
         <v>343</v>
@@ -30149,7 +30386,7 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B143" s="41" t="s">
         <v>142</v>
@@ -30371,7 +30608,7 @@
     </row>
     <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="40" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B159" s="41" t="s">
         <v>142</v>
@@ -30572,7 +30809,7 @@
         <v>155</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
@@ -30593,7 +30830,7 @@
     </row>
     <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="40" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B175" s="41" t="s">
         <v>142</v>
@@ -30815,7 +31052,7 @@
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B191" s="36" t="s">
         <v>142</v>
@@ -31037,7 +31274,7 @@
     </row>
     <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B207" s="36" t="s">
         <v>142</v>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\biogears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="734">
   <si>
     <t>Name</t>
   </si>
@@ -2233,6 +2233,9 @@
   </si>
   <si>
     <t>65 in</t>
+  </si>
+  <si>
+    <t>0.2 1/min</t>
   </si>
 </sst>
 </file>
@@ -3271,15 +3274,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3296,6 +3290,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3618,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3653,39 +3656,39 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="134"/>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="203" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="197" t="s">
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="203" t="s">
         <v>515</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="197" t="s">
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="203" t="s">
         <v>516</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="197" t="s">
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="203" t="s">
         <v>517</v>
       </c>
-      <c r="V1" s="199"/>
-      <c r="W1" s="197" t="s">
+      <c r="V1" s="205"/>
+      <c r="W1" s="203" t="s">
         <v>722</v>
       </c>
-      <c r="X1" s="199"/>
+      <c r="X1" s="205"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
@@ -3742,7 +3745,7 @@
       <c r="R2" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="S2" s="200" t="s">
+      <c r="S2" s="197" t="s">
         <v>725</v>
       </c>
       <c r="T2" s="145" t="s">
@@ -3782,7 +3785,7 @@
       <c r="P3" s="141"/>
       <c r="Q3" s="141"/>
       <c r="R3" s="141"/>
-      <c r="S3" s="201"/>
+      <c r="S3" s="198"/>
       <c r="T3" s="153"/>
       <c r="U3" s="152"/>
       <c r="V3" s="153"/>
@@ -3844,7 +3847,7 @@
       <c r="R4" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="202" t="s">
+      <c r="S4" s="199" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="149" t="s">
@@ -3884,7 +3887,7 @@
       <c r="P5" s="140"/>
       <c r="Q5" s="140"/>
       <c r="R5" s="140"/>
-      <c r="S5" s="203"/>
+      <c r="S5" s="200"/>
       <c r="T5" s="147"/>
       <c r="U5" s="146"/>
       <c r="V5" s="147"/>
@@ -3942,7 +3945,7 @@
       <c r="R6" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="S6" s="204" t="s">
+      <c r="S6" s="201" t="s">
         <v>726</v>
       </c>
       <c r="T6" s="151" t="s">
@@ -4012,7 +4015,7 @@
       <c r="R7" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="S7" s="204" t="s">
+      <c r="S7" s="201" t="s">
         <v>727</v>
       </c>
       <c r="T7" s="151" t="s">
@@ -4078,7 +4081,7 @@
       <c r="R8" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="S8" s="204" t="s">
+      <c r="S8" s="201" t="s">
         <v>728</v>
       </c>
       <c r="T8" s="151" t="s">
@@ -4148,7 +4151,7 @@
       <c r="R9" s="138">
         <v>0.25</v>
       </c>
-      <c r="S9" s="204">
+      <c r="S9" s="201">
         <v>0.21</v>
       </c>
       <c r="T9" s="151">
@@ -4188,7 +4191,7 @@
       <c r="P10" s="140"/>
       <c r="Q10" s="140"/>
       <c r="R10" s="140"/>
-      <c r="S10" s="203"/>
+      <c r="S10" s="200"/>
       <c r="T10" s="147"/>
       <c r="U10" s="146"/>
       <c r="V10" s="147"/>
@@ -4216,7 +4219,7 @@
       <c r="P11" s="138"/>
       <c r="Q11" s="138"/>
       <c r="R11" s="138"/>
-      <c r="S11" s="204"/>
+      <c r="S11" s="201"/>
       <c r="T11" s="151"/>
       <c r="U11" s="150"/>
       <c r="V11" s="151"/>
@@ -4244,7 +4247,7 @@
       <c r="P12" s="138"/>
       <c r="Q12" s="138"/>
       <c r="R12" s="138"/>
-      <c r="S12" s="204"/>
+      <c r="S12" s="201"/>
       <c r="T12" s="151"/>
       <c r="U12" s="150"/>
       <c r="V12" s="151"/>
@@ -4302,7 +4305,7 @@
       <c r="R13" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="204" t="s">
+      <c r="S13" s="201" t="s">
         <v>22</v>
       </c>
       <c r="T13" s="151" t="s">
@@ -4372,7 +4375,7 @@
       <c r="R14" s="138" t="s">
         <v>488</v>
       </c>
-      <c r="S14" s="204" t="s">
+      <c r="S14" s="201" t="s">
         <v>488</v>
       </c>
       <c r="T14" s="151" t="s">
@@ -4442,7 +4445,7 @@
       <c r="R15" s="138" t="s">
         <v>489</v>
       </c>
-      <c r="S15" s="204" t="s">
+      <c r="S15" s="201" t="s">
         <v>489</v>
       </c>
       <c r="T15" s="151" t="s">
@@ -4512,7 +4515,7 @@
       <c r="R16" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="204" t="s">
+      <c r="S16" s="201" t="s">
         <v>218</v>
       </c>
       <c r="T16" s="151" t="s">
@@ -4552,7 +4555,7 @@
       <c r="P17" s="140"/>
       <c r="Q17" s="140"/>
       <c r="R17" s="140"/>
-      <c r="S17" s="203"/>
+      <c r="S17" s="200"/>
       <c r="T17" s="147"/>
       <c r="U17" s="146"/>
       <c r="V17" s="147"/>
@@ -4580,7 +4583,7 @@
       <c r="P18" s="138"/>
       <c r="Q18" s="138"/>
       <c r="R18" s="138"/>
-      <c r="S18" s="204"/>
+      <c r="S18" s="201"/>
       <c r="T18" s="151"/>
       <c r="U18" s="150"/>
       <c r="V18" s="151"/>
@@ -4608,7 +4611,7 @@
       <c r="P19" s="138"/>
       <c r="Q19" s="138"/>
       <c r="R19" s="138"/>
-      <c r="S19" s="204"/>
+      <c r="S19" s="201"/>
       <c r="T19" s="151"/>
       <c r="U19" s="150">
         <v>0.5</v>
@@ -4640,7 +4643,7 @@
       <c r="P20" s="138"/>
       <c r="Q20" s="138"/>
       <c r="R20" s="138"/>
-      <c r="S20" s="204"/>
+      <c r="S20" s="201"/>
       <c r="T20" s="151"/>
       <c r="U20" s="150"/>
       <c r="V20" s="151"/>
@@ -4668,7 +4671,7 @@
       <c r="P21" s="195"/>
       <c r="Q21" s="195"/>
       <c r="R21" s="195"/>
-      <c r="S21" s="205" t="s">
+      <c r="S21" s="202" t="s">
         <v>729</v>
       </c>
       <c r="T21" s="196"/>
@@ -4698,7 +4701,7 @@
       <c r="P22" s="195"/>
       <c r="Q22" s="195"/>
       <c r="R22" s="195"/>
-      <c r="S22" s="205">
+      <c r="S22" s="202">
         <v>0.2</v>
       </c>
       <c r="T22" s="196"/>
@@ -4728,7 +4731,7 @@
       <c r="P23" s="195"/>
       <c r="Q23" s="195"/>
       <c r="R23" s="195"/>
-      <c r="S23" s="205"/>
+      <c r="S23" s="202"/>
       <c r="T23" s="196"/>
       <c r="U23" s="150"/>
       <c r="V23" s="196"/>
@@ -4760,7 +4763,7 @@
       <c r="P24" s="140"/>
       <c r="Q24" s="140"/>
       <c r="R24" s="140"/>
-      <c r="S24" s="203"/>
+      <c r="S24" s="200"/>
       <c r="T24" s="147"/>
       <c r="U24" s="146"/>
       <c r="V24" s="147"/>
@@ -4788,7 +4791,7 @@
       <c r="P25" s="138"/>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
-      <c r="S25" s="204"/>
+      <c r="S25" s="201"/>
       <c r="T25" s="151"/>
       <c r="U25" s="150"/>
       <c r="V25" s="151"/>
@@ -4816,7 +4819,7 @@
       <c r="P26" s="138"/>
       <c r="Q26" s="138"/>
       <c r="R26" s="138"/>
-      <c r="S26" s="204"/>
+      <c r="S26" s="201"/>
       <c r="T26" s="151"/>
       <c r="U26" s="150"/>
       <c r="V26" s="151"/>
@@ -4844,7 +4847,7 @@
       <c r="P27" s="138"/>
       <c r="Q27" s="138"/>
       <c r="R27" s="138"/>
-      <c r="S27" s="204"/>
+      <c r="S27" s="201"/>
       <c r="T27" s="151"/>
       <c r="U27" s="150"/>
       <c r="V27" s="151"/>
@@ -4872,7 +4875,7 @@
       <c r="P28" s="138"/>
       <c r="Q28" s="138"/>
       <c r="R28" s="138"/>
-      <c r="S28" s="204"/>
+      <c r="S28" s="201"/>
       <c r="T28" s="151"/>
       <c r="U28" s="150"/>
       <c r="V28" s="151"/>
@@ -4900,7 +4903,7 @@
       <c r="P29" s="138"/>
       <c r="Q29" s="138"/>
       <c r="R29" s="138"/>
-      <c r="S29" s="204"/>
+      <c r="S29" s="201"/>
       <c r="T29" s="151"/>
       <c r="U29" s="150"/>
       <c r="V29" s="151"/>
@@ -4924,11 +4927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FV78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BN30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="CP46" sqref="CP46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -17184,7 +17187,7 @@
       <c r="CN46" s="113"/>
       <c r="CO46" s="113"/>
       <c r="CP46" s="113">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="CQ46" s="113"/>
       <c r="CR46" s="113"/>
@@ -18334,7 +18337,7 @@
       <c r="CN51" s="113"/>
       <c r="CO51" s="113"/>
       <c r="CP51" s="113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CQ51" s="113"/>
       <c r="CR51" s="113"/>
@@ -18552,7 +18555,7 @@
       <c r="CN52" s="113"/>
       <c r="CO52" s="113"/>
       <c r="CP52" s="113" t="s">
-        <v>602</v>
+        <v>733</v>
       </c>
       <c r="CQ52" s="113"/>
       <c r="CR52" s="113"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -4931,7 +4931,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="BN30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CP46" sqref="CP46"/>
+      <selection pane="bottomRight" activeCell="CP51" sqref="CP51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -18337,7 +18337,7 @@
       <c r="CN51" s="113"/>
       <c r="CO51" s="113"/>
       <c r="CP51" s="113">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="CQ51" s="113"/>
       <c r="CR51" s="113"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="852" windowWidth="15096" windowHeight="7056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -2088,9 +2088,6 @@
     <t>Assumed</t>
   </si>
   <si>
-    <t>25.0 mL/min kg</t>
-  </si>
-  <si>
     <t>Johnston2004Pharmacokinetics</t>
   </si>
   <si>
@@ -2236,6 +2233,9 @@
   </si>
   <si>
     <t>0.2 1/min</t>
+  </si>
+  <si>
+    <t>40.0 mL/min kg</t>
   </si>
 </sst>
 </file>
@@ -3628,33 +3628,33 @@
       <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="135" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="139" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="139" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="139" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="139" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="139" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="139" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.140625" style="139" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="139"/>
+    <col min="5" max="5" width="14.33203125" style="139" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="139" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="139" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.6640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="139" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="139" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.109375" style="139" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="134"/>
       <c r="B1" s="203" t="s">
         <v>518</v>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="V1" s="205"/>
       <c r="W1" s="203" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X1" s="205"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="135" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>243</v>
       </c>
       <c r="S2" s="197" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="T2" s="145" t="s">
         <v>247</v>
@@ -3758,13 +3758,13 @@
         <v>510</v>
       </c>
       <c r="W2" s="144" t="s">
+        <v>729</v>
+      </c>
+      <c r="X2" s="145" t="s">
         <v>730</v>
       </c>
-      <c r="X2" s="145" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="134" t="s">
         <v>497</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="W3" s="152"/>
       <c r="X3" s="153"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="142" t="s">
         <v>345</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="134" t="s">
         <v>525</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="W5" s="146"/>
       <c r="X5" s="147"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="143" t="s">
         <v>5</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>244</v>
       </c>
       <c r="S6" s="201" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="T6" s="151" t="s">
         <v>501</v>
@@ -3964,7 +3964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="143" t="s">
         <v>6</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>245</v>
       </c>
       <c r="S7" s="201" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T7" s="151" t="s">
         <v>248</v>
@@ -4030,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="143" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>246</v>
       </c>
       <c r="S8" s="201" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="T8" s="151" t="s">
         <v>39</v>
@@ -4094,13 +4094,13 @@
         <v>514</v>
       </c>
       <c r="W8" s="150" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="X8" s="151" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="143" t="s">
         <v>163</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="134" t="s">
         <v>526</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="W10" s="146"/>
       <c r="X10" s="147"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="143" t="s">
         <v>524</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="W11" s="150"/>
       <c r="X11" s="151"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="143" t="s">
         <v>490</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="W12" s="150"/>
       <c r="X12" s="151"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="143" t="s">
         <v>61</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="138" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I13" s="151" t="s">
         <v>546</v>
@@ -4285,7 +4285,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="138" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>22</v>
@@ -4294,7 +4294,7 @@
         <v>506</v>
       </c>
       <c r="O13" s="138" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P13" s="138" t="s">
         <v>67</v>
@@ -4324,7 +4324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="143" t="s">
         <v>486</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="143" t="s">
         <v>487</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="143" t="s">
         <v>63</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>69</v>
       </c>
       <c r="U16" s="150" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V16" s="151" t="s">
         <v>223</v>
@@ -4534,7 +4534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="154" t="s">
         <v>528</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="W17" s="146"/>
       <c r="X17" s="147"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="143" t="s">
         <v>519</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="W18" s="150"/>
       <c r="X18" s="151"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="143" t="s">
         <v>8</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="W19" s="150"/>
       <c r="X19" s="151"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="143" t="s">
         <v>495</v>
       </c>
@@ -4650,9 +4650,9 @@
       <c r="W20" s="150"/>
       <c r="X20" s="151"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="143" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B21" s="150"/>
       <c r="C21" s="195"/>
@@ -4672,7 +4672,7 @@
       <c r="Q21" s="195"/>
       <c r="R21" s="195"/>
       <c r="S21" s="202" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T21" s="196"/>
       <c r="U21" s="150"/>
@@ -4680,9 +4680,9 @@
       <c r="W21" s="150"/>
       <c r="X21" s="196"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="143" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B22" s="150"/>
       <c r="C22" s="195"/>
@@ -4710,9 +4710,9 @@
       <c r="W22" s="150"/>
       <c r="X22" s="196"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="143" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B23" s="150"/>
       <c r="C23" s="195"/>
@@ -4742,7 +4742,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="134" t="s">
         <v>527</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="W24" s="146"/>
       <c r="X24" s="147"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="143" t="s">
         <v>492</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="W25" s="150"/>
       <c r="X25" s="151"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="143" t="s">
         <v>493</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="W26" s="150"/>
       <c r="X26" s="151"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="143" t="s">
         <v>491</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="W27" s="150"/>
       <c r="X27" s="151"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="143" t="s">
         <v>496</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="W28" s="150"/>
       <c r="X28" s="151"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="143" t="s">
         <v>494</v>
       </c>
@@ -4928,175 +4928,175 @@
   <dimension ref="A1:FV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BN30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CL19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CP51" sqref="CP51"/>
+      <selection pane="bottomRight" activeCell="DF22" sqref="DF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.7109375" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.7109375" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.42578125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.7109375" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.28515625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.5703125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="11.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="22.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="37" width="26.140625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="15.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="16.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="14.28515625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="13.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="45" width="21.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="14.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="49" width="21.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="11.5703125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.85546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="16.7109375" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="11.42578125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="12.28515625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="14.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="18.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="38.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.6640625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.44140625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.6640625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.44140625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.6640625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.33203125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.5546875" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.5546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="22.5546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="37" width="26.109375" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="15.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="14.33203125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="13.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="45" width="21.5546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="14.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="49" width="21.5546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="11.5546875" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.88671875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.6640625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="11.44140625" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="12.33203125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="11.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="14.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="18.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="24" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="14.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.28515625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="18.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="18.28515625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="13.85546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="73" width="14.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="11.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="77" width="14.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.42578125" style="99" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="81" width="21.5703125" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="82" max="82" width="14.140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="85" width="18.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="12.7109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="20.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="16.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="14.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.33203125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="18.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="18.33203125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="13.88671875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="73" width="14.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="11.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="14.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="21.44140625" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="81" width="21.5546875" style="99" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="14.109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="85" width="18.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="12.6640625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="20.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="16.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="89" max="89" width="24" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="14.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="92" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="12.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="96" max="96" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="15.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="58.28515625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="100" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="15.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="104" max="104" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="105" max="105" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="106" max="106" width="13.42578125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="108" max="108" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="109" max="109" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="15.140625" style="100" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="14.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="112" max="112" width="27.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="20.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="24.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="20.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="27.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="27.28515625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="13.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="120" max="120" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="121" max="121" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="122" max="122" width="14.28515625" style="100" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="124" max="125" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="126" max="126" width="14.42578125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="128" max="128" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="129" max="129" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="21.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="132" max="132" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="133" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="134" max="134" width="23.7109375" style="100" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="15.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="136" max="136" width="15.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="137" max="137" width="30.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="138" max="138" width="15.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="140" max="140" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="142" width="15.5703125" style="100" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="144" max="144" width="27.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="15.5703125" style="100" customWidth="1" collapsed="1"/>
-    <col min="147" max="149" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="150" max="150" width="17.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="152" max="152" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="8.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="155" max="155" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="156" max="156" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="11.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="160" max="160" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="15.7109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="164" max="164" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="19.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="168" max="168" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="169" max="169" width="19.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="22.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="172" max="172" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="173" max="173" width="22.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="174" max="174" width="26.140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="14.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="12.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="15.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="58.33203125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="15.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="104" max="104" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="105" max="105" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="106" max="106" width="13.44140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="108" max="108" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="110" max="110" width="15.109375" style="100" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="14.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="27.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="20.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="24.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="20.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="27.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="117" max="117" width="27.33203125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="13.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="121" max="121" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="122" max="122" width="14.33203125" style="100" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="124" max="125" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="126" max="126" width="14.44140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="128" max="128" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="129" max="129" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="21.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="132" max="132" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="133" width="11.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="134" max="134" width="23.6640625" style="100" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="15.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="15.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="30.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="15.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="140" max="140" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="15.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="142" width="15.5546875" style="100" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="15.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="144" max="144" width="27.109375" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="15.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="15.5546875" style="100" customWidth="1" collapsed="1"/>
+    <col min="147" max="149" width="15.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="17.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="152" max="152" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="153" max="153" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="154" max="154" width="8.5546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="11.88671875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="15.6640625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="164" max="164" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="11.44140625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="19.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="168" max="168" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="19.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="22.5546875" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="15.88671875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="172" max="172" width="16.6640625" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="22.5546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="26.109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="175" max="177" width="23" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="178" max="178" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="16384" width="9.140625" style="29"/>
+    <col min="178" max="178" width="20.5546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58"/>
       <c r="B1" s="53"/>
       <c r="C1" s="97" t="s">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="FV1" s="171"/>
     </row>
-    <row r="2" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
@@ -5881,16 +5881,16 @@
         <v>680</v>
       </c>
       <c r="DJ2" s="98" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="DK2" s="98" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="DL2" s="98" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="DM2" s="98" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="DN2" s="98" t="s">
         <v>193</v>
@@ -5965,16 +5965,16 @@
         <v>49</v>
       </c>
       <c r="EL2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="EM2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="EN2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="EO2" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="EP2" s="98" t="s">
         <v>673</v>
@@ -6076,7 +6076,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:178" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>275</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="FV3" s="177"/>
     </row>
-    <row r="4" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>657</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="FU5" s="180"/>
       <c r="FV5" s="179"/>
     </row>
-    <row r="6" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>10</v>
       </c>
@@ -7184,7 +7184,7 @@
       <c r="FU6" s="180"/>
       <c r="FV6" s="179"/>
     </row>
-    <row r="7" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>480</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="FU7" s="180"/>
       <c r="FV7" s="179"/>
     </row>
-    <row r="8" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>481</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="FU8" s="180"/>
       <c r="FV8" s="179"/>
     </row>
-    <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>654</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="FU9" s="180"/>
       <c r="FV9" s="179"/>
     </row>
-    <row r="10" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
@@ -7923,11 +7923,11 @@
       <c r="DH10" s="109"/>
       <c r="DI10" s="109"/>
       <c r="DJ10" s="109" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="DK10" s="109"/>
       <c r="DL10" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM10" s="109"/>
       <c r="DN10" s="109" t="s">
@@ -7967,11 +7967,11 @@
       <c r="EJ10" s="109"/>
       <c r="EK10" s="109"/>
       <c r="EL10" s="109" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="EM10" s="109"/>
       <c r="EN10" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO10" s="109"/>
       <c r="EP10" s="109" t="s">
@@ -8022,7 +8022,7 @@
       <c r="FU10" s="180"/>
       <c r="FV10" s="179"/>
     </row>
-    <row r="11" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>74</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="FU11" s="180"/>
       <c r="FV11" s="179"/>
     </row>
-    <row r="12" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>73</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="FU12" s="180"/>
       <c r="FV12" s="179"/>
     </row>
-    <row r="13" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="80" t="s">
         <v>271</v>
       </c>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="FV13" s="171"/>
     </row>
-    <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>594</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>581</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:178" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>551</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="80" t="s">
         <v>272</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="FV17" s="171"/>
     </row>
-    <row r="18" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>94</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="FU18" s="180"/>
       <c r="FV18" s="179"/>
     </row>
-    <row r="19" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>90</v>
       </c>
@@ -10201,10 +10201,10 @@
       </c>
       <c r="DK19" s="109"/>
       <c r="DL19" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM19" s="109" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="DN19" s="109">
         <v>1</v>
@@ -10247,10 +10247,10 @@
       </c>
       <c r="EM19" s="109"/>
       <c r="EN19" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO19" s="109" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="EP19" s="109">
         <v>0.99</v>
@@ -10290,7 +10290,7 @@
       <c r="FU19" s="180"/>
       <c r="FV19" s="179"/>
     </row>
-    <row r="20" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>92</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="DH20" s="109"/>
       <c r="DI20" s="109"/>
       <c r="DJ20" s="109" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="DK20" s="109"/>
       <c r="DL20" s="109"/>
@@ -10477,7 +10477,7 @@
       <c r="EJ20" s="109"/>
       <c r="EK20" s="109"/>
       <c r="EL20" s="109" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EM20" s="109"/>
       <c r="EN20" s="109"/>
@@ -10520,7 +10520,7 @@
       <c r="FU20" s="180"/>
       <c r="FV20" s="179"/>
     </row>
-    <row r="21" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>310</v>
       </c>
@@ -10665,14 +10665,14 @@
       <c r="DH21" s="109"/>
       <c r="DI21" s="109"/>
       <c r="DJ21" s="109" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="DK21" s="109"/>
       <c r="DL21" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="DM21" s="109" t="s">
         <v>694</v>
-      </c>
-      <c r="DM21" s="109" t="s">
-        <v>695</v>
       </c>
       <c r="DN21" s="109" t="s">
         <v>127</v>
@@ -10711,14 +10711,14 @@
       <c r="EJ21" s="109"/>
       <c r="EK21" s="109"/>
       <c r="EL21" s="109" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EM21" s="109"/>
       <c r="EN21" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO21" s="109" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="EP21" s="109" t="s">
         <v>675</v>
@@ -10758,7 +10758,7 @@
       <c r="FU21" s="180"/>
       <c r="FV21" s="179"/>
     </row>
-    <row r="22" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>93</v>
       </c>
@@ -10909,22 +10909,22 @@
       <c r="DD22" s="109"/>
       <c r="DE22" s="109"/>
       <c r="DF22" s="109" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="DG22" s="109"/>
       <c r="DH22" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DI22" s="109"/>
       <c r="DJ22" s="109" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="DK22" s="109"/>
       <c r="DL22" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="DM22" s="109" t="s">
         <v>694</v>
-      </c>
-      <c r="DM22" s="109" t="s">
-        <v>695</v>
       </c>
       <c r="DN22" s="109" t="s">
         <v>202</v>
@@ -10963,14 +10963,14 @@
       <c r="EJ22" s="109"/>
       <c r="EK22" s="109"/>
       <c r="EL22" s="109" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EM22" s="109"/>
       <c r="EN22" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO22" s="109" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="EP22" s="109" t="s">
         <v>676</v>
@@ -11010,7 +11010,7 @@
       <c r="FU22" s="180"/>
       <c r="FV22" s="179"/>
     </row>
-    <row r="23" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="81" t="s">
         <v>270</v>
       </c>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="FV23" s="171"/>
     </row>
-    <row r="24" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
         <v>266</v>
       </c>
@@ -11636,14 +11636,14 @@
       <c r="DH24" s="109"/>
       <c r="DI24" s="109"/>
       <c r="DJ24" s="109" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="DK24" s="109"/>
       <c r="DL24" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="DM24" s="109" t="s">
         <v>694</v>
-      </c>
-      <c r="DM24" s="109" t="s">
-        <v>695</v>
       </c>
       <c r="DN24" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11723,14 +11723,14 @@
       <c r="EJ24" s="109"/>
       <c r="EK24" s="109"/>
       <c r="EL24" s="109" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EM24" s="109"/>
       <c r="EN24" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="EO24" s="109" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="EP24" s="109" t="s">
         <v>675</v>
@@ -11768,7 +11768,7 @@
       <c r="FU24" s="179"/>
       <c r="FV24" s="179"/>
     </row>
-    <row r="25" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81" t="s">
         <v>265</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="FV25" s="171"/>
     </row>
-    <row r="26" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
         <v>267</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="FU26" s="179"/>
       <c r="FV26" s="179"/>
     </row>
-    <row r="27" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="82" t="s">
         <v>311</v>
       </c>
@@ -12610,7 +12610,7 @@
       <c r="FU27" s="180"/>
       <c r="FV27" s="179"/>
     </row>
-    <row r="28" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:178" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="82" t="s">
         <v>268</v>
       </c>
@@ -12840,7 +12840,7 @@
       <c r="FU28" s="179"/>
       <c r="FV28" s="179"/>
     </row>
-    <row r="29" spans="1:178" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:178" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="82" t="s">
         <v>269</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="FU29" s="179"/>
       <c r="FV29" s="179"/>
     </row>
-    <row r="30" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="80" t="s">
         <v>273</v>
       </c>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="FV30" s="171"/>
     </row>
-    <row r="31" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>88</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="FU31" s="180"/>
       <c r="FV31" s="179"/>
     </row>
-    <row r="32" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>111</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="FU32" s="180"/>
       <c r="FV32" s="179"/>
     </row>
-    <row r="33" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>91</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="FU33" s="180"/>
       <c r="FV33" s="179"/>
     </row>
-    <row r="34" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>90</v>
       </c>
@@ -14438,7 +14438,7 @@
       <c r="FU34" s="180"/>
       <c r="FV34" s="179"/>
     </row>
-    <row r="35" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>87</v>
       </c>
@@ -14646,7 +14646,7 @@
       <c r="FU35" s="180"/>
       <c r="FV35" s="179"/>
     </row>
-    <row r="36" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:178" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>89</v>
       </c>
@@ -14856,7 +14856,7 @@
       <c r="FU36" s="180"/>
       <c r="FV36" s="179"/>
     </row>
-    <row r="37" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="80" t="s">
         <v>274</v>
       </c>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="FV37" s="171"/>
     </row>
-    <row r="38" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>257</v>
       </c>
@@ -15496,7 +15496,7 @@
       <c r="FU38" s="179"/>
       <c r="FV38" s="179"/>
     </row>
-    <row r="39" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>258</v>
       </c>
@@ -15627,7 +15627,7 @@
       <c r="DD39" s="113"/>
       <c r="DE39" s="113"/>
       <c r="DF39" s="113">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="DG39" s="113"/>
       <c r="DH39" s="113"/>
@@ -15714,7 +15714,7 @@
       <c r="FU39" s="179"/>
       <c r="FV39" s="179"/>
     </row>
-    <row r="40" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>259</v>
       </c>
@@ -15845,22 +15845,22 @@
       <c r="DD40" s="113"/>
       <c r="DE40" s="113"/>
       <c r="DF40" s="113" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="DG40" s="113"/>
       <c r="DH40" s="113"/>
       <c r="DI40" s="113" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="DJ40" s="113" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="DK40" s="113"/>
       <c r="DL40" s="113" t="s">
+        <v>698</v>
+      </c>
+      <c r="DM40" s="113" t="s">
         <v>699</v>
-      </c>
-      <c r="DM40" s="113" t="s">
-        <v>700</v>
       </c>
       <c r="DN40" s="113" t="s">
         <v>317</v>
@@ -15903,7 +15903,7 @@
       <c r="EN40" s="113"/>
       <c r="EO40" s="113"/>
       <c r="EP40" s="113" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="EQ40" s="113"/>
       <c r="ER40" s="113"/>
@@ -15938,7 +15938,7 @@
       <c r="FU40" s="179"/>
       <c r="FV40" s="179"/>
     </row>
-    <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>565</v>
       </c>
@@ -16156,7 +16156,7 @@
       <c r="FU41" s="179"/>
       <c r="FV41" s="179"/>
     </row>
-    <row r="42" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
         <v>3</v>
       </c>
@@ -16374,7 +16374,7 @@
       <c r="FU42" s="179"/>
       <c r="FV42" s="179"/>
     </row>
-    <row r="43" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="63" t="s">
         <v>260</v>
       </c>
@@ -16592,7 +16592,7 @@
       <c r="FU43" s="179"/>
       <c r="FV43" s="179"/>
     </row>
-    <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="63" t="s">
         <v>564</v>
       </c>
@@ -16840,7 +16840,7 @@
       <c r="FU44" s="179"/>
       <c r="FV44" s="179"/>
     </row>
-    <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="63" t="s">
         <v>563</v>
       </c>
@@ -17080,7 +17080,7 @@
       <c r="FU45" s="179"/>
       <c r="FV45" s="179"/>
     </row>
-    <row r="46" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>4</v>
       </c>
@@ -17298,7 +17298,7 @@
       <c r="FU46" s="179"/>
       <c r="FV46" s="179"/>
     </row>
-    <row r="47" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>261</v>
       </c>
@@ -17516,7 +17516,7 @@
       <c r="FU47" s="179"/>
       <c r="FV47" s="179"/>
     </row>
-    <row r="48" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="63" t="s">
         <v>262</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="DD48" s="113"/>
       <c r="DE48" s="113"/>
       <c r="DF48" s="113">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="DG48" s="113"/>
       <c r="DH48" s="113"/>
@@ -17734,7 +17734,7 @@
       <c r="FU48" s="179"/>
       <c r="FV48" s="179"/>
     </row>
-    <row r="49" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
         <v>263</v>
       </c>
@@ -17952,7 +17952,7 @@
       <c r="FU49" s="179"/>
       <c r="FV49" s="179"/>
     </row>
-    <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
         <v>561</v>
       </c>
@@ -18170,7 +18170,7 @@
       <c r="FU50" s="179"/>
       <c r="FV50" s="179"/>
     </row>
-    <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>599</v>
       </c>
@@ -18448,7 +18448,7 @@
       <c r="FU51" s="179"/>
       <c r="FV51" s="179"/>
     </row>
-    <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:178" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="159" t="s">
         <v>600</v>
       </c>
@@ -18555,7 +18555,7 @@
       <c r="CN52" s="113"/>
       <c r="CO52" s="113"/>
       <c r="CP52" s="113" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="CQ52" s="113"/>
       <c r="CR52" s="113"/>
@@ -18666,7 +18666,7 @@
       <c r="FU52" s="179"/>
       <c r="FV52" s="179"/>
     </row>
-    <row r="53" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="158" t="s">
         <v>534</v>
       </c>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="FV53" s="171"/>
     </row>
-    <row r="54" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
         <v>113</v>
       </c>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="DK54" s="111"/>
       <c r="DL54" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM54" s="111"/>
       <c r="DN54" s="70"/>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="EM54" s="111"/>
       <c r="EN54" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO54" s="111"/>
       <c r="EP54" s="111"/>
@@ -19280,7 +19280,7 @@
       <c r="FU54" s="179"/>
       <c r="FV54" s="179"/>
     </row>
-    <row r="55" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="62" t="s">
         <v>531</v>
       </c>
@@ -19696,7 +19696,7 @@
       </c>
       <c r="FV55" s="171"/>
     </row>
-    <row r="56" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>113</v>
       </c>
@@ -19823,10 +19823,10 @@
       </c>
       <c r="DK56" s="111"/>
       <c r="DL56" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM56" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="DN56" s="70"/>
       <c r="DO56" s="111"/>
@@ -19859,10 +19859,10 @@
       </c>
       <c r="EM56" s="111"/>
       <c r="EN56" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO56" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="EP56" s="111"/>
       <c r="EQ56" s="111"/>
@@ -19898,7 +19898,7 @@
       <c r="FU56" s="179"/>
       <c r="FV56" s="179"/>
     </row>
-    <row r="57" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="62" t="s">
         <v>530</v>
       </c>
@@ -20314,7 +20314,7 @@
       </c>
       <c r="FV57" s="171"/>
     </row>
-    <row r="58" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>113</v>
       </c>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="DK58" s="111"/>
       <c r="DL58" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM58" s="111"/>
       <c r="DN58" s="70"/>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="EM58" s="111"/>
       <c r="EN58" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO58" s="111"/>
       <c r="EP58" s="111"/>
@@ -20512,7 +20512,7 @@
       <c r="FU58" s="179"/>
       <c r="FV58" s="179"/>
     </row>
-    <row r="59" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="62" t="s">
         <v>535</v>
       </c>
@@ -20928,7 +20928,7 @@
       </c>
       <c r="FV59" s="171"/>
     </row>
-    <row r="60" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>113</v>
       </c>
@@ -21055,10 +21055,10 @@
       </c>
       <c r="DK60" s="111"/>
       <c r="DL60" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM60" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DN60" s="70"/>
       <c r="DO60" s="111"/>
@@ -21091,10 +21091,10 @@
       </c>
       <c r="EM60" s="111"/>
       <c r="EN60" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO60" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="EP60" s="111"/>
       <c r="EQ60" s="111"/>
@@ -21130,7 +21130,7 @@
       <c r="FU60" s="179"/>
       <c r="FV60" s="179"/>
     </row>
-    <row r="61" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="62" t="s">
         <v>540</v>
       </c>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="FV61" s="171"/>
     </row>
-    <row r="62" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="64" t="s">
         <v>113</v>
       </c>
@@ -21673,10 +21673,10 @@
       </c>
       <c r="DK62" s="111"/>
       <c r="DL62" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM62" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DN62" s="70"/>
       <c r="DO62" s="111"/>
@@ -21709,10 +21709,10 @@
       </c>
       <c r="EM62" s="111"/>
       <c r="EN62" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO62" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="EP62" s="111"/>
       <c r="EQ62" s="111"/>
@@ -21748,7 +21748,7 @@
       <c r="FU62" s="179"/>
       <c r="FV62" s="179"/>
     </row>
-    <row r="63" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="62" t="s">
         <v>541</v>
       </c>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="FV63" s="171"/>
     </row>
-    <row r="64" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
         <v>113</v>
       </c>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="DK64" s="111"/>
       <c r="DL64" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM64" s="111"/>
       <c r="DN64" s="70"/>
@@ -22325,10 +22325,10 @@
       </c>
       <c r="EM64" s="111"/>
       <c r="EN64" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO64" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP64" s="111"/>
       <c r="EQ64" s="111"/>
@@ -22364,7 +22364,7 @@
       <c r="FU64" s="179"/>
       <c r="FV64" s="179"/>
     </row>
-    <row r="65" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62" t="s">
         <v>537</v>
       </c>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="FV65" s="171"/>
     </row>
-    <row r="66" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>113</v>
       </c>
@@ -22907,10 +22907,10 @@
       </c>
       <c r="DK66" s="111"/>
       <c r="DL66" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM66" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DN66" s="70"/>
       <c r="DO66" s="111"/>
@@ -22943,10 +22943,10 @@
       </c>
       <c r="EM66" s="111"/>
       <c r="EN66" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO66" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="EP66" s="111"/>
       <c r="EQ66" s="111"/>
@@ -22982,7 +22982,7 @@
       <c r="FU66" s="179"/>
       <c r="FV66" s="179"/>
     </row>
-    <row r="67" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="62" t="s">
         <v>532</v>
       </c>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="FV67" s="171"/>
     </row>
-    <row r="68" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>113</v>
       </c>
@@ -23525,7 +23525,7 @@
       </c>
       <c r="DK68" s="111"/>
       <c r="DL68" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM68" s="111"/>
       <c r="DN68" s="70"/>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="EM68" s="111"/>
       <c r="EN68" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO68" s="111"/>
       <c r="EP68" s="111"/>
@@ -23596,7 +23596,7 @@
       <c r="FU68" s="179"/>
       <c r="FV68" s="179"/>
     </row>
-    <row r="69" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="62" t="s">
         <v>529</v>
       </c>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="FV69" s="171"/>
     </row>
-    <row r="70" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>113</v>
       </c>
@@ -24139,10 +24139,10 @@
       </c>
       <c r="DK70" s="111"/>
       <c r="DL70" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM70" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="DN70" s="70"/>
       <c r="DO70" s="111"/>
@@ -24175,10 +24175,10 @@
       </c>
       <c r="EM70" s="111"/>
       <c r="EN70" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO70" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="EP70" s="111"/>
       <c r="EQ70" s="111"/>
@@ -24214,7 +24214,7 @@
       <c r="FU70" s="179"/>
       <c r="FV70" s="179"/>
     </row>
-    <row r="71" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="62" t="s">
         <v>538</v>
       </c>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="FV71" s="171"/>
     </row>
-    <row r="72" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>113</v>
       </c>
@@ -24757,10 +24757,10 @@
       </c>
       <c r="DK72" s="111"/>
       <c r="DL72" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM72" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="DN72" s="70"/>
       <c r="DO72" s="111"/>
@@ -24793,10 +24793,10 @@
       </c>
       <c r="EM72" s="111"/>
       <c r="EN72" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO72" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="EP72" s="111"/>
       <c r="EQ72" s="111"/>
@@ -24832,7 +24832,7 @@
       <c r="FU72" s="179"/>
       <c r="FV72" s="179"/>
     </row>
-    <row r="73" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="62" t="s">
         <v>539</v>
       </c>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="FV73" s="171"/>
     </row>
-    <row r="74" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>113</v>
       </c>
@@ -25375,7 +25375,7 @@
       </c>
       <c r="DK74" s="111"/>
       <c r="DL74" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM74" s="111"/>
       <c r="DN74" s="70"/>
@@ -25409,10 +25409,10 @@
       </c>
       <c r="EM74" s="111"/>
       <c r="EN74" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO74" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="EP74" s="111"/>
       <c r="EQ74" s="111"/>
@@ -25448,7 +25448,7 @@
       <c r="FU74" s="179"/>
       <c r="FV74" s="179"/>
     </row>
-    <row r="75" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="62" t="s">
         <v>533</v>
       </c>
@@ -25864,7 +25864,7 @@
       </c>
       <c r="FV75" s="171"/>
     </row>
-    <row r="76" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>113</v>
       </c>
@@ -25991,7 +25991,7 @@
       </c>
       <c r="DK76" s="111"/>
       <c r="DL76" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM76" s="111"/>
       <c r="DN76" s="70"/>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="EM76" s="111"/>
       <c r="EN76" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO76" s="111"/>
       <c r="EP76" s="111"/>
@@ -26062,7 +26062,7 @@
       <c r="FU76" s="179"/>
       <c r="FV76" s="179"/>
     </row>
-    <row r="77" spans="1:178" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:178" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="62" t="s">
         <v>536</v>
       </c>
@@ -26478,7 +26478,7 @@
       </c>
       <c r="FV77" s="171"/>
     </row>
-    <row r="78" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:178" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>113</v>
       </c>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="DK78" s="111"/>
       <c r="DL78" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="DM78" s="111"/>
       <c r="DN78" s="70"/>
@@ -26639,10 +26639,10 @@
       </c>
       <c r="EM78" s="111"/>
       <c r="EN78" s="109" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="EO78" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="EP78" s="111"/>
       <c r="EQ78" s="111"/>
@@ -26692,23 +26692,23 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
       <c r="D1" s="189"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
@@ -26739,10 +26739,10 @@
         <v>636</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="78" t="s">
         <v>2</v>
@@ -26755,7 +26755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -26769,10 +26769,10 @@
         <v>130</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -26786,10 +26786,10 @@
         <v>637</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="78" t="s">
         <v>2</v>
@@ -26802,7 +26802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
@@ -26816,10 +26816,10 @@
         <v>483</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -26833,10 +26833,10 @@
         <v>638</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="78" t="s">
         <v>2</v>
@@ -26849,7 +26849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -26876,10 +26876,10 @@
         <v>639</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="78" t="s">
         <v>2</v>
@@ -26892,7 +26892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="E14" s="74"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
@@ -26918,7 +26918,7 @@
       </c>
       <c r="E15" s="74"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="78" t="s">
         <v>2</v>
@@ -26931,7 +26931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -26944,7 +26944,7 @@
       </c>
       <c r="E17" s="74"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
@@ -26957,7 +26957,7 @@
       </c>
       <c r="E18" s="74"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="76"/>
       <c r="B19" s="78" t="s">
         <v>2</v>
@@ -26970,7 +26970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
         <v>60</v>
       </c>
@@ -26981,7 +26981,7 @@
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="73" t="s">
         <v>53</v>
       </c>
@@ -26992,7 +26992,7 @@
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="76"/>
       <c r="B22" s="78" t="s">
         <v>2</v>
@@ -27005,7 +27005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
         <v>60</v>
       </c>
@@ -27016,7 +27016,7 @@
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
         <v>53</v>
       </c>
@@ -27027,7 +27027,7 @@
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="76"/>
       <c r="B25" s="78" t="s">
         <v>2</v>
@@ -27040,7 +27040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>60</v>
       </c>
@@ -27051,7 +27051,7 @@
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>53</v>
       </c>
@@ -27062,7 +27062,7 @@
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="76"/>
       <c r="B28" s="78" t="s">
         <v>2</v>
@@ -27075,7 +27075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="73" t="s">
         <v>60</v>
       </c>
@@ -27086,7 +27086,7 @@
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
         <v>53</v>
       </c>
@@ -27111,25 +27111,25 @@
       <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
@@ -27147,7 +27147,7 @@
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -27207,7 +27207,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -27267,7 +27267,7 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>77</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
@@ -27443,7 +27443,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>80</v>
       </c>
@@ -27487,7 +27487,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>82</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -27619,7 +27619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>557</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>99</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>0.78959979999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>557</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>99</v>
       </c>
@@ -27883,7 +27883,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>557</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
@@ -27971,7 +27971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>99</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>557</v>
       </c>
@@ -28059,7 +28059,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>2</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>99</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>559</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>2</v>
       </c>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -28200,14 +28200,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="35.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>134</v>
       </c>
@@ -28216,7 +28216,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="76"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -28233,14 +28233,14 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="76"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>128</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>185</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>129</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>184</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>183</v>
       </c>
@@ -28342,7 +28342,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>174</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>130</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>104</v>
       </c>
@@ -28406,18 +28406,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="37.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>145</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>141</v>
       </c>
@@ -28451,7 +28451,7 @@
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>141</v>
       </c>
@@ -28465,7 +28465,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>141</v>
       </c>
@@ -28479,7 +28479,7 @@
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>141</v>
       </c>
@@ -28493,7 +28493,7 @@
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>141</v>
       </c>
@@ -28507,7 +28507,7 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>141</v>
       </c>
@@ -28521,7 +28521,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>141</v>
       </c>
@@ -28535,7 +28535,7 @@
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>141</v>
       </c>
@@ -28549,7 +28549,7 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>141</v>
       </c>
@@ -28563,7 +28563,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>153</v>
       </c>
@@ -28575,7 +28575,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
@@ -28587,7 +28587,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>155</v>
       </c>
@@ -28599,7 +28599,7 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>162</v>
       </c>
@@ -28611,7 +28611,7 @@
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>336</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>141</v>
       </c>
@@ -28645,7 +28645,7 @@
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>141</v>
       </c>
@@ -28659,7 +28659,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>141</v>
       </c>
@@ -28673,7 +28673,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>141</v>
       </c>
@@ -28687,7 +28687,7 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>141</v>
       </c>
@@ -28701,7 +28701,7 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>141</v>
       </c>
@@ -28715,7 +28715,7 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>141</v>
       </c>
@@ -28729,7 +28729,7 @@
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>141</v>
       </c>
@@ -28743,7 +28743,7 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>141</v>
       </c>
@@ -28757,7 +28757,7 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>141</v>
       </c>
@@ -28771,7 +28771,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>141</v>
       </c>
@@ -28785,7 +28785,7 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>153</v>
       </c>
@@ -28797,7 +28797,7 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>154</v>
       </c>
@@ -28809,7 +28809,7 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42" t="s">
         <v>155</v>
       </c>
@@ -28821,7 +28821,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>162</v>
       </c>
@@ -28833,7 +28833,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>158</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>141</v>
       </c>
@@ -28867,7 +28867,7 @@
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>141</v>
       </c>
@@ -28881,7 +28881,7 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>141</v>
       </c>
@@ -28895,7 +28895,7 @@
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>141</v>
       </c>
@@ -28909,7 +28909,7 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>141</v>
       </c>
@@ -28923,7 +28923,7 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>141</v>
       </c>
@@ -28937,7 +28937,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>141</v>
       </c>
@@ -28951,7 +28951,7 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>141</v>
       </c>
@@ -28965,7 +28965,7 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>141</v>
       </c>
@@ -28979,7 +28979,7 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>141</v>
       </c>
@@ -28993,7 +28993,7 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>141</v>
       </c>
@@ -29007,7 +29007,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>153</v>
       </c>
@@ -29019,7 +29019,7 @@
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>154</v>
       </c>
@@ -29031,7 +29031,7 @@
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="37" t="s">
         <v>155</v>
       </c>
@@ -29043,7 +29043,7 @@
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="49" t="s">
         <v>162</v>
       </c>
@@ -29055,7 +29055,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>160</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>141</v>
       </c>
@@ -29089,7 +29089,7 @@
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>141</v>
       </c>
@@ -29103,7 +29103,7 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>141</v>
       </c>
@@ -29117,7 +29117,7 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>141</v>
       </c>
@@ -29131,7 +29131,7 @@
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>141</v>
       </c>
@@ -29145,7 +29145,7 @@
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>141</v>
       </c>
@@ -29159,7 +29159,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>141</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>141</v>
       </c>
@@ -29187,7 +29187,7 @@
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>141</v>
       </c>
@@ -29201,7 +29201,7 @@
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>141</v>
       </c>
@@ -29215,7 +29215,7 @@
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>141</v>
       </c>
@@ -29229,7 +29229,7 @@
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
         <v>153</v>
       </c>
@@ -29241,7 +29241,7 @@
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
         <v>154</v>
       </c>
@@ -29253,7 +29253,7 @@
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
         <v>155</v>
       </c>
@@ -29265,7 +29265,7 @@
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49" t="s">
         <v>162</v>
       </c>
@@ -29277,7 +29277,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>547</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>141</v>
       </c>
@@ -29311,7 +29311,7 @@
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>141</v>
       </c>
@@ -29325,7 +29325,7 @@
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>141</v>
       </c>
@@ -29339,7 +29339,7 @@
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>141</v>
       </c>
@@ -29353,7 +29353,7 @@
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>141</v>
       </c>
@@ -29367,7 +29367,7 @@
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>141</v>
       </c>
@@ -29381,7 +29381,7 @@
       <c r="E69" s="48"/>
       <c r="F69" s="48"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
         <v>141</v>
       </c>
@@ -29395,7 +29395,7 @@
       <c r="E70" s="48"/>
       <c r="F70" s="48"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>141</v>
       </c>
@@ -29409,7 +29409,7 @@
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>141</v>
       </c>
@@ -29423,7 +29423,7 @@
       <c r="E72" s="48"/>
       <c r="F72" s="48"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>141</v>
       </c>
@@ -29437,7 +29437,7 @@
       <c r="E73" s="48"/>
       <c r="F73" s="48"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>141</v>
       </c>
@@ -29451,7 +29451,7 @@
       <c r="E74" s="48"/>
       <c r="F74" s="48"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>153</v>
       </c>
@@ -29463,7 +29463,7 @@
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>154</v>
       </c>
@@ -29475,7 +29475,7 @@
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="37" t="s">
         <v>155</v>
       </c>
@@ -29487,7 +29487,7 @@
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="s">
         <v>162</v>
       </c>
@@ -29499,7 +29499,7 @@
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>207</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>141</v>
       </c>
@@ -29533,7 +29533,7 @@
       <c r="E80" s="46"/>
       <c r="F80" s="46"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>141</v>
       </c>
@@ -29547,7 +29547,7 @@
       <c r="E81" s="46"/>
       <c r="F81" s="46"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>141</v>
       </c>
@@ -29561,7 +29561,7 @@
       <c r="E82" s="46"/>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>141</v>
       </c>
@@ -29575,7 +29575,7 @@
       <c r="E83" s="48"/>
       <c r="F83" s="48"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>141</v>
       </c>
@@ -29589,7 +29589,7 @@
       <c r="E84" s="48"/>
       <c r="F84" s="48"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>141</v>
       </c>
@@ -29603,7 +29603,7 @@
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
         <v>141</v>
       </c>
@@ -29617,7 +29617,7 @@
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>141</v>
       </c>
@@ -29631,7 +29631,7 @@
       <c r="E87" s="48"/>
       <c r="F87" s="48"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>141</v>
       </c>
@@ -29645,7 +29645,7 @@
       <c r="E88" s="48"/>
       <c r="F88" s="48"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>141</v>
       </c>
@@ -29659,7 +29659,7 @@
       <c r="E89" s="48"/>
       <c r="F89" s="48"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>141</v>
       </c>
@@ -29673,7 +29673,7 @@
       <c r="E90" s="48"/>
       <c r="F90" s="48"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
         <v>153</v>
       </c>
@@ -29685,7 +29685,7 @@
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
         <v>154</v>
       </c>
@@ -29697,7 +29697,7 @@
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="s">
         <v>155</v>
       </c>
@@ -29709,7 +29709,7 @@
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="49" t="s">
         <v>162</v>
       </c>
@@ -29721,7 +29721,7 @@
       <c r="E94" s="44"/>
       <c r="F94" s="44"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="40" t="s">
         <v>182</v>
       </c>
@@ -29741,7 +29741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>141</v>
       </c>
@@ -29755,7 +29755,7 @@
       <c r="E96" s="46"/>
       <c r="F96" s="46"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>141</v>
       </c>
@@ -29769,7 +29769,7 @@
       <c r="E97" s="46"/>
       <c r="F97" s="46"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="45" t="s">
         <v>141</v>
       </c>
@@ -29783,7 +29783,7 @@
       <c r="E98" s="46"/>
       <c r="F98" s="46"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>141</v>
       </c>
@@ -29797,7 +29797,7 @@
       <c r="E99" s="46"/>
       <c r="F99" s="46"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>141</v>
       </c>
@@ -29811,7 +29811,7 @@
       <c r="E100" s="48"/>
       <c r="F100" s="48"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>141</v>
       </c>
@@ -29825,7 +29825,7 @@
       <c r="E101" s="48"/>
       <c r="F101" s="48"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>141</v>
       </c>
@@ -29839,7 +29839,7 @@
       <c r="E102" s="48"/>
       <c r="F102" s="48"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="47" t="s">
         <v>141</v>
       </c>
@@ -29853,7 +29853,7 @@
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
         <v>141</v>
       </c>
@@ -29867,7 +29867,7 @@
       <c r="E104" s="48"/>
       <c r="F104" s="48"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
         <v>141</v>
       </c>
@@ -29881,7 +29881,7 @@
       <c r="E105" s="48"/>
       <c r="F105" s="48"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>141</v>
       </c>
@@ -29895,7 +29895,7 @@
       <c r="E106" s="48"/>
       <c r="F106" s="48"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
         <v>153</v>
       </c>
@@ -29907,7 +29907,7 @@
       <c r="E107" s="39"/>
       <c r="F107" s="39"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
         <v>154</v>
       </c>
@@ -29919,7 +29919,7 @@
       <c r="E108" s="39"/>
       <c r="F108" s="39"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="42" t="s">
         <v>155</v>
       </c>
@@ -29931,7 +29931,7 @@
       <c r="E109" s="44"/>
       <c r="F109" s="44"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="49" t="s">
         <v>162</v>
       </c>
@@ -29943,7 +29943,7 @@
       <c r="E110" s="44"/>
       <c r="F110" s="44"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="40" t="s">
         <v>204</v>
       </c>
@@ -29963,7 +29963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="45" t="s">
         <v>141</v>
       </c>
@@ -29977,7 +29977,7 @@
       <c r="E112" s="46"/>
       <c r="F112" s="46"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>141</v>
       </c>
@@ -29991,7 +29991,7 @@
       <c r="E113" s="48"/>
       <c r="F113" s="48"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>141</v>
       </c>
@@ -30005,7 +30005,7 @@
       <c r="E114" s="48"/>
       <c r="F114" s="48"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="47" t="s">
         <v>141</v>
       </c>
@@ -30019,7 +30019,7 @@
       <c r="E115" s="48"/>
       <c r="F115" s="48"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
         <v>141</v>
       </c>
@@ -30033,7 +30033,7 @@
       <c r="E116" s="48"/>
       <c r="F116" s="48"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>141</v>
       </c>
@@ -30047,7 +30047,7 @@
       <c r="E117" s="48"/>
       <c r="F117" s="48"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="47" t="s">
         <v>141</v>
       </c>
@@ -30061,7 +30061,7 @@
       <c r="E118" s="48"/>
       <c r="F118" s="48"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>141</v>
       </c>
@@ -30075,7 +30075,7 @@
       <c r="E119" s="48"/>
       <c r="F119" s="48"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="47" t="s">
         <v>141</v>
       </c>
@@ -30089,7 +30089,7 @@
       <c r="E120" s="48"/>
       <c r="F120" s="48"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
         <v>141</v>
       </c>
@@ -30103,7 +30103,7 @@
       <c r="E121" s="48"/>
       <c r="F121" s="48"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>141</v>
       </c>
@@ -30117,7 +30117,7 @@
       <c r="E122" s="48"/>
       <c r="F122" s="48"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="37" t="s">
         <v>153</v>
       </c>
@@ -30129,7 +30129,7 @@
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="37" t="s">
         <v>154</v>
       </c>
@@ -30141,7 +30141,7 @@
       <c r="E124" s="39"/>
       <c r="F124" s="39"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42" t="s">
         <v>155</v>
       </c>
@@ -30153,7 +30153,7 @@
       <c r="E125" s="44"/>
       <c r="F125" s="44"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
         <v>162</v>
       </c>
@@ -30165,7 +30165,7 @@
       <c r="E126" s="44"/>
       <c r="F126" s="44"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
         <v>256</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="45" t="s">
         <v>141</v>
       </c>
@@ -30199,7 +30199,7 @@
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>141</v>
       </c>
@@ -30213,7 +30213,7 @@
       <c r="E129" s="48"/>
       <c r="F129" s="48"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>141</v>
       </c>
@@ -30227,7 +30227,7 @@
       <c r="E130" s="48"/>
       <c r="F130" s="48"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>141</v>
       </c>
@@ -30241,7 +30241,7 @@
       <c r="E131" s="48"/>
       <c r="F131" s="48"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>141</v>
       </c>
@@ -30255,7 +30255,7 @@
       <c r="E132" s="48"/>
       <c r="F132" s="48"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>141</v>
       </c>
@@ -30269,7 +30269,7 @@
       <c r="E133" s="48"/>
       <c r="F133" s="48"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
         <v>141</v>
       </c>
@@ -30283,7 +30283,7 @@
       <c r="E134" s="48"/>
       <c r="F134" s="48"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>141</v>
       </c>
@@ -30297,7 +30297,7 @@
       <c r="E135" s="48"/>
       <c r="F135" s="48"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
         <v>141</v>
       </c>
@@ -30311,7 +30311,7 @@
       <c r="E136" s="48"/>
       <c r="F136" s="48"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>141</v>
       </c>
@@ -30325,7 +30325,7 @@
       <c r="E137" s="48"/>
       <c r="F137" s="48"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>141</v>
       </c>
@@ -30339,7 +30339,7 @@
       <c r="E138" s="48"/>
       <c r="F138" s="48"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="37" t="s">
         <v>153</v>
       </c>
@@ -30351,7 +30351,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="39"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="37" t="s">
         <v>154</v>
       </c>
@@ -30363,7 +30363,7 @@
       <c r="E140" s="39"/>
       <c r="F140" s="39"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="37" t="s">
         <v>155</v>
       </c>
@@ -30375,7 +30375,7 @@
       <c r="E141" s="39"/>
       <c r="F141" s="39"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
         <v>162</v>
       </c>
@@ -30387,7 +30387,7 @@
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="40" t="s">
         <v>595</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="45" t="s">
         <v>141</v>
       </c>
@@ -30421,7 +30421,7 @@
       <c r="E144" s="46"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="45" t="s">
         <v>141</v>
       </c>
@@ -30435,7 +30435,7 @@
       <c r="E145" s="46"/>
       <c r="F145" s="46"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="45" t="s">
         <v>141</v>
       </c>
@@ -30449,7 +30449,7 @@
       <c r="E146" s="46"/>
       <c r="F146" s="46"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="45" t="s">
         <v>141</v>
       </c>
@@ -30463,7 +30463,7 @@
       <c r="E147" s="46"/>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>141</v>
       </c>
@@ -30477,7 +30477,7 @@
       <c r="E148" s="48"/>
       <c r="F148" s="48"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
         <v>141</v>
       </c>
@@ -30491,7 +30491,7 @@
       <c r="E149" s="48"/>
       <c r="F149" s="48"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
         <v>141</v>
       </c>
@@ -30505,7 +30505,7 @@
       <c r="E150" s="48"/>
       <c r="F150" s="48"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
         <v>141</v>
       </c>
@@ -30519,7 +30519,7 @@
       <c r="E151" s="48"/>
       <c r="F151" s="48"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
         <v>141</v>
       </c>
@@ -30533,7 +30533,7 @@
       <c r="E152" s="48"/>
       <c r="F152" s="48"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>141</v>
       </c>
@@ -30547,7 +30547,7 @@
       <c r="E153" s="48"/>
       <c r="F153" s="48"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>141</v>
       </c>
@@ -30561,7 +30561,7 @@
       <c r="E154" s="48"/>
       <c r="F154" s="48"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
         <v>153</v>
       </c>
@@ -30573,7 +30573,7 @@
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="37" t="s">
         <v>154</v>
       </c>
@@ -30585,7 +30585,7 @@
       <c r="E156" s="39"/>
       <c r="F156" s="39"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="42" t="s">
         <v>155</v>
       </c>
@@ -30597,7 +30597,7 @@
       <c r="E157" s="44"/>
       <c r="F157" s="44"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="49" t="s">
         <v>162</v>
       </c>
@@ -30609,7 +30609,7 @@
       <c r="E158" s="44"/>
       <c r="F158" s="44"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="40" t="s">
         <v>646</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="45" t="s">
         <v>141</v>
       </c>
@@ -30643,7 +30643,7 @@
       <c r="E160" s="46"/>
       <c r="F160" s="46"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="45" t="s">
         <v>141</v>
       </c>
@@ -30657,7 +30657,7 @@
       <c r="E161" s="46"/>
       <c r="F161" s="46"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="45" t="s">
         <v>141</v>
       </c>
@@ -30671,7 +30671,7 @@
       <c r="E162" s="46"/>
       <c r="F162" s="46"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="45" t="s">
         <v>141</v>
       </c>
@@ -30685,7 +30685,7 @@
       <c r="E163" s="46"/>
       <c r="F163" s="46"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>141</v>
       </c>
@@ -30699,7 +30699,7 @@
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="47" t="s">
         <v>141</v>
       </c>
@@ -30713,7 +30713,7 @@
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="47" t="s">
         <v>141</v>
       </c>
@@ -30727,7 +30727,7 @@
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="47" t="s">
         <v>141</v>
       </c>
@@ -30741,7 +30741,7 @@
       <c r="E167" s="48"/>
       <c r="F167" s="48"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="47" t="s">
         <v>141</v>
       </c>
@@ -30755,7 +30755,7 @@
       <c r="E168" s="48"/>
       <c r="F168" s="48"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
         <v>141</v>
       </c>
@@ -30769,7 +30769,7 @@
       <c r="E169" s="48"/>
       <c r="F169" s="48"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="47" t="s">
         <v>141</v>
       </c>
@@ -30783,7 +30783,7 @@
       <c r="E170" s="48"/>
       <c r="F170" s="48"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="37" t="s">
         <v>153</v>
       </c>
@@ -30795,7 +30795,7 @@
       <c r="E171" s="39"/>
       <c r="F171" s="39"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="37" t="s">
         <v>154</v>
       </c>
@@ -30807,7 +30807,7 @@
       <c r="E172" s="39"/>
       <c r="F172" s="39"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="42" t="s">
         <v>155</v>
       </c>
@@ -30819,7 +30819,7 @@
       <c r="E173" s="44"/>
       <c r="F173" s="44"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="49" t="s">
         <v>162</v>
       </c>
@@ -30831,7 +30831,7 @@
       <c r="E174" s="44"/>
       <c r="F174" s="44"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="40" t="s">
         <v>648</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="45" t="s">
         <v>141</v>
       </c>
@@ -30865,7 +30865,7 @@
       <c r="E176" s="46"/>
       <c r="F176" s="46"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="45" t="s">
         <v>141</v>
       </c>
@@ -30879,7 +30879,7 @@
       <c r="E177" s="46"/>
       <c r="F177" s="46"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="45" t="s">
         <v>141</v>
       </c>
@@ -30893,7 +30893,7 @@
       <c r="E178" s="46"/>
       <c r="F178" s="46"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="45" t="s">
         <v>141</v>
       </c>
@@ -30907,7 +30907,7 @@
       <c r="E179" s="46"/>
       <c r="F179" s="46"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="47" t="s">
         <v>141</v>
       </c>
@@ -30921,7 +30921,7 @@
       <c r="E180" s="48"/>
       <c r="F180" s="48"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="47" t="s">
         <v>141</v>
       </c>
@@ -30935,7 +30935,7 @@
       <c r="E181" s="48"/>
       <c r="F181" s="48"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="47" t="s">
         <v>141</v>
       </c>
@@ -30949,7 +30949,7 @@
       <c r="E182" s="48"/>
       <c r="F182" s="48"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="47" t="s">
         <v>141</v>
       </c>
@@ -30963,7 +30963,7 @@
       <c r="E183" s="48"/>
       <c r="F183" s="48"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="47" t="s">
         <v>141</v>
       </c>
@@ -30977,7 +30977,7 @@
       <c r="E184" s="48"/>
       <c r="F184" s="48"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
         <v>141</v>
       </c>
@@ -30991,7 +30991,7 @@
       <c r="E185" s="48"/>
       <c r="F185" s="48"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="47" t="s">
         <v>141</v>
       </c>
@@ -31005,7 +31005,7 @@
       <c r="E186" s="48"/>
       <c r="F186" s="48"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="37" t="s">
         <v>153</v>
       </c>
@@ -31017,7 +31017,7 @@
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="37" t="s">
         <v>154</v>
       </c>
@@ -31029,7 +31029,7 @@
       <c r="E188" s="39"/>
       <c r="F188" s="39"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="42" t="s">
         <v>155</v>
       </c>
@@ -31041,7 +31041,7 @@
       <c r="E189" s="44"/>
       <c r="F189" s="44"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="49" t="s">
         <v>162</v>
       </c>
@@ -31053,7 +31053,7 @@
       <c r="E190" s="44"/>
       <c r="F190" s="44"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35" t="s">
         <v>655</v>
       </c>
@@ -31073,7 +31073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="45" t="s">
         <v>141</v>
       </c>
@@ -31087,7 +31087,7 @@
       <c r="E192" s="46"/>
       <c r="F192" s="46"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="47" t="s">
         <v>141</v>
       </c>
@@ -31101,7 +31101,7 @@
       <c r="E193" s="48"/>
       <c r="F193" s="48"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
         <v>141</v>
       </c>
@@ -31115,7 +31115,7 @@
       <c r="E194" s="48"/>
       <c r="F194" s="48"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
         <v>141</v>
       </c>
@@ -31129,7 +31129,7 @@
       <c r="E195" s="48"/>
       <c r="F195" s="48"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>141</v>
       </c>
@@ -31143,7 +31143,7 @@
       <c r="E196" s="48"/>
       <c r="F196" s="48"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>141</v>
       </c>
@@ -31157,7 +31157,7 @@
       <c r="E197" s="48"/>
       <c r="F197" s="48"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>141</v>
       </c>
@@ -31171,7 +31171,7 @@
       <c r="E198" s="48"/>
       <c r="F198" s="48"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="47" t="s">
         <v>141</v>
       </c>
@@ -31185,7 +31185,7 @@
       <c r="E199" s="48"/>
       <c r="F199" s="48"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>141</v>
       </c>
@@ -31199,7 +31199,7 @@
       <c r="E200" s="48"/>
       <c r="F200" s="48"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="47" t="s">
         <v>141</v>
       </c>
@@ -31213,7 +31213,7 @@
       <c r="E201" s="48"/>
       <c r="F201" s="48"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>141</v>
       </c>
@@ -31227,7 +31227,7 @@
       <c r="E202" s="48"/>
       <c r="F202" s="48"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="37" t="s">
         <v>153</v>
       </c>
@@ -31239,7 +31239,7 @@
       <c r="E203" s="39"/>
       <c r="F203" s="39"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="37" t="s">
         <v>154</v>
       </c>
@@ -31251,7 +31251,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="37" t="s">
         <v>155</v>
       </c>
@@ -31263,7 +31263,7 @@
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="49" t="s">
         <v>162</v>
       </c>
@@ -31275,7 +31275,7 @@
       <c r="E206" s="44"/>
       <c r="F206" s="44"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="35" t="s">
         <v>656</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="45" t="s">
         <v>141</v>
       </c>
@@ -31309,7 +31309,7 @@
       <c r="E208" s="46"/>
       <c r="F208" s="46"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>141</v>
       </c>
@@ -31323,7 +31323,7 @@
       <c r="E209" s="48"/>
       <c r="F209" s="48"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="47" t="s">
         <v>141</v>
       </c>
@@ -31337,7 +31337,7 @@
       <c r="E210" s="48"/>
       <c r="F210" s="48"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>141</v>
       </c>
@@ -31351,7 +31351,7 @@
       <c r="E211" s="48"/>
       <c r="F211" s="48"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>141</v>
       </c>
@@ -31365,7 +31365,7 @@
       <c r="E212" s="48"/>
       <c r="F212" s="48"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="47" t="s">
         <v>141</v>
       </c>
@@ -31379,7 +31379,7 @@
       <c r="E213" s="48"/>
       <c r="F213" s="48"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="47" t="s">
         <v>141</v>
       </c>
@@ -31393,7 +31393,7 @@
       <c r="E214" s="48"/>
       <c r="F214" s="48"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>141</v>
       </c>
@@ -31407,7 +31407,7 @@
       <c r="E215" s="48"/>
       <c r="F215" s="48"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
         <v>141</v>
       </c>
@@ -31421,7 +31421,7 @@
       <c r="E216" s="48"/>
       <c r="F216" s="48"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>141</v>
       </c>
@@ -31435,7 +31435,7 @@
       <c r="E217" s="48"/>
       <c r="F217" s="48"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>141</v>
       </c>
@@ -31449,7 +31449,7 @@
       <c r="E218" s="48"/>
       <c r="F218" s="48"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
         <v>153</v>
       </c>
@@ -31461,7 +31461,7 @@
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
         <v>154</v>
       </c>
@@ -31473,7 +31473,7 @@
       <c r="E220" s="39"/>
       <c r="F220" s="39"/>
     </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
         <v>155</v>
       </c>
@@ -31485,7 +31485,7 @@
       <c r="E221" s="39"/>
       <c r="F221" s="39"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49" t="s">
         <v>162</v>
       </c>
@@ -31511,24 +31511,24 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="118"/>
-    <col min="3" max="3" width="19.5703125" style="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="133" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="133" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="133" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="133" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="118"/>
+    <col min="1" max="2" width="9.109375" style="118"/>
+    <col min="3" max="3" width="19.5546875" style="132" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" style="133" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="133" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="133" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="133" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="133" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="133" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.5546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="114" t="s">
         <v>345</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="119" t="s">
         <v>357</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="119" t="s">
         <v>357</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="119" t="s">
         <v>357</v>
       </c>
@@ -31702,7 +31702,7 @@
       </c>
       <c r="N4" s="119"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>357</v>
       </c>
@@ -31746,7 +31746,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="119" t="s">
         <v>357</v>
       </c>
@@ -31790,7 +31790,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
         <v>357</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
         <v>357</v>
       </c>
@@ -31876,7 +31876,7 @@
       </c>
       <c r="N8" s="119"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
         <v>357</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
         <v>357</v>
       </c>
@@ -31964,7 +31964,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="119" t="s">
         <v>357</v>
       </c>
@@ -32006,7 +32006,7 @@
       </c>
       <c r="N11" s="119"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="119" t="s">
         <v>357</v>
       </c>
@@ -32048,7 +32048,7 @@
       </c>
       <c r="N12" s="119"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="119" t="s">
         <v>357</v>
       </c>
@@ -32090,7 +32090,7 @@
       </c>
       <c r="N13" s="119"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="119" t="s">
         <v>357</v>
       </c>
@@ -32132,7 +32132,7 @@
       </c>
       <c r="N14" s="119"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="124" t="s">
         <v>463</v>
       </c>
@@ -32176,7 +32176,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="124" t="s">
         <v>463</v>
       </c>
@@ -32218,7 +32218,7 @@
       </c>
       <c r="N16" s="124"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="124" t="s">
         <v>463</v>
       </c>
@@ -32260,7 +32260,7 @@
       </c>
       <c r="N17" s="124"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="124" t="s">
         <v>463</v>
       </c>
@@ -32302,7 +32302,7 @@
       </c>
       <c r="N18" s="124"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="124" t="s">
         <v>463</v>
       </c>
@@ -32344,7 +32344,7 @@
       </c>
       <c r="N19" s="124"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="124" t="s">
         <v>463</v>
       </c>
@@ -32386,7 +32386,7 @@
       </c>
       <c r="N20" s="124"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="124" t="s">
         <v>463</v>
       </c>
@@ -32428,7 +32428,7 @@
       </c>
       <c r="N21" s="124"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="124" t="s">
         <v>463</v>
       </c>
@@ -32470,7 +32470,7 @@
       </c>
       <c r="N22" s="124"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="124" t="s">
         <v>463</v>
       </c>
@@ -32512,7 +32512,7 @@
       </c>
       <c r="N23" s="124"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="124" t="s">
         <v>463</v>
       </c>
@@ -32554,7 +32554,7 @@
       </c>
       <c r="N24" s="124"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="124" t="s">
         <v>463</v>
       </c>
@@ -32596,7 +32596,7 @@
       </c>
       <c r="N25" s="124"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="124" t="s">
         <v>463</v>
       </c>
@@ -32638,7 +32638,7 @@
       </c>
       <c r="N26" s="124"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="s">
         <v>463</v>
       </c>
@@ -32680,7 +32680,7 @@
       </c>
       <c r="N27" s="124"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
         <v>357</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
         <v>357</v>
       </c>
@@ -32726,7 +32726,7 @@
       <c r="M29" s="122"/>
       <c r="N29" s="119"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="119" t="s">
         <v>357</v>
       </c>
@@ -32748,7 +32748,7 @@
       <c r="M30" s="122"/>
       <c r="N30" s="119"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="119" t="s">
         <v>357</v>
       </c>
@@ -32770,7 +32770,7 @@
       <c r="M31" s="122"/>
       <c r="N31" s="119"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="119" t="s">
         <v>357</v>
       </c>
@@ -32792,7 +32792,7 @@
       <c r="M32" s="122"/>
       <c r="N32" s="119"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
         <v>357</v>
       </c>
@@ -32814,7 +32814,7 @@
       <c r="M33" s="122"/>
       <c r="N33" s="119"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="119" t="s">
         <v>357</v>
       </c>
@@ -32836,7 +32836,7 @@
       <c r="M34" s="122"/>
       <c r="N34" s="119"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="119" t="s">
         <v>357</v>
       </c>
@@ -32858,7 +32858,7 @@
       <c r="M35" s="122"/>
       <c r="N35" s="119"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
         <v>357</v>
       </c>
@@ -32880,7 +32880,7 @@
       <c r="M36" s="122"/>
       <c r="N36" s="119"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="119" t="s">
         <v>357</v>
       </c>
@@ -32902,7 +32902,7 @@
       <c r="M37" s="122"/>
       <c r="N37" s="119"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="119" t="s">
         <v>357</v>
       </c>
@@ -32924,7 +32924,7 @@
       <c r="M38" s="122"/>
       <c r="N38" s="119"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="119" t="s">
         <v>357</v>
       </c>
@@ -32946,7 +32946,7 @@
       <c r="M39" s="122"/>
       <c r="N39" s="119"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="119" t="s">
         <v>357</v>
       </c>
@@ -32968,7 +32968,7 @@
       <c r="M40" s="122"/>
       <c r="N40" s="119"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="124" t="s">
         <v>463</v>
       </c>
@@ -32990,7 +32990,7 @@
       <c r="M41" s="126"/>
       <c r="N41" s="124"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="124" t="s">
         <v>463</v>
       </c>
@@ -33012,7 +33012,7 @@
       <c r="M42" s="126"/>
       <c r="N42" s="124"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="124" t="s">
         <v>463</v>
       </c>
@@ -33034,7 +33034,7 @@
       <c r="M43" s="126"/>
       <c r="N43" s="124"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="124" t="s">
         <v>463</v>
       </c>
@@ -33056,7 +33056,7 @@
       <c r="M44" s="126"/>
       <c r="N44" s="124"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="124" t="s">
         <v>463</v>
       </c>
@@ -33078,7 +33078,7 @@
       <c r="M45" s="126"/>
       <c r="N45" s="124"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="124" t="s">
         <v>463</v>
       </c>
@@ -33100,7 +33100,7 @@
       <c r="M46" s="126"/>
       <c r="N46" s="124"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="124" t="s">
         <v>463</v>
       </c>
@@ -33122,7 +33122,7 @@
       <c r="M47" s="126"/>
       <c r="N47" s="124"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="124" t="s">
         <v>463</v>
       </c>
@@ -33144,7 +33144,7 @@
       <c r="M48" s="126"/>
       <c r="N48" s="124"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="124" t="s">
         <v>463</v>
       </c>
@@ -33166,7 +33166,7 @@
       <c r="M49" s="126"/>
       <c r="N49" s="124"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="124" t="s">
         <v>463</v>
       </c>
@@ -33188,7 +33188,7 @@
       <c r="M50" s="126"/>
       <c r="N50" s="124"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="124" t="s">
         <v>463</v>
       </c>
@@ -33210,7 +33210,7 @@
       <c r="M51" s="126"/>
       <c r="N51" s="124"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="124" t="s">
         <v>463</v>
       </c>
@@ -33232,7 +33232,7 @@
       <c r="M52" s="126"/>
       <c r="N52" s="124"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="124" t="s">
         <v>463</v>
       </c>
@@ -33254,7 +33254,7 @@
       <c r="M53" s="126"/>
       <c r="N53" s="124"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="119" t="s">
         <v>357</v>
       </c>
@@ -33278,7 +33278,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="119" t="s">
         <v>357</v>
       </c>
@@ -33300,7 +33300,7 @@
       <c r="M55" s="122"/>
       <c r="N55" s="119"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="119" t="s">
         <v>357</v>
       </c>
@@ -33322,7 +33322,7 @@
       <c r="M56" s="122"/>
       <c r="N56" s="119"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="119" t="s">
         <v>357</v>
       </c>
@@ -33344,7 +33344,7 @@
       <c r="M57" s="122"/>
       <c r="N57" s="119"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="119" t="s">
         <v>357</v>
       </c>
@@ -33366,7 +33366,7 @@
       <c r="M58" s="122"/>
       <c r="N58" s="119"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="119" t="s">
         <v>357</v>
       </c>
@@ -33388,7 +33388,7 @@
       <c r="M59" s="122"/>
       <c r="N59" s="119"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="119" t="s">
         <v>357</v>
       </c>
@@ -33410,7 +33410,7 @@
       <c r="M60" s="122"/>
       <c r="N60" s="119"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="119" t="s">
         <v>357</v>
       </c>
@@ -33432,7 +33432,7 @@
       <c r="M61" s="122"/>
       <c r="N61" s="119"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="119" t="s">
         <v>357</v>
       </c>
@@ -33454,7 +33454,7 @@
       <c r="M62" s="122"/>
       <c r="N62" s="119"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="119" t="s">
         <v>357</v>
       </c>
@@ -33476,7 +33476,7 @@
       <c r="M63" s="122"/>
       <c r="N63" s="119"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="119" t="s">
         <v>357</v>
       </c>
@@ -33498,7 +33498,7 @@
       <c r="M64" s="122"/>
       <c r="N64" s="119"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="119" t="s">
         <v>357</v>
       </c>
@@ -33520,7 +33520,7 @@
       <c r="M65" s="122"/>
       <c r="N65" s="119"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="119" t="s">
         <v>357</v>
       </c>
@@ -33542,7 +33542,7 @@
       <c r="M66" s="122"/>
       <c r="N66" s="119"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="124" t="s">
         <v>463</v>
       </c>
@@ -33564,7 +33564,7 @@
       <c r="M67" s="126"/>
       <c r="N67" s="124"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="124" t="s">
         <v>463</v>
       </c>
@@ -33586,7 +33586,7 @@
       <c r="M68" s="126"/>
       <c r="N68" s="124"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="124" t="s">
         <v>463</v>
       </c>
@@ -33608,7 +33608,7 @@
       <c r="M69" s="126"/>
       <c r="N69" s="124"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="124" t="s">
         <v>463</v>
       </c>
@@ -33630,7 +33630,7 @@
       <c r="M70" s="126"/>
       <c r="N70" s="124"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="124" t="s">
         <v>463</v>
       </c>
@@ -33652,7 +33652,7 @@
       <c r="M71" s="126"/>
       <c r="N71" s="124"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="124" t="s">
         <v>463</v>
       </c>
@@ -33674,7 +33674,7 @@
       <c r="M72" s="126"/>
       <c r="N72" s="124"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="124" t="s">
         <v>463</v>
       </c>
@@ -33696,7 +33696,7 @@
       <c r="M73" s="126"/>
       <c r="N73" s="124"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="124" t="s">
         <v>463</v>
       </c>
@@ -33718,7 +33718,7 @@
       <c r="M74" s="126"/>
       <c r="N74" s="124"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="124" t="s">
         <v>463</v>
       </c>
@@ -33740,7 +33740,7 @@
       <c r="M75" s="126"/>
       <c r="N75" s="124"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="124" t="s">
         <v>463</v>
       </c>
@@ -33762,7 +33762,7 @@
       <c r="M76" s="126"/>
       <c r="N76" s="124"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="124" t="s">
         <v>463</v>
       </c>
@@ -33784,7 +33784,7 @@
       <c r="M77" s="126"/>
       <c r="N77" s="124"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="124" t="s">
         <v>463</v>
       </c>
@@ -33806,7 +33806,7 @@
       <c r="M78" s="126"/>
       <c r="N78" s="124"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="124" t="s">
         <v>463</v>
       </c>
@@ -33828,7 +33828,7 @@
       <c r="M79" s="126"/>
       <c r="N79" s="124"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="119" t="s">
         <v>357</v>
       </c>
@@ -33852,7 +33852,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="119" t="s">
         <v>357</v>
       </c>
@@ -33874,7 +33874,7 @@
       <c r="M81" s="122"/>
       <c r="N81" s="119"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="119" t="s">
         <v>357</v>
       </c>
@@ -33896,7 +33896,7 @@
       <c r="M82" s="122"/>
       <c r="N82" s="119"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="119" t="s">
         <v>357</v>
       </c>
@@ -33918,7 +33918,7 @@
       <c r="M83" s="122"/>
       <c r="N83" s="119"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="119" t="s">
         <v>357</v>
       </c>
@@ -33940,7 +33940,7 @@
       <c r="M84" s="122"/>
       <c r="N84" s="119"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="119" t="s">
         <v>357</v>
       </c>
@@ -33962,7 +33962,7 @@
       <c r="M85" s="122"/>
       <c r="N85" s="119"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="119" t="s">
         <v>357</v>
       </c>
@@ -33984,7 +33984,7 @@
       <c r="M86" s="122"/>
       <c r="N86" s="119"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="119" t="s">
         <v>357</v>
       </c>
@@ -34006,7 +34006,7 @@
       <c r="M87" s="122"/>
       <c r="N87" s="119"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="119" t="s">
         <v>357</v>
       </c>
@@ -34028,7 +34028,7 @@
       <c r="M88" s="122"/>
       <c r="N88" s="119"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="119" t="s">
         <v>357</v>
       </c>
@@ -34050,7 +34050,7 @@
       <c r="M89" s="122"/>
       <c r="N89" s="119"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="119" t="s">
         <v>357</v>
       </c>
@@ -34072,7 +34072,7 @@
       <c r="M90" s="122"/>
       <c r="N90" s="119"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="119" t="s">
         <v>357</v>
       </c>
@@ -34094,7 +34094,7 @@
       <c r="M91" s="122"/>
       <c r="N91" s="119"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="119" t="s">
         <v>357</v>
       </c>
@@ -34116,7 +34116,7 @@
       <c r="M92" s="122"/>
       <c r="N92" s="119"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="124" t="s">
         <v>463</v>
       </c>
@@ -34138,7 +34138,7 @@
       <c r="M93" s="126"/>
       <c r="N93" s="124"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="124" t="s">
         <v>463</v>
       </c>
@@ -34160,7 +34160,7 @@
       <c r="M94" s="126"/>
       <c r="N94" s="124"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="124" t="s">
         <v>463</v>
       </c>
@@ -34182,7 +34182,7 @@
       <c r="M95" s="126"/>
       <c r="N95" s="124"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="124" t="s">
         <v>463</v>
       </c>
@@ -34204,7 +34204,7 @@
       <c r="M96" s="126"/>
       <c r="N96" s="124"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="124" t="s">
         <v>463</v>
       </c>
@@ -34226,7 +34226,7 @@
       <c r="M97" s="126"/>
       <c r="N97" s="124"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="124" t="s">
         <v>463</v>
       </c>
@@ -34248,7 +34248,7 @@
       <c r="M98" s="126"/>
       <c r="N98" s="124"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="124" t="s">
         <v>463</v>
       </c>
@@ -34270,7 +34270,7 @@
       <c r="M99" s="126"/>
       <c r="N99" s="124"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="124" t="s">
         <v>463</v>
       </c>
@@ -34292,7 +34292,7 @@
       <c r="M100" s="126"/>
       <c r="N100" s="124"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="124" t="s">
         <v>463</v>
       </c>
@@ -34314,7 +34314,7 @@
       <c r="M101" s="126"/>
       <c r="N101" s="124"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="124" t="s">
         <v>463</v>
       </c>
@@ -34336,7 +34336,7 @@
       <c r="M102" s="126"/>
       <c r="N102" s="124"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="124" t="s">
         <v>463</v>
       </c>
@@ -34358,7 +34358,7 @@
       <c r="M103" s="126"/>
       <c r="N103" s="124"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="124" t="s">
         <v>463</v>
       </c>
@@ -34380,7 +34380,7 @@
       <c r="M104" s="126"/>
       <c r="N104" s="124"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="124" t="s">
         <v>463</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="749">
   <si>
     <t>Name</t>
   </si>
@@ -2278,6 +2278,9 @@
   </si>
   <si>
     <t>8.42 1/min</t>
+  </si>
+  <si>
+    <t>60.0 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -3356,6 +3359,15 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="2" xfId="13" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3364,15 +3376,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3729,39 +3732,39 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="134"/>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="214" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="211" t="s">
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="214" t="s">
         <v>512</v>
       </c>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="211" t="s">
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="214" t="s">
         <v>513</v>
       </c>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="211" t="s">
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="214" t="s">
         <v>514</v>
       </c>
-      <c r="V1" s="213"/>
-      <c r="W1" s="211" t="s">
+      <c r="V1" s="216"/>
+      <c r="W1" s="214" t="s">
         <v>718</v>
       </c>
-      <c r="X1" s="213"/>
+      <c r="X1" s="216"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
@@ -4998,13 +5001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FW81"/>
+  <dimension ref="A1:FZ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EQ46" sqref="EQ46"/>
+      <selection pane="bottomRight" activeCell="ET6" sqref="ET6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5137,40 +5140,41 @@
     <col min="143" max="143" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="144" max="144" width="27.140625" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="145" max="145" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="15.5703125" style="100" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="15.5703125" style="100" customWidth="1"/>
-    <col min="148" max="150" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="151" max="151" width="17.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="153" max="153" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="154" max="154" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="155" max="155" width="8.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="156" max="156" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="157" max="157" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="158" max="158" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="159" max="159" width="11.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="160" max="160" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="161" max="161" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="162" max="162" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="163" max="163" width="15.7109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="167" max="167" width="19.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="169" max="169" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="19.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="171" max="171" width="22.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="173" max="173" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="174" max="174" width="22.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="175" max="175" width="26.140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="178" width="23" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="179" max="179" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="16384" width="9.140625" style="29"/>
+    <col min="146" max="146" width="15.5703125" style="100" customWidth="1" collapsed="1"/>
+    <col min="147" max="149" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="15.5703125" style="100" customWidth="1" collapsed="1"/>
+    <col min="151" max="153" width="15.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="154" width="17.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="155" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="156" max="156" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="157" max="157" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="158" max="158" width="8.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="160" max="160" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="161" max="161" width="11.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="162" max="162" width="11.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="164" max="164" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="15.7109375" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="168" max="168" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="11.42578125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="19.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="172" max="172" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="19.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="22.5703125" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="15.85546875" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="176" max="176" width="16.7109375" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="177" max="177" width="22.5703125" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="178" max="178" width="26.140625" style="100" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="181" width="23" style="100" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="182" max="182" width="20.5703125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="183" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58"/>
       <c r="B1" s="53"/>
       <c r="C1" s="97" t="s">
@@ -5533,89 +5537,98 @@
         <v>292</v>
       </c>
       <c r="EP1" s="106"/>
-      <c r="EQ1" s="106"/>
+      <c r="EQ1" s="106" t="s">
+        <v>290</v>
+      </c>
       <c r="ER1" s="106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="ES1" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="ET1" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="EU1" s="171"/>
-      <c r="EV1" s="172" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW1" s="172" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX1" s="172" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY1" s="171"/>
+        <v>292</v>
+      </c>
+      <c r="ET1" s="106"/>
+      <c r="EU1" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="EV1" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="EW1" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="EX1" s="171"/>
+      <c r="EY1" s="172" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ1" s="172" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA1" s="172" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB1" s="172" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC1" s="173"/>
-      <c r="FD1" s="173" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE1" s="173" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF1" s="173" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG1" s="173"/>
+        <v>292</v>
+      </c>
+      <c r="FB1" s="171"/>
+      <c r="FC1" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD1" s="172" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE1" s="172" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF1" s="173"/>
+      <c r="FG1" s="173" t="s">
+        <v>290</v>
+      </c>
       <c r="FH1" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI1" s="173" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ1" s="173" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK1" s="173"/>
+        <v>292</v>
+      </c>
+      <c r="FJ1" s="173"/>
+      <c r="FK1" s="173" t="s">
+        <v>290</v>
+      </c>
       <c r="FL1" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM1" s="173" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN1" s="173" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO1" s="173"/>
+        <v>292</v>
+      </c>
+      <c r="FN1" s="173"/>
+      <c r="FO1" s="173" t="s">
+        <v>290</v>
+      </c>
       <c r="FP1" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ1" s="173" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR1" s="173" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS1" s="173"/>
+        <v>292</v>
+      </c>
+      <c r="FR1" s="173"/>
+      <c r="FS1" s="173" t="s">
+        <v>290</v>
+      </c>
       <c r="FT1" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU1" s="173" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV1" s="173" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW1" s="171"/>
-    </row>
-    <row r="2" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV1" s="173"/>
+      <c r="FW1" s="173" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX1" s="173" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY1" s="173" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ1" s="171"/>
+    </row>
+    <row r="2" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
@@ -6055,106 +6068,115 @@
         <v>743</v>
       </c>
       <c r="EQ2" s="98" t="s">
-        <v>670</v>
+        <v>743</v>
       </c>
       <c r="ER2" s="98" t="s">
-        <v>670</v>
+        <v>743</v>
       </c>
       <c r="ES2" s="98" t="s">
-        <v>670</v>
+        <v>743</v>
       </c>
       <c r="ET2" s="98" t="s">
         <v>670</v>
       </c>
       <c r="EU2" s="98" t="s">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="EV2" s="98" t="s">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="EW2" s="98" t="s">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="EX2" s="98" t="s">
         <v>112</v>
       </c>
       <c r="EY2" s="98" t="s">
-        <v>559</v>
+        <v>112</v>
       </c>
       <c r="EZ2" s="98" t="s">
-        <v>559</v>
+        <v>112</v>
       </c>
       <c r="FA2" s="98" t="s">
-        <v>559</v>
+        <v>112</v>
       </c>
       <c r="FB2" s="98" t="s">
         <v>559</v>
       </c>
       <c r="FC2" s="98" t="s">
-        <v>14</v>
+        <v>559</v>
       </c>
       <c r="FD2" s="98" t="s">
-        <v>14</v>
+        <v>559</v>
       </c>
       <c r="FE2" s="98" t="s">
-        <v>14</v>
+        <v>559</v>
       </c>
       <c r="FF2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="FG2" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="FH2" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="FI2" s="103" t="s">
-        <v>207</v>
+      <c r="FG2" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="FH2" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="FI2" s="98" t="s">
+        <v>14</v>
       </c>
       <c r="FJ2" s="103" t="s">
         <v>207</v>
       </c>
       <c r="FK2" s="103" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
       <c r="FL2" s="103" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
       <c r="FM2" s="103" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
       <c r="FN2" s="103" t="s">
         <v>586</v>
       </c>
       <c r="FO2" s="103" t="s">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="FP2" s="103" t="s">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="FQ2" s="103" t="s">
-        <v>208</v>
+        <v>586</v>
       </c>
       <c r="FR2" s="103" t="s">
         <v>208</v>
       </c>
       <c r="FS2" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="FT2" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="FU2" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="FV2" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="FW2" s="98" t="s">
+      <c r="FW2" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="FX2" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="FY2" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="FZ2" s="98" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:179" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:182" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>272</v>
       </c>
@@ -6499,79 +6521,82 @@
       <c r="ER3" s="194"/>
       <c r="ES3" s="194"/>
       <c r="ET3" s="194"/>
-      <c r="EU3" s="174"/>
-      <c r="EV3" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW3" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX3" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY3" s="174"/>
+      <c r="EU3" s="194"/>
+      <c r="EV3" s="194"/>
+      <c r="EW3" s="194"/>
+      <c r="EX3" s="174"/>
+      <c r="EY3" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ3" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA3" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB3" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC3" s="176"/>
-      <c r="FD3" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE3" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF3" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG3" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB3" s="174"/>
+      <c r="FC3" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD3" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE3" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF3" s="176"/>
+      <c r="FG3" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH3" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI3" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ3" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK3" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ3" s="176"/>
+      <c r="FK3" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL3" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM3" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN3" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO3" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN3" s="176"/>
+      <c r="FO3" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP3" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ3" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR3" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS3" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR3" s="176"/>
+      <c r="FS3" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT3" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU3" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV3" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW3" s="177"/>
-    </row>
-    <row r="4" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV3" s="176"/>
+      <c r="FW3" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX3" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY3" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ3" s="177"/>
+    </row>
+    <row r="4" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
@@ -6800,59 +6825,62 @@
       <c r="EP4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="EQ4" s="109" t="s">
-        <v>17</v>
-      </c>
+      <c r="EQ4" s="109"/>
       <c r="ER4" s="109"/>
       <c r="ES4" s="109"/>
-      <c r="ET4" s="109"/>
-      <c r="EU4" s="179" t="s">
+      <c r="ET4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="EV4" s="179"/>
-      <c r="EW4" s="179"/>
-      <c r="EX4" s="179"/>
-      <c r="EY4" s="179" t="s">
+      <c r="EU4" s="109"/>
+      <c r="EV4" s="109"/>
+      <c r="EW4" s="109"/>
+      <c r="EX4" s="179" t="s">
         <v>17</v>
       </c>
+      <c r="EY4" s="179"/>
       <c r="EZ4" s="179"/>
       <c r="FA4" s="179"/>
-      <c r="FB4" s="179"/>
-      <c r="FC4" s="179" t="s">
+      <c r="FB4" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="FC4" s="179"/>
+      <c r="FD4" s="179"/>
+      <c r="FE4" s="179"/>
+      <c r="FF4" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="FD4" s="180"/>
-      <c r="FE4" s="180"/>
-      <c r="FF4" s="180"/>
-      <c r="FG4" s="179" t="s">
-        <v>23</v>
-      </c>
+      <c r="FG4" s="180"/>
       <c r="FH4" s="180"/>
       <c r="FI4" s="180"/>
-      <c r="FJ4" s="180"/>
-      <c r="FK4" s="179" t="s">
+      <c r="FJ4" s="179" t="s">
         <v>23</v>
       </c>
+      <c r="FK4" s="180"/>
       <c r="FL4" s="180"/>
       <c r="FM4" s="180"/>
-      <c r="FN4" s="180"/>
-      <c r="FO4" s="179" t="s">
+      <c r="FN4" s="179" t="s">
         <v>23</v>
       </c>
+      <c r="FO4" s="180"/>
       <c r="FP4" s="180"/>
       <c r="FQ4" s="180"/>
-      <c r="FR4" s="180"/>
-      <c r="FS4" s="179" t="s">
+      <c r="FR4" s="179" t="s">
         <v>23</v>
       </c>
+      <c r="FS4" s="180"/>
       <c r="FT4" s="180"/>
       <c r="FU4" s="180"/>
-      <c r="FV4" s="180"/>
-      <c r="FW4" s="179" t="s">
+      <c r="FV4" s="179" t="s">
+        <v>23</v>
+      </c>
+      <c r="FW4" s="180"/>
+      <c r="FX4" s="180"/>
+      <c r="FY4" s="180"/>
+      <c r="FZ4" s="179" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>654</v>
       </c>
@@ -7037,37 +7065,40 @@
       <c r="ER5" s="109"/>
       <c r="ES5" s="109"/>
       <c r="ET5" s="109"/>
-      <c r="EU5" s="179"/>
-      <c r="EV5" s="179"/>
-      <c r="EW5" s="179"/>
+      <c r="EU5" s="109"/>
+      <c r="EV5" s="109"/>
+      <c r="EW5" s="109"/>
       <c r="EX5" s="179"/>
       <c r="EY5" s="179"/>
       <c r="EZ5" s="179"/>
       <c r="FA5" s="179"/>
       <c r="FB5" s="179"/>
       <c r="FC5" s="179"/>
-      <c r="FD5" s="180"/>
-      <c r="FE5" s="180"/>
-      <c r="FF5" s="180"/>
-      <c r="FG5" s="179"/>
+      <c r="FD5" s="179"/>
+      <c r="FE5" s="179"/>
+      <c r="FF5" s="179"/>
+      <c r="FG5" s="180"/>
       <c r="FH5" s="180"/>
       <c r="FI5" s="180"/>
-      <c r="FJ5" s="180"/>
-      <c r="FK5" s="179"/>
+      <c r="FJ5" s="179"/>
+      <c r="FK5" s="180"/>
       <c r="FL5" s="180"/>
       <c r="FM5" s="180"/>
-      <c r="FN5" s="180"/>
-      <c r="FO5" s="179"/>
+      <c r="FN5" s="179"/>
+      <c r="FO5" s="180"/>
       <c r="FP5" s="180"/>
       <c r="FQ5" s="180"/>
-      <c r="FR5" s="180"/>
-      <c r="FS5" s="179"/>
+      <c r="FR5" s="179"/>
+      <c r="FS5" s="180"/>
       <c r="FT5" s="180"/>
       <c r="FU5" s="180"/>
-      <c r="FV5" s="180"/>
-      <c r="FW5" s="179"/>
-    </row>
-    <row r="6" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV5" s="179"/>
+      <c r="FW5" s="180"/>
+      <c r="FX5" s="180"/>
+      <c r="FY5" s="180"/>
+      <c r="FZ5" s="179"/>
+    </row>
+    <row r="6" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>10</v>
       </c>
@@ -7238,37 +7269,40 @@
       <c r="ER6" s="109"/>
       <c r="ES6" s="109"/>
       <c r="ET6" s="109"/>
-      <c r="EU6" s="179"/>
-      <c r="EV6" s="179"/>
-      <c r="EW6" s="179"/>
+      <c r="EU6" s="109"/>
+      <c r="EV6" s="109"/>
+      <c r="EW6" s="109"/>
       <c r="EX6" s="179"/>
       <c r="EY6" s="179"/>
       <c r="EZ6" s="179"/>
       <c r="FA6" s="179"/>
       <c r="FB6" s="179"/>
       <c r="FC6" s="179"/>
-      <c r="FD6" s="180"/>
-      <c r="FE6" s="180"/>
-      <c r="FF6" s="180"/>
-      <c r="FG6" s="179"/>
+      <c r="FD6" s="179"/>
+      <c r="FE6" s="179"/>
+      <c r="FF6" s="179"/>
+      <c r="FG6" s="180"/>
       <c r="FH6" s="180"/>
       <c r="FI6" s="180"/>
-      <c r="FJ6" s="180"/>
-      <c r="FK6" s="179"/>
+      <c r="FJ6" s="179"/>
+      <c r="FK6" s="180"/>
       <c r="FL6" s="180"/>
       <c r="FM6" s="180"/>
-      <c r="FN6" s="180"/>
-      <c r="FO6" s="179"/>
+      <c r="FN6" s="179"/>
+      <c r="FO6" s="180"/>
       <c r="FP6" s="180"/>
       <c r="FQ6" s="180"/>
-      <c r="FR6" s="180"/>
-      <c r="FS6" s="179"/>
+      <c r="FR6" s="179"/>
+      <c r="FS6" s="180"/>
       <c r="FT6" s="180"/>
       <c r="FU6" s="180"/>
-      <c r="FV6" s="180"/>
-      <c r="FW6" s="179"/>
-    </row>
-    <row r="7" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV6" s="179"/>
+      <c r="FW6" s="180"/>
+      <c r="FX6" s="180"/>
+      <c r="FY6" s="180"/>
+      <c r="FZ6" s="179"/>
+    </row>
+    <row r="7" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>477</v>
       </c>
@@ -7427,37 +7461,40 @@
       <c r="ER7" s="109"/>
       <c r="ES7" s="109"/>
       <c r="ET7" s="109"/>
-      <c r="EU7" s="179"/>
-      <c r="EV7" s="179"/>
-      <c r="EW7" s="179"/>
+      <c r="EU7" s="109"/>
+      <c r="EV7" s="109"/>
+      <c r="EW7" s="109"/>
       <c r="EX7" s="179"/>
       <c r="EY7" s="179"/>
       <c r="EZ7" s="179"/>
       <c r="FA7" s="179"/>
       <c r="FB7" s="179"/>
       <c r="FC7" s="179"/>
-      <c r="FD7" s="180"/>
-      <c r="FE7" s="180"/>
-      <c r="FF7" s="180"/>
-      <c r="FG7" s="179"/>
+      <c r="FD7" s="179"/>
+      <c r="FE7" s="179"/>
+      <c r="FF7" s="179"/>
+      <c r="FG7" s="180"/>
       <c r="FH7" s="180"/>
       <c r="FI7" s="180"/>
-      <c r="FJ7" s="180"/>
-      <c r="FK7" s="179"/>
+      <c r="FJ7" s="179"/>
+      <c r="FK7" s="180"/>
       <c r="FL7" s="180"/>
       <c r="FM7" s="180"/>
-      <c r="FN7" s="180"/>
-      <c r="FO7" s="179"/>
+      <c r="FN7" s="179"/>
+      <c r="FO7" s="180"/>
       <c r="FP7" s="180"/>
       <c r="FQ7" s="180"/>
-      <c r="FR7" s="180"/>
-      <c r="FS7" s="179"/>
+      <c r="FR7" s="179"/>
+      <c r="FS7" s="180"/>
       <c r="FT7" s="180"/>
       <c r="FU7" s="180"/>
-      <c r="FV7" s="180"/>
-      <c r="FW7" s="179"/>
-    </row>
-    <row r="8" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV7" s="179"/>
+      <c r="FW7" s="180"/>
+      <c r="FX7" s="180"/>
+      <c r="FY7" s="180"/>
+      <c r="FZ7" s="179"/>
+    </row>
+    <row r="8" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>478</v>
       </c>
@@ -7616,37 +7653,40 @@
       <c r="ER8" s="109"/>
       <c r="ES8" s="109"/>
       <c r="ET8" s="109"/>
-      <c r="EU8" s="179"/>
-      <c r="EV8" s="179"/>
-      <c r="EW8" s="179"/>
+      <c r="EU8" s="109"/>
+      <c r="EV8" s="109"/>
+      <c r="EW8" s="109"/>
       <c r="EX8" s="179"/>
       <c r="EY8" s="179"/>
       <c r="EZ8" s="179"/>
       <c r="FA8" s="179"/>
       <c r="FB8" s="179"/>
       <c r="FC8" s="179"/>
-      <c r="FD8" s="180"/>
-      <c r="FE8" s="180"/>
-      <c r="FF8" s="180"/>
-      <c r="FG8" s="179"/>
+      <c r="FD8" s="179"/>
+      <c r="FE8" s="179"/>
+      <c r="FF8" s="179"/>
+      <c r="FG8" s="180"/>
       <c r="FH8" s="180"/>
       <c r="FI8" s="180"/>
-      <c r="FJ8" s="180"/>
-      <c r="FK8" s="179"/>
+      <c r="FJ8" s="179"/>
+      <c r="FK8" s="180"/>
       <c r="FL8" s="180"/>
       <c r="FM8" s="180"/>
-      <c r="FN8" s="180"/>
-      <c r="FO8" s="179"/>
+      <c r="FN8" s="179"/>
+      <c r="FO8" s="180"/>
       <c r="FP8" s="180"/>
       <c r="FQ8" s="180"/>
-      <c r="FR8" s="180"/>
-      <c r="FS8" s="179"/>
+      <c r="FR8" s="179"/>
+      <c r="FS8" s="180"/>
       <c r="FT8" s="180"/>
       <c r="FU8" s="180"/>
-      <c r="FV8" s="180"/>
-      <c r="FW8" s="179"/>
-    </row>
-    <row r="9" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV8" s="179"/>
+      <c r="FW8" s="180"/>
+      <c r="FX8" s="180"/>
+      <c r="FY8" s="180"/>
+      <c r="FZ8" s="179"/>
+    </row>
+    <row r="9" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>651</v>
       </c>
@@ -7807,37 +7847,40 @@
       <c r="ER9" s="109"/>
       <c r="ES9" s="109"/>
       <c r="ET9" s="109"/>
-      <c r="EU9" s="179"/>
-      <c r="EV9" s="179"/>
-      <c r="EW9" s="179"/>
+      <c r="EU9" s="109"/>
+      <c r="EV9" s="109"/>
+      <c r="EW9" s="109"/>
       <c r="EX9" s="179"/>
       <c r="EY9" s="179"/>
       <c r="EZ9" s="179"/>
       <c r="FA9" s="179"/>
       <c r="FB9" s="179"/>
       <c r="FC9" s="179"/>
-      <c r="FD9" s="180"/>
-      <c r="FE9" s="180"/>
-      <c r="FF9" s="180"/>
-      <c r="FG9" s="179"/>
+      <c r="FD9" s="179"/>
+      <c r="FE9" s="179"/>
+      <c r="FF9" s="179"/>
+      <c r="FG9" s="180"/>
       <c r="FH9" s="180"/>
       <c r="FI9" s="180"/>
-      <c r="FJ9" s="180"/>
-      <c r="FK9" s="179"/>
+      <c r="FJ9" s="179"/>
+      <c r="FK9" s="180"/>
       <c r="FL9" s="180"/>
       <c r="FM9" s="180"/>
-      <c r="FN9" s="180"/>
-      <c r="FO9" s="179"/>
+      <c r="FN9" s="179"/>
+      <c r="FO9" s="180"/>
       <c r="FP9" s="180"/>
       <c r="FQ9" s="180"/>
-      <c r="FR9" s="180"/>
-      <c r="FS9" s="179"/>
+      <c r="FR9" s="179"/>
+      <c r="FS9" s="180"/>
       <c r="FT9" s="180"/>
       <c r="FU9" s="180"/>
-      <c r="FV9" s="180"/>
-      <c r="FW9" s="179"/>
-    </row>
-    <row r="10" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV9" s="179"/>
+      <c r="FW9" s="180"/>
+      <c r="FX9" s="180"/>
+      <c r="FY9" s="180"/>
+      <c r="FZ9" s="179"/>
+    </row>
+    <row r="10" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
@@ -8064,55 +8107,58 @@
       <c r="EP10" s="109" t="s">
         <v>744</v>
       </c>
-      <c r="EQ10" s="109" t="s">
-        <v>671</v>
-      </c>
+      <c r="EQ10" s="109"/>
       <c r="ER10" s="109"/>
       <c r="ES10" s="109"/>
-      <c r="ET10" s="109"/>
-      <c r="EU10" s="179" t="s">
+      <c r="ET10" s="109" t="s">
+        <v>671</v>
+      </c>
+      <c r="EU10" s="109"/>
+      <c r="EV10" s="109"/>
+      <c r="EW10" s="109"/>
+      <c r="EX10" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="EV10" s="179"/>
-      <c r="EW10" s="179"/>
-      <c r="EX10" s="179"/>
       <c r="EY10" s="179"/>
       <c r="EZ10" s="179"/>
       <c r="FA10" s="179"/>
       <c r="FB10" s="179"/>
-      <c r="FC10" s="179" t="s">
+      <c r="FC10" s="179"/>
+      <c r="FD10" s="179"/>
+      <c r="FE10" s="179"/>
+      <c r="FF10" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="FD10" s="180"/>
-      <c r="FE10" s="180"/>
-      <c r="FF10" s="180"/>
-      <c r="FG10" s="179" t="s">
-        <v>225</v>
-      </c>
+      <c r="FG10" s="180"/>
       <c r="FH10" s="180"/>
       <c r="FI10" s="180"/>
-      <c r="FJ10" s="180"/>
-      <c r="FK10" s="179" t="s">
-        <v>587</v>
-      </c>
+      <c r="FJ10" s="179" t="s">
+        <v>225</v>
+      </c>
+      <c r="FK10" s="180"/>
       <c r="FL10" s="180"/>
       <c r="FM10" s="180"/>
-      <c r="FN10" s="180"/>
-      <c r="FO10" s="179" t="s">
-        <v>223</v>
-      </c>
+      <c r="FN10" s="179" t="s">
+        <v>587</v>
+      </c>
+      <c r="FO10" s="180"/>
       <c r="FP10" s="180"/>
       <c r="FQ10" s="180"/>
-      <c r="FR10" s="180"/>
-      <c r="FS10" s="179" t="s">
-        <v>226</v>
-      </c>
+      <c r="FR10" s="179" t="s">
+        <v>223</v>
+      </c>
+      <c r="FS10" s="180"/>
       <c r="FT10" s="180"/>
       <c r="FU10" s="180"/>
-      <c r="FV10" s="180"/>
-      <c r="FW10" s="179"/>
-    </row>
-    <row r="11" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV10" s="179" t="s">
+        <v>226</v>
+      </c>
+      <c r="FW10" s="180"/>
+      <c r="FX10" s="180"/>
+      <c r="FY10" s="180"/>
+      <c r="FZ10" s="179"/>
+    </row>
+    <row r="11" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>74</v>
       </c>
@@ -8277,37 +8323,40 @@
       <c r="ER11" s="109"/>
       <c r="ES11" s="109"/>
       <c r="ET11" s="109"/>
-      <c r="EU11" s="179"/>
-      <c r="EV11" s="179"/>
-      <c r="EW11" s="179"/>
+      <c r="EU11" s="109"/>
+      <c r="EV11" s="109"/>
+      <c r="EW11" s="109"/>
       <c r="EX11" s="179"/>
       <c r="EY11" s="179"/>
       <c r="EZ11" s="179"/>
       <c r="FA11" s="179"/>
       <c r="FB11" s="179"/>
       <c r="FC11" s="179"/>
-      <c r="FD11" s="180"/>
-      <c r="FE11" s="180"/>
-      <c r="FF11" s="180"/>
-      <c r="FG11" s="179"/>
+      <c r="FD11" s="179"/>
+      <c r="FE11" s="179"/>
+      <c r="FF11" s="179"/>
+      <c r="FG11" s="180"/>
       <c r="FH11" s="180"/>
       <c r="FI11" s="180"/>
-      <c r="FJ11" s="180"/>
-      <c r="FK11" s="179"/>
+      <c r="FJ11" s="179"/>
+      <c r="FK11" s="180"/>
       <c r="FL11" s="180"/>
       <c r="FM11" s="180"/>
-      <c r="FN11" s="180"/>
-      <c r="FO11" s="179"/>
+      <c r="FN11" s="179"/>
+      <c r="FO11" s="180"/>
       <c r="FP11" s="180"/>
       <c r="FQ11" s="180"/>
-      <c r="FR11" s="180"/>
-      <c r="FS11" s="179"/>
+      <c r="FR11" s="179"/>
+      <c r="FS11" s="180"/>
       <c r="FT11" s="180"/>
       <c r="FU11" s="180"/>
-      <c r="FV11" s="180"/>
-      <c r="FW11" s="179"/>
-    </row>
-    <row r="12" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV11" s="179"/>
+      <c r="FW11" s="180"/>
+      <c r="FX11" s="180"/>
+      <c r="FY11" s="180"/>
+      <c r="FZ11" s="179"/>
+    </row>
+    <row r="12" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>73</v>
       </c>
@@ -8478,37 +8527,40 @@
       <c r="ER12" s="109"/>
       <c r="ES12" s="109"/>
       <c r="ET12" s="109"/>
-      <c r="EU12" s="179"/>
-      <c r="EV12" s="179"/>
-      <c r="EW12" s="179"/>
+      <c r="EU12" s="109"/>
+      <c r="EV12" s="109"/>
+      <c r="EW12" s="109"/>
       <c r="EX12" s="179"/>
       <c r="EY12" s="179"/>
       <c r="EZ12" s="179"/>
       <c r="FA12" s="179"/>
       <c r="FB12" s="179"/>
       <c r="FC12" s="179"/>
-      <c r="FD12" s="180"/>
-      <c r="FE12" s="180"/>
-      <c r="FF12" s="180"/>
-      <c r="FG12" s="179"/>
+      <c r="FD12" s="179"/>
+      <c r="FE12" s="179"/>
+      <c r="FF12" s="179"/>
+      <c r="FG12" s="180"/>
       <c r="FH12" s="180"/>
       <c r="FI12" s="180"/>
-      <c r="FJ12" s="180"/>
-      <c r="FK12" s="179"/>
+      <c r="FJ12" s="179"/>
+      <c r="FK12" s="180"/>
       <c r="FL12" s="180"/>
       <c r="FM12" s="180"/>
-      <c r="FN12" s="180"/>
-      <c r="FO12" s="179"/>
+      <c r="FN12" s="179"/>
+      <c r="FO12" s="180"/>
       <c r="FP12" s="180"/>
       <c r="FQ12" s="180"/>
-      <c r="FR12" s="180"/>
-      <c r="FS12" s="179"/>
+      <c r="FR12" s="179"/>
+      <c r="FS12" s="180"/>
       <c r="FT12" s="180"/>
       <c r="FU12" s="180"/>
-      <c r="FV12" s="180"/>
-      <c r="FW12" s="179"/>
-    </row>
-    <row r="13" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FV12" s="179"/>
+      <c r="FW12" s="180"/>
+      <c r="FX12" s="180"/>
+      <c r="FY12" s="180"/>
+      <c r="FZ12" s="179"/>
+    </row>
+    <row r="13" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>268</v>
       </c>
@@ -8855,79 +8907,82 @@
       <c r="ER13" s="108"/>
       <c r="ES13" s="108"/>
       <c r="ET13" s="108"/>
-      <c r="EU13" s="176"/>
-      <c r="EV13" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW13" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX13" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY13" s="176"/>
+      <c r="EU13" s="108"/>
+      <c r="EV13" s="108"/>
+      <c r="EW13" s="108"/>
+      <c r="EX13" s="176"/>
+      <c r="EY13" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ13" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA13" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB13" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC13" s="176"/>
-      <c r="FD13" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE13" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF13" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG13" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB13" s="176"/>
+      <c r="FC13" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD13" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE13" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF13" s="176"/>
+      <c r="FG13" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH13" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI13" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ13" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK13" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ13" s="176"/>
+      <c r="FK13" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL13" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM13" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN13" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO13" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN13" s="176"/>
+      <c r="FO13" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP13" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ13" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR13" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS13" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR13" s="176"/>
+      <c r="FS13" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT13" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU13" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV13" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW13" s="171"/>
-    </row>
-    <row r="14" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV13" s="176"/>
+      <c r="FW13" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX13" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY13" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ13" s="171"/>
+    </row>
+    <row r="14" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>591</v>
       </c>
@@ -9084,9 +9139,9 @@
       <c r="ER14" s="155"/>
       <c r="ES14" s="155"/>
       <c r="ET14" s="155"/>
-      <c r="EU14" s="179"/>
-      <c r="EV14" s="179"/>
-      <c r="EW14" s="179"/>
+      <c r="EU14" s="155"/>
+      <c r="EV14" s="155"/>
+      <c r="EW14" s="155"/>
       <c r="EX14" s="179"/>
       <c r="EY14" s="179"/>
       <c r="EZ14" s="179"/>
@@ -9112,11 +9167,14 @@
       <c r="FT14" s="179"/>
       <c r="FU14" s="179"/>
       <c r="FV14" s="179"/>
-      <c r="FW14" s="179">
+      <c r="FW14" s="179"/>
+      <c r="FX14" s="179"/>
+      <c r="FY14" s="179"/>
+      <c r="FZ14" s="179">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>578</v>
       </c>
@@ -9273,9 +9331,9 @@
       <c r="ER15" s="155"/>
       <c r="ES15" s="155"/>
       <c r="ET15" s="155"/>
-      <c r="EU15" s="179"/>
-      <c r="EV15" s="179"/>
-      <c r="EW15" s="179"/>
+      <c r="EU15" s="155"/>
+      <c r="EV15" s="155"/>
+      <c r="EW15" s="155"/>
       <c r="EX15" s="179"/>
       <c r="EY15" s="179"/>
       <c r="EZ15" s="179"/>
@@ -9301,11 +9359,14 @@
       <c r="FT15" s="179"/>
       <c r="FU15" s="179"/>
       <c r="FV15" s="179"/>
-      <c r="FW15" s="179">
+      <c r="FW15" s="179"/>
+      <c r="FX15" s="179"/>
+      <c r="FY15" s="179"/>
+      <c r="FZ15" s="179">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:179" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:182" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>548</v>
       </c>
@@ -9462,9 +9523,9 @@
       <c r="ER16" s="155"/>
       <c r="ES16" s="155"/>
       <c r="ET16" s="155"/>
-      <c r="EU16" s="179"/>
-      <c r="EV16" s="179"/>
-      <c r="EW16" s="179"/>
+      <c r="EU16" s="155"/>
+      <c r="EV16" s="155"/>
+      <c r="EW16" s="155"/>
       <c r="EX16" s="179"/>
       <c r="EY16" s="179"/>
       <c r="EZ16" s="179"/>
@@ -9490,11 +9551,14 @@
       <c r="FT16" s="179"/>
       <c r="FU16" s="179"/>
       <c r="FV16" s="179"/>
-      <c r="FW16" s="181" t="s">
+      <c r="FW16" s="179"/>
+      <c r="FX16" s="179"/>
+      <c r="FY16" s="179"/>
+      <c r="FZ16" s="181" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
         <v>269</v>
       </c>
@@ -9841,79 +9905,82 @@
       <c r="ER17" s="108"/>
       <c r="ES17" s="108"/>
       <c r="ET17" s="108"/>
-      <c r="EU17" s="176"/>
-      <c r="EV17" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW17" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX17" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY17" s="176"/>
+      <c r="EU17" s="108"/>
+      <c r="EV17" s="108"/>
+      <c r="EW17" s="108"/>
+      <c r="EX17" s="176"/>
+      <c r="EY17" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ17" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA17" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB17" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC17" s="176"/>
-      <c r="FD17" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE17" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF17" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG17" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB17" s="176"/>
+      <c r="FC17" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD17" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE17" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF17" s="176"/>
+      <c r="FG17" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH17" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI17" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ17" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK17" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ17" s="176"/>
+      <c r="FK17" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL17" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM17" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN17" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO17" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN17" s="176"/>
+      <c r="FO17" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP17" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ17" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR17" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS17" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR17" s="176"/>
+      <c r="FS17" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT17" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU17" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV17" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW17" s="171"/>
-    </row>
-    <row r="18" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV17" s="176"/>
+      <c r="FW17" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX17" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY17" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ17" s="171"/>
+    </row>
+    <row r="18" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>94</v>
       </c>
@@ -10108,45 +10175,48 @@
       <c r="EP18" s="109">
         <v>0</v>
       </c>
-      <c r="EQ18" s="109">
-        <v>0</v>
-      </c>
+      <c r="EQ18" s="109"/>
       <c r="ER18" s="109"/>
       <c r="ES18" s="109"/>
-      <c r="ET18" s="109"/>
-      <c r="EU18" s="179">
+      <c r="ET18" s="109">
         <v>0</v>
       </c>
-      <c r="EV18" s="179"/>
-      <c r="EW18" s="179"/>
-      <c r="EX18" s="179"/>
+      <c r="EU18" s="109"/>
+      <c r="EV18" s="109"/>
+      <c r="EW18" s="109"/>
+      <c r="EX18" s="179">
+        <v>0</v>
+      </c>
       <c r="EY18" s="179"/>
       <c r="EZ18" s="179"/>
       <c r="FA18" s="179"/>
       <c r="FB18" s="179"/>
       <c r="FC18" s="179"/>
-      <c r="FD18" s="180"/>
-      <c r="FE18" s="180"/>
-      <c r="FF18" s="180"/>
-      <c r="FG18" s="179"/>
+      <c r="FD18" s="179"/>
+      <c r="FE18" s="179"/>
+      <c r="FF18" s="179"/>
+      <c r="FG18" s="180"/>
       <c r="FH18" s="180"/>
       <c r="FI18" s="180"/>
-      <c r="FJ18" s="180"/>
-      <c r="FK18" s="179"/>
+      <c r="FJ18" s="179"/>
+      <c r="FK18" s="180"/>
       <c r="FL18" s="180"/>
       <c r="FM18" s="180"/>
-      <c r="FN18" s="180"/>
-      <c r="FO18" s="179"/>
+      <c r="FN18" s="179"/>
+      <c r="FO18" s="180"/>
       <c r="FP18" s="180"/>
       <c r="FQ18" s="180"/>
-      <c r="FR18" s="180"/>
-      <c r="FS18" s="179"/>
+      <c r="FR18" s="179"/>
+      <c r="FS18" s="180"/>
       <c r="FT18" s="180"/>
       <c r="FU18" s="180"/>
-      <c r="FV18" s="180"/>
-      <c r="FW18" s="179"/>
-    </row>
-    <row r="19" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV18" s="179"/>
+      <c r="FW18" s="180"/>
+      <c r="FX18" s="180"/>
+      <c r="FY18" s="180"/>
+      <c r="FZ18" s="179"/>
+    </row>
+    <row r="19" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>90</v>
       </c>
@@ -10355,45 +10425,48 @@
       <c r="EP19" s="109">
         <v>0.03</v>
       </c>
-      <c r="EQ19" s="109">
-        <v>0.99</v>
-      </c>
+      <c r="EQ19" s="109"/>
       <c r="ER19" s="109"/>
       <c r="ES19" s="109"/>
-      <c r="ET19" s="109"/>
-      <c r="EU19" s="182">
+      <c r="ET19" s="109">
+        <v>0.99</v>
+      </c>
+      <c r="EU19" s="109"/>
+      <c r="EV19" s="109"/>
+      <c r="EW19" s="109"/>
+      <c r="EX19" s="182">
         <v>1</v>
       </c>
-      <c r="EV19" s="179"/>
-      <c r="EW19" s="179"/>
-      <c r="EX19" s="179"/>
       <c r="EY19" s="179"/>
       <c r="EZ19" s="179"/>
       <c r="FA19" s="179"/>
       <c r="FB19" s="179"/>
       <c r="FC19" s="179"/>
-      <c r="FD19" s="180"/>
-      <c r="FE19" s="180"/>
-      <c r="FF19" s="180"/>
-      <c r="FG19" s="179"/>
+      <c r="FD19" s="179"/>
+      <c r="FE19" s="179"/>
+      <c r="FF19" s="179"/>
+      <c r="FG19" s="180"/>
       <c r="FH19" s="180"/>
       <c r="FI19" s="180"/>
-      <c r="FJ19" s="180"/>
-      <c r="FK19" s="179"/>
+      <c r="FJ19" s="179"/>
+      <c r="FK19" s="180"/>
       <c r="FL19" s="180"/>
       <c r="FM19" s="180"/>
-      <c r="FN19" s="180"/>
-      <c r="FO19" s="179"/>
+      <c r="FN19" s="179"/>
+      <c r="FO19" s="180"/>
       <c r="FP19" s="180"/>
       <c r="FQ19" s="180"/>
-      <c r="FR19" s="180"/>
-      <c r="FS19" s="179"/>
+      <c r="FR19" s="179"/>
+      <c r="FS19" s="180"/>
       <c r="FT19" s="180"/>
       <c r="FU19" s="180"/>
-      <c r="FV19" s="180"/>
-      <c r="FW19" s="179"/>
-    </row>
-    <row r="20" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV19" s="179"/>
+      <c r="FW19" s="180"/>
+      <c r="FX19" s="180"/>
+      <c r="FY19" s="180"/>
+      <c r="FZ19" s="179"/>
+    </row>
+    <row r="20" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>92</v>
       </c>
@@ -10588,45 +10661,48 @@
       <c r="EP20" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="EQ20" s="109" t="s">
-        <v>97</v>
-      </c>
+      <c r="EQ20" s="109"/>
       <c r="ER20" s="109"/>
       <c r="ES20" s="109"/>
-      <c r="ET20" s="109"/>
-      <c r="EU20" s="179" t="s">
+      <c r="ET20" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="EV20" s="179"/>
-      <c r="EW20" s="179"/>
-      <c r="EX20" s="179"/>
+      <c r="EU20" s="109"/>
+      <c r="EV20" s="109"/>
+      <c r="EW20" s="109"/>
+      <c r="EX20" s="179" t="s">
+        <v>97</v>
+      </c>
       <c r="EY20" s="179"/>
       <c r="EZ20" s="179"/>
       <c r="FA20" s="179"/>
       <c r="FB20" s="179"/>
       <c r="FC20" s="179"/>
-      <c r="FD20" s="180"/>
-      <c r="FE20" s="180"/>
-      <c r="FF20" s="180"/>
-      <c r="FG20" s="179"/>
+      <c r="FD20" s="179"/>
+      <c r="FE20" s="179"/>
+      <c r="FF20" s="179"/>
+      <c r="FG20" s="180"/>
       <c r="FH20" s="180"/>
       <c r="FI20" s="180"/>
-      <c r="FJ20" s="180"/>
-      <c r="FK20" s="179"/>
+      <c r="FJ20" s="179"/>
+      <c r="FK20" s="180"/>
       <c r="FL20" s="180"/>
       <c r="FM20" s="180"/>
-      <c r="FN20" s="180"/>
-      <c r="FO20" s="179"/>
+      <c r="FN20" s="179"/>
+      <c r="FO20" s="180"/>
       <c r="FP20" s="180"/>
       <c r="FQ20" s="180"/>
-      <c r="FR20" s="180"/>
-      <c r="FS20" s="179"/>
+      <c r="FR20" s="179"/>
+      <c r="FS20" s="180"/>
       <c r="FT20" s="180"/>
       <c r="FU20" s="180"/>
-      <c r="FV20" s="180"/>
-      <c r="FW20" s="179"/>
-    </row>
-    <row r="21" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV20" s="179"/>
+      <c r="FW20" s="180"/>
+      <c r="FX20" s="180"/>
+      <c r="FY20" s="180"/>
+      <c r="FZ20" s="179"/>
+    </row>
+    <row r="21" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>307</v>
       </c>
@@ -10829,45 +10905,48 @@
       <c r="EP21" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="EQ21" s="109" t="s">
-        <v>672</v>
-      </c>
+      <c r="EQ21" s="109"/>
       <c r="ER21" s="109"/>
       <c r="ES21" s="109"/>
-      <c r="ET21" s="109"/>
-      <c r="EU21" s="179" t="s">
+      <c r="ET21" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="EU21" s="109"/>
+      <c r="EV21" s="109"/>
+      <c r="EW21" s="109"/>
+      <c r="EX21" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="EV21" s="179"/>
-      <c r="EW21" s="179"/>
-      <c r="EX21" s="179"/>
       <c r="EY21" s="179"/>
       <c r="EZ21" s="179"/>
       <c r="FA21" s="179"/>
       <c r="FB21" s="179"/>
       <c r="FC21" s="179"/>
-      <c r="FD21" s="180"/>
-      <c r="FE21" s="180"/>
-      <c r="FF21" s="180"/>
-      <c r="FG21" s="179"/>
+      <c r="FD21" s="179"/>
+      <c r="FE21" s="179"/>
+      <c r="FF21" s="179"/>
+      <c r="FG21" s="180"/>
       <c r="FH21" s="180"/>
       <c r="FI21" s="180"/>
-      <c r="FJ21" s="180"/>
-      <c r="FK21" s="179"/>
+      <c r="FJ21" s="179"/>
+      <c r="FK21" s="180"/>
       <c r="FL21" s="180"/>
       <c r="FM21" s="180"/>
-      <c r="FN21" s="180"/>
-      <c r="FO21" s="179"/>
+      <c r="FN21" s="179"/>
+      <c r="FO21" s="180"/>
       <c r="FP21" s="180"/>
       <c r="FQ21" s="180"/>
-      <c r="FR21" s="180"/>
-      <c r="FS21" s="179"/>
+      <c r="FR21" s="179"/>
+      <c r="FS21" s="180"/>
       <c r="FT21" s="180"/>
       <c r="FU21" s="180"/>
-      <c r="FV21" s="180"/>
-      <c r="FW21" s="179"/>
-    </row>
-    <row r="22" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV21" s="179"/>
+      <c r="FW21" s="180"/>
+      <c r="FX21" s="180"/>
+      <c r="FY21" s="180"/>
+      <c r="FZ21" s="179"/>
+    </row>
+    <row r="22" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>93</v>
       </c>
@@ -11084,45 +11163,48 @@
       <c r="EP22" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="EQ22" s="109" t="s">
-        <v>673</v>
-      </c>
+      <c r="EQ22" s="109"/>
       <c r="ER22" s="109"/>
       <c r="ES22" s="109"/>
-      <c r="ET22" s="109"/>
-      <c r="EU22" s="179" t="s">
+      <c r="ET22" s="109" t="s">
+        <v>673</v>
+      </c>
+      <c r="EU22" s="109"/>
+      <c r="EV22" s="109"/>
+      <c r="EW22" s="109"/>
+      <c r="EX22" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="EV22" s="179"/>
-      <c r="EW22" s="179"/>
-      <c r="EX22" s="179"/>
       <c r="EY22" s="179"/>
       <c r="EZ22" s="179"/>
       <c r="FA22" s="179"/>
       <c r="FB22" s="179"/>
       <c r="FC22" s="179"/>
-      <c r="FD22" s="180"/>
-      <c r="FE22" s="180"/>
-      <c r="FF22" s="180"/>
-      <c r="FG22" s="179"/>
+      <c r="FD22" s="179"/>
+      <c r="FE22" s="179"/>
+      <c r="FF22" s="179"/>
+      <c r="FG22" s="180"/>
       <c r="FH22" s="180"/>
       <c r="FI22" s="180"/>
-      <c r="FJ22" s="180"/>
-      <c r="FK22" s="179"/>
+      <c r="FJ22" s="179"/>
+      <c r="FK22" s="180"/>
       <c r="FL22" s="180"/>
       <c r="FM22" s="180"/>
-      <c r="FN22" s="180"/>
-      <c r="FO22" s="179"/>
+      <c r="FN22" s="179"/>
+      <c r="FO22" s="180"/>
       <c r="FP22" s="180"/>
       <c r="FQ22" s="180"/>
-      <c r="FR22" s="180"/>
-      <c r="FS22" s="179"/>
+      <c r="FR22" s="179"/>
+      <c r="FS22" s="180"/>
       <c r="FT22" s="180"/>
       <c r="FU22" s="180"/>
-      <c r="FV22" s="180"/>
-      <c r="FW22" s="179"/>
-    </row>
-    <row r="23" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FV22" s="179"/>
+      <c r="FW22" s="180"/>
+      <c r="FX22" s="180"/>
+      <c r="FY22" s="180"/>
+      <c r="FZ22" s="179"/>
+    </row>
+    <row r="23" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>267</v>
       </c>
@@ -11469,79 +11551,82 @@
       <c r="ER23" s="108"/>
       <c r="ES23" s="108"/>
       <c r="ET23" s="108"/>
-      <c r="EU23" s="176"/>
-      <c r="EV23" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW23" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX23" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY23" s="176"/>
+      <c r="EU23" s="108"/>
+      <c r="EV23" s="108"/>
+      <c r="EW23" s="108"/>
+      <c r="EX23" s="176"/>
+      <c r="EY23" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ23" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA23" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB23" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC23" s="176"/>
-      <c r="FD23" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE23" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF23" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG23" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB23" s="176"/>
+      <c r="FC23" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD23" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE23" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF23" s="176"/>
+      <c r="FG23" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH23" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI23" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ23" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK23" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ23" s="176"/>
+      <c r="FK23" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL23" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM23" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN23" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO23" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN23" s="176"/>
+      <c r="FO23" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP23" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ23" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR23" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS23" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR23" s="176"/>
+      <c r="FS23" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT23" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU23" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV23" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW23" s="171"/>
-    </row>
-    <row r="24" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV23" s="176"/>
+      <c r="FW23" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX23" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY23" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ23" s="171"/>
+    </row>
+    <row r="24" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>263</v>
       </c>
@@ -11848,15 +11933,15 @@
       <c r="EP24" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="EQ24" s="109" t="s">
-        <v>672</v>
-      </c>
+      <c r="EQ24" s="109"/>
       <c r="ER24" s="109"/>
       <c r="ES24" s="109"/>
-      <c r="ET24" s="109"/>
-      <c r="EU24" s="179"/>
-      <c r="EV24" s="179"/>
-      <c r="EW24" s="179"/>
+      <c r="ET24" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="EU24" s="109"/>
+      <c r="EV24" s="109"/>
+      <c r="EW24" s="109"/>
       <c r="EX24" s="179"/>
       <c r="EY24" s="179"/>
       <c r="EZ24" s="179"/>
@@ -11883,8 +11968,11 @@
       <c r="FU24" s="179"/>
       <c r="FV24" s="179"/>
       <c r="FW24" s="179"/>
-    </row>
-    <row r="25" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX24" s="179"/>
+      <c r="FY24" s="179"/>
+      <c r="FZ24" s="179"/>
+    </row>
+    <row r="25" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>262</v>
       </c>
@@ -12231,79 +12319,82 @@
       <c r="ER25" s="108"/>
       <c r="ES25" s="108"/>
       <c r="ET25" s="108"/>
-      <c r="EU25" s="176"/>
-      <c r="EV25" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW25" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX25" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY25" s="176"/>
+      <c r="EU25" s="108"/>
+      <c r="EV25" s="108"/>
+      <c r="EW25" s="108"/>
+      <c r="EX25" s="176"/>
+      <c r="EY25" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ25" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA25" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB25" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC25" s="176"/>
-      <c r="FD25" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE25" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF25" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG25" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB25" s="176"/>
+      <c r="FC25" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD25" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE25" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF25" s="176"/>
+      <c r="FG25" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH25" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI25" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ25" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK25" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ25" s="176"/>
+      <c r="FK25" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL25" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM25" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN25" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO25" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN25" s="176"/>
+      <c r="FO25" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP25" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ25" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR25" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS25" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR25" s="176"/>
+      <c r="FS25" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT25" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU25" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV25" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW25" s="171"/>
-    </row>
-    <row r="26" spans="1:179" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV25" s="176"/>
+      <c r="FW25" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX25" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY25" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ25" s="171"/>
+    </row>
+    <row r="26" spans="1:182" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>264</v>
       </c>
@@ -12484,12 +12575,12 @@
       <c r="ER26" s="109"/>
       <c r="ES26" s="109"/>
       <c r="ET26" s="109"/>
-      <c r="EU26" s="179" t="s">
+      <c r="EU26" s="109"/>
+      <c r="EV26" s="109"/>
+      <c r="EW26" s="109"/>
+      <c r="EX26" s="179" t="s">
         <v>273</v>
       </c>
-      <c r="EV26" s="179"/>
-      <c r="EW26" s="179"/>
-      <c r="EX26" s="179"/>
       <c r="EY26" s="179"/>
       <c r="EZ26" s="179"/>
       <c r="FA26" s="179"/>
@@ -12515,8 +12606,11 @@
       <c r="FU26" s="179"/>
       <c r="FV26" s="179"/>
       <c r="FW26" s="179"/>
-    </row>
-    <row r="27" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX26" s="179"/>
+      <c r="FY26" s="179"/>
+      <c r="FZ26" s="179"/>
+    </row>
+    <row r="27" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
         <v>308</v>
       </c>
@@ -12697,39 +12791,42 @@
       <c r="ER27" s="109"/>
       <c r="ES27" s="109"/>
       <c r="ET27" s="109"/>
-      <c r="EU27" s="182">
+      <c r="EU27" s="109"/>
+      <c r="EV27" s="109"/>
+      <c r="EW27" s="109"/>
+      <c r="EX27" s="182">
         <v>1</v>
       </c>
-      <c r="EV27" s="182"/>
-      <c r="EW27" s="182"/>
-      <c r="EX27" s="182"/>
       <c r="EY27" s="182"/>
       <c r="EZ27" s="182"/>
       <c r="FA27" s="182"/>
       <c r="FB27" s="182"/>
-      <c r="FC27" s="179"/>
-      <c r="FD27" s="179"/>
-      <c r="FE27" s="179"/>
+      <c r="FC27" s="182"/>
+      <c r="FD27" s="182"/>
+      <c r="FE27" s="182"/>
       <c r="FF27" s="179"/>
       <c r="FG27" s="179"/>
-      <c r="FH27" s="180"/>
-      <c r="FI27" s="180"/>
-      <c r="FJ27" s="180"/>
-      <c r="FK27" s="179"/>
+      <c r="FH27" s="179"/>
+      <c r="FI27" s="179"/>
+      <c r="FJ27" s="179"/>
+      <c r="FK27" s="180"/>
       <c r="FL27" s="180"/>
       <c r="FM27" s="180"/>
-      <c r="FN27" s="180"/>
-      <c r="FO27" s="179"/>
+      <c r="FN27" s="179"/>
+      <c r="FO27" s="180"/>
       <c r="FP27" s="180"/>
       <c r="FQ27" s="180"/>
-      <c r="FR27" s="180"/>
-      <c r="FS27" s="179"/>
+      <c r="FR27" s="179"/>
+      <c r="FS27" s="180"/>
       <c r="FT27" s="180"/>
       <c r="FU27" s="180"/>
-      <c r="FV27" s="180"/>
-      <c r="FW27" s="179"/>
-    </row>
-    <row r="28" spans="1:179" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="FV27" s="179"/>
+      <c r="FW27" s="180"/>
+      <c r="FX27" s="180"/>
+      <c r="FY27" s="180"/>
+      <c r="FZ27" s="179"/>
+    </row>
+    <row r="28" spans="1:182" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>265</v>
       </c>
@@ -12928,12 +13025,12 @@
       <c r="ER28" s="109"/>
       <c r="ES28" s="109"/>
       <c r="ET28" s="109"/>
-      <c r="EU28" s="179" t="s">
+      <c r="EU28" s="109"/>
+      <c r="EV28" s="109"/>
+      <c r="EW28" s="109"/>
+      <c r="EX28" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="EV28" s="179"/>
-      <c r="EW28" s="179"/>
-      <c r="EX28" s="179"/>
       <c r="EY28" s="179"/>
       <c r="EZ28" s="179"/>
       <c r="FA28" s="179"/>
@@ -12959,8 +13056,11 @@
       <c r="FU28" s="179"/>
       <c r="FV28" s="179"/>
       <c r="FW28" s="179"/>
-    </row>
-    <row r="29" spans="1:179" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="FX28" s="179"/>
+      <c r="FY28" s="179"/>
+      <c r="FZ28" s="179"/>
+    </row>
+    <row r="29" spans="1:182" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>266</v>
       </c>
@@ -13161,12 +13261,12 @@
       <c r="ER29" s="109"/>
       <c r="ES29" s="109"/>
       <c r="ET29" s="109"/>
-      <c r="EU29" s="179" t="s">
+      <c r="EU29" s="109"/>
+      <c r="EV29" s="109"/>
+      <c r="EW29" s="109"/>
+      <c r="EX29" s="179" t="s">
         <v>318</v>
       </c>
-      <c r="EV29" s="179"/>
-      <c r="EW29" s="179"/>
-      <c r="EX29" s="179"/>
       <c r="EY29" s="179"/>
       <c r="EZ29" s="179"/>
       <c r="FA29" s="179"/>
@@ -13192,8 +13292,11 @@
       <c r="FU29" s="179"/>
       <c r="FV29" s="179"/>
       <c r="FW29" s="179"/>
-    </row>
-    <row r="30" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX29" s="179"/>
+      <c r="FY29" s="179"/>
+      <c r="FZ29" s="179"/>
+    </row>
+    <row r="30" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
         <v>270</v>
       </c>
@@ -13540,79 +13643,82 @@
       <c r="ER30" s="108"/>
       <c r="ES30" s="108"/>
       <c r="ET30" s="108"/>
-      <c r="EU30" s="176"/>
-      <c r="EV30" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW30" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX30" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY30" s="176"/>
+      <c r="EU30" s="108"/>
+      <c r="EV30" s="108"/>
+      <c r="EW30" s="108"/>
+      <c r="EX30" s="176"/>
+      <c r="EY30" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ30" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA30" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB30" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC30" s="176"/>
-      <c r="FD30" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE30" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF30" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG30" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB30" s="176"/>
+      <c r="FC30" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD30" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE30" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF30" s="176"/>
+      <c r="FG30" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH30" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI30" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ30" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK30" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ30" s="176"/>
+      <c r="FK30" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL30" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM30" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN30" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO30" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN30" s="176"/>
+      <c r="FO30" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP30" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ30" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR30" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS30" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR30" s="176"/>
+      <c r="FS30" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT30" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU30" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV30" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW30" s="171"/>
-    </row>
-    <row r="31" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV30" s="176"/>
+      <c r="FW30" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX30" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY30" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ30" s="171"/>
+    </row>
+    <row r="31" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>88</v>
       </c>
@@ -13789,43 +13895,46 @@
       <c r="EP31" s="109">
         <v>4.3099999999999996</v>
       </c>
-      <c r="EQ31" s="109">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="EQ31" s="109"/>
       <c r="ER31" s="109"/>
       <c r="ES31" s="109"/>
-      <c r="ET31" s="109"/>
-      <c r="EU31" s="179"/>
-      <c r="EV31" s="179"/>
-      <c r="EW31" s="179"/>
+      <c r="ET31" s="109">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="EU31" s="109"/>
+      <c r="EV31" s="109"/>
+      <c r="EW31" s="109"/>
       <c r="EX31" s="179"/>
       <c r="EY31" s="179"/>
       <c r="EZ31" s="179"/>
       <c r="FA31" s="179"/>
       <c r="FB31" s="179"/>
       <c r="FC31" s="179"/>
-      <c r="FD31" s="180"/>
-      <c r="FE31" s="180"/>
-      <c r="FF31" s="180"/>
-      <c r="FG31" s="179"/>
+      <c r="FD31" s="179"/>
+      <c r="FE31" s="179"/>
+      <c r="FF31" s="179"/>
+      <c r="FG31" s="180"/>
       <c r="FH31" s="180"/>
       <c r="FI31" s="180"/>
-      <c r="FJ31" s="180"/>
-      <c r="FK31" s="179"/>
+      <c r="FJ31" s="179"/>
+      <c r="FK31" s="180"/>
       <c r="FL31" s="180"/>
       <c r="FM31" s="180"/>
-      <c r="FN31" s="180"/>
-      <c r="FO31" s="179"/>
+      <c r="FN31" s="179"/>
+      <c r="FO31" s="180"/>
       <c r="FP31" s="180"/>
       <c r="FQ31" s="180"/>
-      <c r="FR31" s="180"/>
-      <c r="FS31" s="179"/>
+      <c r="FR31" s="179"/>
+      <c r="FS31" s="180"/>
       <c r="FT31" s="180"/>
       <c r="FU31" s="180"/>
-      <c r="FV31" s="180"/>
-      <c r="FW31" s="179"/>
-    </row>
-    <row r="32" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV31" s="179"/>
+      <c r="FW31" s="180"/>
+      <c r="FX31" s="180"/>
+      <c r="FY31" s="180"/>
+      <c r="FZ31" s="179"/>
+    </row>
+    <row r="32" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>111</v>
       </c>
@@ -14002,43 +14111,46 @@
       <c r="EP32" s="109" t="s">
         <v>746</v>
       </c>
-      <c r="EQ32" s="109" t="s">
-        <v>112</v>
-      </c>
+      <c r="EQ32" s="109"/>
       <c r="ER32" s="109"/>
       <c r="ES32" s="109"/>
-      <c r="ET32" s="109"/>
-      <c r="EU32" s="179"/>
-      <c r="EV32" s="179"/>
-      <c r="EW32" s="179"/>
+      <c r="ET32" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="EU32" s="109"/>
+      <c r="EV32" s="109"/>
+      <c r="EW32" s="109"/>
       <c r="EX32" s="179"/>
       <c r="EY32" s="179"/>
       <c r="EZ32" s="179"/>
       <c r="FA32" s="179"/>
       <c r="FB32" s="179"/>
       <c r="FC32" s="179"/>
-      <c r="FD32" s="180"/>
-      <c r="FE32" s="180"/>
-      <c r="FF32" s="180"/>
-      <c r="FG32" s="179"/>
+      <c r="FD32" s="179"/>
+      <c r="FE32" s="179"/>
+      <c r="FF32" s="179"/>
+      <c r="FG32" s="180"/>
       <c r="FH32" s="180"/>
       <c r="FI32" s="180"/>
-      <c r="FJ32" s="180"/>
-      <c r="FK32" s="179"/>
+      <c r="FJ32" s="179"/>
+      <c r="FK32" s="180"/>
       <c r="FL32" s="180"/>
       <c r="FM32" s="180"/>
-      <c r="FN32" s="180"/>
-      <c r="FO32" s="179"/>
+      <c r="FN32" s="179"/>
+      <c r="FO32" s="180"/>
       <c r="FP32" s="180"/>
       <c r="FQ32" s="180"/>
-      <c r="FR32" s="180"/>
-      <c r="FS32" s="179"/>
+      <c r="FR32" s="179"/>
+      <c r="FS32" s="180"/>
       <c r="FT32" s="180"/>
       <c r="FU32" s="180"/>
-      <c r="FV32" s="180"/>
-      <c r="FW32" s="179"/>
-    </row>
-    <row r="33" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV32" s="179"/>
+      <c r="FW32" s="180"/>
+      <c r="FX32" s="180"/>
+      <c r="FY32" s="180"/>
+      <c r="FZ32" s="179"/>
+    </row>
+    <row r="33" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>91</v>
       </c>
@@ -14215,43 +14327,46 @@
       <c r="EP33" s="109">
         <v>0.03</v>
       </c>
-      <c r="EQ33" s="109">
-        <v>1</v>
-      </c>
+      <c r="EQ33" s="109"/>
       <c r="ER33" s="109"/>
       <c r="ES33" s="109"/>
-      <c r="ET33" s="109"/>
-      <c r="EU33" s="179"/>
-      <c r="EV33" s="179"/>
-      <c r="EW33" s="179"/>
+      <c r="ET33" s="109">
+        <v>1</v>
+      </c>
+      <c r="EU33" s="109"/>
+      <c r="EV33" s="109"/>
+      <c r="EW33" s="109"/>
       <c r="EX33" s="179"/>
       <c r="EY33" s="179"/>
       <c r="EZ33" s="179"/>
       <c r="FA33" s="179"/>
       <c r="FB33" s="179"/>
       <c r="FC33" s="179"/>
-      <c r="FD33" s="180"/>
-      <c r="FE33" s="180"/>
-      <c r="FF33" s="180"/>
-      <c r="FG33" s="179"/>
+      <c r="FD33" s="179"/>
+      <c r="FE33" s="179"/>
+      <c r="FF33" s="179"/>
+      <c r="FG33" s="180"/>
       <c r="FH33" s="180"/>
       <c r="FI33" s="180"/>
-      <c r="FJ33" s="180"/>
-      <c r="FK33" s="179"/>
+      <c r="FJ33" s="179"/>
+      <c r="FK33" s="180"/>
       <c r="FL33" s="180"/>
       <c r="FM33" s="180"/>
-      <c r="FN33" s="180"/>
-      <c r="FO33" s="179"/>
+      <c r="FN33" s="179"/>
+      <c r="FO33" s="180"/>
       <c r="FP33" s="180"/>
       <c r="FQ33" s="180"/>
-      <c r="FR33" s="180"/>
-      <c r="FS33" s="179"/>
+      <c r="FR33" s="179"/>
+      <c r="FS33" s="180"/>
       <c r="FT33" s="180"/>
       <c r="FU33" s="180"/>
-      <c r="FV33" s="180"/>
-      <c r="FW33" s="179"/>
-    </row>
-    <row r="34" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV33" s="179"/>
+      <c r="FW33" s="180"/>
+      <c r="FX33" s="180"/>
+      <c r="FY33" s="180"/>
+      <c r="FZ33" s="179"/>
+    </row>
+    <row r="34" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>90</v>
       </c>
@@ -14536,15 +14651,15 @@
       <c r="EP34" s="109">
         <v>0.03</v>
       </c>
-      <c r="EQ34" s="109">
-        <v>0.99</v>
-      </c>
+      <c r="EQ34" s="109"/>
       <c r="ER34" s="109"/>
       <c r="ES34" s="109"/>
-      <c r="ET34" s="109"/>
-      <c r="EU34" s="179"/>
-      <c r="EV34" s="179"/>
-      <c r="EW34" s="179"/>
+      <c r="ET34" s="109">
+        <v>0.99</v>
+      </c>
+      <c r="EU34" s="109"/>
+      <c r="EV34" s="109"/>
+      <c r="EW34" s="109"/>
       <c r="EX34" s="179"/>
       <c r="EY34" s="179"/>
       <c r="EZ34" s="179"/>
@@ -14555,24 +14670,27 @@
       <c r="FE34" s="179"/>
       <c r="FF34" s="179"/>
       <c r="FG34" s="179"/>
-      <c r="FH34" s="180"/>
-      <c r="FI34" s="180"/>
-      <c r="FJ34" s="180"/>
-      <c r="FK34" s="179"/>
+      <c r="FH34" s="179"/>
+      <c r="FI34" s="179"/>
+      <c r="FJ34" s="179"/>
+      <c r="FK34" s="180"/>
       <c r="FL34" s="180"/>
       <c r="FM34" s="180"/>
-      <c r="FN34" s="180"/>
-      <c r="FO34" s="179"/>
+      <c r="FN34" s="179"/>
+      <c r="FO34" s="180"/>
       <c r="FP34" s="180"/>
       <c r="FQ34" s="180"/>
-      <c r="FR34" s="180"/>
-      <c r="FS34" s="179"/>
+      <c r="FR34" s="179"/>
+      <c r="FS34" s="180"/>
       <c r="FT34" s="180"/>
       <c r="FU34" s="180"/>
-      <c r="FV34" s="180"/>
-      <c r="FW34" s="179"/>
-    </row>
-    <row r="35" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV34" s="179"/>
+      <c r="FW34" s="180"/>
+      <c r="FX34" s="180"/>
+      <c r="FY34" s="180"/>
+      <c r="FZ34" s="179"/>
+    </row>
+    <row r="35" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>87</v>
       </c>
@@ -14747,43 +14865,46 @@
       <c r="EP35" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="EQ35" s="109" t="s">
-        <v>121</v>
-      </c>
+      <c r="EQ35" s="109"/>
       <c r="ER35" s="109"/>
       <c r="ES35" s="109"/>
-      <c r="ET35" s="109"/>
-      <c r="EU35" s="179"/>
-      <c r="EV35" s="179"/>
-      <c r="EW35" s="179"/>
+      <c r="ET35" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="EU35" s="109"/>
+      <c r="EV35" s="109"/>
+      <c r="EW35" s="109"/>
       <c r="EX35" s="179"/>
       <c r="EY35" s="179"/>
       <c r="EZ35" s="179"/>
       <c r="FA35" s="179"/>
       <c r="FB35" s="179"/>
       <c r="FC35" s="179"/>
-      <c r="FD35" s="180"/>
-      <c r="FE35" s="180"/>
-      <c r="FF35" s="180"/>
-      <c r="FG35" s="179"/>
+      <c r="FD35" s="179"/>
+      <c r="FE35" s="179"/>
+      <c r="FF35" s="179"/>
+      <c r="FG35" s="180"/>
       <c r="FH35" s="180"/>
       <c r="FI35" s="180"/>
-      <c r="FJ35" s="180"/>
-      <c r="FK35" s="179"/>
+      <c r="FJ35" s="179"/>
+      <c r="FK35" s="180"/>
       <c r="FL35" s="180"/>
       <c r="FM35" s="180"/>
-      <c r="FN35" s="180"/>
-      <c r="FO35" s="179"/>
+      <c r="FN35" s="179"/>
+      <c r="FO35" s="180"/>
       <c r="FP35" s="180"/>
       <c r="FQ35" s="180"/>
-      <c r="FR35" s="180"/>
-      <c r="FS35" s="179"/>
+      <c r="FR35" s="179"/>
+      <c r="FS35" s="180"/>
       <c r="FT35" s="180"/>
       <c r="FU35" s="180"/>
-      <c r="FV35" s="180"/>
-      <c r="FW35" s="179"/>
-    </row>
-    <row r="36" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV35" s="179"/>
+      <c r="FW35" s="180"/>
+      <c r="FX35" s="180"/>
+      <c r="FY35" s="180"/>
+      <c r="FZ35" s="179"/>
+    </row>
+    <row r="36" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>89</v>
       </c>
@@ -14960,43 +15081,46 @@
       <c r="EP36" s="109">
         <v>1.1499999999999999</v>
       </c>
-      <c r="EQ36" s="109">
-        <v>-4.8</v>
-      </c>
+      <c r="EQ36" s="109"/>
       <c r="ER36" s="109"/>
       <c r="ES36" s="109"/>
-      <c r="ET36" s="109"/>
-      <c r="EU36" s="179"/>
-      <c r="EV36" s="179"/>
-      <c r="EW36" s="179"/>
+      <c r="ET36" s="109">
+        <v>-4.8</v>
+      </c>
+      <c r="EU36" s="109"/>
+      <c r="EV36" s="109"/>
+      <c r="EW36" s="109"/>
       <c r="EX36" s="179"/>
       <c r="EY36" s="179"/>
       <c r="EZ36" s="179"/>
       <c r="FA36" s="179"/>
       <c r="FB36" s="179"/>
       <c r="FC36" s="179"/>
-      <c r="FD36" s="180"/>
-      <c r="FE36" s="180"/>
-      <c r="FF36" s="180"/>
-      <c r="FG36" s="179"/>
+      <c r="FD36" s="179"/>
+      <c r="FE36" s="179"/>
+      <c r="FF36" s="179"/>
+      <c r="FG36" s="180"/>
       <c r="FH36" s="180"/>
       <c r="FI36" s="180"/>
-      <c r="FJ36" s="180"/>
-      <c r="FK36" s="179"/>
+      <c r="FJ36" s="179"/>
+      <c r="FK36" s="180"/>
       <c r="FL36" s="180"/>
       <c r="FM36" s="180"/>
-      <c r="FN36" s="180"/>
-      <c r="FO36" s="179"/>
+      <c r="FN36" s="179"/>
+      <c r="FO36" s="180"/>
       <c r="FP36" s="180"/>
       <c r="FQ36" s="180"/>
-      <c r="FR36" s="180"/>
-      <c r="FS36" s="179"/>
+      <c r="FR36" s="179"/>
+      <c r="FS36" s="180"/>
       <c r="FT36" s="180"/>
       <c r="FU36" s="180"/>
-      <c r="FV36" s="180"/>
-      <c r="FW36" s="179"/>
-    </row>
-    <row r="37" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FV36" s="179"/>
+      <c r="FW36" s="180"/>
+      <c r="FX36" s="180"/>
+      <c r="FY36" s="180"/>
+      <c r="FZ36" s="179"/>
+    </row>
+    <row r="37" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>730</v>
       </c>
@@ -15171,15 +15295,15 @@
       <c r="EP37" s="109">
         <v>5</v>
       </c>
-      <c r="EQ37" s="109">
-        <v>0</v>
-      </c>
+      <c r="EQ37" s="109"/>
       <c r="ER37" s="109"/>
       <c r="ES37" s="109"/>
-      <c r="ET37" s="109"/>
-      <c r="EU37" s="179"/>
-      <c r="EV37" s="179"/>
-      <c r="EW37" s="179"/>
+      <c r="ET37" s="109">
+        <v>0</v>
+      </c>
+      <c r="EU37" s="109"/>
+      <c r="EV37" s="109"/>
+      <c r="EW37" s="109"/>
       <c r="EX37" s="179"/>
       <c r="EY37" s="179"/>
       <c r="EZ37" s="179"/>
@@ -15206,8 +15330,11 @@
       <c r="FU37" s="179"/>
       <c r="FV37" s="179"/>
       <c r="FW37" s="179"/>
-    </row>
-    <row r="38" spans="1:179" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX37" s="179"/>
+      <c r="FY37" s="179"/>
+      <c r="FZ37" s="179"/>
+    </row>
+    <row r="38" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>731</v>
       </c>
@@ -15382,15 +15509,15 @@
       <c r="EP38" s="109">
         <v>63.3</v>
       </c>
-      <c r="EQ38" s="109">
-        <v>0</v>
-      </c>
+      <c r="EQ38" s="109"/>
       <c r="ER38" s="109"/>
       <c r="ES38" s="109"/>
-      <c r="ET38" s="109"/>
-      <c r="EU38" s="179"/>
-      <c r="EV38" s="179"/>
-      <c r="EW38" s="179"/>
+      <c r="ET38" s="109">
+        <v>0</v>
+      </c>
+      <c r="EU38" s="109"/>
+      <c r="EV38" s="109"/>
+      <c r="EW38" s="109"/>
       <c r="EX38" s="179"/>
       <c r="EY38" s="179"/>
       <c r="EZ38" s="179"/>
@@ -15417,8 +15544,11 @@
       <c r="FU38" s="179"/>
       <c r="FV38" s="179"/>
       <c r="FW38" s="179"/>
-    </row>
-    <row r="39" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX38" s="179"/>
+      <c r="FY38" s="179"/>
+      <c r="FZ38" s="179"/>
+    </row>
+    <row r="39" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="80" t="s">
         <v>271</v>
       </c>
@@ -15765,79 +15895,82 @@
       <c r="ER39" s="186"/>
       <c r="ES39" s="186"/>
       <c r="ET39" s="186"/>
-      <c r="EU39" s="174"/>
-      <c r="EV39" s="177" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW39" s="177" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX39" s="177" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY39" s="174"/>
+      <c r="EU39" s="186"/>
+      <c r="EV39" s="186"/>
+      <c r="EW39" s="186"/>
+      <c r="EX39" s="174"/>
+      <c r="EY39" s="177" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ39" s="177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA39" s="177" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB39" s="177" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC39" s="174"/>
-      <c r="FD39" s="174" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE39" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF39" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG39" s="174"/>
+        <v>292</v>
+      </c>
+      <c r="FB39" s="174"/>
+      <c r="FC39" s="177" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD39" s="177" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE39" s="177" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF39" s="174"/>
+      <c r="FG39" s="174" t="s">
+        <v>290</v>
+      </c>
       <c r="FH39" s="174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI39" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ39" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK39" s="174"/>
+        <v>292</v>
+      </c>
+      <c r="FJ39" s="174"/>
+      <c r="FK39" s="174" t="s">
+        <v>290</v>
+      </c>
       <c r="FL39" s="174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM39" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN39" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO39" s="174"/>
+        <v>292</v>
+      </c>
+      <c r="FN39" s="174"/>
+      <c r="FO39" s="174" t="s">
+        <v>290</v>
+      </c>
       <c r="FP39" s="174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ39" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR39" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS39" s="174"/>
+        <v>292</v>
+      </c>
+      <c r="FR39" s="174"/>
+      <c r="FS39" s="174" t="s">
+        <v>290</v>
+      </c>
       <c r="FT39" s="174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU39" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV39" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW39" s="171"/>
-    </row>
-    <row r="40" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV39" s="174"/>
+      <c r="FW39" s="174" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX39" s="174" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY39" s="174" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ39" s="171"/>
+    </row>
+    <row r="40" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>254</v>
       </c>
@@ -16026,15 +16159,15 @@
       <c r="EP40" s="113">
         <v>0</v>
       </c>
-      <c r="EQ40" s="113">
-        <v>0</v>
-      </c>
+      <c r="EQ40" s="113"/>
       <c r="ER40" s="113"/>
       <c r="ES40" s="113"/>
-      <c r="ET40" s="113"/>
-      <c r="EU40" s="179"/>
-      <c r="EV40" s="179"/>
-      <c r="EW40" s="179"/>
+      <c r="ET40" s="113">
+        <v>0</v>
+      </c>
+      <c r="EU40" s="113"/>
+      <c r="EV40" s="113"/>
+      <c r="EW40" s="113"/>
       <c r="EX40" s="179"/>
       <c r="EY40" s="179"/>
       <c r="EZ40" s="179"/>
@@ -16061,8 +16194,11 @@
       <c r="FU40" s="179"/>
       <c r="FV40" s="179"/>
       <c r="FW40" s="179"/>
-    </row>
-    <row r="41" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX40" s="179"/>
+      <c r="FY40" s="179"/>
+      <c r="FZ40" s="179"/>
+    </row>
+    <row r="41" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>255</v>
       </c>
@@ -16247,15 +16383,15 @@
       <c r="EP41" s="113">
         <v>0</v>
       </c>
-      <c r="EQ41" s="113">
-        <v>1</v>
-      </c>
+      <c r="EQ41" s="113"/>
       <c r="ER41" s="113"/>
       <c r="ES41" s="113"/>
-      <c r="ET41" s="113"/>
-      <c r="EU41" s="179"/>
-      <c r="EV41" s="179"/>
-      <c r="EW41" s="179"/>
+      <c r="ET41" s="113">
+        <v>1</v>
+      </c>
+      <c r="EU41" s="113"/>
+      <c r="EV41" s="113"/>
+      <c r="EW41" s="113"/>
       <c r="EX41" s="179"/>
       <c r="EY41" s="179"/>
       <c r="EZ41" s="179"/>
@@ -16282,8 +16418,11 @@
       <c r="FU41" s="179"/>
       <c r="FV41" s="179"/>
       <c r="FW41" s="179"/>
-    </row>
-    <row r="42" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX41" s="179"/>
+      <c r="FY41" s="179"/>
+      <c r="FZ41" s="179"/>
+    </row>
+    <row r="42" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>256</v>
       </c>
@@ -16471,18 +16610,18 @@
       <c r="EM42" s="113"/>
       <c r="EN42" s="113"/>
       <c r="EO42" s="113"/>
-      <c r="EP42" s="113">
-        <v>60</v>
-      </c>
-      <c r="EQ42" s="113" t="s">
-        <v>684</v>
-      </c>
+      <c r="EP42" s="113" t="s">
+        <v>748</v>
+      </c>
+      <c r="EQ42" s="113"/>
       <c r="ER42" s="113"/>
       <c r="ES42" s="113"/>
-      <c r="ET42" s="113"/>
-      <c r="EU42" s="179"/>
-      <c r="EV42" s="179"/>
-      <c r="EW42" s="179"/>
+      <c r="ET42" s="113" t="s">
+        <v>684</v>
+      </c>
+      <c r="EU42" s="113"/>
+      <c r="EV42" s="113"/>
+      <c r="EW42" s="113"/>
       <c r="EX42" s="179"/>
       <c r="EY42" s="179"/>
       <c r="EZ42" s="179"/>
@@ -16509,8 +16648,11 @@
       <c r="FU42" s="179"/>
       <c r="FV42" s="179"/>
       <c r="FW42" s="179"/>
-    </row>
-    <row r="43" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX42" s="179"/>
+      <c r="FY42" s="179"/>
+      <c r="FZ42" s="179"/>
+    </row>
+    <row r="43" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
         <v>562</v>
       </c>
@@ -16691,19 +16833,19 @@
       <c r="EL43" s="113"/>
       <c r="EM43" s="113"/>
       <c r="EN43" s="113"/>
-      <c r="EO43" s="214"/>
+      <c r="EO43" s="211"/>
       <c r="EP43" s="113">
         <v>5.5</v>
       </c>
-      <c r="EQ43" s="215">
+      <c r="EQ43" s="212"/>
+      <c r="ER43" s="212"/>
+      <c r="ES43" s="212"/>
+      <c r="ET43" s="212">
         <v>1</v>
       </c>
-      <c r="ER43" s="113"/>
-      <c r="ES43" s="113"/>
-      <c r="ET43" s="113"/>
-      <c r="EU43" s="179"/>
-      <c r="EV43" s="179"/>
-      <c r="EW43" s="179"/>
+      <c r="EU43" s="113"/>
+      <c r="EV43" s="113"/>
+      <c r="EW43" s="113"/>
       <c r="EX43" s="179"/>
       <c r="EY43" s="179"/>
       <c r="EZ43" s="179"/>
@@ -16730,8 +16872,11 @@
       <c r="FU43" s="179"/>
       <c r="FV43" s="179"/>
       <c r="FW43" s="179"/>
-    </row>
-    <row r="44" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX43" s="179"/>
+      <c r="FY43" s="179"/>
+      <c r="FZ43" s="179"/>
+    </row>
+    <row r="44" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>3</v>
       </c>
@@ -16912,19 +17057,19 @@
       <c r="EL44" s="113"/>
       <c r="EM44" s="113"/>
       <c r="EN44" s="113"/>
-      <c r="EO44" s="214"/>
+      <c r="EO44" s="211"/>
       <c r="EP44" s="113">
         <v>0</v>
       </c>
-      <c r="EQ44" s="215">
+      <c r="EQ44" s="212"/>
+      <c r="ER44" s="212"/>
+      <c r="ES44" s="212"/>
+      <c r="ET44" s="212">
         <v>0</v>
       </c>
-      <c r="ER44" s="113"/>
-      <c r="ES44" s="113"/>
-      <c r="ET44" s="113"/>
-      <c r="EU44" s="179"/>
-      <c r="EV44" s="179"/>
-      <c r="EW44" s="179"/>
+      <c r="EU44" s="113"/>
+      <c r="EV44" s="113"/>
+      <c r="EW44" s="113"/>
       <c r="EX44" s="179"/>
       <c r="EY44" s="179"/>
       <c r="EZ44" s="179"/>
@@ -16951,8 +17096,11 @@
       <c r="FU44" s="179"/>
       <c r="FV44" s="179"/>
       <c r="FW44" s="179"/>
-    </row>
-    <row r="45" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX44" s="179"/>
+      <c r="FY44" s="179"/>
+      <c r="FZ44" s="179"/>
+    </row>
+    <row r="45" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>742</v>
       </c>
@@ -17129,19 +17277,19 @@
       <c r="EL45" s="113"/>
       <c r="EM45" s="113"/>
       <c r="EN45" s="113"/>
-      <c r="EO45" s="214"/>
+      <c r="EO45" s="211"/>
       <c r="EP45" s="113">
         <v>-0.59699999999999998</v>
       </c>
-      <c r="EQ45" s="215">
+      <c r="EQ45" s="212"/>
+      <c r="ER45" s="212"/>
+      <c r="ES45" s="212"/>
+      <c r="ET45" s="212">
         <v>0</v>
       </c>
-      <c r="ER45" s="113"/>
-      <c r="ES45" s="113"/>
-      <c r="ET45" s="113"/>
-      <c r="EU45" s="179"/>
-      <c r="EV45" s="179"/>
-      <c r="EW45" s="179"/>
+      <c r="EU45" s="113"/>
+      <c r="EV45" s="113"/>
+      <c r="EW45" s="113"/>
       <c r="EX45" s="179"/>
       <c r="EY45" s="179"/>
       <c r="EZ45" s="179"/>
@@ -17168,8 +17316,11 @@
       <c r="FU45" s="179"/>
       <c r="FV45" s="179"/>
       <c r="FW45" s="179"/>
-    </row>
-    <row r="46" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX45" s="179"/>
+      <c r="FY45" s="179"/>
+      <c r="FZ45" s="179"/>
+    </row>
+    <row r="46" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>257</v>
       </c>
@@ -17350,19 +17501,19 @@
       <c r="EL46" s="113"/>
       <c r="EM46" s="113"/>
       <c r="EN46" s="113"/>
-      <c r="EO46" s="214"/>
+      <c r="EO46" s="211"/>
       <c r="EP46" s="113">
         <v>0</v>
       </c>
-      <c r="EQ46" s="215">
+      <c r="EQ46" s="212"/>
+      <c r="ER46" s="212"/>
+      <c r="ES46" s="212"/>
+      <c r="ET46" s="212">
         <v>0</v>
       </c>
-      <c r="ER46" s="113"/>
-      <c r="ES46" s="113"/>
-      <c r="ET46" s="113"/>
-      <c r="EU46" s="179"/>
-      <c r="EV46" s="179"/>
-      <c r="EW46" s="179"/>
+      <c r="EU46" s="113"/>
+      <c r="EV46" s="113"/>
+      <c r="EW46" s="113"/>
       <c r="EX46" s="179"/>
       <c r="EY46" s="179"/>
       <c r="EZ46" s="179"/>
@@ -17389,8 +17540,11 @@
       <c r="FU46" s="179"/>
       <c r="FV46" s="179"/>
       <c r="FW46" s="179"/>
-    </row>
-    <row r="47" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX46" s="179"/>
+      <c r="FY46" s="179"/>
+      <c r="FZ46" s="179"/>
+    </row>
+    <row r="47" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
         <v>561</v>
       </c>
@@ -17601,19 +17755,19 @@
       <c r="EL47" s="113"/>
       <c r="EM47" s="113"/>
       <c r="EN47" s="113"/>
-      <c r="EO47" s="214"/>
+      <c r="EO47" s="211"/>
       <c r="EP47" s="113">
         <v>0</v>
       </c>
-      <c r="EQ47" s="215">
+      <c r="EQ47" s="212"/>
+      <c r="ER47" s="212"/>
+      <c r="ES47" s="212"/>
+      <c r="ET47" s="212">
         <v>0</v>
       </c>
-      <c r="ER47" s="113"/>
-      <c r="ES47" s="113"/>
-      <c r="ET47" s="113"/>
-      <c r="EU47" s="179"/>
-      <c r="EV47" s="179"/>
-      <c r="EW47" s="179"/>
+      <c r="EU47" s="113"/>
+      <c r="EV47" s="113"/>
+      <c r="EW47" s="113"/>
       <c r="EX47" s="179"/>
       <c r="EY47" s="179"/>
       <c r="EZ47" s="179"/>
@@ -17640,8 +17794,11 @@
       <c r="FU47" s="179"/>
       <c r="FV47" s="179"/>
       <c r="FW47" s="179"/>
-    </row>
-    <row r="48" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX47" s="179"/>
+      <c r="FY47" s="179"/>
+      <c r="FZ47" s="179"/>
+    </row>
+    <row r="48" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>560</v>
       </c>
@@ -17844,19 +18001,19 @@
       <c r="EL48" s="113"/>
       <c r="EM48" s="113"/>
       <c r="EN48" s="113"/>
-      <c r="EO48" s="214"/>
+      <c r="EO48" s="211"/>
       <c r="EP48" s="113">
         <v>0</v>
       </c>
-      <c r="EQ48" s="215">
+      <c r="EQ48" s="212"/>
+      <c r="ER48" s="212"/>
+      <c r="ES48" s="212"/>
+      <c r="ET48" s="212">
         <v>0</v>
       </c>
-      <c r="ER48" s="113"/>
-      <c r="ES48" s="113"/>
-      <c r="ET48" s="113"/>
-      <c r="EU48" s="179"/>
-      <c r="EV48" s="179"/>
-      <c r="EW48" s="179"/>
+      <c r="EU48" s="113"/>
+      <c r="EV48" s="113"/>
+      <c r="EW48" s="113"/>
       <c r="EX48" s="179"/>
       <c r="EY48" s="179"/>
       <c r="EZ48" s="179"/>
@@ -17883,8 +18040,11 @@
       <c r="FU48" s="179"/>
       <c r="FV48" s="179"/>
       <c r="FW48" s="179"/>
-    </row>
-    <row r="49" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX48" s="179"/>
+      <c r="FY48" s="179"/>
+      <c r="FZ48" s="179"/>
+    </row>
+    <row r="49" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
         <v>4</v>
       </c>
@@ -18065,19 +18225,19 @@
       <c r="EL49" s="113"/>
       <c r="EM49" s="113"/>
       <c r="EN49" s="113"/>
-      <c r="EO49" s="214"/>
+      <c r="EO49" s="211"/>
       <c r="EP49" s="113">
         <v>0</v>
       </c>
-      <c r="EQ49" s="215">
+      <c r="EQ49" s="212"/>
+      <c r="ER49" s="212"/>
+      <c r="ES49" s="212"/>
+      <c r="ET49" s="212">
         <v>0</v>
       </c>
-      <c r="ER49" s="113"/>
-      <c r="ES49" s="113"/>
-      <c r="ET49" s="113"/>
-      <c r="EU49" s="179"/>
-      <c r="EV49" s="179"/>
-      <c r="EW49" s="179"/>
+      <c r="EU49" s="113"/>
+      <c r="EV49" s="113"/>
+      <c r="EW49" s="113"/>
       <c r="EX49" s="179"/>
       <c r="EY49" s="179"/>
       <c r="EZ49" s="179"/>
@@ -18104,8 +18264,11 @@
       <c r="FU49" s="179"/>
       <c r="FV49" s="179"/>
       <c r="FW49" s="179"/>
-    </row>
-    <row r="50" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX49" s="179"/>
+      <c r="FY49" s="179"/>
+      <c r="FZ49" s="179"/>
+    </row>
+    <row r="50" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>258</v>
       </c>
@@ -18286,19 +18449,19 @@
       <c r="EL50" s="113"/>
       <c r="EM50" s="113"/>
       <c r="EN50" s="113"/>
-      <c r="EO50" s="214"/>
+      <c r="EO50" s="211"/>
       <c r="EP50" s="113">
         <v>0</v>
       </c>
-      <c r="EQ50" s="215">
+      <c r="EQ50" s="212"/>
+      <c r="ER50" s="212"/>
+      <c r="ES50" s="212"/>
+      <c r="ET50" s="212">
         <v>0</v>
       </c>
-      <c r="ER50" s="113"/>
-      <c r="ES50" s="113"/>
-      <c r="ET50" s="113"/>
-      <c r="EU50" s="179"/>
-      <c r="EV50" s="179"/>
-      <c r="EW50" s="179"/>
+      <c r="EU50" s="113"/>
+      <c r="EV50" s="113"/>
+      <c r="EW50" s="113"/>
       <c r="EX50" s="179"/>
       <c r="EY50" s="179"/>
       <c r="EZ50" s="179"/>
@@ -18325,8 +18488,11 @@
       <c r="FU50" s="179"/>
       <c r="FV50" s="179"/>
       <c r="FW50" s="179"/>
-    </row>
-    <row r="51" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX50" s="179"/>
+      <c r="FY50" s="179"/>
+      <c r="FZ50" s="179"/>
+    </row>
+    <row r="51" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
         <v>259</v>
       </c>
@@ -18507,19 +18673,19 @@
       <c r="EL51" s="113"/>
       <c r="EM51" s="113"/>
       <c r="EN51" s="113"/>
-      <c r="EO51" s="214"/>
+      <c r="EO51" s="211"/>
       <c r="EP51" s="113">
         <v>0</v>
       </c>
-      <c r="EQ51" s="215">
+      <c r="EQ51" s="212"/>
+      <c r="ER51" s="212"/>
+      <c r="ES51" s="212"/>
+      <c r="ET51" s="212">
         <v>1</v>
       </c>
-      <c r="ER51" s="113"/>
-      <c r="ES51" s="113"/>
-      <c r="ET51" s="113"/>
-      <c r="EU51" s="179"/>
-      <c r="EV51" s="179"/>
-      <c r="EW51" s="179"/>
+      <c r="EU51" s="113"/>
+      <c r="EV51" s="113"/>
+      <c r="EW51" s="113"/>
       <c r="EX51" s="179"/>
       <c r="EY51" s="179"/>
       <c r="EZ51" s="179"/>
@@ -18546,8 +18712,11 @@
       <c r="FU51" s="179"/>
       <c r="FV51" s="179"/>
       <c r="FW51" s="179"/>
-    </row>
-    <row r="52" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX51" s="179"/>
+      <c r="FY51" s="179"/>
+      <c r="FZ51" s="179"/>
+    </row>
+    <row r="52" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>260</v>
       </c>
@@ -18728,19 +18897,19 @@
       <c r="EL52" s="113"/>
       <c r="EM52" s="113"/>
       <c r="EN52" s="113"/>
-      <c r="EO52" s="214"/>
+      <c r="EO52" s="211"/>
       <c r="EP52" s="113">
         <v>0</v>
       </c>
-      <c r="EQ52" s="215">
+      <c r="EQ52" s="212"/>
+      <c r="ER52" s="212"/>
+      <c r="ES52" s="212"/>
+      <c r="ET52" s="212">
         <v>0</v>
       </c>
-      <c r="ER52" s="113"/>
-      <c r="ES52" s="113"/>
-      <c r="ET52" s="113"/>
-      <c r="EU52" s="179"/>
-      <c r="EV52" s="179"/>
-      <c r="EW52" s="179"/>
+      <c r="EU52" s="113"/>
+      <c r="EV52" s="113"/>
+      <c r="EW52" s="113"/>
       <c r="EX52" s="179"/>
       <c r="EY52" s="179"/>
       <c r="EZ52" s="179"/>
@@ -18767,8 +18936,11 @@
       <c r="FU52" s="179"/>
       <c r="FV52" s="179"/>
       <c r="FW52" s="179"/>
-    </row>
-    <row r="53" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX52" s="179"/>
+      <c r="FY52" s="179"/>
+      <c r="FZ52" s="179"/>
+    </row>
+    <row r="53" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
         <v>558</v>
       </c>
@@ -18949,19 +19121,19 @@
       <c r="EL53" s="113"/>
       <c r="EM53" s="113"/>
       <c r="EN53" s="113"/>
-      <c r="EO53" s="214"/>
+      <c r="EO53" s="211"/>
       <c r="EP53" s="113">
         <v>0</v>
       </c>
-      <c r="EQ53" s="215">
+      <c r="EQ53" s="212"/>
+      <c r="ER53" s="212"/>
+      <c r="ES53" s="212"/>
+      <c r="ET53" s="212">
         <v>-1</v>
       </c>
-      <c r="ER53" s="113"/>
-      <c r="ES53" s="113"/>
-      <c r="ET53" s="113"/>
-      <c r="EU53" s="179"/>
-      <c r="EV53" s="179"/>
-      <c r="EW53" s="179"/>
+      <c r="EU53" s="113"/>
+      <c r="EV53" s="113"/>
+      <c r="EW53" s="113"/>
       <c r="EX53" s="179"/>
       <c r="EY53" s="179"/>
       <c r="EZ53" s="179"/>
@@ -18988,8 +19160,11 @@
       <c r="FU53" s="179"/>
       <c r="FV53" s="179"/>
       <c r="FW53" s="179"/>
-    </row>
-    <row r="54" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX53" s="179"/>
+      <c r="FY53" s="179"/>
+      <c r="FZ53" s="179"/>
+    </row>
+    <row r="54" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>596</v>
       </c>
@@ -19230,19 +19405,19 @@
       <c r="EL54" s="113"/>
       <c r="EM54" s="113"/>
       <c r="EN54" s="113"/>
-      <c r="EO54" s="214"/>
+      <c r="EO54" s="211"/>
       <c r="EP54" s="113">
         <v>0</v>
       </c>
-      <c r="EQ54" s="215">
+      <c r="EQ54" s="212"/>
+      <c r="ER54" s="212"/>
+      <c r="ES54" s="212"/>
+      <c r="ET54" s="212">
         <v>0</v>
       </c>
-      <c r="ER54" s="113"/>
-      <c r="ES54" s="113"/>
-      <c r="ET54" s="113"/>
-      <c r="EU54" s="179"/>
-      <c r="EV54" s="179"/>
-      <c r="EW54" s="179"/>
+      <c r="EU54" s="113"/>
+      <c r="EV54" s="113"/>
+      <c r="EW54" s="113"/>
       <c r="EX54" s="179"/>
       <c r="EY54" s="179"/>
       <c r="EZ54" s="179"/>
@@ -19269,8 +19444,11 @@
       <c r="FU54" s="179"/>
       <c r="FV54" s="179"/>
       <c r="FW54" s="179"/>
-    </row>
-    <row r="55" spans="1:179" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FX54" s="179"/>
+      <c r="FY54" s="179"/>
+      <c r="FZ54" s="179"/>
+    </row>
+    <row r="55" spans="1:182" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="159" t="s">
         <v>597</v>
       </c>
@@ -19452,18 +19630,18 @@
       <c r="EM55" s="187"/>
       <c r="EN55" s="187"/>
       <c r="EO55" s="187"/>
-      <c r="EP55" s="216" t="s">
+      <c r="EP55" s="213" t="s">
         <v>747</v>
       </c>
-      <c r="EQ55" s="187" t="s">
-        <v>599</v>
-      </c>
+      <c r="EQ55" s="187"/>
       <c r="ER55" s="187"/>
       <c r="ES55" s="187"/>
-      <c r="ET55" s="187"/>
-      <c r="EU55" s="179"/>
-      <c r="EV55" s="179"/>
-      <c r="EW55" s="179"/>
+      <c r="ET55" s="187" t="s">
+        <v>599</v>
+      </c>
+      <c r="EU55" s="187"/>
+      <c r="EV55" s="187"/>
+      <c r="EW55" s="187"/>
       <c r="EX55" s="179"/>
       <c r="EY55" s="179"/>
       <c r="EZ55" s="179"/>
@@ -19490,8 +19668,11 @@
       <c r="FU55" s="179"/>
       <c r="FV55" s="179"/>
       <c r="FW55" s="179"/>
-    </row>
-    <row r="56" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX55" s="179"/>
+      <c r="FY55" s="179"/>
+      <c r="FZ55" s="179"/>
+    </row>
+    <row r="56" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="158" t="s">
         <v>531</v>
       </c>
@@ -19836,79 +20017,82 @@
       <c r="ER56" s="186"/>
       <c r="ES56" s="186"/>
       <c r="ET56" s="186"/>
-      <c r="EU56" s="176"/>
-      <c r="EV56" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW56" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX56" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY56" s="176"/>
+      <c r="EU56" s="186"/>
+      <c r="EV56" s="186"/>
+      <c r="EW56" s="186"/>
+      <c r="EX56" s="176"/>
+      <c r="EY56" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ56" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA56" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB56" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC56" s="176"/>
-      <c r="FD56" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE56" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF56" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG56" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB56" s="176"/>
+      <c r="FC56" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD56" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE56" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF56" s="176"/>
+      <c r="FG56" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH56" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI56" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ56" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK56" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ56" s="176"/>
+      <c r="FK56" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL56" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM56" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN56" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO56" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN56" s="176"/>
+      <c r="FO56" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP56" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ56" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR56" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS56" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR56" s="176"/>
+      <c r="FS56" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT56" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU56" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV56" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW56" s="171"/>
-    </row>
-    <row r="57" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV56" s="176"/>
+      <c r="FW56" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX56" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY56" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ56" s="171"/>
+    </row>
+    <row r="57" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>113</v>
       </c>
@@ -20077,9 +20261,9 @@
       <c r="ER57" s="111"/>
       <c r="ES57" s="111"/>
       <c r="ET57" s="111"/>
-      <c r="EU57" s="179"/>
-      <c r="EV57" s="179"/>
-      <c r="EW57" s="179"/>
+      <c r="EU57" s="111"/>
+      <c r="EV57" s="111"/>
+      <c r="EW57" s="111"/>
       <c r="EX57" s="179"/>
       <c r="EY57" s="179"/>
       <c r="EZ57" s="179"/>
@@ -20106,8 +20290,11 @@
       <c r="FU57" s="179"/>
       <c r="FV57" s="179"/>
       <c r="FW57" s="179"/>
-    </row>
-    <row r="58" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX57" s="179"/>
+      <c r="FY57" s="179"/>
+      <c r="FZ57" s="179"/>
+    </row>
+    <row r="58" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>528</v>
       </c>
@@ -20452,79 +20639,82 @@
       <c r="ER58" s="108"/>
       <c r="ES58" s="108"/>
       <c r="ET58" s="108"/>
-      <c r="EU58" s="176"/>
-      <c r="EV58" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW58" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX58" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY58" s="176"/>
+      <c r="EU58" s="108"/>
+      <c r="EV58" s="108"/>
+      <c r="EW58" s="108"/>
+      <c r="EX58" s="176"/>
+      <c r="EY58" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ58" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA58" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB58" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC58" s="176"/>
-      <c r="FD58" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE58" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF58" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG58" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB58" s="176"/>
+      <c r="FC58" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD58" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE58" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF58" s="176"/>
+      <c r="FG58" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH58" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI58" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ58" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK58" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ58" s="176"/>
+      <c r="FK58" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL58" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM58" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN58" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO58" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN58" s="176"/>
+      <c r="FO58" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP58" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ58" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR58" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS58" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR58" s="176"/>
+      <c r="FS58" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT58" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU58" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV58" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW58" s="171"/>
-    </row>
-    <row r="59" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV58" s="176"/>
+      <c r="FW58" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX58" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY58" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ58" s="171"/>
+    </row>
+    <row r="59" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>113</v>
       </c>
@@ -20697,9 +20887,9 @@
       <c r="ER59" s="111"/>
       <c r="ES59" s="111"/>
       <c r="ET59" s="111"/>
-      <c r="EU59" s="179"/>
-      <c r="EV59" s="179"/>
-      <c r="EW59" s="179"/>
+      <c r="EU59" s="111"/>
+      <c r="EV59" s="111"/>
+      <c r="EW59" s="111"/>
       <c r="EX59" s="179"/>
       <c r="EY59" s="179"/>
       <c r="EZ59" s="179"/>
@@ -20726,8 +20916,11 @@
       <c r="FU59" s="179"/>
       <c r="FV59" s="179"/>
       <c r="FW59" s="179"/>
-    </row>
-    <row r="60" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX59" s="179"/>
+      <c r="FY59" s="179"/>
+      <c r="FZ59" s="179"/>
+    </row>
+    <row r="60" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
         <v>527</v>
       </c>
@@ -21072,79 +21265,82 @@
       <c r="ER60" s="108"/>
       <c r="ES60" s="108"/>
       <c r="ET60" s="108"/>
-      <c r="EU60" s="176"/>
-      <c r="EV60" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW60" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX60" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY60" s="176"/>
+      <c r="EU60" s="108"/>
+      <c r="EV60" s="108"/>
+      <c r="EW60" s="108"/>
+      <c r="EX60" s="176"/>
+      <c r="EY60" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ60" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA60" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB60" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC60" s="176"/>
-      <c r="FD60" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE60" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF60" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG60" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB60" s="176"/>
+      <c r="FC60" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD60" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE60" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF60" s="176"/>
+      <c r="FG60" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH60" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI60" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ60" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK60" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ60" s="176"/>
+      <c r="FK60" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL60" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM60" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN60" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO60" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN60" s="176"/>
+      <c r="FO60" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP60" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ60" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR60" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS60" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR60" s="176"/>
+      <c r="FS60" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT60" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU60" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV60" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW60" s="171"/>
-    </row>
-    <row r="61" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV60" s="176"/>
+      <c r="FW60" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX60" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY60" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ60" s="171"/>
+    </row>
+    <row r="61" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>113</v>
       </c>
@@ -21313,9 +21509,9 @@
       <c r="ER61" s="111"/>
       <c r="ES61" s="111"/>
       <c r="ET61" s="111"/>
-      <c r="EU61" s="179"/>
-      <c r="EV61" s="179"/>
-      <c r="EW61" s="179"/>
+      <c r="EU61" s="111"/>
+      <c r="EV61" s="111"/>
+      <c r="EW61" s="111"/>
       <c r="EX61" s="179"/>
       <c r="EY61" s="179"/>
       <c r="EZ61" s="179"/>
@@ -21342,8 +21538,11 @@
       <c r="FU61" s="179"/>
       <c r="FV61" s="179"/>
       <c r="FW61" s="179"/>
-    </row>
-    <row r="62" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX61" s="179"/>
+      <c r="FY61" s="179"/>
+      <c r="FZ61" s="179"/>
+    </row>
+    <row r="62" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="s">
         <v>532</v>
       </c>
@@ -21688,79 +21887,82 @@
       <c r="ER62" s="108"/>
       <c r="ES62" s="108"/>
       <c r="ET62" s="108"/>
-      <c r="EU62" s="176"/>
-      <c r="EV62" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW62" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX62" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY62" s="176"/>
+      <c r="EU62" s="108"/>
+      <c r="EV62" s="108"/>
+      <c r="EW62" s="108"/>
+      <c r="EX62" s="176"/>
+      <c r="EY62" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ62" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA62" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB62" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC62" s="176"/>
-      <c r="FD62" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE62" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF62" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG62" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB62" s="176"/>
+      <c r="FC62" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD62" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE62" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF62" s="176"/>
+      <c r="FG62" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH62" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI62" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ62" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK62" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ62" s="176"/>
+      <c r="FK62" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL62" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM62" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN62" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO62" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN62" s="176"/>
+      <c r="FO62" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP62" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ62" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR62" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS62" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR62" s="176"/>
+      <c r="FS62" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT62" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU62" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV62" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW62" s="171"/>
-    </row>
-    <row r="63" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV62" s="176"/>
+      <c r="FW62" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX62" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY62" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ62" s="171"/>
+    </row>
+    <row r="63" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
         <v>113</v>
       </c>
@@ -21933,9 +22135,9 @@
       <c r="ER63" s="111"/>
       <c r="ES63" s="111"/>
       <c r="ET63" s="111"/>
-      <c r="EU63" s="179"/>
-      <c r="EV63" s="179"/>
-      <c r="EW63" s="179"/>
+      <c r="EU63" s="111"/>
+      <c r="EV63" s="111"/>
+      <c r="EW63" s="111"/>
       <c r="EX63" s="179"/>
       <c r="EY63" s="179"/>
       <c r="EZ63" s="179"/>
@@ -21962,8 +22164,11 @@
       <c r="FU63" s="179"/>
       <c r="FV63" s="179"/>
       <c r="FW63" s="179"/>
-    </row>
-    <row r="64" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX63" s="179"/>
+      <c r="FY63" s="179"/>
+      <c r="FZ63" s="179"/>
+    </row>
+    <row r="64" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62" t="s">
         <v>537</v>
       </c>
@@ -22308,79 +22513,82 @@
       <c r="ER64" s="108"/>
       <c r="ES64" s="108"/>
       <c r="ET64" s="108"/>
-      <c r="EU64" s="176"/>
-      <c r="EV64" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW64" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX64" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY64" s="176"/>
+      <c r="EU64" s="108"/>
+      <c r="EV64" s="108"/>
+      <c r="EW64" s="108"/>
+      <c r="EX64" s="176"/>
+      <c r="EY64" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ64" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA64" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB64" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC64" s="176"/>
-      <c r="FD64" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE64" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF64" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG64" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB64" s="176"/>
+      <c r="FC64" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD64" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE64" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF64" s="176"/>
+      <c r="FG64" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH64" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI64" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ64" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK64" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ64" s="176"/>
+      <c r="FK64" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL64" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM64" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN64" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO64" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN64" s="176"/>
+      <c r="FO64" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP64" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ64" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR64" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS64" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR64" s="176"/>
+      <c r="FS64" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT64" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU64" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV64" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW64" s="171"/>
-    </row>
-    <row r="65" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV64" s="176"/>
+      <c r="FW64" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX64" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY64" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ64" s="171"/>
+    </row>
+    <row r="65" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>113</v>
       </c>
@@ -22553,9 +22761,9 @@
       <c r="ER65" s="111"/>
       <c r="ES65" s="111"/>
       <c r="ET65" s="111"/>
-      <c r="EU65" s="179"/>
-      <c r="EV65" s="179"/>
-      <c r="EW65" s="179"/>
+      <c r="EU65" s="111"/>
+      <c r="EV65" s="111"/>
+      <c r="EW65" s="111"/>
       <c r="EX65" s="179"/>
       <c r="EY65" s="179"/>
       <c r="EZ65" s="179"/>
@@ -22582,8 +22790,11 @@
       <c r="FU65" s="179"/>
       <c r="FV65" s="179"/>
       <c r="FW65" s="179"/>
-    </row>
-    <row r="66" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX65" s="179"/>
+      <c r="FY65" s="179"/>
+      <c r="FZ65" s="179"/>
+    </row>
+    <row r="66" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
         <v>538</v>
       </c>
@@ -22928,79 +23139,82 @@
       <c r="ER66" s="108"/>
       <c r="ES66" s="108"/>
       <c r="ET66" s="108"/>
-      <c r="EU66" s="176"/>
-      <c r="EV66" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW66" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX66" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY66" s="176"/>
+      <c r="EU66" s="108"/>
+      <c r="EV66" s="108"/>
+      <c r="EW66" s="108"/>
+      <c r="EX66" s="176"/>
+      <c r="EY66" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ66" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA66" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB66" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC66" s="176"/>
-      <c r="FD66" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE66" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF66" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG66" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB66" s="176"/>
+      <c r="FC66" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD66" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE66" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF66" s="176"/>
+      <c r="FG66" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH66" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI66" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ66" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK66" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ66" s="176"/>
+      <c r="FK66" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL66" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM66" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN66" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO66" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN66" s="176"/>
+      <c r="FO66" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP66" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ66" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR66" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS66" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR66" s="176"/>
+      <c r="FS66" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT66" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU66" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV66" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW66" s="171"/>
-    </row>
-    <row r="67" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV66" s="176"/>
+      <c r="FW66" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX66" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY66" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ66" s="171"/>
+    </row>
+    <row r="67" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>113</v>
       </c>
@@ -23171,9 +23385,9 @@
       <c r="ER67" s="111"/>
       <c r="ES67" s="111"/>
       <c r="ET67" s="111"/>
-      <c r="EU67" s="179"/>
-      <c r="EV67" s="179"/>
-      <c r="EW67" s="179"/>
+      <c r="EU67" s="111"/>
+      <c r="EV67" s="111"/>
+      <c r="EW67" s="111"/>
       <c r="EX67" s="179"/>
       <c r="EY67" s="179"/>
       <c r="EZ67" s="179"/>
@@ -23200,8 +23414,11 @@
       <c r="FU67" s="179"/>
       <c r="FV67" s="179"/>
       <c r="FW67" s="179"/>
-    </row>
-    <row r="68" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX67" s="179"/>
+      <c r="FY67" s="179"/>
+      <c r="FZ67" s="179"/>
+    </row>
+    <row r="68" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="62" t="s">
         <v>534</v>
       </c>
@@ -23546,79 +23763,82 @@
       <c r="ER68" s="108"/>
       <c r="ES68" s="108"/>
       <c r="ET68" s="108"/>
-      <c r="EU68" s="176"/>
-      <c r="EV68" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW68" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX68" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY68" s="176"/>
+      <c r="EU68" s="108"/>
+      <c r="EV68" s="108"/>
+      <c r="EW68" s="108"/>
+      <c r="EX68" s="176"/>
+      <c r="EY68" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ68" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA68" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB68" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC68" s="176"/>
-      <c r="FD68" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE68" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF68" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG68" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB68" s="176"/>
+      <c r="FC68" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD68" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE68" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF68" s="176"/>
+      <c r="FG68" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH68" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI68" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ68" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK68" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ68" s="176"/>
+      <c r="FK68" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL68" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM68" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN68" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO68" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN68" s="176"/>
+      <c r="FO68" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP68" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ68" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR68" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS68" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR68" s="176"/>
+      <c r="FS68" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT68" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU68" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV68" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW68" s="171"/>
-    </row>
-    <row r="69" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV68" s="176"/>
+      <c r="FW68" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX68" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY68" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ68" s="171"/>
+    </row>
+    <row r="69" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>113</v>
       </c>
@@ -23791,9 +24011,9 @@
       <c r="ER69" s="111"/>
       <c r="ES69" s="111"/>
       <c r="ET69" s="111"/>
-      <c r="EU69" s="179"/>
-      <c r="EV69" s="179"/>
-      <c r="EW69" s="179"/>
+      <c r="EU69" s="111"/>
+      <c r="EV69" s="111"/>
+      <c r="EW69" s="111"/>
       <c r="EX69" s="179"/>
       <c r="EY69" s="179"/>
       <c r="EZ69" s="179"/>
@@ -23820,8 +24040,11 @@
       <c r="FU69" s="179"/>
       <c r="FV69" s="179"/>
       <c r="FW69" s="179"/>
-    </row>
-    <row r="70" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX69" s="179"/>
+      <c r="FY69" s="179"/>
+      <c r="FZ69" s="179"/>
+    </row>
+    <row r="70" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="62" t="s">
         <v>529</v>
       </c>
@@ -24166,79 +24389,82 @@
       <c r="ER70" s="108"/>
       <c r="ES70" s="108"/>
       <c r="ET70" s="108"/>
-      <c r="EU70" s="176"/>
-      <c r="EV70" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW70" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX70" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY70" s="176"/>
+      <c r="EU70" s="108"/>
+      <c r="EV70" s="108"/>
+      <c r="EW70" s="108"/>
+      <c r="EX70" s="176"/>
+      <c r="EY70" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ70" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA70" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB70" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC70" s="176"/>
-      <c r="FD70" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE70" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF70" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG70" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB70" s="176"/>
+      <c r="FC70" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD70" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE70" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF70" s="176"/>
+      <c r="FG70" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH70" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI70" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ70" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK70" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ70" s="176"/>
+      <c r="FK70" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL70" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM70" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN70" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO70" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN70" s="176"/>
+      <c r="FO70" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP70" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ70" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR70" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS70" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR70" s="176"/>
+      <c r="FS70" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT70" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU70" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV70" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW70" s="171"/>
-    </row>
-    <row r="71" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV70" s="176"/>
+      <c r="FW70" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX70" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY70" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ70" s="171"/>
+    </row>
+    <row r="71" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>113</v>
       </c>
@@ -24407,9 +24633,9 @@
       <c r="ER71" s="111"/>
       <c r="ES71" s="111"/>
       <c r="ET71" s="111"/>
-      <c r="EU71" s="179"/>
-      <c r="EV71" s="179"/>
-      <c r="EW71" s="179"/>
+      <c r="EU71" s="111"/>
+      <c r="EV71" s="111"/>
+      <c r="EW71" s="111"/>
       <c r="EX71" s="179"/>
       <c r="EY71" s="179"/>
       <c r="EZ71" s="179"/>
@@ -24436,8 +24662,11 @@
       <c r="FU71" s="179"/>
       <c r="FV71" s="179"/>
       <c r="FW71" s="179"/>
-    </row>
-    <row r="72" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX71" s="179"/>
+      <c r="FY71" s="179"/>
+      <c r="FZ71" s="179"/>
+    </row>
+    <row r="72" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="62" t="s">
         <v>526</v>
       </c>
@@ -24782,79 +25011,82 @@
       <c r="ER72" s="108"/>
       <c r="ES72" s="108"/>
       <c r="ET72" s="108"/>
-      <c r="EU72" s="176"/>
-      <c r="EV72" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW72" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX72" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY72" s="176"/>
+      <c r="EU72" s="108"/>
+      <c r="EV72" s="108"/>
+      <c r="EW72" s="108"/>
+      <c r="EX72" s="176"/>
+      <c r="EY72" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ72" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA72" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB72" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC72" s="176"/>
-      <c r="FD72" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE72" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF72" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG72" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB72" s="176"/>
+      <c r="FC72" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD72" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE72" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF72" s="176"/>
+      <c r="FG72" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH72" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI72" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ72" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK72" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ72" s="176"/>
+      <c r="FK72" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL72" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM72" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN72" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO72" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN72" s="176"/>
+      <c r="FO72" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP72" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ72" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR72" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS72" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR72" s="176"/>
+      <c r="FS72" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT72" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU72" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV72" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW72" s="171"/>
-    </row>
-    <row r="73" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV72" s="176"/>
+      <c r="FW72" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX72" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY72" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ72" s="171"/>
+    </row>
+    <row r="73" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>113</v>
       </c>
@@ -25027,9 +25259,9 @@
       <c r="ER73" s="111"/>
       <c r="ES73" s="111"/>
       <c r="ET73" s="111"/>
-      <c r="EU73" s="179"/>
-      <c r="EV73" s="179"/>
-      <c r="EW73" s="179"/>
+      <c r="EU73" s="111"/>
+      <c r="EV73" s="111"/>
+      <c r="EW73" s="111"/>
       <c r="EX73" s="179"/>
       <c r="EY73" s="179"/>
       <c r="EZ73" s="179"/>
@@ -25056,8 +25288,11 @@
       <c r="FU73" s="179"/>
       <c r="FV73" s="179"/>
       <c r="FW73" s="179"/>
-    </row>
-    <row r="74" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX73" s="179"/>
+      <c r="FY73" s="179"/>
+      <c r="FZ73" s="179"/>
+    </row>
+    <row r="74" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="s">
         <v>535</v>
       </c>
@@ -25402,79 +25637,82 @@
       <c r="ER74" s="108"/>
       <c r="ES74" s="108"/>
       <c r="ET74" s="108"/>
-      <c r="EU74" s="176"/>
-      <c r="EV74" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW74" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX74" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY74" s="176"/>
+      <c r="EU74" s="108"/>
+      <c r="EV74" s="108"/>
+      <c r="EW74" s="108"/>
+      <c r="EX74" s="176"/>
+      <c r="EY74" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ74" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA74" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB74" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC74" s="176"/>
-      <c r="FD74" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE74" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF74" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG74" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB74" s="176"/>
+      <c r="FC74" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD74" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE74" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF74" s="176"/>
+      <c r="FG74" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH74" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI74" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ74" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK74" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ74" s="176"/>
+      <c r="FK74" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL74" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM74" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN74" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO74" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN74" s="176"/>
+      <c r="FO74" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP74" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ74" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR74" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS74" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR74" s="176"/>
+      <c r="FS74" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT74" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU74" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV74" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW74" s="171"/>
-    </row>
-    <row r="75" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV74" s="176"/>
+      <c r="FW74" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX74" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY74" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ74" s="171"/>
+    </row>
+    <row r="75" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>113</v>
       </c>
@@ -25647,9 +25885,9 @@
       <c r="ER75" s="111"/>
       <c r="ES75" s="111"/>
       <c r="ET75" s="111"/>
-      <c r="EU75" s="179"/>
-      <c r="EV75" s="179"/>
-      <c r="EW75" s="179"/>
+      <c r="EU75" s="111"/>
+      <c r="EV75" s="111"/>
+      <c r="EW75" s="111"/>
       <c r="EX75" s="179"/>
       <c r="EY75" s="179"/>
       <c r="EZ75" s="179"/>
@@ -25676,8 +25914,11 @@
       <c r="FU75" s="179"/>
       <c r="FV75" s="179"/>
       <c r="FW75" s="179"/>
-    </row>
-    <row r="76" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX75" s="179"/>
+      <c r="FY75" s="179"/>
+      <c r="FZ75" s="179"/>
+    </row>
+    <row r="76" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="62" t="s">
         <v>536</v>
       </c>
@@ -26022,79 +26263,82 @@
       <c r="ER76" s="108"/>
       <c r="ES76" s="108"/>
       <c r="ET76" s="108"/>
-      <c r="EU76" s="176"/>
-      <c r="EV76" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW76" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX76" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY76" s="176"/>
+      <c r="EU76" s="108"/>
+      <c r="EV76" s="108"/>
+      <c r="EW76" s="108"/>
+      <c r="EX76" s="176"/>
+      <c r="EY76" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ76" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA76" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB76" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC76" s="176"/>
-      <c r="FD76" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE76" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF76" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG76" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB76" s="176"/>
+      <c r="FC76" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD76" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE76" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF76" s="176"/>
+      <c r="FG76" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH76" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI76" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ76" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK76" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ76" s="176"/>
+      <c r="FK76" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL76" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM76" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN76" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO76" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN76" s="176"/>
+      <c r="FO76" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP76" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ76" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR76" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS76" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR76" s="176"/>
+      <c r="FS76" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT76" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU76" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV76" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW76" s="171"/>
-    </row>
-    <row r="77" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV76" s="176"/>
+      <c r="FW76" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX76" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY76" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ76" s="171"/>
+    </row>
+    <row r="77" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
         <v>113</v>
       </c>
@@ -26265,9 +26509,9 @@
       <c r="ER77" s="111"/>
       <c r="ES77" s="111"/>
       <c r="ET77" s="111"/>
-      <c r="EU77" s="179"/>
-      <c r="EV77" s="179"/>
-      <c r="EW77" s="179"/>
+      <c r="EU77" s="111"/>
+      <c r="EV77" s="111"/>
+      <c r="EW77" s="111"/>
       <c r="EX77" s="179"/>
       <c r="EY77" s="179"/>
       <c r="EZ77" s="179"/>
@@ -26294,8 +26538,11 @@
       <c r="FU77" s="179"/>
       <c r="FV77" s="179"/>
       <c r="FW77" s="179"/>
-    </row>
-    <row r="78" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX77" s="179"/>
+      <c r="FY77" s="179"/>
+      <c r="FZ77" s="179"/>
+    </row>
+    <row r="78" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="62" t="s">
         <v>530</v>
       </c>
@@ -26640,79 +26887,82 @@
       <c r="ER78" s="108"/>
       <c r="ES78" s="108"/>
       <c r="ET78" s="108"/>
-      <c r="EU78" s="176"/>
-      <c r="EV78" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW78" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX78" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY78" s="176"/>
+      <c r="EU78" s="108"/>
+      <c r="EV78" s="108"/>
+      <c r="EW78" s="108"/>
+      <c r="EX78" s="176"/>
+      <c r="EY78" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ78" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA78" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB78" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC78" s="176"/>
-      <c r="FD78" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE78" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF78" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG78" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB78" s="176"/>
+      <c r="FC78" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD78" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE78" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF78" s="176"/>
+      <c r="FG78" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH78" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI78" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ78" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK78" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ78" s="176"/>
+      <c r="FK78" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL78" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM78" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN78" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO78" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN78" s="176"/>
+      <c r="FO78" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP78" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ78" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR78" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS78" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR78" s="176"/>
+      <c r="FS78" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT78" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU78" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV78" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW78" s="171"/>
-    </row>
-    <row r="79" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV78" s="176"/>
+      <c r="FW78" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX78" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY78" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ78" s="171"/>
+    </row>
+    <row r="79" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
         <v>113</v>
       </c>
@@ -26881,9 +27131,9 @@
       <c r="ER79" s="111"/>
       <c r="ES79" s="111"/>
       <c r="ET79" s="111"/>
-      <c r="EU79" s="179"/>
-      <c r="EV79" s="179"/>
-      <c r="EW79" s="179"/>
+      <c r="EU79" s="111"/>
+      <c r="EV79" s="111"/>
+      <c r="EW79" s="111"/>
       <c r="EX79" s="179"/>
       <c r="EY79" s="179"/>
       <c r="EZ79" s="179"/>
@@ -26910,8 +27160,11 @@
       <c r="FU79" s="179"/>
       <c r="FV79" s="179"/>
       <c r="FW79" s="179"/>
-    </row>
-    <row r="80" spans="1:179" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="FX79" s="179"/>
+      <c r="FY79" s="179"/>
+      <c r="FZ79" s="179"/>
+    </row>
+    <row r="80" spans="1:182" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="62" t="s">
         <v>533</v>
       </c>
@@ -27256,79 +27509,82 @@
       <c r="ER80" s="108"/>
       <c r="ES80" s="108"/>
       <c r="ET80" s="108"/>
-      <c r="EU80" s="176"/>
-      <c r="EV80" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="EW80" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="EX80" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY80" s="176"/>
+      <c r="EU80" s="108"/>
+      <c r="EV80" s="108"/>
+      <c r="EW80" s="108"/>
+      <c r="EX80" s="176"/>
+      <c r="EY80" s="175" t="s">
+        <v>290</v>
+      </c>
       <c r="EZ80" s="175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FA80" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="FB80" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC80" s="176"/>
-      <c r="FD80" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="FE80" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FF80" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FG80" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FB80" s="176"/>
+      <c r="FC80" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD80" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="FE80" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF80" s="176"/>
+      <c r="FG80" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FH80" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FI80" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FJ80" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FK80" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FJ80" s="176"/>
+      <c r="FK80" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FL80" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FM80" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN80" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO80" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FN80" s="176"/>
+      <c r="FO80" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FP80" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FQ80" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FR80" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FS80" s="176"/>
+        <v>292</v>
+      </c>
+      <c r="FR80" s="176"/>
+      <c r="FS80" s="176" t="s">
+        <v>290</v>
+      </c>
       <c r="FT80" s="176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FU80" s="176" t="s">
-        <v>291</v>
-      </c>
-      <c r="FV80" s="176" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW80" s="171"/>
-    </row>
-    <row r="81" spans="1:179" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="FV80" s="176"/>
+      <c r="FW80" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX80" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="FY80" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="FZ80" s="171"/>
+    </row>
+    <row r="81" spans="1:182" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
         <v>113</v>
       </c>
@@ -27499,9 +27755,9 @@
       <c r="ER81" s="111"/>
       <c r="ES81" s="111"/>
       <c r="ET81" s="111"/>
-      <c r="EU81" s="179"/>
-      <c r="EV81" s="179"/>
-      <c r="EW81" s="179"/>
+      <c r="EU81" s="111"/>
+      <c r="EV81" s="111"/>
+      <c r="EW81" s="111"/>
       <c r="EX81" s="179"/>
       <c r="EY81" s="179"/>
       <c r="EZ81" s="179"/>
@@ -27528,6 +27784,9 @@
       <c r="FU81" s="179"/>
       <c r="FV81" s="179"/>
       <c r="FW81" s="179"/>
+      <c r="FX81" s="179"/>
+      <c r="FY81" s="179"/>
+      <c r="FZ81" s="179"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -2316,9 +2316,6 @@
     <t>Zwitterion</t>
   </si>
   <si>
-    <t>0.5 1/hr</t>
-  </si>
-  <si>
     <t>0.029 mg/L</t>
   </si>
   <si>
@@ -2326,6 +2323,9 @@
   </si>
   <si>
     <t>0 1/hr</t>
+  </si>
+  <si>
+    <t>0.75 1/hr</t>
   </si>
 </sst>
 </file>
@@ -5049,10 +5049,10 @@
   <dimension ref="A1:GH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DB36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CD36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EX43" sqref="EX43"/>
+      <selection pane="bottomRight" activeCell="CH54" sqref="CH54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -17006,7 +17006,7 @@
       <c r="CF42" s="113"/>
       <c r="CG42" s="113"/>
       <c r="CH42" s="113" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="CI42" s="113"/>
       <c r="CJ42" s="113"/>
@@ -17042,7 +17042,7 @@
       <c r="DD42" s="113"/>
       <c r="DE42" s="113"/>
       <c r="DF42" s="113" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="DG42" s="113"/>
       <c r="DH42" s="113"/>
@@ -20138,7 +20138,7 @@
       <c r="AJ55" s="94"/>
       <c r="AK55" s="94"/>
       <c r="AL55" s="167" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AM55" s="164"/>
       <c r="AN55" s="164"/>
@@ -20180,109 +20180,109 @@
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
       <c r="BZ55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CA55" s="113"/>
       <c r="CB55" s="113"/>
       <c r="CC55" s="113"/>
       <c r="CD55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CE55" s="113"/>
       <c r="CF55" s="113"/>
       <c r="CG55" s="113"/>
       <c r="CH55" s="113" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="CI55" s="113"/>
       <c r="CJ55" s="113"/>
       <c r="CK55" s="113"/>
       <c r="CL55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CM55" s="113"/>
       <c r="CN55" s="113"/>
       <c r="CO55" s="113"/>
       <c r="CP55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CQ55" s="113"/>
       <c r="CR55" s="113"/>
       <c r="CS55" s="113"/>
       <c r="CT55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CU55" s="113"/>
       <c r="CV55" s="113"/>
       <c r="CW55" s="113"/>
       <c r="CX55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="CY55" s="113"/>
       <c r="CZ55" s="113"/>
       <c r="DA55" s="113"/>
       <c r="DB55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DC55" s="113"/>
       <c r="DD55" s="113"/>
       <c r="DE55" s="113"/>
       <c r="DF55" s="113" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="DG55" s="113"/>
       <c r="DH55" s="113"/>
       <c r="DI55" s="113"/>
       <c r="DJ55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DK55" s="113"/>
       <c r="DL55" s="113"/>
       <c r="DM55" s="113"/>
       <c r="DN55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DO55" s="113"/>
       <c r="DP55" s="113"/>
       <c r="DQ55" s="113"/>
       <c r="DR55" s="113" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="DS55" s="113"/>
       <c r="DT55" s="113"/>
       <c r="DU55" s="113"/>
       <c r="DV55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DW55" s="113"/>
       <c r="DX55" s="113"/>
       <c r="DY55" s="113"/>
       <c r="DZ55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EA55" s="113"/>
       <c r="EB55" s="113"/>
       <c r="EC55" s="113"/>
       <c r="ED55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EE55" s="113"/>
       <c r="EF55" s="113"/>
       <c r="EG55" s="113"/>
       <c r="EH55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EI55" s="113"/>
       <c r="EJ55" s="113"/>
       <c r="EK55" s="113"/>
       <c r="EL55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EM55" s="113"/>
       <c r="EN55" s="113"/>
       <c r="EO55" s="113"/>
       <c r="EP55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EQ55" s="187"/>
       <c r="ER55" s="187"/>
@@ -20292,13 +20292,13 @@
       <c r="EV55" s="187"/>
       <c r="EW55" s="187"/>
       <c r="EX55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EY55" s="187"/>
       <c r="EZ55" s="187"/>
       <c r="FA55" s="187"/>
       <c r="FB55" s="113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="FC55" s="187"/>
       <c r="FD55" s="187"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\build\runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2025,9 +2025,6 @@
     <t>0.55 1/min</t>
   </si>
   <si>
-    <t>0.0422 1/min</t>
-  </si>
-  <si>
     <t>0.11 1/min</t>
   </si>
   <si>
@@ -2043,9 +2040,6 @@
     <t>12 mL/min kg</t>
   </si>
   <si>
-    <t>0.003 ug/mL</t>
-  </si>
-  <si>
     <t>Vasopressin</t>
   </si>
   <si>
@@ -2326,6 +2320,12 @@
   </si>
   <si>
     <t>0.75 1/hr</t>
+  </si>
+  <si>
+    <t>0.007 ug/mL</t>
+  </si>
+  <si>
+    <t>0.145 1/min</t>
   </si>
 </sst>
 </file>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="V1" s="216"/>
       <c r="W1" s="214" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="X1" s="216"/>
     </row>
@@ -3867,7 +3867,7 @@
         <v>240</v>
       </c>
       <c r="S2" s="196" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T2" s="145" t="s">
         <v>244</v>
@@ -3879,10 +3879,10 @@
         <v>507</v>
       </c>
       <c r="W2" s="144" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="X2" s="145" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>241</v>
       </c>
       <c r="S6" s="200" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T6" s="151" t="s">
         <v>498</v>
@@ -4137,7 +4137,7 @@
         <v>242</v>
       </c>
       <c r="S7" s="200" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T7" s="151" t="s">
         <v>245</v>
@@ -4203,7 +4203,7 @@
         <v>243</v>
       </c>
       <c r="S8" s="200" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="T8" s="151" t="s">
         <v>39</v>
@@ -4215,7 +4215,7 @@
         <v>511</v>
       </c>
       <c r="W8" s="150" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="X8" s="151" t="s">
         <v>20</v>
@@ -4394,7 +4394,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="138" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I13" s="151" t="s">
         <v>543</v>
@@ -4406,7 +4406,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="138" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>22</v>
@@ -4415,7 +4415,7 @@
         <v>503</v>
       </c>
       <c r="O13" s="138" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="P13" s="138" t="s">
         <v>67</v>
@@ -4643,7 +4643,7 @@
         <v>69</v>
       </c>
       <c r="U16" s="150" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V16" s="151" t="s">
         <v>221</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="143" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B21" s="150"/>
       <c r="C21" s="194"/>
@@ -4793,7 +4793,7 @@
       <c r="Q21" s="194"/>
       <c r="R21" s="194"/>
       <c r="S21" s="201" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="T21" s="195"/>
       <c r="U21" s="150"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="143" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B22" s="150"/>
       <c r="C22" s="194"/>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="143" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B23" s="150"/>
       <c r="C23" s="194"/>
@@ -5049,10 +5049,10 @@
   <dimension ref="A1:GH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CD36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CD23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CH54" sqref="CH54"/>
+      <selection pane="bottomRight" activeCell="CL40" sqref="CL40:CL56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5956,16 +5956,16 @@
         <v>50</v>
       </c>
       <c r="CH2" s="98" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="CI2" s="98" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="CJ2" s="98" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="CK2" s="98" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="CL2" s="98" t="s">
         <v>51</v>
@@ -6028,16 +6028,16 @@
         <v>47</v>
       </c>
       <c r="DF2" s="98" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DG2" s="98" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DH2" s="98" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DI2" s="98" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DJ2" s="98" t="s">
         <v>48</v>
@@ -6052,28 +6052,28 @@
         <v>48</v>
       </c>
       <c r="DN2" s="98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="DO2" s="98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="DP2" s="98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="DQ2" s="98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="DR2" s="98" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DS2" s="98" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DT2" s="98" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DU2" s="98" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DV2" s="98" t="s">
         <v>193</v>
@@ -6148,40 +6148,40 @@
         <v>49</v>
       </c>
       <c r="ET2" s="98" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="EU2" s="98" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="EV2" s="98" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="EW2" s="98" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="EX2" s="98" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="EY2" s="98" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="EZ2" s="98" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="FA2" s="98" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="FB2" s="98" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FC2" s="98" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FD2" s="98" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FE2" s="98" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FF2" s="98" t="s">
         <v>112</v>
@@ -7094,7 +7094,7 @@
       <c r="CF5" s="109"/>
       <c r="CG5" s="109"/>
       <c r="CH5" s="109" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="CI5" s="109"/>
       <c r="CJ5" s="109"/>
@@ -7128,7 +7128,7 @@
       <c r="DD5" s="109"/>
       <c r="DE5" s="109"/>
       <c r="DF5" s="109" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="DG5" s="109"/>
       <c r="DH5" s="109"/>
@@ -7144,7 +7144,7 @@
       <c r="DP5" s="109"/>
       <c r="DQ5" s="109"/>
       <c r="DR5" s="109" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="DS5" s="109"/>
       <c r="DT5" s="109"/>
@@ -7182,7 +7182,7 @@
       <c r="ER5" s="109"/>
       <c r="ES5" s="109"/>
       <c r="ET5" s="109" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="EU5" s="109"/>
       <c r="EV5" s="109"/>
@@ -8170,13 +8170,13 @@
       <c r="CF10" s="109"/>
       <c r="CG10" s="109"/>
       <c r="CH10" s="109" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="CI10" s="109"/>
       <c r="CJ10" s="109"/>
       <c r="CK10" s="109"/>
       <c r="CL10" s="109" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="CM10" s="109"/>
       <c r="CN10" s="109"/>
@@ -8206,7 +8206,7 @@
       <c r="DD10" s="109"/>
       <c r="DE10" s="109"/>
       <c r="DF10" s="109" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="DG10" s="109"/>
       <c r="DH10" s="109"/>
@@ -8218,17 +8218,17 @@
       <c r="DL10" s="109"/>
       <c r="DM10" s="109"/>
       <c r="DN10" s="109" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="DO10" s="109"/>
       <c r="DP10" s="109"/>
       <c r="DQ10" s="109"/>
       <c r="DR10" s="109" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DS10" s="109"/>
       <c r="DT10" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU10" s="109"/>
       <c r="DV10" s="109" t="s">
@@ -8268,21 +8268,21 @@
       <c r="ER10" s="109"/>
       <c r="ES10" s="109"/>
       <c r="ET10" s="109" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="EU10" s="109"/>
       <c r="EV10" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW10" s="109"/>
       <c r="EX10" s="109" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="EY10" s="109"/>
       <c r="EZ10" s="109"/>
       <c r="FA10" s="109"/>
       <c r="FB10" s="109" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="FC10" s="109"/>
       <c r="FD10" s="109"/>
@@ -10570,7 +10570,7 @@
       <c r="CJ19" s="109"/>
       <c r="CK19" s="109"/>
       <c r="CL19" s="109">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="CM19" s="109"/>
       <c r="CN19" s="109"/>
@@ -10622,10 +10622,10 @@
       </c>
       <c r="DS19" s="109"/>
       <c r="DT19" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU19" s="109" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="DV19" s="109">
         <v>1</v>
@@ -10668,10 +10668,10 @@
       </c>
       <c r="EU19" s="109"/>
       <c r="EV19" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW19" s="109" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="EX19" s="109">
         <v>0.03</v>
@@ -10826,7 +10826,7 @@
       <c r="CJ20" s="109"/>
       <c r="CK20" s="109"/>
       <c r="CL20" s="109" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="CM20" s="109"/>
       <c r="CN20" s="109"/>
@@ -10850,13 +10850,13 @@
       <c r="CZ20" s="109"/>
       <c r="DA20" s="109"/>
       <c r="DB20" s="109" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="DC20" s="109"/>
       <c r="DD20" s="109"/>
       <c r="DE20" s="109"/>
       <c r="DF20" s="109" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="DG20" s="109"/>
       <c r="DH20" s="109"/>
@@ -10874,7 +10874,7 @@
       <c r="DP20" s="109"/>
       <c r="DQ20" s="109"/>
       <c r="DR20" s="109" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="DS20" s="109"/>
       <c r="DT20" s="109"/>
@@ -10916,7 +10916,7 @@
       <c r="ER20" s="109"/>
       <c r="ES20" s="109"/>
       <c r="ET20" s="109" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="EU20" s="109"/>
       <c r="EV20" s="109"/>
@@ -11074,7 +11074,7 @@
       <c r="CJ21" s="109"/>
       <c r="CK21" s="109"/>
       <c r="CL21" s="109" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="CM21" s="109"/>
       <c r="CN21" s="109"/>
@@ -11104,7 +11104,7 @@
       <c r="DD21" s="109"/>
       <c r="DE21" s="109"/>
       <c r="DF21" s="109" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="DG21" s="109"/>
       <c r="DH21" s="109"/>
@@ -11122,14 +11122,14 @@
       <c r="DP21" s="109"/>
       <c r="DQ21" s="109"/>
       <c r="DR21" s="109" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="DS21" s="109"/>
       <c r="DT21" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="DU21" s="109" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="DV21" s="109" t="s">
         <v>127</v>
@@ -11168,23 +11168,23 @@
       <c r="ER21" s="109"/>
       <c r="ES21" s="109"/>
       <c r="ET21" s="109" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="EU21" s="109"/>
       <c r="EV21" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="EW21" s="109" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="EX21" s="109" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="EY21" s="109"/>
       <c r="EZ21" s="109"/>
       <c r="FA21" s="109"/>
       <c r="FB21" s="109" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="FC21" s="109"/>
       <c r="FD21" s="109"/>
@@ -11336,13 +11336,13 @@
       <c r="CF22" s="109"/>
       <c r="CG22" s="109"/>
       <c r="CH22" s="109" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="CI22" s="109"/>
       <c r="CJ22" s="109"/>
       <c r="CK22" s="109"/>
       <c r="CL22" s="109" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="CM22" s="109"/>
       <c r="CN22" s="109"/>
@@ -11366,13 +11366,13 @@
       <c r="CZ22" s="109"/>
       <c r="DA22" s="109"/>
       <c r="DB22" s="109" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="DC22" s="109"/>
       <c r="DD22" s="109"/>
       <c r="DE22" s="109"/>
       <c r="DF22" s="109" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="DG22" s="109"/>
       <c r="DH22" s="109"/>
@@ -11384,22 +11384,22 @@
       <c r="DL22" s="109"/>
       <c r="DM22" s="109"/>
       <c r="DN22" s="109" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="DO22" s="109"/>
       <c r="DP22" s="109" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DQ22" s="109"/>
       <c r="DR22" s="109" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="DS22" s="109"/>
       <c r="DT22" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="DU22" s="109" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="DV22" s="109" t="s">
         <v>200</v>
@@ -11438,14 +11438,14 @@
       <c r="ER22" s="109"/>
       <c r="ES22" s="109"/>
       <c r="ET22" s="109" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="EU22" s="109"/>
       <c r="EV22" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="EW22" s="109" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="EX22" s="109" t="s">
         <v>277</v>
@@ -11454,7 +11454,7 @@
       <c r="EZ22" s="109"/>
       <c r="FA22" s="109"/>
       <c r="FB22" s="109" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="FC22" s="109"/>
       <c r="FD22" s="109"/>
@@ -12139,14 +12139,14 @@
       <c r="DP24" s="109"/>
       <c r="DQ24" s="109"/>
       <c r="DR24" s="109" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="DS24" s="109"/>
       <c r="DT24" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="DU24" s="109" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="DV24" s="109" t="str">
         <f t="shared" si="0"/>
@@ -12226,23 +12226,23 @@
       <c r="ER24" s="109"/>
       <c r="ES24" s="109"/>
       <c r="ET24" s="109" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="EU24" s="109"/>
       <c r="EV24" s="109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="EW24" s="109" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="EX24" s="109" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="EY24" s="109"/>
       <c r="EZ24" s="109"/>
       <c r="FA24" s="109"/>
       <c r="FB24" s="109" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="FC24" s="109"/>
       <c r="FD24" s="109"/>
@@ -14178,7 +14178,7 @@
       <c r="CJ31" s="109"/>
       <c r="CK31" s="109"/>
       <c r="CL31" s="109">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="CM31" s="109"/>
       <c r="CN31" s="109"/>
@@ -14204,7 +14204,7 @@
       <c r="DD31" s="109"/>
       <c r="DE31" s="109"/>
       <c r="DF31" s="109" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="DG31" s="109"/>
       <c r="DH31" s="109"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="DO31" s="109"/>
       <c r="DP31" s="109" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DQ31" s="109"/>
       <c r="DR31" s="109"/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="DO32" s="109"/>
       <c r="DP32" s="109" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="DQ32" s="109"/>
       <c r="DR32" s="109"/>
@@ -14494,7 +14494,7 @@
       <c r="EV32" s="109"/>
       <c r="EW32" s="109"/>
       <c r="EX32" s="109" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="EY32" s="109"/>
       <c r="EZ32" s="109"/>
@@ -14634,7 +14634,7 @@
       <c r="CJ33" s="109"/>
       <c r="CK33" s="109"/>
       <c r="CL33" s="109">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="CM33" s="109"/>
       <c r="CN33" s="109"/>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="DO33" s="109"/>
       <c r="DP33" s="109" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="DQ33" s="109"/>
       <c r="DR33" s="109"/>
@@ -14873,8 +14873,7 @@
       <c r="CJ34" s="109"/>
       <c r="CK34" s="109"/>
       <c r="CL34" s="109">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="CM34" s="109">
         <f t="shared" si="3"/>
@@ -14972,7 +14971,7 @@
       </c>
       <c r="DO34" s="109"/>
       <c r="DP34" s="109" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="DQ34" s="109"/>
       <c r="DR34" s="109"/>
@@ -15198,7 +15197,7 @@
       <c r="CJ35" s="109"/>
       <c r="CK35" s="109"/>
       <c r="CL35" s="109" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="CM35" s="109"/>
       <c r="CN35" s="109"/>
@@ -15224,7 +15223,7 @@
       <c r="DD35" s="109"/>
       <c r="DE35" s="109"/>
       <c r="DF35" s="109" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="DG35" s="109"/>
       <c r="DH35" s="109"/>
@@ -15424,7 +15423,7 @@
       <c r="CJ36" s="109"/>
       <c r="CK36" s="109"/>
       <c r="CL36" s="109">
-        <v>2.9</v>
+        <v>4.05</v>
       </c>
       <c r="CM36" s="109"/>
       <c r="CN36" s="109"/>
@@ -15466,7 +15465,7 @@
       </c>
       <c r="DO36" s="109"/>
       <c r="DP36" s="109" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DQ36" s="109"/>
       <c r="DR36" s="109"/>
@@ -15555,7 +15554,7 @@
     </row>
     <row r="37" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="101"/>
@@ -15781,7 +15780,7 @@
     </row>
     <row r="38" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
@@ -17006,13 +17005,13 @@
       <c r="CF42" s="113"/>
       <c r="CG42" s="113"/>
       <c r="CH42" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CI42" s="113"/>
       <c r="CJ42" s="113"/>
       <c r="CK42" s="113"/>
       <c r="CL42" s="113" t="s">
-        <v>669</v>
+        <v>762</v>
       </c>
       <c r="CM42" s="113"/>
       <c r="CN42" s="113"/>
@@ -17036,13 +17035,13 @@
       <c r="CZ42" s="113"/>
       <c r="DA42" s="113"/>
       <c r="DB42" s="113" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="DC42" s="113"/>
       <c r="DD42" s="113"/>
       <c r="DE42" s="113"/>
       <c r="DF42" s="113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="DG42" s="113"/>
       <c r="DH42" s="113"/>
@@ -17054,22 +17053,22 @@
       <c r="DL42" s="113"/>
       <c r="DM42" s="113"/>
       <c r="DN42" s="113" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="DO42" s="113"/>
       <c r="DP42" s="113"/>
       <c r="DQ42" s="113" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DR42" s="113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="DS42" s="113"/>
       <c r="DT42" s="113" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="DU42" s="113" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="DV42" s="113" t="s">
         <v>314</v>
@@ -17112,13 +17111,13 @@
       <c r="EV42" s="113"/>
       <c r="EW42" s="113"/>
       <c r="EX42" s="113" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="EY42" s="113"/>
       <c r="EZ42" s="113"/>
       <c r="FA42" s="113"/>
       <c r="FB42" s="113" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="FC42" s="113"/>
       <c r="FD42" s="113"/>
@@ -17254,7 +17253,7 @@
       <c r="CJ43" s="113"/>
       <c r="CK43" s="113"/>
       <c r="CL43" s="113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="CM43" s="113"/>
       <c r="CN43" s="113"/>
@@ -17490,7 +17489,7 @@
       <c r="CJ44" s="113"/>
       <c r="CK44" s="113"/>
       <c r="CL44" s="113">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="CM44" s="113"/>
       <c r="CN44" s="113"/>
@@ -17627,7 +17626,7 @@
     </row>
     <row r="45" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="112"/>
@@ -18722,7 +18721,7 @@
       <c r="CJ49" s="113"/>
       <c r="CK49" s="113"/>
       <c r="CL49" s="113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="CM49" s="113"/>
       <c r="CN49" s="113"/>
@@ -19962,7 +19961,7 @@
       <c r="CJ54" s="113"/>
       <c r="CK54" s="113"/>
       <c r="CL54" s="113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CM54" s="113"/>
       <c r="CN54" s="113"/>
@@ -20099,7 +20098,7 @@
     </row>
     <row r="55" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="159" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
@@ -20138,7 +20137,7 @@
       <c r="AJ55" s="94"/>
       <c r="AK55" s="94"/>
       <c r="AL55" s="167" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AM55" s="164"/>
       <c r="AN55" s="164"/>
@@ -20180,109 +20179,109 @@
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
       <c r="BZ55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CA55" s="113"/>
       <c r="CB55" s="113"/>
       <c r="CC55" s="113"/>
       <c r="CD55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CE55" s="113"/>
       <c r="CF55" s="113"/>
       <c r="CG55" s="113"/>
       <c r="CH55" s="113" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="CI55" s="113"/>
       <c r="CJ55" s="113"/>
       <c r="CK55" s="113"/>
       <c r="CL55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CM55" s="113"/>
       <c r="CN55" s="113"/>
       <c r="CO55" s="113"/>
       <c r="CP55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CQ55" s="113"/>
       <c r="CR55" s="113"/>
       <c r="CS55" s="113"/>
       <c r="CT55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CU55" s="113"/>
       <c r="CV55" s="113"/>
       <c r="CW55" s="113"/>
       <c r="CX55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="CY55" s="113"/>
       <c r="CZ55" s="113"/>
       <c r="DA55" s="113"/>
       <c r="DB55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="DC55" s="113"/>
       <c r="DD55" s="113"/>
       <c r="DE55" s="113"/>
       <c r="DF55" s="113" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="DG55" s="113"/>
       <c r="DH55" s="113"/>
       <c r="DI55" s="113"/>
       <c r="DJ55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="DK55" s="113"/>
       <c r="DL55" s="113"/>
       <c r="DM55" s="113"/>
       <c r="DN55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="DO55" s="113"/>
       <c r="DP55" s="113"/>
       <c r="DQ55" s="113"/>
       <c r="DR55" s="113" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="DS55" s="113"/>
       <c r="DT55" s="113"/>
       <c r="DU55" s="113"/>
       <c r="DV55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="DW55" s="113"/>
       <c r="DX55" s="113"/>
       <c r="DY55" s="113"/>
       <c r="DZ55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EA55" s="113"/>
       <c r="EB55" s="113"/>
       <c r="EC55" s="113"/>
       <c r="ED55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EE55" s="113"/>
       <c r="EF55" s="113"/>
       <c r="EG55" s="113"/>
       <c r="EH55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EI55" s="113"/>
       <c r="EJ55" s="113"/>
       <c r="EK55" s="113"/>
       <c r="EL55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EM55" s="113"/>
       <c r="EN55" s="113"/>
       <c r="EO55" s="113"/>
       <c r="EP55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EQ55" s="187"/>
       <c r="ER55" s="187"/>
@@ -20292,13 +20291,13 @@
       <c r="EV55" s="187"/>
       <c r="EW55" s="187"/>
       <c r="EX55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="EY55" s="187"/>
       <c r="EZ55" s="187"/>
       <c r="FA55" s="187"/>
       <c r="FB55" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="FC55" s="187"/>
       <c r="FD55" s="187"/>
@@ -20434,7 +20433,7 @@
       <c r="CJ56" s="113"/>
       <c r="CK56" s="113"/>
       <c r="CL56" s="113" t="s">
-        <v>663</v>
+        <v>763</v>
       </c>
       <c r="CM56" s="113"/>
       <c r="CN56" s="113"/>
@@ -20446,13 +20445,13 @@
       <c r="CR56" s="113"/>
       <c r="CS56" s="113"/>
       <c r="CT56" s="113" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="CU56" s="113"/>
       <c r="CV56" s="113"/>
       <c r="CW56" s="113"/>
       <c r="CX56" s="113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="CY56" s="113"/>
       <c r="CZ56" s="113"/>
@@ -20500,13 +20499,13 @@
       <c r="EB56" s="113"/>
       <c r="EC56" s="113"/>
       <c r="ED56" s="113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="EE56" s="113"/>
       <c r="EF56" s="113"/>
       <c r="EG56" s="113"/>
       <c r="EH56" s="113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="EI56" s="113"/>
       <c r="EJ56" s="113"/>
@@ -20518,7 +20517,7 @@
       <c r="EN56" s="113"/>
       <c r="EO56" s="113"/>
       <c r="EP56" s="113" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="EQ56" s="187"/>
       <c r="ER56" s="187"/>
@@ -20528,7 +20527,7 @@
       <c r="EV56" s="187"/>
       <c r="EW56" s="187"/>
       <c r="EX56" s="212" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="EY56" s="187"/>
       <c r="EZ56" s="187"/>
@@ -21132,7 +21131,7 @@
       </c>
       <c r="DS58" s="111"/>
       <c r="DT58" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU58" s="111"/>
       <c r="DV58" s="70"/>
@@ -21166,7 +21165,7 @@
       </c>
       <c r="EU58" s="111"/>
       <c r="EV58" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW58" s="111"/>
       <c r="EX58" s="111"/>
@@ -21770,10 +21769,10 @@
       </c>
       <c r="DS60" s="111"/>
       <c r="DT60" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU60" s="111" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="DV60" s="70"/>
       <c r="DW60" s="111"/>
@@ -21806,10 +21805,10 @@
       </c>
       <c r="EU60" s="111"/>
       <c r="EV60" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW60" s="111" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="EX60" s="111"/>
       <c r="EY60" s="111"/>
@@ -22412,7 +22411,7 @@
       </c>
       <c r="DS62" s="111"/>
       <c r="DT62" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU62" s="111"/>
       <c r="DV62" s="70"/>
@@ -22446,7 +22445,7 @@
       </c>
       <c r="EU62" s="111"/>
       <c r="EV62" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW62" s="111"/>
       <c r="EX62" s="111"/>
@@ -23050,10 +23049,10 @@
       </c>
       <c r="DS64" s="111"/>
       <c r="DT64" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU64" s="111" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DV64" s="70"/>
       <c r="DW64" s="111"/>
@@ -23086,10 +23085,10 @@
       </c>
       <c r="EU64" s="111"/>
       <c r="EV64" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW64" s="111" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EX64" s="111"/>
       <c r="EY64" s="111"/>
@@ -23692,10 +23691,10 @@
       </c>
       <c r="DS66" s="111"/>
       <c r="DT66" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU66" s="111" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DV66" s="70"/>
       <c r="DW66" s="111"/>
@@ -23728,10 +23727,10 @@
       </c>
       <c r="EU66" s="111"/>
       <c r="EV66" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW66" s="111" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EX66" s="111"/>
       <c r="EY66" s="111"/>
@@ -24334,7 +24333,7 @@
       </c>
       <c r="DS68" s="111"/>
       <c r="DT68" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU68" s="111"/>
       <c r="DV68" s="70"/>
@@ -24368,10 +24367,10 @@
       </c>
       <c r="EU68" s="111"/>
       <c r="EV68" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW68" s="111" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="EX68" s="111"/>
       <c r="EY68" s="111"/>
@@ -24974,10 +24973,10 @@
       </c>
       <c r="DS70" s="111"/>
       <c r="DT70" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU70" s="111" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DV70" s="70"/>
       <c r="DW70" s="111"/>
@@ -25010,10 +25009,10 @@
       </c>
       <c r="EU70" s="111"/>
       <c r="EV70" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW70" s="111" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EX70" s="111"/>
       <c r="EY70" s="111"/>
@@ -25616,7 +25615,7 @@
       </c>
       <c r="DS72" s="111"/>
       <c r="DT72" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU72" s="111"/>
       <c r="DV72" s="70"/>
@@ -25650,7 +25649,7 @@
       </c>
       <c r="EU72" s="111"/>
       <c r="EV72" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW72" s="111"/>
       <c r="EX72" s="111"/>
@@ -26254,10 +26253,10 @@
       </c>
       <c r="DS74" s="111"/>
       <c r="DT74" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU74" s="111" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="DV74" s="70"/>
       <c r="DW74" s="111"/>
@@ -26290,10 +26289,10 @@
       </c>
       <c r="EU74" s="111"/>
       <c r="EV74" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW74" s="111" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="EX74" s="111"/>
       <c r="EY74" s="111"/>
@@ -26896,10 +26895,10 @@
       </c>
       <c r="DS76" s="111"/>
       <c r="DT76" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU76" s="111" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DV76" s="70"/>
       <c r="DW76" s="111"/>
@@ -26932,10 +26931,10 @@
       </c>
       <c r="EU76" s="111"/>
       <c r="EV76" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW76" s="111" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EX76" s="111"/>
       <c r="EY76" s="111"/>
@@ -27538,7 +27537,7 @@
       </c>
       <c r="DS78" s="111"/>
       <c r="DT78" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU78" s="111"/>
       <c r="DV78" s="70"/>
@@ -27572,10 +27571,10 @@
       </c>
       <c r="EU78" s="111"/>
       <c r="EV78" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW78" s="111" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="EX78" s="111"/>
       <c r="EY78" s="111"/>
@@ -28178,7 +28177,7 @@
       </c>
       <c r="DS80" s="111"/>
       <c r="DT80" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU80" s="111"/>
       <c r="DV80" s="70"/>
@@ -28212,7 +28211,7 @@
       </c>
       <c r="EU80" s="111"/>
       <c r="EV80" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW80" s="111"/>
       <c r="EX80" s="111"/>
@@ -28816,7 +28815,7 @@
       </c>
       <c r="DS82" s="111"/>
       <c r="DT82" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DU82" s="111"/>
       <c r="DV82" s="70"/>
@@ -28850,10 +28849,10 @@
       </c>
       <c r="EU82" s="111"/>
       <c r="EV82" s="109" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="EW82" s="111" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="EX82" s="111"/>
       <c r="EY82" s="111"/>
@@ -28954,7 +28953,7 @@
         <v>633</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -28984,7 +28983,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29001,7 +29000,7 @@
         <v>634</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -29031,7 +29030,7 @@
         <v>480</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29048,7 +29047,7 @@
         <v>635</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -29085,13 +29084,13 @@
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="192" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>636</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -29207,7 +29206,7 @@
         <v>230</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E21" s="74"/>
     </row>
@@ -29246,7 +29245,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E24" s="74"/>
     </row>
@@ -29350,7 +29349,7 @@
       </c>
       <c r="B33" s="74"/>
       <c r="C33" s="192" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
@@ -29385,7 +29384,7 @@
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="192" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D36" s="74"/>
       <c r="E36" s="74"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\build\runtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2238,15 +2238,9 @@
     <t>0.3335 g/dL</t>
   </si>
   <si>
-    <t>11.0 mL/min kg</t>
-  </si>
-  <si>
     <t>0.7 mL/min kg</t>
   </si>
   <si>
-    <t>11.7 mL/min kg</t>
-  </si>
-  <si>
     <t>2.0 1/min</t>
   </si>
   <si>
@@ -2322,10 +2316,16 @@
     <t>0.75 1/hr</t>
   </si>
   <si>
-    <t>0.007 ug/mL</t>
-  </si>
-  <si>
     <t>0.145 1/min</t>
+  </si>
+  <si>
+    <t>781.0 mL/min kg</t>
+  </si>
+  <si>
+    <t>15.5 mL/min kg</t>
+  </si>
+  <si>
+    <t>0.004 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -5049,10 +5049,10 @@
   <dimension ref="A1:GH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CD23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CD18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CL40" sqref="CL40:CL56"/>
+      <selection pane="bottomRight" activeCell="CL42" sqref="CL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5956,16 +5956,16 @@
         <v>50</v>
       </c>
       <c r="CH2" s="98" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="CI2" s="98" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="CJ2" s="98" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="CK2" s="98" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="CL2" s="98" t="s">
         <v>51</v>
@@ -6028,16 +6028,16 @@
         <v>47</v>
       </c>
       <c r="DF2" s="98" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="DG2" s="98" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="DH2" s="98" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="DI2" s="98" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="DJ2" s="98" t="s">
         <v>48</v>
@@ -6160,16 +6160,16 @@
         <v>684</v>
       </c>
       <c r="EX2" s="98" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="EY2" s="98" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="EZ2" s="98" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="FA2" s="98" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="FB2" s="98" t="s">
         <v>668</v>
@@ -8170,7 +8170,7 @@
       <c r="CF10" s="109"/>
       <c r="CG10" s="109"/>
       <c r="CH10" s="109" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CI10" s="109"/>
       <c r="CJ10" s="109"/>
@@ -8206,7 +8206,7 @@
       <c r="DD10" s="109"/>
       <c r="DE10" s="109"/>
       <c r="DF10" s="109" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="DG10" s="109"/>
       <c r="DH10" s="109"/>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="EW10" s="109"/>
       <c r="EX10" s="109" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="EY10" s="109"/>
       <c r="EZ10" s="109"/>
@@ -10826,7 +10826,7 @@
       <c r="CJ20" s="109"/>
       <c r="CK20" s="109"/>
       <c r="CL20" s="109" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="CM20" s="109"/>
       <c r="CN20" s="109"/>
@@ -10856,7 +10856,7 @@
       <c r="DD20" s="109"/>
       <c r="DE20" s="109"/>
       <c r="DF20" s="109" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="DG20" s="109"/>
       <c r="DH20" s="109"/>
@@ -11074,7 +11074,7 @@
       <c r="CJ21" s="109"/>
       <c r="CK21" s="109"/>
       <c r="CL21" s="109" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CM21" s="109"/>
       <c r="CN21" s="109"/>
@@ -11104,7 +11104,7 @@
       <c r="DD21" s="109"/>
       <c r="DE21" s="109"/>
       <c r="DF21" s="109" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="DG21" s="109"/>
       <c r="DH21" s="109"/>
@@ -11178,7 +11178,7 @@
         <v>692</v>
       </c>
       <c r="EX21" s="109" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="EY21" s="109"/>
       <c r="EZ21" s="109"/>
@@ -11336,13 +11336,13 @@
       <c r="CF22" s="109"/>
       <c r="CG22" s="109"/>
       <c r="CH22" s="109" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="CI22" s="109"/>
       <c r="CJ22" s="109"/>
       <c r="CK22" s="109"/>
       <c r="CL22" s="109" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="CM22" s="109"/>
       <c r="CN22" s="109"/>
@@ -11372,7 +11372,7 @@
       <c r="DD22" s="109"/>
       <c r="DE22" s="109"/>
       <c r="DF22" s="109" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="DG22" s="109"/>
       <c r="DH22" s="109"/>
@@ -12236,7 +12236,7 @@
         <v>692</v>
       </c>
       <c r="EX24" s="109" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="EY24" s="109"/>
       <c r="EZ24" s="109"/>
@@ -14204,7 +14204,7 @@
       <c r="DD31" s="109"/>
       <c r="DE31" s="109"/>
       <c r="DF31" s="109" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="DG31" s="109"/>
       <c r="DH31" s="109"/>
@@ -14494,7 +14494,7 @@
       <c r="EV32" s="109"/>
       <c r="EW32" s="109"/>
       <c r="EX32" s="109" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="EY32" s="109"/>
       <c r="EZ32" s="109"/>
@@ -14634,7 +14634,7 @@
       <c r="CJ33" s="109"/>
       <c r="CK33" s="109"/>
       <c r="CL33" s="109">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="CM33" s="109"/>
       <c r="CN33" s="109"/>
@@ -15223,7 +15223,7 @@
       <c r="DD35" s="109"/>
       <c r="DE35" s="109"/>
       <c r="DF35" s="109" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="DG35" s="109"/>
       <c r="DH35" s="109"/>
@@ -17005,13 +17005,13 @@
       <c r="CF42" s="113"/>
       <c r="CG42" s="113"/>
       <c r="CH42" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="CI42" s="113"/>
       <c r="CJ42" s="113"/>
       <c r="CK42" s="113"/>
       <c r="CL42" s="113" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CM42" s="113"/>
       <c r="CN42" s="113"/>
@@ -17041,7 +17041,7 @@
       <c r="DD42" s="113"/>
       <c r="DE42" s="113"/>
       <c r="DF42" s="113" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="DG42" s="113"/>
       <c r="DH42" s="113"/>
@@ -17111,7 +17111,7 @@
       <c r="EV42" s="113"/>
       <c r="EW42" s="113"/>
       <c r="EX42" s="113" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="EY42" s="113"/>
       <c r="EZ42" s="113"/>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="45" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="112"/>
@@ -20098,7 +20098,7 @@
     </row>
     <row r="55" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="159" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
@@ -20137,7 +20137,7 @@
       <c r="AJ55" s="94"/>
       <c r="AK55" s="94"/>
       <c r="AL55" s="167" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AM55" s="164"/>
       <c r="AN55" s="164"/>
@@ -20179,109 +20179,109 @@
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
       <c r="BZ55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CA55" s="113"/>
       <c r="CB55" s="113"/>
       <c r="CC55" s="113"/>
       <c r="CD55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CE55" s="113"/>
       <c r="CF55" s="113"/>
       <c r="CG55" s="113"/>
       <c r="CH55" s="113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="CI55" s="113"/>
       <c r="CJ55" s="113"/>
       <c r="CK55" s="113"/>
       <c r="CL55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CM55" s="113"/>
       <c r="CN55" s="113"/>
       <c r="CO55" s="113"/>
       <c r="CP55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CQ55" s="113"/>
       <c r="CR55" s="113"/>
       <c r="CS55" s="113"/>
       <c r="CT55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CU55" s="113"/>
       <c r="CV55" s="113"/>
       <c r="CW55" s="113"/>
       <c r="CX55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="CY55" s="113"/>
       <c r="CZ55" s="113"/>
       <c r="DA55" s="113"/>
       <c r="DB55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="DC55" s="113"/>
       <c r="DD55" s="113"/>
       <c r="DE55" s="113"/>
       <c r="DF55" s="113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="DG55" s="113"/>
       <c r="DH55" s="113"/>
       <c r="DI55" s="113"/>
       <c r="DJ55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="DK55" s="113"/>
       <c r="DL55" s="113"/>
       <c r="DM55" s="113"/>
       <c r="DN55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="DO55" s="113"/>
       <c r="DP55" s="113"/>
       <c r="DQ55" s="113"/>
       <c r="DR55" s="113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="DS55" s="113"/>
       <c r="DT55" s="113"/>
       <c r="DU55" s="113"/>
       <c r="DV55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="DW55" s="113"/>
       <c r="DX55" s="113"/>
       <c r="DY55" s="113"/>
       <c r="DZ55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EA55" s="113"/>
       <c r="EB55" s="113"/>
       <c r="EC55" s="113"/>
       <c r="ED55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EE55" s="113"/>
       <c r="EF55" s="113"/>
       <c r="EG55" s="113"/>
       <c r="EH55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EI55" s="113"/>
       <c r="EJ55" s="113"/>
       <c r="EK55" s="113"/>
       <c r="EL55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EM55" s="113"/>
       <c r="EN55" s="113"/>
       <c r="EO55" s="113"/>
       <c r="EP55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EQ55" s="187"/>
       <c r="ER55" s="187"/>
@@ -20291,13 +20291,13 @@
       <c r="EV55" s="187"/>
       <c r="EW55" s="187"/>
       <c r="EX55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="EY55" s="187"/>
       <c r="EZ55" s="187"/>
       <c r="FA55" s="187"/>
       <c r="FB55" s="113" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="FC55" s="187"/>
       <c r="FD55" s="187"/>
@@ -20433,7 +20433,7 @@
       <c r="CJ56" s="113"/>
       <c r="CK56" s="113"/>
       <c r="CL56" s="113" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="CM56" s="113"/>
       <c r="CN56" s="113"/>
@@ -20445,7 +20445,7 @@
       <c r="CR56" s="113"/>
       <c r="CS56" s="113"/>
       <c r="CT56" s="113" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="CU56" s="113"/>
       <c r="CV56" s="113"/>
@@ -20527,7 +20527,7 @@
       <c r="EV56" s="187"/>
       <c r="EW56" s="187"/>
       <c r="EX56" s="212" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="EY56" s="187"/>
       <c r="EZ56" s="187"/>
@@ -29206,7 +29206,7 @@
         <v>230</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E21" s="74"/>
     </row>
@@ -29245,7 +29245,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E24" s="74"/>
     </row>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\build\runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="766">
   <si>
     <t>Name</t>
   </si>
@@ -962,9 +962,6 @@
     <t>0.5 mL/min kg</t>
   </si>
   <si>
-    <t>50.0 mL/min kg</t>
-  </si>
-  <si>
     <t>0.4462 ug/mL</t>
   </si>
   <si>
@@ -1925,9 +1922,6 @@
     <t>178.27 g/mol</t>
   </si>
   <si>
-    <t>1.44 mL/min kg</t>
-  </si>
-  <si>
     <t>0.7649 ug/mL</t>
   </si>
   <si>
@@ -2049,9 +2043,6 @@
     <t>1.13 mL/min kg</t>
   </si>
   <si>
-    <t>15.17 mL/min kg</t>
-  </si>
-  <si>
     <t>0.075 ug/mL</t>
   </si>
   <si>
@@ -2151,9 +2142,6 @@
     <t>0.0268 g/mL</t>
   </si>
   <si>
-    <t>0.022 mL/min kg</t>
-  </si>
-  <si>
     <t>1.27 mL/min kg</t>
   </si>
   <si>
@@ -2163,9 +2151,6 @@
     <t xml:space="preserve"> 1.27 mL/min kg</t>
   </si>
   <si>
-    <t>0.006 mL/min kg</t>
-  </si>
-  <si>
     <t>1.69 mL/min kg</t>
   </si>
   <si>
@@ -2217,9 +2202,6 @@
     <t>65 in</t>
   </si>
   <si>
-    <t>40.0 mL/min kg</t>
-  </si>
-  <si>
     <t>HydrogenBondCount</t>
   </si>
   <si>
@@ -2259,9 +2241,6 @@
     <t>157.213 g/mol</t>
   </si>
   <si>
-    <t>0.17 mL/min kg</t>
-  </si>
-  <si>
     <t>Lipoprotein</t>
   </si>
   <si>
@@ -2326,6 +2305,33 @@
   </si>
   <si>
     <t>0.004 ug/mL</t>
+  </si>
+  <si>
+    <t>20.0 mL/min kg</t>
+  </si>
+  <si>
+    <t>1.45 mL/min kg</t>
+  </si>
+  <si>
+    <t>3.57 mL/min kg</t>
+  </si>
+  <si>
+    <t>4.14 mL/min kg</t>
+  </si>
+  <si>
+    <t>14600 mL/min kg</t>
+  </si>
+  <si>
+    <t>36.0 mL/min kg</t>
+  </si>
+  <si>
+    <t>14.4 mL/min kg</t>
+  </si>
+  <si>
+    <t>1.00 mL/min kg</t>
+  </si>
+  <si>
+    <t>37.0 mL/min kg</t>
   </si>
 </sst>
 </file>
@@ -3778,19 +3784,19 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="134"/>
       <c r="B1" s="214" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1" s="215"/>
       <c r="D1" s="215"/>
       <c r="E1" s="216"/>
       <c r="F1" s="214" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G1" s="215"/>
       <c r="H1" s="215"/>
       <c r="I1" s="216"/>
       <c r="J1" s="214" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K1" s="215"/>
       <c r="L1" s="215"/>
@@ -3803,11 +3809,11 @@
       <c r="S1" s="215"/>
       <c r="T1" s="216"/>
       <c r="U1" s="214" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V1" s="216"/>
       <c r="W1" s="214" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="X1" s="216"/>
     </row>
@@ -3816,28 +3822,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D2" s="136" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="145" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="145" t="s">
-        <v>496</v>
-      </c>
       <c r="F2" s="144" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="136" t="s">
         <v>539</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="H2" s="136" t="s">
         <v>540</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="I2" s="145" t="s">
         <v>541</v>
-      </c>
-      <c r="I2" s="145" t="s">
-        <v>542</v>
       </c>
       <c r="J2" s="144" t="s">
         <v>25</v>
@@ -3867,27 +3873,27 @@
         <v>240</v>
       </c>
       <c r="S2" s="196" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="T2" s="145" t="s">
         <v>244</v>
       </c>
       <c r="U2" s="144" t="s">
+        <v>505</v>
+      </c>
+      <c r="V2" s="145" t="s">
         <v>506</v>
       </c>
-      <c r="V2" s="145" t="s">
-        <v>507</v>
-      </c>
       <c r="W2" s="144" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="X2" s="145" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="146"/>
       <c r="C3" s="140"/>
@@ -3915,7 +3921,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="148" t="s">
         <v>9</v>
@@ -3989,7 +3995,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B5" s="146"/>
       <c r="C5" s="140"/>
@@ -4067,16 +4073,16 @@
         <v>241</v>
       </c>
       <c r="S6" s="200" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="T6" s="151" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U6" s="150" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V6" s="151" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W6" s="150">
         <v>44</v>
@@ -4098,10 +4104,10 @@
       <c r="D7" s="138"/>
       <c r="E7" s="151"/>
       <c r="F7" s="150" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H7" s="138" t="s">
         <v>21</v>
@@ -4137,7 +4143,7 @@
         <v>242</v>
       </c>
       <c r="S7" s="200" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="T7" s="151" t="s">
         <v>245</v>
@@ -4203,19 +4209,19 @@
         <v>243</v>
       </c>
       <c r="S8" s="200" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="T8" s="151" t="s">
         <v>39</v>
       </c>
       <c r="U8" s="150" t="s">
+        <v>509</v>
+      </c>
+      <c r="V8" s="151" t="s">
         <v>510</v>
       </c>
-      <c r="V8" s="151" t="s">
-        <v>511</v>
-      </c>
       <c r="W8" s="150" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="X8" s="151" t="s">
         <v>20</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B10" s="146"/>
       <c r="C10" s="140"/>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="143" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B11" s="150"/>
       <c r="C11" s="138"/>
@@ -4349,7 +4355,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12" s="150"/>
       <c r="C12" s="138"/>
@@ -4394,10 +4400,10 @@
         <v>22</v>
       </c>
       <c r="H13" s="138" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J13" s="150" t="s">
         <v>22</v>
@@ -4406,16 +4412,16 @@
         <v>41</v>
       </c>
       <c r="L13" s="138" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="138" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O13" s="138" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="P13" s="138" t="s">
         <v>67</v>
@@ -4433,10 +4439,10 @@
         <v>22</v>
       </c>
       <c r="U13" s="150" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V13" s="151" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W13" s="150" t="s">
         <v>22</v>
@@ -4447,142 +4453,142 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="143" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D14" s="138"/>
       <c r="E14" s="151"/>
       <c r="F14" s="150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I14" s="151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J14" s="150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K14" s="138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L14" s="138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N14" s="138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O14" s="138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R14" s="138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S14" s="200" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T14" s="151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U14" s="150" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V14" s="151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W14" s="150" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="X14" s="151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="143" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B15" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D15" s="138"/>
       <c r="E15" s="151"/>
       <c r="F15" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I15" s="151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J15" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K15" s="138" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L15" s="138" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N15" s="138" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O15" s="138" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R15" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S15" s="200" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T15" s="151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U15" s="150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V15" s="151" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W15" s="150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X15" s="151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -4643,7 +4649,7 @@
         <v>69</v>
       </c>
       <c r="U16" s="150" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="V16" s="151" t="s">
         <v>221</v>
@@ -4657,7 +4663,7 @@
     </row>
     <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="154" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B17" s="146"/>
       <c r="C17" s="140"/>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="143" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B18" s="150"/>
       <c r="C18" s="138"/>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20" s="150"/>
       <c r="C20" s="138"/>
@@ -4773,7 +4779,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="143" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B21" s="150"/>
       <c r="C21" s="194"/>
@@ -4793,7 +4799,7 @@
       <c r="Q21" s="194"/>
       <c r="R21" s="194"/>
       <c r="S21" s="201" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="T21" s="195"/>
       <c r="U21" s="150"/>
@@ -4803,7 +4809,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="143" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B22" s="150"/>
       <c r="C22" s="194"/>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="143" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B23" s="150"/>
       <c r="C23" s="194"/>
@@ -4865,7 +4871,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="134" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B24" s="146"/>
       <c r="C24" s="140"/>
@@ -4893,7 +4899,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="143" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B25" s="150"/>
       <c r="C25" s="138"/>
@@ -4921,7 +4927,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="143" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B26" s="150"/>
       <c r="C26" s="138"/>
@@ -4949,7 +4955,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="143" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B27" s="150"/>
       <c r="C27" s="138"/>
@@ -4977,7 +4983,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" s="150"/>
       <c r="C28" s="138"/>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="143" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B29" s="150"/>
       <c r="C29" s="138"/>
@@ -5049,10 +5055,10 @@
   <dimension ref="A1:GH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CD18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CL42" sqref="CL42"/>
+      <selection pane="bottomRight" activeCell="EH21" sqref="EH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5716,16 +5722,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>44</v>
@@ -5776,28 +5782,28 @@
         <v>174</v>
       </c>
       <c r="Z2" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB2" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC2" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD2" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="AA2" s="98" t="s">
+      <c r="AE2" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="AB2" s="98" t="s">
+      <c r="AF2" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="AC2" s="98" t="s">
+      <c r="AG2" s="98" t="s">
         <v>480</v>
-      </c>
-      <c r="AD2" s="98" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE2" s="98" t="s">
-        <v>481</v>
-      </c>
-      <c r="AF2" s="98" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG2" s="98" t="s">
-        <v>481</v>
       </c>
       <c r="AH2" s="98" t="s">
         <v>130</v>
@@ -5824,16 +5830,16 @@
         <v>15</v>
       </c>
       <c r="AP2" s="98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AQ2" s="98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AR2" s="98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AS2" s="98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AT2" s="98" t="s">
         <v>171</v>
@@ -5848,16 +5854,16 @@
         <v>171</v>
       </c>
       <c r="AX2" s="98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AY2" s="98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AZ2" s="98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BA2" s="98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BB2" s="98" t="s">
         <v>168</v>
@@ -5884,16 +5890,16 @@
         <v>169</v>
       </c>
       <c r="BJ2" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BK2" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BL2" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BM2" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BN2" s="98" t="s">
         <v>175</v>
@@ -5908,16 +5914,16 @@
         <v>175</v>
       </c>
       <c r="BR2" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BS2" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BT2" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BU2" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BV2" s="98" t="s">
         <v>166</v>
@@ -5956,16 +5962,16 @@
         <v>50</v>
       </c>
       <c r="CH2" s="98" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="CI2" s="98" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="CJ2" s="98" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="CK2" s="98" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="CL2" s="98" t="s">
         <v>51</v>
@@ -6028,16 +6034,16 @@
         <v>47</v>
       </c>
       <c r="DF2" s="98" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="DG2" s="98" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="DH2" s="98" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="DI2" s="98" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="DJ2" s="98" t="s">
         <v>48</v>
@@ -6052,28 +6058,28 @@
         <v>48</v>
       </c>
       <c r="DN2" s="98" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="DO2" s="98" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="DP2" s="98" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="DQ2" s="98" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="DR2" s="98" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="DS2" s="98" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="DT2" s="98" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="DU2" s="98" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="DV2" s="98" t="s">
         <v>193</v>
@@ -6100,16 +6106,16 @@
         <v>194</v>
       </c>
       <c r="ED2" s="98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="EE2" s="98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="EF2" s="98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="EG2" s="98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="EH2" s="98" t="s">
         <v>62</v>
@@ -6124,16 +6130,16 @@
         <v>62</v>
       </c>
       <c r="EL2" s="98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="EM2" s="98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="EN2" s="98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="EO2" s="98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="EP2" s="98" t="s">
         <v>49</v>
@@ -6148,40 +6154,40 @@
         <v>49</v>
       </c>
       <c r="ET2" s="98" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="EU2" s="98" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="EV2" s="98" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="EW2" s="98" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="EX2" s="98" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="EY2" s="98" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="EZ2" s="98" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="FA2" s="98" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="FB2" s="98" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="FC2" s="98" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="FD2" s="98" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="FE2" s="98" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="FF2" s="98" t="s">
         <v>112</v>
@@ -6196,16 +6202,16 @@
         <v>112</v>
       </c>
       <c r="FJ2" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="FK2" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="FL2" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="FM2" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="FN2" s="98" t="s">
         <v>14</v>
@@ -6232,16 +6238,16 @@
         <v>207</v>
       </c>
       <c r="FV2" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="FW2" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="FX2" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="FY2" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="FZ2" s="103" t="s">
         <v>208</v>
@@ -6268,7 +6274,7 @@
         <v>209</v>
       </c>
       <c r="GH2" s="98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:190" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6781,7 +6787,7 @@
       <c r="AY4" s="169"/>
       <c r="AZ4" s="169"/>
       <c r="BA4" s="169" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BB4" s="169" t="s">
         <v>17</v>
@@ -6801,7 +6807,7 @@
       <c r="BK4" s="169"/>
       <c r="BL4" s="169"/>
       <c r="BM4" s="169" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BN4" s="169" t="s">
         <v>17</v>
@@ -6815,7 +6821,7 @@
       <c r="BS4" s="169"/>
       <c r="BT4" s="169"/>
       <c r="BU4" s="169" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BV4" s="169" t="s">
         <v>17</v>
@@ -6992,12 +6998,12 @@
       <c r="GF4" s="180"/>
       <c r="GG4" s="180"/>
       <c r="GH4" s="179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -7020,25 +7026,25 @@
       <c r="T5" s="90"/>
       <c r="U5" s="90"/>
       <c r="V5" s="90" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W5" s="90"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="90"/>
       <c r="AD5" s="90" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AE5" s="90"/>
       <c r="AF5" s="90"/>
       <c r="AG5" s="90"/>
       <c r="AH5" s="90" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
@@ -7088,19 +7094,19 @@
       <c r="CB5" s="109"/>
       <c r="CC5" s="109"/>
       <c r="CD5" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="CE5" s="109"/>
       <c r="CF5" s="109"/>
       <c r="CG5" s="109"/>
       <c r="CH5" s="109" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="CI5" s="109"/>
       <c r="CJ5" s="109"/>
       <c r="CK5" s="109"/>
       <c r="CL5" s="109" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="CM5" s="109"/>
       <c r="CN5" s="109"/>
@@ -7110,31 +7116,31 @@
       <c r="CR5" s="109"/>
       <c r="CS5" s="109"/>
       <c r="CT5" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="CU5" s="109"/>
       <c r="CV5" s="109"/>
       <c r="CW5" s="109"/>
       <c r="CX5" s="109" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="CY5" s="109"/>
       <c r="CZ5" s="109"/>
       <c r="DA5" s="109"/>
       <c r="DB5" s="109" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="DC5" s="109"/>
       <c r="DD5" s="109"/>
       <c r="DE5" s="109"/>
       <c r="DF5" s="109" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="DG5" s="109"/>
       <c r="DH5" s="109"/>
       <c r="DI5" s="109"/>
       <c r="DJ5" s="109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="DK5" s="109"/>
       <c r="DL5" s="109"/>
@@ -7144,13 +7150,13 @@
       <c r="DP5" s="109"/>
       <c r="DQ5" s="109"/>
       <c r="DR5" s="109" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="DS5" s="109"/>
       <c r="DT5" s="109"/>
       <c r="DU5" s="109"/>
       <c r="DV5" s="109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="DW5" s="109"/>
       <c r="DX5" s="109"/>
@@ -7160,13 +7166,13 @@
       <c r="EB5" s="109"/>
       <c r="EC5" s="109"/>
       <c r="ED5" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="EE5" s="109"/>
       <c r="EF5" s="109"/>
       <c r="EG5" s="109"/>
       <c r="EH5" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="EI5" s="109"/>
       <c r="EJ5" s="109"/>
@@ -7176,13 +7182,13 @@
       <c r="EN5" s="109"/>
       <c r="EO5" s="109"/>
       <c r="EP5" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="EQ5" s="109"/>
       <c r="ER5" s="109"/>
       <c r="ES5" s="109"/>
       <c r="ET5" s="109" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="EU5" s="109"/>
       <c r="EV5" s="109"/>
@@ -7236,12 +7242,12 @@
       <c r="D6" s="104"/>
       <c r="E6" s="104"/>
       <c r="F6" s="104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G6" s="104"/>
       <c r="H6" s="104"/>
       <c r="I6" s="104" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J6" s="101" t="s">
         <v>218</v>
@@ -7308,7 +7314,7 @@
       <c r="BP6" s="169"/>
       <c r="BQ6" s="169"/>
       <c r="BR6" s="169" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BS6" s="169"/>
       <c r="BT6" s="169"/>
@@ -7324,7 +7330,7 @@
       <c r="CB6" s="109"/>
       <c r="CC6" s="109"/>
       <c r="CD6" s="109" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CE6" s="109"/>
       <c r="CF6" s="109"/>
@@ -7386,7 +7392,7 @@
       <c r="EJ6" s="109"/>
       <c r="EK6" s="109"/>
       <c r="EL6" s="109" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="EM6" s="109"/>
       <c r="EN6" s="109"/>
@@ -7439,7 +7445,7 @@
     </row>
     <row r="7" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
@@ -7498,13 +7504,13 @@
       <c r="BD7" s="169"/>
       <c r="BE7" s="169"/>
       <c r="BF7" s="169" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BG7" s="169"/>
       <c r="BH7" s="169"/>
       <c r="BI7" s="169"/>
       <c r="BJ7" s="169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BK7" s="169"/>
       <c r="BL7" s="169"/>
@@ -7514,7 +7520,7 @@
       <c r="BP7" s="169"/>
       <c r="BQ7" s="169"/>
       <c r="BR7" s="169" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BS7" s="169"/>
       <c r="BT7" s="169"/>
@@ -7639,7 +7645,7 @@
     </row>
     <row r="8" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="9" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -7862,25 +7868,25 @@
       <c r="T9" s="90"/>
       <c r="U9" s="90"/>
       <c r="V9" s="90" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="W9" s="90"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
       <c r="Z9" s="87" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AA9" s="90"/>
       <c r="AB9" s="90"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="87" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
       <c r="AG9" s="90"/>
       <c r="AH9" s="90" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AI9" s="90"/>
       <c r="AJ9" s="90"/>
@@ -8050,7 +8056,7 @@
       <c r="D10" s="104"/>
       <c r="E10" s="104"/>
       <c r="F10" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
@@ -8080,13 +8086,13 @@
       <c r="X10" s="90"/>
       <c r="Y10" s="90"/>
       <c r="Z10" s="90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA10" s="90"/>
       <c r="AB10" s="90"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
@@ -8104,7 +8110,7 @@
       <c r="AN10" s="178"/>
       <c r="AO10" s="178"/>
       <c r="AP10" s="164" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AQ10" s="164"/>
       <c r="AR10" s="164"/>
@@ -8116,7 +8122,7 @@
       <c r="AV10" s="164"/>
       <c r="AW10" s="164"/>
       <c r="AX10" s="169" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AY10" s="169"/>
       <c r="AZ10" s="169"/>
@@ -8146,7 +8152,7 @@
       <c r="BP10" s="169"/>
       <c r="BQ10" s="169"/>
       <c r="BR10" s="169" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BS10" s="169"/>
       <c r="BT10" s="169"/>
@@ -8158,25 +8164,25 @@
       <c r="BX10" s="169"/>
       <c r="BY10" s="169"/>
       <c r="BZ10" s="109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="CA10" s="109"/>
       <c r="CB10" s="109"/>
       <c r="CC10" s="109"/>
       <c r="CD10" s="109" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CE10" s="109"/>
       <c r="CF10" s="109"/>
       <c r="CG10" s="109"/>
       <c r="CH10" s="109" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="CI10" s="109"/>
       <c r="CJ10" s="109"/>
       <c r="CK10" s="109"/>
       <c r="CL10" s="109" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="CM10" s="109"/>
       <c r="CN10" s="109"/>
@@ -8194,7 +8200,7 @@
       <c r="CV10" s="109"/>
       <c r="CW10" s="109"/>
       <c r="CX10" s="109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="CY10" s="109"/>
       <c r="CZ10" s="109"/>
@@ -8206,7 +8212,7 @@
       <c r="DD10" s="109"/>
       <c r="DE10" s="109"/>
       <c r="DF10" s="109" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="DG10" s="109"/>
       <c r="DH10" s="109"/>
@@ -8218,17 +8224,17 @@
       <c r="DL10" s="109"/>
       <c r="DM10" s="109"/>
       <c r="DN10" s="109" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="DO10" s="109"/>
       <c r="DP10" s="109"/>
       <c r="DQ10" s="109"/>
       <c r="DR10" s="109" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="DS10" s="109"/>
       <c r="DT10" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU10" s="109"/>
       <c r="DV10" s="109" t="s">
@@ -8244,7 +8250,7 @@
       <c r="EB10" s="109"/>
       <c r="EC10" s="109"/>
       <c r="ED10" s="109" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="EE10" s="109"/>
       <c r="EF10" s="109"/>
@@ -8256,7 +8262,7 @@
       <c r="EJ10" s="109"/>
       <c r="EK10" s="109"/>
       <c r="EL10" s="109" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="EM10" s="109"/>
       <c r="EN10" s="109"/>
@@ -8268,21 +8274,21 @@
       <c r="ER10" s="109"/>
       <c r="ES10" s="109"/>
       <c r="ET10" s="109" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="EU10" s="109"/>
       <c r="EV10" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW10" s="109"/>
       <c r="EX10" s="109" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="EY10" s="109"/>
       <c r="EZ10" s="109"/>
       <c r="FA10" s="109"/>
       <c r="FB10" s="109" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="FC10" s="109"/>
       <c r="FD10" s="109"/>
@@ -8310,7 +8316,7 @@
       <c r="FT10" s="180"/>
       <c r="FU10" s="180"/>
       <c r="FV10" s="179" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="FW10" s="180"/>
       <c r="FX10" s="180"/>
@@ -8546,16 +8552,16 @@
       <c r="D12" s="104"/>
       <c r="E12" s="104"/>
       <c r="F12" s="104" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H12" s="104" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>582</v>
-      </c>
-      <c r="I12" s="104" t="s">
-        <v>583</v>
       </c>
       <c r="J12" s="101" t="s">
         <v>102</v>
@@ -8630,13 +8636,13 @@
       <c r="BX12" s="169"/>
       <c r="BY12" s="169"/>
       <c r="BZ12" s="109" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CA12" s="109"/>
       <c r="CB12" s="109"/>
       <c r="CC12" s="109"/>
       <c r="CD12" s="109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CE12" s="109"/>
       <c r="CF12" s="109"/>
@@ -9179,7 +9185,7 @@
     </row>
     <row r="14" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
@@ -9379,7 +9385,7 @@
     </row>
     <row r="15" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B15" s="112"/>
       <c r="C15" s="112"/>
@@ -9579,7 +9585,7 @@
     </row>
     <row r="16" spans="1:190" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B16" s="112"/>
       <c r="C16" s="112"/>
@@ -9658,7 +9664,7 @@
       <c r="BX16" s="169"/>
       <c r="BY16" s="169"/>
       <c r="BZ16" s="157" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CA16" s="113"/>
       <c r="CB16" s="113"/>
@@ -9724,7 +9730,7 @@
       <c r="EJ16" s="113"/>
       <c r="EK16" s="113"/>
       <c r="EL16" s="185" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="EM16" s="113"/>
       <c r="EN16" s="113"/>
@@ -9774,7 +9780,7 @@
       <c r="GF16" s="179"/>
       <c r="GG16" s="179"/>
       <c r="GH16" s="181" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10622,10 +10628,10 @@
       </c>
       <c r="DS19" s="109"/>
       <c r="DT19" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU19" s="109" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="DV19" s="109">
         <v>1</v>
@@ -10640,7 +10646,7 @@
       <c r="EB19" s="109"/>
       <c r="EC19" s="109"/>
       <c r="ED19" s="109">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="EE19" s="109"/>
       <c r="EF19" s="109"/>
@@ -10668,10 +10674,10 @@
       </c>
       <c r="EU19" s="109"/>
       <c r="EV19" s="109" t="s">
+        <v>684</v>
+      </c>
+      <c r="EW19" s="109" t="s">
         <v>687</v>
-      </c>
-      <c r="EW19" s="109" t="s">
-        <v>690</v>
       </c>
       <c r="EX19" s="109">
         <v>0.03</v>
@@ -10826,7 +10832,7 @@
       <c r="CJ20" s="109"/>
       <c r="CK20" s="109"/>
       <c r="CL20" s="109" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="CM20" s="109"/>
       <c r="CN20" s="109"/>
@@ -10850,13 +10856,13 @@
       <c r="CZ20" s="109"/>
       <c r="DA20" s="109"/>
       <c r="DB20" s="109" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="DC20" s="109"/>
       <c r="DD20" s="109"/>
       <c r="DE20" s="109"/>
       <c r="DF20" s="109" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="DG20" s="109"/>
       <c r="DH20" s="109"/>
@@ -10874,7 +10880,7 @@
       <c r="DP20" s="109"/>
       <c r="DQ20" s="109"/>
       <c r="DR20" s="109" t="s">
-        <v>705</v>
+        <v>283</v>
       </c>
       <c r="DS20" s="109"/>
       <c r="DT20" s="109"/>
@@ -10892,7 +10898,7 @@
       <c r="EB20" s="109"/>
       <c r="EC20" s="109"/>
       <c r="ED20" s="109" t="s">
-        <v>630</v>
+        <v>761</v>
       </c>
       <c r="EE20" s="109"/>
       <c r="EF20" s="109"/>
@@ -10916,7 +10922,7 @@
       <c r="ER20" s="109"/>
       <c r="ES20" s="109"/>
       <c r="ET20" s="109" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="EU20" s="109"/>
       <c r="EV20" s="109"/>
@@ -10928,7 +10934,7 @@
       <c r="EZ20" s="109"/>
       <c r="FA20" s="109"/>
       <c r="FB20" s="109" t="s">
-        <v>97</v>
+        <v>759</v>
       </c>
       <c r="FC20" s="109"/>
       <c r="FD20" s="109"/>
@@ -11056,7 +11062,7 @@
       <c r="BX21" s="169"/>
       <c r="BY21" s="169"/>
       <c r="BZ21" s="109" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CA21" s="109"/>
       <c r="CB21" s="109"/>
@@ -11068,13 +11074,13 @@
       <c r="CF21" s="109"/>
       <c r="CG21" s="109"/>
       <c r="CH21" s="109" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CI21" s="109"/>
       <c r="CJ21" s="109"/>
       <c r="CK21" s="109"/>
       <c r="CL21" s="109" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="CM21" s="109"/>
       <c r="CN21" s="109"/>
@@ -11104,7 +11110,7 @@
       <c r="DD21" s="109"/>
       <c r="DE21" s="109"/>
       <c r="DF21" s="109" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="DG21" s="109"/>
       <c r="DH21" s="109"/>
@@ -11122,14 +11128,14 @@
       <c r="DP21" s="109"/>
       <c r="DQ21" s="109"/>
       <c r="DR21" s="109" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="DS21" s="109"/>
       <c r="DT21" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="DU21" s="109" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DV21" s="109" t="s">
         <v>127</v>
@@ -11144,7 +11150,7 @@
       <c r="EB21" s="109"/>
       <c r="EC21" s="109"/>
       <c r="ED21" s="109" t="s">
-        <v>198</v>
+        <v>763</v>
       </c>
       <c r="EE21" s="109"/>
       <c r="EF21" s="109"/>
@@ -11168,23 +11174,23 @@
       <c r="ER21" s="109"/>
       <c r="ES21" s="109"/>
       <c r="ET21" s="109" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="EU21" s="109"/>
       <c r="EV21" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="EW21" s="109" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="EX21" s="109" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="EY21" s="109"/>
       <c r="EZ21" s="109"/>
       <c r="FA21" s="109"/>
       <c r="FB21" s="109" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FC21" s="109"/>
       <c r="FD21" s="109"/>
@@ -11246,14 +11252,14 @@
       <c r="T22" s="90"/>
       <c r="U22" s="90"/>
       <c r="V22" s="90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W22" s="90"/>
       <c r="X22" s="90" t="s">
         <v>294</v>
       </c>
       <c r="Y22" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z22" s="90"/>
       <c r="AA22" s="90"/>
@@ -11268,29 +11274,29 @@
       <c r="AJ22" s="90"/>
       <c r="AK22" s="90"/>
       <c r="AL22" s="164" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM22" s="178"/>
       <c r="AN22" s="178"/>
       <c r="AO22" s="178"/>
       <c r="AP22" s="164" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ22" s="164" t="s">
+        <v>601</v>
+      </c>
+      <c r="AR22" s="164" t="s">
         <v>602</v>
-      </c>
-      <c r="AQ22" s="164" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR22" s="164" t="s">
-        <v>603</v>
       </c>
       <c r="AS22" s="164"/>
       <c r="AT22" s="167" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU22" s="164" t="s">
+        <v>615</v>
+      </c>
+      <c r="AV22" s="164" t="s">
         <v>616</v>
-      </c>
-      <c r="AV22" s="164" t="s">
-        <v>617</v>
       </c>
       <c r="AW22" s="164"/>
       <c r="AX22" s="169"/>
@@ -11306,7 +11312,7 @@
       <c r="BH22" s="169"/>
       <c r="BI22" s="169"/>
       <c r="BJ22" s="169" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="BK22" s="169"/>
       <c r="BL22" s="169"/>
@@ -11324,7 +11330,7 @@
       <c r="BX22" s="169"/>
       <c r="BY22" s="169"/>
       <c r="BZ22" s="109" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="CA22" s="109"/>
       <c r="CB22" s="109"/>
@@ -11336,13 +11342,13 @@
       <c r="CF22" s="109"/>
       <c r="CG22" s="109"/>
       <c r="CH22" s="109" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="CI22" s="109"/>
       <c r="CJ22" s="109"/>
       <c r="CK22" s="109"/>
       <c r="CL22" s="109" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="CM22" s="109"/>
       <c r="CN22" s="109"/>
@@ -11366,13 +11372,13 @@
       <c r="CZ22" s="109"/>
       <c r="DA22" s="109"/>
       <c r="DB22" s="109" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="DC22" s="109"/>
       <c r="DD22" s="109"/>
       <c r="DE22" s="109"/>
       <c r="DF22" s="109" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="DG22" s="109"/>
       <c r="DH22" s="109"/>
@@ -11384,22 +11390,22 @@
       <c r="DL22" s="109"/>
       <c r="DM22" s="109"/>
       <c r="DN22" s="109" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="DO22" s="109"/>
       <c r="DP22" s="109" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="DQ22" s="109"/>
       <c r="DR22" s="109" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="DS22" s="109"/>
       <c r="DT22" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="DU22" s="109" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DV22" s="109" t="s">
         <v>200</v>
@@ -11414,7 +11420,7 @@
       <c r="EB22" s="109"/>
       <c r="EC22" s="109"/>
       <c r="ED22" s="109" t="s">
-        <v>201</v>
+        <v>762</v>
       </c>
       <c r="EE22" s="109"/>
       <c r="EF22" s="109"/>
@@ -11426,35 +11432,35 @@
       <c r="EJ22" s="109"/>
       <c r="EK22" s="109"/>
       <c r="EL22" s="109" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="EM22" s="109"/>
       <c r="EN22" s="109"/>
       <c r="EO22" s="109"/>
       <c r="EP22" s="109" t="s">
-        <v>310</v>
+        <v>765</v>
       </c>
       <c r="EQ22" s="109"/>
       <c r="ER22" s="109"/>
       <c r="ES22" s="109"/>
       <c r="ET22" s="109" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="EU22" s="109"/>
       <c r="EV22" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="EW22" s="109" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="EX22" s="109" t="s">
-        <v>277</v>
+        <v>758</v>
       </c>
       <c r="EY22" s="109"/>
       <c r="EZ22" s="109"/>
       <c r="FA22" s="109"/>
       <c r="FB22" s="109" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="FC22" s="109"/>
       <c r="FD22" s="109"/>
@@ -12027,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="CH24" s="109" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CI24" s="109"/>
       <c r="CJ24" s="109"/>
@@ -12139,14 +12145,14 @@
       <c r="DP24" s="109"/>
       <c r="DQ24" s="109"/>
       <c r="DR24" s="109" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="DS24" s="109"/>
       <c r="DT24" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="DU24" s="109" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DV24" s="109" t="str">
         <f t="shared" si="0"/>
@@ -12182,7 +12188,7 @@
       </c>
       <c r="ED24" s="109" t="str">
         <f t="shared" si="0"/>
-        <v>1.3 mL/min kg</v>
+        <v>14.4 mL/min kg</v>
       </c>
       <c r="EE24" s="109">
         <f t="shared" si="0"/>
@@ -12226,23 +12232,23 @@
       <c r="ER24" s="109"/>
       <c r="ES24" s="109"/>
       <c r="ET24" s="109" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="EU24" s="109"/>
       <c r="EV24" s="109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="EW24" s="109" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="EX24" s="109" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="EY24" s="109"/>
       <c r="EZ24" s="109"/>
       <c r="FA24" s="109"/>
       <c r="FB24" s="109" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="FC24" s="109"/>
       <c r="FD24" s="109"/>
@@ -13237,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="169" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BD28" s="169" t="s">
         <v>294</v>
@@ -13277,10 +13283,10 @@
         <v>1E-3</v>
       </c>
       <c r="BW28" s="169" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BX28" s="169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BY28" s="169">
         <v>78</v>
@@ -13493,7 +13499,7 @@
         <v>276</v>
       </c>
       <c r="BG29" s="169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BH29" s="169" t="s">
         <v>294</v>
@@ -13510,10 +13516,10 @@
       <c r="BL29" s="169"/>
       <c r="BM29" s="169"/>
       <c r="BN29" s="169" t="s">
+        <v>321</v>
+      </c>
+      <c r="BO29" s="169" t="s">
         <v>322</v>
-      </c>
-      <c r="BO29" s="169" t="s">
-        <v>323</v>
       </c>
       <c r="BP29" s="169" t="s">
         <v>294</v>
@@ -13618,7 +13624,7 @@
       <c r="FD29" s="109"/>
       <c r="FE29" s="109"/>
       <c r="FF29" s="179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="FG29" s="179"/>
       <c r="FH29" s="179"/>
@@ -14204,7 +14210,7 @@
       <c r="DD31" s="109"/>
       <c r="DE31" s="109"/>
       <c r="DF31" s="109" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="DG31" s="109"/>
       <c r="DH31" s="109"/>
@@ -14220,10 +14226,12 @@
       </c>
       <c r="DO31" s="109"/>
       <c r="DP31" s="109" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="DQ31" s="109"/>
-      <c r="DR31" s="109"/>
+      <c r="DR31" s="109">
+        <v>4.21</v>
+      </c>
       <c r="DS31" s="109"/>
       <c r="DT31" s="109"/>
       <c r="DU31" s="109"/>
@@ -14261,7 +14269,9 @@
       <c r="EQ31" s="109"/>
       <c r="ER31" s="109"/>
       <c r="ES31" s="109"/>
-      <c r="ET31" s="109"/>
+      <c r="ET31" s="109">
+        <v>2.1</v>
+      </c>
       <c r="EU31" s="109"/>
       <c r="EV31" s="109"/>
       <c r="EW31" s="109"/>
@@ -14448,10 +14458,12 @@
       </c>
       <c r="DO32" s="109"/>
       <c r="DP32" s="109" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="DQ32" s="109"/>
-      <c r="DR32" s="109"/>
+      <c r="DR32" s="109" t="s">
+        <v>112</v>
+      </c>
       <c r="DS32" s="109"/>
       <c r="DT32" s="109"/>
       <c r="DU32" s="109"/>
@@ -14489,12 +14501,14 @@
       <c r="EQ32" s="109"/>
       <c r="ER32" s="109"/>
       <c r="ES32" s="109"/>
-      <c r="ET32" s="109"/>
+      <c r="ET32" s="109" t="s">
+        <v>112</v>
+      </c>
       <c r="EU32" s="109"/>
       <c r="EV32" s="109"/>
       <c r="EW32" s="109"/>
       <c r="EX32" s="109" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="EY32" s="109"/>
       <c r="EZ32" s="109"/>
@@ -14676,10 +14690,12 @@
       </c>
       <c r="DO33" s="109"/>
       <c r="DP33" s="109" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="DQ33" s="109"/>
-      <c r="DR33" s="109"/>
+      <c r="DR33" s="109">
+        <v>0.4</v>
+      </c>
       <c r="DS33" s="109"/>
       <c r="DT33" s="109"/>
       <c r="DU33" s="109"/>
@@ -14717,12 +14733,14 @@
       <c r="EQ33" s="109"/>
       <c r="ER33" s="109"/>
       <c r="ES33" s="109"/>
-      <c r="ET33" s="109"/>
+      <c r="ET33" s="109">
+        <v>0.5</v>
+      </c>
       <c r="EU33" s="109"/>
       <c r="EV33" s="109"/>
       <c r="EW33" s="109"/>
       <c r="EX33" s="109">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="EY33" s="109"/>
       <c r="EZ33" s="109"/>
@@ -14971,10 +14989,12 @@
       </c>
       <c r="DO34" s="109"/>
       <c r="DP34" s="109" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="DQ34" s="109"/>
-      <c r="DR34" s="109"/>
+      <c r="DR34" s="109">
+        <v>0.75</v>
+      </c>
       <c r="DS34" s="109"/>
       <c r="DT34" s="109"/>
       <c r="DU34" s="109"/>
@@ -15012,7 +15032,7 @@
       </c>
       <c r="ED34" s="109">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="EE34" s="109">
         <f t="shared" si="3"/>
@@ -15052,7 +15072,9 @@
       <c r="EQ34" s="109"/>
       <c r="ER34" s="109"/>
       <c r="ES34" s="109"/>
-      <c r="ET34" s="109"/>
+      <c r="ET34" s="109">
+        <v>0.78500000000000003</v>
+      </c>
       <c r="EU34" s="109"/>
       <c r="EV34" s="109"/>
       <c r="EW34" s="109"/>
@@ -15223,7 +15245,7 @@
       <c r="DD35" s="109"/>
       <c r="DE35" s="109"/>
       <c r="DF35" s="109" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="DG35" s="109"/>
       <c r="DH35" s="109"/>
@@ -15240,7 +15262,9 @@
       <c r="DO35" s="109"/>
       <c r="DP35" s="109"/>
       <c r="DQ35" s="109"/>
-      <c r="DR35" s="109"/>
+      <c r="DR35" s="109" t="s">
+        <v>124</v>
+      </c>
       <c r="DS35" s="109"/>
       <c r="DT35" s="109"/>
       <c r="DU35" s="109"/>
@@ -15278,12 +15302,14 @@
       <c r="EQ35" s="109"/>
       <c r="ER35" s="109"/>
       <c r="ES35" s="109"/>
-      <c r="ET35" s="109"/>
+      <c r="ET35" s="109" t="s">
+        <v>124</v>
+      </c>
       <c r="EU35" s="109"/>
       <c r="EV35" s="109"/>
       <c r="EW35" s="109"/>
       <c r="EX35" s="109" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="EY35" s="109"/>
       <c r="EZ35" s="109"/>
@@ -15465,10 +15491,12 @@
       </c>
       <c r="DO36" s="109"/>
       <c r="DP36" s="109" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="DQ36" s="109"/>
-      <c r="DR36" s="109"/>
+      <c r="DR36" s="109">
+        <v>0.3</v>
+      </c>
       <c r="DS36" s="109"/>
       <c r="DT36" s="109"/>
       <c r="DU36" s="109"/>
@@ -15506,7 +15534,9 @@
       <c r="EQ36" s="109"/>
       <c r="ER36" s="109"/>
       <c r="ES36" s="109"/>
-      <c r="ET36" s="109"/>
+      <c r="ET36" s="109">
+        <v>-2</v>
+      </c>
       <c r="EU36" s="109"/>
       <c r="EV36" s="109"/>
       <c r="EW36" s="109"/>
@@ -15554,7 +15584,7 @@
     </row>
     <row r="37" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="101"/>
@@ -15694,7 +15724,9 @@
       <c r="DO37" s="109"/>
       <c r="DP37" s="109"/>
       <c r="DQ37" s="109"/>
-      <c r="DR37" s="109"/>
+      <c r="DR37" s="109">
+        <v>11</v>
+      </c>
       <c r="DS37" s="109"/>
       <c r="DT37" s="109"/>
       <c r="DU37" s="109"/>
@@ -15732,7 +15764,9 @@
       <c r="EQ37" s="109"/>
       <c r="ER37" s="109"/>
       <c r="ES37" s="109"/>
-      <c r="ET37" s="109"/>
+      <c r="ET37" s="109">
+        <v>8</v>
+      </c>
       <c r="EU37" s="109"/>
       <c r="EV37" s="109"/>
       <c r="EW37" s="109"/>
@@ -15780,7 +15814,7 @@
     </row>
     <row r="38" spans="1:190" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
@@ -15920,7 +15954,9 @@
       <c r="DO38" s="109"/>
       <c r="DP38" s="109"/>
       <c r="DQ38" s="109"/>
-      <c r="DR38" s="109"/>
+      <c r="DR38" s="109">
+        <v>182</v>
+      </c>
       <c r="DS38" s="109"/>
       <c r="DT38" s="109"/>
       <c r="DU38" s="109"/>
@@ -15958,7 +15994,9 @@
       <c r="EQ38" s="109"/>
       <c r="ER38" s="109"/>
       <c r="ES38" s="109"/>
-      <c r="ET38" s="109"/>
+      <c r="ET38" s="109">
+        <v>3</v>
+      </c>
       <c r="EU38" s="109"/>
       <c r="EV38" s="109"/>
       <c r="EW38" s="109"/>
@@ -16482,7 +16520,7 @@
         <v>294</v>
       </c>
       <c r="AO40" s="164" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AP40" s="164"/>
       <c r="AQ40" s="164"/>
@@ -16951,7 +16989,7 @@
       <c r="AJ42" s="91"/>
       <c r="AK42" s="91"/>
       <c r="AL42" s="164" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM42" s="164"/>
       <c r="AN42" s="164"/>
@@ -16993,115 +17031,115 @@
       <c r="BX42" s="169"/>
       <c r="BY42" s="169"/>
       <c r="BZ42" s="113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CA42" s="113"/>
       <c r="CB42" s="113"/>
       <c r="CC42" s="113"/>
       <c r="CD42" s="113" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CE42" s="113"/>
       <c r="CF42" s="113"/>
       <c r="CG42" s="113"/>
       <c r="CH42" s="113" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="CI42" s="113"/>
       <c r="CJ42" s="113"/>
       <c r="CK42" s="113"/>
       <c r="CL42" s="113" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="CM42" s="113"/>
       <c r="CN42" s="113"/>
       <c r="CO42" s="113"/>
       <c r="CP42" s="113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CQ42" s="113"/>
       <c r="CR42" s="113"/>
       <c r="CS42" s="113"/>
       <c r="CT42" s="113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="CU42" s="113"/>
       <c r="CV42" s="113"/>
       <c r="CW42" s="113"/>
       <c r="CX42" s="113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CY42" s="113"/>
       <c r="CZ42" s="113"/>
       <c r="DA42" s="113"/>
       <c r="DB42" s="113" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="DC42" s="113"/>
       <c r="DD42" s="113"/>
       <c r="DE42" s="113"/>
       <c r="DF42" s="113" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="DG42" s="113"/>
       <c r="DH42" s="113"/>
       <c r="DI42" s="113"/>
       <c r="DJ42" s="113" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="DK42" s="113"/>
       <c r="DL42" s="113"/>
       <c r="DM42" s="113"/>
       <c r="DN42" s="113" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="DO42" s="113"/>
       <c r="DP42" s="113"/>
       <c r="DQ42" s="113" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="DR42" s="113" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="DS42" s="113"/>
       <c r="DT42" s="113" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="DU42" s="113" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="DV42" s="113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="DW42" s="113"/>
       <c r="DX42" s="113"/>
       <c r="DY42" s="113"/>
       <c r="DZ42" s="113" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="EA42" s="113"/>
       <c r="EB42" s="113"/>
       <c r="EC42" s="113"/>
       <c r="ED42" s="113" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="EE42" s="113"/>
       <c r="EF42" s="113"/>
       <c r="EG42" s="113"/>
       <c r="EH42" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="EI42" s="113"/>
       <c r="EJ42" s="113"/>
       <c r="EK42" s="113"/>
       <c r="EL42" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="EM42" s="113"/>
       <c r="EN42" s="113"/>
       <c r="EO42" s="113"/>
       <c r="EP42" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="EQ42" s="113"/>
       <c r="ER42" s="113"/>
@@ -17111,13 +17149,13 @@
       <c r="EV42" s="113"/>
       <c r="EW42" s="113"/>
       <c r="EX42" s="113" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="EY42" s="113"/>
       <c r="EZ42" s="113"/>
       <c r="FA42" s="113"/>
       <c r="FB42" s="113" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="FC42" s="113"/>
       <c r="FD42" s="113"/>
@@ -17154,7 +17192,7 @@
     </row>
     <row r="43" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B43" s="112"/>
       <c r="C43" s="112"/>
@@ -17626,7 +17664,7 @@
     </row>
     <row r="45" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="112"/>
@@ -18098,7 +18136,7 @@
     </row>
     <row r="47" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B47" s="112"/>
       <c r="C47" s="112"/>
@@ -18109,10 +18147,10 @@
       </c>
       <c r="G47" s="112"/>
       <c r="H47" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="I47" s="112" t="s">
         <v>564</v>
-      </c>
-      <c r="I47" s="112" t="s">
-        <v>565</v>
       </c>
       <c r="J47" s="112"/>
       <c r="K47" s="112"/>
@@ -18189,10 +18227,10 @@
       </c>
       <c r="CA47" s="113"/>
       <c r="CB47" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="CC47" s="113" t="s">
         <v>575</v>
-      </c>
-      <c r="CC47" s="113" t="s">
-        <v>576</v>
       </c>
       <c r="CD47" s="113">
         <v>0</v>
@@ -18211,7 +18249,7 @@
       </c>
       <c r="CM47" s="113"/>
       <c r="CN47" s="113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="CO47" s="113"/>
       <c r="CP47" s="113">
@@ -18225,24 +18263,24 @@
       </c>
       <c r="CU47" s="113"/>
       <c r="CV47" s="113" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="CW47" s="113"/>
       <c r="CX47" s="113">
         <v>-0.5</v>
       </c>
       <c r="CY47" s="113" t="s">
+        <v>566</v>
+      </c>
+      <c r="CZ47" s="113" t="s">
         <v>567</v>
-      </c>
-      <c r="CZ47" s="113" t="s">
-        <v>568</v>
       </c>
       <c r="DA47" s="113"/>
       <c r="DB47" s="113">
         <v>0</v>
       </c>
       <c r="DC47" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DD47" s="113"/>
       <c r="DE47" s="113"/>
@@ -18257,10 +18295,10 @@
       </c>
       <c r="DK47" s="113"/>
       <c r="DL47" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="DM47" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="DM47" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="DN47" s="113">
         <v>0</v>
@@ -18291,7 +18329,7 @@
       </c>
       <c r="EE47" s="113"/>
       <c r="EF47" s="113" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="EG47" s="113"/>
       <c r="EH47" s="113">
@@ -18299,7 +18337,7 @@
       </c>
       <c r="EI47" s="113"/>
       <c r="EJ47" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="EK47" s="113"/>
       <c r="EL47" s="113">
@@ -18313,7 +18351,7 @@
       </c>
       <c r="EQ47" s="113"/>
       <c r="ER47" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="ES47" s="113"/>
       <c r="ET47" s="113"/>
@@ -18364,7 +18402,7 @@
     </row>
     <row r="48" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B48" s="112"/>
       <c r="C48" s="112"/>
@@ -18375,10 +18413,10 @@
       </c>
       <c r="G48" s="112"/>
       <c r="H48" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="I48" s="112" t="s">
         <v>564</v>
-      </c>
-      <c r="I48" s="112" t="s">
-        <v>565</v>
       </c>
       <c r="J48" s="112"/>
       <c r="K48" s="112"/>
@@ -18413,7 +18451,7 @@
       </c>
       <c r="AM48" s="164"/>
       <c r="AN48" s="164" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO48" s="164"/>
       <c r="AP48" s="164"/>
@@ -18457,10 +18495,10 @@
       </c>
       <c r="CA48" s="113"/>
       <c r="CB48" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="CC48" s="113" t="s">
         <v>575</v>
-      </c>
-      <c r="CC48" s="113" t="s">
-        <v>576</v>
       </c>
       <c r="CD48" s="113">
         <v>0</v>
@@ -18479,7 +18517,7 @@
       </c>
       <c r="CM48" s="113"/>
       <c r="CN48" s="113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="CO48" s="113"/>
       <c r="CP48" s="113">
@@ -18493,7 +18531,7 @@
       </c>
       <c r="CU48" s="113"/>
       <c r="CV48" s="113" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="CW48" s="113"/>
       <c r="CX48" s="113">
@@ -18506,7 +18544,7 @@
         <v>-0.25</v>
       </c>
       <c r="DC48" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="DD48" s="113"/>
       <c r="DE48" s="113"/>
@@ -18521,10 +18559,10 @@
       </c>
       <c r="DK48" s="113"/>
       <c r="DL48" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="DM48" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="DM48" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="DN48" s="113">
         <v>0</v>
@@ -19566,7 +19604,7 @@
     </row>
     <row r="53" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B53" s="112"/>
       <c r="C53" s="112"/>
@@ -19802,7 +19840,7 @@
     </row>
     <row r="54" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B54" s="112"/>
       <c r="C54" s="112"/>
@@ -20098,7 +20136,7 @@
     </row>
     <row r="55" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="159" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
@@ -20137,7 +20175,7 @@
       <c r="AJ55" s="94"/>
       <c r="AK55" s="94"/>
       <c r="AL55" s="167" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AM55" s="164"/>
       <c r="AN55" s="164"/>
@@ -20179,109 +20217,109 @@
       <c r="BX55" s="168"/>
       <c r="BY55" s="168"/>
       <c r="BZ55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CA55" s="113"/>
       <c r="CB55" s="113"/>
       <c r="CC55" s="113"/>
       <c r="CD55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CE55" s="113"/>
       <c r="CF55" s="113"/>
       <c r="CG55" s="113"/>
       <c r="CH55" s="113" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="CI55" s="113"/>
       <c r="CJ55" s="113"/>
       <c r="CK55" s="113"/>
       <c r="CL55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CM55" s="113"/>
       <c r="CN55" s="113"/>
       <c r="CO55" s="113"/>
       <c r="CP55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CQ55" s="113"/>
       <c r="CR55" s="113"/>
       <c r="CS55" s="113"/>
       <c r="CT55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CU55" s="113"/>
       <c r="CV55" s="113"/>
       <c r="CW55" s="113"/>
       <c r="CX55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="CY55" s="113"/>
       <c r="CZ55" s="113"/>
       <c r="DA55" s="113"/>
       <c r="DB55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="DC55" s="113"/>
       <c r="DD55" s="113"/>
       <c r="DE55" s="113"/>
       <c r="DF55" s="113" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="DG55" s="113"/>
       <c r="DH55" s="113"/>
       <c r="DI55" s="113"/>
       <c r="DJ55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="DK55" s="113"/>
       <c r="DL55" s="113"/>
       <c r="DM55" s="113"/>
       <c r="DN55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="DO55" s="113"/>
       <c r="DP55" s="113"/>
       <c r="DQ55" s="113"/>
       <c r="DR55" s="113" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="DS55" s="113"/>
       <c r="DT55" s="113"/>
       <c r="DU55" s="113"/>
       <c r="DV55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="DW55" s="113"/>
       <c r="DX55" s="113"/>
       <c r="DY55" s="113"/>
       <c r="DZ55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EA55" s="113"/>
       <c r="EB55" s="113"/>
       <c r="EC55" s="113"/>
       <c r="ED55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EE55" s="113"/>
       <c r="EF55" s="113"/>
       <c r="EG55" s="113"/>
       <c r="EH55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EI55" s="113"/>
       <c r="EJ55" s="113"/>
       <c r="EK55" s="113"/>
       <c r="EL55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EM55" s="113"/>
       <c r="EN55" s="113"/>
       <c r="EO55" s="113"/>
       <c r="EP55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EQ55" s="187"/>
       <c r="ER55" s="187"/>
@@ -20291,13 +20329,13 @@
       <c r="EV55" s="187"/>
       <c r="EW55" s="187"/>
       <c r="EX55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="EY55" s="187"/>
       <c r="EZ55" s="187"/>
       <c r="FA55" s="187"/>
       <c r="FB55" s="113" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="FC55" s="187"/>
       <c r="FD55" s="187"/>
@@ -20334,7 +20372,7 @@
     </row>
     <row r="56" spans="1:190" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="159" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B56" s="102"/>
       <c r="C56" s="102"/>
@@ -20373,7 +20411,7 @@
       <c r="AJ56" s="92"/>
       <c r="AK56" s="90"/>
       <c r="AL56" s="167" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM56" s="164"/>
       <c r="AN56" s="164"/>
@@ -20415,109 +20453,109 @@
       <c r="BX56" s="169"/>
       <c r="BY56" s="169"/>
       <c r="BZ56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CA56" s="113"/>
       <c r="CB56" s="113"/>
       <c r="CC56" s="113"/>
       <c r="CD56" s="113" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="CE56" s="113"/>
       <c r="CF56" s="113"/>
       <c r="CG56" s="113"/>
       <c r="CH56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CI56" s="113"/>
       <c r="CJ56" s="113"/>
       <c r="CK56" s="113"/>
       <c r="CL56" s="113" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="CM56" s="113"/>
       <c r="CN56" s="113"/>
       <c r="CO56" s="113"/>
       <c r="CP56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CQ56" s="113"/>
       <c r="CR56" s="113"/>
       <c r="CS56" s="113"/>
       <c r="CT56" s="113" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="CU56" s="113"/>
       <c r="CV56" s="113"/>
       <c r="CW56" s="113"/>
       <c r="CX56" s="113" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="CY56" s="113"/>
       <c r="CZ56" s="113"/>
       <c r="DA56" s="113"/>
       <c r="DB56" s="113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="DC56" s="113"/>
       <c r="DD56" s="113"/>
       <c r="DE56" s="113"/>
       <c r="DF56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="DG56" s="113"/>
       <c r="DH56" s="113"/>
       <c r="DI56" s="113"/>
       <c r="DJ56" s="113" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="DK56" s="113"/>
       <c r="DL56" s="113"/>
       <c r="DM56" s="113"/>
       <c r="DN56" s="187" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="DO56" s="113"/>
       <c r="DP56" s="113"/>
       <c r="DQ56" s="113"/>
       <c r="DR56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="DS56" s="113"/>
       <c r="DT56" s="113"/>
       <c r="DU56" s="113"/>
       <c r="DV56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="DW56" s="113"/>
       <c r="DX56" s="113"/>
       <c r="DY56" s="113"/>
       <c r="DZ56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="EA56" s="113"/>
       <c r="EB56" s="113"/>
       <c r="EC56" s="113"/>
       <c r="ED56" s="113" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="EE56" s="113"/>
       <c r="EF56" s="113"/>
       <c r="EG56" s="113"/>
       <c r="EH56" s="113" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="EI56" s="113"/>
       <c r="EJ56" s="113"/>
       <c r="EK56" s="113"/>
       <c r="EL56" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="EM56" s="113"/>
       <c r="EN56" s="113"/>
       <c r="EO56" s="113"/>
       <c r="EP56" s="113" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="EQ56" s="187"/>
       <c r="ER56" s="187"/>
@@ -20527,13 +20565,13 @@
       <c r="EV56" s="187"/>
       <c r="EW56" s="187"/>
       <c r="EX56" s="212" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="EY56" s="187"/>
       <c r="EZ56" s="187"/>
       <c r="FA56" s="187"/>
       <c r="FB56" s="187" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="FC56" s="187"/>
       <c r="FD56" s="187"/>
@@ -20570,7 +20608,7 @@
     </row>
     <row r="57" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="158" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B57" s="202"/>
       <c r="C57" s="203" t="s">
@@ -21126,12 +21164,10 @@
       <c r="DO58" s="111"/>
       <c r="DP58" s="111"/>
       <c r="DQ58" s="111"/>
-      <c r="DR58" s="111">
-        <v>0.23</v>
-      </c>
+      <c r="DR58" s="111"/>
       <c r="DS58" s="111"/>
       <c r="DT58" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU58" s="111"/>
       <c r="DV58" s="70"/>
@@ -21160,12 +21196,10 @@
       <c r="EQ58" s="111"/>
       <c r="ER58" s="111"/>
       <c r="ES58" s="111"/>
-      <c r="ET58" s="111">
-        <v>0.22</v>
-      </c>
+      <c r="ET58" s="111"/>
       <c r="EU58" s="111"/>
       <c r="EV58" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW58" s="111"/>
       <c r="EX58" s="111"/>
@@ -21208,7 +21242,7 @@
     </row>
     <row r="59" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B59" s="57"/>
       <c r="C59" s="105" t="s">
@@ -21764,15 +21798,13 @@
       <c r="DO60" s="111"/>
       <c r="DP60" s="111"/>
       <c r="DQ60" s="111"/>
-      <c r="DR60" s="111">
-        <v>5.0999999999999997E-2</v>
-      </c>
+      <c r="DR60" s="111"/>
       <c r="DS60" s="111"/>
       <c r="DT60" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU60" s="111" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="DV60" s="70"/>
       <c r="DW60" s="111"/>
@@ -21800,15 +21832,13 @@
       <c r="EQ60" s="111"/>
       <c r="ER60" s="111"/>
       <c r="ES60" s="111"/>
-      <c r="ET60" s="111">
-        <v>0.17</v>
-      </c>
+      <c r="ET60" s="111"/>
       <c r="EU60" s="111"/>
       <c r="EV60" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW60" s="111" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="EX60" s="111"/>
       <c r="EY60" s="111"/>
@@ -21850,7 +21880,7 @@
     </row>
     <row r="61" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B61" s="57"/>
       <c r="C61" s="105" t="s">
@@ -22406,12 +22436,10 @@
       <c r="DO62" s="111"/>
       <c r="DP62" s="111"/>
       <c r="DQ62" s="111"/>
-      <c r="DR62" s="111">
-        <v>0.115</v>
-      </c>
+      <c r="DR62" s="111"/>
       <c r="DS62" s="111"/>
       <c r="DT62" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU62" s="111"/>
       <c r="DV62" s="70"/>
@@ -22440,12 +22468,10 @@
       <c r="EQ62" s="111"/>
       <c r="ER62" s="111"/>
       <c r="ES62" s="111"/>
-      <c r="ET62" s="111">
-        <v>0.128</v>
-      </c>
+      <c r="ET62" s="111"/>
       <c r="EU62" s="111"/>
       <c r="EV62" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW62" s="111"/>
       <c r="EX62" s="111"/>
@@ -22488,7 +22514,7 @@
     </row>
     <row r="63" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B63" s="57"/>
       <c r="C63" s="105" t="s">
@@ -23044,15 +23070,13 @@
       <c r="DO64" s="111"/>
       <c r="DP64" s="111"/>
       <c r="DQ64" s="111"/>
-      <c r="DR64" s="111">
-        <v>0.58799999999999997</v>
-      </c>
+      <c r="DR64" s="111"/>
       <c r="DS64" s="111"/>
       <c r="DT64" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU64" s="111" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="DV64" s="70"/>
       <c r="DW64" s="111"/>
@@ -23080,15 +23104,13 @@
       <c r="EQ64" s="111"/>
       <c r="ER64" s="111"/>
       <c r="ES64" s="111"/>
-      <c r="ET64" s="111">
-        <v>1.6</v>
-      </c>
+      <c r="ET64" s="111"/>
       <c r="EU64" s="111"/>
       <c r="EV64" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW64" s="111" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="EX64" s="111"/>
       <c r="EY64" s="111"/>
@@ -23130,7 +23152,7 @@
     </row>
     <row r="65" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B65" s="57"/>
       <c r="C65" s="105" t="s">
@@ -23686,15 +23708,13 @@
       <c r="DO66" s="111"/>
       <c r="DP66" s="111"/>
       <c r="DQ66" s="111"/>
-      <c r="DR66" s="111">
-        <v>0.58799999999999997</v>
-      </c>
+      <c r="DR66" s="111"/>
       <c r="DS66" s="111"/>
       <c r="DT66" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU66" s="111" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="DV66" s="70"/>
       <c r="DW66" s="111"/>
@@ -23722,15 +23742,13 @@
       <c r="EQ66" s="111"/>
       <c r="ER66" s="111"/>
       <c r="ES66" s="111"/>
-      <c r="ET66" s="111">
-        <v>1.6</v>
-      </c>
+      <c r="ET66" s="111"/>
       <c r="EU66" s="111"/>
       <c r="EV66" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW66" s="111" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="EX66" s="111"/>
       <c r="EY66" s="111"/>
@@ -23772,7 +23790,7 @@
     </row>
     <row r="67" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B67" s="57"/>
       <c r="C67" s="105" t="s">
@@ -24328,12 +24346,10 @@
       <c r="DO68" s="111"/>
       <c r="DP68" s="111"/>
       <c r="DQ68" s="111"/>
-      <c r="DR68" s="111">
-        <v>0.92</v>
-      </c>
+      <c r="DR68" s="111"/>
       <c r="DS68" s="111"/>
       <c r="DT68" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU68" s="111"/>
       <c r="DV68" s="70"/>
@@ -24362,15 +24378,13 @@
       <c r="EQ68" s="111"/>
       <c r="ER68" s="111"/>
       <c r="ES68" s="111"/>
-      <c r="ET68" s="111">
-        <v>0.92</v>
-      </c>
+      <c r="ET68" s="111"/>
       <c r="EU68" s="111"/>
       <c r="EV68" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW68" s="111" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="EX68" s="111"/>
       <c r="EY68" s="111"/>
@@ -24412,7 +24426,7 @@
     </row>
     <row r="69" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="105" t="s">
@@ -24968,15 +24982,13 @@
       <c r="DO70" s="111"/>
       <c r="DP70" s="111"/>
       <c r="DQ70" s="111"/>
-      <c r="DR70" s="111">
-        <v>0.58799999999999997</v>
-      </c>
+      <c r="DR70" s="111"/>
       <c r="DS70" s="111"/>
       <c r="DT70" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU70" s="111" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="DV70" s="70"/>
       <c r="DW70" s="111"/>
@@ -25004,15 +25016,13 @@
       <c r="EQ70" s="111"/>
       <c r="ER70" s="111"/>
       <c r="ES70" s="111"/>
-      <c r="ET70" s="111">
-        <v>1.6</v>
-      </c>
+      <c r="ET70" s="111"/>
       <c r="EU70" s="111"/>
       <c r="EV70" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW70" s="111" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="EX70" s="111"/>
       <c r="EY70" s="111"/>
@@ -25054,7 +25064,7 @@
     </row>
     <row r="71" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B71" s="57"/>
       <c r="C71" s="105" t="s">
@@ -25610,12 +25620,10 @@
       <c r="DO72" s="111"/>
       <c r="DP72" s="111"/>
       <c r="DQ72" s="111"/>
-      <c r="DR72" s="111">
-        <v>0.28799999999999998</v>
-      </c>
+      <c r="DR72" s="111"/>
       <c r="DS72" s="111"/>
       <c r="DT72" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU72" s="111"/>
       <c r="DV72" s="70"/>
@@ -25644,12 +25652,10 @@
       <c r="EQ72" s="111"/>
       <c r="ER72" s="111"/>
       <c r="ES72" s="111"/>
-      <c r="ET72" s="111">
-        <v>0.29499999999999998</v>
-      </c>
+      <c r="ET72" s="111"/>
       <c r="EU72" s="111"/>
       <c r="EV72" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW72" s="111"/>
       <c r="EX72" s="111"/>
@@ -25692,7 +25698,7 @@
     </row>
     <row r="73" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B73" s="57"/>
       <c r="C73" s="105" t="s">
@@ -26248,15 +26254,13 @@
       <c r="DO74" s="111"/>
       <c r="DP74" s="111"/>
       <c r="DQ74" s="111"/>
-      <c r="DR74" s="111">
-        <v>0.28799999999999998</v>
-      </c>
+      <c r="DR74" s="111"/>
       <c r="DS74" s="111"/>
       <c r="DT74" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU74" s="111" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="DV74" s="70"/>
       <c r="DW74" s="111"/>
@@ -26284,15 +26288,13 @@
       <c r="EQ74" s="111"/>
       <c r="ER74" s="111"/>
       <c r="ES74" s="111"/>
-      <c r="ET74" s="111">
-        <v>0.29499999999999998</v>
-      </c>
+      <c r="ET74" s="111"/>
       <c r="EU74" s="111"/>
       <c r="EV74" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW74" s="111" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="EX74" s="111"/>
       <c r="EY74" s="111"/>
@@ -26334,7 +26336,7 @@
     </row>
     <row r="75" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B75" s="57"/>
       <c r="C75" s="105" t="s">
@@ -26890,15 +26892,13 @@
       <c r="DO76" s="111"/>
       <c r="DP76" s="111"/>
       <c r="DQ76" s="111"/>
-      <c r="DR76" s="111">
-        <v>0.58799999999999997</v>
-      </c>
+      <c r="DR76" s="111"/>
       <c r="DS76" s="111"/>
       <c r="DT76" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU76" s="111" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="DV76" s="70"/>
       <c r="DW76" s="111"/>
@@ -26926,15 +26926,13 @@
       <c r="EQ76" s="111"/>
       <c r="ER76" s="111"/>
       <c r="ES76" s="111"/>
-      <c r="ET76" s="111">
-        <v>1.6</v>
-      </c>
+      <c r="ET76" s="111"/>
       <c r="EU76" s="111"/>
       <c r="EV76" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW76" s="111" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="EX76" s="111"/>
       <c r="EY76" s="111"/>
@@ -26976,7 +26974,7 @@
     </row>
     <row r="77" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B77" s="57"/>
       <c r="C77" s="105" t="s">
@@ -27532,12 +27530,10 @@
       <c r="DO78" s="111"/>
       <c r="DP78" s="111"/>
       <c r="DQ78" s="111"/>
-      <c r="DR78" s="111">
-        <v>0.92</v>
-      </c>
+      <c r="DR78" s="111"/>
       <c r="DS78" s="111"/>
       <c r="DT78" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU78" s="111"/>
       <c r="DV78" s="70"/>
@@ -27566,15 +27562,13 @@
       <c r="EQ78" s="111"/>
       <c r="ER78" s="111"/>
       <c r="ES78" s="111"/>
-      <c r="ET78" s="111">
-        <v>0.92</v>
-      </c>
+      <c r="ET78" s="111"/>
       <c r="EU78" s="111"/>
       <c r="EV78" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW78" s="111" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="EX78" s="111"/>
       <c r="EY78" s="111"/>
@@ -27616,7 +27610,7 @@
     </row>
     <row r="79" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B79" s="57"/>
       <c r="C79" s="105" t="s">
@@ -28172,12 +28166,10 @@
       <c r="DO80" s="111"/>
       <c r="DP80" s="111"/>
       <c r="DQ80" s="111"/>
-      <c r="DR80" s="111">
-        <v>1.1100000000000001</v>
-      </c>
+      <c r="DR80" s="111"/>
       <c r="DS80" s="111"/>
       <c r="DT80" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU80" s="111"/>
       <c r="DV80" s="70"/>
@@ -28206,12 +28198,10 @@
       <c r="EQ80" s="111"/>
       <c r="ER80" s="111"/>
       <c r="ES80" s="111"/>
-      <c r="ET80" s="111">
-        <v>0.93300000000000005</v>
-      </c>
+      <c r="ET80" s="111"/>
       <c r="EU80" s="111"/>
       <c r="EV80" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW80" s="111"/>
       <c r="EX80" s="111"/>
@@ -28254,7 +28244,7 @@
     </row>
     <row r="81" spans="1:190" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B81" s="57"/>
       <c r="C81" s="105" t="s">
@@ -28810,12 +28800,10 @@
       <c r="DO82" s="111"/>
       <c r="DP82" s="111"/>
       <c r="DQ82" s="111"/>
-      <c r="DR82" s="111">
-        <v>0.58799999999999997</v>
-      </c>
+      <c r="DR82" s="111"/>
       <c r="DS82" s="111"/>
       <c r="DT82" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="DU82" s="111"/>
       <c r="DV82" s="70"/>
@@ -28844,15 +28832,13 @@
       <c r="EQ82" s="111"/>
       <c r="ER82" s="111"/>
       <c r="ES82" s="111"/>
-      <c r="ET82" s="111">
-        <v>1.6</v>
-      </c>
+      <c r="ET82" s="111"/>
       <c r="EU82" s="111"/>
       <c r="EV82" s="109" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="EW82" s="111" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="EX82" s="111"/>
       <c r="EY82" s="111"/>
@@ -28950,10 +28936,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="191" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -28983,7 +28969,7 @@
         <v>130</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28991,16 +28977,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C6" s="192" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -29021,16 +29007,16 @@
         <v>60</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>210</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29038,16 +29024,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C9" s="192" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -29084,13 +29070,13 @@
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="192" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -29115,7 +29101,7 @@
         <v>112</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="74"/>
     </row>
@@ -29128,7 +29114,7 @@
         <v>228</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E15" s="74"/>
     </row>
@@ -29167,7 +29153,7 @@
         <v>229</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E18" s="74"/>
     </row>
@@ -29206,7 +29192,7 @@
         <v>230</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E21" s="74"/>
     </row>
@@ -29229,7 +29215,7 @@
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="192" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>13</v>
@@ -29245,7 +29231,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E24" s="74"/>
     </row>
@@ -29338,7 +29324,7 @@
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="192" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
@@ -29349,7 +29335,7 @@
       </c>
       <c r="B33" s="74"/>
       <c r="C33" s="192" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
@@ -29373,7 +29359,7 @@
       </c>
       <c r="B35" s="74"/>
       <c r="C35" s="192" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D35" s="74"/>
       <c r="E35" s="74"/>
@@ -29384,7 +29370,7 @@
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="192" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D36" s="74"/>
       <c r="E36" s="74"/>
@@ -29462,13 +29448,13 @@
         <v>139</v>
       </c>
       <c r="H2" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>335</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>336</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>246</v>
@@ -29477,10 +29463,10 @@
         <v>261</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -29591,7 +29577,7 @@
         <v>105</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L6" s="71" t="s">
         <v>105</v>
@@ -29629,7 +29615,7 @@
         <v>110</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>180</v>
@@ -29641,7 +29627,7 @@
         <v>180</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N7" s="71" t="s">
         <v>180</v>
@@ -29658,7 +29644,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8" s="51" t="s">
         <v>248</v>
@@ -29723,7 +29709,7 @@
         <v>181</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L9" s="71" t="s">
         <v>252</v>
@@ -29805,7 +29791,7 @@
         <v>110</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>180</v>
@@ -29817,7 +29803,7 @@
         <v>180</v>
       </c>
       <c r="M11" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N11" s="71" t="s">
         <v>180</v>
@@ -29893,7 +29879,7 @@
         <v>110</v>
       </c>
       <c r="I13" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J13" s="71" t="s">
         <v>180</v>
@@ -29905,7 +29891,7 @@
         <v>180</v>
       </c>
       <c r="M13" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N13" s="71" t="s">
         <v>180</v>
@@ -29913,46 +29899,46 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30045,46 +30031,46 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30177,46 +30163,46 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -30309,46 +30295,46 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -30367,10 +30353,10 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -30397,46 +30383,46 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>557</v>
-      </c>
       <c r="C26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -30455,7 +30441,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N27" s="26"/>
     </row>
@@ -30475,7 +30461,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N28" s="26"/>
     </row>
@@ -30522,7 +30508,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -30543,10 +30529,10 @@
         <v>212</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -30571,16 +30557,16 @@
         <v>129</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>211</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -30611,10 +30597,10 @@
         <v>213</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -30639,16 +30625,16 @@
         <v>174</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>215</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -30656,16 +30642,16 @@
         <v>130</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>214</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -30673,7 +30659,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>135</v>
@@ -30682,7 +30668,7 @@
         <v>133</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -30884,7 +30870,7 @@
         <v>155</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -30905,7 +30891,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>142</v>
@@ -31029,7 +31015,7 @@
         <v>0.25</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="48"/>
@@ -31043,7 +31029,7 @@
         <v>0.25</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="48"/>
@@ -31106,7 +31092,7 @@
         <v>155</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -31251,7 +31237,7 @@
         <v>0.25</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="48"/>
@@ -31265,7 +31251,7 @@
         <v>0.25</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D40" s="47"/>
       <c r="E40" s="48"/>
@@ -31328,7 +31314,7 @@
         <v>155</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -31473,7 +31459,7 @@
         <v>0.25</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="48"/>
@@ -31487,7 +31473,7 @@
         <v>0.25</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="48"/>
@@ -31550,7 +31536,7 @@
         <v>155</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
@@ -31571,7 +31557,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B63" s="36" t="s">
         <v>142</v>
@@ -31695,7 +31681,7 @@
         <v>0.25</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
@@ -31709,7 +31695,7 @@
         <v>0.25</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="48"/>
@@ -31772,7 +31758,7 @@
         <v>155</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
@@ -31917,7 +31903,7 @@
         <v>0.25</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D87" s="47"/>
       <c r="E87" s="48"/>
@@ -31931,7 +31917,7 @@
         <v>0.25</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="48"/>
@@ -31994,7 +31980,7 @@
         <v>155</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C93" s="43"/>
       <c r="D93" s="43"/>
@@ -32139,7 +32125,7 @@
         <v>0.25</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D103" s="47"/>
       <c r="E103" s="48"/>
@@ -32153,7 +32139,7 @@
         <v>0.25</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D104" s="47"/>
       <c r="E104" s="48"/>
@@ -32216,7 +32202,7 @@
         <v>155</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C109" s="43"/>
       <c r="D109" s="43"/>
@@ -32361,7 +32347,7 @@
         <v>0.25</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="48"/>
@@ -32375,7 +32361,7 @@
         <v>0.25</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="48"/>
@@ -32438,7 +32424,7 @@
         <v>155</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
@@ -32583,7 +32569,7 @@
         <v>0.25</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D135" s="47"/>
       <c r="E135" s="48"/>
@@ -32597,7 +32583,7 @@
         <v>0.25</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="48"/>
@@ -32660,7 +32646,7 @@
         <v>155</v>
       </c>
       <c r="B141" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
@@ -32681,7 +32667,7 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B143" s="41" t="s">
         <v>142</v>
@@ -32805,7 +32791,7 @@
         <v>0.25</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="48"/>
@@ -32819,7 +32805,7 @@
         <v>0.25</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="48"/>
@@ -32882,7 +32868,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C157" s="43"/>
       <c r="D157" s="43"/>
@@ -32903,7 +32889,7 @@
     </row>
     <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B159" s="41" t="s">
         <v>142</v>
@@ -33027,7 +33013,7 @@
         <v>1.25</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D167" s="47"/>
       <c r="E167" s="48"/>
@@ -33041,7 +33027,7 @@
         <v>1.25</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D168" s="47"/>
       <c r="E168" s="48"/>
@@ -33104,7 +33090,7 @@
         <v>155</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
@@ -33125,7 +33111,7 @@
     </row>
     <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B175" s="41" t="s">
         <v>142</v>
@@ -33249,7 +33235,7 @@
         <v>0.25</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D183" s="47"/>
       <c r="E183" s="48"/>
@@ -33263,7 +33249,7 @@
         <v>0.25</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D184" s="47"/>
       <c r="E184" s="48"/>
@@ -33326,7 +33312,7 @@
         <v>155</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C189" s="43"/>
       <c r="D189" s="43"/>
@@ -33347,7 +33333,7 @@
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B191" s="36" t="s">
         <v>142</v>
@@ -33471,7 +33457,7 @@
         <v>0.25</v>
       </c>
       <c r="C199" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D199" s="47"/>
       <c r="E199" s="48"/>
@@ -33485,7 +33471,7 @@
         <v>0.25</v>
       </c>
       <c r="C200" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D200" s="47"/>
       <c r="E200" s="48"/>
@@ -33548,7 +33534,7 @@
         <v>155</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C205" s="38"/>
       <c r="D205" s="38"/>
@@ -33569,7 +33555,7 @@
     </row>
     <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B207" s="36" t="s">
         <v>142</v>
@@ -33693,7 +33679,7 @@
         <v>0.25</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D215" s="47"/>
       <c r="E215" s="48"/>
@@ -33707,7 +33693,7 @@
         <v>0.25</v>
       </c>
       <c r="C216" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D216" s="47"/>
       <c r="E216" s="48"/>
@@ -33770,7 +33756,7 @@
         <v>155</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C221" s="38"/>
       <c r="D221" s="38"/>
@@ -33822,43 +33808,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="114" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="E1" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="F1" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="G1" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="H1" s="116" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="I1" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="J1" s="116" t="s">
         <v>349</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="K1" s="117" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="L1" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="M1" s="117" t="s">
         <v>352</v>
-      </c>
-      <c r="M1" s="117" t="s">
-        <v>353</v>
       </c>
       <c r="N1" s="114" t="s">
         <v>195</v>
@@ -33866,1121 +33852,1121 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="C2" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="D2" s="121" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="E2" s="121" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="F2" s="121" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="G2" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="H2" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="I2" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="J2" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="K2" s="122" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="122" t="s">
         <v>363</v>
       </c>
-      <c r="K2" s="122" t="s">
-        <v>363</v>
-      </c>
-      <c r="L2" s="122" t="s">
+      <c r="M2" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="N2" s="119" t="s">
         <v>365</v>
-      </c>
-      <c r="N2" s="119" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C3" s="123" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="122" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="E3" s="122" t="s">
         <v>368</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="F3" s="122" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="G3" s="122" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="H3" s="122" t="s">
         <v>371</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="I3" s="122" t="s">
         <v>372</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="J3" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="122" t="s">
         <v>373</v>
       </c>
-      <c r="J3" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="L3" s="122" t="s">
+      <c r="M3" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="N3" s="119" t="s">
         <v>375</v>
-      </c>
-      <c r="N3" s="119" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B4" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C4" s="123" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="122" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="E4" s="122" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="122" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="122" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="122" t="s">
+      <c r="G4" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="H4" s="122" t="s">
         <v>380</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="I4" s="122" t="s">
         <v>381</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="J4" s="122" t="s">
         <v>382</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="K4" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="122" t="s">
         <v>383</v>
       </c>
-      <c r="K4" s="122" t="s">
-        <v>383</v>
-      </c>
-      <c r="L4" s="122" t="s">
-        <v>384</v>
-      </c>
       <c r="M4" s="122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N4" s="119"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C5" s="123" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="122" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="E5" s="122" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="122" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="F5" s="122" t="s">
+      <c r="G5" s="122" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="H5" s="122" t="s">
         <v>388</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="I5" s="122" t="s">
         <v>389</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="J5" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="J5" s="122" t="s">
+      <c r="K5" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" s="122" t="s">
         <v>391</v>
       </c>
-      <c r="K5" s="122" t="s">
-        <v>391</v>
-      </c>
-      <c r="L5" s="122" t="s">
+      <c r="M5" s="122" t="s">
         <v>392</v>
       </c>
-      <c r="M5" s="122" t="s">
+      <c r="N5" s="119" t="s">
         <v>393</v>
-      </c>
-      <c r="N5" s="119" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C6" s="123" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="122" t="s">
         <v>395</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="E6" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="122" t="s">
+      <c r="G6" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="H6" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="I6" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="J6" s="122" t="s">
         <v>400</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="K6" s="122" t="s">
+        <v>400</v>
+      </c>
+      <c r="L6" s="122" t="s">
         <v>401</v>
       </c>
-      <c r="K6" s="122" t="s">
-        <v>401</v>
-      </c>
-      <c r="L6" s="122" t="s">
+      <c r="M6" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="N6" s="119" t="s">
         <v>403</v>
-      </c>
-      <c r="N6" s="119" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C7" s="123" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="E7" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" s="122" t="s">
+      <c r="G7" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="H7" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="I7" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="J7" s="122" t="s">
         <v>400</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="K7" s="122" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="122" t="s">
         <v>401</v>
       </c>
-      <c r="K7" s="122" t="s">
-        <v>401</v>
-      </c>
-      <c r="L7" s="122" t="s">
+      <c r="M7" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="M7" s="122" t="s">
+      <c r="N7" s="119" t="s">
         <v>403</v>
-      </c>
-      <c r="N7" s="119" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C8" s="123" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="122" t="s">
         <v>406</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="E8" s="122" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="122" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="G8" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="K8" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="L8" s="122" t="s">
         <v>407</v>
       </c>
-      <c r="F8" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="122" t="s">
-        <v>409</v>
-      </c>
-      <c r="H8" s="122" t="s">
-        <v>410</v>
-      </c>
-      <c r="I8" s="122" t="s">
-        <v>411</v>
-      </c>
-      <c r="J8" s="122" t="s">
+      <c r="M8" s="122" t="s">
         <v>412</v>
-      </c>
-      <c r="K8" s="122" t="s">
-        <v>412</v>
-      </c>
-      <c r="L8" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="M8" s="122" t="s">
-        <v>413</v>
       </c>
       <c r="N8" s="119"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C9" s="123" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="122" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="E9" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="122" t="s">
         <v>415</v>
       </c>
-      <c r="E9" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="F9" s="122" t="s">
+      <c r="G9" s="122" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="H9" s="122" t="s">
         <v>417</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="I9" s="122" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="J9" s="122" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="K9" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="L9" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="K9" s="122" t="s">
-        <v>420</v>
-      </c>
-      <c r="L9" s="122" t="s">
+      <c r="M9" s="122" t="s">
         <v>421</v>
       </c>
-      <c r="M9" s="122" t="s">
+      <c r="N9" s="119" t="s">
         <v>422</v>
-      </c>
-      <c r="N9" s="119" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C10" s="123" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>416</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>417</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="K10" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" s="122" t="s">
         <v>424</v>
       </c>
-      <c r="D10" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>416</v>
-      </c>
-      <c r="G10" s="122" t="s">
-        <v>417</v>
-      </c>
-      <c r="H10" s="122" t="s">
-        <v>418</v>
-      </c>
-      <c r="I10" s="122" t="s">
-        <v>419</v>
-      </c>
-      <c r="J10" s="122" t="s">
-        <v>420</v>
-      </c>
-      <c r="K10" s="122" t="s">
-        <v>420</v>
-      </c>
-      <c r="L10" s="122" t="s">
-        <v>425</v>
-      </c>
       <c r="M10" s="122" t="s">
+        <v>421</v>
+      </c>
+      <c r="N10" s="119" t="s">
         <v>422</v>
-      </c>
-      <c r="N10" s="119" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C11" s="123" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="E11" s="122" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="122" t="s">
         <v>427</v>
       </c>
-      <c r="E11" s="122" t="s">
-        <v>427</v>
-      </c>
-      <c r="F11" s="122" t="s">
+      <c r="G11" s="122" t="s">
         <v>428</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="H11" s="122" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="I11" s="122" t="s">
         <v>430</v>
       </c>
-      <c r="I11" s="122" t="s">
+      <c r="J11" s="122" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="122" t="s">
+      <c r="K11" s="122" t="s">
+        <v>431</v>
+      </c>
+      <c r="L11" s="122" t="s">
         <v>432</v>
       </c>
-      <c r="K11" s="122" t="s">
-        <v>432</v>
-      </c>
-      <c r="L11" s="122" t="s">
+      <c r="M11" s="122" t="s">
         <v>433</v>
-      </c>
-      <c r="M11" s="122" t="s">
-        <v>434</v>
       </c>
       <c r="N11" s="119"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C12" s="123" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="122" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="E12" s="122" t="s">
+        <v>435</v>
+      </c>
+      <c r="F12" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="E12" s="122" t="s">
-        <v>436</v>
-      </c>
-      <c r="F12" s="122" t="s">
+      <c r="G12" s="122" t="s">
         <v>437</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="H12" s="122" t="s">
         <v>438</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="I12" s="122" t="s">
         <v>439</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="J12" s="122" t="s">
         <v>440</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="K12" s="122" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="122" t="s">
         <v>441</v>
       </c>
-      <c r="K12" s="122" t="s">
-        <v>441</v>
-      </c>
-      <c r="L12" s="122" t="s">
+      <c r="M12" s="122" t="s">
         <v>442</v>
-      </c>
-      <c r="M12" s="122" t="s">
-        <v>443</v>
       </c>
       <c r="N12" s="119"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C13" s="123" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="E13" s="122" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="122" t="s">
         <v>445</v>
       </c>
-      <c r="E13" s="122" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13" s="122" t="s">
+      <c r="G13" s="122" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="H13" s="122" t="s">
         <v>447</v>
       </c>
-      <c r="H13" s="122" t="s">
+      <c r="I13" s="122" t="s">
         <v>448</v>
       </c>
-      <c r="I13" s="122" t="s">
+      <c r="J13" s="122" t="s">
         <v>449</v>
       </c>
-      <c r="J13" s="122" t="s">
+      <c r="K13" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="L13" s="122" t="s">
         <v>450</v>
       </c>
-      <c r="K13" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="L13" s="122" t="s">
+      <c r="M13" s="122" t="s">
         <v>451</v>
-      </c>
-      <c r="M13" s="122" t="s">
-        <v>452</v>
       </c>
       <c r="N13" s="119"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="119" t="s">
-        <v>355</v>
-      </c>
       <c r="C14" s="119" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="122" t="s">
         <v>453</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="E14" s="122" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="122" t="s">
         <v>454</v>
       </c>
-      <c r="E14" s="122" t="s">
-        <v>454</v>
-      </c>
-      <c r="F14" s="122" t="s">
+      <c r="G14" s="122" t="s">
         <v>455</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="H14" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="H14" s="122" t="s">
+      <c r="I14" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="I14" s="122" t="s">
+      <c r="J14" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="L14" s="122" t="s">
+        <v>450</v>
+      </c>
+      <c r="M14" s="122" t="s">
         <v>458</v>
-      </c>
-      <c r="J14" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="K14" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="L14" s="122" t="s">
-        <v>451</v>
-      </c>
-      <c r="M14" s="122" t="s">
-        <v>459</v>
       </c>
       <c r="N14" s="119"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="124" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="126" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="124" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15" s="126" t="s">
+      <c r="E15" s="126" t="s">
         <v>461</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="F15" s="127" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="127" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="127" t="s">
+        <v>360</v>
+      </c>
+      <c r="I15" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" s="127" t="s">
+        <v>362</v>
+      </c>
+      <c r="K15" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="L15" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="M15" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="N15" s="124" t="s">
         <v>462</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="127" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="127" t="s">
-        <v>361</v>
-      </c>
-      <c r="I15" s="127" t="s">
-        <v>362</v>
-      </c>
-      <c r="J15" s="127" t="s">
-        <v>363</v>
-      </c>
-      <c r="K15" s="126" t="s">
-        <v>363</v>
-      </c>
-      <c r="L15" s="126" t="s">
-        <v>364</v>
-      </c>
-      <c r="M15" s="126" t="s">
-        <v>365</v>
-      </c>
-      <c r="N15" s="124" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" s="128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D16" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" s="126" t="s">
         <v>464</v>
       </c>
-      <c r="E16" s="126" t="s">
-        <v>465</v>
-      </c>
       <c r="F16" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="G16" s="126" t="s">
+      <c r="H16" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="I16" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="J16" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="L16" s="126" t="s">
         <v>373</v>
       </c>
-      <c r="J16" s="126" t="s">
-        <v>370</v>
-      </c>
-      <c r="K16" s="126" t="s">
-        <v>370</v>
-      </c>
-      <c r="L16" s="126" t="s">
+      <c r="M16" s="126" t="s">
         <v>374</v>
-      </c>
-      <c r="M16" s="126" t="s">
-        <v>375</v>
       </c>
       <c r="N16" s="124"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" s="128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E17" s="126" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F17" s="126" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="H17" s="126" t="s">
         <v>380</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="I17" s="126" t="s">
         <v>381</v>
       </c>
-      <c r="I17" s="126" t="s">
+      <c r="J17" s="126" t="s">
         <v>382</v>
       </c>
-      <c r="J17" s="126" t="s">
+      <c r="K17" s="126" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="126" t="s">
         <v>383</v>
       </c>
-      <c r="K17" s="126" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" s="126" t="s">
-        <v>384</v>
-      </c>
       <c r="M17" s="126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N17" s="124"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D18" s="126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E18" s="126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F18" s="126" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="126" t="s">
         <v>387</v>
       </c>
-      <c r="G18" s="126" t="s">
+      <c r="H18" s="126" t="s">
         <v>388</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="I18" s="126" t="s">
         <v>389</v>
       </c>
-      <c r="I18" s="126" t="s">
+      <c r="J18" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="J18" s="126" t="s">
+      <c r="K18" s="126" t="s">
+        <v>390</v>
+      </c>
+      <c r="L18" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="K18" s="126" t="s">
-        <v>391</v>
-      </c>
-      <c r="L18" s="126" t="s">
+      <c r="M18" s="126" t="s">
         <v>392</v>
-      </c>
-      <c r="M18" s="126" t="s">
-        <v>393</v>
       </c>
       <c r="N18" s="124"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E19" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F19" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="H19" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="I19" s="126" t="s">
         <v>399</v>
       </c>
-      <c r="I19" s="126" t="s">
+      <c r="J19" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="J19" s="126" t="s">
+      <c r="K19" s="126" t="s">
+        <v>400</v>
+      </c>
+      <c r="L19" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="K19" s="126" t="s">
-        <v>401</v>
-      </c>
-      <c r="L19" s="126" t="s">
+      <c r="M19" s="126" t="s">
         <v>402</v>
-      </c>
-      <c r="M19" s="126" t="s">
-        <v>403</v>
       </c>
       <c r="N19" s="124"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D20" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F20" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="H20" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="I20" s="126" t="s">
         <v>399</v>
       </c>
-      <c r="I20" s="126" t="s">
+      <c r="J20" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="126" t="s">
+      <c r="K20" s="126" t="s">
+        <v>400</v>
+      </c>
+      <c r="L20" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="K20" s="126" t="s">
-        <v>401</v>
-      </c>
-      <c r="L20" s="126" t="s">
+      <c r="M20" s="126" t="s">
         <v>402</v>
-      </c>
-      <c r="M20" s="126" t="s">
-        <v>403</v>
       </c>
       <c r="N20" s="124"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D21" s="126" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E21" s="126" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F21" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" s="126" t="s">
         <v>408</v>
       </c>
-      <c r="G21" s="126" t="s">
+      <c r="H21" s="126" t="s">
         <v>409</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="I21" s="126" t="s">
         <v>410</v>
       </c>
-      <c r="I21" s="126" t="s">
+      <c r="J21" s="126" t="s">
         <v>411</v>
       </c>
-      <c r="J21" s="126" t="s">
+      <c r="K21" s="126" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="M21" s="126" t="s">
         <v>412</v>
-      </c>
-      <c r="K21" s="126" t="s">
-        <v>412</v>
-      </c>
-      <c r="L21" s="126" t="s">
-        <v>408</v>
-      </c>
-      <c r="M21" s="126" t="s">
-        <v>413</v>
       </c>
       <c r="N21" s="124"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E22" s="126" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F22" s="126" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="126" t="s">
         <v>416</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="H22" s="126" t="s">
         <v>417</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="I22" s="126" t="s">
         <v>418</v>
       </c>
-      <c r="I22" s="126" t="s">
+      <c r="J22" s="126" t="s">
         <v>419</v>
       </c>
-      <c r="J22" s="126" t="s">
+      <c r="K22" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" s="126" t="s">
         <v>420</v>
       </c>
-      <c r="K22" s="126" t="s">
-        <v>420</v>
-      </c>
-      <c r="L22" s="126" t="s">
+      <c r="M22" s="126" t="s">
         <v>421</v>
-      </c>
-      <c r="M22" s="126" t="s">
-        <v>422</v>
       </c>
       <c r="N22" s="124"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" s="128" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="F23" s="126" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="126" t="s">
+        <v>416</v>
+      </c>
+      <c r="H23" s="126" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="126" t="s">
+        <v>418</v>
+      </c>
+      <c r="J23" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="K23" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="126" t="s">
         <v>424</v>
       </c>
-      <c r="D23" s="126" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" s="126" t="s">
-        <v>470</v>
-      </c>
-      <c r="F23" s="126" t="s">
-        <v>416</v>
-      </c>
-      <c r="G23" s="126" t="s">
-        <v>417</v>
-      </c>
-      <c r="H23" s="126" t="s">
-        <v>418</v>
-      </c>
-      <c r="I23" s="126" t="s">
-        <v>419</v>
-      </c>
-      <c r="J23" s="126" t="s">
-        <v>420</v>
-      </c>
-      <c r="K23" s="126" t="s">
-        <v>420</v>
-      </c>
-      <c r="L23" s="126" t="s">
-        <v>425</v>
-      </c>
       <c r="M23" s="126" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N23" s="124"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E24" s="126" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F24" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="126" t="s">
         <v>428</v>
       </c>
-      <c r="G24" s="126" t="s">
+      <c r="H24" s="126" t="s">
         <v>429</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="I24" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="I24" s="126" t="s">
+      <c r="J24" s="126" t="s">
         <v>431</v>
       </c>
-      <c r="J24" s="126" t="s">
+      <c r="K24" s="126" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="K24" s="126" t="s">
-        <v>432</v>
-      </c>
-      <c r="L24" s="126" t="s">
+      <c r="M24" s="126" t="s">
         <v>433</v>
-      </c>
-      <c r="M24" s="126" t="s">
-        <v>434</v>
       </c>
       <c r="N24" s="124"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E25" s="126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F25" s="126" t="s">
+        <v>436</v>
+      </c>
+      <c r="G25" s="126" t="s">
         <v>437</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="H25" s="126" t="s">
         <v>438</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="I25" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="I25" s="126" t="s">
+      <c r="J25" s="126" t="s">
         <v>440</v>
       </c>
-      <c r="J25" s="126" t="s">
+      <c r="K25" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="126" t="s">
         <v>441</v>
       </c>
-      <c r="K25" s="126" t="s">
-        <v>441</v>
-      </c>
-      <c r="L25" s="126" t="s">
+      <c r="M25" s="126" t="s">
         <v>442</v>
-      </c>
-      <c r="M25" s="126" t="s">
-        <v>443</v>
       </c>
       <c r="N25" s="124"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D26" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E26" s="126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F26" s="126" t="s">
+        <v>445</v>
+      </c>
+      <c r="G26" s="126" t="s">
         <v>446</v>
       </c>
-      <c r="G26" s="126" t="s">
+      <c r="H26" s="126" t="s">
         <v>447</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="I26" s="126" t="s">
         <v>448</v>
       </c>
-      <c r="I26" s="126" t="s">
+      <c r="J26" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="J26" s="126" t="s">
+      <c r="K26" s="126" t="s">
+        <v>449</v>
+      </c>
+      <c r="L26" s="126" t="s">
         <v>450</v>
       </c>
-      <c r="K26" s="126" t="s">
-        <v>450</v>
-      </c>
-      <c r="L26" s="126" t="s">
+      <c r="M26" s="126" t="s">
         <v>451</v>
-      </c>
-      <c r="M26" s="126" t="s">
-        <v>452</v>
       </c>
       <c r="N26" s="124"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F27" s="126" t="s">
+        <v>454</v>
+      </c>
+      <c r="G27" s="126" t="s">
         <v>455</v>
       </c>
-      <c r="G27" s="126" t="s">
+      <c r="H27" s="126" t="s">
         <v>456</v>
       </c>
-      <c r="H27" s="126" t="s">
+      <c r="I27" s="126" t="s">
         <v>457</v>
       </c>
-      <c r="I27" s="126" t="s">
+      <c r="J27" s="126" t="s">
+        <v>449</v>
+      </c>
+      <c r="K27" s="126" t="s">
+        <v>449</v>
+      </c>
+      <c r="L27" s="126" t="s">
+        <v>450</v>
+      </c>
+      <c r="M27" s="126" t="s">
         <v>458</v>
-      </c>
-      <c r="J27" s="126" t="s">
-        <v>450</v>
-      </c>
-      <c r="K27" s="126" t="s">
-        <v>450</v>
-      </c>
-      <c r="L27" s="126" t="s">
-        <v>451</v>
-      </c>
-      <c r="M27" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="N27" s="124"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C28" s="129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
@@ -34993,18 +34979,18 @@
       <c r="L28" s="122"/>
       <c r="M28" s="122"/>
       <c r="N28" s="119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C29" s="130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="122"/>
@@ -35020,13 +35006,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C30" s="130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
@@ -35042,13 +35028,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C31" s="130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D31" s="122"/>
       <c r="E31" s="122"/>
@@ -35064,13 +35050,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C32" s="130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32" s="122"/>
       <c r="E32" s="122"/>
@@ -35086,13 +35072,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C33" s="130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D33" s="122"/>
       <c r="E33" s="122"/>
@@ -35108,13 +35094,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C34" s="130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D34" s="122"/>
       <c r="E34" s="122"/>
@@ -35130,13 +35116,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C35" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D35" s="122"/>
       <c r="E35" s="122"/>
@@ -35152,13 +35138,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C36" s="130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D36" s="122"/>
       <c r="E36" s="122"/>
@@ -35174,13 +35160,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C37" s="130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D37" s="122"/>
       <c r="E37" s="122"/>
@@ -35196,13 +35182,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C38" s="130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D38" s="122"/>
       <c r="E38" s="122"/>
@@ -35218,13 +35204,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C39" s="130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D39" s="122"/>
       <c r="E39" s="122"/>
@@ -35240,13 +35226,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D40" s="122"/>
       <c r="E40" s="122"/>
@@ -35262,13 +35248,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D41" s="126"/>
       <c r="E41" s="126"/>
@@ -35284,13 +35270,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C42" s="128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D42" s="126"/>
       <c r="E42" s="126"/>
@@ -35306,13 +35292,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C43" s="128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D43" s="126"/>
       <c r="E43" s="126"/>
@@ -35328,13 +35314,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" s="128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D44" s="126"/>
       <c r="E44" s="126"/>
@@ -35350,13 +35336,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C45" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" s="126"/>
       <c r="E45" s="126"/>
@@ -35372,13 +35358,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C46" s="128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
@@ -35394,13 +35380,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C47" s="128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D47" s="126"/>
       <c r="E47" s="126"/>
@@ -35416,13 +35402,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C48" s="128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="126"/>
@@ -35438,13 +35424,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C49" s="128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D49" s="126"/>
       <c r="E49" s="126"/>
@@ -35460,13 +35446,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C50" s="128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D50" s="126"/>
       <c r="E50" s="126"/>
@@ -35482,13 +35468,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C51" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D51" s="126"/>
       <c r="E51" s="126"/>
@@ -35504,13 +35490,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C52" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D52" s="126"/>
       <c r="E52" s="126"/>
@@ -35526,13 +35512,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C53" s="124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D53" s="126"/>
       <c r="E53" s="126"/>
@@ -35548,13 +35534,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C54" s="129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" s="122"/>
       <c r="E54" s="122"/>
@@ -35567,18 +35553,18 @@
       <c r="L54" s="122"/>
       <c r="M54" s="122"/>
       <c r="N54" s="119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C55" s="130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D55" s="122"/>
       <c r="E55" s="122"/>
@@ -35594,13 +35580,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B56" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C56" s="130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D56" s="122"/>
       <c r="E56" s="122"/>
@@ -35616,13 +35602,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C57" s="130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" s="122"/>
       <c r="E57" s="122"/>
@@ -35638,13 +35624,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B58" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C58" s="130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D58" s="122"/>
       <c r="E58" s="122"/>
@@ -35660,13 +35646,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B59" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C59" s="130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D59" s="122"/>
       <c r="E59" s="122"/>
@@ -35682,13 +35668,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C60" s="130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D60" s="122"/>
       <c r="E60" s="122"/>
@@ -35704,13 +35690,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C61" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D61" s="122"/>
       <c r="E61" s="122"/>
@@ -35726,13 +35712,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C62" s="130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="122"/>
       <c r="E62" s="122"/>
@@ -35748,13 +35734,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C63" s="130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D63" s="122"/>
       <c r="E63" s="122"/>
@@ -35770,13 +35756,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C64" s="130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D64" s="122"/>
       <c r="E64" s="122"/>
@@ -35792,13 +35778,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B65" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C65" s="130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D65" s="122"/>
       <c r="E65" s="122"/>
@@ -35814,13 +35800,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C66" s="131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D66" s="122"/>
       <c r="E66" s="122"/>
@@ -35836,13 +35822,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B67" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" s="126"/>
       <c r="E67" s="126"/>
@@ -35858,13 +35844,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C68" s="128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D68" s="126"/>
       <c r="E68" s="126"/>
@@ -35880,13 +35866,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B69" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C69" s="128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D69" s="126"/>
       <c r="E69" s="126"/>
@@ -35902,13 +35888,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C70" s="128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D70" s="126"/>
       <c r="E70" s="126"/>
@@ -35924,13 +35910,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C71" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D71" s="126"/>
       <c r="E71" s="126"/>
@@ -35946,13 +35932,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B72" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C72" s="128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D72" s="126"/>
       <c r="E72" s="126"/>
@@ -35968,13 +35954,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B73" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C73" s="128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D73" s="126"/>
       <c r="E73" s="126"/>
@@ -35990,13 +35976,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B74" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C74" s="128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D74" s="126"/>
       <c r="E74" s="126"/>
@@ -36012,13 +35998,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C75" s="128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D75" s="126"/>
       <c r="E75" s="126"/>
@@ -36034,13 +36020,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B76" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C76" s="128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D76" s="126"/>
       <c r="E76" s="126"/>
@@ -36056,13 +36042,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B77" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C77" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D77" s="126"/>
       <c r="E77" s="126"/>
@@ -36078,13 +36064,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B78" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C78" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D78" s="126"/>
       <c r="E78" s="126"/>
@@ -36100,13 +36086,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B79" s="124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C79" s="124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D79" s="126"/>
       <c r="E79" s="126"/>
@@ -36122,13 +36108,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B80" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C80" s="129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D80" s="122"/>
       <c r="E80" s="122"/>
@@ -36141,18 +36127,18 @@
       <c r="L80" s="122"/>
       <c r="M80" s="122"/>
       <c r="N80" s="119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C81" s="130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D81" s="122"/>
       <c r="E81" s="122"/>
@@ -36168,13 +36154,13 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C82" s="130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D82" s="122"/>
       <c r="E82" s="122"/>
@@ -36190,13 +36176,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B83" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C83" s="130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D83" s="122"/>
       <c r="E83" s="122"/>
@@ -36212,13 +36198,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B84" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C84" s="130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D84" s="122"/>
       <c r="E84" s="122"/>
@@ -36234,13 +36220,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B85" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C85" s="130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D85" s="122"/>
       <c r="E85" s="122"/>
@@ -36256,13 +36242,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B86" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C86" s="130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D86" s="122"/>
       <c r="E86" s="122"/>
@@ -36278,13 +36264,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B87" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C87" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D87" s="122"/>
       <c r="E87" s="122"/>
@@ -36300,13 +36286,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B88" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C88" s="130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D88" s="122"/>
       <c r="E88" s="122"/>
@@ -36322,13 +36308,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B89" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C89" s="130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D89" s="122"/>
       <c r="E89" s="122"/>
@@ -36344,13 +36330,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B90" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C90" s="130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D90" s="122"/>
       <c r="E90" s="122"/>
@@ -36366,13 +36352,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C91" s="130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D91" s="122"/>
       <c r="E91" s="122"/>
@@ -36388,13 +36374,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B92" s="119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C92" s="131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D92" s="122"/>
       <c r="E92" s="122"/>
@@ -36410,13 +36396,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B93" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C93" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D93" s="126"/>
       <c r="E93" s="126"/>
@@ -36432,13 +36418,13 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B94" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C94" s="128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D94" s="126"/>
       <c r="E94" s="126"/>
@@ -36454,13 +36440,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B95" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C95" s="128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" s="126"/>
       <c r="E95" s="126"/>
@@ -36476,13 +36462,13 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B96" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C96" s="128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D96" s="126"/>
       <c r="E96" s="126"/>
@@ -36498,13 +36484,13 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B97" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C97" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D97" s="126"/>
       <c r="E97" s="126"/>
@@ -36520,13 +36506,13 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B98" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C98" s="128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D98" s="126"/>
       <c r="E98" s="126"/>
@@ -36542,13 +36528,13 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B99" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C99" s="128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D99" s="126"/>
       <c r="E99" s="126"/>
@@ -36564,13 +36550,13 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B100" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C100" s="128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D100" s="126"/>
       <c r="E100" s="126"/>
@@ -36586,13 +36572,13 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B101" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C101" s="128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D101" s="126"/>
       <c r="E101" s="126"/>
@@ -36608,13 +36594,13 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B102" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C102" s="128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D102" s="126"/>
       <c r="E102" s="126"/>
@@ -36630,13 +36616,13 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B103" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C103" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D103" s="126"/>
       <c r="E103" s="126"/>
@@ -36652,13 +36638,13 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B104" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C104" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D104" s="126"/>
       <c r="E104" s="126"/>
@@ -36674,13 +36660,13 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="124" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B105" s="124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C105" s="124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D105" s="126"/>
       <c r="E105" s="126"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\FentanylValidation\build\runtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\Tourniquet\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5055,10 +5055,10 @@
   <dimension ref="A1:GH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CH13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DR19" sqref="DR19"/>
+      <selection pane="bottomRight" activeCell="EX45" sqref="EX45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -17873,7 +17873,7 @@
       <c r="EV45" s="113"/>
       <c r="EW45" s="210"/>
       <c r="EX45" s="113">
-        <v>-0.59699999999999998</v>
+        <v>-0.1</v>
       </c>
       <c r="EY45" s="211"/>
       <c r="EZ45" s="211"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\Substances\build\runtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3702,6 +3702,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3710,9 +3713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -4071,39 +4071,39 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="132"/>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="250" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="249" t="s">
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="250" t="s">
         <v>503</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="250" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="250"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="249" t="s">
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="250" t="s">
         <v>505</v>
       </c>
-      <c r="V1" s="251"/>
-      <c r="W1" s="249" t="s">
+      <c r="V1" s="252"/>
+      <c r="W1" s="250" t="s">
         <v>703</v>
       </c>
-      <c r="X1" s="251"/>
+      <c r="X1" s="252"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
@@ -8018,19 +8018,19 @@
       <c r="GQ6" s="246"/>
       <c r="GR6" s="246"/>
       <c r="GS6" s="246"/>
-      <c r="GT6" s="252" t="s">
+      <c r="GT6" s="249" t="s">
         <v>803</v>
       </c>
       <c r="GU6" s="246"/>
       <c r="GV6" s="246"/>
       <c r="GW6" s="246"/>
-      <c r="GX6" s="252" t="s">
+      <c r="GX6" s="249" t="s">
         <v>804</v>
       </c>
       <c r="GY6" s="246"/>
       <c r="GZ6" s="246"/>
       <c r="HA6" s="246"/>
-      <c r="HB6" s="252" t="s">
+      <c r="HB6" s="249" t="s">
         <v>805</v>
       </c>
       <c r="HC6" s="221"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6025" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6025" uniqueCount="807">
   <si>
     <t>Name</t>
   </si>
@@ -2452,6 +2452,9 @@
   </si>
   <si>
     <t>1.08 g/mL</t>
+  </si>
+  <si>
+    <t>16.8 g/dL</t>
   </si>
 </sst>
 </file>
@@ -5342,7 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HF86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="EX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -33078,8 +33081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34855,7 +34858,7 @@
         <v>771</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="K47" s="72" t="s">
         <v>771</v>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6025" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2454,7 +2454,16 @@
     <t>1.08 g/mL</t>
   </si>
   <si>
-    <t>16.8 g/dL</t>
+    <t>0.019 g/L</t>
+  </si>
+  <si>
+    <t>0.023 g/L</t>
+  </si>
+  <si>
+    <t>0.0115 g/L</t>
+  </si>
+  <si>
+    <t>0.0095 g/L</t>
   </si>
 </sst>
 </file>
@@ -5346,10 +5355,10 @@
   <dimension ref="A1:HF86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="FV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GX2" sqref="GX2"/>
+      <selection pane="bottomRight" activeCell="GL5" sqref="GL5:HB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -33079,10 +33088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33582,28 +33591,28 @@
         <v>129</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="G13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="J13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="L13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="N13" s="72" t="s">
         <v>165</v>
@@ -33626,28 +33635,28 @@
         <v>693</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="L14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="M14" s="72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N14" s="72" t="s">
         <v>226</v>
@@ -33665,28 +33674,28 @@
       <c r="E15" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="76" t="s">
+      <c r="L15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="21" t="s">
         <v>2</v>
       </c>
       <c r="N15" s="76" t="s">
@@ -33708,28 +33717,28 @@
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="N16" s="72" t="s">
         <v>168</v>
@@ -33750,28 +33759,28 @@
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="K17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="L17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="M17" s="72" t="s">
-        <v>225</v>
+        <v>723</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>227</v>
@@ -33782,8 +33791,12 @@
       <c r="B18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" s="76" t="s">
         <v>2</v>
       </c>
@@ -33826,28 +33839,28 @@
       </c>
       <c r="E19" s="72"/>
       <c r="F19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="K19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="L19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="M19" s="72" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="N19" s="72" t="s">
         <v>600</v>
@@ -33864,28 +33877,28 @@
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="K20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="L20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="M20" s="72" t="s">
-        <v>226</v>
+        <v>719</v>
       </c>
       <c r="N20" s="72" t="s">
         <v>228</v>
@@ -33896,8 +33909,12 @@
       <c r="B21" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E21" s="76" t="s">
         <v>2</v>
       </c>
@@ -33940,28 +33957,28 @@
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="L22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="N22" s="72" t="s">
         <v>173</v>
@@ -33978,28 +33995,28 @@
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N23" s="72" t="s">
         <v>229</v>
@@ -34010,8 +34027,12 @@
       <c r="B24" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E24" s="76" t="s">
         <v>2</v>
       </c>
@@ -34054,28 +34075,28 @@
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="H25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="K25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="L25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="M25" s="72" t="s">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="N25" s="72" t="s">
         <v>167</v>
@@ -34092,28 +34113,28 @@
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M26" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N26" s="72" t="s">
         <v>230</v>
@@ -34124,8 +34145,12 @@
       <c r="B27" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E27" s="76" t="s">
         <v>2</v>
       </c>
@@ -34166,28 +34191,28 @@
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M28" s="72" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N28" s="72" t="s">
         <v>471</v>
@@ -34202,28 +34227,28 @@
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
       <c r="F29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M29" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N29" s="72" t="s">
         <v>717</v>
@@ -34234,8 +34259,12 @@
       <c r="B30" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E30" s="76" t="s">
         <v>2</v>
       </c>
@@ -34276,28 +34305,28 @@
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="F31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="K31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="M31" s="72" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
       <c r="N31" s="72" t="s">
         <v>472</v>
@@ -34312,28 +34341,28 @@
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
       <c r="F32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N32" s="72" t="s">
         <v>718</v>
@@ -34344,8 +34373,12 @@
       <c r="B33" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E33" s="76" t="s">
         <v>2</v>
       </c>
@@ -34386,28 +34419,28 @@
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="H34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="J34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="K34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="L34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="M34" s="72" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="N34" s="72" t="s">
         <v>471</v>
@@ -34422,28 +34455,28 @@
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="H35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="J35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="K35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="L35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="M35" s="72" t="s">
-        <v>717</v>
+        <v>229</v>
       </c>
       <c r="N35" s="72" t="s">
         <v>717</v>
@@ -34454,8 +34487,12 @@
       <c r="B36" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E36" s="76" t="s">
         <v>2</v>
       </c>
@@ -34496,28 +34533,28 @@
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="K37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="L37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="M37" s="72" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="N37" s="72" t="s">
         <v>472</v>
@@ -34532,28 +34569,28 @@
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="H38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="I38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="K38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="L38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="M38" s="72" t="s">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="N38" s="72" t="s">
         <v>718</v>
@@ -34564,8 +34601,12 @@
       <c r="B39" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E39" s="76" t="s">
         <v>2</v>
       </c>
@@ -34593,7 +34634,9 @@
       <c r="M39" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N39" s="76"/>
+      <c r="N39" s="76" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="71" t="s">
@@ -34604,28 +34647,28 @@
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
       <c r="F40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="H40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="I40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="K40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="L40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="M40" s="72" t="s">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="N40" s="72"/>
     </row>
@@ -34638,28 +34681,28 @@
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
       <c r="F41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="G41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="I41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="J41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="K41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="L41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="M41" s="72" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="N41" s="72"/>
     </row>
@@ -34668,8 +34711,12 @@
       <c r="B42" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="76" t="s">
         <v>2</v>
       </c>
@@ -34697,7 +34744,9 @@
       <c r="M42" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="76"/>
+      <c r="N42" s="76" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="71" t="s">
@@ -34708,28 +34757,28 @@
       <c r="D43" s="72"/>
       <c r="E43" s="72"/>
       <c r="F43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="H43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="I43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="J43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="K43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="L43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="M43" s="72" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="N43" s="72"/>
     </row>
@@ -34742,28 +34791,28 @@
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
       <c r="F44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="H44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="I44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="J44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="K44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="L44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="M44" s="72" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="N44" s="72"/>
     </row>
@@ -34772,8 +34821,12 @@
       <c r="B45" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E45" s="76" t="s">
         <v>2</v>
       </c>
@@ -34801,7 +34854,9 @@
       <c r="M45" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N45" s="76"/>
+      <c r="N45" s="76" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="71" t="s">
@@ -34812,28 +34867,28 @@
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
       <c r="F46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M46" s="72" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="N46" s="72"/>
     </row>
@@ -34846,28 +34901,28 @@
       <c r="D47" s="72"/>
       <c r="E47" s="72"/>
       <c r="F47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>806</v>
+        <v>769</v>
       </c>
       <c r="K47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M47" s="72" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N47" s="72"/>
     </row>
@@ -34876,8 +34931,12 @@
       <c r="B48" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="21"/>
+      <c r="C48" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E48" s="76" t="s">
         <v>2</v>
       </c>
@@ -34905,7 +34964,9 @@
       <c r="M48" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N48" s="76"/>
+      <c r="N48" s="76" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="71" t="s">
@@ -34916,28 +34977,28 @@
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
       <c r="F49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M49" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="N49" s="72"/>
     </row>
@@ -34950,28 +35011,28 @@
       <c r="D50" s="72"/>
       <c r="E50" s="72"/>
       <c r="F50" s="72" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="H50" s="72" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="I50" s="72" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K50" s="72" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L50" s="72" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M50" s="72" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="N50" s="72"/>
     </row>
@@ -34980,8 +35041,12 @@
       <c r="B51" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="76" t="s">
+        <v>2</v>
+      </c>
       <c r="E51" s="76" t="s">
         <v>2</v>
       </c>
@@ -35009,7 +35074,9 @@
       <c r="M51" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N51" s="76"/>
+      <c r="N51" s="76" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="71" t="s">
@@ -35020,28 +35087,28 @@
       <c r="D52" s="72"/>
       <c r="E52" s="72"/>
       <c r="F52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="K52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="M52" s="72" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N52" s="72"/>
     </row>
@@ -35054,30 +35121,250 @@
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
       <c r="F53" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="G53" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="H53" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="I53" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="J53" s="72" t="s">
+        <v>806</v>
+      </c>
+      <c r="K53" s="72" t="s">
+        <v>806</v>
+      </c>
+      <c r="L53" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>771</v>
+      </c>
+      <c r="N53" s="72"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="74"/>
+      <c r="B54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="G55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="H55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="I55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="J55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="K55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="L55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="M55" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="N55" s="72"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="G56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="H56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="I56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="J56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="K56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="L56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="M56" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="N56" s="72"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="74"/>
+      <c r="B57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="H58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="I58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="J58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="K58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="L58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="M58" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="N58" s="72"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="H53" s="72" t="s">
+      <c r="H59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="J53" s="72" t="s">
+      <c r="J59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="K53" s="72" t="s">
+      <c r="K59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="L53" s="72" t="s">
+      <c r="L59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="M53" s="72" t="s">
+      <c r="M59" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="N53" s="72"/>
+      <c r="N59" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -3749,15 +3749,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="12" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3805,6 +3796,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -4163,39 +4163,39 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="132"/>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="266" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="250" t="s">
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="266" t="s">
         <v>503</v>
       </c>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="250" t="s">
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="266" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="250" t="s">
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="267"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="266" t="s">
         <v>505</v>
       </c>
-      <c r="V1" s="252"/>
-      <c r="W1" s="250" t="s">
+      <c r="V1" s="268"/>
+      <c r="W1" s="266" t="s">
         <v>703</v>
       </c>
-      <c r="X1" s="252"/>
+      <c r="X1" s="268"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
@@ -5435,10 +5435,10 @@
   <dimension ref="A1:HG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BZ33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BZ45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BZ60" sqref="BZ60"/>
+      <selection pane="bottomRight" activeCell="CA48" sqref="CA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5508,7 +5508,7 @@
     <col min="71" max="73" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="74" max="74" width="11.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="75" max="77" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.42578125" style="268" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="21.42578125" style="265" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="79" max="79" width="21.42578125" style="97" bestFit="1" customWidth="1"/>
     <col min="80" max="82" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="83" max="83" width="14.140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5825,10 +5825,10 @@
       <c r="BX1" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY1" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ1" s="264"/>
+      <c r="BY1" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ1" s="261"/>
       <c r="CA1" s="65"/>
       <c r="CB1" s="104" t="s">
         <v>282</v>
@@ -6399,13 +6399,13 @@
       <c r="BX2" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="BY2" s="254" t="s">
+      <c r="BY2" s="251" t="s">
         <v>165</v>
       </c>
       <c r="BZ2" s="96" t="s">
         <v>812</v>
       </c>
-      <c r="CA2" s="260" t="s">
+      <c r="CA2" s="257" t="s">
         <v>190</v>
       </c>
       <c r="CB2" s="96" t="s">
@@ -7005,7 +7005,7 @@
       <c r="BX3" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY3" s="253" t="s">
+      <c r="BY3" s="250" t="s">
         <v>284</v>
       </c>
       <c r="BZ3" s="55"/>
@@ -7425,11 +7425,11 @@
       </c>
       <c r="BW4" s="167"/>
       <c r="BX4" s="167"/>
-      <c r="BY4" s="255"/>
+      <c r="BY4" s="252"/>
       <c r="BZ4" s="107" t="s">
         <v>543</v>
       </c>
-      <c r="CA4" s="261" t="s">
+      <c r="CA4" s="258" t="s">
         <v>17</v>
       </c>
       <c r="CB4" s="107"/>
@@ -7721,9 +7721,9 @@
       <c r="BV5" s="167"/>
       <c r="BW5" s="167"/>
       <c r="BX5" s="167"/>
-      <c r="BY5" s="255"/>
+      <c r="BY5" s="252"/>
       <c r="BZ5" s="107"/>
-      <c r="CA5" s="261"/>
+      <c r="CA5" s="258"/>
       <c r="CB5" s="107"/>
       <c r="CC5" s="107"/>
       <c r="CD5" s="107"/>
@@ -7989,11 +7989,11 @@
       <c r="BV6" s="167"/>
       <c r="BW6" s="167"/>
       <c r="BX6" s="167"/>
-      <c r="BY6" s="255"/>
+      <c r="BY6" s="252"/>
       <c r="BZ6" s="107" t="s">
         <v>813</v>
       </c>
-      <c r="CA6" s="261" t="s">
+      <c r="CA6" s="258" t="s">
         <v>124</v>
       </c>
       <c r="CB6" s="107"/>
@@ -8227,9 +8227,9 @@
       <c r="BV7" s="167"/>
       <c r="BW7" s="167"/>
       <c r="BX7" s="167"/>
-      <c r="BY7" s="255"/>
+      <c r="BY7" s="252"/>
       <c r="BZ7" s="107"/>
-      <c r="CA7" s="261"/>
+      <c r="CA7" s="258"/>
       <c r="CB7" s="107"/>
       <c r="CC7" s="107"/>
       <c r="CD7" s="107"/>
@@ -8451,9 +8451,9 @@
       <c r="BV8" s="167"/>
       <c r="BW8" s="167"/>
       <c r="BX8" s="167"/>
-      <c r="BY8" s="255"/>
+      <c r="BY8" s="252"/>
       <c r="BZ8" s="107"/>
-      <c r="CA8" s="261"/>
+      <c r="CA8" s="258"/>
       <c r="CB8" s="107"/>
       <c r="CC8" s="107"/>
       <c r="CD8" s="107"/>
@@ -8677,9 +8677,9 @@
       <c r="BV9" s="167"/>
       <c r="BW9" s="167"/>
       <c r="BX9" s="167"/>
-      <c r="BY9" s="255"/>
+      <c r="BY9" s="252"/>
       <c r="BZ9" s="107"/>
-      <c r="CA9" s="261"/>
+      <c r="CA9" s="258"/>
       <c r="CB9" s="107"/>
       <c r="CC9" s="107"/>
       <c r="CD9" s="107"/>
@@ -8933,11 +8933,11 @@
       </c>
       <c r="BW10" s="167"/>
       <c r="BX10" s="167"/>
-      <c r="BY10" s="255"/>
+      <c r="BY10" s="252"/>
       <c r="BZ10" s="107" t="s">
         <v>814</v>
       </c>
-      <c r="CA10" s="261" t="s">
+      <c r="CA10" s="258" t="s">
         <v>320</v>
       </c>
       <c r="CB10" s="107"/>
@@ -9229,9 +9229,9 @@
       <c r="BV11" s="167"/>
       <c r="BW11" s="167"/>
       <c r="BX11" s="167"/>
-      <c r="BY11" s="255"/>
+      <c r="BY11" s="252"/>
       <c r="BZ11" s="107"/>
-      <c r="CA11" s="261">
+      <c r="CA11" s="258">
         <v>4.7E-2</v>
       </c>
       <c r="CB11" s="107"/>
@@ -9465,9 +9465,9 @@
       <c r="BV12" s="167"/>
       <c r="BW12" s="167"/>
       <c r="BX12" s="167"/>
-      <c r="BY12" s="255"/>
+      <c r="BY12" s="252"/>
       <c r="BZ12" s="107"/>
-      <c r="CA12" s="261" t="s">
+      <c r="CA12" s="258" t="s">
         <v>536</v>
       </c>
       <c r="CB12" s="107"/>
@@ -9687,9 +9687,9 @@
       <c r="BV13" s="206"/>
       <c r="BW13" s="206"/>
       <c r="BX13" s="206"/>
-      <c r="BY13" s="255"/>
+      <c r="BY13" s="252"/>
       <c r="BZ13" s="107"/>
-      <c r="CA13" s="261"/>
+      <c r="CA13" s="258"/>
       <c r="CB13" s="107"/>
       <c r="CC13" s="107"/>
       <c r="CD13" s="107"/>
@@ -10023,10 +10023,10 @@
       <c r="BX14" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="BY14" s="256" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ14" s="265"/>
+      <c r="BY14" s="253" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ14" s="262"/>
       <c r="CA14" s="186"/>
       <c r="CB14" s="184" t="s">
         <v>282</v>
@@ -10399,7 +10399,7 @@
       <c r="BV15" s="167"/>
       <c r="BW15" s="167"/>
       <c r="BX15" s="167"/>
-      <c r="BY15" s="255"/>
+      <c r="BY15" s="252"/>
       <c r="BZ15" s="111"/>
       <c r="CA15" s="208">
         <v>1</v>
@@ -10623,7 +10623,7 @@
       <c r="BV16" s="167"/>
       <c r="BW16" s="167"/>
       <c r="BX16" s="167"/>
-      <c r="BY16" s="255"/>
+      <c r="BY16" s="252"/>
       <c r="BZ16" s="111"/>
       <c r="CA16" s="208">
         <v>0</v>
@@ -10847,9 +10847,9 @@
       <c r="BV17" s="167"/>
       <c r="BW17" s="167"/>
       <c r="BX17" s="167"/>
-      <c r="BY17" s="255"/>
+      <c r="BY17" s="252"/>
       <c r="BZ17" s="155"/>
-      <c r="CA17" s="262" t="s">
+      <c r="CA17" s="259" t="s">
         <v>585</v>
       </c>
       <c r="CB17" s="111"/>
@@ -11185,10 +11185,10 @@
       <c r="BX18" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY18" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ18" s="266"/>
+      <c r="BY18" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ18" s="263"/>
       <c r="CA18" s="108"/>
       <c r="CB18" s="106" t="s">
         <v>282</v>
@@ -11571,11 +11571,11 @@
       <c r="BV19" s="167"/>
       <c r="BW19" s="167"/>
       <c r="BX19" s="167"/>
-      <c r="BY19" s="255"/>
+      <c r="BY19" s="252"/>
       <c r="BZ19" s="107">
         <v>0</v>
       </c>
-      <c r="CA19" s="261">
+      <c r="CA19" s="258">
         <v>0.2</v>
       </c>
       <c r="CB19" s="107"/>
@@ -11851,11 +11851,11 @@
       <c r="BV20" s="167"/>
       <c r="BW20" s="167"/>
       <c r="BX20" s="167"/>
-      <c r="BY20" s="255"/>
+      <c r="BY20" s="252"/>
       <c r="BZ20" s="107">
         <v>0.9</v>
       </c>
-      <c r="CA20" s="261">
+      <c r="CA20" s="258">
         <v>0.9</v>
       </c>
       <c r="CB20" s="107"/>
@@ -12133,11 +12133,11 @@
       <c r="BV21" s="167"/>
       <c r="BW21" s="167"/>
       <c r="BX21" s="167"/>
-      <c r="BY21" s="255"/>
+      <c r="BY21" s="252"/>
       <c r="BZ21" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="CA21" s="261" t="s">
+      <c r="CA21" s="258" t="s">
         <v>96</v>
       </c>
       <c r="CB21" s="107"/>
@@ -12407,11 +12407,11 @@
       <c r="BV22" s="167"/>
       <c r="BW22" s="167"/>
       <c r="BX22" s="167"/>
-      <c r="BY22" s="255"/>
+      <c r="BY22" s="252"/>
       <c r="BZ22" s="107" t="s">
         <v>815</v>
       </c>
-      <c r="CA22" s="261" t="s">
+      <c r="CA22" s="258" t="s">
         <v>537</v>
       </c>
       <c r="CB22" s="107"/>
@@ -12701,11 +12701,11 @@
       <c r="BV23" s="167"/>
       <c r="BW23" s="167"/>
       <c r="BX23" s="167"/>
-      <c r="BY23" s="255"/>
+      <c r="BY23" s="252"/>
       <c r="BZ23" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="CA23" s="261" t="s">
+      <c r="CA23" s="258" t="s">
         <v>538</v>
       </c>
       <c r="CB23" s="107"/>
@@ -13089,10 +13089,10 @@
       <c r="BX24" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY24" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ24" s="266"/>
+      <c r="BY24" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ24" s="263"/>
       <c r="CA24" s="108"/>
       <c r="CB24" s="106" t="s">
         <v>282</v>
@@ -13467,11 +13467,11 @@
       <c r="BV25" s="167"/>
       <c r="BW25" s="167"/>
       <c r="BX25" s="167"/>
-      <c r="BY25" s="255"/>
+      <c r="BY25" s="252"/>
       <c r="BZ25" s="107" t="s">
         <v>815</v>
       </c>
-      <c r="CA25" s="261" t="str">
+      <c r="CA25" s="258" t="str">
         <f>CA22</f>
         <v>0.2 mL/min kg</v>
       </c>
@@ -13961,10 +13961,10 @@
       <c r="BX26" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY26" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ26" s="266"/>
+      <c r="BY26" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ26" s="263"/>
       <c r="CA26" s="108"/>
       <c r="CB26" s="106" t="s">
         <v>282</v>
@@ -14365,9 +14365,9 @@
       </c>
       <c r="BW27" s="167"/>
       <c r="BX27" s="167"/>
-      <c r="BY27" s="255"/>
+      <c r="BY27" s="252"/>
       <c r="BZ27" s="107"/>
-      <c r="CA27" s="261"/>
+      <c r="CA27" s="258"/>
       <c r="CB27" s="107"/>
       <c r="CC27" s="107"/>
       <c r="CD27" s="107"/>
@@ -14615,9 +14615,9 @@
       </c>
       <c r="BW28" s="167"/>
       <c r="BX28" s="167"/>
-      <c r="BY28" s="255"/>
+      <c r="BY28" s="252"/>
       <c r="BZ28" s="107"/>
-      <c r="CA28" s="261"/>
+      <c r="CA28" s="258"/>
       <c r="CB28" s="107"/>
       <c r="CC28" s="107"/>
       <c r="CD28" s="107"/>
@@ -14881,11 +14881,11 @@
       <c r="BX29" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="BY29" s="255">
+      <c r="BY29" s="252">
         <v>78</v>
       </c>
       <c r="BZ29" s="107"/>
-      <c r="CA29" s="261"/>
+      <c r="CA29" s="258"/>
       <c r="CB29" s="107"/>
       <c r="CC29" s="107"/>
       <c r="CD29" s="107"/>
@@ -15153,9 +15153,9 @@
       </c>
       <c r="BW30" s="167"/>
       <c r="BX30" s="167"/>
-      <c r="BY30" s="255"/>
+      <c r="BY30" s="252"/>
       <c r="BZ30" s="107"/>
-      <c r="CA30" s="261"/>
+      <c r="CA30" s="258"/>
       <c r="CB30" s="107"/>
       <c r="CC30" s="107"/>
       <c r="CD30" s="107"/>
@@ -15489,10 +15489,10 @@
       <c r="BX31" s="228" t="s">
         <v>283</v>
       </c>
-      <c r="BY31" s="257" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ31" s="267"/>
+      <c r="BY31" s="254" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ31" s="264"/>
       <c r="CA31" s="229"/>
       <c r="CB31" s="230" t="s">
         <v>282</v>
@@ -15865,9 +15865,9 @@
       <c r="BV32" s="206"/>
       <c r="BW32" s="206"/>
       <c r="BX32" s="206"/>
-      <c r="BY32" s="255"/>
+      <c r="BY32" s="252"/>
       <c r="BZ32" s="107"/>
-      <c r="CA32" s="261"/>
+      <c r="CA32" s="258"/>
       <c r="CB32" s="107"/>
       <c r="CC32" s="107"/>
       <c r="CD32" s="107"/>
@@ -16093,9 +16093,9 @@
       <c r="BV33" s="206"/>
       <c r="BW33" s="206"/>
       <c r="BX33" s="206"/>
-      <c r="BY33" s="255"/>
+      <c r="BY33" s="252"/>
       <c r="BZ33" s="107"/>
-      <c r="CA33" s="261"/>
+      <c r="CA33" s="258"/>
       <c r="CB33" s="107"/>
       <c r="CC33" s="107"/>
       <c r="CD33" s="107"/>
@@ -16435,10 +16435,10 @@
       <c r="BX34" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="BY34" s="256" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ34" s="265"/>
+      <c r="BY34" s="253" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ34" s="262"/>
       <c r="CA34" s="186"/>
       <c r="CB34" s="184" t="s">
         <v>282</v>
@@ -16813,11 +16813,11 @@
       <c r="BV35" s="167"/>
       <c r="BW35" s="167"/>
       <c r="BX35" s="167"/>
-      <c r="BY35" s="255"/>
+      <c r="BY35" s="252"/>
       <c r="BZ35" s="107">
         <v>9.7799999999999994</v>
       </c>
-      <c r="CA35" s="261"/>
+      <c r="CA35" s="258"/>
       <c r="CB35" s="107"/>
       <c r="CC35" s="107"/>
       <c r="CD35" s="107"/>
@@ -17073,11 +17073,11 @@
       <c r="BV36" s="167"/>
       <c r="BW36" s="167"/>
       <c r="BX36" s="167"/>
-      <c r="BY36" s="255"/>
+      <c r="BY36" s="252"/>
       <c r="BZ36" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="CA36" s="261"/>
+      <c r="CA36" s="258"/>
       <c r="CB36" s="107"/>
       <c r="CC36" s="107"/>
       <c r="CD36" s="107"/>
@@ -17333,11 +17333,11 @@
       <c r="BV37" s="167"/>
       <c r="BW37" s="167"/>
       <c r="BX37" s="167"/>
-      <c r="BY37" s="255"/>
+      <c r="BY37" s="252"/>
       <c r="BZ37" s="107">
         <v>1.05</v>
       </c>
-      <c r="CA37" s="261"/>
+      <c r="CA37" s="258"/>
       <c r="CB37" s="107"/>
       <c r="CC37" s="107"/>
       <c r="CD37" s="107"/>
@@ -17594,11 +17594,11 @@
       <c r="BV38" s="167"/>
       <c r="BW38" s="167"/>
       <c r="BX38" s="167"/>
-      <c r="BY38" s="255"/>
+      <c r="BY38" s="252"/>
       <c r="BZ38" s="107">
         <v>0.9</v>
       </c>
-      <c r="CA38" s="261"/>
+      <c r="CA38" s="258"/>
       <c r="CB38" s="107"/>
       <c r="CC38" s="107"/>
       <c r="CD38" s="107"/>
@@ -17960,11 +17960,11 @@
       <c r="BV39" s="167"/>
       <c r="BW39" s="167"/>
       <c r="BX39" s="167"/>
-      <c r="BY39" s="255"/>
+      <c r="BY39" s="252"/>
       <c r="BZ39" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="CA39" s="261"/>
+      <c r="CA39" s="258"/>
       <c r="CB39" s="107"/>
       <c r="CC39" s="107"/>
       <c r="CD39" s="107"/>
@@ -18218,11 +18218,11 @@
       <c r="BV40" s="167"/>
       <c r="BW40" s="167"/>
       <c r="BX40" s="167"/>
-      <c r="BY40" s="255"/>
+      <c r="BY40" s="252"/>
       <c r="BZ40" s="107">
         <v>0.46</v>
       </c>
-      <c r="CA40" s="261"/>
+      <c r="CA40" s="258"/>
       <c r="CB40" s="107"/>
       <c r="CC40" s="107"/>
       <c r="CD40" s="107"/>
@@ -18478,11 +18478,11 @@
       <c r="BV41" s="206"/>
       <c r="BW41" s="206"/>
       <c r="BX41" s="206"/>
-      <c r="BY41" s="255"/>
+      <c r="BY41" s="252"/>
       <c r="BZ41" s="107">
         <v>4</v>
       </c>
-      <c r="CA41" s="261"/>
+      <c r="CA41" s="258"/>
       <c r="CB41" s="107"/>
       <c r="CC41" s="107"/>
       <c r="CD41" s="107"/>
@@ -18736,11 +18736,11 @@
       <c r="BV42" s="206"/>
       <c r="BW42" s="206"/>
       <c r="BX42" s="206"/>
-      <c r="BY42" s="255"/>
+      <c r="BY42" s="252"/>
       <c r="BZ42" s="107">
         <v>49.3</v>
       </c>
-      <c r="CA42" s="261"/>
+      <c r="CA42" s="258"/>
       <c r="CB42" s="107"/>
       <c r="CC42" s="107"/>
       <c r="CD42" s="107"/>
@@ -19106,10 +19106,10 @@
       <c r="BX43" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="BY43" s="256" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ43" s="265"/>
+      <c r="BY43" s="253" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ43" s="262"/>
       <c r="CA43" s="186"/>
       <c r="CB43" s="184" t="s">
         <v>282</v>
@@ -19488,7 +19488,7 @@
       <c r="BV44" s="167"/>
       <c r="BW44" s="167"/>
       <c r="BX44" s="167"/>
-      <c r="BY44" s="255"/>
+      <c r="BY44" s="252"/>
       <c r="BZ44" s="111">
         <v>0</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="BV45" s="167"/>
       <c r="BW45" s="167"/>
       <c r="BX45" s="167"/>
-      <c r="BY45" s="255"/>
+      <c r="BY45" s="252"/>
       <c r="BZ45" s="111">
         <v>0</v>
       </c>
@@ -20012,7 +20012,7 @@
       <c r="BV46" s="167"/>
       <c r="BW46" s="167"/>
       <c r="BX46" s="167"/>
-      <c r="BY46" s="255"/>
+      <c r="BY46" s="252"/>
       <c r="BZ46" s="111" t="s">
         <v>816</v>
       </c>
@@ -20280,7 +20280,7 @@
       <c r="BV47" s="167"/>
       <c r="BW47" s="167"/>
       <c r="BX47" s="167"/>
-      <c r="BY47" s="255"/>
+      <c r="BY47" s="252"/>
       <c r="BZ47" s="111">
         <v>9.98</v>
       </c>
@@ -20542,9 +20542,9 @@
       <c r="BV48" s="167"/>
       <c r="BW48" s="167"/>
       <c r="BX48" s="167"/>
-      <c r="BY48" s="255"/>
+      <c r="BY48" s="252"/>
       <c r="BZ48" s="111">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="CA48" s="208">
         <v>0</v>
@@ -20804,7 +20804,7 @@
       <c r="BV49" s="167"/>
       <c r="BW49" s="167"/>
       <c r="BX49" s="167"/>
-      <c r="BY49" s="255"/>
+      <c r="BY49" s="252"/>
       <c r="BZ49" s="111">
         <v>0</v>
       </c>
@@ -21066,7 +21066,7 @@
       <c r="BV50" s="167"/>
       <c r="BW50" s="167"/>
       <c r="BX50" s="167"/>
-      <c r="BY50" s="255"/>
+      <c r="BY50" s="252"/>
       <c r="BZ50" s="111">
         <v>0</v>
       </c>
@@ -21328,7 +21328,7 @@
       <c r="BV51" s="167"/>
       <c r="BW51" s="167"/>
       <c r="BX51" s="167"/>
-      <c r="BY51" s="255"/>
+      <c r="BY51" s="252"/>
       <c r="BZ51" s="111">
         <v>0</v>
       </c>
@@ -21596,7 +21596,7 @@
       <c r="BV52" s="167"/>
       <c r="BW52" s="167"/>
       <c r="BX52" s="167"/>
-      <c r="BY52" s="255"/>
+      <c r="BY52" s="252"/>
       <c r="BZ52" s="111">
         <v>0</v>
       </c>
@@ -21890,7 +21890,7 @@
       <c r="BV53" s="167"/>
       <c r="BW53" s="167"/>
       <c r="BX53" s="167"/>
-      <c r="BY53" s="255"/>
+      <c r="BY53" s="252"/>
       <c r="BZ53" s="111">
         <v>0</v>
       </c>
@@ -22166,7 +22166,7 @@
       <c r="BV54" s="167"/>
       <c r="BW54" s="167"/>
       <c r="BX54" s="167"/>
-      <c r="BY54" s="255"/>
+      <c r="BY54" s="252"/>
       <c r="BZ54" s="111">
         <v>0</v>
       </c>
@@ -22428,7 +22428,7 @@
       <c r="BV55" s="167"/>
       <c r="BW55" s="167"/>
       <c r="BX55" s="167"/>
-      <c r="BY55" s="255"/>
+      <c r="BY55" s="252"/>
       <c r="BZ55" s="111">
         <v>0</v>
       </c>
@@ -22690,7 +22690,7 @@
       <c r="BV56" s="167"/>
       <c r="BW56" s="167"/>
       <c r="BX56" s="167"/>
-      <c r="BY56" s="255"/>
+      <c r="BY56" s="252"/>
       <c r="BZ56" s="111">
         <v>0</v>
       </c>
@@ -22952,7 +22952,7 @@
       <c r="BV57" s="167"/>
       <c r="BW57" s="167"/>
       <c r="BX57" s="167"/>
-      <c r="BY57" s="255"/>
+      <c r="BY57" s="252"/>
       <c r="BZ57" s="111">
         <v>0</v>
       </c>
@@ -23214,7 +23214,7 @@
       <c r="BV58" s="167"/>
       <c r="BW58" s="167"/>
       <c r="BX58" s="167"/>
-      <c r="BY58" s="255"/>
+      <c r="BY58" s="252"/>
       <c r="BZ58" s="111">
         <v>0</v>
       </c>
@@ -23534,7 +23534,7 @@
       <c r="BX59" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY59" s="253" t="s">
+      <c r="BY59" s="250" t="s">
         <v>284</v>
       </c>
       <c r="BZ59" s="111">
@@ -23856,7 +23856,7 @@
       <c r="BX60" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY60" s="253" t="s">
+      <c r="BY60" s="250" t="s">
         <v>284</v>
       </c>
       <c r="BZ60" s="111">
@@ -24120,7 +24120,7 @@
       <c r="BV61" s="167"/>
       <c r="BW61" s="166"/>
       <c r="BX61" s="166"/>
-      <c r="BY61" s="253"/>
+      <c r="BY61" s="250"/>
       <c r="BZ61" s="111" t="s">
         <v>743</v>
       </c>
@@ -24382,7 +24382,7 @@
       <c r="BV62" s="167"/>
       <c r="BW62" s="167"/>
       <c r="BX62" s="167"/>
-      <c r="BY62" s="255"/>
+      <c r="BY62" s="252"/>
       <c r="BZ62" s="111" t="s">
         <v>590</v>
       </c>
@@ -24754,10 +24754,10 @@
       <c r="BX63" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="BY63" s="256" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ63" s="265"/>
+      <c r="BY63" s="253" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ63" s="262"/>
       <c r="CA63" s="186"/>
       <c r="CB63" s="184" t="s">
         <v>282</v>
@@ -25130,9 +25130,9 @@
       <c r="BV64" s="167"/>
       <c r="BW64" s="167"/>
       <c r="BX64" s="167"/>
-      <c r="BY64" s="255"/>
+      <c r="BY64" s="252"/>
       <c r="BZ64" s="109"/>
-      <c r="CA64" s="263">
+      <c r="CA64" s="260">
         <v>1</v>
       </c>
       <c r="CB64" s="109"/>
@@ -25470,10 +25470,10 @@
       <c r="BX65" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY65" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ65" s="266"/>
+      <c r="BY65" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ65" s="263"/>
       <c r="CA65" s="108"/>
       <c r="CB65" s="106" t="s">
         <v>282</v>
@@ -25846,9 +25846,9 @@
       <c r="BV66" s="167"/>
       <c r="BW66" s="167"/>
       <c r="BX66" s="167"/>
-      <c r="BY66" s="255"/>
+      <c r="BY66" s="252"/>
       <c r="BZ66" s="109"/>
-      <c r="CA66" s="263">
+      <c r="CA66" s="260">
         <v>1</v>
       </c>
       <c r="CB66" s="109"/>
@@ -26190,10 +26190,10 @@
       <c r="BX67" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY67" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ67" s="266"/>
+      <c r="BY67" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ67" s="263"/>
       <c r="CA67" s="108"/>
       <c r="CB67" s="106" t="s">
         <v>282</v>
@@ -26566,9 +26566,9 @@
       <c r="BV68" s="167"/>
       <c r="BW68" s="167"/>
       <c r="BX68" s="167"/>
-      <c r="BY68" s="255"/>
+      <c r="BY68" s="252"/>
       <c r="BZ68" s="109"/>
-      <c r="CA68" s="263">
+      <c r="CA68" s="260">
         <v>2</v>
       </c>
       <c r="CB68" s="109"/>
@@ -26906,10 +26906,10 @@
       <c r="BX69" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY69" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ69" s="266"/>
+      <c r="BY69" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ69" s="263"/>
       <c r="CA69" s="108"/>
       <c r="CB69" s="106" t="s">
         <v>282</v>
@@ -27282,9 +27282,9 @@
       <c r="BV70" s="167"/>
       <c r="BW70" s="167"/>
       <c r="BX70" s="167"/>
-      <c r="BY70" s="255"/>
+      <c r="BY70" s="252"/>
       <c r="BZ70" s="109"/>
-      <c r="CA70" s="263">
+      <c r="CA70" s="260">
         <v>1</v>
       </c>
       <c r="CB70" s="109"/>
@@ -27626,10 +27626,10 @@
       <c r="BX71" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY71" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ71" s="266"/>
+      <c r="BY71" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ71" s="263"/>
       <c r="CA71" s="108"/>
       <c r="CB71" s="106" t="s">
         <v>282</v>
@@ -28002,9 +28002,9 @@
       <c r="BV72" s="167"/>
       <c r="BW72" s="167"/>
       <c r="BX72" s="167"/>
-      <c r="BY72" s="255"/>
+      <c r="BY72" s="252"/>
       <c r="BZ72" s="109"/>
-      <c r="CA72" s="263">
+      <c r="CA72" s="260">
         <v>1</v>
       </c>
       <c r="CB72" s="109"/>
@@ -28346,10 +28346,10 @@
       <c r="BX73" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY73" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ73" s="266"/>
+      <c r="BY73" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ73" s="263"/>
       <c r="CA73" s="108"/>
       <c r="CB73" s="106" t="s">
         <v>282</v>
@@ -28722,9 +28722,9 @@
       <c r="BV74" s="167"/>
       <c r="BW74" s="167"/>
       <c r="BX74" s="167"/>
-      <c r="BY74" s="255"/>
+      <c r="BY74" s="252"/>
       <c r="BZ74" s="109"/>
-      <c r="CA74" s="263">
+      <c r="CA74" s="260">
         <v>4</v>
       </c>
       <c r="CB74" s="109"/>
@@ -29064,10 +29064,10 @@
       <c r="BX75" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY75" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ75" s="266"/>
+      <c r="BY75" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ75" s="263"/>
       <c r="CA75" s="108"/>
       <c r="CB75" s="106" t="s">
         <v>282</v>
@@ -29440,9 +29440,9 @@
       <c r="BV76" s="167"/>
       <c r="BW76" s="167"/>
       <c r="BX76" s="167"/>
-      <c r="BY76" s="255"/>
+      <c r="BY76" s="252"/>
       <c r="BZ76" s="109"/>
-      <c r="CA76" s="263">
+      <c r="CA76" s="260">
         <v>1</v>
       </c>
       <c r="CB76" s="109"/>
@@ -29784,10 +29784,10 @@
       <c r="BX77" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY77" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ77" s="266"/>
+      <c r="BY77" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ77" s="263"/>
       <c r="CA77" s="108"/>
       <c r="CB77" s="106" t="s">
         <v>282</v>
@@ -30160,9 +30160,9 @@
       <c r="BV78" s="167"/>
       <c r="BW78" s="167"/>
       <c r="BX78" s="167"/>
-      <c r="BY78" s="255"/>
+      <c r="BY78" s="252"/>
       <c r="BZ78" s="109"/>
-      <c r="CA78" s="263">
+      <c r="CA78" s="260">
         <v>1</v>
       </c>
       <c r="CB78" s="109"/>
@@ -30500,10 +30500,10 @@
       <c r="BX79" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY79" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ79" s="266"/>
+      <c r="BY79" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ79" s="263"/>
       <c r="CA79" s="108"/>
       <c r="CB79" s="106" t="s">
         <v>282</v>
@@ -30876,9 +30876,9 @@
       <c r="BV80" s="167"/>
       <c r="BW80" s="167"/>
       <c r="BX80" s="167"/>
-      <c r="BY80" s="255"/>
+      <c r="BY80" s="252"/>
       <c r="BZ80" s="109"/>
-      <c r="CA80" s="263">
+      <c r="CA80" s="260">
         <v>1</v>
       </c>
       <c r="CB80" s="109"/>
@@ -31220,10 +31220,10 @@
       <c r="BX81" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY81" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ81" s="266"/>
+      <c r="BY81" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ81" s="263"/>
       <c r="CA81" s="108"/>
       <c r="CB81" s="106" t="s">
         <v>282</v>
@@ -31596,9 +31596,9 @@
       <c r="BV82" s="167"/>
       <c r="BW82" s="167"/>
       <c r="BX82" s="167"/>
-      <c r="BY82" s="255"/>
+      <c r="BY82" s="252"/>
       <c r="BZ82" s="109"/>
-      <c r="CA82" s="263">
+      <c r="CA82" s="260">
         <v>1</v>
       </c>
       <c r="CB82" s="109"/>
@@ -31940,10 +31940,10 @@
       <c r="BX83" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY83" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ83" s="266"/>
+      <c r="BY83" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ83" s="263"/>
       <c r="CA83" s="108"/>
       <c r="CB83" s="106" t="s">
         <v>282</v>
@@ -32316,9 +32316,9 @@
       <c r="BV84" s="167"/>
       <c r="BW84" s="167"/>
       <c r="BX84" s="167"/>
-      <c r="BY84" s="255"/>
+      <c r="BY84" s="252"/>
       <c r="BZ84" s="109"/>
-      <c r="CA84" s="263">
+      <c r="CA84" s="260">
         <v>4</v>
       </c>
       <c r="CB84" s="109"/>
@@ -32658,10 +32658,10 @@
       <c r="BX85" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="BY85" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ85" s="266"/>
+      <c r="BY85" s="250" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ85" s="263"/>
       <c r="CA85" s="108"/>
       <c r="CB85" s="106" t="s">
         <v>282</v>
@@ -33034,9 +33034,9 @@
       <c r="BV86" s="167"/>
       <c r="BW86" s="167"/>
       <c r="BX86" s="167"/>
-      <c r="BY86" s="255"/>
+      <c r="BY86" s="252"/>
       <c r="BZ86" s="109"/>
-      <c r="CA86" s="263">
+      <c r="CA86" s="260">
         <v>1</v>
       </c>
       <c r="CB86" s="109"/>
@@ -33374,10 +33374,10 @@
       <c r="BX87" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="BY87" s="258" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ87" s="266"/>
+      <c r="BY87" s="255" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ87" s="263"/>
       <c r="CA87" s="108"/>
       <c r="CB87" s="106" t="s">
         <v>282</v>
@@ -33750,9 +33750,9 @@
       <c r="BV88" s="167"/>
       <c r="BW88" s="90"/>
       <c r="BX88" s="90"/>
-      <c r="BY88" s="259"/>
+      <c r="BY88" s="256"/>
       <c r="BZ88" s="109"/>
-      <c r="CA88" s="263">
+      <c r="CA88" s="260">
         <v>1</v>
       </c>
       <c r="CB88" s="109"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioGears\biogears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -5354,11 +5354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HF86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="FV3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GL5" sqref="GL5:HB5"/>
+      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14656,7 +14656,7 @@
       <c r="T29" s="88"/>
       <c r="U29" s="88"/>
       <c r="V29" s="88">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W29" s="81">
         <v>0.99</v>
@@ -14668,7 +14668,7 @@
         <v>291</v>
       </c>
       <c r="Z29" s="84">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AA29" s="88"/>
       <c r="AB29" s="88"/>
@@ -33090,7 +33090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F48" sqref="F48:M53"/>
     </sheetView>
   </sheetViews>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioGears\biogears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\worktrees\Documentation\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -5354,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HF86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="DZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
@@ -33090,8 +33090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:M53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33242,7 +33242,9 @@
       <c r="M4" s="216" t="s">
         <v>767</v>
       </c>
-      <c r="N4" s="216"/>
+      <c r="N4" s="216" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ntatum\BioGearsCMake\master\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="852" windowWidth="15096" windowHeight="7056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -4135,33 +4135,33 @@
       <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="133" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="137" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="137" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="137" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="137" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="137" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="137" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.140625" style="137" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="137"/>
+    <col min="5" max="5" width="14.33203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="137" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.109375" style="137" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="132"/>
       <c r="B1" s="266" t="s">
         <v>506</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="X1" s="268"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="132" t="s">
         <v>485</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="W3" s="150"/>
       <c r="X3" s="151"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="140" t="s">
         <v>333</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="132" t="s">
         <v>513</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="W5" s="144"/>
       <c r="X5" s="145"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="141" t="s">
         <v>5</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="141" t="s">
         <v>6</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="141" t="s">
         <v>7</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="141" t="s">
         <v>162</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="132" t="s">
         <v>514</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="W10" s="144"/>
       <c r="X10" s="145"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="141" t="s">
         <v>512</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="W11" s="148"/>
       <c r="X11" s="149"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="141" t="s">
         <v>478</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="W12" s="148"/>
       <c r="X12" s="149"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="141" t="s">
         <v>60</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="141" t="s">
         <v>474</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="141" t="s">
         <v>475</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="141" t="s">
         <v>62</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
         <v>516</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="W17" s="144"/>
       <c r="X17" s="145"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="141" t="s">
         <v>507</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="W18" s="148"/>
       <c r="X18" s="149"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="141" t="s">
         <v>8</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="W19" s="148"/>
       <c r="X19" s="149"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="141" t="s">
         <v>483</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="W20" s="148"/>
       <c r="X20" s="149"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="141" t="s">
         <v>700</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="W21" s="148"/>
       <c r="X21" s="192"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="141" t="s">
         <v>701</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="W22" s="148"/>
       <c r="X22" s="192"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="141" t="s">
         <v>702</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="132" t="s">
         <v>515</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="W24" s="144"/>
       <c r="X24" s="145"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="141" t="s">
         <v>480</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="W25" s="148"/>
       <c r="X25" s="149"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="141" t="s">
         <v>481</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="W26" s="148"/>
       <c r="X26" s="149"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="141" t="s">
         <v>479</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="W27" s="148"/>
       <c r="X27" s="149"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="141" t="s">
         <v>484</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="W28" s="148"/>
       <c r="X28" s="149"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="141" t="s">
         <v>482</v>
       </c>
@@ -5435,208 +5435,208 @@
   <dimension ref="A1:HG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BZ45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="EE43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CA48" sqref="CA48"/>
+      <selection pane="bottomRight" activeCell="EE57" sqref="EE57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="97" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.28515625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.5703125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="11.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="22.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="37" width="26.140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="15.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="13.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="45" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="14.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="49" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="11.5703125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.85546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="16.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="11.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="12.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="18.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="38.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.33203125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.5546875" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="22.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="37" width="26.109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="15.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="13.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="45" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="14.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="49" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="11.5546875" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.88671875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="11.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="12.33203125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="18.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="24" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="18.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="18.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="13.85546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="73" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="11.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="77" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.42578125" style="265" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="21.42578125" style="97" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="83" max="83" width="14.140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="86" width="18.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="18.140625" style="98" customWidth="1" collapsed="1"/>
-    <col min="88" max="90" width="18.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="15.85546875" style="98" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="20.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="109.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="95" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="99" max="99" width="12.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="103" width="15.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="58.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="106" max="106" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="107" max="107" width="15.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="109" max="109" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="111" max="111" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="12.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="115" max="115" width="13.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="117" max="117" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="118" max="118" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="119" max="119" width="15.140625" style="98" customWidth="1" collapsed="1"/>
-    <col min="120" max="120" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="20.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="24.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="20.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="27.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="127" max="127" width="13.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="131" max="131" width="14.28515625" style="98" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="134" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="135" max="135" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="139" max="139" width="21.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="142" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="143" max="143" width="23.7109375" style="98" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="15.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="15.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="30.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="15.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="151" max="151" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="153" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="154" max="154" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="155" max="155" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="156" max="158" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="159" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="160" max="162" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="163" max="163" width="17.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="167" max="167" width="8.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="169" max="169" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="171" max="171" width="11.85546875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="173" max="173" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="174" max="174" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="175" max="175" width="15.7109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="177" max="177" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="178" max="178" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="179" max="179" width="19.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="181" max="181" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="182" max="182" width="19.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="183" max="183" width="22.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="185" max="185" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="186" max="186" width="22.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="187" max="187" width="26.140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.33203125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="18.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="18.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="13.88671875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="73" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="11.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="21.44140625" style="265" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="21.44140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="83" max="83" width="14.109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="86" width="18.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="18.109375" style="98" customWidth="1" collapsed="1"/>
+    <col min="88" max="90" width="18.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="15.88671875" style="98" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="20.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="109.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="95" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="99" width="12.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="103" max="103" width="15.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="58.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="106" max="106" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="107" max="107" width="15.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="110" max="110" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="111" max="111" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="12.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="115" max="115" width="13.44140625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="117" max="117" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="119" max="119" width="15.109375" style="98" customWidth="1" collapsed="1"/>
+    <col min="120" max="120" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="20.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="24.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="20.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="27.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="127" max="127" width="13.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="129" max="129" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="131" max="131" width="14.33203125" style="98" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="134" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="135" max="135" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="139" max="139" width="21.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="142" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="143" max="143" width="23.6640625" style="98" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="15.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="15.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="30.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="147" max="147" width="15.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="149" max="149" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="151" max="151" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="153" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="154" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="155" max="155" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
+    <col min="156" max="158" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="159" max="159" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
+    <col min="160" max="162" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="163" width="17.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="167" max="167" width="8.5546875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="171" max="171" width="11.88671875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="175" max="175" width="15.6640625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="177" max="177" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="178" max="178" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="179" max="179" width="19.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="180" max="180" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="181" max="181" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="182" max="182" width="19.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="183" max="183" width="22.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="185" max="185" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="186" max="186" width="22.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="187" max="187" width="26.109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="188" max="190" width="23" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="191" max="191" width="20.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="191" max="191" width="20.5546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="192" max="192" width="18" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="193" max="193" width="22.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="194" max="194" width="32.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="195" max="195" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="197" max="197" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="198" max="198" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="199" max="199" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="201" max="201" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="202" max="202" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="203" max="203" width="14.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="204" max="204" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="205" max="205" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="206" max="206" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="207" max="207" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="209" max="209" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="210" max="210" width="13.140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="211" max="211" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="212" max="212" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="213" max="213" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="214" max="214" width="15.140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="215" max="215" width="9.140625" style="28" collapsed="1"/>
-    <col min="216" max="16384" width="9.140625" style="28"/>
+    <col min="193" max="193" width="22.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="194" max="194" width="32.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="195" max="195" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="197" max="197" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="198" max="198" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="199" max="199" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="201" max="201" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="202" max="202" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="203" max="203" width="14.88671875" style="28" customWidth="1" collapsed="1"/>
+    <col min="204" max="204" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="205" max="205" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="206" max="206" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="207" max="207" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="209" max="209" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="210" max="210" width="13.109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="211" max="211" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="212" max="212" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="213" max="213" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="214" max="214" width="15.109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="215" max="215" width="9.109375" style="28" collapsed="1"/>
+    <col min="216" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57"/>
       <c r="B1" s="52"/>
       <c r="C1" s="95" t="s">
@@ -6170,7 +6170,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="3" spans="1:214" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:214" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>269</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="HE4" s="221"/>
       <c r="HF4" s="221"/>
     </row>
-    <row r="5" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>644</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="HE5" s="221"/>
       <c r="HF5" s="221"/>
     </row>
-    <row r="6" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>10</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="HE6" s="221"/>
       <c r="HF6" s="221"/>
     </row>
-    <row r="7" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>468</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="HE7" s="221"/>
       <c r="HF7" s="221"/>
     </row>
-    <row r="8" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>469</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="HE8" s="221"/>
       <c r="HF8" s="221"/>
     </row>
-    <row r="9" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>641</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="HE9" s="221"/>
       <c r="HF9" s="221"/>
     </row>
-    <row r="10" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>43</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="HE10" s="221"/>
       <c r="HF10" s="221"/>
     </row>
-    <row r="11" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>73</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="HE11" s="221"/>
       <c r="HF11" s="221"/>
     </row>
-    <row r="12" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>72</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="HE12" s="221"/>
       <c r="HF12" s="221"/>
     </row>
-    <row r="13" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>786</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="HE13" s="220"/>
       <c r="HF13" s="220"/>
     </row>
-    <row r="14" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="78" t="s">
         <v>265</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>582</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="HE15" s="220"/>
       <c r="HF15" s="220"/>
     </row>
-    <row r="16" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>569</v>
       </c>
@@ -10768,7 +10768,7 @@
       <c r="HE16" s="220"/>
       <c r="HF16" s="220"/>
     </row>
-    <row r="17" spans="1:214" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:214" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>539</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="HE17" s="220"/>
       <c r="HF17" s="220"/>
     </row>
-    <row r="18" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>266</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>93</v>
       </c>
@@ -11756,7 +11756,7 @@
       <c r="HE19" s="219"/>
       <c r="HF19" s="219"/>
     </row>
-    <row r="20" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>89</v>
       </c>
@@ -12044,7 +12044,7 @@
       <c r="HE20" s="219"/>
       <c r="HF20" s="219"/>
     </row>
-    <row r="21" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>91</v>
       </c>
@@ -12318,7 +12318,7 @@
       <c r="HE21" s="219"/>
       <c r="HF21" s="219"/>
     </row>
-    <row r="22" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>299</v>
       </c>
@@ -12600,7 +12600,7 @@
       <c r="HE22" s="219"/>
       <c r="HF22" s="219"/>
     </row>
-    <row r="23" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>92</v>
       </c>
@@ -12896,7 +12896,7 @@
       <c r="HE23" s="219"/>
       <c r="HF23" s="219"/>
     </row>
-    <row r="24" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="79" t="s">
         <v>264</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="80" t="s">
         <v>260</v>
       </c>
@@ -13768,7 +13768,7 @@
       <c r="HE25" s="218"/>
       <c r="HF25" s="218"/>
     </row>
-    <row r="26" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="79" t="s">
         <v>259</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="80" t="s">
         <v>261</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="HE27" s="218"/>
       <c r="HF27" s="218"/>
     </row>
-    <row r="28" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="80" t="s">
         <v>300</v>
       </c>
@@ -14758,7 +14758,7 @@
       <c r="HE28" s="219"/>
       <c r="HF28" s="219"/>
     </row>
-    <row r="29" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
         <v>262</v>
       </c>
@@ -15026,7 +15026,7 @@
       <c r="HE29" s="218"/>
       <c r="HF29" s="218"/>
     </row>
-    <row r="30" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
         <v>263</v>
       </c>
@@ -15296,7 +15296,7 @@
       <c r="HE30" s="218"/>
       <c r="HF30" s="218"/>
     </row>
-    <row r="31" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
         <v>789</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
         <v>790</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="HE32" s="220"/>
       <c r="HF32" s="220"/>
     </row>
-    <row r="33" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80" t="s">
         <v>791</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="HE33" s="220"/>
       <c r="HF33" s="220"/>
     </row>
-    <row r="34" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="78" t="s">
         <v>267</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>87</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="HE35" s="219"/>
       <c r="HF35" s="219"/>
     </row>
-    <row r="36" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>110</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="HE36" s="219"/>
       <c r="HF36" s="219"/>
     </row>
-    <row r="37" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
         <v>90</v>
       </c>
@@ -17512,7 +17512,7 @@
       <c r="HE37" s="219"/>
       <c r="HF37" s="219"/>
     </row>
-    <row r="38" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>89</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="HE38" s="219"/>
       <c r="HF38" s="219"/>
     </row>
-    <row r="39" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
         <v>86</v>
       </c>
@@ -18137,7 +18137,7 @@
       <c r="HE39" s="219"/>
       <c r="HF39" s="219"/>
     </row>
-    <row r="40" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>88</v>
       </c>
@@ -18397,7 +18397,7 @@
       <c r="HE40" s="219"/>
       <c r="HF40" s="219"/>
     </row>
-    <row r="41" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60" t="s">
         <v>714</v>
       </c>
@@ -18655,7 +18655,7 @@
       <c r="HE41" s="218"/>
       <c r="HF41" s="218"/>
     </row>
-    <row r="42" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>715</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="HE42" s="218"/>
       <c r="HF42" s="218"/>
     </row>
-    <row r="43" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="78" t="s">
         <v>268</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="44" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
         <v>251</v>
       </c>
@@ -19669,7 +19669,7 @@
       <c r="HE44" s="218"/>
       <c r="HF44" s="218"/>
     </row>
-    <row r="45" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>252</v>
       </c>
@@ -19761,7 +19761,7 @@
       <c r="CC45" s="111"/>
       <c r="CD45" s="111"/>
       <c r="CE45" s="111">
-        <v>-0.35</v>
+        <v>-0.45</v>
       </c>
       <c r="CF45" s="111"/>
       <c r="CG45" s="111"/>
@@ -19785,7 +19785,7 @@
       <c r="CS45" s="111"/>
       <c r="CT45" s="111"/>
       <c r="CU45" s="111">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="CV45" s="111"/>
       <c r="CW45" s="111"/>
@@ -19839,13 +19839,13 @@
       <c r="EC45" s="111"/>
       <c r="ED45" s="111"/>
       <c r="EE45" s="111">
-        <v>-0.35</v>
+        <v>-0.25</v>
       </c>
       <c r="EF45" s="111"/>
       <c r="EG45" s="111"/>
       <c r="EH45" s="111"/>
       <c r="EI45" s="111">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="EJ45" s="111"/>
       <c r="EK45" s="111"/>
@@ -19857,7 +19857,7 @@
       <c r="EO45" s="111"/>
       <c r="EP45" s="111"/>
       <c r="EQ45" s="111">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="ER45" s="111"/>
       <c r="ES45" s="111"/>
@@ -19931,7 +19931,7 @@
       <c r="HE45" s="218"/>
       <c r="HF45" s="218"/>
     </row>
-    <row r="46" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
         <v>253</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="HE46" s="218"/>
       <c r="HF46" s="218"/>
     </row>
-    <row r="47" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>553</v>
       </c>
@@ -20461,7 +20461,7 @@
       <c r="HE47" s="218"/>
       <c r="HF47" s="218"/>
     </row>
-    <row r="48" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>810</v>
       </c>
@@ -20723,7 +20723,7 @@
       <c r="HE48" s="218"/>
       <c r="HF48" s="218"/>
     </row>
-    <row r="49" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="62" t="s">
         <v>3</v>
       </c>
@@ -20815,7 +20815,7 @@
       <c r="CC49" s="111"/>
       <c r="CD49" s="111"/>
       <c r="CE49" s="111">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CF49" s="111"/>
       <c r="CG49" s="111"/>
@@ -20839,13 +20839,13 @@
       <c r="CS49" s="111"/>
       <c r="CT49" s="111"/>
       <c r="CU49" s="111">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="CV49" s="111"/>
       <c r="CW49" s="111"/>
       <c r="CX49" s="111"/>
       <c r="CY49" s="111">
-        <v>-0.05</v>
+        <v>0.3</v>
       </c>
       <c r="CZ49" s="111"/>
       <c r="DA49" s="111"/>
@@ -20893,13 +20893,13 @@
       <c r="EC49" s="111"/>
       <c r="ED49" s="111"/>
       <c r="EE49" s="111">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="EF49" s="111"/>
       <c r="EG49" s="111"/>
       <c r="EH49" s="111"/>
       <c r="EI49" s="111">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ49" s="111"/>
       <c r="EK49" s="111"/>
@@ -20911,7 +20911,7 @@
       <c r="EO49" s="111"/>
       <c r="EP49" s="111"/>
       <c r="EQ49" s="111">
-        <v>-0.1</v>
+        <v>0.05</v>
       </c>
       <c r="ER49" s="111"/>
       <c r="ES49" s="111"/>
@@ -20985,7 +20985,7 @@
       <c r="HE49" s="218"/>
       <c r="HF49" s="218"/>
     </row>
-    <row r="50" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="62" t="s">
         <v>724</v>
       </c>
@@ -21247,7 +21247,7 @@
       <c r="HE50" s="218"/>
       <c r="HF50" s="218"/>
     </row>
-    <row r="51" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>254</v>
       </c>
@@ -21509,7 +21509,7 @@
       <c r="HE51" s="218"/>
       <c r="HF51" s="218"/>
     </row>
-    <row r="52" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>552</v>
       </c>
@@ -21801,7 +21801,7 @@
       <c r="HE52" s="218"/>
       <c r="HF52" s="218"/>
     </row>
-    <row r="53" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>551</v>
       </c>
@@ -22085,7 +22085,7 @@
       <c r="HE53" s="218"/>
       <c r="HF53" s="218"/>
     </row>
-    <row r="54" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>4</v>
       </c>
@@ -22177,7 +22177,7 @@
       <c r="CC54" s="111"/>
       <c r="CD54" s="111"/>
       <c r="CE54" s="111">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CF54" s="111"/>
       <c r="CG54" s="111"/>
@@ -22347,7 +22347,7 @@
       <c r="HE54" s="218"/>
       <c r="HF54" s="218"/>
     </row>
-    <row r="55" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>255</v>
       </c>
@@ -22609,7 +22609,7 @@
       <c r="HE55" s="218"/>
       <c r="HF55" s="218"/>
     </row>
-    <row r="56" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
         <v>256</v>
       </c>
@@ -22701,7 +22701,7 @@
       <c r="CC56" s="111"/>
       <c r="CD56" s="111"/>
       <c r="CE56" s="111">
-        <v>-0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="CF56" s="111"/>
       <c r="CG56" s="111"/>
@@ -22731,7 +22731,7 @@
       <c r="CW56" s="111"/>
       <c r="CX56" s="111"/>
       <c r="CY56" s="111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="CZ56" s="111"/>
       <c r="DA56" s="111"/>
@@ -22779,13 +22779,13 @@
       <c r="EC56" s="111"/>
       <c r="ED56" s="111"/>
       <c r="EE56" s="111">
-        <v>-0.35</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="EF56" s="111"/>
       <c r="EG56" s="111"/>
       <c r="EH56" s="111"/>
       <c r="EI56" s="111">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="EJ56" s="111"/>
       <c r="EK56" s="111"/>
@@ -22797,7 +22797,7 @@
       <c r="EO56" s="111"/>
       <c r="EP56" s="111"/>
       <c r="EQ56" s="111">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="ER56" s="111"/>
       <c r="ES56" s="111"/>
@@ -22871,7 +22871,7 @@
       <c r="HE56" s="218"/>
       <c r="HF56" s="218"/>
     </row>
-    <row r="57" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62" t="s">
         <v>257</v>
       </c>
@@ -22963,7 +22963,7 @@
       <c r="CC57" s="111"/>
       <c r="CD57" s="111"/>
       <c r="CE57" s="111">
-        <v>-0.55000000000000004</v>
+        <v>-0.85</v>
       </c>
       <c r="CF57" s="111"/>
       <c r="CG57" s="111"/>
@@ -23133,7 +23133,7 @@
       <c r="HE57" s="218"/>
       <c r="HF57" s="218"/>
     </row>
-    <row r="58" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>549</v>
       </c>
@@ -23395,7 +23395,7 @@
       <c r="HE58" s="218"/>
       <c r="HF58" s="218"/>
     </row>
-    <row r="59" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
         <v>587</v>
       </c>
@@ -23717,7 +23717,7 @@
       <c r="HE59" s="218"/>
       <c r="HF59" s="218"/>
     </row>
-    <row r="60" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
         <v>811</v>
       </c>
@@ -24039,7 +24039,7 @@
       <c r="HE60" s="218"/>
       <c r="HF60" s="218"/>
     </row>
-    <row r="61" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="157" t="s">
         <v>733</v>
       </c>
@@ -24301,7 +24301,7 @@
       <c r="HE61" s="218"/>
       <c r="HF61" s="218"/>
     </row>
-    <row r="62" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="157" t="s">
         <v>588</v>
       </c>
@@ -24563,7 +24563,7 @@
       <c r="HE62" s="218"/>
       <c r="HF62" s="218"/>
     </row>
-    <row r="63" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="156" t="s">
         <v>522</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="63" t="s">
         <v>112</v>
       </c>
@@ -25279,7 +25279,7 @@
       <c r="HE64" s="218"/>
       <c r="HF64" s="218"/>
     </row>
-    <row r="65" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="61" t="s">
         <v>519</v>
       </c>
@@ -25767,7 +25767,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="63" t="s">
         <v>112</v>
       </c>
@@ -25999,7 +25999,7 @@
       <c r="HE66" s="218"/>
       <c r="HF66" s="218"/>
     </row>
-    <row r="67" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="61" t="s">
         <v>518</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="63" t="s">
         <v>112</v>
       </c>
@@ -26715,7 +26715,7 @@
       <c r="HE68" s="218"/>
       <c r="HF68" s="218"/>
     </row>
-    <row r="69" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="61" t="s">
         <v>523</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="63" t="s">
         <v>112</v>
       </c>
@@ -27435,7 +27435,7 @@
       <c r="HE70" s="218"/>
       <c r="HF70" s="218"/>
     </row>
-    <row r="71" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>528</v>
       </c>
@@ -27923,7 +27923,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="63" t="s">
         <v>112</v>
       </c>
@@ -28155,7 +28155,7 @@
       <c r="HE72" s="218"/>
       <c r="HF72" s="218"/>
     </row>
-    <row r="73" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="61" t="s">
         <v>529</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63" t="s">
         <v>112</v>
       </c>
@@ -28873,7 +28873,7 @@
       <c r="HE74" s="218"/>
       <c r="HF74" s="218"/>
     </row>
-    <row r="75" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="61" t="s">
         <v>525</v>
       </c>
@@ -29361,7 +29361,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="63" t="s">
         <v>112</v>
       </c>
@@ -29593,7 +29593,7 @@
       <c r="HE76" s="218"/>
       <c r="HF76" s="218"/>
     </row>
-    <row r="77" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="61" t="s">
         <v>520</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="63" t="s">
         <v>112</v>
       </c>
@@ -30309,7 +30309,7 @@
       <c r="HE78" s="218"/>
       <c r="HF78" s="218"/>
     </row>
-    <row r="79" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="61" t="s">
         <v>517</v>
       </c>
@@ -30797,7 +30797,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="63" t="s">
         <v>112</v>
       </c>
@@ -31029,7 +31029,7 @@
       <c r="HE80" s="218"/>
       <c r="HF80" s="218"/>
     </row>
-    <row r="81" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="61" t="s">
         <v>526</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63" t="s">
         <v>112</v>
       </c>
@@ -31749,7 +31749,7 @@
       <c r="HE82" s="218"/>
       <c r="HF82" s="218"/>
     </row>
-    <row r="83" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>527</v>
       </c>
@@ -32237,7 +32237,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="63" t="s">
         <v>112</v>
       </c>
@@ -32467,7 +32467,7 @@
       <c r="HE84" s="218"/>
       <c r="HF84" s="218"/>
     </row>
-    <row r="85" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="61" t="s">
         <v>521</v>
       </c>
@@ -32955,7 +32955,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="63" t="s">
         <v>112</v>
       </c>
@@ -33183,7 +33183,7 @@
       <c r="HE86" s="218"/>
       <c r="HF86" s="218"/>
     </row>
-    <row r="87" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="61" t="s">
         <v>524</v>
       </c>
@@ -33671,7 +33671,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="63" t="s">
         <v>112</v>
       </c>
@@ -33915,19 +33915,19 @@
       <selection activeCell="F48" sqref="F48:M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="28" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="28" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
     <col min="7" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -33943,7 +33943,7 @@
       <c r="M1" s="237"/>
       <c r="N1" s="237"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -33987,7 +33987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="213" t="s">
         <v>52</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="215" t="s">
         <v>644</v>
       </c>
@@ -34065,7 +34065,7 @@
       </c>
       <c r="N4" s="216"/>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="215" t="s">
         <v>766</v>
       </c>
@@ -34099,7 +34099,7 @@
       </c>
       <c r="N5" s="216"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
       <c r="B6" s="212" t="s">
         <v>2</v>
@@ -34139,7 +34139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
@@ -34183,7 +34183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -34227,7 +34227,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="76" t="s">
         <v>2</v>
@@ -34267,7 +34267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>59</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -34355,7 +34355,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="76" t="s">
         <v>2</v>
@@ -34395,7 +34395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
@@ -34483,7 +34483,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="21" t="s">
         <v>2</v>
@@ -34523,7 +34523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
@@ -34565,7 +34565,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
@@ -34607,7 +34607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="76" t="s">
         <v>2</v>
@@ -34649,7 +34649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
@@ -34687,7 +34687,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>53</v>
       </c>
@@ -34725,7 +34725,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="74"/>
       <c r="B21" s="76" t="s">
         <v>2</v>
@@ -34767,7 +34767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>59</v>
       </c>
@@ -34805,7 +34805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
         <v>53</v>
       </c>
@@ -34843,7 +34843,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="74"/>
       <c r="B24" s="76" t="s">
         <v>2</v>
@@ -34885,7 +34885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>59</v>
       </c>
@@ -34923,7 +34923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
         <v>53</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="74"/>
       <c r="B27" s="76" t="s">
         <v>2</v>
@@ -35003,7 +35003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
         <v>59</v>
       </c>
@@ -35039,7 +35039,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>53</v>
       </c>
@@ -35075,7 +35075,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="74"/>
       <c r="B30" s="76" t="s">
         <v>2</v>
@@ -35117,7 +35117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
         <v>59</v>
       </c>
@@ -35153,7 +35153,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="71" t="s">
         <v>53</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="74"/>
       <c r="B33" s="76" t="s">
         <v>2</v>
@@ -35231,7 +35231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>59</v>
       </c>
@@ -35267,7 +35267,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
         <v>53</v>
       </c>
@@ -35303,7 +35303,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="74"/>
       <c r="B36" s="76" t="s">
         <v>2</v>
@@ -35345,7 +35345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
         <v>59</v>
       </c>
@@ -35381,7 +35381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
         <v>53</v>
       </c>
@@ -35417,7 +35417,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="74"/>
       <c r="B39" s="76" t="s">
         <v>2</v>
@@ -35459,7 +35459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>59</v>
       </c>
@@ -35493,7 +35493,7 @@
       </c>
       <c r="N40" s="72"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>53</v>
       </c>
@@ -35527,7 +35527,7 @@
       </c>
       <c r="N41" s="72"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="74"/>
       <c r="B42" s="76" t="s">
         <v>2</v>
@@ -35569,7 +35569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
         <v>59</v>
       </c>
@@ -35603,7 +35603,7 @@
       </c>
       <c r="N43" s="72"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
         <v>53</v>
       </c>
@@ -35637,7 +35637,7 @@
       </c>
       <c r="N44" s="72"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="74"/>
       <c r="B45" s="76" t="s">
         <v>2</v>
@@ -35679,7 +35679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>59</v>
       </c>
@@ -35713,7 +35713,7 @@
       </c>
       <c r="N46" s="72"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>53</v>
       </c>
@@ -35747,7 +35747,7 @@
       </c>
       <c r="N47" s="72"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="74"/>
       <c r="B48" s="76" t="s">
         <v>2</v>
@@ -35789,7 +35789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>59</v>
       </c>
@@ -35823,7 +35823,7 @@
       </c>
       <c r="N49" s="72"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>53</v>
       </c>
@@ -35857,7 +35857,7 @@
       </c>
       <c r="N50" s="72"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="74"/>
       <c r="B51" s="76" t="s">
         <v>2</v>
@@ -35899,7 +35899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
         <v>59</v>
       </c>
@@ -35933,7 +35933,7 @@
       </c>
       <c r="N52" s="72"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
         <v>53</v>
       </c>
@@ -35967,7 +35967,7 @@
       </c>
       <c r="N53" s="72"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="74"/>
       <c r="B54" s="76" t="s">
         <v>2</v>
@@ -36009,7 +36009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
         <v>59</v>
       </c>
@@ -36043,7 +36043,7 @@
       </c>
       <c r="N55" s="72"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
         <v>53</v>
       </c>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="N56" s="72"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="74"/>
       <c r="B57" s="76" t="s">
         <v>2</v>
@@ -36119,7 +36119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>59</v>
       </c>
@@ -36153,7 +36153,7 @@
       </c>
       <c r="N58" s="72"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
         <v>53</v>
       </c>
@@ -36201,25 +36201,25 @@
       <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="28" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>74</v>
       </c>
@@ -36237,7 +36237,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -36281,7 +36281,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -36297,7 +36297,7 @@
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
@@ -36341,7 +36341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -36357,7 +36357,7 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
@@ -36401,7 +36401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>77</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>78</v>
       </c>
@@ -36533,7 +36533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>80</v>
       </c>
@@ -36621,7 +36621,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>81</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
@@ -36709,7 +36709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>545</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -36797,7 +36797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>98</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>0.78959979999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>545</v>
       </c>
@@ -36885,7 +36885,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
@@ -36929,7 +36929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>98</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>545</v>
       </c>
@@ -37017,7 +37017,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
@@ -37061,7 +37061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>98</v>
       </c>
@@ -37105,7 +37105,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>545</v>
       </c>
@@ -37149,7 +37149,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>2</v>
       </c>
@@ -37171,7 +37171,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>98</v>
       </c>
@@ -37193,7 +37193,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>547</v>
       </c>
@@ -37237,7 +37237,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
@@ -37257,7 +37257,7 @@
       </c>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>53</v>
       </c>
@@ -37290,14 +37290,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="35.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
@@ -37306,7 +37306,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="74"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -37323,14 +37323,14 @@
         <v>609</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>127</v>
       </c>
@@ -37347,7 +37347,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>184</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>128</v>
       </c>
@@ -37381,7 +37381,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>183</v>
       </c>
@@ -37398,7 +37398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>54</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>182</v>
       </c>
@@ -37432,7 +37432,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>129</v>
       </c>
@@ -37466,7 +37466,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>103</v>
       </c>
@@ -37496,18 +37496,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="37.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>144</v>
       </c>
@@ -37527,7 +37527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>140</v>
       </c>
@@ -37541,7 +37541,7 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>140</v>
       </c>
@@ -37555,7 +37555,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>140</v>
       </c>
@@ -37569,7 +37569,7 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>140</v>
       </c>
@@ -37583,7 +37583,7 @@
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>140</v>
       </c>
@@ -37597,7 +37597,7 @@
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>140</v>
       </c>
@@ -37611,7 +37611,7 @@
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>140</v>
       </c>
@@ -37625,7 +37625,7 @@
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>140</v>
       </c>
@@ -37639,7 +37639,7 @@
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>140</v>
       </c>
@@ -37653,7 +37653,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>152</v>
       </c>
@@ -37665,7 +37665,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>153</v>
       </c>
@@ -37677,7 +37677,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>154</v>
       </c>
@@ -37689,7 +37689,7 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>161</v>
       </c>
@@ -37701,7 +37701,7 @@
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>324</v>
       </c>
@@ -37721,7 +37721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>140</v>
       </c>
@@ -37735,7 +37735,7 @@
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>140</v>
       </c>
@@ -37749,7 +37749,7 @@
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>140</v>
       </c>
@@ -37763,7 +37763,7 @@
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>140</v>
       </c>
@@ -37777,7 +37777,7 @@
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>140</v>
       </c>
@@ -37791,7 +37791,7 @@
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>140</v>
       </c>
@@ -37805,7 +37805,7 @@
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>140</v>
       </c>
@@ -37819,7 +37819,7 @@
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>140</v>
       </c>
@@ -37833,7 +37833,7 @@
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>140</v>
       </c>
@@ -37847,7 +37847,7 @@
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>140</v>
       </c>
@@ -37861,7 +37861,7 @@
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>140</v>
       </c>
@@ -37875,7 +37875,7 @@
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>152</v>
       </c>
@@ -37887,7 +37887,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>153</v>
       </c>
@@ -37899,7 +37899,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>154</v>
       </c>
@@ -37911,7 +37911,7 @@
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>161</v>
       </c>
@@ -37923,7 +37923,7 @@
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>157</v>
       </c>
@@ -37943,7 +37943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>140</v>
       </c>
@@ -37957,7 +37957,7 @@
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>140</v>
       </c>
@@ -37971,7 +37971,7 @@
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>140</v>
       </c>
@@ -37985,7 +37985,7 @@
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>140</v>
       </c>
@@ -37999,7 +37999,7 @@
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>140</v>
       </c>
@@ -38013,7 +38013,7 @@
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>140</v>
       </c>
@@ -38027,7 +38027,7 @@
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>140</v>
       </c>
@@ -38041,7 +38041,7 @@
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>140</v>
       </c>
@@ -38055,7 +38055,7 @@
       <c r="E39" s="47"/>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="s">
         <v>140</v>
       </c>
@@ -38069,7 +38069,7 @@
       <c r="E40" s="47"/>
       <c r="F40" s="47"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>140</v>
       </c>
@@ -38083,7 +38083,7 @@
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>140</v>
       </c>
@@ -38097,7 +38097,7 @@
       <c r="E42" s="47"/>
       <c r="F42" s="47"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
         <v>152</v>
       </c>
@@ -38109,7 +38109,7 @@
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>153</v>
       </c>
@@ -38121,7 +38121,7 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
         <v>154</v>
       </c>
@@ -38133,7 +38133,7 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="48" t="s">
         <v>161</v>
       </c>
@@ -38145,7 +38145,7 @@
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>159</v>
       </c>
@@ -38165,7 +38165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>140</v>
       </c>
@@ -38179,7 +38179,7 @@
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>140</v>
       </c>
@@ -38193,7 +38193,7 @@
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>140</v>
       </c>
@@ -38207,7 +38207,7 @@
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>140</v>
       </c>
@@ -38221,7 +38221,7 @@
       <c r="E51" s="47"/>
       <c r="F51" s="47"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>140</v>
       </c>
@@ -38235,7 +38235,7 @@
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>140</v>
       </c>
@@ -38249,7 +38249,7 @@
       <c r="E53" s="47"/>
       <c r="F53" s="47"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>140</v>
       </c>
@@ -38263,7 +38263,7 @@
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>140</v>
       </c>
@@ -38277,7 +38277,7 @@
       <c r="E55" s="47"/>
       <c r="F55" s="47"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>140</v>
       </c>
@@ -38291,7 +38291,7 @@
       <c r="E56" s="47"/>
       <c r="F56" s="47"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
         <v>140</v>
       </c>
@@ -38305,7 +38305,7 @@
       <c r="E57" s="47"/>
       <c r="F57" s="47"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="46" t="s">
         <v>140</v>
       </c>
@@ -38319,7 +38319,7 @@
       <c r="E58" s="47"/>
       <c r="F58" s="47"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
         <v>152</v>
       </c>
@@ -38331,7 +38331,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="36" t="s">
         <v>153</v>
       </c>
@@ -38343,7 +38343,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36" t="s">
         <v>154</v>
       </c>
@@ -38355,7 +38355,7 @@
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>161</v>
       </c>
@@ -38367,7 +38367,7 @@
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>535</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
         <v>140</v>
       </c>
@@ -38401,7 +38401,7 @@
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="46" t="s">
         <v>140</v>
       </c>
@@ -38415,7 +38415,7 @@
       <c r="E65" s="47"/>
       <c r="F65" s="47"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="46" t="s">
         <v>140</v>
       </c>
@@ -38429,7 +38429,7 @@
       <c r="E66" s="47"/>
       <c r="F66" s="47"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
         <v>140</v>
       </c>
@@ -38443,7 +38443,7 @@
       <c r="E67" s="47"/>
       <c r="F67" s="47"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
         <v>140</v>
       </c>
@@ -38457,7 +38457,7 @@
       <c r="E68" s="47"/>
       <c r="F68" s="47"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="46" t="s">
         <v>140</v>
       </c>
@@ -38471,7 +38471,7 @@
       <c r="E69" s="47"/>
       <c r="F69" s="47"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="46" t="s">
         <v>140</v>
       </c>
@@ -38485,7 +38485,7 @@
       <c r="E70" s="47"/>
       <c r="F70" s="47"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>140</v>
       </c>
@@ -38499,7 +38499,7 @@
       <c r="E71" s="47"/>
       <c r="F71" s="47"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="46" t="s">
         <v>140</v>
       </c>
@@ -38513,7 +38513,7 @@
       <c r="E72" s="47"/>
       <c r="F72" s="47"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="46" t="s">
         <v>140</v>
       </c>
@@ -38527,7 +38527,7 @@
       <c r="E73" s="47"/>
       <c r="F73" s="47"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="46" t="s">
         <v>140</v>
       </c>
@@ -38541,7 +38541,7 @@
       <c r="E74" s="47"/>
       <c r="F74" s="47"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
         <v>152</v>
       </c>
@@ -38553,7 +38553,7 @@
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
         <v>153</v>
       </c>
@@ -38565,7 +38565,7 @@
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="36" t="s">
         <v>154</v>
       </c>
@@ -38577,7 +38577,7 @@
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="48" t="s">
         <v>161</v>
       </c>
@@ -38589,7 +38589,7 @@
       <c r="E78" s="43"/>
       <c r="F78" s="43"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="39" t="s">
         <v>202</v>
       </c>
@@ -38609,7 +38609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
         <v>140</v>
       </c>
@@ -38623,7 +38623,7 @@
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="44" t="s">
         <v>140</v>
       </c>
@@ -38637,7 +38637,7 @@
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>140</v>
       </c>
@@ -38651,7 +38651,7 @@
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="46" t="s">
         <v>140</v>
       </c>
@@ -38665,7 +38665,7 @@
       <c r="E83" s="47"/>
       <c r="F83" s="47"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="46" t="s">
         <v>140</v>
       </c>
@@ -38679,7 +38679,7 @@
       <c r="E84" s="47"/>
       <c r="F84" s="47"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="46" t="s">
         <v>140</v>
       </c>
@@ -38693,7 +38693,7 @@
       <c r="E85" s="47"/>
       <c r="F85" s="47"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="46" t="s">
         <v>140</v>
       </c>
@@ -38707,7 +38707,7 @@
       <c r="E86" s="47"/>
       <c r="F86" s="47"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="46" t="s">
         <v>140</v>
       </c>
@@ -38721,7 +38721,7 @@
       <c r="E87" s="47"/>
       <c r="F87" s="47"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="46" t="s">
         <v>140</v>
       </c>
@@ -38735,7 +38735,7 @@
       <c r="E88" s="47"/>
       <c r="F88" s="47"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="46" t="s">
         <v>140</v>
       </c>
@@ -38749,7 +38749,7 @@
       <c r="E89" s="47"/>
       <c r="F89" s="47"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="46" t="s">
         <v>140</v>
       </c>
@@ -38763,7 +38763,7 @@
       <c r="E90" s="47"/>
       <c r="F90" s="47"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
         <v>152</v>
       </c>
@@ -38775,7 +38775,7 @@
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="36" t="s">
         <v>153</v>
       </c>
@@ -38787,7 +38787,7 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="41" t="s">
         <v>154</v>
       </c>
@@ -38799,7 +38799,7 @@
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="48" t="s">
         <v>161</v>
       </c>
@@ -38811,7 +38811,7 @@
       <c r="E94" s="43"/>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="39" t="s">
         <v>181</v>
       </c>
@@ -38831,7 +38831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="44" t="s">
         <v>140</v>
       </c>
@@ -38845,7 +38845,7 @@
       <c r="E96" s="45"/>
       <c r="F96" s="45"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="44" t="s">
         <v>140</v>
       </c>
@@ -38859,7 +38859,7 @@
       <c r="E97" s="45"/>
       <c r="F97" s="45"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="44" t="s">
         <v>140</v>
       </c>
@@ -38873,7 +38873,7 @@
       <c r="E98" s="45"/>
       <c r="F98" s="45"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
         <v>140</v>
       </c>
@@ -38887,7 +38887,7 @@
       <c r="E99" s="45"/>
       <c r="F99" s="45"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="46" t="s">
         <v>140</v>
       </c>
@@ -38901,7 +38901,7 @@
       <c r="E100" s="47"/>
       <c r="F100" s="47"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>140</v>
       </c>
@@ -38915,7 +38915,7 @@
       <c r="E101" s="47"/>
       <c r="F101" s="47"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="46" t="s">
         <v>140</v>
       </c>
@@ -38929,7 +38929,7 @@
       <c r="E102" s="47"/>
       <c r="F102" s="47"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>140</v>
       </c>
@@ -38943,7 +38943,7 @@
       <c r="E103" s="47"/>
       <c r="F103" s="47"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="46" t="s">
         <v>140</v>
       </c>
@@ -38957,7 +38957,7 @@
       <c r="E104" s="47"/>
       <c r="F104" s="47"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>140</v>
       </c>
@@ -38971,7 +38971,7 @@
       <c r="E105" s="47"/>
       <c r="F105" s="47"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="46" t="s">
         <v>140</v>
       </c>
@@ -38985,7 +38985,7 @@
       <c r="E106" s="47"/>
       <c r="F106" s="47"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
         <v>152</v>
       </c>
@@ -38997,7 +38997,7 @@
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
         <v>153</v>
       </c>
@@ -39009,7 +39009,7 @@
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="41" t="s">
         <v>154</v>
       </c>
@@ -39021,7 +39021,7 @@
       <c r="E109" s="43"/>
       <c r="F109" s="43"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="48" t="s">
         <v>161</v>
       </c>
@@ -39033,7 +39033,7 @@
       <c r="E110" s="43"/>
       <c r="F110" s="43"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="39" t="s">
         <v>199</v>
       </c>
@@ -39053,7 +39053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
         <v>140</v>
       </c>
@@ -39067,7 +39067,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="46" t="s">
         <v>140</v>
       </c>
@@ -39081,7 +39081,7 @@
       <c r="E113" s="47"/>
       <c r="F113" s="47"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
         <v>140</v>
       </c>
@@ -39095,7 +39095,7 @@
       <c r="E114" s="47"/>
       <c r="F114" s="47"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
         <v>140</v>
       </c>
@@ -39109,7 +39109,7 @@
       <c r="E115" s="47"/>
       <c r="F115" s="47"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
         <v>140</v>
       </c>
@@ -39123,7 +39123,7 @@
       <c r="E116" s="47"/>
       <c r="F116" s="47"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="46" t="s">
         <v>140</v>
       </c>
@@ -39137,7 +39137,7 @@
       <c r="E117" s="47"/>
       <c r="F117" s="47"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
         <v>140</v>
       </c>
@@ -39151,7 +39151,7 @@
       <c r="E118" s="47"/>
       <c r="F118" s="47"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="46" t="s">
         <v>140</v>
       </c>
@@ -39165,7 +39165,7 @@
       <c r="E119" s="47"/>
       <c r="F119" s="47"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="46" t="s">
         <v>140</v>
       </c>
@@ -39179,7 +39179,7 @@
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="46" t="s">
         <v>140</v>
       </c>
@@ -39193,7 +39193,7 @@
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="46" t="s">
         <v>140</v>
       </c>
@@ -39207,7 +39207,7 @@
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="36" t="s">
         <v>152</v>
       </c>
@@ -39219,7 +39219,7 @@
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
         <v>153</v>
       </c>
@@ -39231,7 +39231,7 @@
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="41" t="s">
         <v>154</v>
       </c>
@@ -39243,7 +39243,7 @@
       <c r="E125" s="43"/>
       <c r="F125" s="43"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="48" t="s">
         <v>161</v>
       </c>
@@ -39255,7 +39255,7 @@
       <c r="E126" s="43"/>
       <c r="F126" s="43"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="34" t="s">
         <v>250</v>
       </c>
@@ -39275,7 +39275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="44" t="s">
         <v>140</v>
       </c>
@@ -39289,7 +39289,7 @@
       <c r="E128" s="45"/>
       <c r="F128" s="45"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="46" t="s">
         <v>140</v>
       </c>
@@ -39303,7 +39303,7 @@
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="46" t="s">
         <v>140</v>
       </c>
@@ -39317,7 +39317,7 @@
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="46" t="s">
         <v>140</v>
       </c>
@@ -39331,7 +39331,7 @@
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="46" t="s">
         <v>140</v>
       </c>
@@ -39345,7 +39345,7 @@
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="46" t="s">
         <v>140</v>
       </c>
@@ -39359,7 +39359,7 @@
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="46" t="s">
         <v>140</v>
       </c>
@@ -39373,7 +39373,7 @@
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="46" t="s">
         <v>140</v>
       </c>
@@ -39387,7 +39387,7 @@
       <c r="E135" s="47"/>
       <c r="F135" s="47"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>140</v>
       </c>
@@ -39401,7 +39401,7 @@
       <c r="E136" s="47"/>
       <c r="F136" s="47"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="46" t="s">
         <v>140</v>
       </c>
@@ -39415,7 +39415,7 @@
       <c r="E137" s="47"/>
       <c r="F137" s="47"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="46" t="s">
         <v>140</v>
       </c>
@@ -39429,7 +39429,7 @@
       <c r="E138" s="47"/>
       <c r="F138" s="47"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="36" t="s">
         <v>152</v>
       </c>
@@ -39441,7 +39441,7 @@
       <c r="E139" s="38"/>
       <c r="F139" s="38"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="36" t="s">
         <v>153</v>
       </c>
@@ -39453,7 +39453,7 @@
       <c r="E140" s="38"/>
       <c r="F140" s="38"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="36" t="s">
         <v>154</v>
       </c>
@@ -39465,7 +39465,7 @@
       <c r="E141" s="38"/>
       <c r="F141" s="38"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="48" t="s">
         <v>161</v>
       </c>
@@ -39477,7 +39477,7 @@
       <c r="E142" s="43"/>
       <c r="F142" s="43"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>583</v>
       </c>
@@ -39497,7 +39497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="44" t="s">
         <v>140</v>
       </c>
@@ -39511,7 +39511,7 @@
       <c r="E144" s="45"/>
       <c r="F144" s="45"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="44" t="s">
         <v>140</v>
       </c>
@@ -39525,7 +39525,7 @@
       <c r="E145" s="45"/>
       <c r="F145" s="45"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="44" t="s">
         <v>140</v>
       </c>
@@ -39539,7 +39539,7 @@
       <c r="E146" s="45"/>
       <c r="F146" s="45"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="44" t="s">
         <v>140</v>
       </c>
@@ -39553,7 +39553,7 @@
       <c r="E147" s="45"/>
       <c r="F147" s="45"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="46" t="s">
         <v>140</v>
       </c>
@@ -39567,7 +39567,7 @@
       <c r="E148" s="47"/>
       <c r="F148" s="47"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="46" t="s">
         <v>140</v>
       </c>
@@ -39581,7 +39581,7 @@
       <c r="E149" s="47"/>
       <c r="F149" s="47"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="46" t="s">
         <v>140</v>
       </c>
@@ -39595,7 +39595,7 @@
       <c r="E150" s="47"/>
       <c r="F150" s="47"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="46" t="s">
         <v>140</v>
       </c>
@@ -39609,7 +39609,7 @@
       <c r="E151" s="47"/>
       <c r="F151" s="47"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="46" t="s">
         <v>140</v>
       </c>
@@ -39623,7 +39623,7 @@
       <c r="E152" s="47"/>
       <c r="F152" s="47"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="46" t="s">
         <v>140</v>
       </c>
@@ -39637,7 +39637,7 @@
       <c r="E153" s="47"/>
       <c r="F153" s="47"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="46" t="s">
         <v>140</v>
       </c>
@@ -39651,7 +39651,7 @@
       <c r="E154" s="47"/>
       <c r="F154" s="47"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="36" t="s">
         <v>152</v>
       </c>
@@ -39663,7 +39663,7 @@
       <c r="E155" s="38"/>
       <c r="F155" s="38"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="36" t="s">
         <v>153</v>
       </c>
@@ -39675,7 +39675,7 @@
       <c r="E156" s="38"/>
       <c r="F156" s="38"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="41" t="s">
         <v>154</v>
       </c>
@@ -39687,7 +39687,7 @@
       <c r="E157" s="43"/>
       <c r="F157" s="43"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="48" t="s">
         <v>161</v>
       </c>
@@ -39699,7 +39699,7 @@
       <c r="E158" s="43"/>
       <c r="F158" s="43"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>633</v>
       </c>
@@ -39719,7 +39719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="44" t="s">
         <v>140</v>
       </c>
@@ -39733,7 +39733,7 @@
       <c r="E160" s="45"/>
       <c r="F160" s="45"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="44" t="s">
         <v>140</v>
       </c>
@@ -39747,7 +39747,7 @@
       <c r="E161" s="45"/>
       <c r="F161" s="45"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="44" t="s">
         <v>140</v>
       </c>
@@ -39761,7 +39761,7 @@
       <c r="E162" s="45"/>
       <c r="F162" s="45"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="44" t="s">
         <v>140</v>
       </c>
@@ -39775,7 +39775,7 @@
       <c r="E163" s="45"/>
       <c r="F163" s="45"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="46" t="s">
         <v>140</v>
       </c>
@@ -39789,7 +39789,7 @@
       <c r="E164" s="47"/>
       <c r="F164" s="47"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="46" t="s">
         <v>140</v>
       </c>
@@ -39803,7 +39803,7 @@
       <c r="E165" s="47"/>
       <c r="F165" s="47"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="46" t="s">
         <v>140</v>
       </c>
@@ -39817,7 +39817,7 @@
       <c r="E166" s="47"/>
       <c r="F166" s="47"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="46" t="s">
         <v>140</v>
       </c>
@@ -39831,7 +39831,7 @@
       <c r="E167" s="47"/>
       <c r="F167" s="47"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="46" t="s">
         <v>140</v>
       </c>
@@ -39845,7 +39845,7 @@
       <c r="E168" s="47"/>
       <c r="F168" s="47"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="46" t="s">
         <v>140</v>
       </c>
@@ -39859,7 +39859,7 @@
       <c r="E169" s="47"/>
       <c r="F169" s="47"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
         <v>140</v>
       </c>
@@ -39873,7 +39873,7 @@
       <c r="E170" s="47"/>
       <c r="F170" s="47"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="36" t="s">
         <v>152</v>
       </c>
@@ -39885,7 +39885,7 @@
       <c r="E171" s="38"/>
       <c r="F171" s="38"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="36" t="s">
         <v>153</v>
       </c>
@@ -39897,7 +39897,7 @@
       <c r="E172" s="38"/>
       <c r="F172" s="38"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="41" t="s">
         <v>154</v>
       </c>
@@ -39909,7 +39909,7 @@
       <c r="E173" s="43"/>
       <c r="F173" s="43"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="48" t="s">
         <v>161</v>
       </c>
@@ -39921,7 +39921,7 @@
       <c r="E174" s="43"/>
       <c r="F174" s="43"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>635</v>
       </c>
@@ -39941,7 +39941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="44" t="s">
         <v>140</v>
       </c>
@@ -39955,7 +39955,7 @@
       <c r="E176" s="45"/>
       <c r="F176" s="45"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="44" t="s">
         <v>140</v>
       </c>
@@ -39969,7 +39969,7 @@
       <c r="E177" s="45"/>
       <c r="F177" s="45"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="44" t="s">
         <v>140</v>
       </c>
@@ -39983,7 +39983,7 @@
       <c r="E178" s="45"/>
       <c r="F178" s="45"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="44" t="s">
         <v>140</v>
       </c>
@@ -39997,7 +39997,7 @@
       <c r="E179" s="45"/>
       <c r="F179" s="45"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="46" t="s">
         <v>140</v>
       </c>
@@ -40011,7 +40011,7 @@
       <c r="E180" s="47"/>
       <c r="F180" s="47"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="46" t="s">
         <v>140</v>
       </c>
@@ -40025,7 +40025,7 @@
       <c r="E181" s="47"/>
       <c r="F181" s="47"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="46" t="s">
         <v>140</v>
       </c>
@@ -40039,7 +40039,7 @@
       <c r="E182" s="47"/>
       <c r="F182" s="47"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="46" t="s">
         <v>140</v>
       </c>
@@ -40053,7 +40053,7 @@
       <c r="E183" s="47"/>
       <c r="F183" s="47"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="46" t="s">
         <v>140</v>
       </c>
@@ -40067,7 +40067,7 @@
       <c r="E184" s="47"/>
       <c r="F184" s="47"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="46" t="s">
         <v>140</v>
       </c>
@@ -40081,7 +40081,7 @@
       <c r="E185" s="47"/>
       <c r="F185" s="47"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="46" t="s">
         <v>140</v>
       </c>
@@ -40095,7 +40095,7 @@
       <c r="E186" s="47"/>
       <c r="F186" s="47"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="36" t="s">
         <v>152</v>
       </c>
@@ -40107,7 +40107,7 @@
       <c r="E187" s="38"/>
       <c r="F187" s="38"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="36" t="s">
         <v>153</v>
       </c>
@@ -40119,7 +40119,7 @@
       <c r="E188" s="38"/>
       <c r="F188" s="38"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="41" t="s">
         <v>154</v>
       </c>
@@ -40131,7 +40131,7 @@
       <c r="E189" s="43"/>
       <c r="F189" s="43"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="48" t="s">
         <v>161</v>
       </c>
@@ -40143,7 +40143,7 @@
       <c r="E190" s="43"/>
       <c r="F190" s="43"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="34" t="s">
         <v>642</v>
       </c>
@@ -40163,7 +40163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="44" t="s">
         <v>140</v>
       </c>
@@ -40177,7 +40177,7 @@
       <c r="E192" s="45"/>
       <c r="F192" s="45"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="46" t="s">
         <v>140</v>
       </c>
@@ -40191,7 +40191,7 @@
       <c r="E193" s="47"/>
       <c r="F193" s="47"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="46" t="s">
         <v>140</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="E194" s="47"/>
       <c r="F194" s="47"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="46" t="s">
         <v>140</v>
       </c>
@@ -40219,7 +40219,7 @@
       <c r="E195" s="47"/>
       <c r="F195" s="47"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="46" t="s">
         <v>140</v>
       </c>
@@ -40233,7 +40233,7 @@
       <c r="E196" s="47"/>
       <c r="F196" s="47"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="46" t="s">
         <v>140</v>
       </c>
@@ -40247,7 +40247,7 @@
       <c r="E197" s="47"/>
       <c r="F197" s="47"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="46" t="s">
         <v>140</v>
       </c>
@@ -40261,7 +40261,7 @@
       <c r="E198" s="47"/>
       <c r="F198" s="47"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="46" t="s">
         <v>140</v>
       </c>
@@ -40275,7 +40275,7 @@
       <c r="E199" s="47"/>
       <c r="F199" s="47"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="46" t="s">
         <v>140</v>
       </c>
@@ -40289,7 +40289,7 @@
       <c r="E200" s="47"/>
       <c r="F200" s="47"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="46" t="s">
         <v>140</v>
       </c>
@@ -40303,7 +40303,7 @@
       <c r="E201" s="47"/>
       <c r="F201" s="47"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="46" t="s">
         <v>140</v>
       </c>
@@ -40317,7 +40317,7 @@
       <c r="E202" s="47"/>
       <c r="F202" s="47"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="36" t="s">
         <v>152</v>
       </c>
@@ -40329,7 +40329,7 @@
       <c r="E203" s="38"/>
       <c r="F203" s="38"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="36" t="s">
         <v>153</v>
       </c>
@@ -40341,7 +40341,7 @@
       <c r="E204" s="38"/>
       <c r="F204" s="38"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="36" t="s">
         <v>154</v>
       </c>
@@ -40353,7 +40353,7 @@
       <c r="E205" s="38"/>
       <c r="F205" s="38"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="48" t="s">
         <v>161</v>
       </c>
@@ -40365,7 +40365,7 @@
       <c r="E206" s="43"/>
       <c r="F206" s="43"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="34" t="s">
         <v>643</v>
       </c>
@@ -40385,7 +40385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="44" t="s">
         <v>140</v>
       </c>
@@ -40399,7 +40399,7 @@
       <c r="E208" s="45"/>
       <c r="F208" s="45"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="46" t="s">
         <v>140</v>
       </c>
@@ -40413,7 +40413,7 @@
       <c r="E209" s="47"/>
       <c r="F209" s="47"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="46" t="s">
         <v>140</v>
       </c>
@@ -40427,7 +40427,7 @@
       <c r="E210" s="47"/>
       <c r="F210" s="47"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="46" t="s">
         <v>140</v>
       </c>
@@ -40441,7 +40441,7 @@
       <c r="E211" s="47"/>
       <c r="F211" s="47"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="46" t="s">
         <v>140</v>
       </c>
@@ -40455,7 +40455,7 @@
       <c r="E212" s="47"/>
       <c r="F212" s="47"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="46" t="s">
         <v>140</v>
       </c>
@@ -40469,7 +40469,7 @@
       <c r="E213" s="47"/>
       <c r="F213" s="47"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="46" t="s">
         <v>140</v>
       </c>
@@ -40483,7 +40483,7 @@
       <c r="E214" s="47"/>
       <c r="F214" s="47"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="46" t="s">
         <v>140</v>
       </c>
@@ -40497,7 +40497,7 @@
       <c r="E215" s="47"/>
       <c r="F215" s="47"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="46" t="s">
         <v>140</v>
       </c>
@@ -40511,7 +40511,7 @@
       <c r="E216" s="47"/>
       <c r="F216" s="47"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="46" t="s">
         <v>140</v>
       </c>
@@ -40525,7 +40525,7 @@
       <c r="E217" s="47"/>
       <c r="F217" s="47"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="46" t="s">
         <v>140</v>
       </c>
@@ -40539,7 +40539,7 @@
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="36" t="s">
         <v>152</v>
       </c>
@@ -40551,7 +40551,7 @@
       <c r="E219" s="38"/>
       <c r="F219" s="38"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="36" t="s">
         <v>153</v>
       </c>
@@ -40563,7 +40563,7 @@
       <c r="E220" s="38"/>
       <c r="F220" s="38"/>
     </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="36" t="s">
         <v>154</v>
       </c>
@@ -40575,7 +40575,7 @@
       <c r="E221" s="38"/>
       <c r="F221" s="38"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="48" t="s">
         <v>161</v>
       </c>
@@ -40601,24 +40601,24 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="116"/>
-    <col min="3" max="3" width="19.5703125" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="131" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="131" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.5703125" style="116" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="116"/>
+    <col min="1" max="2" width="9.109375" style="116"/>
+    <col min="3" max="3" width="19.5546875" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" style="131" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="131" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="131" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="131" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.5546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
         <v>333</v>
       </c>
@@ -40662,7 +40662,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
         <v>345</v>
       </c>
@@ -40706,7 +40706,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
         <v>345</v>
       </c>
@@ -40750,7 +40750,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
         <v>345</v>
       </c>
@@ -40792,7 +40792,7 @@
       </c>
       <c r="N4" s="117"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="117" t="s">
         <v>345</v>
       </c>
@@ -40836,7 +40836,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="117" t="s">
         <v>345</v>
       </c>
@@ -40880,7 +40880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
         <v>345</v>
       </c>
@@ -40924,7 +40924,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
         <v>345</v>
       </c>
@@ -40966,7 +40966,7 @@
       </c>
       <c r="N8" s="117"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
         <v>345</v>
       </c>
@@ -41010,7 +41010,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="117" t="s">
         <v>345</v>
       </c>
@@ -41054,7 +41054,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="117" t="s">
         <v>345</v>
       </c>
@@ -41096,7 +41096,7 @@
       </c>
       <c r="N11" s="117"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="117" t="s">
         <v>345</v>
       </c>
@@ -41138,7 +41138,7 @@
       </c>
       <c r="N12" s="117"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="117" t="s">
         <v>345</v>
       </c>
@@ -41180,7 +41180,7 @@
       </c>
       <c r="N13" s="117"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="117" t="s">
         <v>345</v>
       </c>
@@ -41222,7 +41222,7 @@
       </c>
       <c r="N14" s="117"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="122" t="s">
         <v>451</v>
       </c>
@@ -41266,7 +41266,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="122" t="s">
         <v>451</v>
       </c>
@@ -41308,7 +41308,7 @@
       </c>
       <c r="N16" s="122"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="122" t="s">
         <v>451</v>
       </c>
@@ -41350,7 +41350,7 @@
       </c>
       <c r="N17" s="122"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="122" t="s">
         <v>451</v>
       </c>
@@ -41392,7 +41392,7 @@
       </c>
       <c r="N18" s="122"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="122" t="s">
         <v>451</v>
       </c>
@@ -41434,7 +41434,7 @@
       </c>
       <c r="N19" s="122"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="122" t="s">
         <v>451</v>
       </c>
@@ -41476,7 +41476,7 @@
       </c>
       <c r="N20" s="122"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="122" t="s">
         <v>451</v>
       </c>
@@ -41518,7 +41518,7 @@
       </c>
       <c r="N21" s="122"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="122" t="s">
         <v>451</v>
       </c>
@@ -41560,7 +41560,7 @@
       </c>
       <c r="N22" s="122"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="122" t="s">
         <v>451</v>
       </c>
@@ -41602,7 +41602,7 @@
       </c>
       <c r="N23" s="122"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="122" t="s">
         <v>451</v>
       </c>
@@ -41644,7 +41644,7 @@
       </c>
       <c r="N24" s="122"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="122" t="s">
         <v>451</v>
       </c>
@@ -41686,7 +41686,7 @@
       </c>
       <c r="N25" s="122"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="122" t="s">
         <v>451</v>
       </c>
@@ -41728,7 +41728,7 @@
       </c>
       <c r="N26" s="122"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="122" t="s">
         <v>451</v>
       </c>
@@ -41770,7 +41770,7 @@
       </c>
       <c r="N27" s="122"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="117" t="s">
         <v>345</v>
       </c>
@@ -41794,7 +41794,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="117" t="s">
         <v>345</v>
       </c>
@@ -41816,7 +41816,7 @@
       <c r="M29" s="120"/>
       <c r="N29" s="117"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="117" t="s">
         <v>345</v>
       </c>
@@ -41838,7 +41838,7 @@
       <c r="M30" s="120"/>
       <c r="N30" s="117"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="117" t="s">
         <v>345</v>
       </c>
@@ -41860,7 +41860,7 @@
       <c r="M31" s="120"/>
       <c r="N31" s="117"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="117" t="s">
         <v>345</v>
       </c>
@@ -41882,7 +41882,7 @@
       <c r="M32" s="120"/>
       <c r="N32" s="117"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="117" t="s">
         <v>345</v>
       </c>
@@ -41904,7 +41904,7 @@
       <c r="M33" s="120"/>
       <c r="N33" s="117"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
         <v>345</v>
       </c>
@@ -41926,7 +41926,7 @@
       <c r="M34" s="120"/>
       <c r="N34" s="117"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="117" t="s">
         <v>345</v>
       </c>
@@ -41948,7 +41948,7 @@
       <c r="M35" s="120"/>
       <c r="N35" s="117"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="117" t="s">
         <v>345</v>
       </c>
@@ -41970,7 +41970,7 @@
       <c r="M36" s="120"/>
       <c r="N36" s="117"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="117" t="s">
         <v>345</v>
       </c>
@@ -41992,7 +41992,7 @@
       <c r="M37" s="120"/>
       <c r="N37" s="117"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
         <v>345</v>
       </c>
@@ -42014,7 +42014,7 @@
       <c r="M38" s="120"/>
       <c r="N38" s="117"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="117" t="s">
         <v>345</v>
       </c>
@@ -42036,7 +42036,7 @@
       <c r="M39" s="120"/>
       <c r="N39" s="117"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="117" t="s">
         <v>345</v>
       </c>
@@ -42058,7 +42058,7 @@
       <c r="M40" s="120"/>
       <c r="N40" s="117"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="122" t="s">
         <v>451</v>
       </c>
@@ -42080,7 +42080,7 @@
       <c r="M41" s="124"/>
       <c r="N41" s="122"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="122" t="s">
         <v>451</v>
       </c>
@@ -42102,7 +42102,7 @@
       <c r="M42" s="124"/>
       <c r="N42" s="122"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="122" t="s">
         <v>451</v>
       </c>
@@ -42124,7 +42124,7 @@
       <c r="M43" s="124"/>
       <c r="N43" s="122"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="122" t="s">
         <v>451</v>
       </c>
@@ -42146,7 +42146,7 @@
       <c r="M44" s="124"/>
       <c r="N44" s="122"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="122" t="s">
         <v>451</v>
       </c>
@@ -42168,7 +42168,7 @@
       <c r="M45" s="124"/>
       <c r="N45" s="122"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="122" t="s">
         <v>451</v>
       </c>
@@ -42190,7 +42190,7 @@
       <c r="M46" s="124"/>
       <c r="N46" s="122"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="122" t="s">
         <v>451</v>
       </c>
@@ -42212,7 +42212,7 @@
       <c r="M47" s="124"/>
       <c r="N47" s="122"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="122" t="s">
         <v>451</v>
       </c>
@@ -42234,7 +42234,7 @@
       <c r="M48" s="124"/>
       <c r="N48" s="122"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="122" t="s">
         <v>451</v>
       </c>
@@ -42256,7 +42256,7 @@
       <c r="M49" s="124"/>
       <c r="N49" s="122"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="122" t="s">
         <v>451</v>
       </c>
@@ -42278,7 +42278,7 @@
       <c r="M50" s="124"/>
       <c r="N50" s="122"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="122" t="s">
         <v>451</v>
       </c>
@@ -42300,7 +42300,7 @@
       <c r="M51" s="124"/>
       <c r="N51" s="122"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="122" t="s">
         <v>451</v>
       </c>
@@ -42322,7 +42322,7 @@
       <c r="M52" s="124"/>
       <c r="N52" s="122"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="122" t="s">
         <v>451</v>
       </c>
@@ -42344,7 +42344,7 @@
       <c r="M53" s="124"/>
       <c r="N53" s="122"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="117" t="s">
         <v>345</v>
       </c>
@@ -42368,7 +42368,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="117" t="s">
         <v>345</v>
       </c>
@@ -42390,7 +42390,7 @@
       <c r="M55" s="120"/>
       <c r="N55" s="117"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="117" t="s">
         <v>345</v>
       </c>
@@ -42412,7 +42412,7 @@
       <c r="M56" s="120"/>
       <c r="N56" s="117"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="117" t="s">
         <v>345</v>
       </c>
@@ -42434,7 +42434,7 @@
       <c r="M57" s="120"/>
       <c r="N57" s="117"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="117" t="s">
         <v>345</v>
       </c>
@@ -42456,7 +42456,7 @@
       <c r="M58" s="120"/>
       <c r="N58" s="117"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="117" t="s">
         <v>345</v>
       </c>
@@ -42478,7 +42478,7 @@
       <c r="M59" s="120"/>
       <c r="N59" s="117"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="117" t="s">
         <v>345</v>
       </c>
@@ -42500,7 +42500,7 @@
       <c r="M60" s="120"/>
       <c r="N60" s="117"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="117" t="s">
         <v>345</v>
       </c>
@@ -42522,7 +42522,7 @@
       <c r="M61" s="120"/>
       <c r="N61" s="117"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="117" t="s">
         <v>345</v>
       </c>
@@ -42544,7 +42544,7 @@
       <c r="M62" s="120"/>
       <c r="N62" s="117"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="117" t="s">
         <v>345</v>
       </c>
@@ -42566,7 +42566,7 @@
       <c r="M63" s="120"/>
       <c r="N63" s="117"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="117" t="s">
         <v>345</v>
       </c>
@@ -42588,7 +42588,7 @@
       <c r="M64" s="120"/>
       <c r="N64" s="117"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="117" t="s">
         <v>345</v>
       </c>
@@ -42610,7 +42610,7 @@
       <c r="M65" s="120"/>
       <c r="N65" s="117"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="117" t="s">
         <v>345</v>
       </c>
@@ -42632,7 +42632,7 @@
       <c r="M66" s="120"/>
       <c r="N66" s="117"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="122" t="s">
         <v>451</v>
       </c>
@@ -42654,7 +42654,7 @@
       <c r="M67" s="124"/>
       <c r="N67" s="122"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="122" t="s">
         <v>451</v>
       </c>
@@ -42676,7 +42676,7 @@
       <c r="M68" s="124"/>
       <c r="N68" s="122"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="122" t="s">
         <v>451</v>
       </c>
@@ -42698,7 +42698,7 @@
       <c r="M69" s="124"/>
       <c r="N69" s="122"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="122" t="s">
         <v>451</v>
       </c>
@@ -42720,7 +42720,7 @@
       <c r="M70" s="124"/>
       <c r="N70" s="122"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="122" t="s">
         <v>451</v>
       </c>
@@ -42742,7 +42742,7 @@
       <c r="M71" s="124"/>
       <c r="N71" s="122"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="122" t="s">
         <v>451</v>
       </c>
@@ -42764,7 +42764,7 @@
       <c r="M72" s="124"/>
       <c r="N72" s="122"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="122" t="s">
         <v>451</v>
       </c>
@@ -42786,7 +42786,7 @@
       <c r="M73" s="124"/>
       <c r="N73" s="122"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="122" t="s">
         <v>451</v>
       </c>
@@ -42808,7 +42808,7 @@
       <c r="M74" s="124"/>
       <c r="N74" s="122"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="122" t="s">
         <v>451</v>
       </c>
@@ -42830,7 +42830,7 @@
       <c r="M75" s="124"/>
       <c r="N75" s="122"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="122" t="s">
         <v>451</v>
       </c>
@@ -42852,7 +42852,7 @@
       <c r="M76" s="124"/>
       <c r="N76" s="122"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="122" t="s">
         <v>451</v>
       </c>
@@ -42874,7 +42874,7 @@
       <c r="M77" s="124"/>
       <c r="N77" s="122"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="122" t="s">
         <v>451</v>
       </c>
@@ -42896,7 +42896,7 @@
       <c r="M78" s="124"/>
       <c r="N78" s="122"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="122" t="s">
         <v>451</v>
       </c>
@@ -42918,7 +42918,7 @@
       <c r="M79" s="124"/>
       <c r="N79" s="122"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="117" t="s">
         <v>345</v>
       </c>
@@ -42942,7 +42942,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="117" t="s">
         <v>345</v>
       </c>
@@ -42964,7 +42964,7 @@
       <c r="M81" s="120"/>
       <c r="N81" s="117"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="117" t="s">
         <v>345</v>
       </c>
@@ -42986,7 +42986,7 @@
       <c r="M82" s="120"/>
       <c r="N82" s="117"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="117" t="s">
         <v>345</v>
       </c>
@@ -43008,7 +43008,7 @@
       <c r="M83" s="120"/>
       <c r="N83" s="117"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="117" t="s">
         <v>345</v>
       </c>
@@ -43030,7 +43030,7 @@
       <c r="M84" s="120"/>
       <c r="N84" s="117"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="117" t="s">
         <v>345</v>
       </c>
@@ -43052,7 +43052,7 @@
       <c r="M85" s="120"/>
       <c r="N85" s="117"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="117" t="s">
         <v>345</v>
       </c>
@@ -43074,7 +43074,7 @@
       <c r="M86" s="120"/>
       <c r="N86" s="117"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="117" t="s">
         <v>345</v>
       </c>
@@ -43096,7 +43096,7 @@
       <c r="M87" s="120"/>
       <c r="N87" s="117"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="117" t="s">
         <v>345</v>
       </c>
@@ -43118,7 +43118,7 @@
       <c r="M88" s="120"/>
       <c r="N88" s="117"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="117" t="s">
         <v>345</v>
       </c>
@@ -43140,7 +43140,7 @@
       <c r="M89" s="120"/>
       <c r="N89" s="117"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="117" t="s">
         <v>345</v>
       </c>
@@ -43162,7 +43162,7 @@
       <c r="M90" s="120"/>
       <c r="N90" s="117"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="117" t="s">
         <v>345</v>
       </c>
@@ -43184,7 +43184,7 @@
       <c r="M91" s="120"/>
       <c r="N91" s="117"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="117" t="s">
         <v>345</v>
       </c>
@@ -43206,7 +43206,7 @@
       <c r="M92" s="120"/>
       <c r="N92" s="117"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="122" t="s">
         <v>451</v>
       </c>
@@ -43228,7 +43228,7 @@
       <c r="M93" s="124"/>
       <c r="N93" s="122"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="122" t="s">
         <v>451</v>
       </c>
@@ -43250,7 +43250,7 @@
       <c r="M94" s="124"/>
       <c r="N94" s="122"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="122" t="s">
         <v>451</v>
       </c>
@@ -43272,7 +43272,7 @@
       <c r="M95" s="124"/>
       <c r="N95" s="122"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="122" t="s">
         <v>451</v>
       </c>
@@ -43294,7 +43294,7 @@
       <c r="M96" s="124"/>
       <c r="N96" s="122"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="122" t="s">
         <v>451</v>
       </c>
@@ -43316,7 +43316,7 @@
       <c r="M97" s="124"/>
       <c r="N97" s="122"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="122" t="s">
         <v>451</v>
       </c>
@@ -43338,7 +43338,7 @@
       <c r="M98" s="124"/>
       <c r="N98" s="122"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="122" t="s">
         <v>451</v>
       </c>
@@ -43360,7 +43360,7 @@
       <c r="M99" s="124"/>
       <c r="N99" s="122"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="122" t="s">
         <v>451</v>
       </c>
@@ -43382,7 +43382,7 @@
       <c r="M100" s="124"/>
       <c r="N100" s="122"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="122" t="s">
         <v>451</v>
       </c>
@@ -43404,7 +43404,7 @@
       <c r="M101" s="124"/>
       <c r="N101" s="122"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="122" t="s">
         <v>451</v>
       </c>
@@ -43426,7 +43426,7 @@
       <c r="M102" s="124"/>
       <c r="N102" s="122"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="122" t="s">
         <v>451</v>
       </c>
@@ -43448,7 +43448,7 @@
       <c r="M103" s="124"/>
       <c r="N103" s="122"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="122" t="s">
         <v>451</v>
       </c>
@@ -43470,7 +43470,7 @@
       <c r="M104" s="124"/>
       <c r="N104" s="122"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="122" t="s">
         <v>451</v>
       </c>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="816">
   <si>
     <t>Name</t>
   </si>
@@ -2389,9 +2389,6 @@
   </si>
   <si>
     <t>Plasma</t>
-  </si>
-  <si>
-    <t>Cellular</t>
   </si>
   <si>
     <t>Antigen</t>
@@ -5435,10 +5432,10 @@
   <dimension ref="A1:HG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EE43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="GI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="EE57" sqref="EE57"/>
+      <selection pane="bottomRight" activeCell="GU4" sqref="GU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6403,7 +6400,7 @@
         <v>165</v>
       </c>
       <c r="BZ2" s="96" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="CA2" s="257" t="s">
         <v>190</v>
@@ -7603,32 +7600,32 @@
       <c r="GJ4" s="178"/>
       <c r="GK4" s="178"/>
       <c r="GL4" s="178"/>
-      <c r="GM4" s="245" t="s">
-        <v>785</v>
+      <c r="GM4" s="249" t="s">
+        <v>23</v>
       </c>
       <c r="GN4" s="246"/>
       <c r="GO4" s="246"/>
       <c r="GP4" s="246"/>
-      <c r="GQ4" s="245" t="s">
-        <v>785</v>
+      <c r="GQ4" s="249" t="s">
+        <v>23</v>
       </c>
       <c r="GR4" s="246"/>
       <c r="GS4" s="246"/>
       <c r="GT4" s="246"/>
-      <c r="GU4" s="245" t="s">
-        <v>785</v>
+      <c r="GU4" s="249" t="s">
+        <v>23</v>
       </c>
       <c r="GV4" s="246"/>
       <c r="GW4" s="246"/>
       <c r="GX4" s="246"/>
-      <c r="GY4" s="245" t="s">
-        <v>785</v>
+      <c r="GY4" s="249" t="s">
+        <v>23</v>
       </c>
       <c r="GZ4" s="246"/>
       <c r="HA4" s="246"/>
       <c r="HB4" s="246"/>
-      <c r="HC4" s="245" t="s">
-        <v>785</v>
+      <c r="HC4" s="249" t="s">
+        <v>23</v>
       </c>
       <c r="HD4" s="221"/>
       <c r="HE4" s="221"/>
@@ -7991,7 +7988,7 @@
       <c r="BX6" s="167"/>
       <c r="BY6" s="252"/>
       <c r="BZ6" s="107" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="CA6" s="258" t="s">
         <v>124</v>
@@ -8124,19 +8121,19 @@
       <c r="GS6" s="246"/>
       <c r="GT6" s="246"/>
       <c r="GU6" s="249" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="GV6" s="246"/>
       <c r="GW6" s="246"/>
       <c r="GX6" s="246"/>
       <c r="GY6" s="249" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="GZ6" s="246"/>
       <c r="HA6" s="246"/>
       <c r="HB6" s="246"/>
       <c r="HC6" s="249" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="HD6" s="221"/>
       <c r="HE6" s="221"/>
@@ -8935,7 +8932,7 @@
       <c r="BX10" s="167"/>
       <c r="BY10" s="252"/>
       <c r="BZ10" s="107" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="CA10" s="258" t="s">
         <v>320</v>
@@ -9112,31 +9109,31 @@
       <c r="GK10" s="178"/>
       <c r="GL10" s="178"/>
       <c r="GM10" s="245" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="GN10" s="246"/>
       <c r="GO10" s="246"/>
       <c r="GP10" s="246"/>
       <c r="GQ10" s="245" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="GR10" s="246"/>
       <c r="GS10" s="246"/>
       <c r="GT10" s="246"/>
       <c r="GU10" s="245" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="GV10" s="246"/>
       <c r="GW10" s="246"/>
       <c r="GX10" s="246"/>
       <c r="GY10" s="245" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="GZ10" s="246"/>
       <c r="HA10" s="246"/>
       <c r="HB10" s="246"/>
       <c r="HC10" s="245" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="HD10" s="221"/>
       <c r="HE10" s="221"/>
@@ -9610,7 +9607,7 @@
     </row>
     <row r="13" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -9806,13 +9803,13 @@
       <c r="GK13" s="177"/>
       <c r="GL13" s="177"/>
       <c r="GM13" s="245" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="GN13" s="245"/>
       <c r="GO13" s="245"/>
       <c r="GP13" s="245"/>
       <c r="GQ13" s="245" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="GR13" s="245"/>
       <c r="GS13" s="245"/>
@@ -12409,7 +12406,7 @@
       <c r="BX22" s="167"/>
       <c r="BY22" s="252"/>
       <c r="BZ22" s="107" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="CA22" s="258" t="s">
         <v>537</v>
@@ -13469,7 +13466,7 @@
       <c r="BX25" s="167"/>
       <c r="BY25" s="252"/>
       <c r="BZ25" s="107" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="CA25" s="258" t="str">
         <f>CA22</f>
@@ -15298,7 +15295,7 @@
     </row>
     <row r="31" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B31" s="222"/>
       <c r="C31" s="223" t="s">
@@ -15788,7 +15785,7 @@
     </row>
     <row r="32" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -15984,31 +15981,31 @@
       <c r="GK32" s="177"/>
       <c r="GL32" s="177"/>
       <c r="GM32" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GN32" s="245"/>
       <c r="GO32" s="245"/>
       <c r="GP32" s="245"/>
       <c r="GQ32" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GR32" s="245"/>
       <c r="GS32" s="245"/>
       <c r="GT32" s="245"/>
       <c r="GU32" s="245" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="GV32" s="245"/>
       <c r="GW32" s="245"/>
       <c r="GX32" s="245"/>
       <c r="GY32" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GZ32" s="245"/>
       <c r="HA32" s="245"/>
       <c r="HB32" s="245"/>
       <c r="HC32" s="245" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="HD32" s="220"/>
       <c r="HE32" s="220"/>
@@ -16016,7 +16013,7 @@
     </row>
     <row r="33" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -16212,31 +16209,31 @@
       <c r="GK33" s="177"/>
       <c r="GL33" s="177"/>
       <c r="GM33" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GN33" s="245"/>
       <c r="GO33" s="245"/>
       <c r="GP33" s="245"/>
       <c r="GQ33" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GR33" s="245"/>
       <c r="GS33" s="245"/>
       <c r="GT33" s="245"/>
       <c r="GU33" s="245" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="GV33" s="245"/>
       <c r="GW33" s="245"/>
       <c r="GX33" s="245"/>
       <c r="GY33" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="GZ33" s="245"/>
       <c r="HA33" s="245"/>
       <c r="HB33" s="245"/>
       <c r="HC33" s="245" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="HD33" s="220"/>
       <c r="HE33" s="220"/>
@@ -20014,7 +20011,7 @@
       <c r="BX46" s="167"/>
       <c r="BY46" s="252"/>
       <c r="BZ46" s="111" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="CA46" s="208" t="s">
         <v>321</v>
@@ -20463,7 +20460,7 @@
     </row>
     <row r="48" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="110"/>
@@ -23719,7 +23716,7 @@
     </row>
     <row r="60" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B60" s="110"/>
       <c r="C60" s="110"/>
@@ -33995,7 +33992,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="214" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D3" s="189" t="s">
         <v>623</v>
@@ -34074,28 +34071,28 @@
       <c r="D5" s="216"/>
       <c r="E5" s="216"/>
       <c r="F5" s="248" t="s">
+        <v>800</v>
+      </c>
+      <c r="G5" s="248" t="s">
         <v>801</v>
       </c>
-      <c r="G5" s="248" t="s">
-        <v>802</v>
-      </c>
       <c r="H5" s="248" t="s">
+        <v>800</v>
+      </c>
+      <c r="I5" s="248" t="s">
         <v>801</v>
       </c>
-      <c r="I5" s="248" t="s">
-        <v>802</v>
-      </c>
       <c r="J5" s="248" t="s">
+        <v>800</v>
+      </c>
+      <c r="K5" s="248" t="s">
         <v>801</v>
       </c>
-      <c r="K5" s="248" t="s">
-        <v>802</v>
-      </c>
       <c r="L5" s="248" t="s">
+        <v>800</v>
+      </c>
+      <c r="M5" s="248" t="s">
         <v>801</v>
-      </c>
-      <c r="M5" s="248" t="s">
-        <v>802</v>
       </c>
       <c r="N5" s="216"/>
     </row>
@@ -35832,16 +35829,16 @@
       <c r="D50" s="72"/>
       <c r="E50" s="72"/>
       <c r="F50" s="72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H50" s="72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I50" s="72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J50" s="72" t="s">
         <v>771</v>
@@ -35942,10 +35939,10 @@
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
       <c r="F53" s="72" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H53" s="72" t="s">
         <v>771</v>
@@ -35954,10 +35951,10 @@
         <v>771</v>
       </c>
       <c r="J53" s="72" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K53" s="72" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L53" s="72" t="s">
         <v>771</v>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5432,10 +5432,10 @@
   <dimension ref="A1:HG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="GI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="GU4" sqref="GU4"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14782,7 +14782,7 @@
       <c r="T29" s="88"/>
       <c r="U29" s="88"/>
       <c r="V29" s="88">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W29" s="81">
         <v>0.99</v>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5435,7 +5435,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14794,7 +14794,7 @@
         <v>291</v>
       </c>
       <c r="Z29" s="84">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AA29" s="88"/>
       <c r="AB29" s="88"/>

--- a/share/data/BioGears.xlsx
+++ b/share/data/BioGears.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remotes\sed-stash\biogears\master\share\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="852" windowWidth="15096" windowHeight="7056" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="15090" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="6" r:id="rId1"/>
@@ -1898,9 +1898,6 @@
     <t>178.27 g/mol</t>
   </si>
   <si>
-    <t>0.7649 ug/mL</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/8484510</t>
   </si>
   <si>
@@ -2473,6 +2470,9 @@
   </si>
   <si>
     <t>5.17 ug/mL</t>
+  </si>
+  <si>
+    <t>1.99 ug/mL</t>
   </si>
 </sst>
 </file>
@@ -4116,40 +4116,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="137" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="137" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="137" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="137" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.109375" style="137" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="137"/>
+    <col min="5" max="5" width="14.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="137" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="137" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="137" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="137" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.140625" style="137" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="132"/>
       <c r="B1" s="266" t="s">
         <v>506</v>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="V1" s="268"/>
       <c r="W1" s="266" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X1" s="268"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>237</v>
       </c>
       <c r="S2" s="193" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="T2" s="143" t="s">
         <v>241</v>
@@ -4253,13 +4253,13 @@
         <v>498</v>
       </c>
       <c r="W2" s="142" t="s">
+        <v>710</v>
+      </c>
+      <c r="X2" s="143" t="s">
         <v>711</v>
       </c>
-      <c r="X2" s="143" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
         <v>485</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="W3" s="150"/>
       <c r="X3" s="151"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="140" t="s">
         <v>333</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
         <v>513</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="W5" s="144"/>
       <c r="X5" s="145"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>238</v>
       </c>
       <c r="S6" s="197" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T6" s="149" t="s">
         <v>489</v>
@@ -4459,7 +4459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>239</v>
       </c>
       <c r="S7" s="197" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="T7" s="149" t="s">
         <v>242</v>
@@ -4525,7 +4525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="141" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>240</v>
       </c>
       <c r="S8" s="197" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T8" s="149" t="s">
         <v>39</v>
@@ -4589,13 +4589,13 @@
         <v>502</v>
       </c>
       <c r="W8" s="148" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="X8" s="149" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
         <v>162</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="132" t="s">
         <v>514</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="W10" s="144"/>
       <c r="X10" s="145"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="141" t="s">
         <v>512</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="W11" s="148"/>
       <c r="X11" s="149"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
         <v>478</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="W12" s="148"/>
       <c r="X12" s="149"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="141" t="s">
         <v>60</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="136" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I13" s="149" t="s">
         <v>534</v>
@@ -4780,7 +4780,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="136" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M13" s="136" t="s">
         <v>22</v>
@@ -4789,7 +4789,7 @@
         <v>494</v>
       </c>
       <c r="O13" s="136" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P13" s="136" t="s">
         <v>66</v>
@@ -4819,7 +4819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="141" t="s">
         <v>474</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="141" t="s">
         <v>475</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="141" t="s">
         <v>62</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>68</v>
       </c>
       <c r="U16" s="148" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V16" s="149" t="s">
         <v>218</v>
@@ -5029,7 +5029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="152" t="s">
         <v>516</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="W17" s="144"/>
       <c r="X17" s="145"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="141" t="s">
         <v>507</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="W18" s="148"/>
       <c r="X18" s="149"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="141" t="s">
         <v>8</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="W19" s="148"/>
       <c r="X19" s="149"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="141" t="s">
         <v>483</v>
       </c>
@@ -5145,9 +5145,9 @@
       <c r="W20" s="148"/>
       <c r="X20" s="149"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="141" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" s="148"/>
       <c r="C21" s="191"/>
@@ -5167,7 +5167,7 @@
       <c r="Q21" s="191"/>
       <c r="R21" s="191"/>
       <c r="S21" s="198" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="T21" s="192"/>
       <c r="U21" s="148"/>
@@ -5175,9 +5175,9 @@
       <c r="W21" s="148"/>
       <c r="X21" s="192"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="141" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B22" s="148"/>
       <c r="C22" s="191"/>
@@ -5205,9 +5205,9 @@
       <c r="W22" s="148"/>
       <c r="X22" s="192"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="141" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B23" s="148"/>
       <c r="C23" s="191"/>
@@ -5237,7 +5237,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
         <v>515</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="W24" s="144"/>
       <c r="X24" s="145"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="141" t="s">
         <v>480</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="W25" s="148"/>
       <c r="X25" s="149"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="141" t="s">
         <v>481</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="W26" s="148"/>
       <c r="X26" s="149"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="141" t="s">
         <v>479</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="W27" s="148"/>
       <c r="X27" s="149"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="141" t="s">
         <v>484</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="W28" s="148"/>
       <c r="X28" s="149"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="141" t="s">
         <v>482</v>
       </c>
@@ -5422,209 +5422,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="DS33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="EI60" sqref="EI60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.33203125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.5546875" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="11.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="22.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="37" width="26.109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="15.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="16.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="14.33203125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="13.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="45" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="14.44140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="49" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="11.5546875" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.88671875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="16.6640625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="11.44140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="12.33203125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="18.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="38.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.28515625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.5703125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="11.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="22.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="37" width="26.140625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="15.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="14.28515625" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="13.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="45" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="14.42578125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="49" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="11.5703125" style="97" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.85546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.7109375" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="11.42578125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="12.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="18.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="24" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.33203125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="68" width="18.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="18.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="13.88671875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="73" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="11.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="77" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="21.44140625" style="265" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="21.44140625" style="97" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="21.5546875" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="83" max="83" width="14.109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="86" width="18.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="18.109375" style="98" customWidth="1" collapsed="1"/>
-    <col min="88" max="90" width="18.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="15.88671875" style="98" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="20.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="93" max="93" width="109.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="94" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="95" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="98" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="99" max="99" width="12.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="101" max="101" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="103" max="103" width="15.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="58.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="106" max="106" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="107" max="107" width="15.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="109" max="109" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="110" max="110" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="111" max="111" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="113" max="113" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="114" max="114" width="12.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="115" max="115" width="13.44140625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="117" max="117" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="118" max="118" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="119" max="119" width="15.109375" style="98" customWidth="1" collapsed="1"/>
-    <col min="120" max="120" width="14.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="121" max="121" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="122" max="122" width="20.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="123" max="123" width="24.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="20.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="125" max="125" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="126" max="126" width="27.33203125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="127" max="127" width="13.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="129" max="129" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="130" max="130" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="131" max="131" width="14.33203125" style="98" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="133" max="134" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="135" max="135" width="14.44140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="137" max="137" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="138" max="138" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="139" max="139" width="21.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="141" max="141" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="142" max="142" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="143" max="143" width="23.6640625" style="98" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="15.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="145" max="145" width="15.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="146" max="146" width="30.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="147" max="147" width="15.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="149" max="149" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="150" max="150" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="151" max="151" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="153" max="153" width="27.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="154" max="154" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="155" max="155" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
-    <col min="156" max="158" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="159" max="159" width="15.5546875" style="98" customWidth="1" collapsed="1"/>
-    <col min="160" max="162" width="15.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="163" max="163" width="17.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="165" max="165" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="166" max="166" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="167" max="167" width="8.5546875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="169" max="169" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="170" max="170" width="11.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="171" max="171" width="11.88671875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="173" max="173" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="174" max="174" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="175" max="175" width="15.6640625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="177" max="177" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="178" max="178" width="11.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="179" max="179" width="19.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="181" max="181" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="182" max="182" width="19.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="183" max="183" width="22.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="15.88671875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="185" max="185" width="16.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="186" max="186" width="22.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="187" max="187" width="26.109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="18.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="18.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="13.85546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="73" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="11.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="77" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="21.42578125" style="265" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="21.42578125" style="97" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="21.5703125" style="97" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="83" max="83" width="14.140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="86" width="18.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="18.140625" style="98" customWidth="1" collapsed="1"/>
+    <col min="88" max="90" width="18.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="15.85546875" style="98" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="20.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="109.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="95" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="99" width="12.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="103" max="103" width="15.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="58.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="106" max="106" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="107" max="107" width="15.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="109" max="109" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="110" max="110" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="111" max="111" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="12.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="115" max="115" width="13.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="117" max="117" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="118" max="118" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="119" max="119" width="15.140625" style="98" customWidth="1" collapsed="1"/>
+    <col min="120" max="120" width="14.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="20.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="24.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="20.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="27.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="127" max="127" width="13.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="129" max="129" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="130" max="130" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="131" max="131" width="14.28515625" style="98" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="133" max="134" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="135" max="135" width="14.42578125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="137" max="137" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="138" max="138" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="139" max="139" width="21.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="141" max="141" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="142" max="142" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="143" max="143" width="23.7109375" style="98" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="15.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="15.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="30.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="147" max="147" width="15.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="149" max="149" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="150" max="150" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="151" max="151" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="153" width="27.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="154" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="155" max="155" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
+    <col min="156" max="158" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="159" max="159" width="15.5703125" style="98" customWidth="1" collapsed="1"/>
+    <col min="160" max="162" width="15.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="163" width="17.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="165" max="165" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="166" max="166" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="167" max="167" width="8.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="169" max="169" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="170" max="170" width="11.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="171" max="171" width="11.85546875" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="173" max="173" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="174" max="174" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="175" max="175" width="15.7109375" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="177" max="177" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="178" max="178" width="11.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="179" max="179" width="19.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="180" max="180" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="181" max="181" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="182" max="182" width="19.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="183" max="183" width="22.5703125" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="15.85546875" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="185" max="185" width="16.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="186" max="186" width="22.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="187" max="187" width="26.140625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="188" max="190" width="23" style="98" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="191" max="191" width="20.5546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="191" max="191" width="20.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="192" max="192" width="18" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="193" max="193" width="22.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="194" max="194" width="32.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="195" max="195" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="197" max="197" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="198" max="198" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="199" max="199" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="201" max="201" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="202" max="202" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="203" max="203" width="14.88671875" style="28" customWidth="1" collapsed="1"/>
-    <col min="204" max="204" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="205" max="205" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="206" max="206" width="11.44140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="207" max="207" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="209" max="209" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="210" max="210" width="13.109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="211" max="211" width="27.6640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="212" max="212" width="15.88671875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="213" max="213" width="16.6640625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="214" max="214" width="15.109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="215" max="215" width="9.109375" style="28" collapsed="1"/>
-    <col min="216" max="16384" width="9.109375" style="28"/>
+    <col min="193" max="193" width="22.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="194" max="194" width="32.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="195" max="195" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="197" max="197" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="198" max="198" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="199" max="199" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="201" max="201" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="202" max="202" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="203" max="203" width="14.85546875" style="28" customWidth="1" collapsed="1"/>
+    <col min="204" max="204" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="205" max="205" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="206" max="206" width="11.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="207" max="207" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="209" max="209" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="210" max="210" width="13.140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="211" max="211" width="27.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="212" max="212" width="15.85546875" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="213" max="213" width="16.7109375" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="214" max="214" width="15.140625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="215" max="215" width="9.140625" style="28" collapsed="1"/>
+    <col min="216" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57"/>
       <c r="B1" s="52"/>
       <c r="C1" s="95" t="s">
@@ -6158,7 +6158,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>165</v>
       </c>
       <c r="BZ2" s="96" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="CA2" s="257" t="s">
         <v>190</v>
@@ -6418,16 +6418,16 @@
         <v>50</v>
       </c>
       <c r="CI2" s="96" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CJ2" s="96" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CK2" s="96" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CL2" s="96" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CM2" s="96" t="s">
         <v>51</v>
@@ -6490,16 +6490,16 @@
         <v>47</v>
       </c>
       <c r="DG2" s="96" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DH2" s="96" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DI2" s="96" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DJ2" s="96" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DK2" s="96" t="s">
         <v>48</v>
@@ -6514,28 +6514,28 @@
         <v>48</v>
       </c>
       <c r="DO2" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="DP2" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="DQ2" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="DR2" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="DS2" s="96" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="DT2" s="96" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="DU2" s="96" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="DV2" s="96" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="DW2" s="96" t="s">
         <v>192</v>
@@ -6610,40 +6610,40 @@
         <v>49</v>
       </c>
       <c r="EU2" s="96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="EV2" s="96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="EW2" s="96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="EX2" s="96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="EY2" s="96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="EZ2" s="96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="FA2" s="96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="FB2" s="96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="FC2" s="96" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="FD2" s="96" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="FE2" s="96" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="FF2" s="96" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="FG2" s="96" t="s">
         <v>111</v>
@@ -6742,67 +6742,67 @@
         <v>579</v>
       </c>
       <c r="GM2" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="GN2" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="GO2" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="GP2" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="GQ2" s="101" t="s">
+        <v>771</v>
+      </c>
+      <c r="GR2" s="101" t="s">
+        <v>771</v>
+      </c>
+      <c r="GS2" s="101" t="s">
+        <v>771</v>
+      </c>
+      <c r="GT2" s="101" t="s">
+        <v>771</v>
+      </c>
+      <c r="GU2" s="101" t="s">
+        <v>774</v>
+      </c>
+      <c r="GV2" s="101" t="s">
+        <v>774</v>
+      </c>
+      <c r="GW2" s="101" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX2" s="101" t="s">
+        <v>774</v>
+      </c>
+      <c r="GY2" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="GZ2" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="HA2" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="HB2" s="101" t="s">
+        <v>767</v>
+      </c>
+      <c r="HC2" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="GR2" s="101" t="s">
+      <c r="HD2" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="GS2" s="101" t="s">
+      <c r="HE2" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="GT2" s="101" t="s">
+      <c r="HF2" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="GU2" s="101" t="s">
-        <v>775</v>
-      </c>
-      <c r="GV2" s="101" t="s">
-        <v>775</v>
-      </c>
-      <c r="GW2" s="101" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX2" s="101" t="s">
-        <v>775</v>
-      </c>
-      <c r="GY2" s="101" t="s">
-        <v>768</v>
-      </c>
-      <c r="GZ2" s="101" t="s">
-        <v>768</v>
-      </c>
-      <c r="HA2" s="101" t="s">
-        <v>768</v>
-      </c>
-      <c r="HB2" s="101" t="s">
-        <v>768</v>
-      </c>
-      <c r="HC2" s="101" t="s">
-        <v>773</v>
-      </c>
-      <c r="HD2" s="101" t="s">
-        <v>773</v>
-      </c>
-      <c r="HE2" s="101" t="s">
-        <v>773</v>
-      </c>
-      <c r="HF2" s="101" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:214" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:214" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>269</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
@@ -7622,9 +7622,9 @@
       <c r="HE4" s="221"/>
       <c r="HF4" s="221"/>
     </row>
-    <row r="5" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
@@ -7647,25 +7647,25 @@
       <c r="T5" s="88"/>
       <c r="U5" s="88"/>
       <c r="V5" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W5" s="88"/>
       <c r="X5" s="88"/>
       <c r="Y5" s="88"/>
       <c r="Z5" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA5" s="88"/>
       <c r="AB5" s="88"/>
       <c r="AC5" s="88"/>
       <c r="AD5" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE5" s="88"/>
       <c r="AF5" s="88"/>
       <c r="AG5" s="88"/>
       <c r="AH5" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI5" s="88"/>
       <c r="AJ5" s="88"/>
@@ -7716,19 +7716,19 @@
       <c r="CC5" s="107"/>
       <c r="CD5" s="107"/>
       <c r="CE5" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="CF5" s="107"/>
       <c r="CG5" s="107"/>
       <c r="CH5" s="107"/>
       <c r="CI5" s="107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CJ5" s="107"/>
       <c r="CK5" s="107"/>
       <c r="CL5" s="107"/>
       <c r="CM5" s="107" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="CN5" s="107"/>
       <c r="CO5" s="107"/>
@@ -7738,31 +7738,31 @@
       <c r="CS5" s="107"/>
       <c r="CT5" s="107"/>
       <c r="CU5" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="CV5" s="107"/>
       <c r="CW5" s="107"/>
       <c r="CX5" s="107"/>
       <c r="CY5" s="107" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="CZ5" s="107"/>
       <c r="DA5" s="107"/>
       <c r="DB5" s="107"/>
       <c r="DC5" s="107" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="DD5" s="107"/>
       <c r="DE5" s="107"/>
       <c r="DF5" s="107"/>
       <c r="DG5" s="107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DH5" s="107"/>
       <c r="DI5" s="107"/>
       <c r="DJ5" s="107"/>
       <c r="DK5" s="107" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="DL5" s="107"/>
       <c r="DM5" s="107"/>
@@ -7772,13 +7772,13 @@
       <c r="DQ5" s="107"/>
       <c r="DR5" s="107"/>
       <c r="DS5" s="107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="DT5" s="107"/>
       <c r="DU5" s="107"/>
       <c r="DV5" s="107"/>
       <c r="DW5" s="107" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="DX5" s="107"/>
       <c r="DY5" s="107"/>
@@ -7788,13 +7788,13 @@
       <c r="EC5" s="107"/>
       <c r="ED5" s="107"/>
       <c r="EE5" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="EF5" s="107"/>
       <c r="EG5" s="107"/>
       <c r="EH5" s="107"/>
       <c r="EI5" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="EJ5" s="107"/>
       <c r="EK5" s="107"/>
@@ -7804,13 +7804,13 @@
       <c r="EO5" s="107"/>
       <c r="EP5" s="107"/>
       <c r="EQ5" s="107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="ER5" s="107"/>
       <c r="ES5" s="107"/>
       <c r="ET5" s="107"/>
       <c r="EU5" s="107" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="EV5" s="107"/>
       <c r="EW5" s="107"/>
@@ -7856,37 +7856,37 @@
       <c r="GK5" s="178"/>
       <c r="GL5" s="178"/>
       <c r="GM5" s="245" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="GN5" s="246"/>
       <c r="GO5" s="246"/>
       <c r="GP5" s="246"/>
       <c r="GQ5" s="245" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="GR5" s="246"/>
       <c r="GS5" s="246"/>
       <c r="GT5" s="246"/>
       <c r="GU5" s="245" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="GV5" s="246"/>
       <c r="GW5" s="246"/>
       <c r="GX5" s="246"/>
       <c r="GY5" s="245" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="GZ5" s="246"/>
       <c r="HA5" s="246"/>
       <c r="HB5" s="246"/>
       <c r="HC5" s="245" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="HD5" s="221"/>
       <c r="HE5" s="221"/>
       <c r="HF5" s="221"/>
     </row>
-    <row r="6" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>10</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="BX6" s="167"/>
       <c r="BY6" s="252"/>
       <c r="BZ6" s="107" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="CA6" s="258" t="s">
         <v>124</v>
@@ -8112,25 +8112,25 @@
       <c r="GS6" s="246"/>
       <c r="GT6" s="246"/>
       <c r="GU6" s="249" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="GV6" s="246"/>
       <c r="GW6" s="246"/>
       <c r="GX6" s="246"/>
       <c r="GY6" s="249" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="GZ6" s="246"/>
       <c r="HA6" s="246"/>
       <c r="HB6" s="246"/>
       <c r="HC6" s="249" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="HD6" s="221"/>
       <c r="HE6" s="221"/>
       <c r="HF6" s="221"/>
     </row>
-    <row r="7" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>468</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="HE7" s="221"/>
       <c r="HF7" s="221"/>
     </row>
-    <row r="8" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>469</v>
       </c>
@@ -8578,9 +8578,9 @@
       <c r="HE8" s="221"/>
       <c r="HF8" s="221"/>
     </row>
-    <row r="9" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B9" s="102"/>
       <c r="C9" s="102"/>
@@ -8603,25 +8603,25 @@
       <c r="T9" s="88"/>
       <c r="U9" s="88"/>
       <c r="V9" s="88" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W9" s="88"/>
       <c r="X9" s="88"/>
       <c r="Y9" s="88"/>
       <c r="Z9" s="85" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA9" s="88"/>
       <c r="AB9" s="88"/>
       <c r="AC9" s="88"/>
       <c r="AD9" s="85" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AE9" s="88"/>
       <c r="AF9" s="88"/>
       <c r="AG9" s="88"/>
       <c r="AH9" s="88" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI9" s="88"/>
       <c r="AJ9" s="88"/>
@@ -8804,7 +8804,7 @@
       <c r="HE9" s="221"/>
       <c r="HF9" s="221"/>
     </row>
-    <row r="10" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>43</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="AB10" s="88"/>
       <c r="AC10" s="88"/>
       <c r="AD10" s="88" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AE10" s="88"/>
       <c r="AF10" s="88"/>
@@ -8923,7 +8923,7 @@
       <c r="BX10" s="167"/>
       <c r="BY10" s="252"/>
       <c r="BZ10" s="107" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="CA10" s="258" t="s">
         <v>320</v>
@@ -8938,13 +8938,13 @@
       <c r="CG10" s="107"/>
       <c r="CH10" s="107"/>
       <c r="CI10" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CJ10" s="107"/>
       <c r="CK10" s="107"/>
       <c r="CL10" s="107"/>
       <c r="CM10" s="107" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="CN10" s="107"/>
       <c r="CO10" s="107"/>
@@ -8974,7 +8974,7 @@
       <c r="DE10" s="107"/>
       <c r="DF10" s="107"/>
       <c r="DG10" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="DH10" s="107"/>
       <c r="DI10" s="107"/>
@@ -8986,17 +8986,17 @@
       <c r="DM10" s="107"/>
       <c r="DN10" s="107"/>
       <c r="DO10" s="107" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="DP10" s="107"/>
       <c r="DQ10" s="107"/>
       <c r="DR10" s="107"/>
       <c r="DS10" s="107" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="DT10" s="107"/>
       <c r="DU10" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV10" s="107"/>
       <c r="DW10" s="107" t="s">
@@ -9036,21 +9036,21 @@
       <c r="ES10" s="107"/>
       <c r="ET10" s="107"/>
       <c r="EU10" s="107" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EV10" s="107"/>
       <c r="EW10" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX10" s="107"/>
       <c r="EY10" s="107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="EZ10" s="107"/>
       <c r="FA10" s="107"/>
       <c r="FB10" s="107"/>
       <c r="FC10" s="107" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="FD10" s="107"/>
       <c r="FE10" s="107"/>
@@ -9100,37 +9100,37 @@
       <c r="GK10" s="178"/>
       <c r="GL10" s="178"/>
       <c r="GM10" s="245" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="GN10" s="246"/>
       <c r="GO10" s="246"/>
       <c r="GP10" s="246"/>
       <c r="GQ10" s="245" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="GR10" s="246"/>
       <c r="GS10" s="246"/>
       <c r="GT10" s="246"/>
       <c r="GU10" s="245" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="GV10" s="246"/>
       <c r="GW10" s="246"/>
       <c r="GX10" s="246"/>
       <c r="GY10" s="245" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="GZ10" s="246"/>
       <c r="HA10" s="246"/>
       <c r="HB10" s="246"/>
       <c r="HC10" s="245" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="HD10" s="221"/>
       <c r="HE10" s="221"/>
       <c r="HF10" s="221"/>
     </row>
-    <row r="11" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>73</v>
       </c>
@@ -9360,7 +9360,7 @@
       <c r="HE11" s="221"/>
       <c r="HF11" s="221"/>
     </row>
-    <row r="12" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>72</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="HE12" s="221"/>
       <c r="HF12" s="221"/>
     </row>
-    <row r="13" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
         <v>265</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>582</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="HE14" s="220"/>
       <c r="HF14" s="220"/>
     </row>
-    <row r="15" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>569</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="HE15" s="220"/>
       <c r="HF15" s="220"/>
     </row>
-    <row r="16" spans="1:214" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:214" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>539</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="EK16" s="111"/>
       <c r="EL16" s="111"/>
       <c r="EM16" s="183" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="EN16" s="111"/>
       <c r="EO16" s="111"/>
@@ -10758,7 +10758,7 @@
       <c r="HE16" s="220"/>
       <c r="HF16" s="220"/>
     </row>
-    <row r="17" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>266</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>93</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="HE18" s="219"/>
       <c r="HF18" s="219"/>
     </row>
-    <row r="19" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
         <v>89</v>
       </c>
@@ -11692,10 +11692,10 @@
       </c>
       <c r="DT19" s="107"/>
       <c r="DU19" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV19" s="107" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="DW19" s="107">
         <v>1</v>
@@ -11738,10 +11738,10 @@
       </c>
       <c r="EV19" s="107"/>
       <c r="EW19" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX19" s="107" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="EY19" s="107">
         <v>0.97</v>
@@ -11810,7 +11810,7 @@
       <c r="HE19" s="219"/>
       <c r="HF19" s="219"/>
     </row>
-    <row r="20" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
         <v>91</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="CK20" s="107"/>
       <c r="CL20" s="107"/>
       <c r="CM20" s="107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="CN20" s="107"/>
       <c r="CO20" s="107"/>
@@ -11934,31 +11934,31 @@
       <c r="CS20" s="107"/>
       <c r="CT20" s="107"/>
       <c r="CU20" s="107" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="CV20" s="107"/>
       <c r="CW20" s="107"/>
       <c r="CX20" s="107"/>
       <c r="CY20" s="107" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="CZ20" s="107"/>
       <c r="DA20" s="107"/>
       <c r="DB20" s="107"/>
       <c r="DC20" s="107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="DD20" s="107"/>
       <c r="DE20" s="107"/>
       <c r="DF20" s="107"/>
       <c r="DG20" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="DH20" s="107"/>
       <c r="DI20" s="107"/>
       <c r="DJ20" s="107"/>
       <c r="DK20" s="107" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="DL20" s="107"/>
       <c r="DM20" s="107"/>
@@ -11988,13 +11988,13 @@
       <c r="EC20" s="107"/>
       <c r="ED20" s="107"/>
       <c r="EE20" s="107" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="EF20" s="107"/>
       <c r="EG20" s="107"/>
       <c r="EH20" s="107"/>
       <c r="EI20" s="107" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="EJ20" s="107"/>
       <c r="EK20" s="107"/>
@@ -12012,7 +12012,7 @@
       <c r="ES20" s="107"/>
       <c r="ET20" s="107"/>
       <c r="EU20" s="107" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="EV20" s="107"/>
       <c r="EW20" s="107"/>
@@ -12024,7 +12024,7 @@
       <c r="FA20" s="107"/>
       <c r="FB20" s="107"/>
       <c r="FC20" s="107" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="FD20" s="107"/>
       <c r="FE20" s="107"/>
@@ -12084,7 +12084,7 @@
       <c r="HE20" s="219"/>
       <c r="HF20" s="219"/>
     </row>
-    <row r="21" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
         <v>299</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="BX21" s="167"/>
       <c r="BY21" s="252"/>
       <c r="BZ21" s="107" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="CA21" s="258" t="s">
         <v>537</v>
@@ -12196,7 +12196,7 @@
       <c r="CK21" s="107"/>
       <c r="CL21" s="107"/>
       <c r="CM21" s="107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="CN21" s="107"/>
       <c r="CO21" s="107"/>
@@ -12214,7 +12214,7 @@
       <c r="CW21" s="107"/>
       <c r="CX21" s="107"/>
       <c r="CY21" s="107" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="CZ21" s="107"/>
       <c r="DA21" s="107"/>
@@ -12226,7 +12226,7 @@
       <c r="DE21" s="107"/>
       <c r="DF21" s="107"/>
       <c r="DG21" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DH21" s="107"/>
       <c r="DI21" s="107"/>
@@ -12244,14 +12244,14 @@
       <c r="DQ21" s="107"/>
       <c r="DR21" s="107"/>
       <c r="DS21" s="107" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DT21" s="107"/>
       <c r="DU21" s="107" t="s">
+        <v>676</v>
+      </c>
+      <c r="DV21" s="107" t="s">
         <v>677</v>
-      </c>
-      <c r="DV21" s="107" t="s">
-        <v>678</v>
       </c>
       <c r="DW21" s="107" t="s">
         <v>126</v>
@@ -12290,23 +12290,23 @@
       <c r="ES21" s="107"/>
       <c r="ET21" s="107"/>
       <c r="EU21" s="107" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="EV21" s="107"/>
       <c r="EW21" s="107" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="EX21" s="107" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="EY21" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="EZ21" s="107"/>
       <c r="FA21" s="107"/>
       <c r="FB21" s="107"/>
       <c r="FC21" s="107" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="FD21" s="107"/>
       <c r="FE21" s="107"/>
@@ -12366,7 +12366,7 @@
       <c r="HE21" s="219"/>
       <c r="HF21" s="219"/>
     </row>
-    <row r="22" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>92</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="BH22" s="167"/>
       <c r="BI22" s="167"/>
       <c r="BJ22" s="167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BK22" s="167"/>
       <c r="BL22" s="167"/>
@@ -12484,13 +12484,13 @@
       <c r="CG22" s="107"/>
       <c r="CH22" s="107"/>
       <c r="CI22" s="107" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="CJ22" s="107"/>
       <c r="CK22" s="107"/>
       <c r="CL22" s="107"/>
       <c r="CM22" s="107" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="CN22" s="107"/>
       <c r="CO22" s="107"/>
@@ -12502,7 +12502,7 @@
       <c r="CS22" s="107"/>
       <c r="CT22" s="107"/>
       <c r="CU22" s="107" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="CV22" s="107"/>
       <c r="CW22" s="107"/>
@@ -12514,40 +12514,40 @@
       <c r="DA22" s="107"/>
       <c r="DB22" s="107"/>
       <c r="DC22" s="107" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="DD22" s="107"/>
       <c r="DE22" s="107"/>
       <c r="DF22" s="107"/>
       <c r="DG22" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="DH22" s="107"/>
       <c r="DI22" s="107"/>
       <c r="DJ22" s="107"/>
       <c r="DK22" s="107" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="DL22" s="107"/>
       <c r="DM22" s="107"/>
       <c r="DN22" s="107"/>
       <c r="DO22" s="107" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="DP22" s="107"/>
       <c r="DQ22" s="107" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="DR22" s="107"/>
       <c r="DS22" s="107" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="DT22" s="107"/>
       <c r="DU22" s="107" t="s">
+        <v>676</v>
+      </c>
+      <c r="DV22" s="107" t="s">
         <v>677</v>
-      </c>
-      <c r="DV22" s="107" t="s">
-        <v>678</v>
       </c>
       <c r="DW22" s="107" t="s">
         <v>198</v>
@@ -12562,13 +12562,13 @@
       <c r="EC22" s="107"/>
       <c r="ED22" s="107"/>
       <c r="EE22" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="EF22" s="107"/>
       <c r="EG22" s="107"/>
       <c r="EH22" s="107"/>
       <c r="EI22" s="107" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="EJ22" s="107"/>
       <c r="EK22" s="107"/>
@@ -12580,29 +12580,29 @@
       <c r="EO22" s="107"/>
       <c r="EP22" s="107"/>
       <c r="EQ22" s="107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="ER22" s="107"/>
       <c r="ES22" s="107"/>
       <c r="ET22" s="107"/>
       <c r="EU22" s="107" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="EV22" s="107"/>
       <c r="EW22" s="107" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="EX22" s="107" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="EY22" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="EZ22" s="107"/>
       <c r="FA22" s="107"/>
       <c r="FB22" s="107"/>
       <c r="FC22" s="107" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="FD22" s="107"/>
       <c r="FE22" s="107"/>
@@ -12662,7 +12662,7 @@
       <c r="HE22" s="219"/>
       <c r="HF22" s="219"/>
     </row>
-    <row r="23" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
         <v>264</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>260</v>
       </c>
@@ -13235,7 +13235,7 @@
       <c r="BX24" s="167"/>
       <c r="BY24" s="252"/>
       <c r="BZ24" s="107" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="CA24" s="258" t="str">
         <f>CA21</f>
@@ -13373,14 +13373,14 @@
       <c r="DQ24" s="107"/>
       <c r="DR24" s="107"/>
       <c r="DS24" s="107" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="DT24" s="107"/>
       <c r="DU24" s="107" t="s">
+        <v>676</v>
+      </c>
+      <c r="DV24" s="107" t="s">
         <v>677</v>
-      </c>
-      <c r="DV24" s="107" t="s">
-        <v>678</v>
       </c>
       <c r="DW24" s="107" t="str">
         <f t="shared" si="0"/>
@@ -13460,23 +13460,23 @@
       <c r="ES24" s="107"/>
       <c r="ET24" s="107"/>
       <c r="EU24" s="107" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="EV24" s="107"/>
       <c r="EW24" s="107" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="EX24" s="107" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="EY24" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="EZ24" s="107"/>
       <c r="FA24" s="107"/>
       <c r="FB24" s="107"/>
       <c r="FC24" s="107" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="FD24" s="107"/>
       <c r="FE24" s="107"/>
@@ -13534,7 +13534,7 @@
       <c r="HE24" s="218"/>
       <c r="HF24" s="218"/>
     </row>
-    <row r="25" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>259</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80" t="s">
         <v>261</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="HE26" s="218"/>
       <c r="HF26" s="218"/>
     </row>
-    <row r="27" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80" t="s">
         <v>300</v>
       </c>
@@ -14524,7 +14524,7 @@
       <c r="HE27" s="219"/>
       <c r="HF27" s="219"/>
     </row>
-    <row r="28" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:214" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>262</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="HE28" s="218"/>
       <c r="HF28" s="218"/>
     </row>
-    <row r="29" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>263</v>
       </c>
@@ -15062,9 +15062,9 @@
       <c r="HE29" s="218"/>
       <c r="HF29" s="218"/>
     </row>
-    <row r="30" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B30" s="222"/>
       <c r="C30" s="223" t="s">
@@ -15552,9 +15552,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B31" s="99"/>
       <c r="C31" s="99"/>
@@ -15750,39 +15750,39 @@
       <c r="GK31" s="177"/>
       <c r="GL31" s="177"/>
       <c r="GM31" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GN31" s="245"/>
       <c r="GO31" s="245"/>
       <c r="GP31" s="245"/>
       <c r="GQ31" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GR31" s="245"/>
       <c r="GS31" s="245"/>
       <c r="GT31" s="245"/>
       <c r="GU31" s="245" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="GV31" s="245"/>
       <c r="GW31" s="245"/>
       <c r="GX31" s="245"/>
       <c r="GY31" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GZ31" s="245"/>
       <c r="HA31" s="245"/>
       <c r="HB31" s="245"/>
       <c r="HC31" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="HD31" s="220"/>
       <c r="HE31" s="220"/>
       <c r="HF31" s="220"/>
     </row>
-    <row r="32" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:214" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B32" s="99"/>
       <c r="C32" s="99"/>
@@ -15978,37 +15978,37 @@
       <c r="GK32" s="177"/>
       <c r="GL32" s="177"/>
       <c r="GM32" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GN32" s="245"/>
       <c r="GO32" s="245"/>
       <c r="GP32" s="245"/>
       <c r="GQ32" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GR32" s="245"/>
       <c r="GS32" s="245"/>
       <c r="GT32" s="245"/>
       <c r="GU32" s="245" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="GV32" s="245"/>
       <c r="GW32" s="245"/>
       <c r="GX32" s="245"/>
       <c r="GY32" s="245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GZ32" s="245"/>
       <c r="HA32" s="245"/>
       <c r="HB32" s="245"/>
       <c r="HC32" s="245" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="HD32" s="220"/>
       <c r="HE32" s="220"/>
       <c r="HF32" s="220"/>
     </row>
-    <row r="33" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
         <v>267</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>87</v>
       </c>
@@ -16628,7 +16628,7 @@
       <c r="DE34" s="107"/>
       <c r="DF34" s="107"/>
       <c r="DG34" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="DH34" s="107"/>
       <c r="DI34" s="107"/>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="DP34" s="107"/>
       <c r="DQ34" s="107" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="DR34" s="107"/>
       <c r="DS34" s="107">
@@ -16758,7 +16758,7 @@
       <c r="HE34" s="219"/>
       <c r="HF34" s="219"/>
     </row>
-    <row r="35" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>110</v>
       </c>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="DP35" s="107"/>
       <c r="DQ35" s="107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="DR35" s="107"/>
       <c r="DS35" s="107" t="s">
@@ -16954,7 +16954,7 @@
       <c r="EW35" s="107"/>
       <c r="EX35" s="107"/>
       <c r="EY35" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="EZ35" s="107"/>
       <c r="FA35" s="107"/>
@@ -17018,7 +17018,7 @@
       <c r="HE35" s="219"/>
       <c r="HF35" s="219"/>
     </row>
-    <row r="36" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>90</v>
       </c>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="DP36" s="107"/>
       <c r="DQ36" s="107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="DR36" s="107"/>
       <c r="DS36" s="107">
@@ -17278,7 +17278,7 @@
       <c r="HE36" s="219"/>
       <c r="HF36" s="219"/>
     </row>
-    <row r="37" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>89</v>
       </c>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="DP37" s="107"/>
       <c r="DQ37" s="107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="DR37" s="107"/>
       <c r="DS37" s="107">
@@ -17645,7 +17645,7 @@
       <c r="HE37" s="219"/>
       <c r="HF37" s="219"/>
     </row>
-    <row r="38" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>86</v>
       </c>
@@ -17775,7 +17775,7 @@
       <c r="DE38" s="107"/>
       <c r="DF38" s="107"/>
       <c r="DG38" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="DH38" s="107"/>
       <c r="DI38" s="107"/>
@@ -17903,7 +17903,7 @@
       <c r="HE38" s="219"/>
       <c r="HF38" s="219"/>
     </row>
-    <row r="39" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>88</v>
       </c>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="DP39" s="107"/>
       <c r="DQ39" s="107" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="DR39" s="107"/>
       <c r="DS39" s="107">
@@ -18163,9 +18163,9 @@
       <c r="HE39" s="219"/>
       <c r="HF39" s="219"/>
     </row>
-    <row r="40" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B40" s="99"/>
       <c r="C40" s="99"/>
@@ -18421,9 +18421,9 @@
       <c r="HE40" s="218"/>
       <c r="HF40" s="218"/>
     </row>
-    <row r="41" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:214" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B41" s="99"/>
       <c r="C41" s="99"/>
@@ -18679,7 +18679,7 @@
       <c r="HE41" s="218"/>
       <c r="HF41" s="218"/>
     </row>
-    <row r="42" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>268</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
         <v>251</v>
       </c>
@@ -19435,7 +19435,7 @@
       <c r="HE43" s="218"/>
       <c r="HF43" s="218"/>
     </row>
-    <row r="44" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
         <v>252</v>
       </c>
@@ -19697,7 +19697,7 @@
       <c r="HE44" s="218"/>
       <c r="HF44" s="218"/>
     </row>
-    <row r="45" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>253</v>
       </c>
@@ -19780,7 +19780,7 @@
       <c r="BX45" s="167"/>
       <c r="BY45" s="252"/>
       <c r="BZ45" s="111" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="CA45" s="208" t="s">
         <v>321</v>
@@ -19795,13 +19795,13 @@
       <c r="CG45" s="111"/>
       <c r="CH45" s="111"/>
       <c r="CI45" s="111" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="CJ45" s="111"/>
       <c r="CK45" s="111"/>
       <c r="CL45" s="111"/>
       <c r="CM45" s="111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="CN45" s="111"/>
       <c r="CO45" s="111"/>
@@ -19825,40 +19825,40 @@
       <c r="DA45" s="111"/>
       <c r="DB45" s="111"/>
       <c r="DC45" s="111" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="DD45" s="111"/>
       <c r="DE45" s="111"/>
       <c r="DF45" s="111"/>
       <c r="DG45" s="111" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="DH45" s="111"/>
       <c r="DI45" s="111"/>
       <c r="DJ45" s="111"/>
       <c r="DK45" s="111" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="DL45" s="111"/>
       <c r="DM45" s="111"/>
       <c r="DN45" s="111"/>
       <c r="DO45" s="111" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="DP45" s="111"/>
       <c r="DQ45" s="111"/>
       <c r="DR45" s="111" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="DS45" s="111" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="DT45" s="111"/>
       <c r="DU45" s="111" t="s">
+        <v>681</v>
+      </c>
+      <c r="DV45" s="111" t="s">
         <v>682</v>
-      </c>
-      <c r="DV45" s="111" t="s">
-        <v>683</v>
       </c>
       <c r="DW45" s="111" t="s">
         <v>305</v>
@@ -19873,7 +19873,7 @@
       <c r="EC45" s="111"/>
       <c r="ED45" s="111"/>
       <c r="EE45" s="111" t="s">
-        <v>621</v>
+        <v>812</v>
       </c>
       <c r="EF45" s="111"/>
       <c r="EG45" s="111"/>
@@ -19901,13 +19901,13 @@
       <c r="EW45" s="111"/>
       <c r="EX45" s="111"/>
       <c r="EY45" s="111" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="EZ45" s="111"/>
       <c r="FA45" s="111"/>
       <c r="FB45" s="111"/>
       <c r="FC45" s="111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="FD45" s="111"/>
       <c r="FE45" s="111"/>
@@ -19965,7 +19965,7 @@
       <c r="HE45" s="218"/>
       <c r="HF45" s="218"/>
     </row>
-    <row r="46" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>553</v>
       </c>
@@ -20227,9 +20227,9 @@
       <c r="HE46" s="218"/>
       <c r="HF46" s="218"/>
     </row>
-    <row r="47" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B47" s="110"/>
       <c r="C47" s="110"/>
@@ -20489,7 +20489,7 @@
       <c r="HE47" s="218"/>
       <c r="HF47" s="218"/>
     </row>
-    <row r="48" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="s">
         <v>3</v>
       </c>
@@ -20751,9 +20751,9 @@
       <c r="HE48" s="218"/>
       <c r="HF48" s="218"/>
     </row>
-    <row r="49" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="110"/>
@@ -21013,7 +21013,7 @@
       <c r="HE49" s="218"/>
       <c r="HF49" s="218"/>
     </row>
-    <row r="50" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>254</v>
       </c>
@@ -21275,7 +21275,7 @@
       <c r="HE50" s="218"/>
       <c r="HF50" s="218"/>
     </row>
-    <row r="51" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>552</v>
       </c>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="EF51" s="111"/>
       <c r="EG51" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="EH51" s="111"/>
       <c r="EI51" s="111">
@@ -21567,7 +21567,7 @@
       <c r="HE51" s="218"/>
       <c r="HF51" s="218"/>
     </row>
-    <row r="52" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
         <v>551</v>
       </c>
@@ -21851,7 +21851,7 @@
       <c r="HE52" s="218"/>
       <c r="HF52" s="218"/>
     </row>
-    <row r="53" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>4</v>
       </c>
@@ -22113,7 +22113,7 @@
       <c r="HE53" s="218"/>
       <c r="HF53" s="218"/>
     </row>
-    <row r="54" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>255</v>
       </c>
@@ -22283,7 +22283,7 @@
       <c r="EC54" s="111"/>
       <c r="ED54" s="111"/>
       <c r="EE54" s="111">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="EF54" s="111"/>
       <c r="EG54" s="111"/>
@@ -22375,7 +22375,7 @@
       <c r="HE54" s="218"/>
       <c r="HF54" s="218"/>
     </row>
-    <row r="55" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>256</v>
       </c>
@@ -22637,7 +22637,7 @@
       <c r="HE55" s="218"/>
       <c r="HF55" s="218"/>
     </row>
-    <row r="56" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
         <v>257</v>
       </c>
@@ -22807,7 +22807,7 @@
       <c r="EC56" s="111"/>
       <c r="ED56" s="111"/>
       <c r="EE56" s="111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="EF56" s="111"/>
       <c r="EG56" s="111"/>
@@ -22899,7 +22899,7 @@
       <c r="HE56" s="218"/>
       <c r="HF56" s="218"/>
     </row>
-    <row r="57" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
         <v>549</v>
       </c>
@@ -23161,7 +23161,7 @@
       <c r="HE57" s="218"/>
       <c r="HF57" s="218"/>
     </row>
-    <row r="58" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="s">
         <v>587</v>
       </c>
@@ -23483,9 +23483,9 @@
       <c r="HE58" s="218"/>
       <c r="HF58" s="218"/>
     </row>
-    <row r="59" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B59" s="110"/>
       <c r="C59" s="110"/>
@@ -23805,9 +23805,9 @@
       <c r="HE59" s="218"/>
       <c r="HF59" s="218"/>
     </row>
-    <row r="60" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="157" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B60" s="110"/>
       <c r="C60" s="110"/>
@@ -23846,7 +23846,7 @@
       <c r="AJ60" s="92"/>
       <c r="AK60" s="92"/>
       <c r="AL60" s="165" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AM60" s="162"/>
       <c r="AN60" s="162"/>
@@ -23888,112 +23888,112 @@
       <c r="BX60" s="166"/>
       <c r="BY60" s="250"/>
       <c r="BZ60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CA60" s="208" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CB60" s="111"/>
       <c r="CC60" s="111"/>
       <c r="CD60" s="111"/>
       <c r="CE60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CF60" s="111"/>
       <c r="CG60" s="111"/>
       <c r="CH60" s="111"/>
       <c r="CI60" s="111" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="CJ60" s="111"/>
       <c r="CK60" s="111"/>
       <c r="CL60" s="111"/>
       <c r="CM60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CN60" s="111"/>
       <c r="CO60" s="111"/>
       <c r="CP60" s="111"/>
       <c r="CQ60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CR60" s="111"/>
       <c r="CS60" s="111"/>
       <c r="CT60" s="111"/>
       <c r="CU60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CV60" s="111"/>
       <c r="CW60" s="111"/>
       <c r="CX60" s="111"/>
       <c r="CY60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CZ60" s="111"/>
       <c r="DA60" s="111"/>
       <c r="DB60" s="111"/>
       <c r="DC60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DD60" s="111"/>
       <c r="DE60" s="111"/>
       <c r="DF60" s="111"/>
       <c r="DG60" s="111" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DH60" s="111"/>
       <c r="DI60" s="111"/>
       <c r="DJ60" s="111"/>
       <c r="DK60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DL60" s="111"/>
       <c r="DM60" s="111"/>
       <c r="DN60" s="111"/>
       <c r="DO60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DP60" s="111"/>
       <c r="DQ60" s="111"/>
       <c r="DR60" s="111"/>
       <c r="DS60" s="111" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="DT60" s="111"/>
       <c r="DU60" s="111"/>
       <c r="DV60" s="111"/>
       <c r="DW60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="DX60" s="111"/>
       <c r="DY60" s="111"/>
       <c r="DZ60" s="111"/>
       <c r="EA60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="EB60" s="111"/>
       <c r="EC60" s="111"/>
       <c r="ED60" s="111"/>
       <c r="EE60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="EF60" s="111"/>
       <c r="EG60" s="111"/>
       <c r="EH60" s="111"/>
       <c r="EI60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="EJ60" s="111"/>
       <c r="EK60" s="111"/>
       <c r="EL60" s="111"/>
       <c r="EM60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="EN60" s="111"/>
       <c r="EO60" s="111"/>
       <c r="EP60" s="111"/>
       <c r="EQ60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="ER60" s="185"/>
       <c r="ES60" s="185"/>
@@ -24003,13 +24003,13 @@
       <c r="EW60" s="185"/>
       <c r="EX60" s="185"/>
       <c r="EY60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="EZ60" s="185"/>
       <c r="FA60" s="185"/>
       <c r="FB60" s="185"/>
       <c r="FC60" s="111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="FD60" s="185"/>
       <c r="FE60" s="185"/>
@@ -24067,7 +24067,7 @@
       <c r="HE60" s="218"/>
       <c r="HF60" s="218"/>
     </row>
-    <row r="61" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:214" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="157" t="s">
         <v>588</v>
       </c>
@@ -24159,7 +24159,7 @@
       <c r="CC61" s="111"/>
       <c r="CD61" s="111"/>
       <c r="CE61" s="111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CF61" s="111"/>
       <c r="CG61" s="111"/>
@@ -24171,7 +24171,7 @@
       <c r="CK61" s="111"/>
       <c r="CL61" s="111"/>
       <c r="CM61" s="111" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="CN61" s="111"/>
       <c r="CO61" s="111"/>
@@ -24183,13 +24183,13 @@
       <c r="CS61" s="111"/>
       <c r="CT61" s="111"/>
       <c r="CU61" s="111" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="CV61" s="111"/>
       <c r="CW61" s="111"/>
       <c r="CX61" s="111"/>
       <c r="CY61" s="111" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CZ61" s="111"/>
       <c r="DA61" s="111"/>
@@ -24207,7 +24207,7 @@
       <c r="DI61" s="111"/>
       <c r="DJ61" s="111"/>
       <c r="DK61" s="111" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="DL61" s="111"/>
       <c r="DM61" s="111"/>
@@ -24237,13 +24237,13 @@
       <c r="EC61" s="111"/>
       <c r="ED61" s="111"/>
       <c r="EE61" s="111" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="EF61" s="111"/>
       <c r="EG61" s="111"/>
       <c r="EH61" s="111"/>
       <c r="EI61" s="111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="EJ61" s="111"/>
       <c r="EK61" s="111"/>
@@ -24255,7 +24255,7 @@
       <c r="EO61" s="111"/>
       <c r="EP61" s="111"/>
       <c r="EQ61" s="111" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="ER61" s="185"/>
       <c r="ES61" s="185"/>
@@ -24265,7 +24265,7 @@
       <c r="EW61" s="185"/>
       <c r="EX61" s="185"/>
       <c r="EY61" s="209" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="EZ61" s="185"/>
       <c r="FA61" s="185"/>
@@ -24329,7 +24329,7 @@
       <c r="HE61" s="218"/>
       <c r="HF61" s="218"/>
     </row>
-    <row r="62" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="156" t="s">
         <v>522</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
         <v>112</v>
       </c>
@@ -24949,7 +24949,7 @@
       <c r="DS63" s="109"/>
       <c r="DT63" s="109"/>
       <c r="DU63" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV63" s="109"/>
       <c r="DW63" s="69"/>
@@ -24981,7 +24981,7 @@
       <c r="EU63" s="109"/>
       <c r="EV63" s="109"/>
       <c r="EW63" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX63" s="109"/>
       <c r="EY63" s="109"/>
@@ -25045,7 +25045,7 @@
       <c r="HE63" s="218"/>
       <c r="HF63" s="218"/>
     </row>
-    <row r="64" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>519</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="63" t="s">
         <v>112</v>
       </c>
@@ -25665,10 +25665,10 @@
       <c r="DS65" s="109"/>
       <c r="DT65" s="109"/>
       <c r="DU65" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV65" s="109" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="DW65" s="69"/>
       <c r="DX65" s="109"/>
@@ -25699,10 +25699,10 @@
       <c r="EU65" s="109"/>
       <c r="EV65" s="109"/>
       <c r="EW65" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX65" s="109" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="EY65" s="109"/>
       <c r="EZ65" s="109"/>
@@ -25765,7 +25765,7 @@
       <c r="HE65" s="218"/>
       <c r="HF65" s="218"/>
     </row>
-    <row r="66" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>518</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="63" t="s">
         <v>112</v>
       </c>
@@ -26385,7 +26385,7 @@
       <c r="DS67" s="109"/>
       <c r="DT67" s="109"/>
       <c r="DU67" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV67" s="109"/>
       <c r="DW67" s="69"/>
@@ -26417,7 +26417,7 @@
       <c r="EU67" s="109"/>
       <c r="EV67" s="109"/>
       <c r="EW67" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX67" s="109"/>
       <c r="EY67" s="109"/>
@@ -26481,7 +26481,7 @@
       <c r="HE67" s="218"/>
       <c r="HF67" s="218"/>
     </row>
-    <row r="68" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>523</v>
       </c>
@@ -26969,7 +26969,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="63" t="s">
         <v>112</v>
       </c>
@@ -27101,10 +27101,10 @@
       <c r="DS69" s="109"/>
       <c r="DT69" s="109"/>
       <c r="DU69" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV69" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DW69" s="69"/>
       <c r="DX69" s="109"/>
@@ -27135,10 +27135,10 @@
       <c r="EU69" s="109"/>
       <c r="EV69" s="109"/>
       <c r="EW69" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX69" s="109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EY69" s="109"/>
       <c r="EZ69" s="109"/>
@@ -27201,7 +27201,7 @@
       <c r="HE69" s="218"/>
       <c r="HF69" s="218"/>
     </row>
-    <row r="70" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="61" t="s">
         <v>528</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="63" t="s">
         <v>112</v>
       </c>
@@ -27821,10 +27821,10 @@
       <c r="DS71" s="109"/>
       <c r="DT71" s="109"/>
       <c r="DU71" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV71" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DW71" s="69"/>
       <c r="DX71" s="109"/>
@@ -27855,10 +27855,10 @@
       <c r="EU71" s="109"/>
       <c r="EV71" s="109"/>
       <c r="EW71" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX71" s="109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EY71" s="109"/>
       <c r="EZ71" s="109"/>
@@ -27921,7 +27921,7 @@
       <c r="HE71" s="218"/>
       <c r="HF71" s="218"/>
     </row>
-    <row r="72" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>529</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="63" t="s">
         <v>112</v>
       </c>
@@ -28541,7 +28541,7 @@
       <c r="DS73" s="109"/>
       <c r="DT73" s="109"/>
       <c r="DU73" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV73" s="109"/>
       <c r="DW73" s="69"/>
@@ -28573,10 +28573,10 @@
       <c r="EU73" s="109"/>
       <c r="EV73" s="109"/>
       <c r="EW73" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX73" s="109" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="EY73" s="109"/>
       <c r="EZ73" s="109"/>
@@ -28639,7 +28639,7 @@
       <c r="HE73" s="218"/>
       <c r="HF73" s="218"/>
     </row>
-    <row r="74" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>525</v>
       </c>
@@ -29127,7 +29127,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="63" t="s">
         <v>112</v>
       </c>
@@ -29259,10 +29259,10 @@
       <c r="DS75" s="109"/>
       <c r="DT75" s="109"/>
       <c r="DU75" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV75" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DW75" s="69"/>
       <c r="DX75" s="109"/>
@@ -29293,10 +29293,10 @@
       <c r="EU75" s="109"/>
       <c r="EV75" s="109"/>
       <c r="EW75" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX75" s="109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EY75" s="109"/>
       <c r="EZ75" s="109"/>
@@ -29359,7 +29359,7 @@
       <c r="HE75" s="218"/>
       <c r="HF75" s="218"/>
     </row>
-    <row r="76" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>520</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="63" t="s">
         <v>112</v>
       </c>
@@ -29979,7 +29979,7 @@
       <c r="DS77" s="109"/>
       <c r="DT77" s="109"/>
       <c r="DU77" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV77" s="109"/>
       <c r="DW77" s="69"/>
@@ -30011,7 +30011,7 @@
       <c r="EU77" s="109"/>
       <c r="EV77" s="109"/>
       <c r="EW77" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX77" s="109"/>
       <c r="EY77" s="109"/>
@@ -30075,7 +30075,7 @@
       <c r="HE77" s="218"/>
       <c r="HF77" s="218"/>
     </row>
-    <row r="78" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>517</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="63" t="s">
         <v>112</v>
       </c>
@@ -30695,10 +30695,10 @@
       <c r="DS79" s="109"/>
       <c r="DT79" s="109"/>
       <c r="DU79" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV79" s="109" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="DW79" s="69"/>
       <c r="DX79" s="109"/>
@@ -30729,10 +30729,10 @@
       <c r="EU79" s="109"/>
       <c r="EV79" s="109"/>
       <c r="EW79" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX79" s="109" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="EY79" s="109"/>
       <c r="EZ79" s="109"/>
@@ -30795,7 +30795,7 @@
       <c r="HE79" s="218"/>
       <c r="HF79" s="218"/>
     </row>
-    <row r="80" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>526</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="63" t="s">
         <v>112</v>
       </c>
@@ -31415,10 +31415,10 @@
       <c r="DS81" s="109"/>
       <c r="DT81" s="109"/>
       <c r="DU81" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV81" s="109" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="DW81" s="69"/>
       <c r="DX81" s="109"/>
@@ -31449,10 +31449,10 @@
       <c r="EU81" s="109"/>
       <c r="EV81" s="109"/>
       <c r="EW81" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX81" s="109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EY81" s="109"/>
       <c r="EZ81" s="109"/>
@@ -31515,7 +31515,7 @@
       <c r="HE81" s="218"/>
       <c r="HF81" s="218"/>
     </row>
-    <row r="82" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="61" t="s">
         <v>527</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="63" t="s">
         <v>112</v>
       </c>
@@ -32135,7 +32135,7 @@
       <c r="DS83" s="109"/>
       <c r="DT83" s="109"/>
       <c r="DU83" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV83" s="109"/>
       <c r="DW83" s="69"/>
@@ -32167,10 +32167,10 @@
       <c r="EU83" s="109"/>
       <c r="EV83" s="109"/>
       <c r="EW83" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX83" s="109" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="EY83" s="109"/>
       <c r="EZ83" s="109"/>
@@ -32233,7 +32233,7 @@
       <c r="HE83" s="218"/>
       <c r="HF83" s="218"/>
     </row>
-    <row r="84" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="61" t="s">
         <v>521</v>
       </c>
@@ -32721,7 +32721,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="63" t="s">
         <v>112</v>
       </c>
@@ -32853,7 +32853,7 @@
       <c r="DS85" s="109"/>
       <c r="DT85" s="109"/>
       <c r="DU85" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV85" s="109"/>
       <c r="DW85" s="69"/>
@@ -32885,7 +32885,7 @@
       <c r="EU85" s="109"/>
       <c r="EV85" s="109"/>
       <c r="EW85" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX85" s="109"/>
       <c r="EY85" s="109"/>
@@ -32949,7 +32949,7 @@
       <c r="HE85" s="218"/>
       <c r="HF85" s="218"/>
     </row>
-    <row r="86" spans="1:214" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:214" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="61" t="s">
         <v>524</v>
       </c>
@@ -33437,7 +33437,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:214" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="63" t="s">
         <v>112</v>
       </c>
@@ -33569,7 +33569,7 @@
       <c r="DS87" s="109"/>
       <c r="DT87" s="109"/>
       <c r="DU87" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DV87" s="109"/>
       <c r="DW87" s="69"/>
@@ -33601,10 +33601,10 @@
       <c r="EU87" s="109"/>
       <c r="EV87" s="109"/>
       <c r="EW87" s="107" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EX87" s="109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EY87" s="109"/>
       <c r="EZ87" s="109"/>
@@ -33681,19 +33681,19 @@
       <selection activeCell="F48" sqref="F48:M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="28" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="28" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
     <col min="7" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -33709,7 +33709,7 @@
       <c r="M1" s="237"/>
       <c r="N1" s="237"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="213" t="s">
         <v>52</v>
       </c>
@@ -33761,111 +33761,111 @@
         <v>55</v>
       </c>
       <c r="C3" s="214" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D3" s="189" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E3" s="214" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F3" s="214" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G3" s="214" t="s">
+        <v>776</v>
+      </c>
+      <c r="H3" s="214" t="s">
         <v>777</v>
       </c>
-      <c r="H3" s="214" t="s">
+      <c r="I3" s="214" t="s">
         <v>778</v>
       </c>
-      <c r="I3" s="214" t="s">
+      <c r="J3" s="214" t="s">
         <v>779</v>
       </c>
-      <c r="J3" s="214" t="s">
+      <c r="K3" s="214" t="s">
         <v>780</v>
       </c>
-      <c r="K3" s="214" t="s">
+      <c r="L3" s="214" t="s">
         <v>781</v>
       </c>
-      <c r="L3" s="214" t="s">
+      <c r="M3" s="214" t="s">
         <v>782</v>
       </c>
-      <c r="M3" s="214" t="s">
+      <c r="N3" s="214" t="s">
         <v>783</v>
       </c>
-      <c r="N3" s="214" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B4" s="216"/>
       <c r="C4" s="216"/>
       <c r="D4" s="216"/>
       <c r="E4" s="216"/>
       <c r="F4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M4" s="216" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N4" s="216"/>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B5" s="216"/>
       <c r="C5" s="216"/>
       <c r="D5" s="216"/>
       <c r="E5" s="216"/>
       <c r="F5" s="248" t="s">
+        <v>796</v>
+      </c>
+      <c r="G5" s="248" t="s">
         <v>797</v>
       </c>
-      <c r="G5" s="248" t="s">
-        <v>798</v>
-      </c>
       <c r="H5" s="248" t="s">
+        <v>796</v>
+      </c>
+      <c r="I5" s="248" t="s">
         <v>797</v>
       </c>
-      <c r="I5" s="248" t="s">
-        <v>798</v>
-      </c>
       <c r="J5" s="248" t="s">
+        <v>796</v>
+      </c>
+      <c r="K5" s="248" t="s">
         <v>797</v>
       </c>
-      <c r="K5" s="248" t="s">
-        <v>798</v>
-      </c>
       <c r="L5" s="248" t="s">
+        <v>796</v>
+      </c>
+      <c r="M5" s="248" t="s">
         <v>797</v>
       </c>
-      <c r="M5" s="248" t="s">
-        <v>798</v>
-      </c>
       <c r="N5" s="216"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
       <c r="B6" s="212" t="s">
         <v>2</v>
@@ -33905,7 +33905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
@@ -33919,7 +33919,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F7" s="72" t="s">
         <v>14</v>
@@ -33949,21 +33949,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F8" s="72" t="s">
         <v>56</v>
@@ -33990,10 +33990,10 @@
         <v>56</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="76" t="s">
         <